--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Vasilev\Dropbox\PhD\Noise\reading_sounds\Literature_search\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="WoS" sheetId="1" r:id="rId1"/>
     <sheet name="Scopus" sheetId="2" r:id="rId2"/>
     <sheet name="Google Scholar" sheetId="3" r:id="rId3"/>
-    <sheet name="In-text" sheetId="6" r:id="rId4"/>
-    <sheet name=" Step 2" sheetId="4" r:id="rId5"/>
-    <sheet name="Step 3 " sheetId="5" r:id="rId6"/>
-    <sheet name="Step 4" sheetId="8" r:id="rId7"/>
+    <sheet name="ProQuest Diss" sheetId="9" r:id="rId4"/>
+    <sheet name="Reviews" sheetId="10" r:id="rId5"/>
+    <sheet name="In-text" sheetId="6" r:id="rId6"/>
+    <sheet name=" Step 2" sheetId="4" r:id="rId7"/>
+    <sheet name="Step 3 " sheetId="5" r:id="rId8"/>
+    <sheet name="Step 4" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -22,10 +29,45 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Martin R. Vasilev</author>
+  </authors>
+  <commentList>
+    <comment ref="B19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin R. Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+full-text found
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author>Martin,Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="D276" authorId="0">
+    <comment ref="D276" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,13 +95,13 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B73" authorId="0">
+    <comment ref="B73" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3163" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="752">
   <si>
     <t>Search words: background noise AND reading -&gt; returned 445 records</t>
   </si>
@@ -23729,6 +23771,606 @@
       </rPr>
       <t>(1), 72-92.</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>Kasiri, F. (2015). The impact of non-lyrical Iranian traditional music on reading comprehension performance of Iranian EFL learners: The case of gender, attitude, and familiarity. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Procedia-Social and Behavioral Sciences</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>199</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 157-162.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cho, H. (2015). Is Background Music a Distraction or Facilitator?: An Investigation on the Influence of Background Music in L2 Writing.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Multimedia-Assisted Language Learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), 37-58.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Penttinen, M., Huovinen, E., &amp; Ylitalo, A. K. (2015). Reading ahead: Adult music students’ eye movements in temporally controlled performances of a children’s song. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>International Journal of Music Education</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>33</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 36-50.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Schwartzberg, E. T., &amp; Silverman, M. J. (2016). Effects of a music-based short story on short-and long-term reading comprehension of individuals with Autism Spectrum Disorder: A cluster randomized study. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The Arts in Psychotherapy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 54-61.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Schäfer, T., &amp; Fachner, J. (2015). Listening to music reduces eye movements. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Attention, Perception, &amp; Psychophysics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>77</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), 551-559.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Flaugnacco, E., Lopez, L., Terribili, C., Montico, M., Zoia, S., &amp; Schön, D. (2015). Music training increases phonological awareness and reading skills in developmental dyslexia: a randomized control trial. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PloS one</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(9), e0138715.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Khaghaninejad, M. S., Motlagh, H. S., &amp; Chamacham, R. (2016). How does Mozart’s music affect the reading comprehension of Iranian EFL Learners of both genders?. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>International Journal of Humanities and Cultural Studies (IJHCS)​ ISSN 2356-5926</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 488-499.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fonseca-Mora, M. C., Jara-Jiménez, P., &amp; Gómez-Domínguez, M. (2015). Musical plus phonological input for young foreign language readers. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Frontiers in psychology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 286.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ohlenforst, B., Souza, P. E., &amp; MacDonald, E. N. (2016). Exploring the Relationship Between Working Memory, Compressor Speed, and Background Noise Characteristics. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ear and hearing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>37</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), 137-143.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>White-Schwoch, T., Carr, K. W., Thompson, E. C., Anderson, S., Nicol, T., Bradlow, A. R., ... &amp; Kraus, N. (2015). Auditory processing in noise: a preschool biomarker for literacy. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS Biol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(7), e1002196.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Brännström, K. J., Holm, L., Lyberg-Åhlander, V., Haake, M., Kastberg, T., &amp; Sahlén, B. (2015). Children's subjective ratings and opinions of typical and dysphonic voice after performing a language comprehension task in background noise. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Journal of Voice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(5), 624-630.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Seabi, J., Cockcroft, K., Goldschagg, P., &amp; Greyling, M. (2015). A prospective follow-up study of the effects of chronic aircraft noise exposure on learners’ reading comprehension in South Africa. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Journal of Exposure Science and Environmental Epidemiology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 84-88.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Schlittmeier, S. J., Feil, A., Liebl, A., &amp; Hellbrück, J. (2015). The impact of road traffic noise on cognitive performance in attention-based tasks depends on noise level even within moderate-level ranges. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Noise and health</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(76), 148.</t>
+    </r>
+  </si>
+  <si>
+    <t>Dove, M. K. (2009). The relationship of rhythmic and melodic perception with background music distraction in college level students (Order No. 3358711). Available from ProQuest Dissertations and Theses A&amp;I: The Humanities and Social Sciences Collection. (304917640). Retrieved from http://search.proquest.com/docview/304917640?accountid=9679</t>
+  </si>
+  <si>
+    <t>Chou, P. (2007). The effects of background music on the reading performance of taiwanese ESL students (Order No. 3293448). Available from ProQuest Dissertations and Theses A&amp;I: The Humanities and Social Sciences Collection. (304857770). Retrieved from http://search.proquest.com/docview/304857770?accountid=9679</t>
+  </si>
+  <si>
+    <t>Barnes, M. P. (2002). Individual differences in undergraduate reading comprehension as a function of extraversion -introversion level and background music complexity (Order No. 3046285). Available from ProQuest Dissertations and Theses A&amp;I: The Sciences and Engineering Collection. (305612017). Retrieved from http://search.proquest.com/docview/305612017?accountid=9679</t>
+  </si>
+  <si>
+    <t>Dawson, D. (2003). Listening to music and increasing reading achievement scores in vocabulary and comprehension and total reading ability (Order No. 3116329). Available from ProQuest Dissertations and Theses A&amp;I: The Humanities and Social Sciences Collection. (305232542). Retrieved from http://search.proquest.com/docview/305232542?accountid=9679</t>
+  </si>
+  <si>
+    <t>Anderson, S. A. (2007). The effect of music on the reading comprehension of junior high school students (Order No. 3245966). Available from ProQuest Dissertations and Theses A&amp;I: The Humanities and Social Sciences Collection; ProQuest Dissertations and Theses A&amp;I: The Sciences and Engineering Collection. (304763070). Retrieved from http://search.proquest.com/docview/304763070?accountid=9679</t>
+  </si>
+  <si>
+    <t>Wiley-Khaaliq, R. (1990). A study of the effects of background music on reading comprehension of learning-disabled students (Order No. 9117442). Available from ProQuest Dissertations and Theses A&amp;I: The Humanities and Social Sciences Collection. (303886202). Retrieved from http://search.proquest.com/docview/303886202?accountid=9679</t>
+  </si>
+  <si>
+    <t>Humphrey, J. C. (2014). The effects of mozart's sonata in D major on fourth graders' reading scores (Order No. 3582789). Available from ProQuest Dissertations and Theses A&amp;I: The Humanities and Social Sciences Collection. (1609381703). Retrieved from http://search.proquest.com/docview/1609381703?accountid=9679</t>
+  </si>
+  <si>
+    <t>Oliver, M. D. (1996). The effect of background music on mood and reading comprehension performance of at-risk college freshmen (Order No. 9715893). Available from ProQuest Dissertations and Theses A&amp;I: The Humanities and Social Sciences Collection. (304280987). Retrieved from http://search.proquest.com/docview/304280987?accountid=9679</t>
+  </si>
+  <si>
+    <t>Leguizamon, D. F. (2010). A musical approach to reading fluency: An experimental study in first-grade classrooms (Order No. 3412250). Available from ProQuest Dissertations and Theses A&amp;I: The Humanities and Social Sciences Collection. (737505433). Retrieved from http://search.proquest.com/docview/737505433?accountid=9679</t>
+  </si>
+  <si>
+    <t>Walton, J. P. (2013). The effect of music on the reading achievement of grade 1 students (Order No. 3589782). Available from ProQuest Dissertations and Theses A&amp;I: The Humanities and Social Sciences Collection. (1430910109). Retrieved from http://search.proquest.com/docview/1430910109?accountid=9679</t>
+  </si>
+  <si>
+    <t>Rawls, R. E. (2012). The effects of music tempo on task performances of introverts and extraverts (Order No. 1532105). Available from ProQuest Dissertations and Theses A&amp;I: The Humanities and Social Sciences Collection; ProQuest Dissertations and Theses A&amp;I: The Sciences and Engineering Collection. (1284409282). Retrieved from http://search.proquest.com/docview/1284409282?accountid=9679</t>
+  </si>
+  <si>
+    <t>DEGREGORIS, C. N. (1986). READING COMPREHENSION AND THE INTERACTION OF INDIVIDUAL SOUND PREFERENCES AND VARIED AUDITORY DISTRACTIONS(Order No. 8629819). Available from ProQuest Dissertations and Theses A&amp;I: The Humanities and Social Sciences Collection. (303481481). Retrieved from http://search.proquest.com/docview/303481481?accountid=9679</t>
+  </si>
+  <si>
+    <t>FRANKLIN, J. L. (1976). THE EFFECTS OF ROCK MUSIC ON THE READING COMPREHENSION OF EIGHTH-GRADE STUDENTS (Order No. 7713085). Available from ProQuest Dissertations and Theses A&amp;I: The Humanities and Social Sciences Collection. (302814434). Retrieved from http://search.proquest.com/docview/302814434?accountid=9679</t>
+  </si>
+  <si>
+    <t>Green, M. S. (1984). Effects of background music and field dependence/independence on cognitive achievement of college students (Order No. DP29483). Available from ProQuest Dissertations and Theses A&amp;I: The Humanities and Social Sciences Collection. (1651954101). Retrieved from http://search.proquest.com/docview/1651954101?accountid=9679</t>
+  </si>
+  <si>
+    <t>Johnson, M. B. (1999). The effects of background classical music on junior high school students' academic performance (Order No. 9971836). Available from ProQuest Dissertations and Theses A&amp;I: The Humanities and Social Sciences Collection; ProQuest Dissertations and Theses A&amp;I: The Sciences and Engineering Collection. (304547219). Retrieved from http://search.proquest.com/docview/304547219?accountid=9679</t>
+  </si>
+  <si>
+    <t>Banbury, S. P. (1996). The disruption of office-related tasks by speech and office noise(Order No. U084841). Available from ProQuest Dissertations &amp; Theses: UK &amp; Ireland. (301516201). Retrieved from http://search.proquest.com/docview/301516201?accountid=9679</t>
+  </si>
+  <si>
+    <t>Holmes, H. (2015). The effects of background sound on communication: Speech intelligibility and reading (Order No. 10114658). Available from ProQuest Dissertations &amp; Theses: UK &amp; Ireland. (1792788702). Retrieved from http://search.proquest.com/docview/1792788702?accountid=9679</t>
+  </si>
+  <si>
+    <t>FLAUM, M. P. (1981). THE EFFECTS OF MUSIC AND NOISE UPON VERBAL AND VISUOSPATIAL TASK PERFORMANCE AMONG MALE COLLEGE STUDENTS (Order No. 8111544). Available from ProQuest Dissertations and Theses A&amp;I: The Sciences and Engineering Collection. (303152248). Retrieved from http://search.proquest.com/docview/303152248?accountid=9679</t>
+  </si>
+  <si>
+    <t>not reading, exclude at stage 3</t>
+  </si>
+  <si>
+    <t>Searched for any papers that I don't immediately recognise (I had already read all papers until 2015 at this point)</t>
   </si>
 </sst>
 </file>
@@ -24105,7 +24747,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -24184,6 +24826,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -24198,7 +24846,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -24380,9 +25028,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -24472,6 +25117,27 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -24814,7 +25480,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -24824,7 +25490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
@@ -25418,7 +26084,7 @@
       <c r="A55" s="2">
         <v>52</v>
       </c>
-      <c r="B55" s="71" t="s">
+      <c r="B55" s="70" t="s">
         <v>294</v>
       </c>
       <c r="C55" s="13" t="s">
@@ -25594,7 +26260,7 @@
       <c r="A71" s="2">
         <v>68</v>
       </c>
-      <c r="B71" s="71" t="s">
+      <c r="B71" s="70" t="s">
         <v>310</v>
       </c>
       <c r="C71" s="13" t="s">
@@ -26067,7 +26733,7 @@
       <c r="A114" s="2">
         <v>111</v>
       </c>
-      <c r="B114" s="99" t="s">
+      <c r="B114" s="98" t="s">
         <v>707</v>
       </c>
       <c r="C114" s="13" t="s">
@@ -26078,7 +26744,7 @@
       <c r="A115" s="2">
         <v>112</v>
       </c>
-      <c r="B115" s="99" t="s">
+      <c r="B115" s="98" t="s">
         <v>618</v>
       </c>
       <c r="C115" s="13" t="s">
@@ -26089,7 +26755,7 @@
       <c r="A116" s="2">
         <v>113</v>
       </c>
-      <c r="B116" s="99" t="s">
+      <c r="B116" s="98" t="s">
         <v>708</v>
       </c>
       <c r="C116" s="13" t="s">
@@ -26100,7 +26766,7 @@
       <c r="A117" s="2">
         <v>114</v>
       </c>
-      <c r="B117" s="99" t="s">
+      <c r="B117" s="98" t="s">
         <v>709</v>
       </c>
       <c r="C117" s="13" t="s">
@@ -26111,7 +26777,7 @@
       <c r="A118" s="1">
         <v>115</v>
       </c>
-      <c r="B118" s="99" t="s">
+      <c r="B118" s="98" t="s">
         <v>710</v>
       </c>
       <c r="C118" s="13" t="s">
@@ -26119,7 +26785,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="B119" s="99" t="s">
+      <c r="B119" s="98" t="s">
         <v>708</v>
       </c>
       <c r="C119" s="13" t="s">
@@ -26136,7 +26802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
@@ -27214,7 +27880,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="B99" s="99" t="s">
+      <c r="B99" s="98" t="s">
         <v>708</v>
       </c>
       <c r="C99" s="13" t="s">
@@ -27222,7 +27888,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B100" s="99" t="s">
+      <c r="B100" s="98" t="s">
         <v>618</v>
       </c>
       <c r="C100" s="13" t="s">
@@ -27230,7 +27896,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="B101" s="99" t="s">
+      <c r="B101" s="98" t="s">
         <v>708</v>
       </c>
       <c r="C101" s="13" t="s">
@@ -27248,10 +27914,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C150"/>
+  <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D150" sqref="D150"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28812,7 +29478,10 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B143" s="99" t="s">
+      <c r="A143" s="2">
+        <v>140</v>
+      </c>
+      <c r="B143" s="98" t="s">
         <v>711</v>
       </c>
       <c r="C143" s="13" t="s">
@@ -28820,59 +29489,300 @@
       </c>
     </row>
     <row r="144" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="B144" s="99" t="s">
+      <c r="A144" s="2">
+        <v>141</v>
+      </c>
+      <c r="B144" s="98" t="s">
         <v>712</v>
       </c>
       <c r="C144" s="13" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="145" spans="2:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="B145" s="99" t="s">
+    <row r="145" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>142</v>
+      </c>
+      <c r="B145" s="98" t="s">
         <v>713</v>
       </c>
       <c r="C145" s="13" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="146" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B146" s="99" t="s">
+    <row r="146" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>143</v>
+      </c>
+      <c r="B146" s="98" t="s">
         <v>714</v>
       </c>
       <c r="C146" s="13" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="147" spans="2:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B147" s="99" t="s">
+    <row r="147" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>144</v>
+      </c>
+      <c r="B147" s="98" t="s">
         <v>715</v>
       </c>
       <c r="C147" s="13" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="148" spans="2:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="B148" s="99" t="s">
+    <row r="148" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>145</v>
+      </c>
+      <c r="B148" s="98" t="s">
         <v>716</v>
       </c>
       <c r="C148" s="13" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="149" spans="2:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B149" s="99" t="s">
+    <row r="149" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>146</v>
+      </c>
+      <c r="B149" s="98" t="s">
         <v>717</v>
       </c>
       <c r="C149" s="13" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="150" spans="2:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B150" s="99" t="s">
+    <row r="150" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>147</v>
+      </c>
+      <c r="B150" s="98" t="s">
         <v>718</v>
       </c>
       <c r="C150" s="13" t="s">
         <v>565</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>148</v>
+      </c>
+      <c r="B151" s="100" t="s">
+        <v>714</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>149</v>
+      </c>
+      <c r="B152" s="101" t="s">
+        <v>719</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>150</v>
+      </c>
+      <c r="B153" s="101" t="s">
+        <v>720</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>151</v>
+      </c>
+      <c r="B154" s="101" t="s">
+        <v>721</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>152</v>
+      </c>
+      <c r="B155" s="101" t="s">
+        <v>722</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>153</v>
+      </c>
+      <c r="B156" s="101" t="s">
+        <v>723</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>154</v>
+      </c>
+      <c r="B157" s="101" t="s">
+        <v>724</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>155</v>
+      </c>
+      <c r="B158" s="101" t="s">
+        <v>725</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>156</v>
+      </c>
+      <c r="B159" s="101" t="s">
+        <v>712</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>157</v>
+      </c>
+      <c r="B160" s="101" t="s">
+        <v>726</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>158</v>
+      </c>
+      <c r="B161" s="101" t="s">
+        <v>713</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>159</v>
+      </c>
+      <c r="B162" s="101" t="s">
+        <v>727</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>160</v>
+      </c>
+      <c r="B163" s="101" t="s">
+        <v>728</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>161</v>
+      </c>
+      <c r="B164" s="101" t="s">
+        <v>729</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>162</v>
+      </c>
+      <c r="B165" s="101" t="s">
+        <v>714</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>163</v>
+      </c>
+      <c r="B166" s="101" t="s">
+        <v>542</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>164</v>
+      </c>
+      <c r="B167" s="101" t="s">
+        <v>707</v>
+      </c>
+      <c r="C167" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>165</v>
+      </c>
+      <c r="B168" s="101" t="s">
+        <v>730</v>
+      </c>
+      <c r="C168" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>166</v>
+      </c>
+      <c r="B169" s="101" t="s">
+        <v>713</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>167</v>
+      </c>
+      <c r="B170" s="101" t="s">
+        <v>731</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -28882,6 +29792,263 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="127.7109375" style="40" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="105"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="104" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="103" t="s">
+        <v>732</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="102" t="s">
+        <v>733</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="102" t="s">
+        <v>734</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="102" t="s">
+        <v>735</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="102" t="s">
+        <v>736</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="102" t="s">
+        <v>737</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="102" t="s">
+        <v>738</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="102" t="s">
+        <v>739</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="102" t="s">
+        <v>740</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="102" t="s">
+        <v>741</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="102" t="s">
+        <v>742</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>12</v>
+      </c>
+      <c r="B14" s="102" t="s">
+        <v>743</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>13</v>
+      </c>
+      <c r="B15" s="102" t="s">
+        <v>744</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>14</v>
+      </c>
+      <c r="B16" s="102" t="s">
+        <v>745</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>15</v>
+      </c>
+      <c r="B17" s="102" t="s">
+        <v>746</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>16</v>
+      </c>
+      <c r="B18" s="102" t="s">
+        <v>747</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>17</v>
+      </c>
+      <c r="B19" s="102" t="s">
+        <v>748</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>18</v>
+      </c>
+      <c r="B20" s="102" t="s">
+        <v>749</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>750</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H69"/>
   <sheetViews>
@@ -28896,14 +30063,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="69"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="A1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -29371,7 +30538,7 @@
       <c r="A45" s="22">
         <v>42</v>
       </c>
-      <c r="B45" s="72" t="s">
+      <c r="B45" s="71" t="s">
         <v>385</v>
       </c>
       <c r="C45" s="13" t="s">
@@ -29547,7 +30714,7 @@
       <c r="A61" s="22">
         <v>58</v>
       </c>
-      <c r="B61" s="73" t="s">
+      <c r="B61" s="72" t="s">
         <v>130</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -29569,7 +30736,7 @@
       <c r="A63" s="22">
         <v>60</v>
       </c>
-      <c r="B63" s="73" t="s">
+      <c r="B63" s="72" t="s">
         <v>62</v>
       </c>
       <c r="C63" s="13" t="s">
@@ -29651,11 +30818,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E427"/>
   <sheetViews>
-    <sheetView topLeftCell="A410" workbookViewId="0">
+    <sheetView topLeftCell="A285" workbookViewId="0">
       <selection activeCell="C430" sqref="C430"/>
     </sheetView>
   </sheetViews>
@@ -31899,7 +33066,7 @@
       <c r="A167">
         <v>165</v>
       </c>
-      <c r="C167" s="74" t="s">
+      <c r="C167" s="73" t="s">
         <v>400</v>
       </c>
       <c r="D167" s="13" t="s">
@@ -31987,7 +33154,7 @@
       <c r="A175">
         <v>173</v>
       </c>
-      <c r="C175" s="75" t="s">
+      <c r="C175" s="74" t="s">
         <v>404</v>
       </c>
       <c r="D175" s="13" t="s">
@@ -32240,7 +33407,7 @@
       <c r="A198">
         <v>196</v>
       </c>
-      <c r="C198" s="75" t="s">
+      <c r="C198" s="74" t="s">
         <v>409</v>
       </c>
       <c r="D198" s="13" t="s">
@@ -32405,7 +33572,7 @@
       <c r="A213">
         <v>211</v>
       </c>
-      <c r="C213" s="76" t="s">
+      <c r="C213" s="75" t="s">
         <v>413</v>
       </c>
       <c r="D213" s="13" t="s">
@@ -32416,7 +33583,7 @@
       <c r="A214">
         <v>212</v>
       </c>
-      <c r="C214" s="72" t="s">
+      <c r="C214" s="71" t="s">
         <v>385</v>
       </c>
       <c r="D214" s="13" t="s">
@@ -32482,7 +33649,7 @@
       <c r="A220">
         <v>218</v>
       </c>
-      <c r="C220" s="74" t="s">
+      <c r="C220" s="73" t="s">
         <v>415</v>
       </c>
       <c r="D220" s="13" t="s">
@@ -32581,7 +33748,7 @@
       <c r="A229">
         <v>227</v>
       </c>
-      <c r="C229" s="74" t="s">
+      <c r="C229" s="73" t="s">
         <v>419</v>
       </c>
       <c r="D229" s="13" t="s">
@@ -32625,7 +33792,7 @@
       <c r="A233">
         <v>231</v>
       </c>
-      <c r="C233" s="74" t="s">
+      <c r="C233" s="73" t="s">
         <v>143</v>
       </c>
       <c r="D233" s="13" t="s">
@@ -32647,7 +33814,7 @@
       <c r="A235">
         <v>233</v>
       </c>
-      <c r="C235" s="77" t="s">
+      <c r="C235" s="76" t="s">
         <v>144</v>
       </c>
       <c r="D235" s="13" t="s">
@@ -32834,7 +34001,7 @@
       <c r="A252">
         <v>250</v>
       </c>
-      <c r="C252" s="74" t="s">
+      <c r="C252" s="73" t="s">
         <v>425</v>
       </c>
       <c r="D252" s="13" t="s">
@@ -32889,7 +34056,7 @@
       <c r="A257">
         <v>255</v>
       </c>
-      <c r="C257" s="74" t="s">
+      <c r="C257" s="73" t="s">
         <v>428</v>
       </c>
       <c r="D257" s="13" t="s">
@@ -32966,7 +34133,7 @@
       <c r="A264">
         <v>262</v>
       </c>
-      <c r="C264" s="77" t="s">
+      <c r="C264" s="76" t="s">
         <v>130</v>
       </c>
       <c r="D264" s="13" t="s">
@@ -32988,7 +34155,7 @@
       <c r="A266">
         <v>264</v>
       </c>
-      <c r="C266" s="78" t="s">
+      <c r="C266" s="77" t="s">
         <v>130</v>
       </c>
       <c r="D266" s="13" t="s">
@@ -32999,7 +34166,7 @@
       <c r="A267">
         <v>265</v>
       </c>
-      <c r="C267" s="71" t="s">
+      <c r="C267" s="70" t="s">
         <v>310</v>
       </c>
       <c r="D267" s="13" t="s">
@@ -33109,7 +34276,7 @@
       <c r="A277">
         <v>275</v>
       </c>
-      <c r="C277" s="75" t="s">
+      <c r="C277" s="74" t="s">
         <v>432</v>
       </c>
       <c r="D277" s="13" t="s">
@@ -33142,7 +34309,7 @@
       <c r="A280">
         <v>278</v>
       </c>
-      <c r="C280" s="77" t="s">
+      <c r="C280" s="76" t="s">
         <v>62</v>
       </c>
       <c r="D280" s="13" t="s">
@@ -33153,7 +34320,7 @@
       <c r="A281">
         <v>279</v>
       </c>
-      <c r="C281" s="78" t="s">
+      <c r="C281" s="77" t="s">
         <v>62</v>
       </c>
       <c r="D281" s="13" t="s">
@@ -33560,7 +34727,7 @@
       <c r="A318">
         <v>316</v>
       </c>
-      <c r="C318" s="74" t="s">
+      <c r="C318" s="73" t="s">
         <v>439</v>
       </c>
       <c r="D318" s="13" t="s">
@@ -33626,7 +34793,7 @@
       <c r="A324">
         <v>322</v>
       </c>
-      <c r="C324" s="71" t="s">
+      <c r="C324" s="70" t="s">
         <v>294</v>
       </c>
       <c r="D324" s="13" t="s">
@@ -33648,7 +34815,7 @@
       <c r="A326">
         <v>324</v>
       </c>
-      <c r="C326" s="79" t="s">
+      <c r="C326" s="78" t="s">
         <v>443</v>
       </c>
       <c r="D326" s="13" t="s">
@@ -33659,7 +34826,7 @@
       <c r="A327">
         <v>325</v>
       </c>
-      <c r="C327" s="70" t="s">
+      <c r="C327" s="69" t="s">
         <v>270</v>
       </c>
       <c r="D327" s="13" t="s">
@@ -34778,7 +35945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ319"/>
   <sheetViews>
@@ -37233,7 +38400,7 @@
       <c r="C153" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="D153" s="83" t="s">
+      <c r="D153" s="82" t="s">
         <v>152</v>
       </c>
     </row>
@@ -37409,7 +38576,7 @@
       <c r="A166" s="18">
         <v>164</v>
       </c>
-      <c r="B166" s="76" t="s">
+      <c r="B166" s="75" t="s">
         <v>413</v>
       </c>
       <c r="C166" s="13" t="s">
@@ -37421,7 +38588,7 @@
       <c r="A167" s="18">
         <v>165</v>
       </c>
-      <c r="B167" s="80" t="s">
+      <c r="B167" s="79" t="s">
         <v>385</v>
       </c>
       <c r="C167" s="13" t="s">
@@ -37755,7 +38922,7 @@
       <c r="A191" s="18">
         <v>189</v>
       </c>
-      <c r="B191" s="81" t="s">
+      <c r="B191" s="80" t="s">
         <v>467</v>
       </c>
       <c r="C191" s="13" t="s">
@@ -38298,7 +39465,7 @@
       <c r="A230" s="18">
         <v>228</v>
       </c>
-      <c r="B230" s="81" t="s">
+      <c r="B230" s="80" t="s">
         <v>442</v>
       </c>
       <c r="C230" s="13" t="s">
@@ -38326,7 +39493,7 @@
       <c r="A232" s="18">
         <v>230</v>
       </c>
-      <c r="B232" s="82" t="s">
+      <c r="B232" s="81" t="s">
         <v>486</v>
       </c>
       <c r="C232" s="13" t="s">
@@ -38956,7 +40123,7 @@
       <c r="A277" s="18">
         <v>275</v>
       </c>
-      <c r="B277" s="93" t="s">
+      <c r="B277" s="92" t="s">
         <v>603</v>
       </c>
       <c r="C277" s="13" t="s">
@@ -39096,7 +40263,7 @@
       <c r="A287" s="18">
         <v>285</v>
       </c>
-      <c r="B287" s="94" t="s">
+      <c r="B287" s="93" t="s">
         <v>563</v>
       </c>
       <c r="C287" s="13" t="s">
@@ -39152,13 +40319,13 @@
       <c r="A291" s="18">
         <v>289</v>
       </c>
-      <c r="B291" s="95" t="s">
+      <c r="B291" s="94" t="s">
         <v>542</v>
       </c>
       <c r="C291" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="D291" s="97" t="s">
+      <c r="D291" s="96" t="s">
         <v>694</v>
       </c>
     </row>
@@ -39320,13 +40487,13 @@
       <c r="A303" s="18">
         <v>301</v>
       </c>
-      <c r="B303" s="96" t="s">
+      <c r="B303" s="95" t="s">
         <v>555</v>
       </c>
       <c r="C303" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="D303" s="98" t="s">
+      <c r="D303" s="97" t="s">
         <v>694</v>
       </c>
     </row>
@@ -39564,7 +40731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z101"/>
   <sheetViews>
@@ -40056,7 +41223,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="48">
         <v>24</v>
       </c>
@@ -40505,7 +41672,7 @@
       <c r="D42" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="E42" s="90" t="s">
+      <c r="E42" s="89" t="s">
         <v>533</v>
       </c>
     </row>
@@ -40584,7 +41751,7 @@
       <c r="D47" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="E47" s="90" t="s">
+      <c r="E47" s="89" t="s">
         <v>533</v>
       </c>
     </row>
@@ -40609,7 +41776,7 @@
       <c r="A49" s="48">
         <v>47</v>
       </c>
-      <c r="B49" s="84" t="s">
+      <c r="B49" s="83" t="s">
         <v>371</v>
       </c>
       <c r="C49" s="13" t="s">
@@ -40671,7 +41838,7 @@
       <c r="A53" s="48">
         <v>51</v>
       </c>
-      <c r="B53" s="85" t="s">
+      <c r="B53" s="84" t="s">
         <v>413</v>
       </c>
       <c r="C53" s="13" t="s">
@@ -40680,7 +41847,7 @@
       <c r="D53" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="E53" s="91" t="s">
+      <c r="E53" s="90" t="s">
         <v>539</v>
       </c>
     </row>
@@ -40688,7 +41855,7 @@
       <c r="A54" s="48">
         <v>52</v>
       </c>
-      <c r="B54" s="86" t="s">
+      <c r="B54" s="85" t="s">
         <v>528</v>
       </c>
       <c r="C54" s="13" t="s">
@@ -40697,7 +41864,7 @@
       <c r="D54" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="E54" s="91" t="s">
+      <c r="E54" s="90" t="s">
         <v>539</v>
       </c>
     </row>
@@ -40705,7 +41872,7 @@
       <c r="A55" s="48">
         <v>53</v>
       </c>
-      <c r="B55" s="87" t="s">
+      <c r="B55" s="86" t="s">
         <v>529</v>
       </c>
       <c r="C55" s="13" t="s">
@@ -40714,7 +41881,7 @@
       <c r="D55" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="E55" s="91" t="s">
+      <c r="E55" s="90" t="s">
         <v>539</v>
       </c>
     </row>
@@ -40790,7 +41957,7 @@
       <c r="A60" s="48">
         <v>58</v>
       </c>
-      <c r="B60" s="88" t="s">
+      <c r="B60" s="87" t="s">
         <v>319</v>
       </c>
       <c r="C60" s="13" t="s">
@@ -40816,7 +41983,7 @@
       <c r="D61" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="E61" s="91" t="s">
+      <c r="E61" s="90" t="s">
         <v>539</v>
       </c>
     </row>
@@ -40833,7 +42000,7 @@
       <c r="D62" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="E62" s="91" t="s">
+      <c r="E62" s="90" t="s">
         <v>539</v>
       </c>
     </row>
@@ -40850,7 +42017,7 @@
       <c r="D63" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="E63" s="92" t="s">
+      <c r="E63" s="91" t="s">
         <v>540</v>
       </c>
     </row>
@@ -40957,7 +42124,7 @@
       <c r="D70" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="E70" s="91" t="s">
+      <c r="E70" s="90" t="s">
         <v>539</v>
       </c>
     </row>
@@ -40989,7 +42156,7 @@
       <c r="D72" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="E72" s="91" t="s">
+      <c r="E72" s="90" t="s">
         <v>539</v>
       </c>
     </row>
@@ -40997,7 +42164,7 @@
       <c r="A73" s="48">
         <v>71</v>
       </c>
-      <c r="B73" s="89" t="s">
+      <c r="B73" s="88" t="s">
         <v>357</v>
       </c>
       <c r="C73" s="13" t="s">
@@ -41051,7 +42218,7 @@
       <c r="D76" s="48" t="s">
         <v>490</v>
       </c>
-      <c r="E76" s="90" t="s">
+      <c r="E76" s="89" t="s">
         <v>533</v>
       </c>
     </row>
@@ -41068,7 +42235,7 @@
       <c r="D77" s="48" t="s">
         <v>490</v>
       </c>
-      <c r="E77" s="90" t="s">
+      <c r="E77" s="89" t="s">
         <v>533</v>
       </c>
     </row>
@@ -41379,7 +42546,7 @@
       <c r="C99" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="D99" s="88" t="s">
+      <c r="D99" s="87" t="s">
         <v>148</v>
       </c>
     </row>
@@ -41393,7 +42560,7 @@
       <c r="C100" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="D100" s="88" t="s">
+      <c r="D100" s="87" t="s">
         <v>148</v>
       </c>
     </row>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -251,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4177" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4357" uniqueCount="862">
   <si>
     <t>ID</t>
   </si>
@@ -25798,6 +25798,454 @@
         <family val="2"/>
       </rPr>
       <t>(9), e0138715.</t>
+    </r>
+  </si>
+  <si>
+    <t>study with 5-year old children; the tasks bear little to no resemblance to skills that are important for reading</t>
+  </si>
+  <si>
+    <r>
+      <t>Hogenes, M., van Oers, B., Diekstra, R. F., &amp; Sklad, M. (2015). The effects of music composition as a classroom activity on engagement in music education and academic and music achievement: A quasi-experimental study. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>International Journal of Music Education</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0255761415584296.</t>
+    </r>
+  </si>
+  <si>
+    <t>computational model /no experimental data reported</t>
+  </si>
+  <si>
+    <t>exlude at stage 4?</t>
+  </si>
+  <si>
+    <t>no reading task</t>
+  </si>
+  <si>
+    <t>a meta-analysis</t>
+  </si>
+  <si>
+    <r>
+      <t>Klatte, M., Bergström, K., &amp; Lachmann, T. (2013). Does noise affect learning? A short review on noise effects on cognitive performance in children. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>frontiers in Psychology</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>a questionnaire study on studying habits</t>
+  </si>
+  <si>
+    <t>letter/ word recall and not a reading task</t>
+  </si>
+  <si>
+    <t>not  relevant</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ransdell, S. E., &amp; Gilroy, L. (2001). The effects of background music on word processed writing. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Computers in Human Behavior</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(2), 141-148.</t>
+    </r>
+  </si>
+  <si>
+    <t>theoretical paper</t>
+  </si>
+  <si>
+    <r>
+      <t>Schäfer, T., &amp; Fachner, J. (2015). Listening to music reduces eye movements. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Attention, Perception, &amp; Psychophysics</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>77</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), 551-559.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Schlittmeier, S. J., Feil, A., Liebl, A., &amp; Hellbrück, J. (2015). The impact of road traffic noise on cognitive performance in attention-based tasks depends on noise level even within moderate-level ranges. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Noise and health</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(76), 148.</t>
+    </r>
+  </si>
+  <si>
+    <t>no background sound manipulation (participants were "singing" a story)</t>
+  </si>
+  <si>
+    <r>
+      <t>Schwartzberg, E. T., &amp; Silverman, M. J. (2016). Effects of a music-based short story on short-and long-term reading comprehension of individuals with Autism Spectrum Disorder: A cluster randomized study. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The Arts in Psychotherapy</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 54-61.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>not relevant to the review</t>
+  </si>
+  <si>
+    <t>same sample &amp; test as another (bigger) study</t>
+  </si>
+  <si>
+    <r>
+      <t>Varjo, J., Hongisto, V., Haapakangas, A., Maula, H., Koskela, H., &amp; Hyönä, J. (2015). Simultaneous effects of irrelevant speech, temperature and ventilation rate on performance and satisfaction in open-plan offices. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Journal of Environmental Psychology</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>44</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 16-33.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>White-Schwoch, T., Carr, K. W., Thompson, E. C., Anderson, S., Nicol, T., Bradlow, A. R., ... &amp; Kraus, N. (2015). Auditory processing in noise: a preschool biomarker for literacy. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS Biol</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(7), e1002196.</t>
+    </r>
+  </si>
+  <si>
+    <t>not relevant to review</t>
+  </si>
+  <si>
+    <r>
+      <t>Zhou, P., &amp; Christianson, K. (2016). I “hear” what you're “saying”: Auditory perceptual simulation, reading speed, and reading comprehension. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The Quarterly Journal of Experimental Psychology</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>69</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(5), 972-995.</t>
     </r>
   </si>
 </sst>
@@ -26333,7 +26781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -26660,9 +27108,6 @@
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -26695,6 +27140,18 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -28361,8 +28818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34041,14 +34498,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="118"/>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
+      <c r="A1" s="131"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -42169,8 +42626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="I293" sqref="I293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42208,7 +42665,7 @@
       <c r="A3" s="58">
         <v>1</v>
       </c>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="118" t="s">
         <v>618</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -42264,13 +42721,13 @@
       <c r="A7" s="58">
         <v>5</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="120" t="s">
         <v>120</v>
       </c>
       <c r="C7" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D7" s="120" t="s">
+      <c r="D7" s="119" t="s">
         <v>119</v>
       </c>
       <c r="E7" s="17"/>
@@ -42309,7 +42766,7 @@
       <c r="A10" s="58">
         <v>8</v>
       </c>
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="121" t="s">
         <v>436</v>
       </c>
       <c r="C10" s="58" t="s">
@@ -42324,7 +42781,7 @@
       <c r="A11" s="58">
         <v>9</v>
       </c>
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="118" t="s">
         <v>619</v>
       </c>
       <c r="C11" s="58" t="s">
@@ -42354,7 +42811,7 @@
       <c r="A13" s="58">
         <v>11</v>
       </c>
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="120" t="s">
         <v>121</v>
       </c>
       <c r="C13" s="58" t="s">
@@ -42369,7 +42826,7 @@
       <c r="A14" s="58">
         <v>12</v>
       </c>
-      <c r="B14" s="122" t="s">
+      <c r="B14" s="121" t="s">
         <v>395</v>
       </c>
       <c r="C14" s="58" t="s">
@@ -42436,7 +42893,7 @@
       <c r="A19" s="58">
         <v>17</v>
       </c>
-      <c r="B19" s="123" t="s">
+      <c r="B19" s="122" t="s">
         <v>822</v>
       </c>
       <c r="C19" s="58" t="s">
@@ -42451,7 +42908,7 @@
       <c r="A20" s="58">
         <v>18</v>
       </c>
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="118" t="s">
         <v>603</v>
       </c>
       <c r="C20" s="58" t="s">
@@ -42466,7 +42923,7 @@
       <c r="A21" s="58">
         <v>19</v>
       </c>
-      <c r="B21" s="121" t="s">
+      <c r="B21" s="120" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="58" t="s">
@@ -42481,7 +42938,7 @@
       <c r="A22" s="58">
         <v>20</v>
       </c>
-      <c r="B22" s="122" t="s">
+      <c r="B22" s="121" t="s">
         <v>740</v>
       </c>
       <c r="C22" s="58" t="s">
@@ -42496,7 +42953,7 @@
       <c r="A23" s="58">
         <v>21</v>
       </c>
-      <c r="B23" s="119" t="s">
+      <c r="B23" s="118" t="s">
         <v>185</v>
       </c>
       <c r="C23" s="58" t="s">
@@ -42511,7 +42968,7 @@
       <c r="A24" s="58">
         <v>22</v>
       </c>
-      <c r="B24" s="119" t="s">
+      <c r="B24" s="118" t="s">
         <v>620</v>
       </c>
       <c r="C24" s="58" t="s">
@@ -42541,7 +42998,7 @@
       <c r="A26" s="58">
         <v>24</v>
       </c>
-      <c r="B26" s="122" t="s">
+      <c r="B26" s="121" t="s">
         <v>741</v>
       </c>
       <c r="C26" s="58" t="s">
@@ -42556,7 +43013,7 @@
       <c r="A27" s="58">
         <v>25</v>
       </c>
-      <c r="B27" s="122" t="s">
+      <c r="B27" s="121" t="s">
         <v>437</v>
       </c>
       <c r="C27" s="58" t="s">
@@ -42588,7 +43045,7 @@
       <c r="A29" s="58">
         <v>27</v>
       </c>
-      <c r="B29" s="122" t="s">
+      <c r="B29" s="121" t="s">
         <v>398</v>
       </c>
       <c r="C29" s="58" t="s">
@@ -42603,7 +43060,7 @@
       <c r="A30" s="58">
         <v>28</v>
       </c>
-      <c r="B30" s="119" t="s">
+      <c r="B30" s="118" t="s">
         <v>621</v>
       </c>
       <c r="C30" s="58" t="s">
@@ -42633,7 +43090,7 @@
       <c r="A32" s="58">
         <v>30</v>
       </c>
-      <c r="B32" s="119" t="s">
+      <c r="B32" s="118" t="s">
         <v>706</v>
       </c>
       <c r="C32" s="58" t="s">
@@ -42648,7 +43105,7 @@
       <c r="A33" s="58">
         <v>31</v>
       </c>
-      <c r="B33" s="122" t="s">
+      <c r="B33" s="121" t="s">
         <v>399</v>
       </c>
       <c r="C33" s="58" t="s">
@@ -42663,7 +43120,7 @@
       <c r="A34" s="58">
         <v>32</v>
       </c>
-      <c r="B34" s="119" t="s">
+      <c r="B34" s="118" t="s">
         <v>622</v>
       </c>
       <c r="C34" s="58" t="s">
@@ -42678,7 +43135,7 @@
       <c r="A35" s="58">
         <v>33</v>
       </c>
-      <c r="B35" s="122" t="s">
+      <c r="B35" s="121" t="s">
         <v>438</v>
       </c>
       <c r="C35" s="58" t="s">
@@ -42693,7 +43150,7 @@
       <c r="A36" s="58">
         <v>34</v>
       </c>
-      <c r="B36" s="119" t="s">
+      <c r="B36" s="118" t="s">
         <v>623</v>
       </c>
       <c r="C36" s="58" t="s">
@@ -42725,7 +43182,7 @@
       <c r="A38" s="58">
         <v>36</v>
       </c>
-      <c r="B38" s="119" t="s">
+      <c r="B38" s="118" t="s">
         <v>610</v>
       </c>
       <c r="C38" s="58" t="s">
@@ -42740,7 +43197,7 @@
       <c r="A39" s="58">
         <v>37</v>
       </c>
-      <c r="B39" s="122" t="s">
+      <c r="B39" s="121" t="s">
         <v>440</v>
       </c>
       <c r="C39" s="58" t="s">
@@ -42770,7 +43227,7 @@
       <c r="A41" s="58">
         <v>39</v>
       </c>
-      <c r="B41" s="121" t="s">
+      <c r="B41" s="120" t="s">
         <v>125</v>
       </c>
       <c r="C41" s="58" t="s">
@@ -42785,7 +43242,7 @@
       <c r="A42" s="58">
         <v>40</v>
       </c>
-      <c r="B42" s="121" t="s">
+      <c r="B42" s="120" t="s">
         <v>127</v>
       </c>
       <c r="C42" s="58" t="s">
@@ -42800,7 +43257,7 @@
       <c r="A43" s="58">
         <v>41</v>
       </c>
-      <c r="B43" s="121" t="s">
+      <c r="B43" s="120" t="s">
         <v>192</v>
       </c>
       <c r="C43" s="58" t="s">
@@ -42815,7 +43272,7 @@
       <c r="A44" s="58">
         <v>42</v>
       </c>
-      <c r="B44" s="119" t="s">
+      <c r="B44" s="118" t="s">
         <v>831</v>
       </c>
       <c r="C44" s="58" t="s">
@@ -42856,7 +43313,7 @@
       <c r="A47" s="58">
         <v>45</v>
       </c>
-      <c r="B47" s="119" t="s">
+      <c r="B47" s="118" t="s">
         <v>624</v>
       </c>
       <c r="C47" s="58" t="s">
@@ -42897,13 +43354,13 @@
       <c r="A50" s="58">
         <v>48</v>
       </c>
-      <c r="B50" s="122" t="s">
+      <c r="B50" s="121" t="s">
         <v>442</v>
       </c>
       <c r="C50" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D50" s="124" t="s">
+      <c r="D50" s="123" t="s">
         <v>832</v>
       </c>
       <c r="E50" s="17"/>
@@ -42912,7 +43369,7 @@
       <c r="A51" s="58">
         <v>49</v>
       </c>
-      <c r="B51" s="122" t="s">
+      <c r="B51" s="121" t="s">
         <v>443</v>
       </c>
       <c r="C51" s="58" t="s">
@@ -42927,7 +43384,7 @@
       <c r="A52" s="58">
         <v>50</v>
       </c>
-      <c r="B52" s="121" t="s">
+      <c r="B52" s="120" t="s">
         <v>129</v>
       </c>
       <c r="C52" s="58" t="s">
@@ -43000,7 +43457,7 @@
       <c r="A57" s="58">
         <v>55</v>
       </c>
-      <c r="B57" s="122" t="s">
+      <c r="B57" s="121" t="s">
         <v>444</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -43030,7 +43487,7 @@
       <c r="A59" s="58">
         <v>57</v>
       </c>
-      <c r="B59" s="122" t="s">
+      <c r="B59" s="121" t="s">
         <v>784</v>
       </c>
       <c r="C59" s="58" t="s">
@@ -43045,7 +43502,7 @@
       <c r="A60" s="58">
         <v>58</v>
       </c>
-      <c r="B60" s="119" t="s">
+      <c r="B60" s="118" t="s">
         <v>143</v>
       </c>
       <c r="C60" s="58" t="s">
@@ -43086,7 +43543,7 @@
       <c r="A63" s="58">
         <v>61</v>
       </c>
-      <c r="B63" s="122" t="s">
+      <c r="B63" s="121" t="s">
         <v>446</v>
       </c>
       <c r="C63" s="58" t="s">
@@ -43127,7 +43584,7 @@
       <c r="A66" s="58">
         <v>64</v>
       </c>
-      <c r="B66" s="121" t="s">
+      <c r="B66" s="120" t="s">
         <v>133</v>
       </c>
       <c r="C66" s="58" t="s">
@@ -43142,7 +43599,7 @@
       <c r="A67" s="58">
         <v>65</v>
       </c>
-      <c r="B67" s="122" t="s">
+      <c r="B67" s="121" t="s">
         <v>403</v>
       </c>
       <c r="C67" s="58" t="s">
@@ -43157,7 +43614,7 @@
       <c r="A68" s="58">
         <v>66</v>
       </c>
-      <c r="B68" s="125" t="s">
+      <c r="B68" s="124" t="s">
         <v>90</v>
       </c>
       <c r="C68" s="58" t="s">
@@ -43169,17 +43626,17 @@
       <c r="E68" s="17"/>
     </row>
     <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="126">
+      <c r="A69" s="125">
         <v>67</v>
       </c>
-      <c r="B69" s="127" t="s">
+      <c r="B69" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="C69" s="126" t="s">
-        <v>282</v>
-      </c>
-      <c r="D69" s="126"/>
-      <c r="E69" s="128" t="s">
+      <c r="C69" s="125" t="s">
+        <v>282</v>
+      </c>
+      <c r="D69" s="125"/>
+      <c r="E69" s="127" t="s">
         <v>836</v>
       </c>
     </row>
@@ -43187,7 +43644,7 @@
       <c r="A70" s="58">
         <v>68</v>
       </c>
-      <c r="B70" s="121" t="s">
+      <c r="B70" s="120" t="s">
         <v>111</v>
       </c>
       <c r="C70" s="58" t="s">
@@ -43202,7 +43659,7 @@
       <c r="A71" s="58">
         <v>69</v>
       </c>
-      <c r="B71" s="121" t="s">
+      <c r="B71" s="120" t="s">
         <v>145</v>
       </c>
       <c r="C71" s="58" t="s">
@@ -43243,7 +43700,7 @@
       <c r="A74" s="58">
         <v>72</v>
       </c>
-      <c r="B74" s="122" t="s">
+      <c r="B74" s="121" t="s">
         <v>447</v>
       </c>
       <c r="C74" s="58" t="s">
@@ -43273,7 +43730,7 @@
       <c r="A76" s="58">
         <v>74</v>
       </c>
-      <c r="B76" s="122" t="s">
+      <c r="B76" s="121" t="s">
         <v>62</v>
       </c>
       <c r="C76" s="58" t="s">
@@ -43299,7 +43756,7 @@
       <c r="A78" s="58">
         <v>76</v>
       </c>
-      <c r="B78" s="121" t="s">
+      <c r="B78" s="120" t="s">
         <v>147</v>
       </c>
       <c r="C78" s="58" t="s">
@@ -43344,7 +43801,7 @@
       <c r="A81" s="58">
         <v>79</v>
       </c>
-      <c r="B81" s="121" t="s">
+      <c r="B81" s="120" t="s">
         <v>91</v>
       </c>
       <c r="C81" s="58" t="s">
@@ -43389,7 +43846,7 @@
       <c r="A84" s="58">
         <v>82</v>
       </c>
-      <c r="B84" s="129" t="s">
+      <c r="B84" s="128" t="s">
         <v>405</v>
       </c>
       <c r="C84" s="58" t="s">
@@ -43404,7 +43861,7 @@
       <c r="A85" s="58">
         <v>83</v>
       </c>
-      <c r="B85" s="122" t="s">
+      <c r="B85" s="121" t="s">
         <v>63</v>
       </c>
       <c r="C85" s="58" t="s">
@@ -43419,7 +43876,7 @@
       <c r="A86" s="58">
         <v>84</v>
       </c>
-      <c r="B86" s="119" t="s">
+      <c r="B86" s="118" t="s">
         <v>838</v>
       </c>
       <c r="C86" s="58" t="s">
@@ -43471,7 +43928,7 @@
       <c r="A90" s="58">
         <v>88</v>
       </c>
-      <c r="B90" s="119" t="s">
+      <c r="B90" s="118" t="s">
         <v>626</v>
       </c>
       <c r="C90" s="58" t="s">
@@ -43602,7 +44059,7 @@
       <c r="A99" s="58">
         <v>97</v>
       </c>
-      <c r="B99" s="121" t="s">
+      <c r="B99" s="120" t="s">
         <v>112</v>
       </c>
       <c r="C99" s="58" t="s">
@@ -43617,7 +44074,7 @@
       <c r="A100" s="58">
         <v>98</v>
       </c>
-      <c r="B100" s="119" t="s">
+      <c r="B100" s="118" t="s">
         <v>155</v>
       </c>
       <c r="C100" s="58" t="s">
@@ -43647,7 +44104,7 @@
       <c r="A102" s="58">
         <v>100</v>
       </c>
-      <c r="B102" s="122" t="s">
+      <c r="B102" s="121" t="s">
         <v>70</v>
       </c>
       <c r="C102" s="58" t="s">
@@ -43662,7 +44119,7 @@
       <c r="A103" s="58">
         <v>101</v>
       </c>
-      <c r="B103" s="119" t="s">
+      <c r="B103" s="118" t="s">
         <v>627</v>
       </c>
       <c r="C103" s="58" t="s">
@@ -43677,7 +44134,7 @@
       <c r="A104" s="58">
         <v>102</v>
       </c>
-      <c r="B104" s="122" t="s">
+      <c r="B104" s="121" t="s">
         <v>448</v>
       </c>
       <c r="C104" s="58" t="s">
@@ -43703,7 +44160,7 @@
       <c r="A106" s="58">
         <v>104</v>
       </c>
-      <c r="B106" s="122" t="s">
+      <c r="B106" s="121" t="s">
         <v>449</v>
       </c>
       <c r="C106" s="58" t="s">
@@ -43718,7 +44175,7 @@
       <c r="A107" s="58">
         <v>105</v>
       </c>
-      <c r="B107" s="122" t="s">
+      <c r="B107" s="121" t="s">
         <v>106</v>
       </c>
       <c r="C107" s="58" t="s">
@@ -43767,193 +44224,259 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A111" s="12">
+      <c r="A111" s="58">
         <v>109</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="20" t="s">
         <v>602</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="C111" s="58" t="s">
         <v>554</v>
       </c>
+      <c r="D111" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E111" s="17"/>
     </row>
     <row r="112" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="12">
+      <c r="A112" s="58">
         <v>110</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="20" t="s">
         <v>606</v>
       </c>
-      <c r="C112" s="12" t="s">
+      <c r="C112" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="12">
+      <c r="D112" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E112" s="17"/>
+    </row>
+    <row r="113" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="58">
         <v>111</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="C113" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="12">
+      <c r="D113" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E113" s="17"/>
+    </row>
+    <row r="114" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="58">
         <v>112</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C114" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="12">
+      <c r="C114" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D114" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E114" s="17"/>
+    </row>
+    <row r="115" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="58">
         <v>113</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="C115" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A116" s="12">
+      <c r="C115" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D115" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E115" s="17"/>
+    </row>
+    <row r="116" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A116" s="58">
         <v>114</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C116" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A117" s="12">
+      <c r="C116" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D116" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E116" s="17"/>
+    </row>
+    <row r="117" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A117" s="58">
         <v>115</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C117" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A118" s="12">
+      <c r="C117" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D117" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E117" s="17"/>
+    </row>
+    <row r="118" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A118" s="58">
         <v>116</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="C118" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A119" s="12">
+      <c r="C118" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D118" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E118" s="17"/>
+    </row>
+    <row r="119" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A119" s="58">
         <v>117</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="20" t="s">
         <v>536</v>
       </c>
-      <c r="C119" s="12" t="s">
+      <c r="C119" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A120" s="12">
+      <c r="D119" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E119" s="17"/>
+    </row>
+    <row r="120" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A120" s="58">
         <v>118</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="20" t="s">
         <v>537</v>
       </c>
-      <c r="C120" s="12" t="s">
+      <c r="C120" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="12">
+      <c r="D120" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E120" s="17"/>
+    </row>
+    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="58">
         <v>119</v>
       </c>
-      <c r="B121" s="18" t="s">
+      <c r="B121" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="C121" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A122" s="12">
+      <c r="C121" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D121" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E121" s="17"/>
+    </row>
+    <row r="122" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="58">
         <v>120</v>
       </c>
-      <c r="B122" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="12">
+      <c r="B122" s="121" t="s">
+        <v>452</v>
+      </c>
+      <c r="C122" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D122" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E122" s="17"/>
+    </row>
+    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="58">
         <v>121</v>
       </c>
-      <c r="B123" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="12">
+      <c r="B123" s="121" t="s">
+        <v>453</v>
+      </c>
+      <c r="C123" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D123" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E123" s="17"/>
+    </row>
+    <row r="124" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A124" s="58">
         <v>122</v>
       </c>
-      <c r="B124" s="103" t="s">
+      <c r="B124" s="121" t="s">
         <v>779</v>
       </c>
-      <c r="C124" s="12" t="s">
+      <c r="C124" s="58" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="12">
+      <c r="D124" s="60" t="s">
+        <v>839</v>
+      </c>
+      <c r="E124" s="17"/>
+    </row>
+    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="58">
         <v>123</v>
       </c>
-      <c r="B125" s="18" t="s">
+      <c r="B125" s="33" t="s">
         <v>368</v>
       </c>
-      <c r="C125" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="12">
+      <c r="C125" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D125" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E125" s="60" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="46">
         <v>124</v>
       </c>
-      <c r="B126" s="103" t="s">
+      <c r="B126" s="86" t="s">
         <v>790</v>
       </c>
-      <c r="C126" s="12" t="s">
+      <c r="C126" s="46" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="12">
+      <c r="D126" s="46"/>
+      <c r="E126" s="32"/>
+    </row>
+    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="46">
         <v>125</v>
       </c>
-      <c r="B127" s="103" t="s">
+      <c r="B127" s="86" t="s">
         <v>742</v>
       </c>
-      <c r="C127" s="12" t="s">
+      <c r="C127" s="46" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D127" s="46"/>
+      <c r="E127" s="32"/>
+    </row>
+    <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="12">
         <v>126</v>
       </c>
@@ -43964,62 +44487,82 @@
         <v>798</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A129" s="12">
+    <row r="129" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A129" s="58">
         <v>127</v>
       </c>
-      <c r="B129" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="C129" s="12" t="s">
+      <c r="B129" s="118" t="s">
+        <v>628</v>
+      </c>
+      <c r="C129" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="12">
+      <c r="D129" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E129" s="17"/>
+    </row>
+    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="58">
         <v>128</v>
       </c>
-      <c r="B130" s="18" t="s">
+      <c r="B130" s="33" t="s">
         <v>353</v>
       </c>
-      <c r="C130" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A131" s="12">
+      <c r="C130" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D130" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E130" s="17"/>
+    </row>
+    <row r="131" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A131" s="58">
         <v>129</v>
       </c>
-      <c r="B131" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="C131" s="12" t="s">
+      <c r="B131" s="118" t="s">
+        <v>629</v>
+      </c>
+      <c r="C131" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="12">
+      <c r="D131" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E131" s="17"/>
+    </row>
+    <row r="132" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="58">
         <v>130</v>
       </c>
-      <c r="B132" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="12">
+      <c r="B132" s="118" t="s">
+        <v>234</v>
+      </c>
+      <c r="C132" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D132" s="129" t="s">
+        <v>233</v>
+      </c>
+      <c r="E132" s="17"/>
+    </row>
+    <row r="133" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="58">
         <v>131</v>
       </c>
-      <c r="B133" s="96" t="s">
-        <v>699</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="118" t="s">
+        <v>840</v>
+      </c>
+      <c r="C133" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D133" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E133" s="17"/>
+    </row>
+    <row r="134" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="12">
         <v>132</v>
       </c>
@@ -44030,51 +44573,67 @@
         <v>282</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="12">
+    <row r="135" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="58">
         <v>133</v>
       </c>
-      <c r="B135" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="C135" s="12" t="s">
+      <c r="B135" s="118" t="s">
+        <v>630</v>
+      </c>
+      <c r="C135" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="12">
+      <c r="D135" s="33" t="s">
+        <v>841</v>
+      </c>
+      <c r="E135" s="17"/>
+    </row>
+    <row r="136" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="58">
         <v>134</v>
       </c>
-      <c r="B136" s="10" t="s">
-        <v>600</v>
-      </c>
-      <c r="C136" s="12" t="s">
+      <c r="B136" s="118" t="s">
+        <v>631</v>
+      </c>
+      <c r="C136" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="12">
+      <c r="D136" s="58" t="s">
+        <v>675</v>
+      </c>
+      <c r="E136" s="17"/>
+    </row>
+    <row r="137" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="58">
         <v>135</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="C137" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A138" s="12">
+      <c r="C137" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D137" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E137" s="17"/>
+    </row>
+    <row r="138" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A138" s="58">
         <v>136</v>
       </c>
-      <c r="B138" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="C138" s="12" t="s">
+      <c r="B138" s="118" t="s">
+        <v>632</v>
+      </c>
+      <c r="C138" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D138" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="E138" s="17"/>
+    </row>
+    <row r="139" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="12">
         <v>137</v>
       </c>
@@ -44085,7 +44644,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A140" s="12">
         <v>138</v>
       </c>
@@ -44096,29 +44655,37 @@
         <v>282</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="12">
+    <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="58">
         <v>139</v>
       </c>
-      <c r="B141" s="18" t="s">
+      <c r="B141" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="C141" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="12">
+      <c r="C141" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D141" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E141" s="17"/>
+    </row>
+    <row r="142" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="58">
         <v>140</v>
       </c>
-      <c r="B142" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C142" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B142" s="120" t="s">
+        <v>175</v>
+      </c>
+      <c r="C142" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D142" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="E142" s="17"/>
+    </row>
+    <row r="143" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="12">
         <v>141</v>
       </c>
@@ -44129,128 +44696,172 @@
         <v>798</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="12">
+    <row r="144" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="58">
         <v>142</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B144" s="20" t="s">
         <v>607</v>
       </c>
-      <c r="C144" s="12" t="s">
+      <c r="C144" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A145" s="12">
+      <c r="D144" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E144" s="17"/>
+    </row>
+    <row r="145" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A145" s="58">
         <v>143</v>
       </c>
-      <c r="B145" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="C145" s="12" t="s">
+      <c r="B145" s="118" t="s">
+        <v>633</v>
+      </c>
+      <c r="C145" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A146" s="12">
+      <c r="D145" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E145" s="17"/>
+    </row>
+    <row r="146" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="58">
         <v>144</v>
       </c>
-      <c r="B146" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="C146" s="12" t="s">
+      <c r="B146" s="118" t="s">
+        <v>634</v>
+      </c>
+      <c r="C146" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A147" s="12">
+      <c r="D146" s="33" t="s">
+        <v>676</v>
+      </c>
+      <c r="E146" s="17"/>
+    </row>
+    <row r="147" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A147" s="58">
         <v>145</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B147" s="20" t="s">
         <v>549</v>
       </c>
-      <c r="C147" s="12" t="s">
+      <c r="C147" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A148" s="12">
+      <c r="D147" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E147" s="17" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A148" s="58">
         <v>146</v>
       </c>
-      <c r="B148" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="C148" s="12" t="s">
+      <c r="B148" s="118" t="s">
+        <v>635</v>
+      </c>
+      <c r="C148" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A149" s="12">
+      <c r="D148" s="58" t="s">
+        <v>843</v>
+      </c>
+      <c r="E148" s="17"/>
+    </row>
+    <row r="149" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A149" s="58">
         <v>147</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="B149" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C149" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="12">
+      <c r="C149" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D149" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E149" s="17"/>
+    </row>
+    <row r="150" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="58">
         <v>148</v>
       </c>
-      <c r="B150" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="C150" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="12">
+      <c r="B150" s="121" t="s">
+        <v>415</v>
+      </c>
+      <c r="C150" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D150" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E150" s="17"/>
+    </row>
+    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="58">
         <v>149</v>
       </c>
-      <c r="B151" s="103" t="s">
+      <c r="B151" s="121" t="s">
         <v>746</v>
       </c>
-      <c r="C151" s="12" t="s">
+      <c r="C151" s="58" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="12">
+      <c r="D151" s="58" t="s">
+        <v>494</v>
+      </c>
+      <c r="E151" s="17"/>
+    </row>
+    <row r="152" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="46">
         <v>150</v>
       </c>
-      <c r="B152" s="38" t="s">
+      <c r="B152" s="90" t="s">
         <v>238</v>
       </c>
-      <c r="C152" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="12">
+      <c r="C152" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="D152" s="46"/>
+      <c r="E152" s="32"/>
+    </row>
+    <row r="153" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="58">
         <v>151</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C153" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="12">
+      <c r="C153" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D153" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E153" s="17"/>
+    </row>
+    <row r="154" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="58">
         <v>152</v>
       </c>
-      <c r="B154" s="18" t="s">
+      <c r="B154" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="C154" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="C154" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D154" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E154" s="17"/>
+    </row>
+    <row r="155" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A155" s="12">
         <v>153</v>
       </c>
@@ -44261,29 +44872,37 @@
         <v>320</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A156" s="12">
+    <row r="156" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A156" s="58">
         <v>154</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C156" s="12" t="s">
+      <c r="C156" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="12">
+      <c r="D156" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E156" s="17"/>
+    </row>
+    <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="58">
         <v>155</v>
       </c>
-      <c r="B157" s="18" t="s">
+      <c r="B157" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="C157" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C157" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D157" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E157" s="17"/>
+    </row>
+    <row r="158" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="12">
         <v>156</v>
       </c>
@@ -44294,84 +44913,112 @@
         <v>320</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A159" s="12">
+    <row r="159" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A159" s="58">
         <v>157</v>
       </c>
-      <c r="B159" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="C159" s="12" t="s">
+      <c r="B159" s="118" t="s">
+        <v>636</v>
+      </c>
+      <c r="C159" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A160" s="12">
+      <c r="D159" s="58" t="s">
+        <v>494</v>
+      </c>
+      <c r="E159" s="17"/>
+    </row>
+    <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" s="58">
         <v>158</v>
       </c>
-      <c r="B160" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="C160" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="12">
+      <c r="B160" s="121" t="s">
+        <v>455</v>
+      </c>
+      <c r="C160" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D160" s="58" t="s">
+        <v>844</v>
+      </c>
+      <c r="E160" s="17"/>
+    </row>
+    <row r="161" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A161" s="58">
         <v>159</v>
       </c>
-      <c r="B161" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="C161" s="12" t="s">
+      <c r="B161" s="118" t="s">
+        <v>637</v>
+      </c>
+      <c r="C161" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A162" s="12">
+      <c r="D161" s="58" t="s">
+        <v>494</v>
+      </c>
+      <c r="E161" s="17"/>
+    </row>
+    <row r="162" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A162" s="58">
         <v>160</v>
       </c>
-      <c r="B162" s="98" t="s">
+      <c r="B162" s="20" t="s">
         <v>708</v>
       </c>
-      <c r="C162" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="12">
+      <c r="C162" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D162" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E162" s="17"/>
+    </row>
+    <row r="163" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A163" s="58">
         <v>161</v>
       </c>
-      <c r="B163" s="103" t="s">
+      <c r="B163" s="121" t="s">
         <v>771</v>
       </c>
-      <c r="C163" s="12" t="s">
+      <c r="C163" s="58" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="12">
+      <c r="D163" s="58" t="s">
+        <v>494</v>
+      </c>
+      <c r="E163" s="17"/>
+    </row>
+    <row r="164" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="58">
         <v>162</v>
       </c>
-      <c r="B164" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="C164" s="12" t="s">
+      <c r="B164" s="118" t="s">
+        <v>638</v>
+      </c>
+      <c r="C164" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="12">
+      <c r="D164" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E164" s="17"/>
+    </row>
+    <row r="165" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="58">
         <v>163</v>
       </c>
-      <c r="B165" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="C165" s="12" t="s">
+      <c r="B165" s="118" t="s">
+        <v>639</v>
+      </c>
+      <c r="C165" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D165" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E165" s="17"/>
+    </row>
+    <row r="166" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="12">
         <v>164</v>
       </c>
@@ -44382,7 +45029,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="12">
         <v>165</v>
       </c>
@@ -44393,18 +45040,22 @@
         <v>320</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A168" s="12">
+    <row r="168" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A168" s="58">
         <v>166</v>
       </c>
-      <c r="B168" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="C168" s="12" t="s">
+      <c r="B168" s="118" t="s">
+        <v>640</v>
+      </c>
+      <c r="C168" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D168" s="58" t="s">
+        <v>682</v>
+      </c>
+      <c r="E168" s="17"/>
+    </row>
+    <row r="169" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="12">
         <v>167</v>
       </c>
@@ -44415,18 +45066,22 @@
         <v>320</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="12">
+    <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="58">
         <v>168</v>
       </c>
-      <c r="B170" s="18" t="s">
+      <c r="B170" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="C170" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C170" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D170" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E170" s="17"/>
+    </row>
+    <row r="171" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="12">
         <v>169</v>
       </c>
@@ -44437,40 +45092,52 @@
         <v>282</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A172" s="12">
+    <row r="172" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A172" s="58">
         <v>170</v>
       </c>
-      <c r="B172" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C172" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A173" s="12">
+      <c r="B172" s="118" t="s">
+        <v>845</v>
+      </c>
+      <c r="C172" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D172" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="E172" s="17"/>
+    </row>
+    <row r="173" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A173" s="58">
         <v>171</v>
       </c>
-      <c r="B173" s="10" t="s">
+      <c r="B173" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="C173" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A174" s="12">
+      <c r="C173" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D173" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E173" s="17"/>
+    </row>
+    <row r="174" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A174" s="58">
         <v>172</v>
       </c>
-      <c r="B174" s="10" t="s">
+      <c r="B174" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C174" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C174" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D174" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E174" s="17"/>
+    </row>
+    <row r="175" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="12">
         <v>173</v>
       </c>
@@ -44481,73 +45148,95 @@
         <v>798</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="12">
+    <row r="176" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="58">
         <v>174</v>
       </c>
-      <c r="B176" s="69" t="s">
-        <v>302</v>
-      </c>
-      <c r="C176" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="12">
+      <c r="B176" s="130" t="s">
+        <v>456</v>
+      </c>
+      <c r="C176" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D176" s="58" t="s">
+        <v>846</v>
+      </c>
+      <c r="E176" s="17"/>
+    </row>
+    <row r="177" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="58">
         <v>175</v>
       </c>
-      <c r="B177" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="C177" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="12">
+      <c r="B177" s="121" t="s">
+        <v>457</v>
+      </c>
+      <c r="C177" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D177" s="60" t="s">
+        <v>501</v>
+      </c>
+      <c r="E177" s="17"/>
+    </row>
+    <row r="178" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="46">
         <v>176</v>
       </c>
-      <c r="B178" s="18" t="s">
+      <c r="B178" s="86" t="s">
         <v>355</v>
       </c>
-      <c r="C178" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A179" s="12">
+      <c r="C178" s="46" t="s">
+        <v>320</v>
+      </c>
+      <c r="D178" s="46"/>
+      <c r="E178" s="32"/>
+    </row>
+    <row r="179" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A179" s="58">
         <v>177</v>
       </c>
-      <c r="B179" s="10" t="s">
+      <c r="B179" s="20" t="s">
         <v>592</v>
       </c>
-      <c r="C179" s="12" t="s">
+      <c r="C179" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="12">
+      <c r="D179" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E179" s="17"/>
+    </row>
+    <row r="180" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="58">
         <v>178</v>
       </c>
-      <c r="B180" s="103" t="s">
+      <c r="B180" s="121" t="s">
         <v>748</v>
       </c>
-      <c r="C180" s="12" t="s">
+      <c r="C180" s="58" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A181" s="12">
+      <c r="D180" s="58" t="s">
+        <v>847</v>
+      </c>
+      <c r="E180" s="17"/>
+    </row>
+    <row r="181" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A181" s="58">
         <v>179</v>
       </c>
-      <c r="B181" s="10" t="s">
-        <v>580</v>
-      </c>
-      <c r="C181" s="12" t="s">
+      <c r="B181" s="118" t="s">
+        <v>642</v>
+      </c>
+      <c r="C181" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="D181" s="58" t="s">
+        <v>494</v>
+      </c>
+      <c r="E181" s="17"/>
+    </row>
+    <row r="182" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A182" s="12">
         <v>180</v>
       </c>
@@ -44558,7 +45247,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="12">
         <v>181</v>
       </c>
@@ -44569,7 +45258,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="12">
         <v>182</v>
       </c>
@@ -44580,7 +45269,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="12">
         <v>183</v>
       </c>
@@ -44591,7 +45280,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="12">
         <v>184</v>
       </c>
@@ -44602,7 +45291,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="12">
         <v>185</v>
       </c>
@@ -44613,29 +45302,37 @@
         <v>798</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A188" s="12">
+    <row r="188" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A188" s="58">
         <v>186</v>
       </c>
-      <c r="B188" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="C188" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A189" s="12">
+      <c r="B188" s="121" t="s">
+        <v>423</v>
+      </c>
+      <c r="C188" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D188" s="60" t="s">
+        <v>505</v>
+      </c>
+      <c r="E188" s="17"/>
+    </row>
+    <row r="189" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A189" s="58">
         <v>187</v>
       </c>
-      <c r="B189" s="10" t="s">
+      <c r="B189" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="C189" s="12" t="s">
+      <c r="C189" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D189" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E189" s="17"/>
+    </row>
+    <row r="190" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="12">
         <v>188</v>
       </c>
@@ -44646,7 +45343,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="12">
         <v>189</v>
       </c>
@@ -44657,7 +45354,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="12">
         <v>190</v>
       </c>
@@ -44668,7 +45365,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A193" s="12">
         <v>191</v>
       </c>
@@ -44679,7 +45376,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A194" s="12">
         <v>192</v>
       </c>
@@ -44690,7 +45387,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="12">
         <v>193</v>
       </c>
@@ -44701,7 +45398,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="12">
         <v>194</v>
       </c>
@@ -44712,7 +45409,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A197" s="12">
         <v>195</v>
       </c>
@@ -44723,7 +45420,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A198" s="12">
         <v>196</v>
       </c>
@@ -44734,117 +45431,157 @@
         <v>554</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A199" s="12">
+    <row r="199" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A199" s="58">
         <v>197</v>
       </c>
-      <c r="B199" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C199" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" s="12">
+      <c r="B199" s="120" t="s">
+        <v>199</v>
+      </c>
+      <c r="C199" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D199" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="E199" s="17"/>
+    </row>
+    <row r="200" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" s="58">
         <v>198</v>
       </c>
-      <c r="B200" s="103" t="s">
+      <c r="B200" s="121" t="s">
         <v>751</v>
       </c>
-      <c r="C200" s="12" t="s">
+      <c r="C200" s="58" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A201" s="12">
+      <c r="D200" s="58" t="s">
+        <v>494</v>
+      </c>
+      <c r="E200" s="17"/>
+    </row>
+    <row r="201" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A201" s="58">
         <v>199</v>
       </c>
-      <c r="B201" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C201" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="12">
+      <c r="B201" s="120" t="s">
         <v>200</v>
       </c>
-      <c r="B202" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="C202" s="12" t="s">
+      <c r="C201" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D201" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="E201" s="17"/>
+    </row>
+    <row r="202" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="58">
+        <v>200</v>
+      </c>
+      <c r="B202" s="118" t="s">
+        <v>644</v>
+      </c>
+      <c r="C202" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="12">
+      <c r="D202" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E202" s="17"/>
+    </row>
+    <row r="203" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="58">
         <v>201</v>
       </c>
-      <c r="B203" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="C203" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A204" s="12">
+      <c r="B203" s="121" t="s">
+        <v>460</v>
+      </c>
+      <c r="C203" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D203" s="58" t="s">
+        <v>494</v>
+      </c>
+      <c r="E203" s="17"/>
+    </row>
+    <row r="204" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A204" s="58">
         <v>202</v>
       </c>
-      <c r="B204" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="C204" s="12" t="s">
+      <c r="B204" s="118" t="s">
+        <v>645</v>
+      </c>
+      <c r="C204" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="12">
+      <c r="D204" s="129" t="s">
+        <v>680</v>
+      </c>
+      <c r="E204" s="17"/>
+    </row>
+    <row r="205" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="58">
         <v>203</v>
       </c>
-      <c r="B205" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C205" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A206" s="12">
+      <c r="B205" s="120" t="s">
+        <v>202</v>
+      </c>
+      <c r="C205" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D205" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="E205" s="17"/>
+    </row>
+    <row r="206" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A206" s="58">
         <v>204</v>
       </c>
-      <c r="B206" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="C206" s="12" t="s">
+      <c r="B206" s="118" t="s">
+        <v>646</v>
+      </c>
+      <c r="C206" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A207" s="12">
+      <c r="D206" s="58" t="s">
+        <v>681</v>
+      </c>
+      <c r="E206" s="17"/>
+    </row>
+    <row r="207" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" s="58">
         <v>205</v>
       </c>
-      <c r="B207" s="103" t="s">
+      <c r="B207" s="121" t="s">
         <v>774</v>
       </c>
-      <c r="C207" s="12" t="s">
+      <c r="C207" s="58" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A208" s="12">
+      <c r="D207" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E207" s="17"/>
+    </row>
+    <row r="208" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A208" s="58">
         <v>206</v>
       </c>
-      <c r="B208" s="10" t="s">
+      <c r="B208" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="C208" s="12" t="s">
+      <c r="C208" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="D208" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E208" s="17"/>
+    </row>
+    <row r="209" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A209" s="12">
         <v>207</v>
       </c>
@@ -44855,51 +45592,67 @@
         <v>798</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="12">
+    <row r="210" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="58">
         <v>208</v>
       </c>
-      <c r="B210" s="5" t="s">
+      <c r="B210" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C210" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="12">
+      <c r="C210" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D210" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E210" s="17"/>
+    </row>
+    <row r="211" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="58">
         <v>209</v>
       </c>
-      <c r="B211" s="5" t="s">
+      <c r="B211" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C211" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="12">
+      <c r="C211" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D211" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E211" s="17"/>
+    </row>
+    <row r="212" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="58">
         <v>210</v>
       </c>
-      <c r="B212" s="103" t="s">
+      <c r="B212" s="121" t="s">
         <v>792</v>
       </c>
-      <c r="C212" s="12" t="s">
+      <c r="C212" s="58" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A213" s="12">
+      <c r="D212" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E212" s="17"/>
+    </row>
+    <row r="213" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A213" s="58">
         <v>211</v>
       </c>
-      <c r="B213" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="C213" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="121" t="s">
+        <v>461</v>
+      </c>
+      <c r="C213" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D213" s="60" t="s">
+        <v>848</v>
+      </c>
+      <c r="E213" s="17"/>
+    </row>
+    <row r="214" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="12">
         <v>212</v>
       </c>
@@ -44910,7 +45663,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="12">
         <v>213</v>
       </c>
@@ -44921,7 +45674,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A216" s="12">
         <v>214</v>
       </c>
@@ -44932,7 +45685,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A217" s="12">
         <v>215</v>
       </c>
@@ -44943,7 +45696,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="12">
         <v>216</v>
       </c>
@@ -44954,161 +45707,217 @@
         <v>798</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A219" s="12">
+    <row r="219" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A219" s="58">
         <v>217</v>
       </c>
-      <c r="B219" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="C219" s="12" t="s">
+      <c r="B219" s="118" t="s">
+        <v>648</v>
+      </c>
+      <c r="C219" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A220" s="12">
+      <c r="D219" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E219" s="17"/>
+    </row>
+    <row r="220" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A220" s="58">
         <v>218</v>
       </c>
-      <c r="B220" s="18" t="s">
+      <c r="B220" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="C220" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A221" s="12">
+      <c r="C220" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D220" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E220" s="17"/>
+    </row>
+    <row r="221" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A221" s="58">
         <v>219</v>
       </c>
-      <c r="B221" s="10" t="s">
+      <c r="B221" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="C221" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A222" s="12">
+      <c r="C221" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D221" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E221" s="17"/>
+    </row>
+    <row r="222" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A222" s="58">
         <v>220</v>
       </c>
-      <c r="B222" s="18" t="s">
+      <c r="B222" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="C222" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A223" s="12">
+      <c r="C222" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D222" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E222" s="17"/>
+    </row>
+    <row r="223" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A223" s="58">
         <v>221</v>
       </c>
-      <c r="B223" s="10" t="s">
+      <c r="B223" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="C223" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="12">
+      <c r="C223" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D223" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E223" s="17"/>
+    </row>
+    <row r="224" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="58">
         <v>222</v>
       </c>
-      <c r="B224" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="C224" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="12">
+      <c r="B224" s="121" t="s">
+        <v>463</v>
+      </c>
+      <c r="C224" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D224" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="E224" s="17"/>
+    </row>
+    <row r="225" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="58">
         <v>223</v>
       </c>
-      <c r="B225" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="C225" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A226" s="12">
+      <c r="B225" s="121" t="s">
+        <v>464</v>
+      </c>
+      <c r="C225" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D225" s="58" t="s">
+        <v>682</v>
+      </c>
+      <c r="E225" s="17"/>
+    </row>
+    <row r="226" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A226" s="58">
         <v>224</v>
       </c>
-      <c r="B226" s="18" t="s">
+      <c r="B226" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="C226" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A227" s="12">
+      <c r="C226" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D226" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E226" s="17"/>
+    </row>
+    <row r="227" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A227" s="58">
         <v>225</v>
       </c>
-      <c r="B227" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="C227" s="12" t="s">
+      <c r="B227" s="118" t="s">
+        <v>649</v>
+      </c>
+      <c r="C227" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="12">
+      <c r="D227" s="17" t="s">
+        <v>682</v>
+      </c>
+      <c r="E227" s="17"/>
+    </row>
+    <row r="228" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="58">
         <v>226</v>
       </c>
-      <c r="B228" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C228" s="12" t="s">
+      <c r="B228" s="118" t="s">
+        <v>650</v>
+      </c>
+      <c r="C228" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A229" s="12">
+      <c r="D228" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="E228" s="17"/>
+    </row>
+    <row r="229" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A229" s="58">
         <v>227</v>
       </c>
-      <c r="B229" s="10" t="s">
+      <c r="B229" s="20" t="s">
         <v>568</v>
       </c>
-      <c r="C229" s="12" t="s">
+      <c r="C229" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A230" s="12">
+      <c r="D229" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E229" s="17"/>
+    </row>
+    <row r="230" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A230" s="58">
         <v>228</v>
       </c>
-      <c r="B230" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C230" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A231" s="12">
+      <c r="B230" s="120" t="s">
+        <v>205</v>
+      </c>
+      <c r="C230" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D230" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E230" s="17"/>
+    </row>
+    <row r="231" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A231" s="58">
         <v>229</v>
       </c>
-      <c r="B231" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C231" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="12">
+      <c r="B231" s="120" t="s">
+        <v>206</v>
+      </c>
+      <c r="C231" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D231" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E231" s="17"/>
+    </row>
+    <row r="232" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A232" s="58">
         <v>230</v>
       </c>
-      <c r="B232" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="C232" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B232" s="121" t="s">
+        <v>465</v>
+      </c>
+      <c r="C232" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D232" s="58" t="s">
+        <v>508</v>
+      </c>
+      <c r="E232" s="17"/>
+    </row>
+    <row r="233" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A233" s="12">
         <v>231</v>
       </c>
@@ -45119,7 +45928,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A234" s="12">
         <v>232</v>
       </c>
@@ -45130,7 +45939,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A235" s="12">
         <v>233</v>
       </c>
@@ -45141,29 +45950,37 @@
         <v>798</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="12">
+    <row r="236" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="58">
         <v>234</v>
       </c>
-      <c r="B236" s="5" t="s">
+      <c r="B236" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C236" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A237" s="12">
+      <c r="C236" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D236" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E236" s="17"/>
+    </row>
+    <row r="237" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A237" s="58">
         <v>235</v>
       </c>
-      <c r="B237" s="18" t="s">
+      <c r="B237" s="33" t="s">
         <v>359</v>
       </c>
-      <c r="C237" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C237" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D237" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E237" s="17"/>
+    </row>
+    <row r="238" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="12">
         <v>236</v>
       </c>
@@ -45174,7 +45991,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="12">
         <v>237</v>
       </c>
@@ -45185,18 +46002,22 @@
         <v>282</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="12">
+    <row r="240" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="58">
         <v>238</v>
       </c>
-      <c r="B240" s="5" t="s">
+      <c r="B240" s="120" t="s">
         <v>89</v>
       </c>
-      <c r="C240" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C240" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D240" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="E240" s="17"/>
+    </row>
+    <row r="241" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A241" s="12">
         <v>239</v>
       </c>
@@ -45207,139 +46028,189 @@
         <v>320</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="12">
+    <row r="242" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="58">
         <v>240</v>
       </c>
-      <c r="B242" s="10" t="s">
-        <v>589</v>
-      </c>
-      <c r="C242" s="12" t="s">
+      <c r="B242" s="118" t="s">
+        <v>651</v>
+      </c>
+      <c r="C242" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="12">
+      <c r="D242" s="60" t="s">
+        <v>494</v>
+      </c>
+      <c r="E242" s="17"/>
+    </row>
+    <row r="243" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="58">
         <v>241</v>
       </c>
-      <c r="B243" s="18" t="s">
+      <c r="B243" s="33" t="s">
         <v>375</v>
       </c>
-      <c r="C243" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="12">
+      <c r="C243" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D243" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E243" s="17"/>
+    </row>
+    <row r="244" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="58">
         <v>242</v>
       </c>
-      <c r="B244" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="C244" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="12">
+      <c r="B244" s="121" t="s">
+        <v>426</v>
+      </c>
+      <c r="C244" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D244" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E244" s="17"/>
+    </row>
+    <row r="245" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="58">
         <v>243</v>
       </c>
-      <c r="B245" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="C245" s="12" t="s">
+      <c r="B245" s="118" t="s">
+        <v>652</v>
+      </c>
+      <c r="C245" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="12">
+      <c r="D245" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E245" s="17"/>
+    </row>
+    <row r="246" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="58">
         <v>244</v>
       </c>
-      <c r="B246" s="18" t="s">
+      <c r="B246" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="C246" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="12">
+      <c r="C246" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D246" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E246" s="17"/>
+    </row>
+    <row r="247" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="58">
         <v>245</v>
       </c>
-      <c r="B247" s="18" t="s">
+      <c r="B247" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="C247" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A248" s="12">
+      <c r="C247" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D247" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E247" s="17"/>
+    </row>
+    <row r="248" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A248" s="58">
         <v>246</v>
       </c>
-      <c r="B248" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C248" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A249" s="12">
+      <c r="B248" s="120" t="s">
+        <v>246</v>
+      </c>
+      <c r="C248" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D248" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="B249" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="C249" s="12" t="s">
+      <c r="E248" s="17"/>
+    </row>
+    <row r="249" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A249" s="58">
+        <v>247</v>
+      </c>
+      <c r="B249" s="118" t="s">
+        <v>654</v>
+      </c>
+      <c r="C249" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A250" s="12">
+      <c r="D249" s="58" t="s">
+        <v>682</v>
+      </c>
+      <c r="E249" s="17"/>
+    </row>
+    <row r="250" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A250" s="58">
         <v>248</v>
       </c>
-      <c r="B250" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="C250" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A251" s="12">
+      <c r="B250" s="121" t="s">
+        <v>849</v>
+      </c>
+      <c r="C250" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D250" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E250" s="17"/>
+    </row>
+    <row r="251" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A251" s="58">
         <v>249</v>
       </c>
-      <c r="B251" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C251" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="12">
+      <c r="B251" s="120" t="s">
+        <v>214</v>
+      </c>
+      <c r="C251" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D251" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="E251" s="17"/>
+    </row>
+    <row r="252" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="58">
         <v>250</v>
       </c>
-      <c r="B252" s="9" t="s">
+      <c r="B252" s="130" t="s">
         <v>328</v>
       </c>
-      <c r="C252" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A253" s="12">
+      <c r="C252" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D252" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E252" s="60" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A253" s="58">
         <v>251</v>
       </c>
-      <c r="B253" s="18" t="s">
+      <c r="B253" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="C253" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C253" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D253" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E253" s="17"/>
+    </row>
+    <row r="254" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="12">
         <v>252</v>
       </c>
@@ -45350,73 +46221,97 @@
         <v>320</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A255" s="12">
+    <row r="255" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A255" s="58">
         <v>253</v>
       </c>
-      <c r="B255" s="10" t="s">
-        <v>591</v>
-      </c>
-      <c r="C255" s="12" t="s">
+      <c r="B255" s="118" t="s">
+        <v>655</v>
+      </c>
+      <c r="C255" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A256" s="12">
+      <c r="D255" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="E255" s="17"/>
+    </row>
+    <row r="256" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A256" s="58">
         <v>254</v>
       </c>
-      <c r="B256" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="C256" s="12" t="s">
+      <c r="B256" s="118" t="s">
+        <v>614</v>
+      </c>
+      <c r="C256" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A257" s="12">
+      <c r="D256" s="58" t="s">
+        <v>682</v>
+      </c>
+      <c r="E256" s="17"/>
+    </row>
+    <row r="257" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A257" s="58">
         <v>255</v>
       </c>
-      <c r="B257" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C257" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A258" s="12">
+      <c r="B257" s="120" t="s">
+        <v>216</v>
+      </c>
+      <c r="C257" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D257" s="58" t="s">
+        <v>215</v>
+      </c>
+      <c r="E257" s="17"/>
+    </row>
+    <row r="258" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A258" s="58">
         <v>256</v>
       </c>
-      <c r="B258" s="9" t="s">
+      <c r="B258" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C258" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A259" s="12">
+      <c r="C258" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D258" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E258" s="17"/>
+    </row>
+    <row r="259" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A259" s="58">
         <v>257</v>
       </c>
-      <c r="B259" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C259" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="12">
+      <c r="B259" s="120" t="s">
+        <v>218</v>
+      </c>
+      <c r="C259" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D259" s="58" t="s">
+        <v>215</v>
+      </c>
+      <c r="E259" s="17"/>
+    </row>
+    <row r="260" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="58">
         <v>258</v>
       </c>
-      <c r="B260" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="C260" s="12" t="s">
+      <c r="B260" s="118" t="s">
+        <v>656</v>
+      </c>
+      <c r="C260" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D260" s="58" t="s">
+        <v>682</v>
+      </c>
+      <c r="E260" s="17"/>
+    </row>
+    <row r="261" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="12">
         <v>259</v>
       </c>
@@ -45427,172 +46322,232 @@
         <v>320</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A262" s="12">
+    <row r="262" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A262" s="58">
         <v>260</v>
       </c>
-      <c r="B262" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="C262" s="12" t="s">
+      <c r="B262" s="118" t="s">
+        <v>657</v>
+      </c>
+      <c r="C262" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="12">
+      <c r="D262" s="58" t="s">
+        <v>682</v>
+      </c>
+      <c r="E262" s="17"/>
+    </row>
+    <row r="263" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="58">
         <v>261</v>
       </c>
-      <c r="B263" s="9" t="s">
+      <c r="B263" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C263" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="12">
+      <c r="C263" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D263" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E263" s="17"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="58">
         <v>262</v>
       </c>
-      <c r="B264" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="C264" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A265" s="12">
+      <c r="B264" s="121" t="s">
+        <v>467</v>
+      </c>
+      <c r="C264" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D264" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E264" s="17"/>
+    </row>
+    <row r="265" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A265" s="58">
         <v>263</v>
       </c>
-      <c r="B265" s="10" t="s">
-        <v>581</v>
-      </c>
-      <c r="C265" s="12" t="s">
+      <c r="B265" s="118" t="s">
+        <v>658</v>
+      </c>
+      <c r="C265" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="12">
+      <c r="D265" s="58" t="s">
+        <v>850</v>
+      </c>
+      <c r="E265" s="17"/>
+    </row>
+    <row r="266" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="58">
         <v>264</v>
       </c>
-      <c r="B266" s="98" t="s">
-        <v>712</v>
-      </c>
-      <c r="C266" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A267" s="12">
+      <c r="B266" s="118" t="s">
+        <v>851</v>
+      </c>
+      <c r="C266" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D266" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E266" s="17"/>
+    </row>
+    <row r="267" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A267" s="58">
         <v>265</v>
       </c>
-      <c r="B267" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="C267" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="12">
+      <c r="B267" s="121" t="s">
+        <v>429</v>
+      </c>
+      <c r="C267" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D267" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="E267" s="17"/>
+    </row>
+    <row r="268" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="58">
         <v>266</v>
       </c>
-      <c r="B268" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="C268" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A269" s="12">
+      <c r="B268" s="121" t="s">
+        <v>468</v>
+      </c>
+      <c r="C268" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D268" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E268" s="17"/>
+    </row>
+    <row r="269" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A269" s="58">
         <v>267</v>
       </c>
-      <c r="B269" s="96" t="s">
-        <v>701</v>
-      </c>
-      <c r="C269" s="12" t="s">
+      <c r="B269" s="118" t="s">
+        <v>815</v>
+      </c>
+      <c r="C269" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A270" s="12">
+      <c r="D269" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E269" s="17"/>
+    </row>
+    <row r="270" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A270" s="58">
         <v>268</v>
       </c>
-      <c r="B270" s="98" t="s">
-        <v>720</v>
-      </c>
-      <c r="C270" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="12">
+      <c r="B270" s="118" t="s">
+        <v>852</v>
+      </c>
+      <c r="C270" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D270" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E270" s="17"/>
+    </row>
+    <row r="271" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="58">
         <v>269</v>
       </c>
-      <c r="B271" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="C271" s="12" t="s">
+      <c r="B271" s="118" t="s">
+        <v>659</v>
+      </c>
+      <c r="C271" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="12">
+      <c r="D271" s="58" t="s">
+        <v>494</v>
+      </c>
+      <c r="E271" s="17"/>
+    </row>
+    <row r="272" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="58">
         <v>270</v>
       </c>
-      <c r="B272" s="103" t="s">
+      <c r="B272" s="121" t="s">
         <v>761</v>
       </c>
-      <c r="C272" s="12" t="s">
+      <c r="C272" s="58" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A273" s="12">
+      <c r="D272" s="58" t="s">
+        <v>494</v>
+      </c>
+      <c r="E272" s="17"/>
+    </row>
+    <row r="273" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A273" s="58">
         <v>271</v>
       </c>
-      <c r="B273" s="18" t="s">
+      <c r="B273" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="C273" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="12">
+      <c r="C273" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D273" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E273" s="17"/>
+    </row>
+    <row r="274" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="58">
         <v>272</v>
       </c>
-      <c r="B274" s="98" t="s">
-        <v>711</v>
-      </c>
-      <c r="C274" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="12">
+      <c r="B274" s="118" t="s">
+        <v>854</v>
+      </c>
+      <c r="C274" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D274" s="60" t="s">
+        <v>853</v>
+      </c>
+      <c r="E274" s="17"/>
+    </row>
+    <row r="275" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="58">
         <v>273</v>
       </c>
-      <c r="B275" s="98" t="s">
+      <c r="B275" s="20" t="s">
         <v>719</v>
       </c>
-      <c r="C275" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A276" s="12">
+      <c r="C275" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D275" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E275" s="17"/>
+    </row>
+    <row r="276" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A276" s="58">
         <v>274</v>
       </c>
-      <c r="B276" s="103" t="s">
+      <c r="B276" s="33" t="s">
         <v>775</v>
       </c>
-      <c r="C276" s="12" t="s">
+      <c r="C276" s="58" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D276" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E276" s="17"/>
+    </row>
+    <row r="277" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="12">
         <v>275</v>
       </c>
@@ -45603,7 +46558,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="12">
         <v>276</v>
       </c>
@@ -45614,7 +46569,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="12">
         <v>277</v>
       </c>
@@ -45625,29 +46580,37 @@
         <v>282</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A280" s="12">
+    <row r="280" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A280" s="58">
         <v>278</v>
       </c>
-      <c r="B280" s="5" t="s">
+      <c r="B280" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C280" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A281" s="12">
+      <c r="C280" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D280" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E280" s="17"/>
+    </row>
+    <row r="281" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A281" s="58">
         <v>279</v>
       </c>
-      <c r="B281" s="5" t="s">
+      <c r="B281" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="C281" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C281" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D281" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="E281" s="17"/>
+    </row>
+    <row r="282" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="12">
         <v>280</v>
       </c>
@@ -45658,7 +46621,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="12">
         <v>281</v>
       </c>
@@ -45669,84 +46632,110 @@
         <v>798</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A284" s="12">
-        <v>282</v>
-      </c>
-      <c r="B284" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C284" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="12">
+    <row r="284" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A284" s="58">
+        <v>282</v>
+      </c>
+      <c r="B284" s="118" t="s">
+        <v>269</v>
+      </c>
+      <c r="C284" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D284" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="E284" s="17"/>
+    </row>
+    <row r="285" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="46">
         <v>283</v>
       </c>
-      <c r="B285" s="18" t="s">
+      <c r="B285" s="86" t="s">
         <v>293</v>
       </c>
-      <c r="C285" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="12">
+      <c r="C285" s="46" t="s">
+        <v>320</v>
+      </c>
+      <c r="D285" s="46"/>
+      <c r="E285" s="32"/>
+    </row>
+    <row r="286" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="58">
         <v>284</v>
       </c>
-      <c r="B286" s="18" t="s">
+      <c r="B286" s="121" t="s">
         <v>324</v>
       </c>
-      <c r="C286" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="12">
+      <c r="C286" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D286" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E286" s="17"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="58">
         <v>285</v>
       </c>
-      <c r="B287" s="110" t="s">
+      <c r="B287" s="17" t="s">
         <v>781</v>
       </c>
-      <c r="C287" s="12" t="s">
+      <c r="C287" s="58" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="12">
+      <c r="D287" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E287" s="17"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="58">
         <v>286</v>
       </c>
-      <c r="B288" s="5" t="s">
+      <c r="B288" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C288" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A289" s="12">
+      <c r="C288" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D288" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="E288" s="17"/>
+    </row>
+    <row r="289" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A289" s="58">
         <v>287</v>
       </c>
-      <c r="B289" s="103" t="s">
+      <c r="B289" s="33" t="s">
         <v>753</v>
       </c>
-      <c r="C289" s="12" t="s">
+      <c r="C289" s="58" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A290" s="12">
+      <c r="D289" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E289" s="17"/>
+    </row>
+    <row r="290" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A290" s="58">
         <v>288</v>
       </c>
-      <c r="B290" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="C290" s="12" t="s">
+      <c r="B290" s="118" t="s">
+        <v>660</v>
+      </c>
+      <c r="C290" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D290" s="17" t="s">
+        <v>682</v>
+      </c>
+      <c r="E290" s="17"/>
+    </row>
+    <row r="291" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="12">
         <v>289</v>
       </c>
@@ -45757,370 +46746,504 @@
         <v>282</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A292" s="12">
+    <row r="292" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A292" s="58">
         <v>290</v>
       </c>
-      <c r="B292" s="103" t="s">
+      <c r="B292" s="33" t="s">
         <v>754</v>
       </c>
-      <c r="C292" s="12" t="s">
+      <c r="C292" s="58" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="12">
+      <c r="D292" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E292" s="17"/>
+    </row>
+    <row r="293" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="58">
         <v>291</v>
       </c>
-      <c r="B293" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="C293" s="12" t="s">
+      <c r="B293" s="118" t="s">
+        <v>661</v>
+      </c>
+      <c r="C293" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="12">
+      <c r="D293" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="E293" s="17"/>
+    </row>
+    <row r="294" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="46">
         <v>292</v>
       </c>
-      <c r="B294" s="18" t="s">
+      <c r="B294" s="86" t="s">
         <v>326</v>
       </c>
-      <c r="C294" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A295" s="12">
+      <c r="C294" s="46" t="s">
+        <v>320</v>
+      </c>
+      <c r="D294" s="46"/>
+      <c r="E294" s="32"/>
+    </row>
+    <row r="295" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A295" s="58">
         <v>293</v>
       </c>
-      <c r="B295" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="C295" s="12" t="s">
+      <c r="B295" s="118" t="s">
+        <v>662</v>
+      </c>
+      <c r="C295" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A296" s="12">
+      <c r="D295" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E295" s="17"/>
+    </row>
+    <row r="296" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A296" s="58">
         <v>294</v>
       </c>
-      <c r="B296" s="108" t="s">
+      <c r="B296" s="84" t="s">
         <v>768</v>
       </c>
-      <c r="C296" s="12" t="s">
+      <c r="C296" s="58" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A297" s="12">
+      <c r="D296" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E296" s="17" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A297" s="58">
         <v>295</v>
       </c>
-      <c r="B297" s="49" t="s">
-        <v>608</v>
-      </c>
-      <c r="C297" s="12" t="s">
+      <c r="B297" s="118" t="s">
+        <v>664</v>
+      </c>
+      <c r="C297" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A298" s="12">
+      <c r="D297" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E297" s="17"/>
+    </row>
+    <row r="298" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A298" s="58">
         <v>296</v>
       </c>
-      <c r="B298" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C298" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="12">
+      <c r="B298" s="120" t="s">
+        <v>223</v>
+      </c>
+      <c r="C298" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D298" s="58" t="s">
+        <v>850</v>
+      </c>
+      <c r="E298" s="17"/>
+    </row>
+    <row r="299" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="58">
         <v>297</v>
       </c>
-      <c r="B299" s="10" t="s">
+      <c r="B299" s="20" t="s">
         <v>599</v>
       </c>
-      <c r="C299" s="12" t="s">
+      <c r="C299" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A300" s="12">
+      <c r="D299" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E299" s="17"/>
+    </row>
+    <row r="300" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A300" s="58">
         <v>298</v>
       </c>
-      <c r="B300" s="10" t="s">
+      <c r="B300" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C300" s="12" t="s">
+      <c r="C300" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A301" s="12">
+      <c r="D300" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E300" s="17"/>
+    </row>
+    <row r="301" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A301" s="58">
         <v>299</v>
       </c>
-      <c r="B301" s="10" t="s">
-        <v>573</v>
-      </c>
-      <c r="C301" s="12" t="s">
+      <c r="B301" s="118" t="s">
+        <v>665</v>
+      </c>
+      <c r="C301" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="12">
+      <c r="D301" s="58" t="s">
+        <v>494</v>
+      </c>
+      <c r="E301" s="17"/>
+    </row>
+    <row r="302" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="58">
         <v>300</v>
       </c>
-      <c r="B302" s="18" t="s">
+      <c r="B302" s="121" t="s">
+        <v>472</v>
+      </c>
+      <c r="C302" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D302" s="58" t="s">
+        <v>682</v>
+      </c>
+      <c r="E302" s="17"/>
+    </row>
+    <row r="303" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="58">
+        <v>301</v>
+      </c>
+      <c r="B303" s="120" t="s">
+        <v>225</v>
+      </c>
+      <c r="C303" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D303" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="E303" s="17"/>
+    </row>
+    <row r="304" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="58">
+        <v>302</v>
+      </c>
+      <c r="B304" s="118" t="s">
+        <v>227</v>
+      </c>
+      <c r="C304" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D304" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="E304" s="17"/>
+    </row>
+    <row r="305" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="58">
         <v>303</v>
       </c>
-      <c r="C302" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="12">
-        <v>301</v>
-      </c>
-      <c r="B303" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C303" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="12">
-        <v>302</v>
-      </c>
-      <c r="B304" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C304" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="12">
-        <v>303</v>
-      </c>
-      <c r="B305" s="5" t="s">
+      <c r="B305" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C305" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="12">
+      <c r="C305" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D305" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E305" s="17"/>
+    </row>
+    <row r="306" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="58">
         <v>304</v>
       </c>
-      <c r="B306" s="10" t="s">
+      <c r="B306" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="C306" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="12">
+      <c r="C306" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D306" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E306" s="17"/>
+    </row>
+    <row r="307" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="58">
         <v>305</v>
       </c>
-      <c r="B307" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="C307" s="12" t="s">
+      <c r="B307" s="118" t="s">
+        <v>615</v>
+      </c>
+      <c r="C307" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="12">
+      <c r="D307" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E307" s="17"/>
+    </row>
+    <row r="308" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="58">
         <v>306</v>
       </c>
-      <c r="B308" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C308" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="12">
+      <c r="B308" s="120" t="s">
+        <v>229</v>
+      </c>
+      <c r="C308" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D308" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E308" s="17"/>
+    </row>
+    <row r="309" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="58">
         <v>307</v>
       </c>
-      <c r="B309" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="C309" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="12">
+      <c r="B309" s="121" t="s">
+        <v>430</v>
+      </c>
+      <c r="C309" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D309" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="E309" s="17"/>
+    </row>
+    <row r="310" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="58">
         <v>308</v>
       </c>
-      <c r="B310" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="C310" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A311" s="12">
+      <c r="B310" s="121" t="s">
+        <v>474</v>
+      </c>
+      <c r="C310" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D310" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E310" s="17"/>
+    </row>
+    <row r="311" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A311" s="58">
         <v>309</v>
       </c>
-      <c r="B311" s="18" t="s">
+      <c r="B311" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="C311" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A312" s="12">
+      <c r="C311" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D311" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E311" s="17"/>
+    </row>
+    <row r="312" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A312" s="58">
         <v>310</v>
       </c>
-      <c r="B312" s="69" t="s">
-        <v>286</v>
-      </c>
-      <c r="C312" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A313" s="12">
+      <c r="B312" s="130" t="s">
+        <v>434</v>
+      </c>
+      <c r="C312" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D312" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E312" s="17"/>
+    </row>
+    <row r="313" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A313" s="58">
         <v>311</v>
       </c>
-      <c r="B313" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="C313" s="12" t="s">
+      <c r="B313" s="118" t="s">
+        <v>668</v>
+      </c>
+      <c r="C313" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A314" s="12">
+      <c r="D313" s="58" t="s">
+        <v>494</v>
+      </c>
+      <c r="E313" s="17"/>
+    </row>
+    <row r="314" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A314" s="58">
         <v>312</v>
       </c>
-      <c r="B314" s="10" t="s">
+      <c r="B314" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="C314" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A315" s="12">
+      <c r="C314" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D314" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E314" s="17"/>
+    </row>
+    <row r="315" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A315" s="58">
         <v>313</v>
       </c>
-      <c r="B315" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="C315" s="12" t="s">
+      <c r="B315" s="118" t="s">
+        <v>669</v>
+      </c>
+      <c r="C315" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A316" s="12">
+      <c r="D315" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="E315" s="17"/>
+    </row>
+    <row r="316" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A316" s="58">
         <v>314</v>
       </c>
-      <c r="B316" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="C316" s="12" t="s">
+      <c r="B316" s="118" t="s">
+        <v>616</v>
+      </c>
+      <c r="C316" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="12">
+      <c r="D316" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E316" s="17"/>
+    </row>
+    <row r="317" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="58">
         <v>315</v>
       </c>
-      <c r="B317" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C317" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="12">
+      <c r="B317" s="120" t="s">
+        <v>237</v>
+      </c>
+      <c r="C317" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D317" s="58" t="s">
+        <v>843</v>
+      </c>
+      <c r="E317" s="17"/>
+    </row>
+    <row r="318" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="58">
         <v>316</v>
       </c>
-      <c r="B318" s="10" t="s">
+      <c r="B318" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="C318" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="12">
+      <c r="C318" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D318" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E318" s="58" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="58">
         <v>317</v>
       </c>
-      <c r="B319" s="96" t="s">
-        <v>704</v>
-      </c>
-      <c r="C319" s="12" t="s">
+      <c r="B319" s="118" t="s">
+        <v>858</v>
+      </c>
+      <c r="C319" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="12">
+      <c r="D319" s="58" t="s">
+        <v>843</v>
+      </c>
+      <c r="E319" s="17"/>
+    </row>
+    <row r="320" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="58">
         <v>318</v>
       </c>
-      <c r="B320" s="96" t="s">
-        <v>696</v>
-      </c>
-      <c r="C320" s="12" t="s">
+      <c r="B320" s="118" t="s">
+        <v>817</v>
+      </c>
+      <c r="C320" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="12">
+      <c r="D320" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E320" s="17"/>
+    </row>
+    <row r="321" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="58">
         <v>319</v>
       </c>
-      <c r="B321" s="10" t="s">
+      <c r="B321" s="20" t="s">
         <v>532</v>
       </c>
-      <c r="C321" s="12" t="s">
+      <c r="C321" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A322" s="12">
-        <v>320</v>
-      </c>
-      <c r="B322" s="9" t="s">
+      <c r="D321" s="58" t="s">
+        <v>682</v>
+      </c>
+      <c r="E321" s="17"/>
+    </row>
+    <row r="322" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A322" s="58">
+        <v>320</v>
+      </c>
+      <c r="B322" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C322" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A323" s="12">
+      <c r="C322" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D322" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E322" s="17"/>
+    </row>
+    <row r="323" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A323" s="58">
         <v>321</v>
       </c>
-      <c r="B323" s="10" t="s">
+      <c r="B323" s="20" t="s">
         <v>596</v>
       </c>
-      <c r="C323" s="12" t="s">
+      <c r="C323" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A324" s="12">
+      <c r="D323" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E323" s="17"/>
+    </row>
+    <row r="324" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A324" s="58">
         <v>322</v>
       </c>
-      <c r="B324" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C324" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B324" s="120" t="s">
+        <v>243</v>
+      </c>
+      <c r="C324" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D324" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E324" s="17"/>
+    </row>
+    <row r="325" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A325" s="12">
         <v>323</v>
       </c>
@@ -46131,84 +47254,112 @@
         <v>320</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="12">
+    <row r="326" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="58">
         <v>324</v>
       </c>
-      <c r="B326" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C326" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="12">
+      <c r="B326" s="118" t="s">
+        <v>244</v>
+      </c>
+      <c r="C326" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D326" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E326" s="17"/>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="58">
         <v>325</v>
       </c>
-      <c r="B327" s="30" t="s">
+      <c r="B327" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="C327" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A328" s="12">
+      <c r="C327" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D327" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E327" s="17"/>
+    </row>
+    <row r="328" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A328" s="58">
         <v>326</v>
       </c>
-      <c r="B328" s="10" t="s">
+      <c r="B328" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C328" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A329" s="12">
+      <c r="C328" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D328" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E328" s="17"/>
+    </row>
+    <row r="329" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A329" s="58">
         <v>327</v>
       </c>
-      <c r="B329" s="9" t="s">
+      <c r="B329" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C329" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="12">
+      <c r="C329" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D329" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E329" s="17"/>
+    </row>
+    <row r="330" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="58">
         <v>328</v>
       </c>
-      <c r="B330" s="96" t="s">
-        <v>697</v>
-      </c>
-      <c r="C330" s="12" t="s">
+      <c r="B330" s="118" t="s">
+        <v>818</v>
+      </c>
+      <c r="C330" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A331" s="12">
+      <c r="D330" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E330" s="17"/>
+    </row>
+    <row r="331" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A331" s="58">
         <v>329</v>
       </c>
-      <c r="B331" s="98" t="s">
-        <v>717</v>
-      </c>
-      <c r="C331" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="12">
+      <c r="B331" s="118" t="s">
+        <v>859</v>
+      </c>
+      <c r="C331" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D331" s="58" t="s">
+        <v>856</v>
+      </c>
+      <c r="E331" s="17"/>
+    </row>
+    <row r="332" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="58">
         <v>330</v>
       </c>
-      <c r="B332" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C332" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B332" s="120" t="s">
+        <v>118</v>
+      </c>
+      <c r="C332" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D332" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="E332" s="17"/>
+    </row>
+    <row r="333" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A333" s="12">
         <v>331</v>
       </c>
@@ -46219,104 +47370,138 @@
         <v>320</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="12">
+    <row r="334" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="46">
         <v>332</v>
       </c>
-      <c r="B334" s="22" t="s">
+      <c r="B334" s="132" t="s">
         <v>134</v>
       </c>
-      <c r="C334" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A335" s="12">
+      <c r="C334" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="D334" s="46"/>
+      <c r="E334" s="32"/>
+    </row>
+    <row r="335" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A335" s="58">
         <v>333</v>
       </c>
-      <c r="B335" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="C335" s="12" t="s">
+      <c r="B335" s="118" t="s">
+        <v>670</v>
+      </c>
+      <c r="C335" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A336" s="12">
+      <c r="D335" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E335" s="17"/>
+    </row>
+    <row r="336" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A336" s="58">
         <v>334</v>
       </c>
-      <c r="B336" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="C336" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A337" s="12">
+      <c r="B336" s="121" t="s">
+        <v>476</v>
+      </c>
+      <c r="C336" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D336" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E336" s="17"/>
+    </row>
+    <row r="337" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A337" s="58">
         <v>335</v>
       </c>
-      <c r="B337" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="C337" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="12">
+      <c r="B337" s="121" t="s">
+        <v>477</v>
+      </c>
+      <c r="C337" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D337" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E337" s="17"/>
+    </row>
+    <row r="338" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="58">
         <v>336</v>
       </c>
-      <c r="B338" s="22" t="s">
+      <c r="B338" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="C338" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A339" s="12">
+      <c r="C338" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D338" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E338" s="17"/>
+    </row>
+    <row r="339" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A339" s="58">
         <v>337</v>
       </c>
-      <c r="B339" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C339" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A340" s="12">
+      <c r="B339" s="118" t="s">
+        <v>279</v>
+      </c>
+      <c r="C339" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D339" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="E339" s="17"/>
+    </row>
+    <row r="340" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A340" s="58">
         <v>338</v>
       </c>
-      <c r="B340" s="96" t="s">
-        <v>705</v>
-      </c>
-      <c r="C340" s="12" t="s">
+      <c r="B340" s="118" t="s">
+        <v>861</v>
+      </c>
+      <c r="C340" s="58" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A341" s="12">
+      <c r="D340" s="58" t="s">
+        <v>860</v>
+      </c>
+      <c r="E340" s="17"/>
+    </row>
+    <row r="341" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A341" s="58">
         <v>339</v>
       </c>
-      <c r="B341" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="C341" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A342" s="12">
+      <c r="B341" s="121" t="s">
+        <v>478</v>
+      </c>
+      <c r="C341" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D341" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E341" s="17"/>
+    </row>
+    <row r="342" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A342" s="58">
         <v>340</v>
       </c>
-      <c r="B342" s="10" t="s">
+      <c r="B342" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="C342" s="12" t="s">
+      <c r="C342" s="58" t="s">
         <v>554</v>
       </c>
+      <c r="D342" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E342" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -46332,8 +47517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ319"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="B319" sqref="B319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46365,7 +47550,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>234</v>
       </c>
@@ -46379,7 +47564,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>133</v>
       </c>
@@ -46393,7 +47578,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>134</v>
       </c>
@@ -46488,7 +47673,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="9" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>135</v>
       </c>
@@ -46530,7 +47715,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="12" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>136</v>
       </c>
@@ -46558,7 +47743,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>137</v>
       </c>
@@ -46572,7 +47757,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>5</v>
       </c>
@@ -46586,7 +47771,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" ht="39" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>6</v>
       </c>
@@ -46600,7 +47785,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>138</v>
       </c>
@@ -46614,7 +47799,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="18" spans="1:43" ht="39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>7</v>
       </c>
@@ -46642,7 +47827,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:43" ht="39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>239</v>
       </c>
@@ -46670,7 +47855,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="22" spans="1:43" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>8</v>
       </c>
@@ -46684,7 +47869,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="32">
         <v>139</v>
       </c>
@@ -46698,7 +47883,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="1:43" ht="39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>241</v>
       </c>
@@ -46779,7 +47964,7 @@
       <c r="AP26" s="43"/>
       <c r="AQ26" s="43"/>
     </row>
-    <row r="27" spans="1:43" s="27" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" s="27" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>242</v>
       </c>
@@ -46832,7 +48017,7 @@
       <c r="AP27" s="43"/>
       <c r="AQ27" s="43"/>
     </row>
-    <row r="28" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>140</v>
       </c>
@@ -46846,7 +48031,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="29" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>141</v>
       </c>
@@ -46860,7 +48045,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="30" spans="1:43" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>11</v>
       </c>
@@ -46888,7 +48073,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" ht="39" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>243</v>
       </c>
@@ -46902,7 +48087,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>143</v>
       </c>
@@ -46930,7 +48115,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:43" ht="39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>13</v>
       </c>
@@ -46944,7 +48129,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:43" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43" ht="39" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>244</v>
       </c>
@@ -46958,7 +48143,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="37" spans="1:43" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>144</v>
       </c>
@@ -46997,7 +48182,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="40" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:43" ht="39" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>246</v>
       </c>
@@ -47025,7 +48210,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:43" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:43" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>14</v>
       </c>
@@ -47039,7 +48224,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>147</v>
       </c>
@@ -47067,7 +48252,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="45" spans="1:43" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>15</v>
       </c>
@@ -47081,7 +48266,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:43" s="27" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:43" s="27" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>16</v>
       </c>
@@ -47148,7 +48333,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:43" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="32">
         <v>148</v>
       </c>
@@ -47162,7 +48347,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="49" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>149</v>
       </c>
@@ -47190,7 +48375,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:43" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:43" s="27" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>248</v>
       </c>
@@ -47243,7 +48428,7 @@
       <c r="AP51" s="43"/>
       <c r="AQ51" s="43"/>
     </row>
-    <row r="52" spans="1:43" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:43" ht="39" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
         <v>18</v>
       </c>
@@ -47257,7 +48442,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>150</v>
       </c>
@@ -47271,7 +48456,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="54" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>151</v>
       </c>
@@ -47285,7 +48470,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:43" ht="39" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <v>152</v>
       </c>
@@ -47327,7 +48512,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:43" ht="39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
         <v>23</v>
       </c>
@@ -47408,7 +48593,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="61" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:43" ht="39" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
         <v>25</v>
       </c>
@@ -47422,7 +48607,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:43" ht="39" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="17">
         <v>153</v>
       </c>
@@ -47448,7 +48633,7 @@
       </c>
       <c r="D63" s="47"/>
     </row>
-    <row r="64" spans="1:43" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>155</v>
       </c>
@@ -47476,7 +48661,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
         <v>156</v>
       </c>
@@ -47504,7 +48689,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
         <v>158</v>
       </c>
@@ -47532,7 +48717,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
         <v>159</v>
       </c>
@@ -47574,7 +48759,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="17">
         <v>29</v>
       </c>
@@ -47588,7 +48773,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>30</v>
       </c>
@@ -47602,7 +48787,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A75" s="17">
         <v>31</v>
       </c>
@@ -47616,7 +48801,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A76" s="17">
         <v>32</v>
       </c>
@@ -47630,7 +48815,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="17">
         <v>160</v>
       </c>
@@ -47644,7 +48829,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="17">
         <v>161</v>
       </c>
@@ -47658,7 +48843,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A79" s="32">
         <v>33</v>
       </c>
@@ -47672,7 +48857,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="17">
         <v>34</v>
       </c>
@@ -47686,7 +48871,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:43" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:43" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A81" s="17">
         <v>35</v>
       </c>
@@ -47767,7 +48952,7 @@
       <c r="AP83" s="43"/>
       <c r="AQ83" s="43"/>
     </row>
-    <row r="84" spans="1:43" ht="39" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="17">
         <v>163</v>
       </c>
@@ -47809,7 +48994,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="17">
         <v>39</v>
       </c>
@@ -47823,7 +49008,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="88" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:43" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A88" s="17">
         <v>164</v>
       </c>
@@ -47835,7 +49020,7 @@
       </c>
       <c r="D88" s="47"/>
     </row>
-    <row r="89" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="17">
         <v>40</v>
       </c>
@@ -47863,7 +49048,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="91" spans="1:43" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="17">
         <v>165</v>
       </c>
@@ -47903,7 +49088,7 @@
       </c>
       <c r="D93" s="47"/>
     </row>
-    <row r="94" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="17">
         <v>167</v>
       </c>
@@ -47917,7 +49102,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="95" spans="1:43" ht="39" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A95" s="17">
         <v>42</v>
       </c>
@@ -47945,7 +49130,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="17">
         <v>169</v>
       </c>
@@ -47959,7 +49144,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="17">
         <v>170</v>
       </c>
@@ -47973,7 +49158,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A99" s="17">
         <v>45</v>
       </c>
@@ -48001,7 +49186,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="17">
         <v>171</v>
       </c>
@@ -48015,7 +49200,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A102" s="17">
         <v>46</v>
       </c>
@@ -48043,7 +49228,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A104" s="17">
         <v>47</v>
       </c>
@@ -48057,7 +49242,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A105" s="17">
         <v>48</v>
       </c>
@@ -48085,7 +49270,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="17">
         <v>50</v>
       </c>
@@ -48099,7 +49284,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A108" s="17">
         <v>251</v>
       </c>
@@ -48127,7 +49312,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="17">
         <v>173</v>
       </c>
@@ -48141,7 +49326,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="17">
         <v>51</v>
       </c>
@@ -48169,7 +49354,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="113" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:43" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="17">
         <v>174</v>
       </c>
@@ -48183,7 +49368,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="114" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:43" ht="39" x14ac:dyDescent="0.25">
       <c r="A114" s="17">
         <v>252</v>
       </c>
@@ -48197,7 +49382,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="115" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:43" ht="39" x14ac:dyDescent="0.25">
       <c r="A115" s="17">
         <v>253</v>
       </c>
@@ -48225,7 +49410,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="117" spans="1:43" s="27" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:43" s="27" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A117" s="17">
         <v>254</v>
       </c>
@@ -48278,7 +49463,7 @@
       <c r="AP117" s="43"/>
       <c r="AQ117" s="43"/>
     </row>
-    <row r="118" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:43" ht="39" x14ac:dyDescent="0.25">
       <c r="A118" s="17">
         <v>53</v>
       </c>
@@ -48292,7 +49477,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="119" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:43" ht="39" x14ac:dyDescent="0.25">
       <c r="A119" s="17">
         <v>56</v>
       </c>
@@ -48306,7 +49491,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="120" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:43" ht="39" x14ac:dyDescent="0.25">
       <c r="A120" s="17">
         <v>54</v>
       </c>
@@ -48334,7 +49519,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="122" spans="1:43" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:43" ht="39" x14ac:dyDescent="0.25">
       <c r="A122" s="17">
         <v>57</v>
       </c>
@@ -48348,7 +49533,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="1:43" ht="39" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:43" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="17">
         <v>175</v>
       </c>
@@ -48362,7 +49547,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="124" spans="1:43" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A124" s="17">
         <v>58</v>
       </c>
@@ -48432,7 +49617,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="17">
         <v>177</v>
       </c>
@@ -48446,7 +49631,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="17">
         <v>178</v>
       </c>
@@ -48474,7 +49659,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A132" s="17">
         <v>257</v>
       </c>
@@ -48516,7 +49701,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A135" s="17">
         <v>61</v>
       </c>
@@ -48530,7 +49715,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A136" s="17">
         <v>259</v>
       </c>
@@ -48544,7 +49729,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A137" s="17">
         <v>260</v>
       </c>
@@ -48558,7 +49743,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="17">
         <v>62</v>
       </c>
@@ -48572,7 +49757,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A139" s="17">
         <v>261</v>
       </c>
@@ -48586,7 +49771,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A140" s="17">
         <v>63</v>
       </c>
@@ -48600,7 +49785,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A141" s="17">
         <v>262</v>
       </c>
@@ -48628,7 +49813,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A143" s="17">
         <v>64</v>
       </c>
@@ -48642,7 +49827,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A144" s="17">
         <v>263</v>
       </c>
@@ -48656,7 +49841,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A145" s="17">
         <v>264</v>
       </c>
@@ -48684,7 +49869,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A147" s="17">
         <v>266</v>
       </c>
@@ -48701,7 +49886,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A148" s="17">
         <v>267</v>
       </c>
@@ -48715,7 +49900,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A149" s="17">
         <v>66</v>
       </c>
@@ -48729,7 +49914,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="17">
         <v>181</v>
       </c>
@@ -48746,7 +49931,7 @@
       <c r="F150" s="32"/>
       <c r="G150" s="32"/>
     </row>
-    <row r="151" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A151" s="17">
         <v>67</v>
       </c>
@@ -48760,7 +49945,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A152" s="17">
         <v>71</v>
       </c>
@@ -48774,7 +49959,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A153" s="17">
         <v>68</v>
       </c>
@@ -48788,7 +49973,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="17">
         <v>182</v>
       </c>
@@ -48802,7 +49987,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A155" s="17">
         <v>69</v>
       </c>
@@ -48816,7 +50001,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A156" s="17">
         <v>70</v>
       </c>
@@ -48830,7 +50015,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A157" s="17">
         <v>268</v>
       </c>
@@ -48858,7 +50043,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A159" s="17">
         <v>72</v>
       </c>
@@ -48872,7 +50057,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="17">
         <v>184</v>
       </c>
@@ -48886,7 +50071,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A161" s="17">
         <v>269</v>
       </c>
@@ -48914,7 +50099,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A163" s="17">
         <v>270</v>
       </c>
@@ -48943,7 +50128,7 @@
       </c>
       <c r="E164" s="53"/>
     </row>
-    <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A165" s="17">
         <v>272</v>
       </c>
@@ -48958,7 +50143,7 @@
       </c>
       <c r="E165" s="27"/>
     </row>
-    <row r="166" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="17">
         <v>186</v>
       </c>
@@ -49042,7 +50227,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A172" s="17">
         <v>76</v>
       </c>
@@ -49056,7 +50241,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A173" s="17">
         <v>75</v>
       </c>
@@ -49070,7 +50255,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A174" s="17">
         <v>77</v>
       </c>
@@ -49084,7 +50269,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A175" s="17">
         <v>274</v>
       </c>
@@ -49098,7 +50283,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="17">
         <v>189</v>
       </c>
@@ -49140,7 +50325,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A179" s="17">
         <v>78</v>
       </c>
@@ -49152,7 +50337,7 @@
       </c>
       <c r="D179" s="32"/>
     </row>
-    <row r="180" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A180" s="17">
         <v>275</v>
       </c>
@@ -49166,7 +50351,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A181" s="17">
         <v>276</v>
       </c>
@@ -49208,7 +50393,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="17">
         <v>193</v>
       </c>
@@ -49222,7 +50407,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="17">
         <v>194</v>
       </c>
@@ -49236,7 +50421,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A186" s="17">
         <v>80</v>
       </c>
@@ -49250,7 +50435,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A187" s="17">
         <v>277</v>
       </c>
@@ -49264,7 +50449,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A188" s="17">
         <v>278</v>
       </c>
@@ -49278,7 +50463,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A189" s="17">
         <v>81</v>
       </c>
@@ -49292,7 +50477,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A190" s="17">
         <v>82</v>
       </c>
@@ -49306,7 +50491,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A191" s="17">
         <v>83</v>
       </c>
@@ -49320,7 +50505,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A192" s="17">
         <v>84</v>
       </c>
@@ -49334,7 +50519,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A193" s="17">
         <v>279</v>
       </c>
@@ -49362,7 +50547,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A195" s="17">
         <v>280</v>
       </c>
@@ -49376,7 +50561,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="17">
         <v>85</v>
       </c>
@@ -49390,7 +50575,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A197" s="17">
         <v>281</v>
       </c>
@@ -49418,7 +50603,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A199" s="17">
         <v>86</v>
       </c>
@@ -49432,7 +50617,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A200" s="17">
         <v>282</v>
       </c>
@@ -49460,7 +50645,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A202" s="17">
         <v>88</v>
       </c>
@@ -49474,7 +50659,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="17">
         <v>197</v>
       </c>
@@ -49488,7 +50673,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="17">
         <v>89</v>
       </c>
@@ -49503,7 +50688,7 @@
       </c>
       <c r="E204" s="10"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A205" s="17">
         <v>283</v>
       </c>
@@ -49531,7 +50716,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A207" s="17">
         <v>284</v>
       </c>
@@ -49559,7 +50744,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A209" s="17">
         <v>199</v>
       </c>
@@ -49585,7 +50770,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A211" s="17">
         <v>285</v>
       </c>
@@ -49599,7 +50784,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A212" s="17">
         <v>202</v>
       </c>
@@ -49613,7 +50798,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="17">
         <v>203</v>
       </c>
@@ -49641,7 +50826,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="17">
         <v>205</v>
       </c>
@@ -49655,7 +50840,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A216" s="17">
         <v>286</v>
       </c>
@@ -49669,7 +50854,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A217" s="17">
         <v>287</v>
       </c>
@@ -49683,7 +50868,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A218" s="17">
         <v>288</v>
       </c>
@@ -49697,7 +50882,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A219" s="17">
         <v>90</v>
       </c>
@@ -49711,7 +50896,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A220" s="17">
         <v>91</v>
       </c>
@@ -49725,7 +50910,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="17">
         <v>206</v>
       </c>
@@ -49739,7 +50924,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A222" s="17">
         <v>92</v>
       </c>
@@ -49753,7 +50938,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A223" s="17">
         <v>1</v>
       </c>
@@ -49767,7 +50952,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A224" s="17">
         <v>289</v>
       </c>
@@ -49795,7 +50980,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A226" s="17">
         <v>93</v>
       </c>
@@ -49823,7 +51008,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A228" s="17">
         <v>95</v>
       </c>
@@ -49837,7 +51022,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A229" s="17">
         <v>290</v>
       </c>
@@ -49865,7 +51050,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="17">
         <v>209</v>
       </c>
@@ -49879,7 +51064,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A232" s="17">
         <v>291</v>
       </c>
@@ -49907,7 +51092,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" s="17">
         <v>211</v>
       </c>
@@ -49921,7 +51106,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A235" s="17">
         <v>96</v>
       </c>
@@ -49949,7 +51134,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A237" s="17">
         <v>293</v>
       </c>
@@ -49963,7 +51148,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="17">
         <v>212</v>
       </c>
@@ -49975,7 +51160,7 @@
       </c>
       <c r="D238" s="47"/>
     </row>
-    <row r="239" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A239" s="17">
         <v>97</v>
       </c>
@@ -49989,7 +51174,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="17">
         <v>213</v>
       </c>
@@ -49999,11 +51184,8 @@
       <c r="C240" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="D240" s="61" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="17">
         <v>214</v>
       </c>
@@ -50059,7 +51241,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="17">
         <v>99</v>
       </c>
@@ -50084,7 +51266,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A247" s="17">
         <v>296</v>
       </c>
@@ -50098,7 +51280,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="17">
         <v>215</v>
       </c>
@@ -50126,7 +51308,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="17">
         <v>101</v>
       </c>
@@ -50140,7 +51322,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="17">
         <v>216</v>
       </c>
@@ -50168,7 +51350,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="17">
         <v>217</v>
       </c>
@@ -50182,7 +51364,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="17">
         <v>218</v>
       </c>
@@ -50196,7 +51378,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A255" s="17">
         <v>299</v>
       </c>
@@ -50210,7 +51392,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A256" s="17">
         <v>219</v>
       </c>
@@ -50224,7 +51406,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="17">
         <v>102</v>
       </c>
@@ -50236,7 +51418,7 @@
       </c>
       <c r="D257" s="32"/>
     </row>
-    <row r="258" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="17">
         <v>103</v>
       </c>
@@ -50264,7 +51446,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="17">
         <v>104</v>
       </c>
@@ -50292,7 +51474,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A262" s="17">
         <v>107</v>
       </c>
@@ -50306,7 +51488,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A263" s="17">
         <v>220</v>
       </c>
@@ -50320,7 +51502,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="17">
         <v>221</v>
       </c>
@@ -50334,7 +51516,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="17">
         <v>108</v>
       </c>
@@ -50376,7 +51558,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="17">
         <v>301</v>
       </c>
@@ -50404,7 +51586,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A270" s="17">
         <v>222</v>
       </c>
@@ -50418,7 +51600,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A271" s="17">
         <v>303</v>
       </c>
@@ -50460,7 +51642,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A274" s="17">
         <v>304</v>
       </c>
@@ -50516,7 +51698,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="17">
         <v>223</v>
       </c>
@@ -50558,7 +51740,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A281" s="17">
         <v>113</v>
       </c>
@@ -50572,7 +51754,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A282" s="17">
         <v>114</v>
       </c>
@@ -50614,7 +51796,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="17">
         <v>224</v>
       </c>
@@ -50642,7 +51824,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="17">
         <v>225</v>
       </c>
@@ -50670,7 +51852,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A289" s="17">
         <v>310</v>
       </c>
@@ -50684,7 +51866,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="17">
         <v>226</v>
       </c>
@@ -50698,7 +51880,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" s="17">
         <v>227</v>
       </c>
@@ -50712,7 +51894,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="17">
         <v>228</v>
       </c>
@@ -50796,7 +51978,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A298" s="17">
         <v>313</v>
       </c>
@@ -50810,7 +51992,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A299" s="17">
         <v>121</v>
       </c>
@@ -50824,7 +52006,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" s="17">
         <v>120</v>
       </c>
@@ -50852,7 +52034,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="17">
         <v>122</v>
       </c>
@@ -50866,7 +52048,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A303" s="17">
         <v>123</v>
       </c>
@@ -50908,7 +52090,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A306" s="17">
         <v>125</v>
       </c>
@@ -50922,7 +52104,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="17">
         <v>127</v>
       </c>
@@ -50950,7 +52132,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="17">
         <v>126</v>
       </c>
@@ -50964,7 +52146,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="17">
         <v>129</v>
       </c>
@@ -50978,7 +52160,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A311" s="17">
         <v>130</v>
       </c>
@@ -50992,7 +52174,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="17">
         <v>230</v>
       </c>
@@ -51020,7 +52202,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="17">
         <v>231</v>
       </c>
@@ -51034,7 +52216,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="17">
         <v>232</v>
       </c>
@@ -51048,7 +52230,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A316" s="17">
         <v>131</v>
       </c>
@@ -51076,7 +52258,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A318" s="17">
         <v>233</v>
       </c>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -15,7 +15,7 @@
     <sheet name="In-text" sheetId="6" r:id="rId6"/>
     <sheet name=" Step 2" sheetId="4" r:id="rId7"/>
     <sheet name=" Step 3" sheetId="11" r:id="rId8"/>
-    <sheet name=" Step 4 (lit. review)" sheetId="12" r:id="rId9"/>
+    <sheet name=" Step 4 (lit. review)" sheetId="14" r:id="rId9"/>
     <sheet name=" Step 4 (meta)" sheetId="13" r:id="rId10"/>
     <sheet name="Step 3 (old) " sheetId="5" r:id="rId11"/>
     <sheet name="Step 4 (old)" sheetId="8" r:id="rId12"/>
@@ -192,7 +192,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -252,7 +252,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0">
+    <comment ref="F9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -260,7 +260,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Martin,Vasilev:</t>
         </r>
@@ -269,14 +269,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-N/A means it wasn't excluded</t>
+In this study, the post-reading activity manipulation seems to increase the period of time between testing and the assessment of reading comprehension. However, this is not a big problem for the analysis as a fair number of studies also involved some delay (i.e. comprehension assessment was not immediate). See Sörqvist et al. (2010) for a discussion</t>
         </r>
       </text>
     </comment>
-    <comment ref="B61" authorId="1">
+    <comment ref="B66" authorId="1">
       <text>
         <r>
           <rPr>
@@ -375,7 +375,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5232" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5249" uniqueCount="1147">
   <si>
     <t>ID</t>
   </si>
@@ -36206,13 +36206,114 @@
   </si>
   <si>
     <t>Included?</t>
+  </si>
+  <si>
+    <t>2 (background: silence vs music) x 2 (personality: introvert vs extravert)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>personality type is averaged out</t>
+  </si>
+  <si>
+    <t>2(background: music vs silence) x2(gender: male vs female)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I average out gender; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SDs not reported!</t>
+    </r>
+  </si>
+  <si>
+    <t>2(background: music vs silence) x2(post-reading: relaxation vs activity)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">post-reading activity is averaged out; see comment; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SDs not reported!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HILLIARD, O. M., &amp; Tolin, P. (1979). Effect of familiarity with background music on performance of simple and difficult reading comprehension tasks. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Perceptual and Motor Skills</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>49</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(3), 713-714.</t>
+    </r>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>did not have a silence condition</t>
+  </si>
+  <si>
+    <t>2(reading: easy vs difficult) x2(music: familiar vs unfamiliar) x2(music selection)</t>
+  </si>
+  <si>
+    <t>3(background: high information load music, low information load music, silence)</t>
+  </si>
+  <si>
+    <t>there was a 5-minute interval between reading and comprehension assessment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="62" x14ac:knownFonts="1">
+  <fonts count="63" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -36657,6 +36758,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -36806,7 +36913,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -37208,6 +37315,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -37553,7 +37695,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -38874,17 +39016,18 @@
   <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
     <col min="2" max="2" width="100.42578125" style="137" customWidth="1"/>
-    <col min="3" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="12" customWidth="1"/>
     <col min="6" max="6" width="40.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" style="12" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -38912,2192 +39055,1990 @@
       <c r="F2" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="45" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58">
+      <c r="A3" s="47">
+        <v>1</v>
+      </c>
+      <c r="B3" s="146" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F3" s="43"/>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47">
         <v>2</v>
       </c>
-      <c r="B3" s="126" t="s">
+      <c r="B4" s="146" t="s">
+        <v>992</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="47"/>
+    </row>
+    <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="47">
+        <v>3</v>
+      </c>
+      <c r="B5" s="152" t="s">
+        <v>517</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="47"/>
+    </row>
+    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="47">
+        <v>4</v>
+      </c>
+      <c r="B6" s="146" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="47"/>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="58">
+        <v>5</v>
+      </c>
+      <c r="B7" s="147" t="s">
+        <v>908</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="58">
+        <v>6</v>
+      </c>
+      <c r="B8" s="156" t="s">
+        <v>917</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="58">
+        <v>7</v>
+      </c>
+      <c r="B9" s="145" t="s">
+        <v>918</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="58">
+        <v>8</v>
+      </c>
+      <c r="B10" s="147" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="58">
+        <v>9</v>
+      </c>
+      <c r="B11" s="147" t="s">
+        <v>981</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" s="145" t="s">
         <v>863</v>
       </c>
-      <c r="C3" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58" t="s">
+      <c r="C12" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58">
-        <v>4</v>
-      </c>
-      <c r="B4" s="126" t="s">
+      <c r="F12" s="43"/>
+      <c r="G12" s="47"/>
+    </row>
+    <row r="13" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
+      <c r="B13" s="145" t="s">
         <v>864</v>
       </c>
-      <c r="C4" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58" t="s">
+      <c r="C13" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58">
-        <v>6</v>
-      </c>
-      <c r="B5" s="84" t="s">
+      <c r="F13" s="43"/>
+      <c r="G13" s="47"/>
+    </row>
+    <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
+      <c r="B14" s="146" t="s">
         <v>866</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C14" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58" t="s">
+      <c r="D14" s="47"/>
+      <c r="E14" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="58">
-        <v>7</v>
-      </c>
-      <c r="B6" s="84" t="s">
+      <c r="F14" s="43"/>
+      <c r="G14" s="47"/>
+    </row>
+    <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
+      <c r="B15" s="146" t="s">
         <v>867</v>
       </c>
-      <c r="C6" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58" t="s">
+      <c r="C15" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="58">
-        <v>10</v>
-      </c>
-      <c r="B7" s="126" t="s">
+      <c r="F15" s="43"/>
+      <c r="G15" s="47"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="47"/>
+      <c r="B16" s="145" t="s">
         <v>870</v>
       </c>
-      <c r="C7" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58" t="s">
+      <c r="C16" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="58">
-        <v>14</v>
-      </c>
-      <c r="B8" s="84" t="s">
+      <c r="F16" s="43"/>
+      <c r="G16" s="47"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="47"/>
+      <c r="B17" s="146" t="s">
         <v>873</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C17" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58" t="s">
+      <c r="D17" s="47"/>
+      <c r="E17" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="58">
-        <v>15</v>
-      </c>
-      <c r="B9" s="84" t="s">
+      <c r="F17" s="43"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="B18" s="146" t="s">
         <v>874</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C18" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58" t="s">
+      <c r="D18" s="47"/>
+      <c r="E18" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="58">
-        <v>23</v>
-      </c>
-      <c r="B10" s="126" t="s">
+      <c r="F18" s="43"/>
+      <c r="G18" s="47"/>
+    </row>
+    <row r="19" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="47"/>
+      <c r="B19" s="145" t="s">
         <v>877</v>
       </c>
-      <c r="C10" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58" t="s">
+      <c r="C19" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="58">
-        <v>26</v>
-      </c>
-      <c r="B11" s="84" t="s">
+      <c r="F19" s="43"/>
+      <c r="G19" s="47"/>
+    </row>
+    <row r="20" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="47"/>
+      <c r="B20" s="146" t="s">
         <v>879</v>
       </c>
-      <c r="C11" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58" t="s">
+      <c r="C20" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F20" s="61" t="s">
         <v>824</v>
       </c>
-      <c r="G11" s="60"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="58">
-        <v>29</v>
-      </c>
-      <c r="B12" s="126" t="s">
+      <c r="G20" s="61"/>
+    </row>
+    <row r="21" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="47"/>
+      <c r="B21" s="145" t="s">
         <v>794</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C21" s="47" t="s">
         <v>798</v>
       </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58" t="s">
+      <c r="D21" s="47"/>
+      <c r="E21" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58">
-        <v>35</v>
-      </c>
-      <c r="B13" s="129" t="s">
+      <c r="F21" s="43"/>
+      <c r="G21" s="47"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="47"/>
+      <c r="B22" s="147" t="s">
         <v>886</v>
       </c>
-      <c r="C13" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58" t="s">
+      <c r="C22" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F22" s="61" t="s">
         <v>486</v>
       </c>
-      <c r="G13" s="60"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="58">
-        <v>38</v>
-      </c>
-      <c r="B14" s="126" t="s">
+      <c r="G22" s="61"/>
+    </row>
+    <row r="23" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A23" s="47"/>
+      <c r="B23" s="145" t="s">
         <v>889</v>
       </c>
-      <c r="C14" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58" t="s">
+      <c r="C23" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="58">
-        <v>43</v>
-      </c>
-      <c r="B15" s="126" t="s">
+      <c r="F23" s="43"/>
+      <c r="G23" s="47"/>
+    </row>
+    <row r="24" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="47"/>
+      <c r="B24" s="145" t="s">
         <v>894</v>
       </c>
-      <c r="C15" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58" t="s">
+      <c r="C24" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F24" s="47" t="s">
         <v>1121</v>
       </c>
-      <c r="G15" s="58"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="58">
-        <v>44</v>
-      </c>
-      <c r="B16" s="126" t="s">
+      <c r="G24" s="47"/>
+    </row>
+    <row r="25" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="47"/>
+      <c r="B25" s="145" t="s">
         <v>895</v>
       </c>
-      <c r="C16" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58" t="s">
+      <c r="C25" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A17" s="58">
-        <v>46</v>
-      </c>
-      <c r="B17" s="84" t="s">
+      <c r="F25" s="43"/>
+      <c r="G25" s="47"/>
+    </row>
+    <row r="26" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="47"/>
+      <c r="B26" s="146" t="s">
         <v>897</v>
       </c>
-      <c r="C17" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58" t="s">
+      <c r="C26" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58">
-        <v>51</v>
-      </c>
-      <c r="B18" s="84" t="s">
+      <c r="F26" s="43"/>
+      <c r="G26" s="47"/>
+    </row>
+    <row r="27" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A27" s="47"/>
+      <c r="B27" s="146" t="s">
         <v>902</v>
       </c>
-      <c r="C18" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58" t="s">
+      <c r="C27" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58">
-        <v>52</v>
-      </c>
-      <c r="B19" s="84" t="s">
+      <c r="F27" s="43"/>
+      <c r="G27" s="47"/>
+    </row>
+    <row r="28" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="47"/>
+      <c r="B28" s="146" t="s">
         <v>903</v>
       </c>
-      <c r="C19" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58" t="s">
+      <c r="C28" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58">
-        <v>54</v>
-      </c>
-      <c r="B20" s="84" t="s">
+      <c r="F28" s="43"/>
+      <c r="G28" s="47"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="47"/>
+      <c r="B29" s="146" t="s">
         <v>904</v>
       </c>
-      <c r="C20" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58" t="s">
+      <c r="C29" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58">
-        <v>56</v>
-      </c>
-      <c r="B21" s="84" t="s">
+      <c r="F29" s="43"/>
+      <c r="G29" s="47"/>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="47"/>
+      <c r="B30" s="146" t="s">
         <v>906</v>
       </c>
-      <c r="C21" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58" t="s">
+      <c r="C30" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="58">
+      <c r="F30" s="43"/>
+      <c r="G30" s="47"/>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="47"/>
+      <c r="B31" s="147" t="s">
+        <v>724</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F31" s="53" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G31" s="61"/>
+    </row>
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="47"/>
+      <c r="B32" s="145" t="s">
+        <v>363</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F32" s="43"/>
+      <c r="G32" s="47"/>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="47"/>
+      <c r="B33" s="148" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F33" s="43"/>
+      <c r="G33" s="47"/>
+    </row>
+    <row r="34" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="121"/>
+      <c r="B34" s="143" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="121" t="s">
+        <v>282</v>
+      </c>
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="122" t="s">
+        <v>835</v>
+      </c>
+      <c r="G34" s="157"/>
+    </row>
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="47"/>
+      <c r="B35" s="149" t="s">
+        <v>721</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F35" s="53" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G35" s="61"/>
+    </row>
+    <row r="36" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="47"/>
+      <c r="B36" s="145" t="s">
+        <v>914</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F36" s="43"/>
+      <c r="G36" s="47"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="47"/>
+      <c r="B37" s="146" t="s">
+        <v>762</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F37" s="43"/>
+      <c r="G37" s="47"/>
+    </row>
+    <row r="38" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="47"/>
+      <c r="B38" s="150" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F38" s="43"/>
+      <c r="G38" s="47"/>
+    </row>
+    <row r="39" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="47"/>
+      <c r="B39" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F39" s="43"/>
+      <c r="G39" s="47"/>
+    </row>
+    <row r="40" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="47"/>
+      <c r="B40" s="151" t="s">
+        <v>919</v>
+      </c>
+      <c r="C40" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F40" s="43"/>
+      <c r="G40" s="47"/>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="47"/>
+      <c r="B41" s="146" t="s">
+        <v>921</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F41" s="43"/>
+      <c r="G41" s="47"/>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="47"/>
+      <c r="B42" s="146" t="s">
+        <v>518</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F42" s="43"/>
+      <c r="G42" s="47"/>
+    </row>
+    <row r="43" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="47"/>
+      <c r="B43" s="145" t="s">
+        <v>923</v>
+      </c>
+      <c r="C43" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F43" s="43"/>
+      <c r="G43" s="47"/>
+    </row>
+    <row r="44" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="47"/>
+      <c r="B44" s="145" t="s">
+        <v>924</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F44" s="43"/>
+      <c r="G44" s="47"/>
+    </row>
+    <row r="45" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="47"/>
+      <c r="B45" s="145" t="s">
+        <v>925</v>
+      </c>
+      <c r="C45" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F45" s="43"/>
+      <c r="G45" s="47"/>
+    </row>
+    <row r="46" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="47"/>
+      <c r="B46" s="145" t="s">
+        <v>926</v>
+      </c>
+      <c r="C46" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F46" s="43"/>
+      <c r="G46" s="47"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="47"/>
+      <c r="B47" s="146" t="s">
+        <v>927</v>
+      </c>
+      <c r="C47" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F47" s="43"/>
+      <c r="G47" s="47"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="47"/>
+      <c r="B48" s="145" t="s">
+        <v>928</v>
+      </c>
+      <c r="C48" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F48" s="43"/>
+      <c r="G48" s="47"/>
+    </row>
+    <row r="49" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="47"/>
+      <c r="B49" s="153" t="s">
+        <v>931</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F49" s="43"/>
+      <c r="G49" s="47"/>
+    </row>
+    <row r="50" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="47"/>
+      <c r="B50" s="145" t="s">
+        <v>703</v>
+      </c>
+      <c r="C50" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F50" s="43"/>
+      <c r="G50" s="47"/>
+    </row>
+    <row r="51" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="47"/>
+      <c r="B51" s="146" t="s">
+        <v>935</v>
+      </c>
+      <c r="C51" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F51" s="43"/>
+      <c r="G51" s="47"/>
+    </row>
+    <row r="52" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="47"/>
+      <c r="B52" s="145" t="s">
+        <v>936</v>
+      </c>
+      <c r="C52" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F52" s="43"/>
+      <c r="G52" s="47"/>
+    </row>
+    <row r="53" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A53" s="47"/>
+      <c r="B53" s="146" t="s">
+        <v>937</v>
+      </c>
+      <c r="C53" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F53" s="43"/>
+      <c r="G53" s="47"/>
+    </row>
+    <row r="54" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A54" s="47"/>
+      <c r="B54" s="146" t="s">
+        <v>938</v>
+      </c>
+      <c r="C54" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F54" s="43"/>
+      <c r="G54" s="47"/>
+    </row>
+    <row r="55" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A55" s="47"/>
+      <c r="B55" s="146" t="s">
+        <v>939</v>
+      </c>
+      <c r="C55" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F55" s="43"/>
+      <c r="G55" s="47"/>
+    </row>
+    <row r="56" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A56" s="47"/>
+      <c r="B56" s="150" t="s">
+        <v>940</v>
+      </c>
+      <c r="C56" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F56" s="43"/>
+      <c r="G56" s="47"/>
+    </row>
+    <row r="57" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="47"/>
+      <c r="B57" s="146" t="s">
+        <v>941</v>
+      </c>
+      <c r="C57" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F57" s="43"/>
+      <c r="G57" s="47"/>
+    </row>
+    <row r="58" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A58" s="47"/>
+      <c r="B58" s="150" t="s">
+        <v>942</v>
+      </c>
+      <c r="C58" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F58" s="43"/>
+      <c r="G58" s="47"/>
+    </row>
+    <row r="59" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="47"/>
+      <c r="B59" s="150" t="s">
+        <v>943</v>
+      </c>
+      <c r="C59" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F59" s="43"/>
+      <c r="G59" s="47"/>
+    </row>
+    <row r="60" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="47"/>
+      <c r="B60" s="146" t="s">
+        <v>944</v>
+      </c>
+      <c r="C60" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F60" s="43"/>
+      <c r="G60" s="47"/>
+    </row>
+    <row r="61" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="47"/>
+      <c r="B61" s="146" t="s">
+        <v>945</v>
+      </c>
+      <c r="C61" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F61" s="43"/>
+      <c r="G61" s="47"/>
+    </row>
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="47"/>
+      <c r="B62" s="146" t="s">
+        <v>946</v>
+      </c>
+      <c r="C62" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F62" s="43"/>
+      <c r="G62" s="47"/>
+    </row>
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="47"/>
+      <c r="B63" s="145" t="s">
+        <v>947</v>
+      </c>
+      <c r="C63" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F63" s="43"/>
+      <c r="G63" s="47"/>
+    </row>
+    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="47"/>
+      <c r="B64" s="145" t="s">
+        <v>950</v>
+      </c>
+      <c r="C64" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F64" s="61" t="s">
+        <v>497</v>
+      </c>
+      <c r="G64" s="61"/>
+    </row>
+    <row r="65" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="47"/>
+      <c r="B65" s="145" t="s">
+        <v>952</v>
+      </c>
+      <c r="C65" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F65" s="43"/>
+      <c r="G65" s="47"/>
+    </row>
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="47"/>
+      <c r="B66" s="147" t="s">
+        <v>737</v>
+      </c>
+      <c r="C66" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F66" s="43"/>
+      <c r="G66" s="47"/>
+    </row>
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="47"/>
+      <c r="B67" s="146" t="s">
+        <v>959</v>
+      </c>
+      <c r="C67" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F67" s="43"/>
+      <c r="G67" s="47"/>
+    </row>
+    <row r="68" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="47"/>
+      <c r="B68" s="145" t="s">
+        <v>960</v>
+      </c>
+      <c r="C68" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F68" s="43"/>
+      <c r="G68" s="47"/>
+    </row>
+    <row r="69" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="47"/>
+      <c r="B69" s="145" t="s">
+        <v>745</v>
+      </c>
+      <c r="C69" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F69" s="43"/>
+      <c r="G69" s="47"/>
+    </row>
+    <row r="70" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="47"/>
+      <c r="B70" s="146" t="s">
+        <v>962</v>
+      </c>
+      <c r="C70" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D70" s="47"/>
+      <c r="E70" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F70" s="43"/>
+      <c r="G70" s="47"/>
+    </row>
+    <row r="71" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="47"/>
+      <c r="B71" s="146" t="s">
+        <v>549</v>
+      </c>
+      <c r="C71" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F71" s="43" t="s">
+        <v>839</v>
+      </c>
+      <c r="G71" s="47"/>
+    </row>
+    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="47"/>
+      <c r="B72" s="146" t="s">
+        <v>966</v>
+      </c>
+      <c r="C72" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D72" s="47"/>
+      <c r="E72" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F72" s="43"/>
+      <c r="G72" s="47"/>
+    </row>
+    <row r="73" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="47"/>
+      <c r="B73" s="146" t="s">
+        <v>968</v>
+      </c>
+      <c r="C73" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F73" s="43"/>
+      <c r="G73" s="47"/>
+    </row>
+    <row r="74" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="47"/>
+      <c r="B74" s="145" t="s">
+        <v>969</v>
+      </c>
+      <c r="C74" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F74" s="43"/>
+      <c r="G74" s="47"/>
+    </row>
+    <row r="75" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="47"/>
+      <c r="B75" s="146" t="s">
+        <v>970</v>
+      </c>
+      <c r="C75" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F75" s="43"/>
+      <c r="G75" s="47"/>
+    </row>
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="47"/>
+      <c r="B76" s="145" t="s">
+        <v>971</v>
+      </c>
+      <c r="C76" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D76" s="47"/>
+      <c r="E76" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F76" s="43"/>
+      <c r="G76" s="47"/>
+    </row>
+    <row r="77" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A77" s="47"/>
+      <c r="B77" s="146" t="s">
+        <v>975</v>
+      </c>
+      <c r="C77" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D77" s="47"/>
+      <c r="E77" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F77" s="43"/>
+      <c r="G77" s="47"/>
+    </row>
+    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="47"/>
+      <c r="B78" s="145" t="s">
+        <v>978</v>
+      </c>
+      <c r="C78" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D78" s="47"/>
+      <c r="E78" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F78" s="43"/>
+      <c r="G78" s="47"/>
+    </row>
+    <row r="79" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="47"/>
+      <c r="B79" s="146" t="s">
+        <v>980</v>
+      </c>
+      <c r="C79" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D79" s="47"/>
+      <c r="E79" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F79" s="43"/>
+      <c r="G79" s="47"/>
+    </row>
+    <row r="80" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="47"/>
+      <c r="B80" s="146" t="s">
+        <v>984</v>
+      </c>
+      <c r="C80" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D80" s="47"/>
+      <c r="E80" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F80" s="43"/>
+      <c r="G80" s="47"/>
+    </row>
+    <row r="81" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="47"/>
+      <c r="B81" s="146" t="s">
+        <v>985</v>
+      </c>
+      <c r="C81" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D81" s="47"/>
+      <c r="E81" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F81" s="43"/>
+      <c r="G81" s="47"/>
+    </row>
+    <row r="82" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="47"/>
+      <c r="B82" s="145" t="s">
+        <v>747</v>
+      </c>
+      <c r="C82" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F82" s="43"/>
+      <c r="G82" s="47"/>
+    </row>
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="47"/>
+      <c r="B83" s="146" t="s">
+        <v>988</v>
+      </c>
+      <c r="C83" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D83" s="47"/>
+      <c r="E83" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F83" s="43"/>
+      <c r="G83" s="47"/>
+    </row>
+    <row r="84" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="47"/>
+      <c r="B84" s="145" t="s">
+        <v>990</v>
+      </c>
+      <c r="C84" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D84" s="47"/>
+      <c r="E84" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F84" s="47" t="s">
+        <v>861</v>
+      </c>
+      <c r="G84" s="47"/>
+    </row>
+    <row r="85" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="47"/>
+      <c r="B85" s="146" t="s">
+        <v>769</v>
+      </c>
+      <c r="C85" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F85" s="43"/>
+      <c r="G85" s="47"/>
+    </row>
+    <row r="86" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="47"/>
+      <c r="B86" s="146" t="s">
+        <v>994</v>
+      </c>
+      <c r="C86" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F86" s="43"/>
+      <c r="G86" s="47"/>
+    </row>
+    <row r="87" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="47"/>
+      <c r="B87" s="150" t="s">
+        <v>139</v>
+      </c>
+      <c r="C87" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D87" s="47"/>
+      <c r="E87" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F87" s="43"/>
+      <c r="G87" s="47"/>
+    </row>
+    <row r="88" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="47"/>
+      <c r="B88" s="146" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C88" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D88" s="47"/>
+      <c r="E88" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F88" s="43"/>
+      <c r="G88" s="47"/>
+    </row>
+    <row r="89" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A89" s="47"/>
+      <c r="B89" s="150" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C89" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D89" s="47"/>
+      <c r="E89" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F89" s="43"/>
+      <c r="G89" s="47"/>
+    </row>
+    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="47"/>
+      <c r="B90" s="150" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D90" s="47"/>
+      <c r="E90" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F90" s="43"/>
+      <c r="G90" s="47"/>
+    </row>
+    <row r="91" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A91" s="47"/>
+      <c r="B91" s="145" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C91" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D91" s="47"/>
+      <c r="E91" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F91" s="43"/>
+      <c r="G91" s="47"/>
+    </row>
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="47"/>
+      <c r="B92" s="146" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C92" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D92" s="47"/>
+      <c r="E92" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F92" s="43"/>
+      <c r="G92" s="47"/>
+    </row>
+    <row r="93" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A93" s="47"/>
+      <c r="B93" s="146" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C93" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D93" s="47"/>
+      <c r="E93" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F93" s="43"/>
+      <c r="G93" s="47"/>
+    </row>
+    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="47"/>
+      <c r="B94" s="145" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C94" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D94" s="47"/>
+      <c r="E94" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F94" s="43"/>
+      <c r="G94" s="47"/>
+    </row>
+    <row r="95" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="47"/>
+      <c r="B95" s="146" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C95" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D95" s="47"/>
+      <c r="E95" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F95" s="43"/>
+      <c r="G95" s="47"/>
+    </row>
+    <row r="96" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A96" s="47"/>
+      <c r="B96" s="146" t="s">
+        <v>767</v>
+      </c>
+      <c r="C96" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D96" s="47"/>
+      <c r="E96" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F96" s="43"/>
+      <c r="G96" s="47"/>
+    </row>
+    <row r="97" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="47"/>
+      <c r="B97" s="150" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C97" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D97" s="47"/>
+      <c r="E97" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F97" s="43"/>
+      <c r="G97" s="47"/>
+    </row>
+    <row r="98" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="47"/>
+      <c r="B98" s="145" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C98" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D98" s="47"/>
+      <c r="E98" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F98" s="43"/>
+      <c r="G98" s="47"/>
+    </row>
+    <row r="99" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="47"/>
+      <c r="B99" s="145" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C99" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D99" s="47"/>
+      <c r="E99" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F99" s="43"/>
+      <c r="G99" s="47"/>
+    </row>
+    <row r="100" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="47"/>
+      <c r="B100" s="145" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C100" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D100" s="47"/>
+      <c r="E100" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F100" s="43"/>
+      <c r="G100" s="47"/>
+    </row>
+    <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" s="47"/>
+      <c r="B101" s="145" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C101" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D101" s="47"/>
+      <c r="E101" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F101" s="43"/>
+      <c r="G101" s="47"/>
+    </row>
+    <row r="102" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A102" s="47"/>
+      <c r="B102" s="147" t="s">
+        <v>328</v>
+      </c>
+      <c r="C102" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D102" s="47"/>
+      <c r="E102" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F102" s="61" t="s">
+        <v>509</v>
+      </c>
+      <c r="G102" s="61"/>
+    </row>
+    <row r="103" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="47"/>
+      <c r="B103" s="145" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C103" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D103" s="47"/>
+      <c r="E103" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F103" s="43"/>
+      <c r="G103" s="47"/>
+    </row>
+    <row r="104" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="47"/>
+      <c r="B104" s="145" t="s">
+        <v>58</v>
+      </c>
+      <c r="C104" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D104" s="47"/>
+      <c r="E104" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F104" s="43"/>
+      <c r="G104" s="47"/>
+    </row>
+    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="47"/>
+      <c r="B105" s="145" t="s">
+        <v>96</v>
+      </c>
+      <c r="C105" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D105" s="47"/>
+      <c r="E105" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F105" s="43"/>
+      <c r="G105" s="47"/>
+    </row>
+    <row r="106" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="47"/>
+      <c r="B106" s="146" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C106" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D106" s="47"/>
+      <c r="E106" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F106" s="43"/>
+      <c r="G106" s="47"/>
+    </row>
+    <row r="107" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="47"/>
+      <c r="B107" s="145" t="s">
+        <v>775</v>
+      </c>
+      <c r="C107" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D107" s="47"/>
+      <c r="E107" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F107" s="43"/>
+      <c r="G107" s="47"/>
+    </row>
+    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="46"/>
+      <c r="B108" s="133" t="s">
+        <v>68</v>
+      </c>
+      <c r="C108" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="D108" s="46"/>
+      <c r="E108" s="46"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="46"/>
+    </row>
+    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="47"/>
+      <c r="B109" s="145" t="s">
+        <v>783</v>
+      </c>
+      <c r="C109" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D109" s="47"/>
+      <c r="E109" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F109" s="43"/>
+      <c r="G109" s="47"/>
+    </row>
+    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="47"/>
+      <c r="B110" s="145" t="s">
+        <v>69</v>
+      </c>
+      <c r="C110" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D110" s="47"/>
+      <c r="E110" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F110" s="43"/>
+      <c r="G110" s="47"/>
+    </row>
+    <row r="111" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A111" s="47"/>
+      <c r="B111" s="150" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C111" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D111" s="47"/>
+      <c r="E111" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F111" s="43"/>
+      <c r="G111" s="47"/>
+    </row>
+    <row r="112" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="47"/>
+      <c r="B112" s="154" t="s">
+        <v>781</v>
+      </c>
+      <c r="C112" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D112" s="47"/>
+      <c r="E112" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F112" s="43"/>
+      <c r="G112" s="47"/>
+    </row>
+    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="47"/>
+      <c r="B113" s="145" t="s">
+        <v>753</v>
+      </c>
+      <c r="C113" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D113" s="47"/>
+      <c r="E113" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F113" s="43"/>
+      <c r="G113" s="47"/>
+    </row>
+    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="47"/>
+      <c r="B114" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="126" t="s">
-        <v>908</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58" t="s">
+      <c r="C114" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D114" s="47"/>
+      <c r="E114" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="58">
-        <v>60</v>
-      </c>
-      <c r="B23" s="129" t="s">
-        <v>724</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58" t="s">
+      <c r="F114" s="43"/>
+      <c r="G114" s="47"/>
+    </row>
+    <row r="115" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="47"/>
+      <c r="B115" s="145" t="s">
+        <v>754</v>
+      </c>
+      <c r="C115" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D115" s="47"/>
+      <c r="E115" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F23" s="33" t="s">
-        <v>1123</v>
-      </c>
-      <c r="G23" s="33"/>
-    </row>
-    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58">
-        <v>63</v>
-      </c>
-      <c r="B24" s="126" t="s">
-        <v>363</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58" t="s">
+      <c r="F115" s="43"/>
+      <c r="G115" s="47"/>
+    </row>
+    <row r="116" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A116" s="47"/>
+      <c r="B116" s="146" t="s">
+        <v>768</v>
+      </c>
+      <c r="C116" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D116" s="47"/>
+      <c r="E116" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58">
-        <v>66</v>
-      </c>
-      <c r="B25" s="140" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58" t="s">
+      <c r="F116" s="43" t="s">
+        <v>847</v>
+      </c>
+      <c r="G116" s="47"/>
+    </row>
+    <row r="117" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="47"/>
+      <c r="B117" s="146" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C117" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D117" s="47"/>
+      <c r="E117" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="121">
-        <v>67</v>
-      </c>
-      <c r="B26" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="121" t="s">
-        <v>282</v>
-      </c>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="122" t="s">
-        <v>835</v>
-      </c>
-      <c r="G26" s="122"/>
-    </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="58">
-        <v>70</v>
-      </c>
-      <c r="B27" s="141" t="s">
-        <v>721</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58" t="s">
+      <c r="F117" s="43"/>
+      <c r="G117" s="47"/>
+    </row>
+    <row r="118" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="47"/>
+      <c r="B118" s="150" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C118" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D118" s="47"/>
+      <c r="E118" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F27" s="33" t="s">
-        <v>1125</v>
-      </c>
-      <c r="G27" s="33"/>
-    </row>
-    <row r="28" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58">
-        <v>71</v>
-      </c>
-      <c r="B28" s="126" t="s">
-        <v>914</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58" t="s">
+      <c r="F118" s="43"/>
+      <c r="G118" s="47"/>
+    </row>
+    <row r="119" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A119" s="47"/>
+      <c r="B119" s="146" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C119" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D119" s="47"/>
+      <c r="E119" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A29" s="58">
-        <v>73</v>
-      </c>
-      <c r="B29" s="84" t="s">
-        <v>762</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58" t="s">
+      <c r="F119" s="43"/>
+      <c r="G119" s="47"/>
+    </row>
+    <row r="120" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="47"/>
+      <c r="B120" s="145" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C120" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D120" s="47"/>
+      <c r="E120" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="58">
-        <v>77</v>
-      </c>
-      <c r="B30" s="84" t="s">
-        <v>917</v>
-      </c>
-      <c r="C30" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58" t="s">
+      <c r="F120" s="43"/>
+      <c r="G120" s="47"/>
+    </row>
+    <row r="121" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="47"/>
+      <c r="B121" s="146" t="s">
+        <v>188</v>
+      </c>
+      <c r="C121" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D121" s="47"/>
+      <c r="E121" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="58">
-        <v>78</v>
-      </c>
-      <c r="B31" s="126" t="s">
-        <v>918</v>
-      </c>
-      <c r="C31" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58" t="s">
+      <c r="F121" s="47" t="s">
+        <v>849</v>
+      </c>
+      <c r="G121" s="47"/>
+    </row>
+    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="47"/>
+      <c r="B122" s="145" t="s">
+        <v>95</v>
+      </c>
+      <c r="C122" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D122" s="47"/>
+      <c r="E122" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="58">
+      <c r="F122" s="43"/>
+      <c r="G122" s="47"/>
+    </row>
+    <row r="123" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A123" s="47"/>
+      <c r="B123" s="146" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C123" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D123" s="47"/>
+      <c r="E123" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F123" s="43"/>
+      <c r="G123" s="47"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="47"/>
+      <c r="B124" s="153" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C124" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D124" s="47"/>
+      <c r="E124" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F124" s="43"/>
+      <c r="G124" s="47"/>
+    </row>
+    <row r="125" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A125" s="47"/>
+      <c r="B125" s="146" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C125" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D125" s="47"/>
+      <c r="E125" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F125" s="43"/>
+      <c r="G125" s="47"/>
+    </row>
+    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="47"/>
+      <c r="B126" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="130" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58" t="s">
+      <c r="C126" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D126" s="47"/>
+      <c r="E126" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-    </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="58">
-        <v>81</v>
-      </c>
-      <c r="B33" s="126" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58" t="s">
+      <c r="F126" s="43"/>
+      <c r="G126" s="47"/>
+    </row>
+    <row r="127" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A127" s="47"/>
+      <c r="B127" s="147" t="s">
+        <v>726</v>
+      </c>
+      <c r="C127" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D127" s="47"/>
+      <c r="E127" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-    </row>
-    <row r="34" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="58">
-        <v>82</v>
-      </c>
-      <c r="B34" s="131" t="s">
-        <v>919</v>
-      </c>
-      <c r="C34" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58" t="s">
+      <c r="F127" s="47" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G127" s="47"/>
+    </row>
+    <row r="128" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="47"/>
+      <c r="B128" s="155" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D128" s="47"/>
+      <c r="E128" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-    </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="58">
-        <v>86</v>
-      </c>
-      <c r="B35" s="83" t="s">
-        <v>517</v>
-      </c>
-      <c r="C35" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58" t="s">
+      <c r="F128" s="43"/>
+      <c r="G128" s="47"/>
+    </row>
+    <row r="129" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A129" s="47"/>
+      <c r="B129" s="146" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C129" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D129" s="47"/>
+      <c r="E129" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-    </row>
-    <row r="36" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="58">
-        <v>87</v>
-      </c>
-      <c r="B36" s="84" t="s">
-        <v>921</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-    </row>
-    <row r="37" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="58">
-        <v>90</v>
-      </c>
-      <c r="B37" s="84" t="s">
-        <v>518</v>
-      </c>
-      <c r="C37" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-    </row>
-    <row r="38" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="58">
-        <v>91</v>
-      </c>
-      <c r="B38" s="126" t="s">
-        <v>923</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-    </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="58">
-        <v>92</v>
-      </c>
-      <c r="B39" s="126" t="s">
-        <v>924</v>
-      </c>
-      <c r="C39" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-    </row>
-    <row r="40" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="58">
-        <v>93</v>
-      </c>
-      <c r="B40" s="126" t="s">
-        <v>925</v>
-      </c>
-      <c r="C40" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="58">
-        <v>94</v>
-      </c>
-      <c r="B41" s="126" t="s">
-        <v>926</v>
-      </c>
-      <c r="C41" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-    </row>
-    <row r="42" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="58">
-        <v>95</v>
-      </c>
-      <c r="B42" s="84" t="s">
-        <v>927</v>
-      </c>
-      <c r="C42" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-    </row>
-    <row r="43" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="58">
-        <v>96</v>
-      </c>
-      <c r="B43" s="126" t="s">
-        <v>928</v>
-      </c>
-      <c r="C43" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-    </row>
-    <row r="44" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="58">
-        <v>99</v>
-      </c>
-      <c r="B44" s="132" t="s">
-        <v>931</v>
-      </c>
-      <c r="C44" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-    </row>
-    <row r="45" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="58">
-        <v>103</v>
-      </c>
-      <c r="B45" s="126" t="s">
-        <v>703</v>
-      </c>
-      <c r="C45" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-    </row>
-    <row r="46" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="58">
-        <v>106</v>
-      </c>
-      <c r="B46" s="84" t="s">
-        <v>935</v>
-      </c>
-      <c r="C46" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-    </row>
-    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="58">
-        <v>108</v>
-      </c>
-      <c r="B47" s="126" t="s">
-        <v>936</v>
-      </c>
-      <c r="C47" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-    </row>
-    <row r="48" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A48" s="58">
-        <v>109</v>
-      </c>
-      <c r="B48" s="84" t="s">
-        <v>937</v>
-      </c>
-      <c r="C48" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-    </row>
-    <row r="49" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="58">
-        <v>110</v>
-      </c>
-      <c r="B49" s="84" t="s">
-        <v>938</v>
-      </c>
-      <c r="C49" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-    </row>
-    <row r="50" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="58">
-        <v>111</v>
-      </c>
-      <c r="B50" s="84" t="s">
-        <v>939</v>
-      </c>
-      <c r="C50" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-    </row>
-    <row r="51" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="58">
-        <v>112</v>
-      </c>
-      <c r="B51" s="130" t="s">
-        <v>940</v>
-      </c>
-      <c r="C51" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-    </row>
-    <row r="52" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="58">
-        <v>113</v>
-      </c>
-      <c r="B52" s="84" t="s">
-        <v>941</v>
-      </c>
-      <c r="C52" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-    </row>
-    <row r="53" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A53" s="58">
-        <v>114</v>
-      </c>
-      <c r="B53" s="130" t="s">
-        <v>942</v>
-      </c>
-      <c r="C53" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-    </row>
-    <row r="54" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="58">
-        <v>115</v>
-      </c>
-      <c r="B54" s="130" t="s">
-        <v>943</v>
-      </c>
-      <c r="C54" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-    </row>
-    <row r="55" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A55" s="58">
-        <v>116</v>
-      </c>
-      <c r="B55" s="84" t="s">
-        <v>944</v>
-      </c>
-      <c r="C55" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-    </row>
-    <row r="56" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="58">
-        <v>117</v>
-      </c>
-      <c r="B56" s="84" t="s">
-        <v>945</v>
-      </c>
-      <c r="C56" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-    </row>
-    <row r="57" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="58">
-        <v>118</v>
-      </c>
-      <c r="B57" s="84" t="s">
-        <v>946</v>
-      </c>
-      <c r="C57" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-    </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="58">
-        <v>119</v>
-      </c>
-      <c r="B58" s="126" t="s">
-        <v>947</v>
-      </c>
-      <c r="C58" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-    </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="58">
-        <v>123</v>
-      </c>
-      <c r="B59" s="126" t="s">
-        <v>950</v>
-      </c>
-      <c r="C59" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D59" s="58"/>
-      <c r="E59" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F59" s="60" t="s">
-        <v>497</v>
-      </c>
-      <c r="G59" s="60"/>
-    </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="58">
-        <v>128</v>
-      </c>
-      <c r="B60" s="126" t="s">
-        <v>952</v>
-      </c>
-      <c r="C60" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D60" s="58"/>
-      <c r="E60" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-    </row>
-    <row r="61" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="58">
-        <v>132</v>
-      </c>
-      <c r="B61" s="129" t="s">
-        <v>737</v>
-      </c>
-      <c r="C61" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D61" s="58"/>
-      <c r="E61" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-    </row>
-    <row r="62" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="58">
-        <v>138</v>
-      </c>
-      <c r="B62" s="84" t="s">
-        <v>959</v>
-      </c>
-      <c r="C62" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D62" s="58"/>
-      <c r="E62" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-    </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="58">
-        <v>139</v>
-      </c>
-      <c r="B63" s="126" t="s">
-        <v>960</v>
-      </c>
-      <c r="C63" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-    </row>
-    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="58">
-        <v>141</v>
-      </c>
-      <c r="B64" s="126" t="s">
-        <v>745</v>
-      </c>
-      <c r="C64" s="58" t="s">
-        <v>798</v>
-      </c>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-    </row>
-    <row r="65" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="58">
-        <v>142</v>
-      </c>
-      <c r="B65" s="84" t="s">
-        <v>962</v>
-      </c>
-      <c r="C65" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-    </row>
-    <row r="66" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="58">
-        <v>145</v>
-      </c>
-      <c r="B66" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="C66" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D66" s="58"/>
-      <c r="E66" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F66" s="17" t="s">
-        <v>839</v>
-      </c>
-      <c r="G66" s="17"/>
-    </row>
-    <row r="67" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="58">
-        <v>147</v>
-      </c>
-      <c r="B67" s="84" t="s">
-        <v>966</v>
-      </c>
-      <c r="C67" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-    </row>
-    <row r="68" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="58">
-        <v>151</v>
-      </c>
-      <c r="B68" s="84" t="s">
-        <v>968</v>
-      </c>
-      <c r="C68" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D68" s="58"/>
-      <c r="E68" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-    </row>
-    <row r="69" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="58">
-        <v>152</v>
-      </c>
-      <c r="B69" s="126" t="s">
-        <v>969</v>
-      </c>
-      <c r="C69" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D69" s="58"/>
-      <c r="E69" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-    </row>
-    <row r="70" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="58">
-        <v>154</v>
-      </c>
-      <c r="B70" s="84" t="s">
-        <v>970</v>
-      </c>
-      <c r="C70" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D70" s="58"/>
-      <c r="E70" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-    </row>
-    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="58">
-        <v>155</v>
-      </c>
-      <c r="B71" s="126" t="s">
-        <v>971</v>
-      </c>
-      <c r="C71" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D71" s="58"/>
-      <c r="E71" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-    </row>
-    <row r="72" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="58">
-        <v>160</v>
-      </c>
-      <c r="B72" s="84" t="s">
-        <v>975</v>
-      </c>
-      <c r="C72" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D72" s="58"/>
-      <c r="E72" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-    </row>
-    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="58">
-        <v>165</v>
-      </c>
-      <c r="B73" s="126" t="s">
-        <v>978</v>
-      </c>
-      <c r="C73" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D73" s="58"/>
-      <c r="E73" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-    </row>
-    <row r="74" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="58">
-        <v>167</v>
-      </c>
-      <c r="B74" s="84" t="s">
-        <v>980</v>
-      </c>
-      <c r="C74" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D74" s="58"/>
-      <c r="E74" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-    </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="58">
-        <v>168</v>
-      </c>
-      <c r="B75" s="126" t="s">
-        <v>981</v>
-      </c>
-      <c r="C75" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D75" s="58"/>
-      <c r="E75" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-    </row>
-    <row r="76" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="58">
-        <v>171</v>
-      </c>
-      <c r="B76" s="84" t="s">
-        <v>984</v>
-      </c>
-      <c r="C76" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D76" s="58"/>
-      <c r="E76" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-    </row>
-    <row r="77" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="58">
-        <v>172</v>
-      </c>
-      <c r="B77" s="84" t="s">
-        <v>985</v>
-      </c>
-      <c r="C77" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D77" s="58"/>
-      <c r="E77" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-    </row>
-    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="58">
-        <v>173</v>
-      </c>
-      <c r="B78" s="126" t="s">
-        <v>747</v>
-      </c>
-      <c r="C78" s="58" t="s">
-        <v>798</v>
-      </c>
-      <c r="D78" s="58"/>
-      <c r="E78" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-    </row>
-    <row r="79" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="58">
-        <v>177</v>
-      </c>
-      <c r="B79" s="84" t="s">
-        <v>988</v>
-      </c>
-      <c r="C79" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D79" s="58"/>
-      <c r="E79" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-    </row>
-    <row r="80" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="58">
-        <v>184</v>
-      </c>
-      <c r="B80" s="126" t="s">
-        <v>990</v>
-      </c>
-      <c r="C80" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D80" s="58"/>
-      <c r="E80" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F80" s="58" t="s">
-        <v>861</v>
-      </c>
-      <c r="G80" s="58"/>
-    </row>
-    <row r="81" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="58">
-        <v>185</v>
-      </c>
-      <c r="B81" s="84" t="s">
-        <v>769</v>
-      </c>
-      <c r="C81" s="58" t="s">
-        <v>798</v>
-      </c>
-      <c r="D81" s="58"/>
-      <c r="E81" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-    </row>
-    <row r="82" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="58">
-        <v>187</v>
-      </c>
-      <c r="B82" s="84" t="s">
-        <v>992</v>
-      </c>
-      <c r="C82" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D82" s="58"/>
-      <c r="E82" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-    </row>
-    <row r="83" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="58">
-        <v>191</v>
-      </c>
-      <c r="B83" s="84" t="s">
-        <v>994</v>
-      </c>
-      <c r="C83" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D83" s="58"/>
-      <c r="E83" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-    </row>
-    <row r="84" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A84" s="58">
-        <v>192</v>
-      </c>
-      <c r="B84" s="130" t="s">
-        <v>139</v>
-      </c>
-      <c r="C84" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D84" s="58"/>
-      <c r="E84" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-    </row>
-    <row r="85" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A85" s="58">
-        <v>206</v>
-      </c>
-      <c r="B85" s="84" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C85" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D85" s="58"/>
-      <c r="E85" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-    </row>
-    <row r="86" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="58">
-        <v>208</v>
-      </c>
-      <c r="B86" s="130" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C86" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D86" s="58"/>
-      <c r="E86" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-    </row>
-    <row r="87" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="58">
-        <v>209</v>
-      </c>
-      <c r="B87" s="130" t="s">
-        <v>88</v>
-      </c>
-      <c r="C87" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-    </row>
-    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="58">
-        <v>218</v>
-      </c>
-      <c r="B88" s="126" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C88" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D88" s="58"/>
-      <c r="E88" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-    </row>
-    <row r="89" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A89" s="58">
-        <v>219</v>
-      </c>
-      <c r="B89" s="84" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C89" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D89" s="58"/>
-      <c r="E89" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-    </row>
-    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="58">
-        <v>220</v>
-      </c>
-      <c r="B90" s="126" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C90" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D90" s="58"/>
-      <c r="E90" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-    </row>
-    <row r="91" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A91" s="58">
-        <v>221</v>
-      </c>
-      <c r="B91" s="84" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C91" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D91" s="58"/>
-      <c r="E91" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-    </row>
-    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="58">
-        <v>224</v>
-      </c>
-      <c r="B92" s="126" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C92" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D92" s="58"/>
-      <c r="E92" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-    </row>
-    <row r="93" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A93" s="58">
-        <v>227</v>
-      </c>
-      <c r="B93" s="84" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C93" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D93" s="58"/>
-      <c r="E93" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-    </row>
-    <row r="94" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A94" s="58">
-        <v>233</v>
-      </c>
-      <c r="B94" s="84" t="s">
-        <v>767</v>
-      </c>
-      <c r="C94" s="58" t="s">
-        <v>798</v>
-      </c>
-      <c r="D94" s="58"/>
-      <c r="E94" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-    </row>
-    <row r="95" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="58">
-        <v>234</v>
-      </c>
-      <c r="B95" s="130" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C95" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D95" s="58"/>
-      <c r="E95" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-    </row>
-    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="58">
-        <v>235</v>
-      </c>
-      <c r="B96" s="126" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C96" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D96" s="58"/>
-      <c r="E96" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-    </row>
-    <row r="97" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="58">
-        <v>241</v>
-      </c>
-      <c r="B97" s="126" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C97" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D97" s="58"/>
-      <c r="E97" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-    </row>
-    <row r="98" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="58">
-        <v>244</v>
-      </c>
-      <c r="B98" s="126" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C98" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D98" s="58"/>
-      <c r="E98" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-    </row>
-    <row r="99" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="58">
-        <v>245</v>
-      </c>
-      <c r="B99" s="126" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C99" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D99" s="58"/>
-      <c r="E99" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-    </row>
-    <row r="100" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="58">
-        <v>250</v>
-      </c>
-      <c r="B100" s="129" t="s">
-        <v>328</v>
-      </c>
-      <c r="C100" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D100" s="58"/>
-      <c r="E100" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F100" s="60" t="s">
-        <v>509</v>
-      </c>
-      <c r="G100" s="60"/>
-    </row>
-    <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="58">
-        <v>251</v>
-      </c>
-      <c r="B101" s="126" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C101" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D101" s="58"/>
-      <c r="E101" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
-    </row>
-    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="58">
-        <v>256</v>
-      </c>
-      <c r="B102" s="126" t="s">
-        <v>58</v>
-      </c>
-      <c r="C102" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D102" s="58"/>
-      <c r="E102" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
-    </row>
-    <row r="103" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="58">
-        <v>261</v>
-      </c>
-      <c r="B103" s="126" t="s">
-        <v>96</v>
-      </c>
-      <c r="C103" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D103" s="58"/>
-      <c r="E103" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F103" s="17"/>
-      <c r="G103" s="17"/>
-    </row>
-    <row r="104" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="58">
-        <v>273</v>
-      </c>
-      <c r="B104" s="84" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C104" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D104" s="58"/>
-      <c r="E104" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-    </row>
-    <row r="105" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="58">
-        <v>274</v>
-      </c>
-      <c r="B105" s="126" t="s">
-        <v>775</v>
-      </c>
-      <c r="C105" s="58" t="s">
-        <v>798</v>
-      </c>
-      <c r="D105" s="58"/>
-      <c r="E105" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17"/>
-    </row>
-    <row r="106" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="46">
-        <v>275</v>
-      </c>
-      <c r="B106" s="133" t="s">
-        <v>68</v>
-      </c>
-      <c r="C106" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="D106" s="46"/>
-      <c r="E106" s="46"/>
-      <c r="F106" s="32"/>
-      <c r="G106" s="32"/>
-    </row>
-    <row r="107" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="58">
-        <v>276</v>
-      </c>
-      <c r="B107" s="126" t="s">
-        <v>783</v>
-      </c>
-      <c r="C107" s="58" t="s">
-        <v>798</v>
-      </c>
-      <c r="D107" s="58"/>
-      <c r="E107" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F107" s="17"/>
-      <c r="G107" s="17"/>
-    </row>
-    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="58">
-        <v>277</v>
-      </c>
-      <c r="B108" s="126" t="s">
-        <v>69</v>
-      </c>
-      <c r="C108" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D108" s="58"/>
-      <c r="E108" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
-    </row>
-    <row r="109" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="58">
-        <v>278</v>
-      </c>
-      <c r="B109" s="130" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C109" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D109" s="58"/>
-      <c r="E109" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F109" s="17"/>
-      <c r="G109" s="17"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="58">
-        <v>285</v>
-      </c>
-      <c r="B110" s="135" t="s">
-        <v>781</v>
-      </c>
-      <c r="C110" s="58" t="s">
-        <v>798</v>
-      </c>
-      <c r="D110" s="58"/>
-      <c r="E110" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
-    </row>
-    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="58">
-        <v>287</v>
-      </c>
-      <c r="B111" s="126" t="s">
-        <v>753</v>
-      </c>
-      <c r="C111" s="58" t="s">
-        <v>798</v>
-      </c>
-      <c r="D111" s="58"/>
-      <c r="E111" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
-    </row>
-    <row r="112" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="58">
-        <v>289</v>
-      </c>
-      <c r="B112" s="126" t="s">
-        <v>59</v>
-      </c>
-      <c r="C112" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D112" s="58"/>
-      <c r="E112" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
-    </row>
-    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="58">
-        <v>290</v>
-      </c>
-      <c r="B113" s="126" t="s">
-        <v>754</v>
-      </c>
-      <c r="C113" s="58" t="s">
-        <v>798</v>
-      </c>
-      <c r="D113" s="58"/>
-      <c r="E113" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F113" s="17"/>
-      <c r="G113" s="17"/>
-    </row>
-    <row r="114" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A114" s="58">
-        <v>294</v>
-      </c>
-      <c r="B114" s="84" t="s">
-        <v>768</v>
-      </c>
-      <c r="C114" s="58" t="s">
-        <v>798</v>
-      </c>
-      <c r="D114" s="58"/>
-      <c r="E114" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F114" s="17" t="s">
-        <v>847</v>
-      </c>
-      <c r="G114" s="17"/>
-    </row>
-    <row r="115" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="58">
-        <v>297</v>
-      </c>
-      <c r="B115" s="84" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C115" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D115" s="58"/>
-      <c r="E115" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F115" s="17"/>
-      <c r="G115" s="17"/>
-    </row>
-    <row r="116" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A116" s="58">
-        <v>298</v>
-      </c>
-      <c r="B116" s="84" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C116" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D116" s="58"/>
-      <c r="E116" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F116" s="17"/>
-      <c r="G116" s="17"/>
-    </row>
-    <row r="117" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="58">
-        <v>303</v>
-      </c>
-      <c r="B117" s="130" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C117" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D117" s="58"/>
-      <c r="E117" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F117" s="17"/>
-      <c r="G117" s="17"/>
-    </row>
-    <row r="118" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="58">
-        <v>304</v>
-      </c>
-      <c r="B118" s="84" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C118" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D118" s="58"/>
-      <c r="E118" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F118" s="17"/>
-      <c r="G118" s="17"/>
-    </row>
-    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="58">
-        <v>309</v>
-      </c>
-      <c r="B119" s="126" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C119" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D119" s="58"/>
-      <c r="E119" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F119" s="17"/>
-      <c r="G119" s="17"/>
-    </row>
-    <row r="120" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A120" s="58">
-        <v>312</v>
-      </c>
-      <c r="B120" s="84" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C120" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D120" s="58"/>
-      <c r="E120" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F120" s="17"/>
-      <c r="G120" s="17"/>
-    </row>
-    <row r="121" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="58">
-        <v>316</v>
-      </c>
-      <c r="B121" s="84" t="s">
-        <v>188</v>
-      </c>
-      <c r="C121" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D121" s="58"/>
-      <c r="E121" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F121" s="58" t="s">
-        <v>849</v>
-      </c>
-      <c r="G121" s="58"/>
-    </row>
-    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="58">
-        <v>320</v>
-      </c>
-      <c r="B122" s="126" t="s">
-        <v>95</v>
-      </c>
-      <c r="C122" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D122" s="58"/>
-      <c r="E122" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F122" s="17"/>
-      <c r="G122" s="17"/>
-    </row>
-    <row r="123" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A123" s="58">
-        <v>321</v>
-      </c>
-      <c r="B123" s="84" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C123" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D123" s="58"/>
-      <c r="E123" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F123" s="17"/>
-      <c r="G123" s="17"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="58">
-        <v>325</v>
-      </c>
-      <c r="B124" s="132" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C124" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D124" s="58"/>
-      <c r="E124" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F124" s="17"/>
-      <c r="G124" s="17"/>
-    </row>
-    <row r="125" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A125" s="58">
-        <v>326</v>
-      </c>
-      <c r="B125" s="84" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C125" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D125" s="58"/>
-      <c r="E125" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F125" s="17"/>
-      <c r="G125" s="17"/>
-    </row>
-    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="58">
-        <v>327</v>
-      </c>
-      <c r="B126" s="126" t="s">
-        <v>80</v>
-      </c>
-      <c r="C126" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D126" s="58"/>
-      <c r="E126" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F126" s="17"/>
-      <c r="G126" s="17"/>
-    </row>
-    <row r="127" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A127" s="58">
-        <v>331</v>
-      </c>
-      <c r="B127" s="129" t="s">
-        <v>726</v>
-      </c>
-      <c r="C127" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D127" s="58"/>
-      <c r="E127" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F127" s="58" t="s">
-        <v>1107</v>
-      </c>
-      <c r="G127" s="58"/>
-    </row>
-    <row r="128" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="58">
-        <v>336</v>
-      </c>
-      <c r="B128" s="136" t="s">
-        <v>137</v>
-      </c>
-      <c r="C128" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D128" s="58"/>
-      <c r="E128" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F128" s="17"/>
-      <c r="G128" s="17"/>
-    </row>
-    <row r="129" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A129" s="58">
-        <v>340</v>
-      </c>
-      <c r="B129" s="84" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C129" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D129" s="58"/>
-      <c r="E129" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F129" s="17"/>
-      <c r="G129" s="17"/>
+      <c r="F129" s="43"/>
+      <c r="G129" s="47"/>
     </row>
   </sheetData>
+  <sortState ref="A3:G129">
+    <sortCondition ref="A3:A129"/>
+    <sortCondition ref="B3:B129"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -59702,8 +59643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E342"/>
   <sheetViews>
-    <sheetView topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="A222" sqref="A222:XFD222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64873,27 +64814,29 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
     <col min="2" max="2" width="100.42578125" style="137" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" customWidth="1"/>
+    <col min="3" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="124" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
@@ -64903,370 +64846,374 @@
       <c r="C2" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="11" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>821</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58"/>
       <c r="B3" s="126" t="s">
         <v>863</v>
       </c>
       <c r="C3" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="58"/>
+      <c r="E3" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58">
-        <v>4</v>
-      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="58"/>
       <c r="B4" s="126" t="s">
         <v>864</v>
       </c>
       <c r="C4" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58">
-        <v>6</v>
-      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
       <c r="B5" s="84" t="s">
         <v>866</v>
       </c>
       <c r="C5" s="58" t="s">
         <v>554</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="58">
-        <v>7</v>
-      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="58"/>
       <c r="B6" s="84" t="s">
         <v>867</v>
       </c>
       <c r="C6" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="58"/>
+      <c r="E6" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="58">
-        <v>10</v>
-      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="58"/>
       <c r="B7" s="126" t="s">
         <v>870</v>
       </c>
       <c r="C7" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="58">
-        <v>14</v>
-      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="58"/>
       <c r="B8" s="84" t="s">
         <v>873</v>
       </c>
       <c r="C8" s="58" t="s">
         <v>554</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="58"/>
+      <c r="E8" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="58">
-        <v>15</v>
-      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="58"/>
       <c r="B9" s="84" t="s">
         <v>874</v>
       </c>
       <c r="C9" s="58" t="s">
         <v>554</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="58"/>
+      <c r="E9" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="58">
-        <v>23</v>
-      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="58"/>
       <c r="B10" s="126" t="s">
         <v>877</v>
       </c>
       <c r="C10" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="58"/>
+      <c r="E10" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="58">
-        <v>26</v>
-      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="58"/>
       <c r="B11" s="84" t="s">
         <v>879</v>
       </c>
       <c r="C11" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="58"/>
+      <c r="E11" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="F11" s="60" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="58">
-        <v>29</v>
-      </c>
+      <c r="G11" s="60"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="58"/>
       <c r="B12" s="126" t="s">
         <v>794</v>
       </c>
       <c r="C12" s="58" t="s">
         <v>798</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="58"/>
+      <c r="E12" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58">
-        <v>35</v>
-      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58"/>
       <c r="B13" s="129" t="s">
         <v>886</v>
       </c>
       <c r="C13" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="58"/>
+      <c r="E13" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="F13" s="60" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="58">
-        <v>38</v>
-      </c>
+      <c r="G13" s="60"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="58"/>
       <c r="B14" s="126" t="s">
         <v>889</v>
       </c>
       <c r="C14" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="58"/>
+      <c r="E14" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="58">
-        <v>43</v>
-      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="58"/>
       <c r="B15" s="126" t="s">
         <v>894</v>
       </c>
       <c r="C15" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="58"/>
+      <c r="E15" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="F15" s="58" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="58">
-        <v>44</v>
-      </c>
+      <c r="G15" s="58"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="58"/>
       <c r="B16" s="126" t="s">
         <v>895</v>
       </c>
       <c r="C16" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="58"/>
+      <c r="E16" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A17" s="58">
-        <v>46</v>
-      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A17" s="58"/>
       <c r="B17" s="84" t="s">
         <v>897</v>
       </c>
       <c r="C17" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="58"/>
+      <c r="E17" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58">
-        <v>51</v>
-      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="58"/>
       <c r="B18" s="84" t="s">
         <v>902</v>
       </c>
       <c r="C18" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="58"/>
+      <c r="E18" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58">
-        <v>52</v>
-      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="58"/>
       <c r="B19" s="84" t="s">
         <v>903</v>
       </c>
       <c r="C19" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="58"/>
+      <c r="E19" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58">
-        <v>54</v>
-      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="58"/>
       <c r="B20" s="84" t="s">
         <v>904</v>
       </c>
       <c r="C20" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="58"/>
+      <c r="E20" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58">
-        <v>56</v>
-      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="58"/>
       <c r="B21" s="84" t="s">
         <v>906</v>
       </c>
       <c r="C21" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="58"/>
+      <c r="E21" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="58">
-        <v>59</v>
-      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="58"/>
       <c r="B22" s="126" t="s">
         <v>908</v>
       </c>
       <c r="C22" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="58"/>
+      <c r="E22" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E22" s="17"/>
-    </row>
-    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="58">
-        <v>60</v>
-      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="58"/>
       <c r="B23" s="129" t="s">
         <v>724</v>
       </c>
       <c r="C23" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="58"/>
+      <c r="E23" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="F23" s="33" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58">
-        <v>63</v>
-      </c>
+      <c r="G23" s="33"/>
+    </row>
+    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="58"/>
       <c r="B24" s="126" t="s">
         <v>363</v>
       </c>
       <c r="C24" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="58"/>
+      <c r="E24" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E24" s="17"/>
-    </row>
-    <row r="25" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58">
-        <v>66</v>
-      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="58"/>
       <c r="B25" s="140" t="s">
         <v>90</v>
       </c>
       <c r="C25" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="58"/>
+      <c r="E25" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="121">
-        <v>67</v>
-      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="121"/>
       <c r="B26" s="143" t="s">
         <v>55</v>
       </c>
@@ -65274,1209 +65221,1209 @@
         <v>282</v>
       </c>
       <c r="D26" s="121"/>
-      <c r="E26" s="122" t="s">
+      <c r="E26" s="121"/>
+      <c r="F26" s="122" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="58">
-        <v>70</v>
-      </c>
+      <c r="G26" s="122"/>
+    </row>
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="58"/>
       <c r="B27" s="141" t="s">
         <v>721</v>
       </c>
       <c r="C27" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="58"/>
+      <c r="E27" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="F27" s="33" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58">
-        <v>71</v>
-      </c>
+      <c r="G27" s="33"/>
+    </row>
+    <row r="28" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="58"/>
       <c r="B28" s="126" t="s">
         <v>914</v>
       </c>
       <c r="C28" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D28" s="58" t="s">
+      <c r="D28" s="58"/>
+      <c r="E28" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E28" s="17"/>
-    </row>
-    <row r="29" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A29" s="58">
-        <v>73</v>
-      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A29" s="58"/>
       <c r="B29" s="84" t="s">
         <v>762</v>
       </c>
       <c r="C29" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="58"/>
+      <c r="E29" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E29" s="17"/>
-    </row>
-    <row r="30" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="58">
-        <v>77</v>
-      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="58"/>
       <c r="B30" s="84" t="s">
         <v>917</v>
       </c>
       <c r="C30" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D30" s="58" t="s">
+      <c r="D30" s="58"/>
+      <c r="E30" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E30" s="17"/>
-    </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="58">
-        <v>78</v>
-      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="58"/>
       <c r="B31" s="126" t="s">
         <v>918</v>
       </c>
       <c r="C31" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="58"/>
+      <c r="E31" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="58">
-        <v>80</v>
-      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+    </row>
+    <row r="32" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="58"/>
       <c r="B32" s="130" t="s">
         <v>82</v>
       </c>
       <c r="C32" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="D32" s="58"/>
+      <c r="E32" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E32" s="17"/>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="58">
-        <v>81</v>
-      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="58"/>
       <c r="B33" s="126" t="s">
         <v>81</v>
       </c>
       <c r="C33" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D33" s="58" t="s">
+      <c r="D33" s="58"/>
+      <c r="E33" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E33" s="17"/>
-    </row>
-    <row r="34" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="58">
-        <v>82</v>
-      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+    </row>
+    <row r="34" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="58"/>
       <c r="B34" s="131" t="s">
         <v>919</v>
       </c>
       <c r="C34" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="58"/>
+      <c r="E34" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E34" s="17"/>
-    </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="58">
-        <v>86</v>
-      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="58"/>
       <c r="B35" s="83" t="s">
         <v>517</v>
       </c>
       <c r="C35" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D35" s="58" t="s">
+      <c r="D35" s="58"/>
+      <c r="E35" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E35" s="17"/>
-    </row>
-    <row r="36" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="58">
-        <v>87</v>
-      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+    </row>
+    <row r="36" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="58"/>
       <c r="B36" s="84" t="s">
         <v>921</v>
       </c>
       <c r="C36" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D36" s="58" t="s">
+      <c r="D36" s="58"/>
+      <c r="E36" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E36" s="17"/>
-    </row>
-    <row r="37" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="58">
-        <v>90</v>
-      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+    </row>
+    <row r="37" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="58"/>
       <c r="B37" s="84" t="s">
         <v>518</v>
       </c>
       <c r="C37" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D37" s="58" t="s">
+      <c r="D37" s="58"/>
+      <c r="E37" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E37" s="17"/>
-    </row>
-    <row r="38" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="58">
-        <v>91</v>
-      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+    </row>
+    <row r="38" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="58"/>
       <c r="B38" s="126" t="s">
         <v>923</v>
       </c>
       <c r="C38" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D38" s="58" t="s">
+      <c r="D38" s="58"/>
+      <c r="E38" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E38" s="17"/>
-    </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="58">
-        <v>92</v>
-      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+    </row>
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="58"/>
       <c r="B39" s="126" t="s">
         <v>924</v>
       </c>
       <c r="C39" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D39" s="58" t="s">
+      <c r="D39" s="58"/>
+      <c r="E39" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E39" s="17"/>
-    </row>
-    <row r="40" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="58">
-        <v>93</v>
-      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+    </row>
+    <row r="40" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="58"/>
       <c r="B40" s="126" t="s">
         <v>925</v>
       </c>
       <c r="C40" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D40" s="58" t="s">
+      <c r="D40" s="58"/>
+      <c r="E40" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E40" s="17"/>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="58">
-        <v>94</v>
-      </c>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="58"/>
       <c r="B41" s="126" t="s">
         <v>926</v>
       </c>
       <c r="C41" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D41" s="58" t="s">
+      <c r="D41" s="58"/>
+      <c r="E41" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E41" s="17"/>
-    </row>
-    <row r="42" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="58">
-        <v>95</v>
-      </c>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+    </row>
+    <row r="42" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="58"/>
       <c r="B42" s="84" t="s">
         <v>927</v>
       </c>
       <c r="C42" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D42" s="58" t="s">
+      <c r="D42" s="58"/>
+      <c r="E42" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E42" s="17"/>
-    </row>
-    <row r="43" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="58">
-        <v>96</v>
-      </c>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+    </row>
+    <row r="43" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="58"/>
       <c r="B43" s="126" t="s">
         <v>928</v>
       </c>
       <c r="C43" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D43" s="58" t="s">
+      <c r="D43" s="58"/>
+      <c r="E43" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E43" s="17"/>
-    </row>
-    <row r="44" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="58">
-        <v>99</v>
-      </c>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+    </row>
+    <row r="44" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="58"/>
       <c r="B44" s="132" t="s">
         <v>931</v>
       </c>
       <c r="C44" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D44" s="58" t="s">
+      <c r="D44" s="58"/>
+      <c r="E44" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E44" s="17"/>
-    </row>
-    <row r="45" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="58">
-        <v>103</v>
-      </c>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+    </row>
+    <row r="45" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="58"/>
       <c r="B45" s="126" t="s">
         <v>703</v>
       </c>
       <c r="C45" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D45" s="58" t="s">
+      <c r="D45" s="58"/>
+      <c r="E45" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E45" s="17"/>
-    </row>
-    <row r="46" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="58">
-        <v>106</v>
-      </c>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+    </row>
+    <row r="46" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="58"/>
       <c r="B46" s="84" t="s">
         <v>935</v>
       </c>
       <c r="C46" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D46" s="58" t="s">
+      <c r="D46" s="58"/>
+      <c r="E46" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E46" s="17"/>
-    </row>
-    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="58">
-        <v>108</v>
-      </c>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+    </row>
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="58"/>
       <c r="B47" s="126" t="s">
         <v>936</v>
       </c>
       <c r="C47" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D47" s="58" t="s">
+      <c r="D47" s="58"/>
+      <c r="E47" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E47" s="17"/>
-    </row>
-    <row r="48" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A48" s="58">
-        <v>109</v>
-      </c>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+    </row>
+    <row r="48" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A48" s="58"/>
       <c r="B48" s="84" t="s">
         <v>937</v>
       </c>
       <c r="C48" s="58" t="s">
         <v>554</v>
       </c>
-      <c r="D48" s="58" t="s">
+      <c r="D48" s="58"/>
+      <c r="E48" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E48" s="17"/>
-    </row>
-    <row r="49" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="58">
-        <v>110</v>
-      </c>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+    </row>
+    <row r="49" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="58"/>
       <c r="B49" s="84" t="s">
         <v>938</v>
       </c>
       <c r="C49" s="58" t="s">
         <v>554</v>
       </c>
-      <c r="D49" s="58" t="s">
+      <c r="D49" s="58"/>
+      <c r="E49" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E49" s="17"/>
-    </row>
-    <row r="50" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="58">
-        <v>111</v>
-      </c>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+    </row>
+    <row r="50" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="58"/>
       <c r="B50" s="84" t="s">
         <v>939</v>
       </c>
       <c r="C50" s="58" t="s">
         <v>554</v>
       </c>
-      <c r="D50" s="58" t="s">
+      <c r="D50" s="58"/>
+      <c r="E50" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E50" s="17"/>
-    </row>
-    <row r="51" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="58">
-        <v>112</v>
-      </c>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+    </row>
+    <row r="51" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="58"/>
       <c r="B51" s="130" t="s">
         <v>940</v>
       </c>
       <c r="C51" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D51" s="58" t="s">
+      <c r="D51" s="58"/>
+      <c r="E51" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E51" s="17"/>
-    </row>
-    <row r="52" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="58">
-        <v>113</v>
-      </c>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+    </row>
+    <row r="52" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="58"/>
       <c r="B52" s="84" t="s">
         <v>941</v>
       </c>
       <c r="C52" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D52" s="58" t="s">
+      <c r="D52" s="58"/>
+      <c r="E52" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E52" s="17"/>
-    </row>
-    <row r="53" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A53" s="58">
-        <v>114</v>
-      </c>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+    </row>
+    <row r="53" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A53" s="58"/>
       <c r="B53" s="130" t="s">
         <v>942</v>
       </c>
       <c r="C53" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D53" s="58" t="s">
+      <c r="D53" s="58"/>
+      <c r="E53" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E53" s="17"/>
-    </row>
-    <row r="54" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="58">
-        <v>115</v>
-      </c>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+    </row>
+    <row r="54" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="58"/>
       <c r="B54" s="130" t="s">
         <v>943</v>
       </c>
       <c r="C54" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D54" s="58" t="s">
+      <c r="D54" s="58"/>
+      <c r="E54" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E54" s="17"/>
-    </row>
-    <row r="55" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A55" s="58">
-        <v>116</v>
-      </c>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+    </row>
+    <row r="55" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A55" s="58"/>
       <c r="B55" s="84" t="s">
         <v>944</v>
       </c>
       <c r="C55" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D55" s="58" t="s">
+      <c r="D55" s="58"/>
+      <c r="E55" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E55" s="17"/>
-    </row>
-    <row r="56" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="58">
-        <v>117</v>
-      </c>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+    </row>
+    <row r="56" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="58"/>
       <c r="B56" s="84" t="s">
         <v>945</v>
       </c>
       <c r="C56" s="58" t="s">
         <v>554</v>
       </c>
-      <c r="D56" s="58" t="s">
+      <c r="D56" s="58"/>
+      <c r="E56" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E56" s="17"/>
-    </row>
-    <row r="57" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="58">
-        <v>118</v>
-      </c>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+    </row>
+    <row r="57" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="58"/>
       <c r="B57" s="84" t="s">
         <v>946</v>
       </c>
       <c r="C57" s="58" t="s">
         <v>554</v>
       </c>
-      <c r="D57" s="58" t="s">
+      <c r="D57" s="58"/>
+      <c r="E57" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E57" s="17"/>
-    </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="58">
-        <v>119</v>
-      </c>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+    </row>
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="58"/>
       <c r="B58" s="126" t="s">
         <v>947</v>
       </c>
       <c r="C58" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D58" s="58" t="s">
+      <c r="D58" s="58"/>
+      <c r="E58" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E58" s="17"/>
-    </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="58">
-        <v>123</v>
-      </c>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+    </row>
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="58"/>
       <c r="B59" s="126" t="s">
         <v>950</v>
       </c>
       <c r="C59" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D59" s="58" t="s">
+      <c r="D59" s="58"/>
+      <c r="E59" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E59" s="60" t="s">
+      <c r="F59" s="60" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="58">
-        <v>128</v>
-      </c>
+      <c r="G59" s="60"/>
+    </row>
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="58"/>
       <c r="B60" s="126" t="s">
         <v>952</v>
       </c>
       <c r="C60" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D60" s="58" t="s">
+      <c r="D60" s="58"/>
+      <c r="E60" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E60" s="17"/>
-    </row>
-    <row r="61" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="58">
-        <v>132</v>
-      </c>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+    </row>
+    <row r="61" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="58"/>
       <c r="B61" s="129" t="s">
         <v>737</v>
       </c>
       <c r="C61" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D61" s="58" t="s">
+      <c r="D61" s="58"/>
+      <c r="E61" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E61" s="17"/>
-    </row>
-    <row r="62" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="58">
-        <v>138</v>
-      </c>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+    </row>
+    <row r="62" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="58"/>
       <c r="B62" s="84" t="s">
         <v>959</v>
       </c>
       <c r="C62" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D62" s="58" t="s">
+      <c r="D62" s="58"/>
+      <c r="E62" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E62" s="17"/>
-    </row>
-    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="58">
-        <v>139</v>
-      </c>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+    </row>
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="58"/>
       <c r="B63" s="126" t="s">
         <v>960</v>
       </c>
       <c r="C63" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D63" s="58" t="s">
+      <c r="D63" s="58"/>
+      <c r="E63" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E63" s="17"/>
-    </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="58">
-        <v>141</v>
-      </c>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+    </row>
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="58"/>
       <c r="B64" s="126" t="s">
         <v>745</v>
       </c>
       <c r="C64" s="58" t="s">
         <v>798</v>
       </c>
-      <c r="D64" s="58" t="s">
+      <c r="D64" s="58"/>
+      <c r="E64" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E64" s="17"/>
-    </row>
-    <row r="65" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="58">
-        <v>142</v>
-      </c>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+    </row>
+    <row r="65" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="58"/>
       <c r="B65" s="84" t="s">
         <v>962</v>
       </c>
       <c r="C65" s="58" t="s">
         <v>554</v>
       </c>
-      <c r="D65" s="58" t="s">
+      <c r="D65" s="58"/>
+      <c r="E65" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E65" s="17"/>
-    </row>
-    <row r="66" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="58">
-        <v>145</v>
-      </c>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+    </row>
+    <row r="66" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="58"/>
       <c r="B66" s="84" t="s">
         <v>549</v>
       </c>
       <c r="C66" s="58" t="s">
         <v>554</v>
       </c>
-      <c r="D66" s="58" t="s">
+      <c r="D66" s="58"/>
+      <c r="E66" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="F66" s="17" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="58">
-        <v>147</v>
-      </c>
+      <c r="G66" s="17"/>
+    </row>
+    <row r="67" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="58"/>
       <c r="B67" s="84" t="s">
         <v>966</v>
       </c>
       <c r="C67" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D67" s="58" t="s">
+      <c r="D67" s="58"/>
+      <c r="E67" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E67" s="17"/>
-    </row>
-    <row r="68" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="58">
-        <v>151</v>
-      </c>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+    </row>
+    <row r="68" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="58"/>
       <c r="B68" s="84" t="s">
         <v>968</v>
       </c>
       <c r="C68" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D68" s="58" t="s">
+      <c r="D68" s="58"/>
+      <c r="E68" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E68" s="17"/>
-    </row>
-    <row r="69" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="58">
-        <v>152</v>
-      </c>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+    </row>
+    <row r="69" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="58"/>
       <c r="B69" s="126" t="s">
         <v>969</v>
       </c>
       <c r="C69" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D69" s="58" t="s">
+      <c r="D69" s="58"/>
+      <c r="E69" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E69" s="17"/>
-    </row>
-    <row r="70" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="58">
-        <v>154</v>
-      </c>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+    </row>
+    <row r="70" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="58"/>
       <c r="B70" s="84" t="s">
         <v>970</v>
       </c>
       <c r="C70" s="58" t="s">
         <v>554</v>
       </c>
-      <c r="D70" s="58" t="s">
+      <c r="D70" s="58"/>
+      <c r="E70" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E70" s="17"/>
-    </row>
-    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="58">
-        <v>155</v>
-      </c>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+    </row>
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="58"/>
       <c r="B71" s="126" t="s">
         <v>971</v>
       </c>
       <c r="C71" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D71" s="58" t="s">
+      <c r="D71" s="58"/>
+      <c r="E71" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E71" s="17"/>
-    </row>
-    <row r="72" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="58">
-        <v>160</v>
-      </c>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+    </row>
+    <row r="72" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="58"/>
       <c r="B72" s="84" t="s">
         <v>975</v>
       </c>
       <c r="C72" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D72" s="58" t="s">
+      <c r="D72" s="58"/>
+      <c r="E72" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E72" s="17"/>
-    </row>
-    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="58">
-        <v>165</v>
-      </c>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+    </row>
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="58"/>
       <c r="B73" s="126" t="s">
         <v>978</v>
       </c>
       <c r="C73" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D73" s="58" t="s">
+      <c r="D73" s="58"/>
+      <c r="E73" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E73" s="17"/>
-    </row>
-    <row r="74" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="58">
-        <v>167</v>
-      </c>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+    </row>
+    <row r="74" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="58"/>
       <c r="B74" s="84" t="s">
         <v>980</v>
       </c>
       <c r="C74" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D74" s="58" t="s">
+      <c r="D74" s="58"/>
+      <c r="E74" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E74" s="17"/>
-    </row>
-    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="58">
-        <v>168</v>
-      </c>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+    </row>
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="58"/>
       <c r="B75" s="126" t="s">
         <v>981</v>
       </c>
       <c r="C75" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D75" s="58" t="s">
+      <c r="D75" s="58"/>
+      <c r="E75" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E75" s="17"/>
-    </row>
-    <row r="76" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="58">
-        <v>171</v>
-      </c>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+    </row>
+    <row r="76" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A76" s="58"/>
       <c r="B76" s="84" t="s">
         <v>984</v>
       </c>
       <c r="C76" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D76" s="58" t="s">
+      <c r="D76" s="58"/>
+      <c r="E76" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E76" s="17"/>
-    </row>
-    <row r="77" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="58">
-        <v>172</v>
-      </c>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+    </row>
+    <row r="77" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A77" s="58"/>
       <c r="B77" s="84" t="s">
         <v>985</v>
       </c>
       <c r="C77" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D77" s="58" t="s">
+      <c r="D77" s="58"/>
+      <c r="E77" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E77" s="17"/>
-    </row>
-    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="58">
-        <v>173</v>
-      </c>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+    </row>
+    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="58"/>
       <c r="B78" s="126" t="s">
         <v>747</v>
       </c>
       <c r="C78" s="58" t="s">
         <v>798</v>
       </c>
-      <c r="D78" s="58" t="s">
+      <c r="D78" s="58"/>
+      <c r="E78" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E78" s="17"/>
-    </row>
-    <row r="79" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="58">
-        <v>177</v>
-      </c>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+    </row>
+    <row r="79" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="58"/>
       <c r="B79" s="84" t="s">
         <v>988</v>
       </c>
       <c r="C79" s="58" t="s">
         <v>554</v>
       </c>
-      <c r="D79" s="58" t="s">
+      <c r="D79" s="58"/>
+      <c r="E79" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E79" s="17"/>
-    </row>
-    <row r="80" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="58">
-        <v>184</v>
-      </c>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+    </row>
+    <row r="80" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="58"/>
       <c r="B80" s="126" t="s">
         <v>990</v>
       </c>
       <c r="C80" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D80" s="58" t="s">
+      <c r="D80" s="58"/>
+      <c r="E80" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E80" s="58" t="s">
+      <c r="F80" s="58" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="58">
-        <v>185</v>
-      </c>
+      <c r="G80" s="58"/>
+    </row>
+    <row r="81" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="58"/>
       <c r="B81" s="84" t="s">
         <v>769</v>
       </c>
       <c r="C81" s="58" t="s">
         <v>798</v>
       </c>
-      <c r="D81" s="58" t="s">
+      <c r="D81" s="58"/>
+      <c r="E81" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E81" s="17"/>
-    </row>
-    <row r="82" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="58">
-        <v>187</v>
-      </c>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+    </row>
+    <row r="82" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="58"/>
       <c r="B82" s="84" t="s">
         <v>992</v>
       </c>
       <c r="C82" s="58" t="s">
         <v>554</v>
       </c>
-      <c r="D82" s="58" t="s">
+      <c r="D82" s="58"/>
+      <c r="E82" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E82" s="17"/>
-    </row>
-    <row r="83" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="58">
-        <v>191</v>
-      </c>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+    </row>
+    <row r="83" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="58"/>
       <c r="B83" s="84" t="s">
         <v>994</v>
       </c>
       <c r="C83" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D83" s="58" t="s">
+      <c r="D83" s="58"/>
+      <c r="E83" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E83" s="17"/>
-    </row>
-    <row r="84" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A84" s="58">
-        <v>192</v>
-      </c>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+    </row>
+    <row r="84" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A84" s="58"/>
       <c r="B84" s="130" t="s">
         <v>139</v>
       </c>
       <c r="C84" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D84" s="58" t="s">
+      <c r="D84" s="58"/>
+      <c r="E84" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E84" s="17"/>
-    </row>
-    <row r="85" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A85" s="58">
-        <v>206</v>
-      </c>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+    </row>
+    <row r="85" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="58"/>
       <c r="B85" s="84" t="s">
         <v>1004</v>
       </c>
       <c r="C85" s="58" t="s">
         <v>554</v>
       </c>
-      <c r="D85" s="58" t="s">
+      <c r="D85" s="58"/>
+      <c r="E85" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E85" s="17"/>
-    </row>
-    <row r="86" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="58">
-        <v>208</v>
-      </c>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+    </row>
+    <row r="86" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="58"/>
       <c r="B86" s="130" t="s">
         <v>1005</v>
       </c>
       <c r="C86" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D86" s="58" t="s">
+      <c r="D86" s="58"/>
+      <c r="E86" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E86" s="17"/>
-    </row>
-    <row r="87" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="58">
-        <v>209</v>
-      </c>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+    </row>
+    <row r="87" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="58"/>
       <c r="B87" s="130" t="s">
         <v>88</v>
       </c>
       <c r="C87" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D87" s="58" t="s">
+      <c r="D87" s="58"/>
+      <c r="E87" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E87" s="17"/>
-    </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="58">
-        <v>218</v>
-      </c>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+    </row>
+    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="58"/>
       <c r="B88" s="126" t="s">
         <v>1011</v>
       </c>
       <c r="C88" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D88" s="58" t="s">
+      <c r="D88" s="58"/>
+      <c r="E88" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E88" s="17"/>
-    </row>
-    <row r="89" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A89" s="58">
-        <v>219</v>
-      </c>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+    </row>
+    <row r="89" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A89" s="58"/>
       <c r="B89" s="84" t="s">
         <v>1012</v>
       </c>
       <c r="C89" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D89" s="58" t="s">
+      <c r="D89" s="58"/>
+      <c r="E89" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E89" s="17"/>
-    </row>
-    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="58">
-        <v>220</v>
-      </c>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+    </row>
+    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="58"/>
       <c r="B90" s="126" t="s">
         <v>1013</v>
       </c>
       <c r="C90" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D90" s="58" t="s">
+      <c r="D90" s="58"/>
+      <c r="E90" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E90" s="17"/>
-    </row>
-    <row r="91" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A91" s="58">
-        <v>221</v>
-      </c>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+    </row>
+    <row r="91" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A91" s="58"/>
       <c r="B91" s="84" t="s">
         <v>1014</v>
       </c>
       <c r="C91" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D91" s="58" t="s">
+      <c r="D91" s="58"/>
+      <c r="E91" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E91" s="17"/>
-    </row>
-    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="58">
-        <v>224</v>
-      </c>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+    </row>
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="58"/>
       <c r="B92" s="126" t="s">
         <v>1017</v>
       </c>
       <c r="C92" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D92" s="58" t="s">
+      <c r="D92" s="58"/>
+      <c r="E92" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E92" s="17"/>
-    </row>
-    <row r="93" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A93" s="58">
-        <v>227</v>
-      </c>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+    </row>
+    <row r="93" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A93" s="58"/>
       <c r="B93" s="84" t="s">
         <v>1020</v>
       </c>
       <c r="C93" s="58" t="s">
         <v>554</v>
       </c>
-      <c r="D93" s="58" t="s">
+      <c r="D93" s="58"/>
+      <c r="E93" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E93" s="17"/>
-    </row>
-    <row r="94" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A94" s="58">
-        <v>233</v>
-      </c>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+    </row>
+    <row r="94" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A94" s="58"/>
       <c r="B94" s="84" t="s">
         <v>767</v>
       </c>
       <c r="C94" s="58" t="s">
         <v>798</v>
       </c>
-      <c r="D94" s="58" t="s">
+      <c r="D94" s="58"/>
+      <c r="E94" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E94" s="17"/>
-    </row>
-    <row r="95" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="58">
-        <v>234</v>
-      </c>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+    </row>
+    <row r="95" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="58"/>
       <c r="B95" s="130" t="s">
         <v>1025</v>
       </c>
       <c r="C95" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D95" s="58" t="s">
+      <c r="D95" s="58"/>
+      <c r="E95" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E95" s="17"/>
-    </row>
-    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="58">
-        <v>235</v>
-      </c>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+    </row>
+    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="58"/>
       <c r="B96" s="126" t="s">
         <v>1026</v>
       </c>
       <c r="C96" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D96" s="58" t="s">
+      <c r="D96" s="58"/>
+      <c r="E96" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E96" s="17"/>
-    </row>
-    <row r="97" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="58">
-        <v>241</v>
-      </c>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+    </row>
+    <row r="97" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="58"/>
       <c r="B97" s="126" t="s">
         <v>1030</v>
       </c>
       <c r="C97" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D97" s="58" t="s">
+      <c r="D97" s="58"/>
+      <c r="E97" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E97" s="17"/>
-    </row>
-    <row r="98" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="58">
-        <v>244</v>
-      </c>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+    </row>
+    <row r="98" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="58"/>
       <c r="B98" s="126" t="s">
         <v>1033</v>
       </c>
       <c r="C98" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D98" s="58" t="s">
+      <c r="D98" s="58"/>
+      <c r="E98" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E98" s="17"/>
-    </row>
-    <row r="99" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="58">
-        <v>245</v>
-      </c>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+    </row>
+    <row r="99" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="58"/>
       <c r="B99" s="126" t="s">
         <v>1034</v>
       </c>
       <c r="C99" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D99" s="58" t="s">
+      <c r="D99" s="58"/>
+      <c r="E99" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E99" s="17"/>
-    </row>
-    <row r="100" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="58">
-        <v>250</v>
-      </c>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+    </row>
+    <row r="100" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="58"/>
       <c r="B100" s="129" t="s">
         <v>328</v>
       </c>
       <c r="C100" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D100" s="58" t="s">
+      <c r="D100" s="58"/>
+      <c r="E100" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E100" s="60" t="s">
+      <c r="F100" s="60" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="58">
-        <v>251</v>
-      </c>
+      <c r="G100" s="60"/>
+    </row>
+    <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" s="58"/>
       <c r="B101" s="126" t="s">
         <v>1039</v>
       </c>
       <c r="C101" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D101" s="58" t="s">
+      <c r="D101" s="58"/>
+      <c r="E101" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E101" s="17"/>
-    </row>
-    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="58">
-        <v>256</v>
-      </c>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+    </row>
+    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="58"/>
       <c r="B102" s="126" t="s">
         <v>58</v>
       </c>
       <c r="C102" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D102" s="58" t="s">
+      <c r="D102" s="58"/>
+      <c r="E102" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E102" s="17"/>
-    </row>
-    <row r="103" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="58">
-        <v>261</v>
-      </c>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+    </row>
+    <row r="103" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="58"/>
       <c r="B103" s="126" t="s">
         <v>96</v>
       </c>
       <c r="C103" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D103" s="58" t="s">
+      <c r="D103" s="58"/>
+      <c r="E103" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E103" s="17"/>
-    </row>
-    <row r="104" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="58">
-        <v>273</v>
-      </c>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+    </row>
+    <row r="104" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="58"/>
       <c r="B104" s="84" t="s">
         <v>1057</v>
       </c>
       <c r="C104" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D104" s="58" t="s">
+      <c r="D104" s="58"/>
+      <c r="E104" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E104" s="17"/>
-    </row>
-    <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="58">
-        <v>274</v>
-      </c>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
+    </row>
+    <row r="105" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="58"/>
       <c r="B105" s="126" t="s">
         <v>775</v>
       </c>
       <c r="C105" s="58" t="s">
         <v>798</v>
       </c>
-      <c r="D105" s="58" t="s">
+      <c r="D105" s="58"/>
+      <c r="E105" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E105" s="17"/>
-    </row>
-    <row r="106" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="46">
-        <v>275</v>
-      </c>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+    </row>
+    <row r="106" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="46"/>
       <c r="B106" s="133" t="s">
         <v>68</v>
       </c>
@@ -66484,358 +66431,360 @@
         <v>282</v>
       </c>
       <c r="D106" s="46"/>
-      <c r="E106" s="32"/>
-    </row>
-    <row r="107" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="58">
-        <v>276</v>
-      </c>
+      <c r="E106" s="46"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="32"/>
+    </row>
+    <row r="107" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="58"/>
       <c r="B107" s="126" t="s">
         <v>783</v>
       </c>
       <c r="C107" s="58" t="s">
         <v>798</v>
       </c>
-      <c r="D107" s="58" t="s">
+      <c r="D107" s="58"/>
+      <c r="E107" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E107" s="17"/>
-    </row>
-    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="58">
-        <v>277</v>
-      </c>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+    </row>
+    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="58"/>
       <c r="B108" s="126" t="s">
         <v>69</v>
       </c>
       <c r="C108" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D108" s="58" t="s">
+      <c r="D108" s="58"/>
+      <c r="E108" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E108" s="17"/>
-    </row>
-    <row r="109" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="58">
-        <v>278</v>
-      </c>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+    </row>
+    <row r="109" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A109" s="58"/>
       <c r="B109" s="130" t="s">
         <v>1058</v>
       </c>
       <c r="C109" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D109" s="58" t="s">
+      <c r="D109" s="58"/>
+      <c r="E109" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E109" s="17"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="58">
-        <v>285</v>
-      </c>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="58"/>
       <c r="B110" s="135" t="s">
         <v>781</v>
       </c>
       <c r="C110" s="58" t="s">
         <v>798</v>
       </c>
-      <c r="D110" s="58" t="s">
+      <c r="D110" s="58"/>
+      <c r="E110" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E110" s="17"/>
-    </row>
-    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="58">
-        <v>287</v>
-      </c>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+    </row>
+    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="58"/>
       <c r="B111" s="126" t="s">
         <v>753</v>
       </c>
       <c r="C111" s="58" t="s">
         <v>798</v>
       </c>
-      <c r="D111" s="58" t="s">
+      <c r="D111" s="58"/>
+      <c r="E111" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E111" s="17"/>
-    </row>
-    <row r="112" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="58">
-        <v>289</v>
-      </c>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+    </row>
+    <row r="112" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="58"/>
       <c r="B112" s="126" t="s">
         <v>59</v>
       </c>
       <c r="C112" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D112" s="58" t="s">
+      <c r="D112" s="58"/>
+      <c r="E112" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E112" s="17"/>
-    </row>
-    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="58">
-        <v>290</v>
-      </c>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+    </row>
+    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="58"/>
       <c r="B113" s="126" t="s">
         <v>754</v>
       </c>
       <c r="C113" s="58" t="s">
         <v>798</v>
       </c>
-      <c r="D113" s="58" t="s">
+      <c r="D113" s="58"/>
+      <c r="E113" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E113" s="17"/>
-    </row>
-    <row r="114" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A114" s="58">
-        <v>294</v>
-      </c>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+    </row>
+    <row r="114" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A114" s="58"/>
       <c r="B114" s="84" t="s">
         <v>768</v>
       </c>
       <c r="C114" s="58" t="s">
         <v>798</v>
       </c>
-      <c r="D114" s="58" t="s">
+      <c r="D114" s="58"/>
+      <c r="E114" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E114" s="17" t="s">
+      <c r="F114" s="17" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="58">
-        <v>297</v>
-      </c>
+      <c r="G114" s="17"/>
+    </row>
+    <row r="115" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="58"/>
       <c r="B115" s="84" t="s">
         <v>1065</v>
       </c>
       <c r="C115" s="58" t="s">
         <v>554</v>
       </c>
-      <c r="D115" s="58" t="s">
+      <c r="D115" s="58"/>
+      <c r="E115" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E115" s="17"/>
-    </row>
-    <row r="116" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A116" s="58">
-        <v>298</v>
-      </c>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+    </row>
+    <row r="116" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A116" s="58"/>
       <c r="B116" s="84" t="s">
         <v>1066</v>
       </c>
       <c r="C116" s="58" t="s">
         <v>554</v>
       </c>
-      <c r="D116" s="58" t="s">
+      <c r="D116" s="58"/>
+      <c r="E116" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E116" s="17"/>
-    </row>
-    <row r="117" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="58">
-        <v>303</v>
-      </c>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+    </row>
+    <row r="117" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="58"/>
       <c r="B117" s="130" t="s">
         <v>1071</v>
       </c>
       <c r="C117" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D117" s="58" t="s">
+      <c r="D117" s="58"/>
+      <c r="E117" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E117" s="17"/>
-    </row>
-    <row r="118" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="58">
-        <v>304</v>
-      </c>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+    </row>
+    <row r="118" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="58"/>
       <c r="B118" s="84" t="s">
         <v>1072</v>
       </c>
       <c r="C118" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D118" s="58" t="s">
+      <c r="D118" s="58"/>
+      <c r="E118" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E118" s="17"/>
-    </row>
-    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="58">
-        <v>309</v>
-      </c>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+    </row>
+    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="58"/>
       <c r="B119" s="126" t="s">
         <v>1077</v>
       </c>
       <c r="C119" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D119" s="58" t="s">
+      <c r="D119" s="58"/>
+      <c r="E119" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E119" s="17"/>
-    </row>
-    <row r="120" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A120" s="58">
-        <v>312</v>
-      </c>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+    </row>
+    <row r="120" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A120" s="58"/>
       <c r="B120" s="84" t="s">
         <v>1080</v>
       </c>
       <c r="C120" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D120" s="58" t="s">
+      <c r="D120" s="58"/>
+      <c r="E120" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E120" s="17"/>
-    </row>
-    <row r="121" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="58">
-        <v>316</v>
-      </c>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+    </row>
+    <row r="121" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="58"/>
       <c r="B121" s="84" t="s">
         <v>188</v>
       </c>
       <c r="C121" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D121" s="58" t="s">
+      <c r="D121" s="58"/>
+      <c r="E121" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E121" s="58" t="s">
+      <c r="F121" s="58" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="58">
-        <v>320</v>
-      </c>
+      <c r="G121" s="58"/>
+    </row>
+    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="58"/>
       <c r="B122" s="126" t="s">
         <v>95</v>
       </c>
       <c r="C122" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D122" s="58" t="s">
+      <c r="D122" s="58"/>
+      <c r="E122" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E122" s="17"/>
-    </row>
-    <row r="123" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A123" s="58">
-        <v>321</v>
-      </c>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+    </row>
+    <row r="123" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A123" s="58"/>
       <c r="B123" s="84" t="s">
         <v>1087</v>
       </c>
       <c r="C123" s="58" t="s">
         <v>554</v>
       </c>
-      <c r="D123" s="58" t="s">
+      <c r="D123" s="58"/>
+      <c r="E123" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E123" s="17"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="58">
-        <v>325</v>
-      </c>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="58"/>
       <c r="B124" s="132" t="s">
         <v>1090</v>
       </c>
       <c r="C124" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D124" s="58" t="s">
+      <c r="D124" s="58"/>
+      <c r="E124" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E124" s="17"/>
-    </row>
-    <row r="125" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A125" s="58">
-        <v>326</v>
-      </c>
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
+    </row>
+    <row r="125" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A125" s="58"/>
       <c r="B125" s="84" t="s">
         <v>1091</v>
       </c>
       <c r="C125" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D125" s="58" t="s">
+      <c r="D125" s="58"/>
+      <c r="E125" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E125" s="17"/>
-    </row>
-    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="58">
-        <v>327</v>
-      </c>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+    </row>
+    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="58"/>
       <c r="B126" s="126" t="s">
         <v>80</v>
       </c>
       <c r="C126" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D126" s="58" t="s">
+      <c r="D126" s="58"/>
+      <c r="E126" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E126" s="17"/>
-    </row>
-    <row r="127" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A127" s="58">
-        <v>331</v>
-      </c>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
+    </row>
+    <row r="127" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A127" s="58"/>
       <c r="B127" s="129" t="s">
         <v>726</v>
       </c>
       <c r="C127" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D127" s="58" t="s">
+      <c r="D127" s="58"/>
+      <c r="E127" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E127" s="58" t="s">
+      <c r="F127" s="58" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="58">
-        <v>336</v>
-      </c>
+      <c r="G127" s="58"/>
+    </row>
+    <row r="128" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="58"/>
       <c r="B128" s="136" t="s">
         <v>137</v>
       </c>
       <c r="C128" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D128" s="58" t="s">
+      <c r="D128" s="58"/>
+      <c r="E128" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E128" s="17"/>
-    </row>
-    <row r="129" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A129" s="58">
-        <v>340</v>
-      </c>
+      <c r="F128" s="17"/>
+      <c r="G128" s="17"/>
+    </row>
+    <row r="129" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A129" s="58"/>
       <c r="B129" s="84" t="s">
         <v>1101</v>
       </c>
       <c r="C129" s="58" t="s">
         <v>554</v>
       </c>
-      <c r="D129" s="58" t="s">
+      <c r="D129" s="58"/>
+      <c r="E129" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E129" s="17"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -276,7 +276,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="B66" authorId="1">
+    <comment ref="F12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+However, note that 198 is not directly divisible by 4, thus indicating that there would have been a small inbalance. Unfortunately, there is no better way to estimate the sample size given that the study was conducted decades ago. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B67" authorId="1">
       <text>
         <r>
           <rPr>
@@ -375,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5249" uniqueCount="1147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5254" uniqueCount="1151">
   <si>
     <t>ID</t>
   </si>
@@ -36307,6 +36331,18 @@
   </si>
   <si>
     <t>there was a 5-minute interval between reading and comprehension assessment</t>
+  </si>
+  <si>
+    <t>4(background: classical music, popular vocal, popular instrumental music, silence)</t>
+  </si>
+  <si>
+    <t>the number of participants is not given per sound condition; here, I assume that the group sizes were equal; I average out gender</t>
+  </si>
+  <si>
+    <t>2(background:  music vs silence) x 2(individuals: creative, non-creative)</t>
+  </si>
+  <si>
+    <t>it seems that some partcipants did the study online, while others did it in person; the actual type of music is not mentioned- I checked the songs and classified it as vocal; creativity is averaged out</t>
   </si>
 </sst>
 </file>
@@ -37312,9 +37348,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -37349,6 +37382,9 @@
     </xf>
     <xf numFmtId="0" fontId="50" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -37695,7 +37731,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -39015,8 +39051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39063,7 +39099,7 @@
       <c r="A3" s="47">
         <v>1</v>
       </c>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="145" t="s">
         <v>1066</v>
       </c>
       <c r="C3" s="47" t="s">
@@ -39080,7 +39116,7 @@
       <c r="A4" s="47">
         <v>2</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="145" t="s">
         <v>992</v>
       </c>
       <c r="C4" s="47" t="s">
@@ -39097,7 +39133,7 @@
       <c r="A5" s="47">
         <v>3</v>
       </c>
-      <c r="B5" s="152" t="s">
+      <c r="B5" s="151" t="s">
         <v>517</v>
       </c>
       <c r="C5" s="47" t="s">
@@ -39114,7 +39150,7 @@
       <c r="A6" s="47">
         <v>4</v>
       </c>
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="145" t="s">
         <v>1080</v>
       </c>
       <c r="C6" s="47" t="s">
@@ -39131,7 +39167,7 @@
       <c r="A7" s="58">
         <v>5</v>
       </c>
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="146" t="s">
         <v>908</v>
       </c>
       <c r="C7" s="47" t="s">
@@ -39154,7 +39190,7 @@
       <c r="A8" s="58">
         <v>6</v>
       </c>
-      <c r="B8" s="156" t="s">
+      <c r="B8" s="155" t="s">
         <v>917</v>
       </c>
       <c r="C8" s="47" t="s">
@@ -39177,7 +39213,7 @@
       <c r="A9" s="58">
         <v>7</v>
       </c>
-      <c r="B9" s="145" t="s">
+      <c r="B9" s="144" t="s">
         <v>918</v>
       </c>
       <c r="C9" s="47" t="s">
@@ -39200,7 +39236,7 @@
       <c r="A10" s="58">
         <v>8</v>
       </c>
-      <c r="B10" s="147" t="s">
+      <c r="B10" s="146" t="s">
         <v>1141</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -39212,18 +39248,15 @@
       <c r="E10" s="46" t="s">
         <v>1142</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="G10" s="47" t="s">
         <v>1143</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58">
         <v>9</v>
       </c>
-      <c r="B11" s="147" t="s">
+      <c r="B11" s="146" t="s">
         <v>981</v>
       </c>
       <c r="C11" s="47" t="s">
@@ -39242,43 +39275,59 @@
         <v>479</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="145" t="s">
+    <row r="12" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="58">
+        <v>10</v>
+      </c>
+      <c r="B12" s="144" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58">
+        <v>11</v>
+      </c>
+      <c r="B13" s="146" t="s">
+        <v>914</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
+      <c r="B14" s="144" t="s">
         <v>863</v>
       </c>
-      <c r="C12" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="47"/>
-    </row>
-    <row r="13" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="145" t="s">
-        <v>864</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="47"/>
-    </row>
-    <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="146" t="s">
-        <v>866</v>
-      </c>
       <c r="C14" s="47" t="s">
-        <v>554</v>
+        <v>320</v>
       </c>
       <c r="D14" s="47"/>
       <c r="E14" s="47" t="s">
@@ -39287,13 +39336,13 @@
       <c r="F14" s="43"/>
       <c r="G14" s="47"/>
     </row>
-    <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47"/>
-      <c r="B15" s="146" t="s">
-        <v>867</v>
+      <c r="B15" s="144" t="s">
+        <v>864</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D15" s="47"/>
       <c r="E15" s="47" t="s">
@@ -39302,13 +39351,13 @@
       <c r="F15" s="43"/>
       <c r="G15" s="47"/>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47"/>
       <c r="B16" s="145" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>320</v>
+        <v>554</v>
       </c>
       <c r="D16" s="47"/>
       <c r="E16" s="47" t="s">
@@ -39317,13 +39366,13 @@
       <c r="F16" s="43"/>
       <c r="G16" s="47"/>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
-      <c r="B17" s="146" t="s">
-        <v>873</v>
+      <c r="B17" s="145" t="s">
+        <v>867</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>554</v>
+        <v>282</v>
       </c>
       <c r="D17" s="47"/>
       <c r="E17" s="47" t="s">
@@ -39334,11 +39383,11 @@
     </row>
     <row r="18" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
-      <c r="B18" s="146" t="s">
-        <v>874</v>
+      <c r="B18" s="144" t="s">
+        <v>870</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>554</v>
+        <v>320</v>
       </c>
       <c r="D18" s="47"/>
       <c r="E18" s="47" t="s">
@@ -39350,10 +39399,10 @@
     <row r="19" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="145" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>320</v>
+        <v>554</v>
       </c>
       <c r="D19" s="47"/>
       <c r="E19" s="47" t="s">
@@ -39364,28 +39413,26 @@
     </row>
     <row r="20" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
-      <c r="B20" s="146" t="s">
-        <v>879</v>
+      <c r="B20" s="145" t="s">
+        <v>874</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>282</v>
+        <v>554</v>
       </c>
       <c r="D20" s="47"/>
       <c r="E20" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F20" s="61" t="s">
-        <v>824</v>
-      </c>
-      <c r="G20" s="61"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="47"/>
     </row>
     <row r="21" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
-      <c r="B21" s="145" t="s">
-        <v>794</v>
+      <c r="B21" s="144" t="s">
+        <v>877</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>798</v>
+        <v>320</v>
       </c>
       <c r="D21" s="47"/>
       <c r="E21" s="47" t="s">
@@ -39394,30 +39441,30 @@
       <c r="F21" s="43"/>
       <c r="G21" s="47"/>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="47"/>
-      <c r="B22" s="147" t="s">
-        <v>886</v>
+      <c r="B22" s="145" t="s">
+        <v>879</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="D22" s="47"/>
       <c r="E22" s="47" t="s">
         <v>479</v>
       </c>
       <c r="F22" s="61" t="s">
-        <v>486</v>
+        <v>824</v>
       </c>
       <c r="G22" s="61"/>
     </row>
-    <row r="23" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="47"/>
-      <c r="B23" s="145" t="s">
-        <v>889</v>
+      <c r="B23" s="144" t="s">
+        <v>794</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>320</v>
+        <v>798</v>
       </c>
       <c r="D23" s="47"/>
       <c r="E23" s="47" t="s">
@@ -39428,8 +39475,8 @@
     </row>
     <row r="24" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47"/>
-      <c r="B24" s="145" t="s">
-        <v>894</v>
+      <c r="B24" s="146" t="s">
+        <v>886</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>320</v>
@@ -39438,15 +39485,15 @@
       <c r="E24" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F24" s="47" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G24" s="47"/>
+      <c r="F24" s="61" t="s">
+        <v>486</v>
+      </c>
+      <c r="G24" s="61"/>
     </row>
     <row r="25" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47"/>
-      <c r="B25" s="145" t="s">
-        <v>895</v>
+      <c r="B25" s="144" t="s">
+        <v>889</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>320</v>
@@ -39460,26 +39507,28 @@
     </row>
     <row r="26" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47"/>
-      <c r="B26" s="146" t="s">
-        <v>897</v>
+      <c r="B26" s="144" t="s">
+        <v>894</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D26" s="47"/>
       <c r="E26" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F26" s="43"/>
+      <c r="F26" s="47" t="s">
+        <v>1121</v>
+      </c>
       <c r="G26" s="47"/>
     </row>
-    <row r="27" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="47"/>
-      <c r="B27" s="146" t="s">
-        <v>902</v>
+      <c r="B27" s="144" t="s">
+        <v>895</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D27" s="47"/>
       <c r="E27" s="47" t="s">
@@ -39490,8 +39539,8 @@
     </row>
     <row r="28" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
-      <c r="B28" s="146" t="s">
-        <v>903</v>
+      <c r="B28" s="145" t="s">
+        <v>897</v>
       </c>
       <c r="C28" s="47" t="s">
         <v>282</v>
@@ -39503,10 +39552,10 @@
       <c r="F28" s="43"/>
       <c r="G28" s="47"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A29" s="47"/>
-      <c r="B29" s="146" t="s">
-        <v>904</v>
+      <c r="B29" s="145" t="s">
+        <v>902</v>
       </c>
       <c r="C29" s="47" t="s">
         <v>282</v>
@@ -39518,13 +39567,13 @@
       <c r="F29" s="43"/>
       <c r="G29" s="47"/>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A30" s="47"/>
-      <c r="B30" s="146" t="s">
-        <v>906</v>
+      <c r="B30" s="145" t="s">
+        <v>903</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="D30" s="47"/>
       <c r="E30" s="47" t="s">
@@ -39533,27 +39582,25 @@
       <c r="F30" s="43"/>
       <c r="G30" s="47"/>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="47"/>
-      <c r="B31" s="147" t="s">
-        <v>724</v>
+      <c r="B31" s="145" t="s">
+        <v>904</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="D31" s="47"/>
       <c r="E31" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F31" s="53" t="s">
-        <v>1123</v>
-      </c>
-      <c r="G31" s="61"/>
-    </row>
-    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="F31" s="43"/>
+      <c r="G31" s="47"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="47"/>
       <c r="B32" s="145" t="s">
-        <v>363</v>
+        <v>906</v>
       </c>
       <c r="C32" s="47" t="s">
         <v>320</v>
@@ -39567,85 +39614,87 @@
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="47"/>
-      <c r="B33" s="148" t="s">
-        <v>90</v>
+      <c r="B33" s="146" t="s">
+        <v>724</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D33" s="47"/>
       <c r="E33" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F33" s="43"/>
-      <c r="G33" s="47"/>
+      <c r="F33" s="53" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G33" s="61"/>
     </row>
     <row r="34" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="121"/>
-      <c r="B34" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="121" t="s">
-        <v>282</v>
-      </c>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="122" t="s">
-        <v>835</v>
-      </c>
-      <c r="G34" s="157"/>
-    </row>
-    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="47"/>
+      <c r="B34" s="144" t="s">
+        <v>363</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F34" s="43"/>
+      <c r="G34" s="47"/>
+    </row>
+    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="47"/>
-      <c r="B35" s="149" t="s">
-        <v>721</v>
+      <c r="B35" s="147" t="s">
+        <v>90</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="D35" s="47"/>
       <c r="E35" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F35" s="53" t="s">
-        <v>1125</v>
-      </c>
-      <c r="G35" s="61"/>
-    </row>
-    <row r="36" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="145" t="s">
-        <v>914</v>
-      </c>
-      <c r="C36" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F36" s="43"/>
-      <c r="G36" s="47"/>
-    </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F35" s="43"/>
+      <c r="G35" s="47"/>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="121"/>
+      <c r="B36" s="143" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="121" t="s">
+        <v>282</v>
+      </c>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="122" t="s">
+        <v>835</v>
+      </c>
+      <c r="G36" s="156"/>
+    </row>
+    <row r="37" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A37" s="47"/>
-      <c r="B37" s="146" t="s">
-        <v>762</v>
+      <c r="B37" s="148" t="s">
+        <v>721</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D37" s="47"/>
       <c r="E37" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F37" s="43"/>
-      <c r="G37" s="47"/>
-    </row>
-    <row r="38" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="53" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G37" s="61"/>
+    </row>
+    <row r="38" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="47"/>
-      <c r="B38" s="150" t="s">
-        <v>82</v>
+      <c r="B38" s="145" t="s">
+        <v>762</v>
       </c>
       <c r="C38" s="47" t="s">
         <v>282</v>
@@ -39657,10 +39706,10 @@
       <c r="F38" s="43"/>
       <c r="G38" s="47"/>
     </row>
-    <row r="39" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="47"/>
-      <c r="B39" s="145" t="s">
-        <v>81</v>
+      <c r="B39" s="149" t="s">
+        <v>82</v>
       </c>
       <c r="C39" s="47" t="s">
         <v>282</v>
@@ -39674,11 +39723,11 @@
     </row>
     <row r="40" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="47"/>
-      <c r="B40" s="151" t="s">
-        <v>919</v>
+      <c r="B40" s="144" t="s">
+        <v>81</v>
       </c>
       <c r="C40" s="47" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="D40" s="47"/>
       <c r="E40" s="47" t="s">
@@ -39687,10 +39736,10 @@
       <c r="F40" s="43"/>
       <c r="G40" s="47"/>
     </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A41" s="47"/>
-      <c r="B41" s="146" t="s">
-        <v>921</v>
+      <c r="B41" s="150" t="s">
+        <v>919</v>
       </c>
       <c r="C41" s="47" t="s">
         <v>320</v>
@@ -39702,10 +39751,10 @@
       <c r="F41" s="43"/>
       <c r="G41" s="47"/>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A42" s="47"/>
-      <c r="B42" s="146" t="s">
-        <v>518</v>
+      <c r="B42" s="145" t="s">
+        <v>921</v>
       </c>
       <c r="C42" s="47" t="s">
         <v>320</v>
@@ -39720,7 +39769,7 @@
     <row r="43" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47"/>
       <c r="B43" s="145" t="s">
-        <v>923</v>
+        <v>518</v>
       </c>
       <c r="C43" s="47" t="s">
         <v>320</v>
@@ -39734,8 +39783,8 @@
     </row>
     <row r="44" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47"/>
-      <c r="B44" s="145" t="s">
-        <v>924</v>
+      <c r="B44" s="144" t="s">
+        <v>923</v>
       </c>
       <c r="C44" s="47" t="s">
         <v>320</v>
@@ -39749,8 +39798,8 @@
     </row>
     <row r="45" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="47"/>
-      <c r="B45" s="145" t="s">
-        <v>925</v>
+      <c r="B45" s="144" t="s">
+        <v>924</v>
       </c>
       <c r="C45" s="47" t="s">
         <v>320</v>
@@ -39764,8 +39813,8 @@
     </row>
     <row r="46" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="47"/>
-      <c r="B46" s="145" t="s">
-        <v>926</v>
+      <c r="B46" s="144" t="s">
+        <v>925</v>
       </c>
       <c r="C46" s="47" t="s">
         <v>320</v>
@@ -39777,13 +39826,13 @@
       <c r="F46" s="43"/>
       <c r="G46" s="47"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A47" s="47"/>
-      <c r="B47" s="146" t="s">
-        <v>927</v>
+      <c r="B47" s="144" t="s">
+        <v>926</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D47" s="47"/>
       <c r="E47" s="47" t="s">
@@ -39792,13 +39841,13 @@
       <c r="F47" s="43"/>
       <c r="G47" s="47"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="47"/>
       <c r="B48" s="145" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="D48" s="47"/>
       <c r="E48" s="47" t="s">
@@ -39809,11 +39858,11 @@
     </row>
     <row r="49" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47"/>
-      <c r="B49" s="153" t="s">
-        <v>931</v>
+      <c r="B49" s="144" t="s">
+        <v>928</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D49" s="47"/>
       <c r="E49" s="47" t="s">
@@ -39824,11 +39873,11 @@
     </row>
     <row r="50" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="47"/>
-      <c r="B50" s="145" t="s">
-        <v>703</v>
+      <c r="B50" s="152" t="s">
+        <v>931</v>
       </c>
       <c r="C50" s="47" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="D50" s="47"/>
       <c r="E50" s="47" t="s">
@@ -39839,11 +39888,11 @@
     </row>
     <row r="51" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="47"/>
-      <c r="B51" s="146" t="s">
-        <v>935</v>
+      <c r="B51" s="144" t="s">
+        <v>703</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D51" s="47"/>
       <c r="E51" s="47" t="s">
@@ -39855,10 +39904,10 @@
     <row r="52" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="47"/>
       <c r="B52" s="145" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C52" s="47" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="D52" s="47"/>
       <c r="E52" s="47" t="s">
@@ -39869,11 +39918,11 @@
     </row>
     <row r="53" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A53" s="47"/>
-      <c r="B53" s="146" t="s">
-        <v>937</v>
+      <c r="B53" s="144" t="s">
+        <v>936</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>554</v>
+        <v>320</v>
       </c>
       <c r="D53" s="47"/>
       <c r="E53" s="47" t="s">
@@ -39884,8 +39933,8 @@
     </row>
     <row r="54" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A54" s="47"/>
-      <c r="B54" s="146" t="s">
-        <v>938</v>
+      <c r="B54" s="145" t="s">
+        <v>937</v>
       </c>
       <c r="C54" s="47" t="s">
         <v>554</v>
@@ -39899,8 +39948,8 @@
     </row>
     <row r="55" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A55" s="47"/>
-      <c r="B55" s="146" t="s">
-        <v>939</v>
+      <c r="B55" s="145" t="s">
+        <v>938</v>
       </c>
       <c r="C55" s="47" t="s">
         <v>554</v>
@@ -39914,11 +39963,11 @@
     </row>
     <row r="56" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A56" s="47"/>
-      <c r="B56" s="150" t="s">
-        <v>940</v>
+      <c r="B56" s="145" t="s">
+        <v>939</v>
       </c>
       <c r="C56" s="47" t="s">
-        <v>282</v>
+        <v>554</v>
       </c>
       <c r="D56" s="47"/>
       <c r="E56" s="47" t="s">
@@ -39927,10 +39976,10 @@
       <c r="F56" s="43"/>
       <c r="G56" s="47"/>
     </row>
-    <row r="57" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A57" s="47"/>
-      <c r="B57" s="146" t="s">
-        <v>941</v>
+      <c r="B57" s="149" t="s">
+        <v>940</v>
       </c>
       <c r="C57" s="47" t="s">
         <v>282</v>
@@ -39944,8 +39993,8 @@
     </row>
     <row r="58" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A58" s="47"/>
-      <c r="B58" s="150" t="s">
-        <v>942</v>
+      <c r="B58" s="145" t="s">
+        <v>941</v>
       </c>
       <c r="C58" s="47" t="s">
         <v>282</v>
@@ -39959,8 +40008,8 @@
     </row>
     <row r="59" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A59" s="47"/>
-      <c r="B59" s="150" t="s">
-        <v>943</v>
+      <c r="B59" s="149" t="s">
+        <v>942</v>
       </c>
       <c r="C59" s="47" t="s">
         <v>282</v>
@@ -39972,10 +40021,10 @@
       <c r="F59" s="43"/>
       <c r="G59" s="47"/>
     </row>
-    <row r="60" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A60" s="47"/>
-      <c r="B60" s="146" t="s">
-        <v>944</v>
+      <c r="B60" s="149" t="s">
+        <v>943</v>
       </c>
       <c r="C60" s="47" t="s">
         <v>282</v>
@@ -39989,11 +40038,11 @@
     </row>
     <row r="61" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="47"/>
-      <c r="B61" s="146" t="s">
-        <v>945</v>
+      <c r="B61" s="145" t="s">
+        <v>944</v>
       </c>
       <c r="C61" s="47" t="s">
-        <v>554</v>
+        <v>282</v>
       </c>
       <c r="D61" s="47"/>
       <c r="E61" s="47" t="s">
@@ -40002,10 +40051,10 @@
       <c r="F61" s="43"/>
       <c r="G61" s="47"/>
     </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A62" s="47"/>
-      <c r="B62" s="146" t="s">
-        <v>946</v>
+      <c r="B62" s="145" t="s">
+        <v>945</v>
       </c>
       <c r="C62" s="47" t="s">
         <v>554</v>
@@ -40020,10 +40069,10 @@
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="47"/>
       <c r="B63" s="145" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C63" s="47" t="s">
-        <v>320</v>
+        <v>554</v>
       </c>
       <c r="D63" s="47"/>
       <c r="E63" s="47" t="s">
@@ -40032,10 +40081,10 @@
       <c r="F63" s="43"/>
       <c r="G63" s="47"/>
     </row>
-    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="47"/>
-      <c r="B64" s="145" t="s">
-        <v>950</v>
+      <c r="B64" s="144" t="s">
+        <v>947</v>
       </c>
       <c r="C64" s="47" t="s">
         <v>320</v>
@@ -40044,15 +40093,13 @@
       <c r="E64" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F64" s="61" t="s">
-        <v>497</v>
-      </c>
-      <c r="G64" s="61"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="47"/>
     </row>
     <row r="65" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="47"/>
-      <c r="B65" s="145" t="s">
-        <v>952</v>
+      <c r="B65" s="144" t="s">
+        <v>950</v>
       </c>
       <c r="C65" s="47" t="s">
         <v>320</v>
@@ -40061,16 +40108,18 @@
       <c r="E65" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F65" s="43"/>
-      <c r="G65" s="47"/>
-    </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F65" s="61" t="s">
+        <v>497</v>
+      </c>
+      <c r="G65" s="61"/>
+    </row>
+    <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="47"/>
-      <c r="B66" s="147" t="s">
-        <v>737</v>
+      <c r="B66" s="144" t="s">
+        <v>952</v>
       </c>
       <c r="C66" s="47" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D66" s="47"/>
       <c r="E66" s="47" t="s">
@@ -40079,10 +40128,10 @@
       <c r="F66" s="43"/>
       <c r="G66" s="47"/>
     </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A67" s="47"/>
       <c r="B67" s="146" t="s">
-        <v>959</v>
+        <v>737</v>
       </c>
       <c r="C67" s="47" t="s">
         <v>282</v>
@@ -40097,7 +40146,7 @@
     <row r="68" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="47"/>
       <c r="B68" s="145" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C68" s="47" t="s">
         <v>282</v>
@@ -40111,11 +40160,11 @@
     </row>
     <row r="69" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="47"/>
-      <c r="B69" s="145" t="s">
-        <v>745</v>
+      <c r="B69" s="144" t="s">
+        <v>960</v>
       </c>
       <c r="C69" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D69" s="47"/>
       <c r="E69" s="47" t="s">
@@ -40126,11 +40175,11 @@
     </row>
     <row r="70" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A70" s="47"/>
-      <c r="B70" s="146" t="s">
-        <v>962</v>
+      <c r="B70" s="144" t="s">
+        <v>745</v>
       </c>
       <c r="C70" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D70" s="47"/>
       <c r="E70" s="47" t="s">
@@ -40141,8 +40190,8 @@
     </row>
     <row r="71" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A71" s="47"/>
-      <c r="B71" s="146" t="s">
-        <v>549</v>
+      <c r="B71" s="145" t="s">
+        <v>962</v>
       </c>
       <c r="C71" s="47" t="s">
         <v>554</v>
@@ -40151,30 +40200,30 @@
       <c r="E71" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F71" s="43" t="s">
-        <v>839</v>
-      </c>
+      <c r="F71" s="43"/>
       <c r="G71" s="47"/>
     </row>
-    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A72" s="47"/>
-      <c r="B72" s="146" t="s">
-        <v>966</v>
+      <c r="B72" s="145" t="s">
+        <v>549</v>
       </c>
       <c r="C72" s="47" t="s">
-        <v>282</v>
+        <v>554</v>
       </c>
       <c r="D72" s="47"/>
       <c r="E72" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F72" s="43"/>
+      <c r="F72" s="43" t="s">
+        <v>839</v>
+      </c>
       <c r="G72" s="47"/>
     </row>
     <row r="73" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A73" s="47"/>
-      <c r="B73" s="146" t="s">
-        <v>968</v>
+      <c r="B73" s="145" t="s">
+        <v>966</v>
       </c>
       <c r="C73" s="47" t="s">
         <v>282</v>
@@ -40189,10 +40238,10 @@
     <row r="74" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="47"/>
       <c r="B74" s="145" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C74" s="47" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="D74" s="47"/>
       <c r="E74" s="47" t="s">
@@ -40203,11 +40252,11 @@
     </row>
     <row r="75" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A75" s="47"/>
-      <c r="B75" s="146" t="s">
-        <v>970</v>
+      <c r="B75" s="144" t="s">
+        <v>969</v>
       </c>
       <c r="C75" s="47" t="s">
-        <v>554</v>
+        <v>320</v>
       </c>
       <c r="D75" s="47"/>
       <c r="E75" s="47" t="s">
@@ -40219,10 +40268,10 @@
     <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="47"/>
       <c r="B76" s="145" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C76" s="47" t="s">
-        <v>320</v>
+        <v>554</v>
       </c>
       <c r="D76" s="47"/>
       <c r="E76" s="47" t="s">
@@ -40231,10 +40280,10 @@
       <c r="F76" s="43"/>
       <c r="G76" s="47"/>
     </row>
-    <row r="77" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A77" s="47"/>
-      <c r="B77" s="146" t="s">
-        <v>975</v>
+      <c r="B77" s="144" t="s">
+        <v>971</v>
       </c>
       <c r="C77" s="47" t="s">
         <v>320</v>
@@ -40249,7 +40298,7 @@
     <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="47"/>
       <c r="B78" s="145" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C78" s="47" t="s">
         <v>320</v>
@@ -40263,8 +40312,8 @@
     </row>
     <row r="79" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="47"/>
-      <c r="B79" s="146" t="s">
-        <v>980</v>
+      <c r="B79" s="144" t="s">
+        <v>978</v>
       </c>
       <c r="C79" s="47" t="s">
         <v>320</v>
@@ -40278,11 +40327,11 @@
     </row>
     <row r="80" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="47"/>
-      <c r="B80" s="146" t="s">
-        <v>984</v>
+      <c r="B80" s="145" t="s">
+        <v>980</v>
       </c>
       <c r="C80" s="47" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D80" s="47"/>
       <c r="E80" s="47" t="s">
@@ -40293,8 +40342,8 @@
     </row>
     <row r="81" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="47"/>
-      <c r="B81" s="146" t="s">
-        <v>985</v>
+      <c r="B81" s="145" t="s">
+        <v>984</v>
       </c>
       <c r="C81" s="47" t="s">
         <v>282</v>
@@ -40306,13 +40355,13 @@
       <c r="F81" s="43"/>
       <c r="G81" s="47"/>
     </row>
-    <row r="82" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="47"/>
       <c r="B82" s="145" t="s">
-        <v>747</v>
+        <v>985</v>
       </c>
       <c r="C82" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D82" s="47"/>
       <c r="E82" s="47" t="s">
@@ -40321,13 +40370,13 @@
       <c r="F82" s="43"/>
       <c r="G82" s="47"/>
     </row>
-    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A83" s="47"/>
-      <c r="B83" s="146" t="s">
-        <v>988</v>
+      <c r="B83" s="144" t="s">
+        <v>747</v>
       </c>
       <c r="C83" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D83" s="47"/>
       <c r="E83" s="47" t="s">
@@ -40336,45 +40385,45 @@
       <c r="F83" s="43"/>
       <c r="G83" s="47"/>
     </row>
-    <row r="84" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="47"/>
       <c r="B84" s="145" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C84" s="47" t="s">
-        <v>320</v>
+        <v>554</v>
       </c>
       <c r="D84" s="47"/>
       <c r="E84" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F84" s="47" t="s">
-        <v>861</v>
-      </c>
+      <c r="F84" s="43"/>
       <c r="G84" s="47"/>
     </row>
     <row r="85" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A85" s="47"/>
-      <c r="B85" s="146" t="s">
-        <v>769</v>
+      <c r="B85" s="144" t="s">
+        <v>990</v>
       </c>
       <c r="C85" s="47" t="s">
-        <v>798</v>
+        <v>320</v>
       </c>
       <c r="D85" s="47"/>
       <c r="E85" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F85" s="43"/>
+      <c r="F85" s="47" t="s">
+        <v>861</v>
+      </c>
       <c r="G85" s="47"/>
     </row>
     <row r="86" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="47"/>
-      <c r="B86" s="146" t="s">
-        <v>994</v>
+      <c r="B86" s="145" t="s">
+        <v>769</v>
       </c>
       <c r="C86" s="47" t="s">
-        <v>282</v>
+        <v>798</v>
       </c>
       <c r="D86" s="47"/>
       <c r="E86" s="47" t="s">
@@ -40385,8 +40434,8 @@
     </row>
     <row r="87" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="47"/>
-      <c r="B87" s="150" t="s">
-        <v>139</v>
+      <c r="B87" s="145" t="s">
+        <v>994</v>
       </c>
       <c r="C87" s="47" t="s">
         <v>282</v>
@@ -40400,11 +40449,11 @@
     </row>
     <row r="88" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A88" s="47"/>
-      <c r="B88" s="146" t="s">
-        <v>1004</v>
+      <c r="B88" s="149" t="s">
+        <v>139</v>
       </c>
       <c r="C88" s="47" t="s">
-        <v>554</v>
+        <v>282</v>
       </c>
       <c r="D88" s="47"/>
       <c r="E88" s="47" t="s">
@@ -40415,11 +40464,11 @@
     </row>
     <row r="89" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A89" s="47"/>
-      <c r="B89" s="150" t="s">
-        <v>1005</v>
+      <c r="B89" s="145" t="s">
+        <v>1004</v>
       </c>
       <c r="C89" s="47" t="s">
-        <v>282</v>
+        <v>554</v>
       </c>
       <c r="D89" s="47"/>
       <c r="E89" s="47" t="s">
@@ -40428,10 +40477,10 @@
       <c r="F89" s="43"/>
       <c r="G89" s="47"/>
     </row>
-    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A90" s="47"/>
-      <c r="B90" s="150" t="s">
-        <v>88</v>
+      <c r="B90" s="149" t="s">
+        <v>1005</v>
       </c>
       <c r="C90" s="47" t="s">
         <v>282</v>
@@ -40443,13 +40492,13 @@
       <c r="F90" s="43"/>
       <c r="G90" s="47"/>
     </row>
-    <row r="91" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="47"/>
-      <c r="B91" s="145" t="s">
-        <v>1011</v>
+      <c r="B91" s="149" t="s">
+        <v>88</v>
       </c>
       <c r="C91" s="47" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="D91" s="47"/>
       <c r="E91" s="47" t="s">
@@ -40458,9 +40507,9 @@
       <c r="F91" s="43"/>
       <c r="G91" s="47"/>
     </row>
-    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A92" s="47"/>
-      <c r="B92" s="146" t="s">
+      <c r="B92" s="145" t="s">
         <v>1012</v>
       </c>
       <c r="C92" s="47" t="s">
@@ -40475,7 +40524,7 @@
     </row>
     <row r="93" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A93" s="47"/>
-      <c r="B93" s="146" t="s">
+      <c r="B93" s="145" t="s">
         <v>1014</v>
       </c>
       <c r="C93" s="47" t="s">
@@ -40490,7 +40539,7 @@
     </row>
     <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="47"/>
-      <c r="B94" s="145" t="s">
+      <c r="B94" s="144" t="s">
         <v>1017</v>
       </c>
       <c r="C94" s="47" t="s">
@@ -40505,7 +40554,7 @@
     </row>
     <row r="95" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="47"/>
-      <c r="B95" s="146" t="s">
+      <c r="B95" s="145" t="s">
         <v>1020</v>
       </c>
       <c r="C95" s="47" t="s">
@@ -40520,7 +40569,7 @@
     </row>
     <row r="96" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A96" s="47"/>
-      <c r="B96" s="146" t="s">
+      <c r="B96" s="145" t="s">
         <v>767</v>
       </c>
       <c r="C96" s="47" t="s">
@@ -40535,7 +40584,7 @@
     </row>
     <row r="97" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="47"/>
-      <c r="B97" s="150" t="s">
+      <c r="B97" s="149" t="s">
         <v>1025</v>
       </c>
       <c r="C97" s="47" t="s">
@@ -40550,7 +40599,7 @@
     </row>
     <row r="98" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="47"/>
-      <c r="B98" s="145" t="s">
+      <c r="B98" s="144" t="s">
         <v>1026</v>
       </c>
       <c r="C98" s="47" t="s">
@@ -40565,7 +40614,7 @@
     </row>
     <row r="99" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
-      <c r="B99" s="145" t="s">
+      <c r="B99" s="144" t="s">
         <v>1030</v>
       </c>
       <c r="C99" s="47" t="s">
@@ -40580,7 +40629,7 @@
     </row>
     <row r="100" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="47"/>
-      <c r="B100" s="145" t="s">
+      <c r="B100" s="144" t="s">
         <v>1033</v>
       </c>
       <c r="C100" s="47" t="s">
@@ -40595,7 +40644,7 @@
     </row>
     <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="47"/>
-      <c r="B101" s="145" t="s">
+      <c r="B101" s="144" t="s">
         <v>1034</v>
       </c>
       <c r="C101" s="47" t="s">
@@ -40610,7 +40659,7 @@
     </row>
     <row r="102" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="47"/>
-      <c r="B102" s="147" t="s">
+      <c r="B102" s="146" t="s">
         <v>328</v>
       </c>
       <c r="C102" s="47" t="s">
@@ -40627,7 +40676,7 @@
     </row>
     <row r="103" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="47"/>
-      <c r="B103" s="145" t="s">
+      <c r="B103" s="144" t="s">
         <v>1039</v>
       </c>
       <c r="C103" s="47" t="s">
@@ -40642,7 +40691,7 @@
     </row>
     <row r="104" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="47"/>
-      <c r="B104" s="145" t="s">
+      <c r="B104" s="144" t="s">
         <v>58</v>
       </c>
       <c r="C104" s="47" t="s">
@@ -40657,7 +40706,7 @@
     </row>
     <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="47"/>
-      <c r="B105" s="145" t="s">
+      <c r="B105" s="144" t="s">
         <v>96</v>
       </c>
       <c r="C105" s="47" t="s">
@@ -40670,9 +40719,9 @@
       <c r="F105" s="43"/>
       <c r="G105" s="47"/>
     </row>
-    <row r="106" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="47"/>
-      <c r="B106" s="146" t="s">
+      <c r="B106" s="145" t="s">
         <v>1057</v>
       </c>
       <c r="C106" s="47" t="s">
@@ -40687,7 +40736,7 @@
     </row>
     <row r="107" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="47"/>
-      <c r="B107" s="145" t="s">
+      <c r="B107" s="144" t="s">
         <v>775</v>
       </c>
       <c r="C107" s="47" t="s">
@@ -40715,7 +40764,7 @@
     </row>
     <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="47"/>
-      <c r="B109" s="145" t="s">
+      <c r="B109" s="144" t="s">
         <v>783</v>
       </c>
       <c r="C109" s="47" t="s">
@@ -40730,7 +40779,7 @@
     </row>
     <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="47"/>
-      <c r="B110" s="145" t="s">
+      <c r="B110" s="144" t="s">
         <v>69</v>
       </c>
       <c r="C110" s="47" t="s">
@@ -40745,7 +40794,7 @@
     </row>
     <row r="111" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A111" s="47"/>
-      <c r="B111" s="150" t="s">
+      <c r="B111" s="149" t="s">
         <v>1058</v>
       </c>
       <c r="C111" s="47" t="s">
@@ -40760,7 +40809,7 @@
     </row>
     <row r="112" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="47"/>
-      <c r="B112" s="154" t="s">
+      <c r="B112" s="153" t="s">
         <v>781</v>
       </c>
       <c r="C112" s="47" t="s">
@@ -40775,7 +40824,7 @@
     </row>
     <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="47"/>
-      <c r="B113" s="145" t="s">
+      <c r="B113" s="144" t="s">
         <v>753</v>
       </c>
       <c r="C113" s="47" t="s">
@@ -40790,7 +40839,7 @@
     </row>
     <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="47"/>
-      <c r="B114" s="145" t="s">
+      <c r="B114" s="144" t="s">
         <v>59</v>
       </c>
       <c r="C114" s="47" t="s">
@@ -40805,7 +40854,7 @@
     </row>
     <row r="115" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="47"/>
-      <c r="B115" s="145" t="s">
+      <c r="B115" s="144" t="s">
         <v>754</v>
       </c>
       <c r="C115" s="47" t="s">
@@ -40820,7 +40869,7 @@
     </row>
     <row r="116" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A116" s="47"/>
-      <c r="B116" s="146" t="s">
+      <c r="B116" s="145" t="s">
         <v>768</v>
       </c>
       <c r="C116" s="47" t="s">
@@ -40837,7 +40886,7 @@
     </row>
     <row r="117" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="47"/>
-      <c r="B117" s="146" t="s">
+      <c r="B117" s="145" t="s">
         <v>1065</v>
       </c>
       <c r="C117" s="47" t="s">
@@ -40852,7 +40901,7 @@
     </row>
     <row r="118" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="47"/>
-      <c r="B118" s="150" t="s">
+      <c r="B118" s="149" t="s">
         <v>1071</v>
       </c>
       <c r="C118" s="47" t="s">
@@ -40867,7 +40916,7 @@
     </row>
     <row r="119" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A119" s="47"/>
-      <c r="B119" s="146" t="s">
+      <c r="B119" s="145" t="s">
         <v>1072</v>
       </c>
       <c r="C119" s="47" t="s">
@@ -40882,7 +40931,7 @@
     </row>
     <row r="120" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="47"/>
-      <c r="B120" s="145" t="s">
+      <c r="B120" s="144" t="s">
         <v>1077</v>
       </c>
       <c r="C120" s="47" t="s">
@@ -40897,7 +40946,7 @@
     </row>
     <row r="121" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="47"/>
-      <c r="B121" s="146" t="s">
+      <c r="B121" s="145" t="s">
         <v>188</v>
       </c>
       <c r="C121" s="47" t="s">
@@ -40914,7 +40963,7 @@
     </row>
     <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="47"/>
-      <c r="B122" s="145" t="s">
+      <c r="B122" s="144" t="s">
         <v>95</v>
       </c>
       <c r="C122" s="47" t="s">
@@ -40929,7 +40978,7 @@
     </row>
     <row r="123" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
-      <c r="B123" s="146" t="s">
+      <c r="B123" s="145" t="s">
         <v>1087</v>
       </c>
       <c r="C123" s="47" t="s">
@@ -40944,7 +40993,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="47"/>
-      <c r="B124" s="153" t="s">
+      <c r="B124" s="152" t="s">
         <v>1090</v>
       </c>
       <c r="C124" s="47" t="s">
@@ -40959,7 +41008,7 @@
     </row>
     <row r="125" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A125" s="47"/>
-      <c r="B125" s="146" t="s">
+      <c r="B125" s="145" t="s">
         <v>1091</v>
       </c>
       <c r="C125" s="47" t="s">
@@ -40974,7 +41023,7 @@
     </row>
     <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="47"/>
-      <c r="B126" s="145" t="s">
+      <c r="B126" s="144" t="s">
         <v>80</v>
       </c>
       <c r="C126" s="47" t="s">
@@ -40989,7 +41038,7 @@
     </row>
     <row r="127" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="47"/>
-      <c r="B127" s="147" t="s">
+      <c r="B127" s="146" t="s">
         <v>726</v>
       </c>
       <c r="C127" s="47" t="s">
@@ -41006,7 +41055,7 @@
     </row>
     <row r="128" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="47"/>
-      <c r="B128" s="155" t="s">
+      <c r="B128" s="154" t="s">
         <v>137</v>
       </c>
       <c r="C128" s="47" t="s">
@@ -41021,7 +41070,7 @@
     </row>
     <row r="129" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A129" s="47"/>
-      <c r="B129" s="146" t="s">
+      <c r="B129" s="145" t="s">
         <v>1101</v>
       </c>
       <c r="C129" s="47" t="s">
@@ -51515,14 +51564,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="144"/>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
+      <c r="A1" s="157"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5254" uniqueCount="1151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5257" uniqueCount="1153">
   <si>
     <t>ID</t>
   </si>
@@ -36343,6 +36343,12 @@
   </si>
   <si>
     <t>it seems that some partcipants did the study online, while others did it in person; the actual type of music is not mentioned- I checked the songs and classified it as vocal; creativity is averaged out</t>
+  </si>
+  <si>
+    <t>2(background:  music vs silence)</t>
+  </si>
+  <si>
+    <t>classified sample as children even though they were 16-17</t>
   </si>
 </sst>
 </file>
@@ -37731,7 +37737,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -39051,8 +39057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39321,25 +39327,33 @@
         <v>479</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="58">
+        <v>12</v>
+      </c>
       <c r="B14" s="144" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C14" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47" t="s">
+      <c r="D14" s="61" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="47"/>
     </row>
     <row r="15" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="47">
+        <v>13</v>
+      </c>
       <c r="B15" s="144" t="s">
-        <v>864</v>
+        <v>926</v>
       </c>
       <c r="C15" s="47" t="s">
         <v>320</v>
@@ -39348,16 +39362,18 @@
       <c r="E15" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F15" s="43"/>
+      <c r="F15" s="61" t="s">
+        <v>1152</v>
+      </c>
       <c r="G15" s="47"/>
     </row>
     <row r="16" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47"/>
-      <c r="B16" s="145" t="s">
-        <v>866</v>
+      <c r="B16" s="144" t="s">
+        <v>863</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>554</v>
+        <v>320</v>
       </c>
       <c r="D16" s="47"/>
       <c r="E16" s="47" t="s">
@@ -39369,10 +39385,10 @@
     <row r="17" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="145" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>282</v>
+        <v>554</v>
       </c>
       <c r="D17" s="47"/>
       <c r="E17" s="47" t="s">
@@ -39383,11 +39399,11 @@
     </row>
     <row r="18" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
-      <c r="B18" s="144" t="s">
-        <v>870</v>
+      <c r="B18" s="145" t="s">
+        <v>867</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="D18" s="47"/>
       <c r="E18" s="47" t="s">
@@ -39398,11 +39414,11 @@
     </row>
     <row r="19" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
-      <c r="B19" s="145" t="s">
-        <v>873</v>
+      <c r="B19" s="144" t="s">
+        <v>870</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>554</v>
+        <v>320</v>
       </c>
       <c r="D19" s="47"/>
       <c r="E19" s="47" t="s">
@@ -39414,7 +39430,7 @@
     <row r="20" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="145" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C20" s="47" t="s">
         <v>554</v>
@@ -39428,11 +39444,11 @@
     </row>
     <row r="21" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
-      <c r="B21" s="144" t="s">
-        <v>877</v>
+      <c r="B21" s="145" t="s">
+        <v>874</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>320</v>
+        <v>554</v>
       </c>
       <c r="D21" s="47"/>
       <c r="E21" s="47" t="s">
@@ -39441,59 +39457,57 @@
       <c r="F21" s="43"/>
       <c r="G21" s="47"/>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="47"/>
-      <c r="B22" s="145" t="s">
-        <v>879</v>
+      <c r="B22" s="144" t="s">
+        <v>877</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D22" s="47"/>
       <c r="E22" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F22" s="61" t="s">
-        <v>824</v>
-      </c>
-      <c r="G22" s="61"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="47"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="47"/>
-      <c r="B23" s="144" t="s">
-        <v>794</v>
+      <c r="B23" s="145" t="s">
+        <v>879</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D23" s="47"/>
       <c r="E23" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F23" s="43"/>
-      <c r="G23" s="47"/>
+      <c r="F23" s="61" t="s">
+        <v>824</v>
+      </c>
+      <c r="G23" s="61"/>
     </row>
     <row r="24" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47"/>
-      <c r="B24" s="146" t="s">
-        <v>886</v>
+      <c r="B24" s="144" t="s">
+        <v>794</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>320</v>
+        <v>798</v>
       </c>
       <c r="D24" s="47"/>
       <c r="E24" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F24" s="61" t="s">
-        <v>486</v>
-      </c>
-      <c r="G24" s="61"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="47"/>
     </row>
     <row r="25" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47"/>
-      <c r="B25" s="144" t="s">
-        <v>889</v>
+      <c r="B25" s="146" t="s">
+        <v>886</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>320</v>
@@ -39502,13 +39516,15 @@
       <c r="E25" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="47"/>
+      <c r="F25" s="61" t="s">
+        <v>486</v>
+      </c>
+      <c r="G25" s="61"/>
     </row>
     <row r="26" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47"/>
       <c r="B26" s="144" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="C26" s="47" t="s">
         <v>320</v>
@@ -39517,15 +39533,13 @@
       <c r="E26" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F26" s="47" t="s">
-        <v>1121</v>
-      </c>
+      <c r="F26" s="43"/>
       <c r="G26" s="47"/>
     </row>
-    <row r="27" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="47"/>
       <c r="B27" s="144" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C27" s="47" t="s">
         <v>320</v>
@@ -39534,16 +39548,18 @@
       <c r="E27" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F27" s="43"/>
+      <c r="F27" s="47" t="s">
+        <v>1121</v>
+      </c>
       <c r="G27" s="47"/>
     </row>
-    <row r="28" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
-      <c r="B28" s="145" t="s">
-        <v>897</v>
+      <c r="B28" s="144" t="s">
+        <v>895</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D28" s="47"/>
       <c r="E28" s="47" t="s">
@@ -39552,10 +39568,10 @@
       <c r="F28" s="43"/>
       <c r="G28" s="47"/>
     </row>
-    <row r="29" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A29" s="47"/>
       <c r="B29" s="145" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="C29" s="47" t="s">
         <v>282</v>
@@ -39570,7 +39586,7 @@
     <row r="30" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A30" s="47"/>
       <c r="B30" s="145" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C30" s="47" t="s">
         <v>282</v>
@@ -39582,10 +39598,10 @@
       <c r="F30" s="43"/>
       <c r="G30" s="47"/>
     </row>
-    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A31" s="47"/>
       <c r="B31" s="145" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C31" s="47" t="s">
         <v>282</v>
@@ -39597,13 +39613,13 @@
       <c r="F31" s="43"/>
       <c r="G31" s="47"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A32" s="47"/>
       <c r="B32" s="145" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="D32" s="47"/>
       <c r="E32" s="47" t="s">
@@ -39612,10 +39628,10 @@
       <c r="F32" s="43"/>
       <c r="G32" s="47"/>
     </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="47"/>
-      <c r="B33" s="146" t="s">
-        <v>724</v>
+      <c r="B33" s="145" t="s">
+        <v>906</v>
       </c>
       <c r="C33" s="47" t="s">
         <v>320</v>
@@ -39624,15 +39640,13 @@
       <c r="E33" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F33" s="53" t="s">
-        <v>1123</v>
-      </c>
-      <c r="G33" s="61"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="47"/>
     </row>
     <row r="34" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="47"/>
-      <c r="B34" s="144" t="s">
-        <v>363</v>
+      <c r="B34" s="146" t="s">
+        <v>724</v>
       </c>
       <c r="C34" s="47" t="s">
         <v>320</v>
@@ -39641,16 +39655,18 @@
       <c r="E34" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F34" s="43"/>
-      <c r="G34" s="47"/>
-    </row>
-    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="F34" s="53" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G34" s="61"/>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="47"/>
-      <c r="B35" s="147" t="s">
-        <v>90</v>
+      <c r="B35" s="144" t="s">
+        <v>363</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D35" s="47"/>
       <c r="E35" s="47" t="s">
@@ -39660,56 +39676,56 @@
       <c r="G35" s="47"/>
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="121"/>
-      <c r="B36" s="143" t="s">
+      <c r="A36" s="47"/>
+      <c r="B36" s="147" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F36" s="43"/>
+      <c r="G36" s="47"/>
+    </row>
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="121"/>
+      <c r="B37" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="121" t="s">
-        <v>282</v>
-      </c>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="122" t="s">
+      <c r="C37" s="121" t="s">
+        <v>282</v>
+      </c>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="122" t="s">
         <v>835</v>
       </c>
-      <c r="G36" s="156"/>
-    </row>
-    <row r="37" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="148" t="s">
-        <v>721</v>
-      </c>
-      <c r="C37" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F37" s="53" t="s">
-        <v>1125</v>
-      </c>
-      <c r="G37" s="61"/>
+      <c r="G37" s="156"/>
     </row>
     <row r="38" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="47"/>
-      <c r="B38" s="145" t="s">
-        <v>762</v>
+      <c r="B38" s="148" t="s">
+        <v>721</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D38" s="47"/>
       <c r="E38" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F38" s="43"/>
-      <c r="G38" s="47"/>
-    </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F38" s="53" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G38" s="61"/>
+    </row>
+    <row r="39" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="47"/>
-      <c r="B39" s="149" t="s">
-        <v>82</v>
+      <c r="B39" s="145" t="s">
+        <v>762</v>
       </c>
       <c r="C39" s="47" t="s">
         <v>282</v>
@@ -39723,8 +39739,8 @@
     </row>
     <row r="40" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="47"/>
-      <c r="B40" s="144" t="s">
-        <v>81</v>
+      <c r="B40" s="149" t="s">
+        <v>82</v>
       </c>
       <c r="C40" s="47" t="s">
         <v>282</v>
@@ -39736,13 +39752,13 @@
       <c r="F40" s="43"/>
       <c r="G40" s="47"/>
     </row>
-    <row r="41" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="47"/>
-      <c r="B41" s="150" t="s">
-        <v>919</v>
+      <c r="B41" s="144" t="s">
+        <v>81</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="D41" s="47"/>
       <c r="E41" s="47" t="s">
@@ -39753,8 +39769,8 @@
     </row>
     <row r="42" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A42" s="47"/>
-      <c r="B42" s="145" t="s">
-        <v>921</v>
+      <c r="B42" s="150" t="s">
+        <v>919</v>
       </c>
       <c r="C42" s="47" t="s">
         <v>320</v>
@@ -39769,7 +39785,7 @@
     <row r="43" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47"/>
       <c r="B43" s="145" t="s">
-        <v>518</v>
+        <v>921</v>
       </c>
       <c r="C43" s="47" t="s">
         <v>320</v>
@@ -39783,8 +39799,8 @@
     </row>
     <row r="44" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47"/>
-      <c r="B44" s="144" t="s">
-        <v>923</v>
+      <c r="B44" s="145" t="s">
+        <v>518</v>
       </c>
       <c r="C44" s="47" t="s">
         <v>320</v>
@@ -39799,7 +39815,7 @@
     <row r="45" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="47"/>
       <c r="B45" s="144" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C45" s="47" t="s">
         <v>320</v>
@@ -39814,7 +39830,7 @@
     <row r="46" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="47"/>
       <c r="B46" s="144" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C46" s="47" t="s">
         <v>320</v>
@@ -39826,10 +39842,10 @@
       <c r="F46" s="43"/>
       <c r="G46" s="47"/>
     </row>
-    <row r="47" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="47"/>
       <c r="B47" s="144" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C47" s="47" t="s">
         <v>320</v>
@@ -39841,7 +39857,7 @@
       <c r="F47" s="43"/>
       <c r="G47" s="47"/>
     </row>
-    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A48" s="47"/>
       <c r="B48" s="145" t="s">
         <v>927</v>
@@ -39916,7 +39932,7 @@
       <c r="F52" s="43"/>
       <c r="G52" s="47"/>
     </row>
-    <row r="53" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="47"/>
       <c r="B53" s="144" t="s">
         <v>936</v>
@@ -40006,7 +40022,7 @@
       <c r="F58" s="43"/>
       <c r="G58" s="47"/>
     </row>
-    <row r="59" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A59" s="47"/>
       <c r="B59" s="149" t="s">
         <v>942</v>
@@ -40021,7 +40037,7 @@
       <c r="F59" s="43"/>
       <c r="G59" s="47"/>
     </row>
-    <row r="60" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A60" s="47"/>
       <c r="B60" s="149" t="s">
         <v>943</v>
@@ -40066,7 +40082,7 @@
       <c r="F62" s="43"/>
       <c r="G62" s="47"/>
     </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A63" s="47"/>
       <c r="B63" s="145" t="s">
         <v>946</v>
@@ -40113,7 +40129,7 @@
       </c>
       <c r="G65" s="61"/>
     </row>
-    <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="47"/>
       <c r="B66" s="144" t="s">
         <v>952</v>
@@ -40128,7 +40144,7 @@
       <c r="F66" s="43"/>
       <c r="G66" s="47"/>
     </row>
-    <row r="67" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="47"/>
       <c r="B67" s="146" t="s">
         <v>737</v>
@@ -40173,7 +40189,7 @@
       <c r="F69" s="43"/>
       <c r="G69" s="47"/>
     </row>
-    <row r="70" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="47"/>
       <c r="B70" s="144" t="s">
         <v>745</v>
@@ -40250,7 +40266,7 @@
       <c r="F74" s="43"/>
       <c r="G74" s="47"/>
     </row>
-    <row r="75" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="47"/>
       <c r="B75" s="144" t="s">
         <v>969</v>
@@ -40265,7 +40281,7 @@
       <c r="F75" s="43"/>
       <c r="G75" s="47"/>
     </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A76" s="47"/>
       <c r="B76" s="145" t="s">
         <v>970</v>
@@ -40280,7 +40296,7 @@
       <c r="F76" s="43"/>
       <c r="G76" s="47"/>
     </row>
-    <row r="77" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="47"/>
       <c r="B77" s="144" t="s">
         <v>971</v>
@@ -40295,7 +40311,7 @@
       <c r="F77" s="43"/>
       <c r="G77" s="47"/>
     </row>
-    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A78" s="47"/>
       <c r="B78" s="145" t="s">
         <v>975</v>
@@ -40355,7 +40371,7 @@
       <c r="F81" s="43"/>
       <c r="G81" s="47"/>
     </row>
-    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A82" s="47"/>
       <c r="B82" s="145" t="s">
         <v>985</v>
@@ -40370,7 +40386,7 @@
       <c r="F82" s="43"/>
       <c r="G82" s="47"/>
     </row>
-    <row r="83" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="47"/>
       <c r="B83" s="144" t="s">
         <v>747</v>
@@ -40385,7 +40401,7 @@
       <c r="F83" s="43"/>
       <c r="G83" s="47"/>
     </row>
-    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A84" s="47"/>
       <c r="B84" s="145" t="s">
         <v>988</v>
@@ -40400,7 +40416,7 @@
       <c r="F84" s="43"/>
       <c r="G84" s="47"/>
     </row>
-    <row r="85" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="47"/>
       <c r="B85" s="144" t="s">
         <v>990</v>
@@ -40447,7 +40463,7 @@
       <c r="F87" s="43"/>
       <c r="G87" s="47"/>
     </row>
-    <row r="88" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A88" s="47"/>
       <c r="B88" s="149" t="s">
         <v>139</v>
@@ -40492,7 +40508,7 @@
       <c r="F90" s="43"/>
       <c r="G90" s="47"/>
     </row>
-    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A91" s="47"/>
       <c r="B91" s="149" t="s">
         <v>88</v>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5257" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5259" uniqueCount="1154">
   <si>
     <t>ID</t>
   </si>
@@ -36348,7 +36348,10 @@
     <t>2(background:  music vs silence)</t>
   </si>
   <si>
-    <t>classified sample as children even though they were 16-17</t>
+    <t>3(background:  music, noise, silence) x 2(personality: introvert vs extravert)</t>
+  </si>
+  <si>
+    <t>classified sample as children even though they were 16-17; personality type was averaged out</t>
   </si>
 </sst>
 </file>
@@ -39058,7 +39061,7 @@
   <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39348,24 +39351,28 @@
         <v>479</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47">
+    <row r="15" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="58">
         <v>13</v>
       </c>
-      <c r="B15" s="144" t="s">
+      <c r="B15" s="146" t="s">
         <v>926</v>
       </c>
       <c r="C15" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47" t="s">
+      <c r="D15" s="61" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G15" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F15" s="61" t="s">
-        <v>1152</v>
-      </c>
-      <c r="G15" s="47"/>
     </row>
     <row r="16" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47"/>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="987" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="987" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="WoS" sheetId="1" r:id="rId1"/>
@@ -15,16 +15,14 @@
     <sheet name="In-text" sheetId="6" r:id="rId6"/>
     <sheet name=" Step 2" sheetId="4" r:id="rId7"/>
     <sheet name=" Step 3" sheetId="11" r:id="rId8"/>
-    <sheet name=" Step 4 (lit. review)" sheetId="14" r:id="rId9"/>
-    <sheet name=" Step 4 (meta)" sheetId="13" r:id="rId10"/>
-    <sheet name="Step 3 (old) " sheetId="5" r:id="rId11"/>
-    <sheet name="Step 4 (old)" sheetId="8" r:id="rId12"/>
+    <sheet name=" Step 4 (meta)" sheetId="13" r:id="rId9"/>
+    <sheet name="Step 3 (old) " sheetId="5" r:id="rId10"/>
+    <sheet name="Step 4 (old)" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">' Step 2'!$A$2:$D$525</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">' Step 3'!$A$2:$C$342</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (lit. review)'!$A$2:$C$129</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">' Step 4 (meta)'!$A$2:$C$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">' Step 3'!$A$2:$C$343</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$129</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -192,66 +190,6 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Martin,Vasilev:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-N/A means it wasn't excluded</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B61" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Martin R. Vasilev:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-full-text found
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Martin,Vasilev</author>
-    <author>Martin R. Vasilev</author>
-  </authors>
-  <commentList>
     <comment ref="F9" authorId="0">
       <text>
         <r>
@@ -300,7 +238,60 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="1">
+    <comment ref="G21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Form A was administered at the time of admission to uni. Because it is not clear when the study was conducted, it is not known how much time has elapsed. Using Form A as the baseline is problematic not only for the above reason, but also because the testing settings would have been different. There is a non-trivial difference between the 2 forms even in the silence condition, which shows that comparisons with Form A should be avoided. 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+There are a number of issues that do not make it possible to include the study:
+- There are likely strong practice effects due to the fact that the reading test was administered 7 times
+- It is not clear whether the same test was administered at T1 because different names were used. 
+- Unlike other studies of this era, the radio programme was not carefully controled and included both music and speech (i.e. talks). This makes the study dissimilar to the other studies in the meta-analysis
+- It seems that the participants were too familiar with the purpose of the study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B76" authorId="1">
       <text>
         <r>
           <rPr>
@@ -329,7 +320,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Martin,Vasilev</author>
@@ -363,7 +354,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Martin R. Vasilev</author>
@@ -399,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5259" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4893" uniqueCount="1175">
   <si>
     <t>ID</t>
   </si>
@@ -36352,6 +36343,69 @@
   </si>
   <si>
     <t>classified sample as children even though they were 16-17; personality type was averaged out</t>
+  </si>
+  <si>
+    <t>3(background: classical music, rock music, silence) x 5(grade: 4th, 5th, 6th, 7th, 8th)</t>
+  </si>
+  <si>
+    <t>I average out grade</t>
+  </si>
+  <si>
+    <t>missing data, need to contact authors</t>
+  </si>
+  <si>
+    <t>the reading test is a bit different from other studies, but still seems to be the same format</t>
+  </si>
+  <si>
+    <t>3(background: vocal music, instrumental music, silence)</t>
+  </si>
+  <si>
+    <t>There was not only muscial but also tactile stimulation;  there was no control group</t>
+  </si>
+  <si>
+    <t>intervention study</t>
+  </si>
+  <si>
+    <t>5(background: classical, pop, semi-classical, jazz music, silence)</t>
+  </si>
+  <si>
+    <t>age of participants is not mentioned, but I assume that they were adults given that they were undergraduates</t>
+  </si>
+  <si>
+    <t>music type unknown; SDs nor reported</t>
+  </si>
+  <si>
+    <t>2(background: semi-classical music, silence)</t>
+  </si>
+  <si>
+    <t>SDs not reported!</t>
+  </si>
+  <si>
+    <t>3(background: classical music, popular music, silence)</t>
+  </si>
+  <si>
+    <t>methodological issues (see comment)</t>
+  </si>
+  <si>
+    <t>2 sessions with no radio and 5 sessions with radio</t>
+  </si>
+  <si>
+    <t>Miller, C. (2014). The differentiated effects of lyrical and non-lyrical music on reading comprehension. Master's thesis dissertation</t>
+  </si>
+  <si>
+    <t>Miller, C. (2014). The differentiated effects of lyrical and non-lyrical music on reading comprehension. Master's thesis dissertation. Retrieved from http://rdw.rowan.edu/cgi/viewcontent.cgi?article=1351&amp;context=etd</t>
+  </si>
+  <si>
+    <t>5(background: classical lyrical, classical non-lyrical, rock lyrical, rock non-lyrical , silence)</t>
+  </si>
+  <si>
+    <t>unpublished source</t>
+  </si>
+  <si>
+    <t>2(personality type: extravert vs introvert) x 3 (background: complex, simple music, silence)</t>
+  </si>
+  <si>
+    <t>personality type is averaged out; description of design is a bit convoluted but it appears it was between-subject</t>
   </si>
 </sst>
 </file>
@@ -36958,7 +37012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -37395,6 +37449,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -37740,7 +37806,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -39057,2067 +39123,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G129"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="100.42578125" style="137" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="124" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="125" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>827</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47">
-        <v>1</v>
-      </c>
-      <c r="B3" s="145" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="47"/>
-    </row>
-    <row r="4" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47">
-        <v>2</v>
-      </c>
-      <c r="B4" s="145" t="s">
-        <v>992</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="47"/>
-    </row>
-    <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47">
-        <v>3</v>
-      </c>
-      <c r="B5" s="151" t="s">
-        <v>517</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="47"/>
-    </row>
-    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="47">
-        <v>4</v>
-      </c>
-      <c r="B6" s="145" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="47"/>
-    </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="58">
-        <v>5</v>
-      </c>
-      <c r="B7" s="146" t="s">
-        <v>908</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58">
-        <v>6</v>
-      </c>
-      <c r="B8" s="155" t="s">
-        <v>917</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D8" s="61" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>1138</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58">
-        <v>7</v>
-      </c>
-      <c r="B9" s="144" t="s">
-        <v>918</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D9" s="61" t="s">
-        <v>1139</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F9" s="61" t="s">
-        <v>1140</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="58">
-        <v>8</v>
-      </c>
-      <c r="B10" s="146" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>1142</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58">
-        <v>9</v>
-      </c>
-      <c r="B11" s="146" t="s">
-        <v>981</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D11" s="61" t="s">
-        <v>1145</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F11" s="61" t="s">
-        <v>1146</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58">
-        <v>10</v>
-      </c>
-      <c r="B12" s="144" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D12" s="61" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F12" s="61" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58">
-        <v>11</v>
-      </c>
-      <c r="B13" s="146" t="s">
-        <v>914</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D13" s="61" t="s">
-        <v>1149</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F13" s="61" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G13" s="47" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="58">
-        <v>12</v>
-      </c>
-      <c r="B14" s="144" t="s">
-        <v>864</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>1151</v>
-      </c>
-      <c r="E14" s="58" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="47" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58">
-        <v>13</v>
-      </c>
-      <c r="B15" s="146" t="s">
-        <v>926</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D15" s="61" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E15" s="58" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F15" s="61" t="s">
-        <v>1153</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="144" t="s">
-        <v>863</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="47"/>
-    </row>
-    <row r="17" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="145" t="s">
-        <v>866</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="47"/>
-    </row>
-    <row r="18" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="145" t="s">
-        <v>867</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="47"/>
-    </row>
-    <row r="19" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="144" t="s">
-        <v>870</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="47"/>
-    </row>
-    <row r="20" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="145" t="s">
-        <v>873</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="47"/>
-    </row>
-    <row r="21" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="145" t="s">
-        <v>874</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="47"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="144" t="s">
-        <v>877</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="47"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="145" t="s">
-        <v>879</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F23" s="61" t="s">
-        <v>824</v>
-      </c>
-      <c r="G23" s="61"/>
-    </row>
-    <row r="24" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="144" t="s">
-        <v>794</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>798</v>
-      </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F24" s="43"/>
-      <c r="G24" s="47"/>
-    </row>
-    <row r="25" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="146" t="s">
-        <v>886</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F25" s="61" t="s">
-        <v>486</v>
-      </c>
-      <c r="G25" s="61"/>
-    </row>
-    <row r="26" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="144" t="s">
-        <v>889</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="47"/>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="144" t="s">
-        <v>894</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F27" s="47" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G27" s="47"/>
-    </row>
-    <row r="28" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="144" t="s">
-        <v>895</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F28" s="43"/>
-      <c r="G28" s="47"/>
-    </row>
-    <row r="29" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="145" t="s">
-        <v>897</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F29" s="43"/>
-      <c r="G29" s="47"/>
-    </row>
-    <row r="30" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="145" t="s">
-        <v>902</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="47"/>
-    </row>
-    <row r="31" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="145" t="s">
-        <v>903</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F31" s="43"/>
-      <c r="G31" s="47"/>
-    </row>
-    <row r="32" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="145" t="s">
-        <v>904</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F32" s="43"/>
-      <c r="G32" s="47"/>
-    </row>
-    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="145" t="s">
-        <v>906</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F33" s="43"/>
-      <c r="G33" s="47"/>
-    </row>
-    <row r="34" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="146" t="s">
-        <v>724</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F34" s="53" t="s">
-        <v>1123</v>
-      </c>
-      <c r="G34" s="61"/>
-    </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="144" t="s">
-        <v>363</v>
-      </c>
-      <c r="C35" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F35" s="43"/>
-      <c r="G35" s="47"/>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="147" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F36" s="43"/>
-      <c r="G36" s="47"/>
-    </row>
-    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="121"/>
-      <c r="B37" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="121" t="s">
-        <v>282</v>
-      </c>
-      <c r="D37" s="121"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="122" t="s">
-        <v>835</v>
-      </c>
-      <c r="G37" s="156"/>
-    </row>
-    <row r="38" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
-      <c r="B38" s="148" t="s">
-        <v>721</v>
-      </c>
-      <c r="C38" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F38" s="53" t="s">
-        <v>1125</v>
-      </c>
-      <c r="G38" s="61"/>
-    </row>
-    <row r="39" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="145" t="s">
-        <v>762</v>
-      </c>
-      <c r="C39" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F39" s="43"/>
-      <c r="G39" s="47"/>
-    </row>
-    <row r="40" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="149" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F40" s="43"/>
-      <c r="G40" s="47"/>
-    </row>
-    <row r="41" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="144" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F41" s="43"/>
-      <c r="G41" s="47"/>
-    </row>
-    <row r="42" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="150" t="s">
-        <v>919</v>
-      </c>
-      <c r="C42" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F42" s="43"/>
-      <c r="G42" s="47"/>
-    </row>
-    <row r="43" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
-      <c r="B43" s="145" t="s">
-        <v>921</v>
-      </c>
-      <c r="C43" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F43" s="43"/>
-      <c r="G43" s="47"/>
-    </row>
-    <row r="44" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
-      <c r="B44" s="145" t="s">
-        <v>518</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F44" s="43"/>
-      <c r="G44" s="47"/>
-    </row>
-    <row r="45" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
-      <c r="B45" s="144" t="s">
-        <v>923</v>
-      </c>
-      <c r="C45" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F45" s="43"/>
-      <c r="G45" s="47"/>
-    </row>
-    <row r="46" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-      <c r="B46" s="144" t="s">
-        <v>924</v>
-      </c>
-      <c r="C46" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F46" s="43"/>
-      <c r="G46" s="47"/>
-    </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="144" t="s">
-        <v>925</v>
-      </c>
-      <c r="C47" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F47" s="43"/>
-      <c r="G47" s="47"/>
-    </row>
-    <row r="48" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
-      <c r="B48" s="145" t="s">
-        <v>927</v>
-      </c>
-      <c r="C48" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F48" s="43"/>
-      <c r="G48" s="47"/>
-    </row>
-    <row r="49" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
-      <c r="B49" s="144" t="s">
-        <v>928</v>
-      </c>
-      <c r="C49" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F49" s="43"/>
-      <c r="G49" s="47"/>
-    </row>
-    <row r="50" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
-      <c r="B50" s="152" t="s">
-        <v>931</v>
-      </c>
-      <c r="C50" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F50" s="43"/>
-      <c r="G50" s="47"/>
-    </row>
-    <row r="51" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
-      <c r="B51" s="144" t="s">
-        <v>703</v>
-      </c>
-      <c r="C51" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F51" s="43"/>
-      <c r="G51" s="47"/>
-    </row>
-    <row r="52" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
-      <c r="B52" s="145" t="s">
-        <v>935</v>
-      </c>
-      <c r="C52" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F52" s="43"/>
-      <c r="G52" s="47"/>
-    </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="47"/>
-      <c r="B53" s="144" t="s">
-        <v>936</v>
-      </c>
-      <c r="C53" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F53" s="43"/>
-      <c r="G53" s="47"/>
-    </row>
-    <row r="54" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A54" s="47"/>
-      <c r="B54" s="145" t="s">
-        <v>937</v>
-      </c>
-      <c r="C54" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F54" s="43"/>
-      <c r="G54" s="47"/>
-    </row>
-    <row r="55" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A55" s="47"/>
-      <c r="B55" s="145" t="s">
-        <v>938</v>
-      </c>
-      <c r="C55" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F55" s="43"/>
-      <c r="G55" s="47"/>
-    </row>
-    <row r="56" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
-      <c r="B56" s="145" t="s">
-        <v>939</v>
-      </c>
-      <c r="C56" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F56" s="43"/>
-      <c r="G56" s="47"/>
-    </row>
-    <row r="57" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A57" s="47"/>
-      <c r="B57" s="149" t="s">
-        <v>940</v>
-      </c>
-      <c r="C57" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F57" s="43"/>
-      <c r="G57" s="47"/>
-    </row>
-    <row r="58" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A58" s="47"/>
-      <c r="B58" s="145" t="s">
-        <v>941</v>
-      </c>
-      <c r="C58" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F58" s="43"/>
-      <c r="G58" s="47"/>
-    </row>
-    <row r="59" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A59" s="47"/>
-      <c r="B59" s="149" t="s">
-        <v>942</v>
-      </c>
-      <c r="C59" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F59" s="43"/>
-      <c r="G59" s="47"/>
-    </row>
-    <row r="60" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="47"/>
-      <c r="B60" s="149" t="s">
-        <v>943</v>
-      </c>
-      <c r="C60" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F60" s="43"/>
-      <c r="G60" s="47"/>
-    </row>
-    <row r="61" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="47"/>
-      <c r="B61" s="145" t="s">
-        <v>944</v>
-      </c>
-      <c r="C61" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F61" s="43"/>
-      <c r="G61" s="47"/>
-    </row>
-    <row r="62" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
-      <c r="B62" s="145" t="s">
-        <v>945</v>
-      </c>
-      <c r="C62" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F62" s="43"/>
-      <c r="G62" s="47"/>
-    </row>
-    <row r="63" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="47"/>
-      <c r="B63" s="145" t="s">
-        <v>946</v>
-      </c>
-      <c r="C63" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F63" s="43"/>
-      <c r="G63" s="47"/>
-    </row>
-    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="47"/>
-      <c r="B64" s="144" t="s">
-        <v>947</v>
-      </c>
-      <c r="C64" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F64" s="43"/>
-      <c r="G64" s="47"/>
-    </row>
-    <row r="65" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="47"/>
-      <c r="B65" s="144" t="s">
-        <v>950</v>
-      </c>
-      <c r="C65" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F65" s="61" t="s">
-        <v>497</v>
-      </c>
-      <c r="G65" s="61"/>
-    </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="47"/>
-      <c r="B66" s="144" t="s">
-        <v>952</v>
-      </c>
-      <c r="C66" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F66" s="43"/>
-      <c r="G66" s="47"/>
-    </row>
-    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="47"/>
-      <c r="B67" s="146" t="s">
-        <v>737</v>
-      </c>
-      <c r="C67" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F67" s="43"/>
-      <c r="G67" s="47"/>
-    </row>
-    <row r="68" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="47"/>
-      <c r="B68" s="145" t="s">
-        <v>959</v>
-      </c>
-      <c r="C68" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F68" s="43"/>
-      <c r="G68" s="47"/>
-    </row>
-    <row r="69" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="47"/>
-      <c r="B69" s="144" t="s">
-        <v>960</v>
-      </c>
-      <c r="C69" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F69" s="43"/>
-      <c r="G69" s="47"/>
-    </row>
-    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="47"/>
-      <c r="B70" s="144" t="s">
-        <v>745</v>
-      </c>
-      <c r="C70" s="47" t="s">
-        <v>798</v>
-      </c>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F70" s="43"/>
-      <c r="G70" s="47"/>
-    </row>
-    <row r="71" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="47"/>
-      <c r="B71" s="145" t="s">
-        <v>962</v>
-      </c>
-      <c r="C71" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F71" s="43"/>
-      <c r="G71" s="47"/>
-    </row>
-    <row r="72" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="47"/>
-      <c r="B72" s="145" t="s">
-        <v>549</v>
-      </c>
-      <c r="C72" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="D72" s="47"/>
-      <c r="E72" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F72" s="43" t="s">
-        <v>839</v>
-      </c>
-      <c r="G72" s="47"/>
-    </row>
-    <row r="73" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="47"/>
-      <c r="B73" s="145" t="s">
-        <v>966</v>
-      </c>
-      <c r="C73" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D73" s="47"/>
-      <c r="E73" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F73" s="43"/>
-      <c r="G73" s="47"/>
-    </row>
-    <row r="74" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="47"/>
-      <c r="B74" s="145" t="s">
-        <v>968</v>
-      </c>
-      <c r="C74" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D74" s="47"/>
-      <c r="E74" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F74" s="43"/>
-      <c r="G74" s="47"/>
-    </row>
-    <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="47"/>
-      <c r="B75" s="144" t="s">
-        <v>969</v>
-      </c>
-      <c r="C75" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F75" s="43"/>
-      <c r="G75" s="47"/>
-    </row>
-    <row r="76" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="47"/>
-      <c r="B76" s="145" t="s">
-        <v>970</v>
-      </c>
-      <c r="C76" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="D76" s="47"/>
-      <c r="E76" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F76" s="43"/>
-      <c r="G76" s="47"/>
-    </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="47"/>
-      <c r="B77" s="144" t="s">
-        <v>971</v>
-      </c>
-      <c r="C77" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D77" s="47"/>
-      <c r="E77" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F77" s="43"/>
-      <c r="G77" s="47"/>
-    </row>
-    <row r="78" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="47"/>
-      <c r="B78" s="145" t="s">
-        <v>975</v>
-      </c>
-      <c r="C78" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D78" s="47"/>
-      <c r="E78" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F78" s="43"/>
-      <c r="G78" s="47"/>
-    </row>
-    <row r="79" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="47"/>
-      <c r="B79" s="144" t="s">
-        <v>978</v>
-      </c>
-      <c r="C79" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D79" s="47"/>
-      <c r="E79" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F79" s="43"/>
-      <c r="G79" s="47"/>
-    </row>
-    <row r="80" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="47"/>
-      <c r="B80" s="145" t="s">
-        <v>980</v>
-      </c>
-      <c r="C80" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D80" s="47"/>
-      <c r="E80" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F80" s="43"/>
-      <c r="G80" s="47"/>
-    </row>
-    <row r="81" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="47"/>
-      <c r="B81" s="145" t="s">
-        <v>984</v>
-      </c>
-      <c r="C81" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D81" s="47"/>
-      <c r="E81" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F81" s="43"/>
-      <c r="G81" s="47"/>
-    </row>
-    <row r="82" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="47"/>
-      <c r="B82" s="145" t="s">
-        <v>985</v>
-      </c>
-      <c r="C82" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D82" s="47"/>
-      <c r="E82" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F82" s="43"/>
-      <c r="G82" s="47"/>
-    </row>
-    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="47"/>
-      <c r="B83" s="144" t="s">
-        <v>747</v>
-      </c>
-      <c r="C83" s="47" t="s">
-        <v>798</v>
-      </c>
-      <c r="D83" s="47"/>
-      <c r="E83" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F83" s="43"/>
-      <c r="G83" s="47"/>
-    </row>
-    <row r="84" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A84" s="47"/>
-      <c r="B84" s="145" t="s">
-        <v>988</v>
-      </c>
-      <c r="C84" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F84" s="43"/>
-      <c r="G84" s="47"/>
-    </row>
-    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="47"/>
-      <c r="B85" s="144" t="s">
-        <v>990</v>
-      </c>
-      <c r="C85" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F85" s="47" t="s">
-        <v>861</v>
-      </c>
-      <c r="G85" s="47"/>
-    </row>
-    <row r="86" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="47"/>
-      <c r="B86" s="145" t="s">
-        <v>769</v>
-      </c>
-      <c r="C86" s="47" t="s">
-        <v>798</v>
-      </c>
-      <c r="D86" s="47"/>
-      <c r="E86" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F86" s="43"/>
-      <c r="G86" s="47"/>
-    </row>
-    <row r="87" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="47"/>
-      <c r="B87" s="145" t="s">
-        <v>994</v>
-      </c>
-      <c r="C87" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D87" s="47"/>
-      <c r="E87" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F87" s="43"/>
-      <c r="G87" s="47"/>
-    </row>
-    <row r="88" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A88" s="47"/>
-      <c r="B88" s="149" t="s">
-        <v>139</v>
-      </c>
-      <c r="C88" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D88" s="47"/>
-      <c r="E88" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F88" s="43"/>
-      <c r="G88" s="47"/>
-    </row>
-    <row r="89" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A89" s="47"/>
-      <c r="B89" s="145" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C89" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="D89" s="47"/>
-      <c r="E89" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F89" s="43"/>
-      <c r="G89" s="47"/>
-    </row>
-    <row r="90" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A90" s="47"/>
-      <c r="B90" s="149" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C90" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D90" s="47"/>
-      <c r="E90" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F90" s="43"/>
-      <c r="G90" s="47"/>
-    </row>
-    <row r="91" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A91" s="47"/>
-      <c r="B91" s="149" t="s">
-        <v>88</v>
-      </c>
-      <c r="C91" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D91" s="47"/>
-      <c r="E91" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F91" s="43"/>
-      <c r="G91" s="47"/>
-    </row>
-    <row r="92" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="47"/>
-      <c r="B92" s="145" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C92" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D92" s="47"/>
-      <c r="E92" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F92" s="43"/>
-      <c r="G92" s="47"/>
-    </row>
-    <row r="93" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A93" s="47"/>
-      <c r="B93" s="145" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C93" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D93" s="47"/>
-      <c r="E93" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F93" s="43"/>
-      <c r="G93" s="47"/>
-    </row>
-    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="47"/>
-      <c r="B94" s="144" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C94" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D94" s="47"/>
-      <c r="E94" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F94" s="43"/>
-      <c r="G94" s="47"/>
-    </row>
-    <row r="95" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="47"/>
-      <c r="B95" s="145" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C95" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="D95" s="47"/>
-      <c r="E95" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F95" s="43"/>
-      <c r="G95" s="47"/>
-    </row>
-    <row r="96" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A96" s="47"/>
-      <c r="B96" s="145" t="s">
-        <v>767</v>
-      </c>
-      <c r="C96" s="47" t="s">
-        <v>798</v>
-      </c>
-      <c r="D96" s="47"/>
-      <c r="E96" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F96" s="43"/>
-      <c r="G96" s="47"/>
-    </row>
-    <row r="97" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="47"/>
-      <c r="B97" s="149" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C97" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D97" s="47"/>
-      <c r="E97" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F97" s="43"/>
-      <c r="G97" s="47"/>
-    </row>
-    <row r="98" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="47"/>
-      <c r="B98" s="144" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C98" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D98" s="47"/>
-      <c r="E98" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F98" s="43"/>
-      <c r="G98" s="47"/>
-    </row>
-    <row r="99" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="47"/>
-      <c r="B99" s="144" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C99" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D99" s="47"/>
-      <c r="E99" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F99" s="43"/>
-      <c r="G99" s="47"/>
-    </row>
-    <row r="100" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="47"/>
-      <c r="B100" s="144" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C100" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D100" s="47"/>
-      <c r="E100" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F100" s="43"/>
-      <c r="G100" s="47"/>
-    </row>
-    <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="47"/>
-      <c r="B101" s="144" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C101" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D101" s="47"/>
-      <c r="E101" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F101" s="43"/>
-      <c r="G101" s="47"/>
-    </row>
-    <row r="102" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A102" s="47"/>
-      <c r="B102" s="146" t="s">
-        <v>328</v>
-      </c>
-      <c r="C102" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D102" s="47"/>
-      <c r="E102" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F102" s="61" t="s">
-        <v>509</v>
-      </c>
-      <c r="G102" s="61"/>
-    </row>
-    <row r="103" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="47"/>
-      <c r="B103" s="144" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C103" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D103" s="47"/>
-      <c r="E103" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F103" s="43"/>
-      <c r="G103" s="47"/>
-    </row>
-    <row r="104" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="47"/>
-      <c r="B104" s="144" t="s">
-        <v>58</v>
-      </c>
-      <c r="C104" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D104" s="47"/>
-      <c r="E104" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F104" s="43"/>
-      <c r="G104" s="47"/>
-    </row>
-    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="47"/>
-      <c r="B105" s="144" t="s">
-        <v>96</v>
-      </c>
-      <c r="C105" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D105" s="47"/>
-      <c r="E105" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F105" s="43"/>
-      <c r="G105" s="47"/>
-    </row>
-    <row r="106" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="47"/>
-      <c r="B106" s="145" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C106" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D106" s="47"/>
-      <c r="E106" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F106" s="43"/>
-      <c r="G106" s="47"/>
-    </row>
-    <row r="107" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="47"/>
-      <c r="B107" s="144" t="s">
-        <v>775</v>
-      </c>
-      <c r="C107" s="47" t="s">
-        <v>798</v>
-      </c>
-      <c r="D107" s="47"/>
-      <c r="E107" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F107" s="43"/>
-      <c r="G107" s="47"/>
-    </row>
-    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="46"/>
-      <c r="B108" s="133" t="s">
-        <v>68</v>
-      </c>
-      <c r="C108" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="D108" s="46"/>
-      <c r="E108" s="46"/>
-      <c r="F108" s="32"/>
-      <c r="G108" s="46"/>
-    </row>
-    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="47"/>
-      <c r="B109" s="144" t="s">
-        <v>783</v>
-      </c>
-      <c r="C109" s="47" t="s">
-        <v>798</v>
-      </c>
-      <c r="D109" s="47"/>
-      <c r="E109" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F109" s="43"/>
-      <c r="G109" s="47"/>
-    </row>
-    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="47"/>
-      <c r="B110" s="144" t="s">
-        <v>69</v>
-      </c>
-      <c r="C110" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D110" s="47"/>
-      <c r="E110" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F110" s="43"/>
-      <c r="G110" s="47"/>
-    </row>
-    <row r="111" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A111" s="47"/>
-      <c r="B111" s="149" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C111" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D111" s="47"/>
-      <c r="E111" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F111" s="43"/>
-      <c r="G111" s="47"/>
-    </row>
-    <row r="112" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="47"/>
-      <c r="B112" s="153" t="s">
-        <v>781</v>
-      </c>
-      <c r="C112" s="47" t="s">
-        <v>798</v>
-      </c>
-      <c r="D112" s="47"/>
-      <c r="E112" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F112" s="43"/>
-      <c r="G112" s="47"/>
-    </row>
-    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="47"/>
-      <c r="B113" s="144" t="s">
-        <v>753</v>
-      </c>
-      <c r="C113" s="47" t="s">
-        <v>798</v>
-      </c>
-      <c r="D113" s="47"/>
-      <c r="E113" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F113" s="43"/>
-      <c r="G113" s="47"/>
-    </row>
-    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="47"/>
-      <c r="B114" s="144" t="s">
-        <v>59</v>
-      </c>
-      <c r="C114" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D114" s="47"/>
-      <c r="E114" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F114" s="43"/>
-      <c r="G114" s="47"/>
-    </row>
-    <row r="115" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="47"/>
-      <c r="B115" s="144" t="s">
-        <v>754</v>
-      </c>
-      <c r="C115" s="47" t="s">
-        <v>798</v>
-      </c>
-      <c r="D115" s="47"/>
-      <c r="E115" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F115" s="43"/>
-      <c r="G115" s="47"/>
-    </row>
-    <row r="116" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A116" s="47"/>
-      <c r="B116" s="145" t="s">
-        <v>768</v>
-      </c>
-      <c r="C116" s="47" t="s">
-        <v>798</v>
-      </c>
-      <c r="D116" s="47"/>
-      <c r="E116" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F116" s="43" t="s">
-        <v>847</v>
-      </c>
-      <c r="G116" s="47"/>
-    </row>
-    <row r="117" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="47"/>
-      <c r="B117" s="145" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C117" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="D117" s="47"/>
-      <c r="E117" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F117" s="43"/>
-      <c r="G117" s="47"/>
-    </row>
-    <row r="118" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="47"/>
-      <c r="B118" s="149" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C118" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D118" s="47"/>
-      <c r="E118" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F118" s="43"/>
-      <c r="G118" s="47"/>
-    </row>
-    <row r="119" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A119" s="47"/>
-      <c r="B119" s="145" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C119" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D119" s="47"/>
-      <c r="E119" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F119" s="43"/>
-      <c r="G119" s="47"/>
-    </row>
-    <row r="120" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="47"/>
-      <c r="B120" s="144" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C120" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D120" s="47"/>
-      <c r="E120" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F120" s="43"/>
-      <c r="G120" s="47"/>
-    </row>
-    <row r="121" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="47"/>
-      <c r="B121" s="145" t="s">
-        <v>188</v>
-      </c>
-      <c r="C121" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D121" s="47"/>
-      <c r="E121" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F121" s="47" t="s">
-        <v>849</v>
-      </c>
-      <c r="G121" s="47"/>
-    </row>
-    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="47"/>
-      <c r="B122" s="144" t="s">
-        <v>95</v>
-      </c>
-      <c r="C122" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D122" s="47"/>
-      <c r="E122" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F122" s="43"/>
-      <c r="G122" s="47"/>
-    </row>
-    <row r="123" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A123" s="47"/>
-      <c r="B123" s="145" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C123" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="D123" s="47"/>
-      <c r="E123" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F123" s="43"/>
-      <c r="G123" s="47"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="47"/>
-      <c r="B124" s="152" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C124" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D124" s="47"/>
-      <c r="E124" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F124" s="43"/>
-      <c r="G124" s="47"/>
-    </row>
-    <row r="125" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A125" s="47"/>
-      <c r="B125" s="145" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C125" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D125" s="47"/>
-      <c r="E125" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F125" s="43"/>
-      <c r="G125" s="47"/>
-    </row>
-    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="47"/>
-      <c r="B126" s="144" t="s">
-        <v>80</v>
-      </c>
-      <c r="C126" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D126" s="47"/>
-      <c r="E126" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F126" s="43"/>
-      <c r="G126" s="47"/>
-    </row>
-    <row r="127" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A127" s="47"/>
-      <c r="B127" s="146" t="s">
-        <v>726</v>
-      </c>
-      <c r="C127" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D127" s="47"/>
-      <c r="E127" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F127" s="47" t="s">
-        <v>1107</v>
-      </c>
-      <c r="G127" s="47"/>
-    </row>
-    <row r="128" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="47"/>
-      <c r="B128" s="154" t="s">
-        <v>137</v>
-      </c>
-      <c r="C128" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D128" s="47"/>
-      <c r="E128" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F128" s="43"/>
-      <c r="G128" s="47"/>
-    </row>
-    <row r="129" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A129" s="47"/>
-      <c r="B129" s="145" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C129" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="D129" s="47"/>
-      <c r="E129" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F129" s="43"/>
-      <c r="G129" s="47"/>
-    </row>
-  </sheetData>
-  <sortState ref="A3:G129">
-    <sortCondition ref="A3:A129"/>
-    <sortCondition ref="B3:B129"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ319"/>
   <sheetViews>
@@ -45903,7 +43908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z101"/>
   <sheetViews>
@@ -51574,10 +49579,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52333,6 +50338,17 @@
         <v>554</v>
       </c>
     </row>
+    <row r="70" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="21">
+        <v>67</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>320</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
@@ -52344,10 +50360,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D525"/>
+  <dimension ref="A1:D526"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A510" workbookViewId="0">
+      <selection activeCell="B526" sqref="B526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59696,6 +57712,17 @@
       </c>
       <c r="D525">
         <v>523</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B526" s="10" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C526" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D526">
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -59713,10 +57740,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E342"/>
+  <dimension ref="A1:E343"/>
   <sheetViews>
-    <sheetView topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="A222" sqref="A222:XFD222"/>
+    <sheetView topLeftCell="A326" workbookViewId="0">
+      <selection activeCell="B345" sqref="B345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60749,7 +58776,7 @@
       <c r="E68" s="17"/>
     </row>
     <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="121">
+      <c r="A69" s="58">
         <v>67</v>
       </c>
       <c r="B69" s="143" t="s">
@@ -63008,7 +61035,7 @@
       </c>
       <c r="E218" s="17"/>
     </row>
-    <row r="219" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="58">
         <v>217</v>
       </c>
@@ -63023,12 +61050,12 @@
       </c>
       <c r="E219" s="17"/>
     </row>
-    <row r="220" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A220" s="58">
         <v>218</v>
       </c>
-      <c r="B220" s="126" t="s">
-        <v>1011</v>
+      <c r="B220" s="20" t="s">
+        <v>1169</v>
       </c>
       <c r="C220" s="58" t="s">
         <v>320</v>
@@ -63038,12 +61065,12 @@
       </c>
       <c r="E220" s="17"/>
     </row>
-    <row r="221" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="58">
         <v>219</v>
       </c>
-      <c r="B221" s="84" t="s">
-        <v>1012</v>
+      <c r="B221" s="126" t="s">
+        <v>1011</v>
       </c>
       <c r="C221" s="58" t="s">
         <v>320</v>
@@ -63053,12 +61080,12 @@
       </c>
       <c r="E221" s="17"/>
     </row>
-    <row r="222" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A222" s="58">
         <v>220</v>
       </c>
-      <c r="B222" s="126" t="s">
-        <v>1013</v>
+      <c r="B222" s="84" t="s">
+        <v>1012</v>
       </c>
       <c r="C222" s="58" t="s">
         <v>320</v>
@@ -63068,12 +61095,12 @@
       </c>
       <c r="E222" s="17"/>
     </row>
-    <row r="223" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="58">
         <v>221</v>
       </c>
-      <c r="B223" s="84" t="s">
-        <v>1014</v>
+      <c r="B223" s="126" t="s">
+        <v>1013</v>
       </c>
       <c r="C223" s="58" t="s">
         <v>320</v>
@@ -63083,93 +61110,93 @@
       </c>
       <c r="E223" s="17"/>
     </row>
-    <row r="224" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A224" s="58">
         <v>222</v>
       </c>
-      <c r="B224" s="128" t="s">
-        <v>1015</v>
+      <c r="B224" s="84" t="s">
+        <v>1014</v>
       </c>
       <c r="C224" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D224" s="58" t="s">
-        <v>270</v>
+        <v>479</v>
       </c>
       <c r="E224" s="17"/>
     </row>
-    <row r="225" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="58">
         <v>223</v>
       </c>
       <c r="B225" s="128" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C225" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D225" s="58" t="s">
-        <v>682</v>
+        <v>270</v>
       </c>
       <c r="E225" s="17"/>
     </row>
-    <row r="226" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="58">
         <v>224</v>
       </c>
-      <c r="B226" s="126" t="s">
-        <v>1017</v>
+      <c r="B226" s="128" t="s">
+        <v>1016</v>
       </c>
       <c r="C226" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D226" s="58" t="s">
-        <v>479</v>
+        <v>682</v>
       </c>
       <c r="E226" s="17"/>
     </row>
-    <row r="227" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="58">
         <v>225</v>
       </c>
-      <c r="B227" s="119" t="s">
-        <v>1018</v>
+      <c r="B227" s="126" t="s">
+        <v>1017</v>
       </c>
       <c r="C227" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D227" s="17" t="s">
-        <v>682</v>
+        <v>320</v>
+      </c>
+      <c r="D227" s="58" t="s">
+        <v>479</v>
       </c>
       <c r="E227" s="17"/>
     </row>
-    <row r="228" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A228" s="58">
         <v>226</v>
       </c>
       <c r="B228" s="119" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C228" s="58" t="s">
         <v>554</v>
       </c>
-      <c r="D228" s="58" t="s">
-        <v>270</v>
+      <c r="D228" s="17" t="s">
+        <v>682</v>
       </c>
       <c r="E228" s="17"/>
     </row>
-    <row r="229" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="58">
         <v>227</v>
       </c>
-      <c r="B229" s="84" t="s">
-        <v>1020</v>
+      <c r="B229" s="119" t="s">
+        <v>1019</v>
       </c>
       <c r="C229" s="58" t="s">
         <v>554</v>
       </c>
       <c r="D229" s="58" t="s">
-        <v>479</v>
+        <v>270</v>
       </c>
       <c r="E229" s="17"/>
     </row>
@@ -63177,14 +61204,14 @@
       <c r="A230" s="58">
         <v>228</v>
       </c>
-      <c r="B230" s="127" t="s">
-        <v>1021</v>
+      <c r="B230" s="84" t="s">
+        <v>1020</v>
       </c>
       <c r="C230" s="58" t="s">
-        <v>282</v>
+        <v>554</v>
       </c>
       <c r="D230" s="58" t="s">
-        <v>144</v>
+        <v>479</v>
       </c>
       <c r="E230" s="17"/>
     </row>
@@ -63193,7 +61220,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="127" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C231" s="58" t="s">
         <v>282</v>
@@ -63203,228 +61230,228 @@
       </c>
       <c r="E231" s="17"/>
     </row>
-    <row r="232" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A232" s="58">
         <v>230</v>
       </c>
-      <c r="B232" s="128" t="s">
-        <v>1023</v>
+      <c r="B232" s="127" t="s">
+        <v>1022</v>
       </c>
       <c r="C232" s="58" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="D232" s="58" t="s">
-        <v>508</v>
+        <v>144</v>
       </c>
       <c r="E232" s="17"/>
     </row>
-    <row r="233" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="58">
         <v>231</v>
       </c>
-      <c r="B233" s="119" t="s">
-        <v>1024</v>
+      <c r="B233" s="128" t="s">
+        <v>1023</v>
       </c>
       <c r="C233" s="58" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D233" s="58" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="E233" s="17"/>
     </row>
-    <row r="234" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A234" s="58">
         <v>232</v>
       </c>
-      <c r="B234" s="134" t="s">
-        <v>728</v>
+      <c r="B234" s="119" t="s">
+        <v>1024</v>
       </c>
       <c r="C234" s="58" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="D234" s="58" t="s">
-        <v>1128</v>
+        <v>494</v>
       </c>
       <c r="E234" s="17"/>
     </row>
-    <row r="235" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A235" s="58">
         <v>233</v>
       </c>
-      <c r="B235" s="84" t="s">
-        <v>767</v>
+      <c r="B235" s="134" t="s">
+        <v>728</v>
       </c>
       <c r="C235" s="58" t="s">
-        <v>798</v>
+        <v>320</v>
       </c>
       <c r="D235" s="58" t="s">
-        <v>479</v>
+        <v>1128</v>
       </c>
       <c r="E235" s="17"/>
     </row>
-    <row r="236" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A236" s="58">
         <v>234</v>
       </c>
-      <c r="B236" s="130" t="s">
-        <v>1025</v>
+      <c r="B236" s="84" t="s">
+        <v>767</v>
       </c>
       <c r="C236" s="58" t="s">
-        <v>282</v>
+        <v>798</v>
       </c>
       <c r="D236" s="58" t="s">
         <v>479</v>
       </c>
       <c r="E236" s="17"/>
     </row>
-    <row r="237" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="58">
         <v>235</v>
       </c>
-      <c r="B237" s="126" t="s">
-        <v>1026</v>
+      <c r="B237" s="130" t="s">
+        <v>1025</v>
       </c>
       <c r="C237" s="58" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="D237" s="58" t="s">
         <v>479</v>
       </c>
       <c r="E237" s="17"/>
     </row>
-    <row r="238" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="58">
         <v>236</v>
       </c>
-      <c r="B238" s="127" t="s">
-        <v>1027</v>
+      <c r="B238" s="126" t="s">
+        <v>1026</v>
       </c>
       <c r="C238" s="58" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D238" s="58" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="E238" s="17"/>
     </row>
-    <row r="239" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="58">
         <v>237</v>
       </c>
-      <c r="B239" s="128" t="s">
-        <v>67</v>
+      <c r="B239" s="127" t="s">
+        <v>1027</v>
       </c>
       <c r="C239" s="58" t="s">
         <v>282</v>
       </c>
       <c r="D239" s="58" t="s">
-        <v>840</v>
+        <v>488</v>
       </c>
       <c r="E239" s="17"/>
     </row>
-    <row r="240" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="58">
         <v>238</v>
       </c>
-      <c r="B240" s="127" t="s">
-        <v>89</v>
+      <c r="B240" s="128" t="s">
+        <v>67</v>
       </c>
       <c r="C240" s="58" t="s">
         <v>282</v>
       </c>
       <c r="D240" s="58" t="s">
-        <v>212</v>
+        <v>840</v>
       </c>
       <c r="E240" s="17"/>
     </row>
-    <row r="241" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="58">
         <v>239</v>
       </c>
-      <c r="B241" s="119" t="s">
-        <v>1028</v>
+      <c r="B241" s="127" t="s">
+        <v>89</v>
       </c>
       <c r="C241" s="58" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="D241" s="58" t="s">
-        <v>857</v>
+        <v>212</v>
       </c>
       <c r="E241" s="17"/>
     </row>
-    <row r="242" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A242" s="58">
         <v>240</v>
       </c>
       <c r="B242" s="119" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C242" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D242" s="60" t="s">
-        <v>494</v>
+        <v>320</v>
+      </c>
+      <c r="D242" s="58" t="s">
+        <v>857</v>
       </c>
       <c r="E242" s="17"/>
     </row>
-    <row r="243" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="58">
         <v>241</v>
       </c>
-      <c r="B243" s="126" t="s">
-        <v>1030</v>
+      <c r="B243" s="119" t="s">
+        <v>1029</v>
       </c>
       <c r="C243" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D243" s="58" t="s">
-        <v>479</v>
+        <v>554</v>
+      </c>
+      <c r="D243" s="60" t="s">
+        <v>494</v>
       </c>
       <c r="E243" s="17"/>
     </row>
-    <row r="244" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="58">
         <v>242</v>
       </c>
-      <c r="B244" s="128" t="s">
-        <v>1031</v>
+      <c r="B244" s="126" t="s">
+        <v>1030</v>
       </c>
       <c r="C244" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D244" s="17" t="s">
-        <v>194</v>
+      <c r="D244" s="58" t="s">
+        <v>479</v>
       </c>
       <c r="E244" s="17"/>
     </row>
-    <row r="245" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="58">
         <v>243</v>
       </c>
-      <c r="B245" s="119" t="s">
-        <v>1032</v>
+      <c r="B245" s="128" t="s">
+        <v>1031</v>
       </c>
       <c r="C245" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D245" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D245" s="17" t="s">
         <v>194</v>
       </c>
       <c r="E245" s="17"/>
     </row>
-    <row r="246" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="58">
         <v>244</v>
       </c>
-      <c r="B246" s="126" t="s">
-        <v>1033</v>
+      <c r="B246" s="119" t="s">
+        <v>1032</v>
       </c>
       <c r="C246" s="58" t="s">
-        <v>320</v>
+        <v>554</v>
       </c>
       <c r="D246" s="58" t="s">
-        <v>479</v>
+        <v>194</v>
       </c>
       <c r="E246" s="17"/>
     </row>
@@ -63433,7 +61460,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="126" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C247" s="58" t="s">
         <v>320</v>
@@ -63443,18 +61470,18 @@
       </c>
       <c r="E247" s="17"/>
     </row>
-    <row r="248" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="58">
         <v>246</v>
       </c>
-      <c r="B248" s="127" t="s">
-        <v>1035</v>
+      <c r="B248" s="126" t="s">
+        <v>1034</v>
       </c>
       <c r="C248" s="58" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D248" s="58" t="s">
-        <v>247</v>
+        <v>479</v>
       </c>
       <c r="E248" s="17"/>
     </row>
@@ -63462,70 +61489,68 @@
       <c r="A249" s="58">
         <v>247</v>
       </c>
-      <c r="B249" s="119" t="s">
-        <v>1036</v>
+      <c r="B249" s="127" t="s">
+        <v>1035</v>
       </c>
       <c r="C249" s="58" t="s">
-        <v>554</v>
+        <v>282</v>
       </c>
       <c r="D249" s="58" t="s">
-        <v>682</v>
+        <v>247</v>
       </c>
       <c r="E249" s="17"/>
     </row>
-    <row r="250" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A250" s="58">
         <v>248</v>
       </c>
-      <c r="B250" s="128" t="s">
-        <v>1037</v>
+      <c r="B250" s="119" t="s">
+        <v>1036</v>
       </c>
       <c r="C250" s="58" t="s">
-        <v>320</v>
+        <v>554</v>
       </c>
       <c r="D250" s="58" t="s">
-        <v>144</v>
+        <v>682</v>
       </c>
       <c r="E250" s="17"/>
     </row>
-    <row r="251" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="58">
         <v>249</v>
       </c>
-      <c r="B251" s="127" t="s">
-        <v>1038</v>
+      <c r="B251" s="128" t="s">
+        <v>1037</v>
       </c>
       <c r="C251" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D251" s="60" t="s">
-        <v>213</v>
+        <v>320</v>
+      </c>
+      <c r="D251" s="58" t="s">
+        <v>144</v>
       </c>
       <c r="E251" s="17"/>
     </row>
-    <row r="252" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A252" s="58">
         <v>250</v>
       </c>
-      <c r="B252" s="134" t="s">
-        <v>328</v>
+      <c r="B252" s="127" t="s">
+        <v>1038</v>
       </c>
       <c r="C252" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D252" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="E252" s="60" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="D252" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="E252" s="17"/>
+    </row>
+    <row r="253" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="58">
         <v>251</v>
       </c>
-      <c r="B253" s="126" t="s">
-        <v>1039</v>
+      <c r="B253" s="134" t="s">
+        <v>328</v>
       </c>
       <c r="C253" s="58" t="s">
         <v>320</v>
@@ -63533,35 +61558,37 @@
       <c r="D253" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E253" s="17"/>
-    </row>
-    <row r="254" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E253" s="60" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="58">
         <v>252</v>
       </c>
-      <c r="B254" s="134" t="s">
-        <v>731</v>
+      <c r="B254" s="126" t="s">
+        <v>1039</v>
       </c>
       <c r="C254" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D254" s="58" t="s">
-        <v>1113</v>
+        <v>479</v>
       </c>
       <c r="E254" s="17"/>
     </row>
-    <row r="255" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="58">
         <v>253</v>
       </c>
-      <c r="B255" s="119" t="s">
-        <v>1040</v>
+      <c r="B255" s="134" t="s">
+        <v>731</v>
       </c>
       <c r="C255" s="58" t="s">
-        <v>554</v>
+        <v>320</v>
       </c>
       <c r="D255" s="58" t="s">
-        <v>270</v>
+        <v>1113</v>
       </c>
       <c r="E255" s="17"/>
     </row>
@@ -63570,13 +61597,13 @@
         <v>254</v>
       </c>
       <c r="B256" s="119" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C256" s="58" t="s">
         <v>554</v>
       </c>
       <c r="D256" s="58" t="s">
-        <v>682</v>
+        <v>270</v>
       </c>
       <c r="E256" s="17"/>
     </row>
@@ -63584,351 +61611,351 @@
       <c r="A257" s="58">
         <v>255</v>
       </c>
-      <c r="B257" s="127" t="s">
-        <v>1042</v>
+      <c r="B257" s="119" t="s">
+        <v>1041</v>
       </c>
       <c r="C257" s="58" t="s">
-        <v>282</v>
+        <v>554</v>
       </c>
       <c r="D257" s="58" t="s">
-        <v>215</v>
+        <v>682</v>
       </c>
       <c r="E257" s="17"/>
     </row>
-    <row r="258" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A258" s="58">
         <v>256</v>
       </c>
-      <c r="B258" s="126" t="s">
-        <v>58</v>
+      <c r="B258" s="127" t="s">
+        <v>1042</v>
       </c>
       <c r="C258" s="58" t="s">
         <v>282</v>
       </c>
       <c r="D258" s="58" t="s">
-        <v>479</v>
+        <v>215</v>
       </c>
       <c r="E258" s="17"/>
     </row>
-    <row r="259" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="58">
         <v>257</v>
       </c>
-      <c r="B259" s="127" t="s">
-        <v>1043</v>
+      <c r="B259" s="126" t="s">
+        <v>58</v>
       </c>
       <c r="C259" s="58" t="s">
         <v>282</v>
       </c>
       <c r="D259" s="58" t="s">
-        <v>215</v>
+        <v>479</v>
       </c>
       <c r="E259" s="17"/>
     </row>
-    <row r="260" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A260" s="58">
         <v>258</v>
       </c>
-      <c r="B260" s="119" t="s">
-        <v>1044</v>
+      <c r="B260" s="127" t="s">
+        <v>1043</v>
       </c>
       <c r="C260" s="58" t="s">
-        <v>554</v>
+        <v>282</v>
       </c>
       <c r="D260" s="58" t="s">
-        <v>682</v>
+        <v>215</v>
       </c>
       <c r="E260" s="17"/>
     </row>
-    <row r="261" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="58">
         <v>259</v>
       </c>
-      <c r="B261" s="128" t="s">
-        <v>1045</v>
+      <c r="B261" s="119" t="s">
+        <v>1044</v>
       </c>
       <c r="C261" s="58" t="s">
-        <v>320</v>
+        <v>554</v>
       </c>
       <c r="D261" s="58" t="s">
-        <v>494</v>
+        <v>682</v>
       </c>
       <c r="E261" s="17"/>
     </row>
-    <row r="262" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="58">
         <v>260</v>
       </c>
-      <c r="B262" s="119" t="s">
-        <v>1046</v>
+      <c r="B262" s="128" t="s">
+        <v>1045</v>
       </c>
       <c r="C262" s="58" t="s">
-        <v>554</v>
+        <v>320</v>
       </c>
       <c r="D262" s="58" t="s">
-        <v>682</v>
+        <v>494</v>
       </c>
       <c r="E262" s="17"/>
     </row>
-    <row r="263" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A263" s="58">
         <v>261</v>
       </c>
-      <c r="B263" s="126" t="s">
-        <v>96</v>
+      <c r="B263" s="119" t="s">
+        <v>1046</v>
       </c>
       <c r="C263" s="58" t="s">
-        <v>282</v>
+        <v>554</v>
       </c>
       <c r="D263" s="58" t="s">
-        <v>479</v>
+        <v>682</v>
       </c>
       <c r="E263" s="17"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="58">
         <v>262</v>
       </c>
-      <c r="B264" s="128" t="s">
-        <v>1047</v>
+      <c r="B264" s="126" t="s">
+        <v>96</v>
       </c>
       <c r="C264" s="58" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="D264" s="58" t="s">
-        <v>194</v>
+        <v>479</v>
       </c>
       <c r="E264" s="17"/>
     </row>
-    <row r="265" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="58">
         <v>263</v>
       </c>
-      <c r="B265" s="119" t="s">
-        <v>1048</v>
+      <c r="B265" s="128" t="s">
+        <v>1047</v>
       </c>
       <c r="C265" s="58" t="s">
-        <v>554</v>
+        <v>320</v>
       </c>
       <c r="D265" s="58" t="s">
-        <v>845</v>
+        <v>194</v>
       </c>
       <c r="E265" s="17"/>
     </row>
-    <row r="266" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A266" s="58">
         <v>264</v>
       </c>
       <c r="B266" s="119" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C266" s="58" t="s">
-        <v>320</v>
+        <v>554</v>
       </c>
       <c r="D266" s="58" t="s">
-        <v>144</v>
+        <v>845</v>
       </c>
       <c r="E266" s="17"/>
     </row>
-    <row r="267" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="58">
         <v>265</v>
       </c>
-      <c r="B267" s="128" t="s">
-        <v>1050</v>
+      <c r="B267" s="119" t="s">
+        <v>1049</v>
       </c>
       <c r="C267" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D267" s="58" t="s">
-        <v>270</v>
+        <v>144</v>
       </c>
       <c r="E267" s="17"/>
     </row>
-    <row r="268" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="58">
         <v>266</v>
       </c>
       <c r="B268" s="128" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C268" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D268" s="58" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="E268" s="17"/>
     </row>
-    <row r="269" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="58">
         <v>267</v>
       </c>
-      <c r="B269" s="119" t="s">
-        <v>1052</v>
+      <c r="B269" s="128" t="s">
+        <v>1051</v>
       </c>
       <c r="C269" s="58" t="s">
-        <v>554</v>
+        <v>320</v>
       </c>
       <c r="D269" s="58" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="E269" s="17"/>
     </row>
-    <row r="270" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A270" s="58">
         <v>268</v>
       </c>
       <c r="B270" s="119" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C270" s="58" t="s">
-        <v>282</v>
+        <v>554</v>
       </c>
       <c r="D270" s="58" t="s">
         <v>144</v>
       </c>
       <c r="E270" s="17"/>
     </row>
-    <row r="271" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A271" s="58">
         <v>269</v>
       </c>
       <c r="B271" s="119" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C271" s="58" t="s">
-        <v>554</v>
+        <v>282</v>
       </c>
       <c r="D271" s="58" t="s">
-        <v>494</v>
+        <v>144</v>
       </c>
       <c r="E271" s="17"/>
     </row>
-    <row r="272" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="58">
         <v>270</v>
       </c>
-      <c r="B272" s="128" t="s">
-        <v>761</v>
+      <c r="B272" s="119" t="s">
+        <v>1054</v>
       </c>
       <c r="C272" s="58" t="s">
-        <v>798</v>
+        <v>554</v>
       </c>
       <c r="D272" s="58" t="s">
         <v>494</v>
       </c>
       <c r="E272" s="17"/>
     </row>
-    <row r="273" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="58">
         <v>271</v>
       </c>
-      <c r="B273" s="126" t="s">
-        <v>1055</v>
+      <c r="B273" s="128" t="s">
+        <v>761</v>
       </c>
       <c r="C273" s="58" t="s">
-        <v>320</v>
+        <v>798</v>
       </c>
       <c r="D273" s="58" t="s">
-        <v>194</v>
+        <v>494</v>
       </c>
       <c r="E273" s="17"/>
     </row>
-    <row r="274" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A274" s="58">
         <v>272</v>
       </c>
-      <c r="B274" s="119" t="s">
-        <v>1056</v>
+      <c r="B274" s="126" t="s">
+        <v>1055</v>
       </c>
       <c r="C274" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D274" s="60" t="s">
-        <v>846</v>
+      <c r="D274" s="58" t="s">
+        <v>194</v>
       </c>
       <c r="E274" s="17"/>
     </row>
-    <row r="275" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="58">
         <v>273</v>
       </c>
-      <c r="B275" s="84" t="s">
-        <v>1057</v>
+      <c r="B275" s="119" t="s">
+        <v>1056</v>
       </c>
       <c r="C275" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D275" s="58" t="s">
-        <v>479</v>
+        <v>320</v>
+      </c>
+      <c r="D275" s="60" t="s">
+        <v>846</v>
       </c>
       <c r="E275" s="17"/>
     </row>
-    <row r="276" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="58">
         <v>274</v>
       </c>
-      <c r="B276" s="126" t="s">
-        <v>775</v>
+      <c r="B276" s="84" t="s">
+        <v>1057</v>
       </c>
       <c r="C276" s="58" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D276" s="58" t="s">
         <v>479</v>
       </c>
       <c r="E276" s="17"/>
     </row>
-    <row r="277" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="46">
+    <row r="277" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A277" s="58">
         <v>275</v>
       </c>
-      <c r="B277" s="133" t="s">
-        <v>68</v>
-      </c>
-      <c r="C277" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="D277" s="46"/>
-      <c r="E277" s="32"/>
-    </row>
-    <row r="278" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B277" s="126" t="s">
+        <v>775</v>
+      </c>
+      <c r="C277" s="58" t="s">
+        <v>798</v>
+      </c>
+      <c r="D277" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E277" s="17"/>
+    </row>
+    <row r="278" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="58">
         <v>276</v>
       </c>
-      <c r="B278" s="126" t="s">
-        <v>783</v>
-      </c>
-      <c r="C278" s="58" t="s">
-        <v>798</v>
-      </c>
-      <c r="D278" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="E278" s="17"/>
-    </row>
-    <row r="279" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B278" s="133" t="s">
+        <v>68</v>
+      </c>
+      <c r="C278" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="D278" s="46"/>
+      <c r="E278" s="32"/>
+    </row>
+    <row r="279" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="58">
         <v>277</v>
       </c>
       <c r="B279" s="126" t="s">
-        <v>69</v>
+        <v>783</v>
       </c>
       <c r="C279" s="58" t="s">
-        <v>282</v>
+        <v>798</v>
       </c>
       <c r="D279" s="58" t="s">
         <v>479</v>
       </c>
       <c r="E279" s="17"/>
     </row>
-    <row r="280" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="58">
         <v>278</v>
       </c>
-      <c r="B280" s="130" t="s">
-        <v>1058</v>
+      <c r="B280" s="126" t="s">
+        <v>69</v>
       </c>
       <c r="C280" s="58" t="s">
         <v>282</v>
@@ -63942,104 +61969,104 @@
       <c r="A281" s="58">
         <v>279</v>
       </c>
-      <c r="B281" s="127" t="s">
-        <v>85</v>
+      <c r="B281" s="130" t="s">
+        <v>1058</v>
       </c>
       <c r="C281" s="58" t="s">
         <v>282</v>
       </c>
       <c r="D281" s="58" t="s">
-        <v>270</v>
+        <v>479</v>
       </c>
       <c r="E281" s="17"/>
     </row>
-    <row r="282" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A282" s="58">
         <v>280</v>
       </c>
       <c r="B282" s="127" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C282" s="58" t="s">
         <v>282</v>
       </c>
       <c r="D282" s="58" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E282" s="17"/>
     </row>
-    <row r="283" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="58">
         <v>281</v>
       </c>
-      <c r="B283" s="128" t="s">
+      <c r="B283" s="127" t="s">
+        <v>84</v>
+      </c>
+      <c r="C283" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D283" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="E283" s="17"/>
+    </row>
+    <row r="284" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="58">
+        <v>282</v>
+      </c>
+      <c r="B284" s="128" t="s">
         <v>778</v>
       </c>
-      <c r="C283" s="58" t="s">
+      <c r="C284" s="58" t="s">
         <v>798</v>
       </c>
-      <c r="D283" s="58" t="s">
+      <c r="D284" s="58" t="s">
         <v>856</v>
       </c>
-      <c r="E283" s="17"/>
-    </row>
-    <row r="284" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A284" s="58">
-        <v>282</v>
-      </c>
-      <c r="B284" s="119" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C284" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D284" s="58" t="s">
-        <v>270</v>
-      </c>
       <c r="E284" s="17"/>
     </row>
-    <row r="285" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A285" s="58">
         <v>283</v>
       </c>
-      <c r="B285" s="128" t="s">
-        <v>1112</v>
+      <c r="B285" s="119" t="s">
+        <v>1059</v>
       </c>
       <c r="C285" s="58" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="D285" s="58" t="s">
-        <v>1111</v>
+        <v>270</v>
       </c>
       <c r="E285" s="17"/>
     </row>
-    <row r="286" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="58">
         <v>284</v>
       </c>
       <c r="B286" s="128" t="s">
-        <v>324</v>
+        <v>1112</v>
       </c>
       <c r="C286" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D286" s="58" t="s">
-        <v>194</v>
+        <v>1111</v>
       </c>
       <c r="E286" s="17"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="58">
         <v>285</v>
       </c>
-      <c r="B287" s="135" t="s">
-        <v>781</v>
+      <c r="B287" s="128" t="s">
+        <v>324</v>
       </c>
       <c r="C287" s="58" t="s">
-        <v>798</v>
+        <v>320</v>
       </c>
       <c r="D287" s="58" t="s">
-        <v>479</v>
+        <v>194</v>
       </c>
       <c r="E287" s="17"/>
     </row>
@@ -64047,89 +62074,89 @@
       <c r="A288" s="58">
         <v>286</v>
       </c>
-      <c r="B288" s="127" t="s">
-        <v>13</v>
+      <c r="B288" s="135" t="s">
+        <v>781</v>
       </c>
       <c r="C288" s="58" t="s">
-        <v>282</v>
+        <v>798</v>
       </c>
       <c r="D288" s="58" t="s">
-        <v>267</v>
+        <v>479</v>
       </c>
       <c r="E288" s="17"/>
     </row>
-    <row r="289" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="58">
         <v>287</v>
       </c>
-      <c r="B289" s="126" t="s">
-        <v>753</v>
+      <c r="B289" s="127" t="s">
+        <v>13</v>
       </c>
       <c r="C289" s="58" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D289" s="58" t="s">
-        <v>479</v>
+        <v>267</v>
       </c>
       <c r="E289" s="17"/>
     </row>
-    <row r="290" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="58">
         <v>288</v>
       </c>
-      <c r="B290" s="119" t="s">
-        <v>1060</v>
+      <c r="B290" s="126" t="s">
+        <v>753</v>
       </c>
       <c r="C290" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D290" s="17" t="s">
-        <v>682</v>
+        <v>798</v>
+      </c>
+      <c r="D290" s="58" t="s">
+        <v>479</v>
       </c>
       <c r="E290" s="17"/>
     </row>
-    <row r="291" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A291" s="58">
         <v>289</v>
       </c>
-      <c r="B291" s="126" t="s">
-        <v>59</v>
+      <c r="B291" s="119" t="s">
+        <v>1060</v>
       </c>
       <c r="C291" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D291" s="58" t="s">
-        <v>479</v>
+        <v>554</v>
+      </c>
+      <c r="D291" s="17" t="s">
+        <v>682</v>
       </c>
       <c r="E291" s="17"/>
     </row>
-    <row r="292" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="58">
         <v>290</v>
       </c>
       <c r="B292" s="126" t="s">
-        <v>754</v>
+        <v>59</v>
       </c>
       <c r="C292" s="58" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D292" s="58" t="s">
         <v>479</v>
       </c>
       <c r="E292" s="17"/>
     </row>
-    <row r="293" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="58">
         <v>291</v>
       </c>
-      <c r="B293" s="119" t="s">
-        <v>1061</v>
+      <c r="B293" s="126" t="s">
+        <v>754</v>
       </c>
       <c r="C293" s="58" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D293" s="58" t="s">
-        <v>270</v>
+        <v>479</v>
       </c>
       <c r="E293" s="17"/>
     </row>
@@ -64137,29 +62164,29 @@
       <c r="A294" s="58">
         <v>292</v>
       </c>
-      <c r="B294" s="128" t="s">
-        <v>1110</v>
+      <c r="B294" s="119" t="s">
+        <v>1061</v>
       </c>
       <c r="C294" s="58" t="s">
-        <v>320</v>
+        <v>554</v>
       </c>
       <c r="D294" s="58" t="s">
-        <v>1109</v>
+        <v>270</v>
       </c>
       <c r="E294" s="17"/>
     </row>
-    <row r="295" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="58">
         <v>293</v>
       </c>
-      <c r="B295" s="119" t="s">
-        <v>1062</v>
+      <c r="B295" s="128" t="s">
+        <v>1110</v>
       </c>
       <c r="C295" s="58" t="s">
-        <v>554</v>
+        <v>320</v>
       </c>
       <c r="D295" s="58" t="s">
-        <v>194</v>
+        <v>1109</v>
       </c>
       <c r="E295" s="17"/>
     </row>
@@ -64167,70 +62194,70 @@
       <c r="A296" s="58">
         <v>294</v>
       </c>
-      <c r="B296" s="84" t="s">
-        <v>768</v>
+      <c r="B296" s="119" t="s">
+        <v>1062</v>
       </c>
       <c r="C296" s="58" t="s">
-        <v>798</v>
+        <v>554</v>
       </c>
       <c r="D296" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="E296" s="17" t="s">
-        <v>847</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="E296" s="17"/>
     </row>
     <row r="297" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A297" s="58">
         <v>295</v>
       </c>
-      <c r="B297" s="119" t="s">
-        <v>1063</v>
+      <c r="B297" s="84" t="s">
+        <v>768</v>
       </c>
       <c r="C297" s="58" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D297" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="E297" s="17"/>
+        <v>479</v>
+      </c>
+      <c r="E297" s="17" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="298" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A298" s="58">
         <v>296</v>
       </c>
-      <c r="B298" s="127" t="s">
-        <v>1064</v>
+      <c r="B298" s="119" t="s">
+        <v>1063</v>
       </c>
       <c r="C298" s="58" t="s">
-        <v>282</v>
+        <v>554</v>
       </c>
       <c r="D298" s="58" t="s">
-        <v>845</v>
+        <v>144</v>
       </c>
       <c r="E298" s="17"/>
     </row>
-    <row r="299" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A299" s="58">
         <v>297</v>
       </c>
-      <c r="B299" s="84" t="s">
-        <v>1065</v>
+      <c r="B299" s="127" t="s">
+        <v>1064</v>
       </c>
       <c r="C299" s="58" t="s">
-        <v>554</v>
+        <v>282</v>
       </c>
       <c r="D299" s="58" t="s">
-        <v>479</v>
+        <v>845</v>
       </c>
       <c r="E299" s="17"/>
     </row>
-    <row r="300" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="58">
         <v>298</v>
       </c>
       <c r="B300" s="84" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C300" s="58" t="s">
         <v>554</v>
@@ -64244,83 +62271,83 @@
       <c r="A301" s="58">
         <v>299</v>
       </c>
-      <c r="B301" s="119" t="s">
-        <v>1067</v>
+      <c r="B301" s="84" t="s">
+        <v>1066</v>
       </c>
       <c r="C301" s="58" t="s">
         <v>554</v>
       </c>
       <c r="D301" s="58" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="E301" s="17"/>
     </row>
-    <row r="302" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A302" s="58">
         <v>300</v>
       </c>
-      <c r="B302" s="128" t="s">
-        <v>1068</v>
+      <c r="B302" s="119" t="s">
+        <v>1067</v>
       </c>
       <c r="C302" s="58" t="s">
-        <v>320</v>
+        <v>554</v>
       </c>
       <c r="D302" s="58" t="s">
-        <v>682</v>
+        <v>494</v>
       </c>
       <c r="E302" s="17"/>
     </row>
-    <row r="303" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="58">
         <v>301</v>
       </c>
-      <c r="B303" s="127" t="s">
-        <v>1069</v>
+      <c r="B303" s="128" t="s">
+        <v>1068</v>
       </c>
       <c r="C303" s="58" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D303" s="58" t="s">
-        <v>212</v>
+        <v>682</v>
       </c>
       <c r="E303" s="17"/>
     </row>
-    <row r="304" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="58">
         <v>302</v>
       </c>
-      <c r="B304" s="119" t="s">
-        <v>1070</v>
+      <c r="B304" s="127" t="s">
+        <v>1069</v>
       </c>
       <c r="C304" s="58" t="s">
         <v>282</v>
       </c>
       <c r="D304" s="58" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="E304" s="17"/>
     </row>
-    <row r="305" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="58">
         <v>303</v>
       </c>
-      <c r="B305" s="130" t="s">
-        <v>1071</v>
+      <c r="B305" s="119" t="s">
+        <v>1070</v>
       </c>
       <c r="C305" s="58" t="s">
         <v>282</v>
       </c>
       <c r="D305" s="58" t="s">
-        <v>479</v>
+        <v>226</v>
       </c>
       <c r="E305" s="17"/>
     </row>
-    <row r="306" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="58">
         <v>304</v>
       </c>
-      <c r="B306" s="84" t="s">
-        <v>1072</v>
+      <c r="B306" s="130" t="s">
+        <v>1071</v>
       </c>
       <c r="C306" s="58" t="s">
         <v>282</v>
@@ -64330,78 +62357,78 @@
       </c>
       <c r="E306" s="17"/>
     </row>
-    <row r="307" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="58">
         <v>305</v>
       </c>
-      <c r="B307" s="119" t="s">
-        <v>1073</v>
+      <c r="B307" s="84" t="s">
+        <v>1072</v>
       </c>
       <c r="C307" s="58" t="s">
-        <v>554</v>
+        <v>282</v>
       </c>
       <c r="D307" s="58" t="s">
-        <v>194</v>
+        <v>479</v>
       </c>
       <c r="E307" s="17"/>
     </row>
-    <row r="308" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="58">
         <v>306</v>
       </c>
-      <c r="B308" s="127" t="s">
-        <v>1074</v>
+      <c r="B308" s="119" t="s">
+        <v>1073</v>
       </c>
       <c r="C308" s="58" t="s">
-        <v>282</v>
+        <v>554</v>
       </c>
       <c r="D308" s="58" t="s">
         <v>194</v>
       </c>
       <c r="E308" s="17"/>
     </row>
-    <row r="309" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="58">
         <v>307</v>
       </c>
-      <c r="B309" s="128" t="s">
-        <v>1075</v>
+      <c r="B309" s="127" t="s">
+        <v>1074</v>
       </c>
       <c r="C309" s="58" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="D309" s="58" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c r="E309" s="17"/>
     </row>
-    <row r="310" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="58">
         <v>308</v>
       </c>
       <c r="B310" s="128" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C310" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D310" s="58" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="E310" s="17"/>
     </row>
-    <row r="311" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="58">
         <v>309</v>
       </c>
-      <c r="B311" s="126" t="s">
-        <v>1077</v>
+      <c r="B311" s="128" t="s">
+        <v>1076</v>
       </c>
       <c r="C311" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D311" s="58" t="s">
-        <v>479</v>
+        <v>194</v>
       </c>
       <c r="E311" s="17"/>
     </row>
@@ -64409,29 +62436,29 @@
       <c r="A312" s="58">
         <v>310</v>
       </c>
-      <c r="B312" s="134" t="s">
-        <v>1078</v>
+      <c r="B312" s="126" t="s">
+        <v>1077</v>
       </c>
       <c r="C312" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D312" s="58" t="s">
-        <v>194</v>
+        <v>479</v>
       </c>
       <c r="E312" s="17"/>
     </row>
-    <row r="313" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="58">
         <v>311</v>
       </c>
-      <c r="B313" s="119" t="s">
-        <v>1079</v>
+      <c r="B313" s="134" t="s">
+        <v>1078</v>
       </c>
       <c r="C313" s="58" t="s">
-        <v>554</v>
+        <v>320</v>
       </c>
       <c r="D313" s="58" t="s">
-        <v>494</v>
+        <v>194</v>
       </c>
       <c r="E313" s="17"/>
     </row>
@@ -64439,14 +62466,14 @@
       <c r="A314" s="58">
         <v>312</v>
       </c>
-      <c r="B314" s="84" t="s">
-        <v>1080</v>
+      <c r="B314" s="119" t="s">
+        <v>1079</v>
       </c>
       <c r="C314" s="58" t="s">
-        <v>320</v>
+        <v>554</v>
       </c>
       <c r="D314" s="58" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="E314" s="17"/>
     </row>
@@ -64454,14 +62481,14 @@
       <c r="A315" s="58">
         <v>313</v>
       </c>
-      <c r="B315" s="119" t="s">
-        <v>1081</v>
+      <c r="B315" s="84" t="s">
+        <v>1080</v>
       </c>
       <c r="C315" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D315" s="33" t="s">
-        <v>848</v>
+        <v>320</v>
+      </c>
+      <c r="D315" s="58" t="s">
+        <v>479</v>
       </c>
       <c r="E315" s="17"/>
     </row>
@@ -64470,117 +62497,117 @@
         <v>314</v>
       </c>
       <c r="B316" s="119" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C316" s="58" t="s">
         <v>554</v>
       </c>
-      <c r="D316" s="58" t="s">
-        <v>144</v>
+      <c r="D316" s="33" t="s">
+        <v>848</v>
       </c>
       <c r="E316" s="17"/>
     </row>
-    <row r="317" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A317" s="58">
         <v>315</v>
       </c>
-      <c r="B317" s="127" t="s">
-        <v>1083</v>
+      <c r="B317" s="119" t="s">
+        <v>1082</v>
       </c>
       <c r="C317" s="58" t="s">
-        <v>282</v>
+        <v>554</v>
       </c>
       <c r="D317" s="58" t="s">
-        <v>840</v>
+        <v>144</v>
       </c>
       <c r="E317" s="17"/>
     </row>
-    <row r="318" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="58">
         <v>316</v>
       </c>
-      <c r="B318" s="84" t="s">
-        <v>188</v>
+      <c r="B318" s="127" t="s">
+        <v>1083</v>
       </c>
       <c r="C318" s="58" t="s">
         <v>282</v>
       </c>
       <c r="D318" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="E318" s="58" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+      <c r="E318" s="17"/>
+    </row>
+    <row r="319" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="58">
         <v>317</v>
       </c>
-      <c r="B319" s="119" t="s">
-        <v>1084</v>
+      <c r="B319" s="84" t="s">
+        <v>188</v>
       </c>
       <c r="C319" s="58" t="s">
-        <v>554</v>
+        <v>282</v>
       </c>
       <c r="D319" s="58" t="s">
-        <v>840</v>
-      </c>
-      <c r="E319" s="17"/>
-    </row>
-    <row r="320" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+      <c r="E319" s="58" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="58">
         <v>318</v>
       </c>
       <c r="B320" s="119" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C320" s="58" t="s">
         <v>554</v>
       </c>
       <c r="D320" s="58" t="s">
-        <v>194</v>
+        <v>840</v>
       </c>
       <c r="E320" s="17"/>
     </row>
-    <row r="321" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="58">
         <v>319</v>
       </c>
-      <c r="B321" s="84" t="s">
-        <v>1086</v>
+      <c r="B321" s="119" t="s">
+        <v>1085</v>
       </c>
       <c r="C321" s="58" t="s">
         <v>554</v>
       </c>
       <c r="D321" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E321" s="17"/>
+    </row>
+    <row r="322" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="58">
+        <v>320</v>
+      </c>
+      <c r="B322" s="84" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C322" s="58" t="s">
+        <v>554</v>
+      </c>
+      <c r="D322" s="58" t="s">
         <v>682</v>
       </c>
-      <c r="E321" s="17"/>
-    </row>
-    <row r="322" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A322" s="58">
-        <v>320</v>
-      </c>
-      <c r="B322" s="126" t="s">
-        <v>95</v>
-      </c>
-      <c r="C322" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D322" s="58" t="s">
-        <v>479</v>
-      </c>
       <c r="E322" s="17"/>
     </row>
-    <row r="323" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="58">
         <v>321</v>
       </c>
-      <c r="B323" s="84" t="s">
-        <v>1087</v>
+      <c r="B323" s="126" t="s">
+        <v>95</v>
       </c>
       <c r="C323" s="58" t="s">
-        <v>554</v>
+        <v>282</v>
       </c>
       <c r="D323" s="58" t="s">
         <v>479</v>
@@ -64591,68 +62618,68 @@
       <c r="A324" s="58">
         <v>322</v>
       </c>
-      <c r="B324" s="127" t="s">
-        <v>1088</v>
+      <c r="B324" s="84" t="s">
+        <v>1087</v>
       </c>
       <c r="C324" s="58" t="s">
-        <v>282</v>
+        <v>554</v>
       </c>
       <c r="D324" s="58" t="s">
-        <v>144</v>
+        <v>479</v>
       </c>
       <c r="E324" s="17"/>
     </row>
-    <row r="325" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A325" s="58">
         <v>323</v>
       </c>
-      <c r="B325" s="134" t="s">
-        <v>730</v>
+      <c r="B325" s="127" t="s">
+        <v>1088</v>
       </c>
       <c r="C325" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D325" s="60" t="s">
-        <v>1108</v>
+        <v>282</v>
+      </c>
+      <c r="D325" s="58" t="s">
+        <v>144</v>
       </c>
       <c r="E325" s="17"/>
     </row>
-    <row r="326" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A326" s="58">
         <v>324</v>
       </c>
-      <c r="B326" s="119" t="s">
-        <v>1089</v>
+      <c r="B326" s="134" t="s">
+        <v>730</v>
       </c>
       <c r="C326" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D326" s="58" t="s">
-        <v>194</v>
+        <v>320</v>
+      </c>
+      <c r="D326" s="60" t="s">
+        <v>1108</v>
       </c>
       <c r="E326" s="17"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="58">
         <v>325</v>
       </c>
-      <c r="B327" s="132" t="s">
-        <v>1090</v>
+      <c r="B327" s="119" t="s">
+        <v>1089</v>
       </c>
       <c r="C327" s="58" t="s">
         <v>282</v>
       </c>
       <c r="D327" s="58" t="s">
-        <v>479</v>
+        <v>194</v>
       </c>
       <c r="E327" s="17"/>
     </row>
-    <row r="328" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="58">
         <v>326</v>
       </c>
-      <c r="B328" s="84" t="s">
-        <v>1091</v>
+      <c r="B328" s="132" t="s">
+        <v>1090</v>
       </c>
       <c r="C328" s="58" t="s">
         <v>282</v>
@@ -64662,12 +62689,12 @@
       </c>
       <c r="E328" s="17"/>
     </row>
-    <row r="329" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A329" s="58">
         <v>327</v>
       </c>
-      <c r="B329" s="126" t="s">
-        <v>80</v>
+      <c r="B329" s="84" t="s">
+        <v>1091</v>
       </c>
       <c r="C329" s="58" t="s">
         <v>282</v>
@@ -64677,110 +62704,110 @@
       </c>
       <c r="E329" s="17"/>
     </row>
-    <row r="330" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A330" s="58">
         <v>328</v>
       </c>
-      <c r="B330" s="119" t="s">
-        <v>1092</v>
+      <c r="B330" s="126" t="s">
+        <v>80</v>
       </c>
       <c r="C330" s="58" t="s">
-        <v>554</v>
+        <v>282</v>
       </c>
       <c r="D330" s="58" t="s">
-        <v>144</v>
+        <v>479</v>
       </c>
       <c r="E330" s="17"/>
     </row>
-    <row r="331" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="58">
         <v>329</v>
       </c>
       <c r="B331" s="119" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C331" s="58" t="s">
-        <v>282</v>
+        <v>554</v>
       </c>
       <c r="D331" s="58" t="s">
-        <v>848</v>
+        <v>144</v>
       </c>
       <c r="E331" s="17"/>
     </row>
-    <row r="332" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A332" s="58">
         <v>330</v>
       </c>
-      <c r="B332" s="127" t="s">
-        <v>1094</v>
+      <c r="B332" s="119" t="s">
+        <v>1093</v>
       </c>
       <c r="C332" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D332" s="33" t="s">
-        <v>248</v>
+      <c r="D332" s="58" t="s">
+        <v>848</v>
       </c>
       <c r="E332" s="17"/>
     </row>
-    <row r="333" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="58">
         <v>331</v>
       </c>
-      <c r="B333" s="129" t="s">
-        <v>726</v>
+      <c r="B333" s="127" t="s">
+        <v>1094</v>
       </c>
       <c r="C333" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D333" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="E333" s="58" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="D333" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="E333" s="17"/>
+    </row>
+    <row r="334" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A334" s="58">
         <v>332</v>
       </c>
-      <c r="B334" s="139" t="s">
-        <v>1106</v>
+      <c r="B334" s="129" t="s">
+        <v>726</v>
       </c>
       <c r="C334" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D334" s="60" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E334" s="17"/>
-    </row>
-    <row r="335" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="D334" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E334" s="58" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="58">
         <v>333</v>
       </c>
-      <c r="B335" s="119" t="s">
-        <v>1095</v>
+      <c r="B335" s="139" t="s">
+        <v>1106</v>
       </c>
       <c r="C335" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D335" s="58" t="s">
-        <v>194</v>
+        <v>282</v>
+      </c>
+      <c r="D335" s="60" t="s">
+        <v>1105</v>
       </c>
       <c r="E335" s="17"/>
     </row>
-    <row r="336" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A336" s="58">
         <v>334</v>
       </c>
-      <c r="B336" s="128" t="s">
-        <v>1096</v>
+      <c r="B336" s="119" t="s">
+        <v>1095</v>
       </c>
       <c r="C336" s="58" t="s">
-        <v>320</v>
+        <v>554</v>
       </c>
       <c r="D336" s="58" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="E336" s="17"/>
     </row>
@@ -64789,7 +62816,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="128" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C337" s="58" t="s">
         <v>320</v>
@@ -64799,33 +62826,33 @@
       </c>
       <c r="E337" s="17"/>
     </row>
-    <row r="338" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A338" s="58">
         <v>336</v>
       </c>
-      <c r="B338" s="136" t="s">
-        <v>137</v>
+      <c r="B338" s="128" t="s">
+        <v>1097</v>
       </c>
       <c r="C338" s="58" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D338" s="58" t="s">
-        <v>479</v>
+        <v>144</v>
       </c>
       <c r="E338" s="17"/>
     </row>
-    <row r="339" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="58">
         <v>337</v>
       </c>
-      <c r="B339" s="119" t="s">
-        <v>1098</v>
+      <c r="B339" s="136" t="s">
+        <v>137</v>
       </c>
       <c r="C339" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D339" s="17" t="s">
-        <v>278</v>
+      <c r="D339" s="58" t="s">
+        <v>479</v>
       </c>
       <c r="E339" s="17"/>
     </row>
@@ -64834,45 +62861,60 @@
         <v>338</v>
       </c>
       <c r="B340" s="119" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C340" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D340" s="58" t="s">
-        <v>850</v>
+        <v>282</v>
+      </c>
+      <c r="D340" s="17" t="s">
+        <v>278</v>
       </c>
       <c r="E340" s="17"/>
     </row>
-    <row r="341" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A341" s="58">
         <v>339</v>
       </c>
-      <c r="B341" s="128" t="s">
-        <v>1100</v>
+      <c r="B341" s="119" t="s">
+        <v>1099</v>
       </c>
       <c r="C341" s="58" t="s">
-        <v>320</v>
+        <v>554</v>
       </c>
       <c r="D341" s="58" t="s">
-        <v>194</v>
+        <v>850</v>
       </c>
       <c r="E341" s="17"/>
     </row>
-    <row r="342" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A342" s="58">
         <v>340</v>
       </c>
-      <c r="B342" s="84" t="s">
+      <c r="B342" s="128" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C342" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D342" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E342" s="17"/>
+    </row>
+    <row r="343" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A343" s="58">
+        <v>341</v>
+      </c>
+      <c r="B343" s="84" t="s">
         <v>1101</v>
       </c>
-      <c r="C342" s="58" t="s">
+      <c r="C343" s="58" t="s">
         <v>554</v>
       </c>
-      <c r="D342" s="58" t="s">
+      <c r="D343" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="E342" s="17"/>
+      <c r="E343" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -64886,27 +62928,26 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
     <col min="2" max="2" width="100.42578125" style="137" customWidth="1"/>
-    <col min="3" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="12" customWidth="1"/>
     <col min="6" max="6" width="40.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" style="12" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="124" t="s">
-        <v>819</v>
-      </c>
+      <c r="B1" s="124"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
@@ -64927,1938 +62968,2100 @@
       <c r="F2" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="45" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="126" t="s">
+      <c r="A3" s="47">
+        <v>1</v>
+      </c>
+      <c r="B3" s="145" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F3" s="43"/>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47">
+        <v>2</v>
+      </c>
+      <c r="B4" s="145" t="s">
+        <v>992</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="47"/>
+    </row>
+    <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="47">
+        <v>3</v>
+      </c>
+      <c r="B5" s="151" t="s">
+        <v>517</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="47"/>
+    </row>
+    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="47">
+        <v>4</v>
+      </c>
+      <c r="B6" s="145" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="47"/>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="58">
+        <v>5</v>
+      </c>
+      <c r="B7" s="146" t="s">
+        <v>908</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="58">
+        <v>6</v>
+      </c>
+      <c r="B8" s="155" t="s">
+        <v>917</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="58">
+        <v>7</v>
+      </c>
+      <c r="B9" s="144" t="s">
+        <v>918</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="58">
+        <v>8</v>
+      </c>
+      <c r="B10" s="146" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="58">
+        <v>9</v>
+      </c>
+      <c r="B11" s="146" t="s">
+        <v>981</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="58">
+        <v>10</v>
+      </c>
+      <c r="B12" s="144" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58">
+        <v>11</v>
+      </c>
+      <c r="B13" s="146" t="s">
+        <v>914</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="58">
+        <v>12</v>
+      </c>
+      <c r="B14" s="144" t="s">
+        <v>864</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="58">
+        <v>13</v>
+      </c>
+      <c r="B15" s="146" t="s">
+        <v>926</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="58">
+        <v>14</v>
+      </c>
+      <c r="B16" s="144" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="58">
+        <v>15</v>
+      </c>
+      <c r="B17" s="146" t="s">
+        <v>870</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F17" s="61" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="58">
+        <v>16</v>
+      </c>
+      <c r="B18" s="146" t="s">
+        <v>886</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="58">
+        <v>17</v>
+      </c>
+      <c r="B19" s="155" t="s">
+        <v>518</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G19" s="47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="58">
+        <v>18</v>
+      </c>
+      <c r="B20" s="150" t="s">
+        <v>919</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D20" s="61" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="58">
+        <v>19</v>
+      </c>
+      <c r="B21" s="144" t="s">
+        <v>952</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F21" s="159" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="58">
+        <v>20</v>
+      </c>
+      <c r="B22" s="145" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D22" s="61" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F22" s="43"/>
+      <c r="G22" s="61" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="58">
+        <v>21</v>
+      </c>
+      <c r="B23" s="160" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D23" s="61" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F23" s="161" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="58">
+        <v>22</v>
+      </c>
+      <c r="B24" s="146" t="s">
+        <v>923</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D24" s="61" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E24" s="58" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F24" s="61" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="47"/>
+      <c r="B25" s="144" t="s">
         <v>863</v>
       </c>
-      <c r="C3" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58" t="s">
+      <c r="C25" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="126" t="s">
-        <v>864</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58" t="s">
+      <c r="F25" s="43"/>
+      <c r="G25" s="47"/>
+    </row>
+    <row r="26" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="47"/>
+      <c r="B26" s="144" t="s">
+        <v>877</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="84" t="s">
+      <c r="F26" s="43"/>
+      <c r="G26" s="47"/>
+    </row>
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="47"/>
+      <c r="B27" s="144" t="s">
+        <v>889</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F27" s="43"/>
+      <c r="G27" s="47"/>
+    </row>
+    <row r="28" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="47"/>
+      <c r="B28" s="144" t="s">
+        <v>894</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G28" s="47"/>
+    </row>
+    <row r="29" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A29" s="47"/>
+      <c r="B29" s="144" t="s">
+        <v>895</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F29" s="43"/>
+      <c r="G29" s="47"/>
+    </row>
+    <row r="30" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="47"/>
+      <c r="B30" s="145" t="s">
+        <v>906</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F30" s="43"/>
+      <c r="G30" s="47"/>
+    </row>
+    <row r="31" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="47"/>
+      <c r="B31" s="146" t="s">
+        <v>724</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F31" s="53" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G31" s="61"/>
+    </row>
+    <row r="32" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A32" s="47"/>
+      <c r="B32" s="144" t="s">
+        <v>363</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F32" s="43"/>
+      <c r="G32" s="47"/>
+    </row>
+    <row r="33" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A33" s="47"/>
+      <c r="B33" s="148" t="s">
+        <v>721</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F33" s="53" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G33" s="61"/>
+    </row>
+    <row r="34" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="47"/>
+      <c r="B34" s="145" t="s">
+        <v>921</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F34" s="43"/>
+      <c r="G34" s="47"/>
+    </row>
+    <row r="35" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="47"/>
+      <c r="B35" s="144" t="s">
+        <v>924</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F35" s="43"/>
+      <c r="G35" s="47"/>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="47"/>
+      <c r="B36" s="144" t="s">
+        <v>925</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F36" s="43"/>
+      <c r="G36" s="47"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="47"/>
+      <c r="B37" s="144" t="s">
+        <v>928</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F37" s="43"/>
+      <c r="G37" s="47"/>
+    </row>
+    <row r="38" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="47"/>
+      <c r="B38" s="144" t="s">
+        <v>703</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F38" s="43"/>
+      <c r="G38" s="47"/>
+    </row>
+    <row r="39" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="47"/>
+      <c r="B39" s="144" t="s">
+        <v>936</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F39" s="43"/>
+      <c r="G39" s="47"/>
+    </row>
+    <row r="40" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="47"/>
+      <c r="B40" s="144" t="s">
+        <v>947</v>
+      </c>
+      <c r="C40" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F40" s="61" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G40" s="47"/>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="47"/>
+      <c r="B41" s="144" t="s">
+        <v>950</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F41" s="61" t="s">
+        <v>497</v>
+      </c>
+      <c r="G41" s="61"/>
+    </row>
+    <row r="42" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="47"/>
+      <c r="B42" s="144" t="s">
+        <v>969</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F42" s="43"/>
+      <c r="G42" s="47"/>
+    </row>
+    <row r="43" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="47"/>
+      <c r="B43" s="144" t="s">
+        <v>971</v>
+      </c>
+      <c r="C43" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F43" s="43"/>
+      <c r="G43" s="47"/>
+    </row>
+    <row r="44" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="47"/>
+      <c r="B44" s="145" t="s">
+        <v>975</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F44" s="43"/>
+      <c r="G44" s="47"/>
+    </row>
+    <row r="45" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="47"/>
+      <c r="B45" s="144" t="s">
+        <v>978</v>
+      </c>
+      <c r="C45" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F45" s="43"/>
+      <c r="G45" s="47"/>
+    </row>
+    <row r="46" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="47"/>
+      <c r="B46" s="145" t="s">
+        <v>980</v>
+      </c>
+      <c r="C46" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F46" s="43"/>
+      <c r="G46" s="47"/>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="47"/>
+      <c r="B47" s="144" t="s">
+        <v>990</v>
+      </c>
+      <c r="C47" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F47" s="47" t="s">
+        <v>861</v>
+      </c>
+      <c r="G47" s="47"/>
+    </row>
+    <row r="48" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="47"/>
+      <c r="B48" s="145" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C48" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F48" s="43"/>
+      <c r="G48" s="47"/>
+    </row>
+    <row r="49" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="47"/>
+      <c r="B49" s="144" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F49" s="43"/>
+      <c r="G49" s="47"/>
+    </row>
+    <row r="50" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="47"/>
+      <c r="B50" s="144" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C50" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F50" s="43"/>
+      <c r="G50" s="47"/>
+    </row>
+    <row r="51" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="47"/>
+      <c r="B51" s="144" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C51" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F51" s="43"/>
+      <c r="G51" s="47"/>
+    </row>
+    <row r="52" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="47"/>
+      <c r="B52" s="144" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C52" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F52" s="43"/>
+      <c r="G52" s="47"/>
+    </row>
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="47"/>
+      <c r="B53" s="146" t="s">
+        <v>328</v>
+      </c>
+      <c r="C53" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F53" s="61" t="s">
+        <v>509</v>
+      </c>
+      <c r="G53" s="61"/>
+    </row>
+    <row r="54" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A54" s="47"/>
+      <c r="B54" s="144" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C54" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F54" s="43"/>
+      <c r="G54" s="47"/>
+    </row>
+    <row r="55" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A55" s="47"/>
+      <c r="B55" s="144" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C55" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F55" s="43"/>
+      <c r="G55" s="47"/>
+    </row>
+    <row r="56" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A56" s="47"/>
+      <c r="B56" s="146" t="s">
+        <v>726</v>
+      </c>
+      <c r="C56" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F56" s="47" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G56" s="47"/>
+    </row>
+    <row r="57" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A57" s="47"/>
+      <c r="B57" s="145" t="s">
+        <v>867</v>
+      </c>
+      <c r="C57" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F57" s="43"/>
+      <c r="G57" s="47"/>
+    </row>
+    <row r="58" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A58" s="47"/>
+      <c r="B58" s="145" t="s">
+        <v>879</v>
+      </c>
+      <c r="C58" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F58" s="61" t="s">
+        <v>824</v>
+      </c>
+      <c r="G58" s="61"/>
+    </row>
+    <row r="59" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A59" s="47"/>
+      <c r="B59" s="145" t="s">
+        <v>897</v>
+      </c>
+      <c r="C59" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F59" s="43"/>
+      <c r="G59" s="47"/>
+    </row>
+    <row r="60" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="47"/>
+      <c r="B60" s="145" t="s">
+        <v>902</v>
+      </c>
+      <c r="C60" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F60" s="43"/>
+      <c r="G60" s="47"/>
+    </row>
+    <row r="61" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="47"/>
+      <c r="B61" s="145" t="s">
+        <v>903</v>
+      </c>
+      <c r="C61" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F61" s="43"/>
+      <c r="G61" s="47"/>
+    </row>
+    <row r="62" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="47"/>
+      <c r="B62" s="145" t="s">
+        <v>904</v>
+      </c>
+      <c r="C62" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F62" s="43"/>
+      <c r="G62" s="47"/>
+    </row>
+    <row r="63" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="47"/>
+      <c r="B63" s="147" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F63" s="43"/>
+      <c r="G63" s="47"/>
+    </row>
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="121"/>
+      <c r="B64" s="143" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="121" t="s">
+        <v>282</v>
+      </c>
+      <c r="D64" s="121"/>
+      <c r="E64" s="121"/>
+      <c r="F64" s="122" t="s">
+        <v>835</v>
+      </c>
+      <c r="G64" s="156"/>
+    </row>
+    <row r="65" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="47"/>
+      <c r="B65" s="145" t="s">
+        <v>762</v>
+      </c>
+      <c r="C65" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F65" s="43"/>
+      <c r="G65" s="47"/>
+    </row>
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="47"/>
+      <c r="B66" s="149" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F66" s="43"/>
+      <c r="G66" s="47"/>
+    </row>
+    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="47"/>
+      <c r="B67" s="144" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F67" s="43"/>
+      <c r="G67" s="47"/>
+    </row>
+    <row r="68" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="47"/>
+      <c r="B68" s="145" t="s">
+        <v>927</v>
+      </c>
+      <c r="C68" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F68" s="43"/>
+      <c r="G68" s="47"/>
+    </row>
+    <row r="69" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="47"/>
+      <c r="B69" s="152" t="s">
+        <v>931</v>
+      </c>
+      <c r="C69" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F69" s="43"/>
+      <c r="G69" s="47"/>
+    </row>
+    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="47"/>
+      <c r="B70" s="145" t="s">
+        <v>935</v>
+      </c>
+      <c r="C70" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D70" s="47"/>
+      <c r="E70" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F70" s="43"/>
+      <c r="G70" s="47"/>
+    </row>
+    <row r="71" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="47"/>
+      <c r="B71" s="149" t="s">
+        <v>940</v>
+      </c>
+      <c r="C71" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F71" s="43"/>
+      <c r="G71" s="47"/>
+    </row>
+    <row r="72" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="47"/>
+      <c r="B72" s="145" t="s">
+        <v>941</v>
+      </c>
+      <c r="C72" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D72" s="47"/>
+      <c r="E72" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F72" s="43"/>
+      <c r="G72" s="47"/>
+    </row>
+    <row r="73" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="47"/>
+      <c r="B73" s="149" t="s">
+        <v>942</v>
+      </c>
+      <c r="C73" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F73" s="43"/>
+      <c r="G73" s="47"/>
+    </row>
+    <row r="74" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="47"/>
+      <c r="B74" s="149" t="s">
+        <v>943</v>
+      </c>
+      <c r="C74" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F74" s="43"/>
+      <c r="G74" s="47"/>
+    </row>
+    <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="47"/>
+      <c r="B75" s="145" t="s">
+        <v>944</v>
+      </c>
+      <c r="C75" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F75" s="43"/>
+      <c r="G75" s="47"/>
+    </row>
+    <row r="76" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A76" s="47"/>
+      <c r="B76" s="146" t="s">
+        <v>737</v>
+      </c>
+      <c r="C76" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D76" s="47"/>
+      <c r="E76" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F76" s="43"/>
+      <c r="G76" s="47"/>
+    </row>
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="47"/>
+      <c r="B77" s="145" t="s">
+        <v>959</v>
+      </c>
+      <c r="C77" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D77" s="47"/>
+      <c r="E77" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F77" s="43"/>
+      <c r="G77" s="47"/>
+    </row>
+    <row r="78" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="47"/>
+      <c r="B78" s="144" t="s">
+        <v>960</v>
+      </c>
+      <c r="C78" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D78" s="47"/>
+      <c r="E78" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F78" s="43"/>
+      <c r="G78" s="47"/>
+    </row>
+    <row r="79" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="47"/>
+      <c r="B79" s="145" t="s">
+        <v>966</v>
+      </c>
+      <c r="C79" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D79" s="47"/>
+      <c r="E79" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F79" s="43"/>
+      <c r="G79" s="47"/>
+    </row>
+    <row r="80" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="47"/>
+      <c r="B80" s="145" t="s">
+        <v>968</v>
+      </c>
+      <c r="C80" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D80" s="47"/>
+      <c r="E80" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F80" s="43"/>
+      <c r="G80" s="47"/>
+    </row>
+    <row r="81" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="47"/>
+      <c r="B81" s="145" t="s">
+        <v>984</v>
+      </c>
+      <c r="C81" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D81" s="47"/>
+      <c r="E81" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F81" s="43"/>
+      <c r="G81" s="47"/>
+    </row>
+    <row r="82" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="47"/>
+      <c r="B82" s="145" t="s">
+        <v>985</v>
+      </c>
+      <c r="C82" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F82" s="43"/>
+      <c r="G82" s="47"/>
+    </row>
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="47"/>
+      <c r="B83" s="145" t="s">
+        <v>994</v>
+      </c>
+      <c r="C83" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D83" s="47"/>
+      <c r="E83" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F83" s="43"/>
+      <c r="G83" s="47"/>
+    </row>
+    <row r="84" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="47"/>
+      <c r="B84" s="149" t="s">
+        <v>139</v>
+      </c>
+      <c r="C84" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D84" s="47"/>
+      <c r="E84" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F84" s="43"/>
+      <c r="G84" s="47"/>
+    </row>
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="47"/>
+      <c r="B85" s="149" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C85" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F85" s="43"/>
+      <c r="G85" s="47"/>
+    </row>
+    <row r="86" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="47"/>
+      <c r="B86" s="149" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F86" s="43"/>
+      <c r="G86" s="47"/>
+    </row>
+    <row r="87" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="47"/>
+      <c r="B87" s="149" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C87" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D87" s="47"/>
+      <c r="E87" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F87" s="43"/>
+      <c r="G87" s="47"/>
+    </row>
+    <row r="88" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A88" s="47"/>
+      <c r="B88" s="144" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D88" s="47"/>
+      <c r="E88" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F88" s="43"/>
+      <c r="G88" s="47"/>
+    </row>
+    <row r="89" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A89" s="47"/>
+      <c r="B89" s="144" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D89" s="47"/>
+      <c r="E89" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F89" s="43"/>
+      <c r="G89" s="47"/>
+    </row>
+    <row r="90" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A90" s="47"/>
+      <c r="B90" s="145" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C90" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D90" s="47"/>
+      <c r="E90" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F90" s="43"/>
+      <c r="G90" s="47"/>
+    </row>
+    <row r="91" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A91" s="46"/>
+      <c r="B91" s="133" t="s">
+        <v>68</v>
+      </c>
+      <c r="C91" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="D91" s="46"/>
+      <c r="E91" s="46"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="46"/>
+    </row>
+    <row r="92" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="47"/>
+      <c r="B92" s="144" t="s">
+        <v>69</v>
+      </c>
+      <c r="C92" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D92" s="47"/>
+      <c r="E92" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F92" s="43"/>
+      <c r="G92" s="47"/>
+    </row>
+    <row r="93" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A93" s="47"/>
+      <c r="B93" s="149" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C93" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D93" s="47"/>
+      <c r="E93" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F93" s="43"/>
+      <c r="G93" s="47"/>
+    </row>
+    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="47"/>
+      <c r="B94" s="144" t="s">
+        <v>59</v>
+      </c>
+      <c r="C94" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D94" s="47"/>
+      <c r="E94" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F94" s="43"/>
+      <c r="G94" s="47"/>
+    </row>
+    <row r="95" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="47"/>
+      <c r="B95" s="149" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C95" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D95" s="47"/>
+      <c r="E95" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F95" s="43"/>
+      <c r="G95" s="47"/>
+    </row>
+    <row r="96" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A96" s="47"/>
+      <c r="B96" s="145" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C96" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D96" s="47"/>
+      <c r="E96" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F96" s="43"/>
+      <c r="G96" s="47"/>
+    </row>
+    <row r="97" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="47"/>
+      <c r="B97" s="145" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D97" s="47"/>
+      <c r="E97" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F97" s="47" t="s">
+        <v>849</v>
+      </c>
+      <c r="G97" s="47"/>
+    </row>
+    <row r="98" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="47"/>
+      <c r="B98" s="144" t="s">
+        <v>95</v>
+      </c>
+      <c r="C98" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D98" s="47"/>
+      <c r="E98" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F98" s="43"/>
+      <c r="G98" s="47"/>
+    </row>
+    <row r="99" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="47"/>
+      <c r="B99" s="152" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C99" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D99" s="47"/>
+      <c r="E99" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F99" s="43"/>
+      <c r="G99" s="47"/>
+    </row>
+    <row r="100" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="47"/>
+      <c r="B100" s="145" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C100" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D100" s="47"/>
+      <c r="E100" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F100" s="43"/>
+      <c r="G100" s="47"/>
+    </row>
+    <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" s="47"/>
+      <c r="B101" s="144" t="s">
+        <v>80</v>
+      </c>
+      <c r="C101" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D101" s="47"/>
+      <c r="E101" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F101" s="43"/>
+      <c r="G101" s="47"/>
+    </row>
+    <row r="102" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A102" s="47"/>
+      <c r="B102" s="154" t="s">
+        <v>137</v>
+      </c>
+      <c r="C102" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D102" s="47"/>
+      <c r="E102" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F102" s="43"/>
+      <c r="G102" s="47"/>
+    </row>
+    <row r="103" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="47"/>
+      <c r="B103" s="144" t="s">
+        <v>794</v>
+      </c>
+      <c r="C103" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D103" s="47"/>
+      <c r="E103" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F103" s="43"/>
+      <c r="G103" s="47"/>
+    </row>
+    <row r="104" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="47"/>
+      <c r="B104" s="144" t="s">
+        <v>745</v>
+      </c>
+      <c r="C104" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D104" s="47"/>
+      <c r="E104" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F104" s="43"/>
+      <c r="G104" s="47"/>
+    </row>
+    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="47"/>
+      <c r="B105" s="144" t="s">
+        <v>747</v>
+      </c>
+      <c r="C105" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D105" s="47"/>
+      <c r="E105" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F105" s="43"/>
+      <c r="G105" s="47"/>
+    </row>
+    <row r="106" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="47"/>
+      <c r="B106" s="145" t="s">
+        <v>769</v>
+      </c>
+      <c r="C106" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D106" s="47"/>
+      <c r="E106" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F106" s="43"/>
+      <c r="G106" s="47"/>
+    </row>
+    <row r="107" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="47"/>
+      <c r="B107" s="145" t="s">
+        <v>767</v>
+      </c>
+      <c r="C107" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D107" s="47"/>
+      <c r="E107" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F107" s="43"/>
+      <c r="G107" s="47"/>
+    </row>
+    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="47"/>
+      <c r="B108" s="144" t="s">
+        <v>775</v>
+      </c>
+      <c r="C108" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D108" s="47"/>
+      <c r="E108" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F108" s="43"/>
+      <c r="G108" s="47"/>
+    </row>
+    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="47"/>
+      <c r="B109" s="144" t="s">
+        <v>783</v>
+      </c>
+      <c r="C109" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D109" s="47"/>
+      <c r="E109" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F109" s="43"/>
+      <c r="G109" s="47"/>
+    </row>
+    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="47"/>
+      <c r="B110" s="153" t="s">
+        <v>781</v>
+      </c>
+      <c r="C110" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D110" s="47"/>
+      <c r="E110" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F110" s="43"/>
+      <c r="G110" s="47"/>
+    </row>
+    <row r="111" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A111" s="47"/>
+      <c r="B111" s="144" t="s">
+        <v>753</v>
+      </c>
+      <c r="C111" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D111" s="47"/>
+      <c r="E111" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F111" s="43"/>
+      <c r="G111" s="47"/>
+    </row>
+    <row r="112" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="47"/>
+      <c r="B112" s="144" t="s">
+        <v>754</v>
+      </c>
+      <c r="C112" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D112" s="47"/>
+      <c r="E112" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F112" s="43"/>
+      <c r="G112" s="47"/>
+    </row>
+    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="47"/>
+      <c r="B113" s="145" t="s">
+        <v>768</v>
+      </c>
+      <c r="C113" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D113" s="47"/>
+      <c r="E113" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F113" s="43" t="s">
+        <v>847</v>
+      </c>
+      <c r="G113" s="47"/>
+    </row>
+    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="47"/>
+      <c r="B114" s="145" t="s">
         <v>866</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C114" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58" t="s">
+      <c r="D114" s="47"/>
+      <c r="E114" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="84" t="s">
-        <v>867</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58" t="s">
+      <c r="F114" s="43"/>
+      <c r="G114" s="47"/>
+    </row>
+    <row r="115" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="47"/>
+      <c r="B115" s="145" t="s">
+        <v>873</v>
+      </c>
+      <c r="C115" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D115" s="47"/>
+      <c r="E115" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="126" t="s">
-        <v>870</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58" t="s">
+      <c r="F115" s="43"/>
+      <c r="G115" s="47"/>
+    </row>
+    <row r="116" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A116" s="47"/>
+      <c r="B116" s="145" t="s">
+        <v>874</v>
+      </c>
+      <c r="C116" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D116" s="47"/>
+      <c r="E116" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
-      <c r="B8" s="84" t="s">
-        <v>873</v>
-      </c>
-      <c r="C8" s="58" t="s">
+      <c r="F116" s="43"/>
+      <c r="G116" s="47"/>
+    </row>
+    <row r="117" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="47"/>
+      <c r="B117" s="145" t="s">
+        <v>937</v>
+      </c>
+      <c r="C117" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58" t="s">
+      <c r="D117" s="47"/>
+      <c r="E117" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
-      <c r="B9" s="84" t="s">
-        <v>874</v>
-      </c>
-      <c r="C9" s="58" t="s">
+      <c r="F117" s="43"/>
+      <c r="G117" s="47"/>
+    </row>
+    <row r="118" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="47"/>
+      <c r="B118" s="145" t="s">
+        <v>938</v>
+      </c>
+      <c r="C118" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58" t="s">
+      <c r="D118" s="47"/>
+      <c r="E118" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
-      <c r="B10" s="126" t="s">
-        <v>877</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58" t="s">
+      <c r="F118" s="43"/>
+      <c r="G118" s="47"/>
+    </row>
+    <row r="119" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A119" s="47"/>
+      <c r="B119" s="145" t="s">
+        <v>939</v>
+      </c>
+      <c r="C119" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D119" s="47"/>
+      <c r="E119" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
-      <c r="B11" s="84" t="s">
-        <v>879</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58" t="s">
+      <c r="F119" s="43"/>
+      <c r="G119" s="47"/>
+    </row>
+    <row r="120" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="47"/>
+      <c r="B120" s="145" t="s">
+        <v>945</v>
+      </c>
+      <c r="C120" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D120" s="47"/>
+      <c r="E120" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F11" s="60" t="s">
-        <v>824</v>
-      </c>
-      <c r="G11" s="60"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
-      <c r="B12" s="126" t="s">
-        <v>794</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>798</v>
-      </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58" t="s">
+      <c r="F120" s="43"/>
+      <c r="G120" s="47"/>
+    </row>
+    <row r="121" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="47"/>
+      <c r="B121" s="145" t="s">
+        <v>946</v>
+      </c>
+      <c r="C121" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D121" s="47"/>
+      <c r="E121" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
-      <c r="B13" s="129" t="s">
-        <v>886</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58" t="s">
+      <c r="F121" s="43"/>
+      <c r="G121" s="47"/>
+    </row>
+    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="47"/>
+      <c r="B122" s="145" t="s">
+        <v>962</v>
+      </c>
+      <c r="C122" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D122" s="47"/>
+      <c r="E122" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F13" s="60" t="s">
-        <v>486</v>
-      </c>
-      <c r="G13" s="60"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="126" t="s">
-        <v>889</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58" t="s">
+      <c r="F122" s="43"/>
+      <c r="G122" s="47"/>
+    </row>
+    <row r="123" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A123" s="47"/>
+      <c r="B123" s="145" t="s">
+        <v>549</v>
+      </c>
+      <c r="C123" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D123" s="47"/>
+      <c r="E123" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
-      <c r="B15" s="126" t="s">
-        <v>894</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58" t="s">
+      <c r="F123" s="43" t="s">
+        <v>839</v>
+      </c>
+      <c r="G123" s="47"/>
+    </row>
+    <row r="124" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="47"/>
+      <c r="B124" s="145" t="s">
+        <v>970</v>
+      </c>
+      <c r="C124" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D124" s="47"/>
+      <c r="E124" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F15" s="58" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G15" s="58"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="126" t="s">
-        <v>895</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58" t="s">
+      <c r="F124" s="43"/>
+      <c r="G124" s="47"/>
+    </row>
+    <row r="125" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A125" s="46"/>
+      <c r="B125" s="158" t="s">
+        <v>988</v>
+      </c>
+      <c r="C125" s="46" t="s">
+        <v>554</v>
+      </c>
+      <c r="D125" s="46"/>
+      <c r="E125" s="46" t="s">
         <v>479</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
-      <c r="B17" s="84" t="s">
-        <v>897</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58" t="s">
+      <c r="F125" s="46" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G125" s="46"/>
+    </row>
+    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="47"/>
+      <c r="B126" s="145" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C126" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D126" s="47"/>
+      <c r="E126" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
-      <c r="B18" s="84" t="s">
-        <v>902</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58" t="s">
+      <c r="F126" s="43"/>
+      <c r="G126" s="47"/>
+    </row>
+    <row r="127" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="47"/>
+      <c r="B127" s="145" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C127" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D127" s="47"/>
+      <c r="E127" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="84" t="s">
-        <v>903</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58" t="s">
+      <c r="F127" s="43"/>
+      <c r="G127" s="47"/>
+    </row>
+    <row r="128" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="47"/>
+      <c r="B128" s="145" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C128" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D128" s="47"/>
+      <c r="E128" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
-      <c r="B20" s="84" t="s">
-        <v>904</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58" t="s">
+      <c r="F128" s="43"/>
+      <c r="G128" s="47"/>
+    </row>
+    <row r="129" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A129" s="47"/>
+      <c r="B129" s="145" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C129" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D129" s="47"/>
+      <c r="E129" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="84" t="s">
-        <v>906</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58" t="s">
+      <c r="F129" s="43"/>
+      <c r="G129" s="47"/>
+    </row>
+    <row r="130" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="47"/>
+      <c r="B130" s="145" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C130" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D130" s="47"/>
+      <c r="E130" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="126" t="s">
-        <v>908</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
-      <c r="B23" s="129" t="s">
-        <v>724</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>1123</v>
-      </c>
-      <c r="G23" s="33"/>
-    </row>
-    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
-      <c r="B24" s="126" t="s">
-        <v>363</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="140" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="121"/>
-      <c r="B26" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="121" t="s">
-        <v>282</v>
-      </c>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="122" t="s">
-        <v>835</v>
-      </c>
-      <c r="G26" s="122"/>
-    </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
-      <c r="B27" s="141" t="s">
-        <v>721</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>1125</v>
-      </c>
-      <c r="G27" s="33"/>
-    </row>
-    <row r="28" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
-      <c r="B28" s="126" t="s">
-        <v>914</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
-      <c r="B29" s="84" t="s">
-        <v>762</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
-      <c r="B30" s="84" t="s">
-        <v>917</v>
-      </c>
-      <c r="C30" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
-      <c r="B31" s="126" t="s">
-        <v>918</v>
-      </c>
-      <c r="C31" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
-      <c r="B32" s="130" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-    </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
-      <c r="B33" s="126" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-    </row>
-    <row r="34" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
-      <c r="B34" s="131" t="s">
-        <v>919</v>
-      </c>
-      <c r="C34" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-    </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
-      <c r="B35" s="83" t="s">
-        <v>517</v>
-      </c>
-      <c r="C35" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-    </row>
-    <row r="36" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
-      <c r="B36" s="84" t="s">
-        <v>921</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-    </row>
-    <row r="37" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
-      <c r="B37" s="84" t="s">
-        <v>518</v>
-      </c>
-      <c r="C37" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-    </row>
-    <row r="38" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
-      <c r="B38" s="126" t="s">
-        <v>923</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-    </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
-      <c r="B39" s="126" t="s">
-        <v>924</v>
-      </c>
-      <c r="C39" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-    </row>
-    <row r="40" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
-      <c r="B40" s="126" t="s">
-        <v>925</v>
-      </c>
-      <c r="C40" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
-      <c r="B41" s="126" t="s">
-        <v>926</v>
-      </c>
-      <c r="C41" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-    </row>
-    <row r="42" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
-      <c r="B42" s="84" t="s">
-        <v>927</v>
-      </c>
-      <c r="C42" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-    </row>
-    <row r="43" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
-      <c r="B43" s="126" t="s">
-        <v>928</v>
-      </c>
-      <c r="C43" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-    </row>
-    <row r="44" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="132" t="s">
-        <v>931</v>
-      </c>
-      <c r="C44" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-    </row>
-    <row r="45" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
-      <c r="B45" s="126" t="s">
-        <v>703</v>
-      </c>
-      <c r="C45" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-    </row>
-    <row r="46" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
-      <c r="B46" s="84" t="s">
-        <v>935</v>
-      </c>
-      <c r="C46" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-    </row>
-    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
-      <c r="B47" s="126" t="s">
-        <v>936</v>
-      </c>
-      <c r="C47" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-    </row>
-    <row r="48" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A48" s="58"/>
-      <c r="B48" s="84" t="s">
-        <v>937</v>
-      </c>
-      <c r="C48" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-    </row>
-    <row r="49" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
-      <c r="B49" s="84" t="s">
-        <v>938</v>
-      </c>
-      <c r="C49" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-    </row>
-    <row r="50" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
-      <c r="B50" s="84" t="s">
-        <v>939</v>
-      </c>
-      <c r="C50" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-    </row>
-    <row r="51" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
-      <c r="B51" s="130" t="s">
-        <v>940</v>
-      </c>
-      <c r="C51" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-    </row>
-    <row r="52" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
-      <c r="B52" s="84" t="s">
-        <v>941</v>
-      </c>
-      <c r="C52" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-    </row>
-    <row r="53" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
-      <c r="B53" s="130" t="s">
-        <v>942</v>
-      </c>
-      <c r="C53" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-    </row>
-    <row r="54" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
-      <c r="B54" s="130" t="s">
-        <v>943</v>
-      </c>
-      <c r="C54" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-    </row>
-    <row r="55" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
-      <c r="B55" s="84" t="s">
-        <v>944</v>
-      </c>
-      <c r="C55" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-    </row>
-    <row r="56" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
-      <c r="B56" s="84" t="s">
-        <v>945</v>
-      </c>
-      <c r="C56" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-    </row>
-    <row r="57" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
-      <c r="B57" s="84" t="s">
-        <v>946</v>
-      </c>
-      <c r="C57" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-    </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
-      <c r="B58" s="126" t="s">
-        <v>947</v>
-      </c>
-      <c r="C58" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-    </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="58"/>
-      <c r="B59" s="126" t="s">
-        <v>950</v>
-      </c>
-      <c r="C59" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D59" s="58"/>
-      <c r="E59" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F59" s="60" t="s">
-        <v>497</v>
-      </c>
-      <c r="G59" s="60"/>
-    </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="58"/>
-      <c r="B60" s="126" t="s">
-        <v>952</v>
-      </c>
-      <c r="C60" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D60" s="58"/>
-      <c r="E60" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-    </row>
-    <row r="61" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="58"/>
-      <c r="B61" s="129" t="s">
-        <v>737</v>
-      </c>
-      <c r="C61" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D61" s="58"/>
-      <c r="E61" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-    </row>
-    <row r="62" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="58"/>
-      <c r="B62" s="84" t="s">
-        <v>959</v>
-      </c>
-      <c r="C62" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D62" s="58"/>
-      <c r="E62" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-    </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="58"/>
-      <c r="B63" s="126" t="s">
-        <v>960</v>
-      </c>
-      <c r="C63" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-    </row>
-    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="58"/>
-      <c r="B64" s="126" t="s">
-        <v>745</v>
-      </c>
-      <c r="C64" s="58" t="s">
-        <v>798</v>
-      </c>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-    </row>
-    <row r="65" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="58"/>
-      <c r="B65" s="84" t="s">
-        <v>962</v>
-      </c>
-      <c r="C65" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-    </row>
-    <row r="66" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="58"/>
-      <c r="B66" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="C66" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D66" s="58"/>
-      <c r="E66" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F66" s="17" t="s">
-        <v>839</v>
-      </c>
-      <c r="G66" s="17"/>
-    </row>
-    <row r="67" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="58"/>
-      <c r="B67" s="84" t="s">
-        <v>966</v>
-      </c>
-      <c r="C67" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-    </row>
-    <row r="68" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="58"/>
-      <c r="B68" s="84" t="s">
-        <v>968</v>
-      </c>
-      <c r="C68" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D68" s="58"/>
-      <c r="E68" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-    </row>
-    <row r="69" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="58"/>
-      <c r="B69" s="126" t="s">
-        <v>969</v>
-      </c>
-      <c r="C69" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D69" s="58"/>
-      <c r="E69" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-    </row>
-    <row r="70" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="58"/>
-      <c r="B70" s="84" t="s">
-        <v>970</v>
-      </c>
-      <c r="C70" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D70" s="58"/>
-      <c r="E70" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-    </row>
-    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="58"/>
-      <c r="B71" s="126" t="s">
-        <v>971</v>
-      </c>
-      <c r="C71" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D71" s="58"/>
-      <c r="E71" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-    </row>
-    <row r="72" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="58"/>
-      <c r="B72" s="84" t="s">
-        <v>975</v>
-      </c>
-      <c r="C72" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D72" s="58"/>
-      <c r="E72" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-    </row>
-    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="58"/>
-      <c r="B73" s="126" t="s">
-        <v>978</v>
-      </c>
-      <c r="C73" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D73" s="58"/>
-      <c r="E73" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-    </row>
-    <row r="74" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="58"/>
-      <c r="B74" s="84" t="s">
-        <v>980</v>
-      </c>
-      <c r="C74" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D74" s="58"/>
-      <c r="E74" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-    </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="58"/>
-      <c r="B75" s="126" t="s">
-        <v>981</v>
-      </c>
-      <c r="C75" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D75" s="58"/>
-      <c r="E75" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-    </row>
-    <row r="76" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="58"/>
-      <c r="B76" s="84" t="s">
-        <v>984</v>
-      </c>
-      <c r="C76" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D76" s="58"/>
-      <c r="E76" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-    </row>
-    <row r="77" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="58"/>
-      <c r="B77" s="84" t="s">
-        <v>985</v>
-      </c>
-      <c r="C77" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D77" s="58"/>
-      <c r="E77" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-    </row>
-    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="58"/>
-      <c r="B78" s="126" t="s">
-        <v>747</v>
-      </c>
-      <c r="C78" s="58" t="s">
-        <v>798</v>
-      </c>
-      <c r="D78" s="58"/>
-      <c r="E78" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-    </row>
-    <row r="79" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="58"/>
-      <c r="B79" s="84" t="s">
-        <v>988</v>
-      </c>
-      <c r="C79" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D79" s="58"/>
-      <c r="E79" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-    </row>
-    <row r="80" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="58"/>
-      <c r="B80" s="126" t="s">
-        <v>990</v>
-      </c>
-      <c r="C80" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D80" s="58"/>
-      <c r="E80" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F80" s="58" t="s">
-        <v>861</v>
-      </c>
-      <c r="G80" s="58"/>
-    </row>
-    <row r="81" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="58"/>
-      <c r="B81" s="84" t="s">
-        <v>769</v>
-      </c>
-      <c r="C81" s="58" t="s">
-        <v>798</v>
-      </c>
-      <c r="D81" s="58"/>
-      <c r="E81" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-    </row>
-    <row r="82" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="58"/>
-      <c r="B82" s="84" t="s">
-        <v>992</v>
-      </c>
-      <c r="C82" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D82" s="58"/>
-      <c r="E82" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-    </row>
-    <row r="83" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="58"/>
-      <c r="B83" s="84" t="s">
-        <v>994</v>
-      </c>
-      <c r="C83" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D83" s="58"/>
-      <c r="E83" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-    </row>
-    <row r="84" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A84" s="58"/>
-      <c r="B84" s="130" t="s">
-        <v>139</v>
-      </c>
-      <c r="C84" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D84" s="58"/>
-      <c r="E84" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-    </row>
-    <row r="85" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A85" s="58"/>
-      <c r="B85" s="84" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C85" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D85" s="58"/>
-      <c r="E85" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-    </row>
-    <row r="86" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="58"/>
-      <c r="B86" s="130" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C86" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D86" s="58"/>
-      <c r="E86" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-    </row>
-    <row r="87" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="58"/>
-      <c r="B87" s="130" t="s">
-        <v>88</v>
-      </c>
-      <c r="C87" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-    </row>
-    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="58"/>
-      <c r="B88" s="126" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C88" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D88" s="58"/>
-      <c r="E88" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-    </row>
-    <row r="89" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A89" s="58"/>
-      <c r="B89" s="84" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C89" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D89" s="58"/>
-      <c r="E89" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-    </row>
-    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="58"/>
-      <c r="B90" s="126" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C90" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D90" s="58"/>
-      <c r="E90" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-    </row>
-    <row r="91" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A91" s="58"/>
-      <c r="B91" s="84" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C91" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D91" s="58"/>
-      <c r="E91" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-    </row>
-    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="58"/>
-      <c r="B92" s="126" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C92" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D92" s="58"/>
-      <c r="E92" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-    </row>
-    <row r="93" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A93" s="58"/>
-      <c r="B93" s="84" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C93" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D93" s="58"/>
-      <c r="E93" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-    </row>
-    <row r="94" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A94" s="58"/>
-      <c r="B94" s="84" t="s">
-        <v>767</v>
-      </c>
-      <c r="C94" s="58" t="s">
-        <v>798</v>
-      </c>
-      <c r="D94" s="58"/>
-      <c r="E94" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-    </row>
-    <row r="95" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="58"/>
-      <c r="B95" s="130" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C95" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D95" s="58"/>
-      <c r="E95" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-    </row>
-    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="58"/>
-      <c r="B96" s="126" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C96" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D96" s="58"/>
-      <c r="E96" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-    </row>
-    <row r="97" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="58"/>
-      <c r="B97" s="126" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C97" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D97" s="58"/>
-      <c r="E97" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-    </row>
-    <row r="98" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="58"/>
-      <c r="B98" s="126" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C98" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D98" s="58"/>
-      <c r="E98" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-    </row>
-    <row r="99" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="58"/>
-      <c r="B99" s="126" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C99" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D99" s="58"/>
-      <c r="E99" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-    </row>
-    <row r="100" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="58"/>
-      <c r="B100" s="129" t="s">
-        <v>328</v>
-      </c>
-      <c r="C100" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D100" s="58"/>
-      <c r="E100" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F100" s="60" t="s">
-        <v>509</v>
-      </c>
-      <c r="G100" s="60"/>
-    </row>
-    <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="58"/>
-      <c r="B101" s="126" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C101" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D101" s="58"/>
-      <c r="E101" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
-    </row>
-    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="58"/>
-      <c r="B102" s="126" t="s">
-        <v>58</v>
-      </c>
-      <c r="C102" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D102" s="58"/>
-      <c r="E102" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
-    </row>
-    <row r="103" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="58"/>
-      <c r="B103" s="126" t="s">
-        <v>96</v>
-      </c>
-      <c r="C103" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D103" s="58"/>
-      <c r="E103" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F103" s="17"/>
-      <c r="G103" s="17"/>
-    </row>
-    <row r="104" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="58"/>
-      <c r="B104" s="84" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C104" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D104" s="58"/>
-      <c r="E104" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-    </row>
-    <row r="105" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="58"/>
-      <c r="B105" s="126" t="s">
-        <v>775</v>
-      </c>
-      <c r="C105" s="58" t="s">
-        <v>798</v>
-      </c>
-      <c r="D105" s="58"/>
-      <c r="E105" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17"/>
-    </row>
-    <row r="106" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="46"/>
-      <c r="B106" s="133" t="s">
-        <v>68</v>
-      </c>
-      <c r="C106" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="D106" s="46"/>
-      <c r="E106" s="46"/>
-      <c r="F106" s="32"/>
-      <c r="G106" s="32"/>
-    </row>
-    <row r="107" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="58"/>
-      <c r="B107" s="126" t="s">
-        <v>783</v>
-      </c>
-      <c r="C107" s="58" t="s">
-        <v>798</v>
-      </c>
-      <c r="D107" s="58"/>
-      <c r="E107" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F107" s="17"/>
-      <c r="G107" s="17"/>
-    </row>
-    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="58"/>
-      <c r="B108" s="126" t="s">
-        <v>69</v>
-      </c>
-      <c r="C108" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D108" s="58"/>
-      <c r="E108" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
-    </row>
-    <row r="109" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="58"/>
-      <c r="B109" s="130" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C109" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D109" s="58"/>
-      <c r="E109" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F109" s="17"/>
-      <c r="G109" s="17"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="58"/>
-      <c r="B110" s="135" t="s">
-        <v>781</v>
-      </c>
-      <c r="C110" s="58" t="s">
-        <v>798</v>
-      </c>
-      <c r="D110" s="58"/>
-      <c r="E110" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
-    </row>
-    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="58"/>
-      <c r="B111" s="126" t="s">
-        <v>753</v>
-      </c>
-      <c r="C111" s="58" t="s">
-        <v>798</v>
-      </c>
-      <c r="D111" s="58"/>
-      <c r="E111" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
-    </row>
-    <row r="112" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="58"/>
-      <c r="B112" s="126" t="s">
-        <v>59</v>
-      </c>
-      <c r="C112" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D112" s="58"/>
-      <c r="E112" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
-    </row>
-    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="58"/>
-      <c r="B113" s="126" t="s">
-        <v>754</v>
-      </c>
-      <c r="C113" s="58" t="s">
-        <v>798</v>
-      </c>
-      <c r="D113" s="58"/>
-      <c r="E113" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F113" s="17"/>
-      <c r="G113" s="17"/>
-    </row>
-    <row r="114" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A114" s="58"/>
-      <c r="B114" s="84" t="s">
-        <v>768</v>
-      </c>
-      <c r="C114" s="58" t="s">
-        <v>798</v>
-      </c>
-      <c r="D114" s="58"/>
-      <c r="E114" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F114" s="17" t="s">
-        <v>847</v>
-      </c>
-      <c r="G114" s="17"/>
-    </row>
-    <row r="115" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="58"/>
-      <c r="B115" s="84" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C115" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D115" s="58"/>
-      <c r="E115" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F115" s="17"/>
-      <c r="G115" s="17"/>
-    </row>
-    <row r="116" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A116" s="58"/>
-      <c r="B116" s="84" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C116" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D116" s="58"/>
-      <c r="E116" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F116" s="17"/>
-      <c r="G116" s="17"/>
-    </row>
-    <row r="117" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="58"/>
-      <c r="B117" s="130" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C117" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D117" s="58"/>
-      <c r="E117" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F117" s="17"/>
-      <c r="G117" s="17"/>
-    </row>
-    <row r="118" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="58"/>
-      <c r="B118" s="84" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C118" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D118" s="58"/>
-      <c r="E118" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F118" s="17"/>
-      <c r="G118" s="17"/>
-    </row>
-    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="58"/>
-      <c r="B119" s="126" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C119" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D119" s="58"/>
-      <c r="E119" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F119" s="17"/>
-      <c r="G119" s="17"/>
-    </row>
-    <row r="120" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A120" s="58"/>
-      <c r="B120" s="84" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C120" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D120" s="58"/>
-      <c r="E120" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F120" s="17"/>
-      <c r="G120" s="17"/>
-    </row>
-    <row r="121" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="58"/>
-      <c r="B121" s="84" t="s">
-        <v>188</v>
-      </c>
-      <c r="C121" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D121" s="58"/>
-      <c r="E121" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F121" s="58" t="s">
-        <v>849</v>
-      </c>
-      <c r="G121" s="58"/>
-    </row>
-    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="58"/>
-      <c r="B122" s="126" t="s">
-        <v>95</v>
-      </c>
-      <c r="C122" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D122" s="58"/>
-      <c r="E122" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F122" s="17"/>
-      <c r="G122" s="17"/>
-    </row>
-    <row r="123" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A123" s="58"/>
-      <c r="B123" s="84" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C123" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D123" s="58"/>
-      <c r="E123" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F123" s="17"/>
-      <c r="G123" s="17"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="58"/>
-      <c r="B124" s="132" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C124" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D124" s="58"/>
-      <c r="E124" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F124" s="17"/>
-      <c r="G124" s="17"/>
-    </row>
-    <row r="125" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A125" s="58"/>
-      <c r="B125" s="84" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C125" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D125" s="58"/>
-      <c r="E125" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F125" s="17"/>
-      <c r="G125" s="17"/>
-    </row>
-    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="58"/>
-      <c r="B126" s="126" t="s">
-        <v>80</v>
-      </c>
-      <c r="C126" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D126" s="58"/>
-      <c r="E126" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F126" s="17"/>
-      <c r="G126" s="17"/>
-    </row>
-    <row r="127" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A127" s="58"/>
-      <c r="B127" s="129" t="s">
-        <v>726</v>
-      </c>
-      <c r="C127" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D127" s="58"/>
-      <c r="E127" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F127" s="58" t="s">
-        <v>1107</v>
-      </c>
-      <c r="G127" s="58"/>
-    </row>
-    <row r="128" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="58"/>
-      <c r="B128" s="136" t="s">
-        <v>137</v>
-      </c>
-      <c r="C128" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D128" s="58"/>
-      <c r="E128" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F128" s="17"/>
-      <c r="G128" s="17"/>
-    </row>
-    <row r="129" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A129" s="58"/>
-      <c r="B129" s="84" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C129" s="58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D129" s="58"/>
-      <c r="E129" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F129" s="17"/>
-      <c r="G129" s="17"/>
+      <c r="F130" s="43"/>
+      <c r="G130" s="47"/>
     </row>
   </sheetData>
+  <sortState ref="A3:G130">
+    <sortCondition ref="A3:A130"/>
+    <sortCondition ref="C3:C130"/>
+    <sortCondition ref="B3:B130"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4893" uniqueCount="1175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4897" uniqueCount="1178">
   <si>
     <t>ID</t>
   </si>
@@ -36406,6 +36406,15 @@
   </si>
   <si>
     <t>personality type is averaged out; description of design is a bit convoluted but it appears it was between-subject</t>
+  </si>
+  <si>
+    <t>2(personality type: extravert vs introvert) x 2 (background: music, silence)</t>
+  </si>
+  <si>
+    <t>although not explicitly mentioned, it appears the design was between-subject; there was a short chat in the music file</t>
+  </si>
+  <si>
+    <t>2(personality type: extravert vs introvert) x 3 (background:  instrumental, vocal music, silence)</t>
   </si>
 </sst>
 </file>
@@ -37446,9 +37455,6 @@
     <xf numFmtId="0" fontId="50" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -37460,6 +37466,9 @@
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -37806,7 +37815,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -49592,14 +49601,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="157"/>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
+      <c r="A1" s="161"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -62930,8 +62939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63368,7 +63377,7 @@
       <c r="E21" s="58" t="s">
         <v>1135</v>
       </c>
-      <c r="F21" s="159" t="s">
+      <c r="F21" s="158" t="s">
         <v>1165</v>
       </c>
       <c r="G21" s="47" t="s">
@@ -63400,7 +63409,7 @@
       <c r="A23" s="58">
         <v>21</v>
       </c>
-      <c r="B23" s="160" t="s">
+      <c r="B23" s="159" t="s">
         <v>1170</v>
       </c>
       <c r="C23" s="47" t="s">
@@ -63412,7 +63421,7 @@
       <c r="E23" s="58" t="s">
         <v>1135</v>
       </c>
-      <c r="F23" s="161" t="s">
+      <c r="F23" s="160" t="s">
         <v>1172</v>
       </c>
       <c r="G23" s="12" t="s">
@@ -63442,40 +63451,54 @@
         <v>479</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
+    <row r="25" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="58">
+        <v>23</v>
+      </c>
       <c r="B25" s="144" t="s">
-        <v>863</v>
+        <v>924</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47" t="s">
+      <c r="D25" s="61" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F25" s="61" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G25" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="47"/>
-    </row>
-    <row r="26" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
+    </row>
+    <row r="26" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="47">
+        <v>24</v>
+      </c>
       <c r="B26" s="144" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
       <c r="C26" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="D26" s="47"/>
+      <c r="D26" s="61" t="s">
+        <v>1177</v>
+      </c>
       <c r="E26" s="47" t="s">
         <v>479</v>
       </c>
       <c r="F26" s="43"/>
       <c r="G26" s="47"/>
     </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
+    <row r="27" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="47">
+        <v>25</v>
+      </c>
       <c r="B27" s="144" t="s">
-        <v>889</v>
+        <v>925</v>
       </c>
       <c r="C27" s="47" t="s">
         <v>320</v>
@@ -63487,10 +63510,10 @@
       <c r="F27" s="43"/>
       <c r="G27" s="47"/>
     </row>
-    <row r="28" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
       <c r="B28" s="144" t="s">
-        <v>894</v>
+        <v>863</v>
       </c>
       <c r="C28" s="47" t="s">
         <v>320</v>
@@ -63499,15 +63522,13 @@
       <c r="E28" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F28" s="47" t="s">
-        <v>1121</v>
-      </c>
+      <c r="F28" s="43"/>
       <c r="G28" s="47"/>
     </row>
-    <row r="29" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="47"/>
       <c r="B29" s="144" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
       <c r="C29" s="47" t="s">
         <v>320</v>
@@ -63519,10 +63540,10 @@
       <c r="F29" s="43"/>
       <c r="G29" s="47"/>
     </row>
-    <row r="30" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A30" s="47"/>
-      <c r="B30" s="145" t="s">
-        <v>906</v>
+      <c r="B30" s="144" t="s">
+        <v>889</v>
       </c>
       <c r="C30" s="47" t="s">
         <v>320</v>
@@ -63536,8 +63557,8 @@
     </row>
     <row r="31" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="47"/>
-      <c r="B31" s="146" t="s">
-        <v>724</v>
+      <c r="B31" s="144" t="s">
+        <v>894</v>
       </c>
       <c r="C31" s="47" t="s">
         <v>320</v>
@@ -63546,15 +63567,15 @@
       <c r="E31" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F31" s="53" t="s">
-        <v>1123</v>
-      </c>
-      <c r="G31" s="61"/>
-    </row>
-    <row r="32" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="F31" s="47" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G31" s="47"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="47"/>
       <c r="B32" s="144" t="s">
-        <v>363</v>
+        <v>895</v>
       </c>
       <c r="C32" s="47" t="s">
         <v>320</v>
@@ -63566,10 +63587,10 @@
       <c r="F32" s="43"/>
       <c r="G32" s="47"/>
     </row>
-    <row r="33" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="47"/>
-      <c r="B33" s="148" t="s">
-        <v>721</v>
+      <c r="B33" s="145" t="s">
+        <v>906</v>
       </c>
       <c r="C33" s="47" t="s">
         <v>320</v>
@@ -63578,15 +63599,13 @@
       <c r="E33" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F33" s="53" t="s">
-        <v>1125</v>
-      </c>
-      <c r="G33" s="61"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="47"/>
     </row>
     <row r="34" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="47"/>
-      <c r="B34" s="145" t="s">
-        <v>921</v>
+      <c r="B34" s="146" t="s">
+        <v>724</v>
       </c>
       <c r="C34" s="47" t="s">
         <v>320</v>
@@ -63595,13 +63614,15 @@
       <c r="E34" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F34" s="43"/>
-      <c r="G34" s="47"/>
+      <c r="F34" s="53" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="47"/>
       <c r="B35" s="144" t="s">
-        <v>924</v>
+        <v>363</v>
       </c>
       <c r="C35" s="47" t="s">
         <v>320</v>
@@ -63615,8 +63636,8 @@
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="47"/>
-      <c r="B36" s="144" t="s">
-        <v>925</v>
+      <c r="B36" s="148" t="s">
+        <v>721</v>
       </c>
       <c r="C36" s="47" t="s">
         <v>320</v>
@@ -63625,13 +63646,15 @@
       <c r="E36" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F36" s="43"/>
-      <c r="G36" s="47"/>
-    </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F36" s="53" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G36" s="61"/>
+    </row>
+    <row r="37" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="47"/>
-      <c r="B37" s="144" t="s">
-        <v>928</v>
+      <c r="B37" s="145" t="s">
+        <v>921</v>
       </c>
       <c r="C37" s="47" t="s">
         <v>320</v>
@@ -63707,7 +63730,7 @@
       </c>
       <c r="G41" s="61"/>
     </row>
-    <row r="42" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="47"/>
       <c r="B42" s="144" t="s">
         <v>969</v>
@@ -63874,7 +63897,7 @@
       <c r="F52" s="43"/>
       <c r="G52" s="47"/>
     </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="47"/>
       <c r="B53" s="146" t="s">
         <v>328</v>
@@ -63891,7 +63914,7 @@
       </c>
       <c r="G53" s="61"/>
     </row>
-    <row r="54" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="47"/>
       <c r="B54" s="144" t="s">
         <v>1039</v>
@@ -63906,7 +63929,7 @@
       <c r="F54" s="43"/>
       <c r="G54" s="47"/>
     </row>
-    <row r="55" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="47"/>
       <c r="B55" s="144" t="s">
         <v>1077</v>
@@ -63921,7 +63944,7 @@
       <c r="F55" s="43"/>
       <c r="G55" s="47"/>
     </row>
-    <row r="56" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="47"/>
       <c r="B56" s="146" t="s">
         <v>726</v>
@@ -63938,7 +63961,7 @@
       </c>
       <c r="G56" s="47"/>
     </row>
-    <row r="57" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A57" s="47"/>
       <c r="B57" s="145" t="s">
         <v>867</v>
@@ -63953,7 +63976,7 @@
       <c r="F57" s="43"/>
       <c r="G57" s="47"/>
     </row>
-    <row r="58" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="47"/>
       <c r="B58" s="145" t="s">
         <v>879</v>
@@ -64015,7 +64038,7 @@
       <c r="F61" s="43"/>
       <c r="G61" s="47"/>
     </row>
-    <row r="62" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A62" s="47"/>
       <c r="B62" s="145" t="s">
         <v>904</v>
@@ -64030,7 +64053,7 @@
       <c r="F62" s="43"/>
       <c r="G62" s="47"/>
     </row>
-    <row r="63" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="47"/>
       <c r="B63" s="147" t="s">
         <v>90</v>
@@ -64075,7 +64098,7 @@
       <c r="F65" s="43"/>
       <c r="G65" s="47"/>
     </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A66" s="47"/>
       <c r="B66" s="149" t="s">
         <v>82</v>
@@ -64090,7 +64113,7 @@
       <c r="F66" s="43"/>
       <c r="G66" s="47"/>
     </row>
-    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="47"/>
       <c r="B67" s="144" t="s">
         <v>81</v>
@@ -64135,7 +64158,7 @@
       <c r="F69" s="43"/>
       <c r="G69" s="47"/>
     </row>
-    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A70" s="47"/>
       <c r="B70" s="145" t="s">
         <v>935</v>
@@ -64150,7 +64173,7 @@
       <c r="F70" s="43"/>
       <c r="G70" s="47"/>
     </row>
-    <row r="71" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A71" s="47"/>
       <c r="B71" s="149" t="s">
         <v>940</v>
@@ -64165,7 +64188,7 @@
       <c r="F71" s="43"/>
       <c r="G71" s="47"/>
     </row>
-    <row r="72" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A72" s="47"/>
       <c r="B72" s="145" t="s">
         <v>941</v>
@@ -64180,7 +64203,7 @@
       <c r="F72" s="43"/>
       <c r="G72" s="47"/>
     </row>
-    <row r="73" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A73" s="47"/>
       <c r="B73" s="149" t="s">
         <v>942</v>
@@ -64210,7 +64233,7 @@
       <c r="F74" s="43"/>
       <c r="G74" s="47"/>
     </row>
-    <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A75" s="47"/>
       <c r="B75" s="145" t="s">
         <v>944</v>
@@ -64225,7 +64248,7 @@
       <c r="F75" s="43"/>
       <c r="G75" s="47"/>
     </row>
-    <row r="76" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="47"/>
       <c r="B76" s="146" t="s">
         <v>737</v>
@@ -64240,7 +64263,7 @@
       <c r="F76" s="43"/>
       <c r="G76" s="47"/>
     </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A77" s="47"/>
       <c r="B77" s="145" t="s">
         <v>959</v>
@@ -64255,7 +64278,7 @@
       <c r="F77" s="43"/>
       <c r="G77" s="47"/>
     </row>
-    <row r="78" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="47"/>
       <c r="B78" s="144" t="s">
         <v>960</v>
@@ -64330,7 +64353,7 @@
       <c r="F82" s="43"/>
       <c r="G82" s="47"/>
     </row>
-    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A83" s="47"/>
       <c r="B83" s="145" t="s">
         <v>994</v>
@@ -64345,7 +64368,7 @@
       <c r="F83" s="43"/>
       <c r="G83" s="47"/>
     </row>
-    <row r="84" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A84" s="47"/>
       <c r="B84" s="149" t="s">
         <v>139</v>
@@ -64360,7 +64383,7 @@
       <c r="F84" s="43"/>
       <c r="G84" s="47"/>
     </row>
-    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A85" s="47"/>
       <c r="B85" s="149" t="s">
         <v>1005</v>
@@ -64405,7 +64428,7 @@
       <c r="F87" s="43"/>
       <c r="G87" s="47"/>
     </row>
-    <row r="88" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="47"/>
       <c r="B88" s="144" t="s">
         <v>58</v>
@@ -64420,7 +64443,7 @@
       <c r="F88" s="43"/>
       <c r="G88" s="47"/>
     </row>
-    <row r="89" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="47"/>
       <c r="B89" s="144" t="s">
         <v>96</v>
@@ -64435,7 +64458,7 @@
       <c r="F89" s="43"/>
       <c r="G89" s="47"/>
     </row>
-    <row r="90" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A90" s="47"/>
       <c r="B90" s="145" t="s">
         <v>1057</v>
@@ -64450,7 +64473,7 @@
       <c r="F90" s="43"/>
       <c r="G90" s="47"/>
     </row>
-    <row r="91" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="46"/>
       <c r="B91" s="133" t="s">
         <v>68</v>
@@ -64463,7 +64486,7 @@
       <c r="F91" s="32"/>
       <c r="G91" s="46"/>
     </row>
-    <row r="92" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="47"/>
       <c r="B92" s="144" t="s">
         <v>69</v>
@@ -64600,7 +64623,7 @@
       <c r="F100" s="43"/>
       <c r="G100" s="47"/>
     </row>
-    <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="47"/>
       <c r="B101" s="144" t="s">
         <v>80</v>
@@ -64615,7 +64638,7 @@
       <c r="F101" s="43"/>
       <c r="G101" s="47"/>
     </row>
-    <row r="102" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A102" s="47"/>
       <c r="B102" s="154" t="s">
         <v>137</v>
@@ -64705,7 +64728,7 @@
       <c r="F107" s="43"/>
       <c r="G107" s="47"/>
     </row>
-    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="47"/>
       <c r="B108" s="144" t="s">
         <v>775</v>
@@ -64735,7 +64758,7 @@
       <c r="F109" s="43"/>
       <c r="G109" s="47"/>
     </row>
-    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="47"/>
       <c r="B110" s="153" t="s">
         <v>781</v>
@@ -64750,7 +64773,7 @@
       <c r="F110" s="43"/>
       <c r="G110" s="47"/>
     </row>
-    <row r="111" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="47"/>
       <c r="B111" s="144" t="s">
         <v>753</v>
@@ -64780,7 +64803,7 @@
       <c r="F112" s="43"/>
       <c r="G112" s="47"/>
     </row>
-    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A113" s="47"/>
       <c r="B113" s="145" t="s">
         <v>768</v>
@@ -64797,7 +64820,7 @@
       </c>
       <c r="G113" s="47"/>
     </row>
-    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A114" s="47"/>
       <c r="B114" s="145" t="s">
         <v>866</v>
@@ -64872,7 +64895,7 @@
       <c r="F118" s="43"/>
       <c r="G118" s="47"/>
     </row>
-    <row r="119" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A119" s="47"/>
       <c r="B119" s="145" t="s">
         <v>939</v>
@@ -64917,7 +64940,7 @@
       <c r="F121" s="43"/>
       <c r="G121" s="47"/>
     </row>
-    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A122" s="47"/>
       <c r="B122" s="145" t="s">
         <v>962</v>
@@ -64966,7 +64989,7 @@
     </row>
     <row r="125" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A125" s="46"/>
-      <c r="B125" s="158" t="s">
+      <c r="B125" s="157" t="s">
         <v>988</v>
       </c>
       <c r="C125" s="46" t="s">
@@ -64981,7 +65004,7 @@
       </c>
       <c r="G125" s="46"/>
     </row>
-    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A126" s="47"/>
       <c r="B126" s="145" t="s">
         <v>1004</v>
@@ -65041,7 +65064,7 @@
       <c r="F129" s="43"/>
       <c r="G129" s="47"/>
     </row>
-    <row r="130" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A130" s="47"/>
       <c r="B130" s="145" t="s">
         <v>1101</v>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">' Step 2'!$A$2:$D$525</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">' Step 3'!$A$2:$C$343</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$128</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -291,6 +291,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="G41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Unfortunately, the design of the study does not make it possible to include it in the meta-analysis. 
+The baseline (silence) condition was completed by a "pilot" group of participants, whereas the experimental conditions were administered in the main study (to all participants). Thus, the study design is neither within nor between subject. Any potential effect sizes will be confounded by the fact that the control participants worked only in silence, whereas the experimental participants were exposed to a few sound conditions. Also, it is not very clear from the description if the main study was proprely counterbalanced. </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B76" authorId="1">
       <text>
         <r>
@@ -390,7 +415,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4897" uniqueCount="1178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4923" uniqueCount="1203">
   <si>
     <t>ID</t>
   </si>
@@ -27347,30 +27372,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Chou, P. (2007). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>The effects of background music on the reading performance of Taiwanese ESL students(Order No. 3293448). Available from ProQuest Dissertations and Theses A&amp;I: The Humanities and Social Sciences Collection. (304857770). Retrieved from http://search.proquest.com/docview/304857770?accountid=9679</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>. ProQuest.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Chou, P. T. M. (2010). Attention Drainage Effect: How Background Music Effects Concentration in Taiwanese College Students. </t>
     </r>
     <r>
@@ -36096,9 +36097,6 @@
     <t>the DV was a "Cognitive Achievement Test" developed by the author; could not find an indication that it contained a reading task</t>
   </si>
   <si>
-    <t>exlude at stage 4- participants</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Barnes, M. P. (2001). </t>
     </r>
@@ -36415,6 +36413,110 @@
   </si>
   <si>
     <t>2(personality type: extravert vs introvert) x 3 (background:  instrumental, vocal music, silence)</t>
+  </si>
+  <si>
+    <t>pilot/ field study</t>
+  </si>
+  <si>
+    <t>Reading performance was not assessed; data only shows rating of how difficult it was to read</t>
+  </si>
+  <si>
+    <t>there was no silence condition</t>
+  </si>
+  <si>
+    <t>2 (background: lyrical music vs non-lyrical music</t>
+  </si>
+  <si>
+    <t>participants were not native speakers of the language</t>
+  </si>
+  <si>
+    <t>3 (background: classical music, hip-hop music, silence)</t>
+  </si>
+  <si>
+    <t>data published in the paper below</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chou, P. (2007). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>The effects of background music on the reading performance of Taiwanese ESL students(Order No. 3293448). Available from ProQuest Dissertations and Theses A&amp;I: The Humanities and Social Sciences Collection. (304857770). Retrieved from http://search.proquest.com/docview/304857770?accountid=9679</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>. ProQuest.</t>
+    </r>
+  </si>
+  <si>
+    <t>no counterbalancing of conditions</t>
+  </si>
+  <si>
+    <t>3 (background: classical music, dubstep music, silence)</t>
+  </si>
+  <si>
+    <t>an intervention study; participants were not native speakers of the language</t>
+  </si>
+  <si>
+    <t>poor reporting (e.g. unknown group sample sizes) makes it impossible to include the study</t>
+  </si>
+  <si>
+    <t>3 (background: classical music, rock music, silence)</t>
+  </si>
+  <si>
+    <t>the experimental group was exposed to music for 3 weeks before the experiment; such intervention studies are excluded (see criteria)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeMers, A. S. (1996). The effect of background music on reading comprehension test scores. Master's thesis dissertation. </t>
+  </si>
+  <si>
+    <t>missing descriptive statistics; coding not possible</t>
+  </si>
+  <si>
+    <t>3 (background: lyrical music, instrumental music, silence)</t>
+  </si>
+  <si>
+    <t>2(background: music, silence)</t>
+  </si>
+  <si>
+    <t>poor description of the method; reported statistics do not make it possible to calculate effect sizes</t>
+  </si>
+  <si>
+    <t>not explicitly mentioned</t>
+  </si>
+  <si>
+    <t>problems with counterbalancing and repetition effects ; poor description of method and results</t>
+  </si>
+  <si>
+    <t>students were not native speakers; study study lasted for a semester- this is different from the remaining studies</t>
+  </si>
+  <si>
+    <t>task was gramaticality judgment; type of music is difficult to compare to other studies</t>
+  </si>
+  <si>
+    <t>3 (background: correct music, incorrect music, silence) x 2(participants: musicians vs non-musicians)</t>
+  </si>
+  <si>
+    <t>4(background: liked lyrical, disliked lyrical, non-lyrical music, silence)</t>
+  </si>
+  <si>
+    <t>Digitalized Figure 1 to obtain the descriptive statistics</t>
+  </si>
+  <si>
+    <t>see comment</t>
   </si>
 </sst>
 </file>
@@ -37021,7 +37123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -37391,9 +37493,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="50" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -39136,7 +39235,7 @@
   <dimension ref="A1:AQ319"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43921,8 +44020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49601,14 +49700,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="161"/>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
+      <c r="A1" s="160"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -50352,7 +50451,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>320</v>
@@ -57725,7 +57824,7 @@
     </row>
     <row r="526" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B526" s="10" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C526" s="12" t="s">
         <v>320</v>
@@ -57751,14 +57850,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E343"/>
   <sheetViews>
-    <sheetView topLeftCell="A326" workbookViewId="0">
-      <selection activeCell="B345" sqref="B345"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="100.42578125" style="137" customWidth="1"/>
+    <col min="2" max="2" width="100.42578125" style="136" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="45.42578125" style="12" customWidth="1"/>
     <col min="5" max="5" width="42.28515625" customWidth="1"/>
@@ -57820,14 +57919,14 @@
       <c r="A5" s="58">
         <v>3</v>
       </c>
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="133" t="s">
         <v>725</v>
       </c>
       <c r="C5" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E5" s="17"/>
     </row>
@@ -57970,14 +58069,14 @@
       <c r="A15" s="58">
         <v>13</v>
       </c>
-      <c r="B15" s="134" t="s">
+      <c r="B15" s="133" t="s">
         <v>736</v>
       </c>
       <c r="C15" s="58" t="s">
         <v>282</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E15" s="17"/>
     </row>
@@ -58016,13 +58115,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="128" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C18" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E18" s="17"/>
     </row>
@@ -58424,25 +58523,23 @@
       <c r="A45" s="58">
         <v>43</v>
       </c>
-      <c r="B45" s="126" t="s">
-        <v>894</v>
+      <c r="B45" s="128" t="s">
+        <v>1183</v>
       </c>
       <c r="C45" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D45" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="E45" s="58" t="s">
-        <v>1121</v>
-      </c>
+        <v>1182</v>
+      </c>
+      <c r="E45" s="58"/>
     </row>
     <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="58">
         <v>44</v>
       </c>
       <c r="B46" s="126" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C46" s="58" t="s">
         <v>320</v>
@@ -58457,7 +58554,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="119" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C47" s="58" t="s">
         <v>282</v>
@@ -58472,7 +58569,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="84" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C48" s="58" t="s">
         <v>282</v>
@@ -58487,7 +58584,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="128" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C49" s="58" t="s">
         <v>320</v>
@@ -58502,7 +58599,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="128" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C50" s="58" t="s">
         <v>320</v>
@@ -58517,7 +58614,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="128" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C51" s="58" t="s">
         <v>320</v>
@@ -58532,7 +58629,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="127" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C52" s="58" t="s">
         <v>282</v>
@@ -58547,7 +58644,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="84" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C53" s="58" t="s">
         <v>282</v>
@@ -58562,7 +58659,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="84" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C54" s="58" t="s">
         <v>282</v>
@@ -58577,13 +58674,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="119" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C55" s="58" t="s">
         <v>282</v>
       </c>
       <c r="D55" s="58" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E55" s="17"/>
     </row>
@@ -58592,7 +58689,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="84" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C56" s="58" t="s">
         <v>282</v>
@@ -58607,7 +58704,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="128" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C57" s="58" t="s">
         <v>320</v>
@@ -58622,7 +58719,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="84" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C58" s="58" t="s">
         <v>320</v>
@@ -58652,7 +58749,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="119" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C60" s="58" t="s">
         <v>282</v>
@@ -58667,7 +58764,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="126" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C61" s="58" t="s">
         <v>320</v>
@@ -58691,7 +58788,7 @@
         <v>479</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -58699,7 +58796,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="128" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C63" s="58" t="s">
         <v>320</v>
@@ -58713,14 +58810,14 @@
       <c r="A64" s="58">
         <v>62</v>
       </c>
-      <c r="B64" s="134" t="s">
+      <c r="B64" s="133" t="s">
         <v>732</v>
       </c>
       <c r="C64" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D64" s="58" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E64" s="17"/>
     </row>
@@ -58744,7 +58841,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="127" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C66" s="58" t="s">
         <v>282</v>
@@ -58759,7 +58856,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="128" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C67" s="58" t="s">
         <v>320</v>
@@ -58773,7 +58870,7 @@
       <c r="A68" s="58">
         <v>66</v>
       </c>
-      <c r="B68" s="140" t="s">
+      <c r="B68" s="139" t="s">
         <v>90</v>
       </c>
       <c r="C68" s="58" t="s">
@@ -58788,7 +58885,7 @@
       <c r="A69" s="58">
         <v>67</v>
       </c>
-      <c r="B69" s="143" t="s">
+      <c r="B69" s="142" t="s">
         <v>55</v>
       </c>
       <c r="C69" s="121" t="s">
@@ -58804,7 +58901,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="127" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C70" s="58" t="s">
         <v>282</v>
@@ -58819,7 +58916,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="127" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C71" s="58" t="s">
         <v>282</v>
@@ -58833,7 +58930,7 @@
       <c r="A72" s="58">
         <v>70</v>
       </c>
-      <c r="B72" s="141" t="s">
+      <c r="B72" s="140" t="s">
         <v>721</v>
       </c>
       <c r="C72" s="58" t="s">
@@ -58843,7 +58940,7 @@
         <v>479</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -58851,7 +58948,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="126" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C73" s="58" t="s">
         <v>320</v>
@@ -58866,7 +58963,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="128" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C74" s="58" t="s">
         <v>320</v>
@@ -58910,14 +59007,14 @@
       <c r="A77" s="58">
         <v>75</v>
       </c>
-      <c r="B77" s="142" t="s">
+      <c r="B77" s="141" t="s">
         <v>53</v>
       </c>
       <c r="C77" s="58" t="s">
         <v>282</v>
       </c>
       <c r="D77" s="58" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="E77" s="17"/>
     </row>
@@ -58926,7 +59023,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="127" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C78" s="58" t="s">
         <v>282</v>
@@ -58941,7 +59038,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="84" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C79" s="58" t="s">
         <v>320</v>
@@ -58956,7 +59053,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="126" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C80" s="58" t="s">
         <v>320</v>
@@ -59016,7 +59113,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="131" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C84" s="58" t="s">
         <v>320</v>
@@ -59046,7 +59143,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="119" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C86" s="58" t="s">
         <v>320</v>
@@ -59060,14 +59157,14 @@
       <c r="A87" s="58">
         <v>85</v>
       </c>
-      <c r="B87" s="134" t="s">
+      <c r="B87" s="133" t="s">
         <v>738</v>
       </c>
       <c r="C87" s="58" t="s">
         <v>282</v>
       </c>
       <c r="D87" s="60" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E87" s="17"/>
     </row>
@@ -59091,7 +59188,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="84" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C89" s="58" t="s">
         <v>320</v>
@@ -59106,7 +59203,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="119" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C90" s="58" t="s">
         <v>554</v>
@@ -59120,14 +59217,14 @@
       <c r="A91" s="58">
         <v>89</v>
       </c>
-      <c r="B91" s="134" t="s">
+      <c r="B91" s="133" t="s">
         <v>733</v>
       </c>
       <c r="C91" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D91" s="58" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E91" s="17"/>
     </row>
@@ -59151,7 +59248,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="126" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C93" s="58" t="s">
         <v>320</v>
@@ -59166,7 +59263,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="126" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C94" s="58" t="s">
         <v>320</v>
@@ -59181,7 +59278,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="126" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C95" s="58" t="s">
         <v>320</v>
@@ -59196,7 +59293,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="126" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C96" s="58" t="s">
         <v>320</v>
@@ -59211,7 +59308,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="84" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C97" s="58" t="s">
         <v>282</v>
@@ -59226,7 +59323,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="126" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C98" s="58" t="s">
         <v>320</v>
@@ -59241,7 +59338,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="127" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C99" s="58" t="s">
         <v>282</v>
@@ -59256,7 +59353,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="119" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C100" s="58" t="s">
         <v>282</v>
@@ -59271,7 +59368,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="132" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C101" s="58" t="s">
         <v>282</v>
@@ -59301,7 +59398,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="119" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C103" s="58" t="s">
         <v>554</v>
@@ -59316,7 +59413,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="128" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C104" s="58" t="s">
         <v>320</v>
@@ -59346,7 +59443,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="128" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C106" s="58" t="s">
         <v>320</v>
@@ -59376,7 +59473,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="84" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C108" s="58" t="s">
         <v>282</v>
@@ -59390,14 +59487,14 @@
       <c r="A109" s="58">
         <v>107</v>
       </c>
-      <c r="B109" s="134" t="s">
+      <c r="B109" s="133" t="s">
         <v>734</v>
       </c>
       <c r="C109" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D109" s="60" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E109" s="17"/>
     </row>
@@ -59406,7 +59503,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="126" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C110" s="58" t="s">
         <v>320</v>
@@ -59421,7 +59518,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="84" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C111" s="58" t="s">
         <v>554</v>
@@ -59436,7 +59533,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="84" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C112" s="58" t="s">
         <v>554</v>
@@ -59451,7 +59548,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="84" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C113" s="58" t="s">
         <v>554</v>
@@ -59466,7 +59563,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="130" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C114" s="58" t="s">
         <v>282</v>
@@ -59481,7 +59578,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="84" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C115" s="58" t="s">
         <v>282</v>
@@ -59496,7 +59593,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="130" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C116" s="58" t="s">
         <v>282</v>
@@ -59511,7 +59608,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="130" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C117" s="58" t="s">
         <v>282</v>
@@ -59526,7 +59623,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="84" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C118" s="58" t="s">
         <v>282</v>
@@ -59541,7 +59638,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="84" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C119" s="58" t="s">
         <v>554</v>
@@ -59556,7 +59653,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="84" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C120" s="58" t="s">
         <v>554</v>
@@ -59571,7 +59668,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="126" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C121" s="58" t="s">
         <v>320</v>
@@ -59586,7 +59683,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="128" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C122" s="58" t="s">
         <v>320</v>
@@ -59601,7 +59698,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="128" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C123" s="58" t="s">
         <v>320</v>
@@ -59631,7 +59728,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="126" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C125" s="58" t="s">
         <v>320</v>
@@ -59684,7 +59781,7 @@
         <v>798</v>
       </c>
       <c r="D128" s="58" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E128" s="17"/>
     </row>
@@ -59693,7 +59790,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="119" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C129" s="58" t="s">
         <v>554</v>
@@ -59708,7 +59805,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="126" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C130" s="58" t="s">
         <v>320</v>
@@ -59723,7 +59820,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="119" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C131" s="58" t="s">
         <v>554</v>
@@ -59738,7 +59835,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="119" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C132" s="58" t="s">
         <v>282</v>
@@ -59753,7 +59850,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="119" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C133" s="58" t="s">
         <v>320</v>
@@ -59783,7 +59880,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="119" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C135" s="58" t="s">
         <v>554</v>
@@ -59798,7 +59895,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="119" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C136" s="58" t="s">
         <v>554</v>
@@ -59828,7 +59925,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="119" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C138" s="58" t="s">
         <v>554</v>
@@ -59842,14 +59939,14 @@
       <c r="A139" s="58">
         <v>137</v>
       </c>
-      <c r="B139" s="134" t="s">
+      <c r="B139" s="133" t="s">
         <v>727</v>
       </c>
       <c r="C139" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D139" s="60" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E139" s="17"/>
     </row>
@@ -59858,7 +59955,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="84" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C140" s="58" t="s">
         <v>282</v>
@@ -59873,7 +59970,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="126" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C141" s="58" t="s">
         <v>282</v>
@@ -59888,7 +59985,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="127" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C142" s="58" t="s">
         <v>282</v>
@@ -59918,7 +60015,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="84" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C144" s="58" t="s">
         <v>554</v>
@@ -59933,7 +60030,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="119" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C145" s="58" t="s">
         <v>554</v>
@@ -59948,7 +60045,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="119" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C146" s="58" t="s">
         <v>554</v>
@@ -59980,7 +60077,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="119" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C148" s="58" t="s">
         <v>554</v>
@@ -59995,7 +60092,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="84" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C149" s="58" t="s">
         <v>282</v>
@@ -60010,7 +60107,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="128" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C150" s="58" t="s">
         <v>320</v>
@@ -60040,13 +60137,13 @@
         <v>150</v>
       </c>
       <c r="B152" s="119" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C152" s="58" t="s">
         <v>282</v>
       </c>
       <c r="D152" s="58" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E152" s="17"/>
     </row>
@@ -60055,7 +60152,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="84" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C153" s="58" t="s">
         <v>282</v>
@@ -60070,7 +60167,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="126" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C154" s="58" t="s">
         <v>320</v>
@@ -60084,14 +60181,14 @@
       <c r="A155" s="58">
         <v>153</v>
       </c>
-      <c r="B155" s="134" t="s">
+      <c r="B155" s="133" t="s">
         <v>735</v>
       </c>
       <c r="C155" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D155" s="60" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E155" s="17"/>
     </row>
@@ -60100,7 +60197,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="84" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C156" s="58" t="s">
         <v>554</v>
@@ -60115,7 +60212,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="126" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C157" s="58" t="s">
         <v>320</v>
@@ -60130,7 +60227,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="128" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C158" s="58" t="s">
         <v>320</v>
@@ -60145,7 +60242,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="119" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C159" s="58" t="s">
         <v>554</v>
@@ -60160,7 +60257,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="128" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C160" s="58" t="s">
         <v>320</v>
@@ -60175,7 +60272,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="119" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C161" s="58" t="s">
         <v>554</v>
@@ -60190,7 +60287,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="84" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C162" s="58" t="s">
         <v>320</v>
@@ -60220,7 +60317,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="119" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C164" s="58" t="s">
         <v>554</v>
@@ -60235,7 +60332,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="119" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C165" s="58" t="s">
         <v>554</v>
@@ -60256,7 +60353,7 @@
         <v>320</v>
       </c>
       <c r="D166" s="58" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E166" s="17"/>
     </row>
@@ -60265,7 +60362,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="126" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C167" s="58" t="s">
         <v>320</v>
@@ -60280,7 +60377,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="119" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C168" s="58" t="s">
         <v>554</v>
@@ -60295,7 +60392,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="84" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C169" s="58" t="s">
         <v>320</v>
@@ -60310,7 +60407,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="126" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C170" s="58" t="s">
         <v>320</v>
@@ -60325,7 +60422,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="127" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C171" s="58" t="s">
         <v>282</v>
@@ -60340,7 +60437,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="119" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C172" s="58" t="s">
         <v>282</v>
@@ -60355,7 +60452,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="84" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C173" s="58" t="s">
         <v>282</v>
@@ -60370,7 +60467,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="84" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C174" s="58" t="s">
         <v>282</v>
@@ -60399,8 +60496,8 @@
       <c r="A176" s="58">
         <v>174</v>
       </c>
-      <c r="B176" s="134" t="s">
-        <v>986</v>
+      <c r="B176" s="133" t="s">
+        <v>985</v>
       </c>
       <c r="C176" s="58" t="s">
         <v>320</v>
@@ -60415,7 +60512,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="128" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C177" s="58" t="s">
         <v>320</v>
@@ -60430,13 +60527,13 @@
         <v>176</v>
       </c>
       <c r="B178" s="128" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C178" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D178" s="58" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E178" s="17"/>
     </row>
@@ -60445,7 +60542,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="84" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C179" s="58" t="s">
         <v>554</v>
@@ -60475,7 +60572,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="119" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C181" s="58" t="s">
         <v>554</v>
@@ -60489,14 +60586,14 @@
       <c r="A182" s="58">
         <v>180</v>
       </c>
-      <c r="B182" s="134" t="s">
+      <c r="B182" s="133" t="s">
         <v>729</v>
       </c>
       <c r="C182" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D182" s="58" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E182" s="17"/>
     </row>
@@ -60550,7 +60647,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="126" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C186" s="58" t="s">
         <v>320</v>
@@ -60582,7 +60679,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="128" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C188" s="58" t="s">
         <v>320</v>
@@ -60597,7 +60694,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="84" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C189" s="58" t="s">
         <v>554</v>
@@ -60642,7 +60739,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="119" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C192" s="58" t="s">
         <v>554</v>
@@ -60657,7 +60754,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="84" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C193" s="58" t="s">
         <v>282</v>
@@ -60717,7 +60814,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="119" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C197" s="58" t="s">
         <v>554</v>
@@ -60732,7 +60829,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="119" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C198" s="58" t="s">
         <v>554</v>
@@ -60747,7 +60844,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="127" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C199" s="58" t="s">
         <v>282</v>
@@ -60777,7 +60874,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="127" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C201" s="58" t="s">
         <v>282</v>
@@ -60792,7 +60889,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="119" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C202" s="58" t="s">
         <v>554</v>
@@ -60807,7 +60904,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="128" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C203" s="58" t="s">
         <v>320</v>
@@ -60822,7 +60919,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="119" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C204" s="58" t="s">
         <v>554</v>
@@ -60837,7 +60934,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="127" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C205" s="58" t="s">
         <v>282</v>
@@ -60852,7 +60949,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="119" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C206" s="58" t="s">
         <v>554</v>
@@ -60882,7 +60979,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="84" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C208" s="58" t="s">
         <v>554</v>
@@ -60912,7 +61009,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="130" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C210" s="58" t="s">
         <v>282</v>
@@ -60957,7 +61054,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="128" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C213" s="58" t="s">
         <v>320</v>
@@ -60972,7 +61069,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="119" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C214" s="58" t="s">
         <v>554</v>
@@ -60987,7 +61084,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="128" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C215" s="58" t="s">
         <v>554</v>
@@ -60995,7 +61092,7 @@
       <c r="D215" s="58" t="s">
         <v>859</v>
       </c>
-      <c r="E215" s="138" t="s">
+      <c r="E215" s="137" t="s">
         <v>858</v>
       </c>
     </row>
@@ -61004,7 +61101,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="119" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C216" s="58" t="s">
         <v>554</v>
@@ -61019,7 +61116,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="119" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C217" s="58" t="s">
         <v>554</v>
@@ -61049,7 +61146,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="119" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C219" s="58" t="s">
         <v>554</v>
@@ -61064,7 +61161,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="20" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C220" s="58" t="s">
         <v>320</v>
@@ -61079,7 +61176,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="126" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C221" s="58" t="s">
         <v>320</v>
@@ -61094,7 +61191,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="84" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C222" s="58" t="s">
         <v>320</v>
@@ -61109,7 +61206,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="126" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C223" s="58" t="s">
         <v>320</v>
@@ -61124,7 +61221,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="84" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C224" s="58" t="s">
         <v>320</v>
@@ -61139,7 +61236,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="128" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C225" s="58" t="s">
         <v>320</v>
@@ -61154,7 +61251,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="128" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C226" s="58" t="s">
         <v>320</v>
@@ -61169,7 +61266,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="126" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C227" s="58" t="s">
         <v>320</v>
@@ -61184,7 +61281,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="119" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C228" s="58" t="s">
         <v>554</v>
@@ -61199,7 +61296,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="119" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C229" s="58" t="s">
         <v>554</v>
@@ -61214,7 +61311,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="84" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C230" s="58" t="s">
         <v>554</v>
@@ -61229,7 +61326,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="127" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C231" s="58" t="s">
         <v>282</v>
@@ -61244,7 +61341,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="127" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C232" s="58" t="s">
         <v>282</v>
@@ -61259,7 +61356,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="128" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C233" s="58" t="s">
         <v>320</v>
@@ -61274,7 +61371,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="119" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C234" s="58" t="s">
         <v>282</v>
@@ -61288,14 +61385,14 @@
       <c r="A235" s="58">
         <v>233</v>
       </c>
-      <c r="B235" s="134" t="s">
+      <c r="B235" s="133" t="s">
         <v>728</v>
       </c>
       <c r="C235" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D235" s="58" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E235" s="17"/>
     </row>
@@ -61319,7 +61416,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="130" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C237" s="58" t="s">
         <v>282</v>
@@ -61334,7 +61431,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="126" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C238" s="58" t="s">
         <v>320</v>
@@ -61349,7 +61446,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="127" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C239" s="58" t="s">
         <v>282</v>
@@ -61394,7 +61491,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="119" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C242" s="58" t="s">
         <v>320</v>
@@ -61409,7 +61506,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="119" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C243" s="58" t="s">
         <v>554</v>
@@ -61424,7 +61521,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="126" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C244" s="58" t="s">
         <v>320</v>
@@ -61439,7 +61536,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="128" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C245" s="58" t="s">
         <v>320</v>
@@ -61454,7 +61551,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="119" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C246" s="58" t="s">
         <v>554</v>
@@ -61469,7 +61566,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="126" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C247" s="58" t="s">
         <v>320</v>
@@ -61484,7 +61581,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="126" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C248" s="58" t="s">
         <v>320</v>
@@ -61499,7 +61596,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="127" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C249" s="58" t="s">
         <v>282</v>
@@ -61514,7 +61611,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="119" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C250" s="58" t="s">
         <v>554</v>
@@ -61529,7 +61626,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="128" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C251" s="58" t="s">
         <v>320</v>
@@ -61544,7 +61641,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="127" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C252" s="58" t="s">
         <v>282</v>
@@ -61558,7 +61655,7 @@
       <c r="A253" s="58">
         <v>251</v>
       </c>
-      <c r="B253" s="134" t="s">
+      <c r="B253" s="133" t="s">
         <v>328</v>
       </c>
       <c r="C253" s="58" t="s">
@@ -61576,7 +61673,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="126" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C254" s="58" t="s">
         <v>320</v>
@@ -61590,14 +61687,14 @@
       <c r="A255" s="58">
         <v>253</v>
       </c>
-      <c r="B255" s="134" t="s">
+      <c r="B255" s="133" t="s">
         <v>731</v>
       </c>
       <c r="C255" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D255" s="58" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E255" s="17"/>
     </row>
@@ -61606,7 +61703,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="119" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C256" s="58" t="s">
         <v>554</v>
@@ -61621,7 +61718,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="119" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C257" s="58" t="s">
         <v>554</v>
@@ -61636,7 +61733,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="127" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C258" s="58" t="s">
         <v>282</v>
@@ -61666,7 +61763,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="127" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C260" s="58" t="s">
         <v>282</v>
@@ -61681,7 +61778,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="119" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C261" s="58" t="s">
         <v>554</v>
@@ -61696,7 +61793,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="128" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C262" s="58" t="s">
         <v>320</v>
@@ -61711,7 +61808,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="119" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C263" s="58" t="s">
         <v>554</v>
@@ -61741,7 +61838,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="128" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C265" s="58" t="s">
         <v>320</v>
@@ -61756,7 +61853,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="119" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C266" s="58" t="s">
         <v>554</v>
@@ -61771,7 +61868,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="119" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C267" s="58" t="s">
         <v>320</v>
@@ -61786,7 +61883,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="128" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C268" s="58" t="s">
         <v>320</v>
@@ -61801,7 +61898,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="128" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C269" s="58" t="s">
         <v>320</v>
@@ -61816,7 +61913,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="119" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C270" s="58" t="s">
         <v>554</v>
@@ -61831,7 +61928,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="119" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C271" s="58" t="s">
         <v>282</v>
@@ -61846,7 +61943,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="119" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C272" s="58" t="s">
         <v>554</v>
@@ -61876,7 +61973,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="126" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C274" s="58" t="s">
         <v>320</v>
@@ -61891,7 +61988,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="119" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C275" s="58" t="s">
         <v>320</v>
@@ -61906,7 +62003,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="84" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C276" s="58" t="s">
         <v>282</v>
@@ -61935,14 +62032,16 @@
       <c r="A278" s="58">
         <v>276</v>
       </c>
-      <c r="B278" s="133" t="s">
+      <c r="B278" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="C278" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="D278" s="46"/>
-      <c r="E278" s="32"/>
+      <c r="C278" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D278" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E278" s="17"/>
     </row>
     <row r="279" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="58">
@@ -61979,7 +62078,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="130" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C281" s="58" t="s">
         <v>282</v>
@@ -62039,7 +62138,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="119" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C285" s="58" t="s">
         <v>282</v>
@@ -62054,13 +62153,13 @@
         <v>284</v>
       </c>
       <c r="B286" s="128" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C286" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D286" s="58" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E286" s="17"/>
     </row>
@@ -62083,7 +62182,7 @@
       <c r="A288" s="58">
         <v>286</v>
       </c>
-      <c r="B288" s="135" t="s">
+      <c r="B288" s="134" t="s">
         <v>781</v>
       </c>
       <c r="C288" s="58" t="s">
@@ -62129,7 +62228,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="119" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C291" s="58" t="s">
         <v>554</v>
@@ -62174,7 +62273,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="119" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C294" s="58" t="s">
         <v>554</v>
@@ -62189,13 +62288,13 @@
         <v>293</v>
       </c>
       <c r="B295" s="128" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C295" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D295" s="58" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E295" s="17"/>
     </row>
@@ -62204,7 +62303,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="119" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C296" s="58" t="s">
         <v>554</v>
@@ -62236,7 +62335,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="119" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C298" s="58" t="s">
         <v>554</v>
@@ -62251,7 +62350,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="127" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C299" s="58" t="s">
         <v>282</v>
@@ -62266,7 +62365,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="84" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C300" s="58" t="s">
         <v>554</v>
@@ -62281,7 +62380,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="84" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C301" s="58" t="s">
         <v>554</v>
@@ -62296,7 +62395,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="119" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C302" s="58" t="s">
         <v>554</v>
@@ -62311,7 +62410,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="128" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C303" s="58" t="s">
         <v>320</v>
@@ -62326,7 +62425,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="127" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C304" s="58" t="s">
         <v>282</v>
@@ -62341,7 +62440,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="119" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C305" s="58" t="s">
         <v>282</v>
@@ -62356,7 +62455,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="130" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C306" s="58" t="s">
         <v>282</v>
@@ -62371,7 +62470,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="84" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C307" s="58" t="s">
         <v>282</v>
@@ -62386,7 +62485,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="119" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C308" s="58" t="s">
         <v>554</v>
@@ -62401,7 +62500,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="127" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C309" s="58" t="s">
         <v>282</v>
@@ -62416,7 +62515,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="128" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C310" s="58" t="s">
         <v>320</v>
@@ -62431,7 +62530,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="128" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C311" s="58" t="s">
         <v>320</v>
@@ -62446,7 +62545,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="126" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C312" s="58" t="s">
         <v>320</v>
@@ -62460,8 +62559,8 @@
       <c r="A313" s="58">
         <v>311</v>
       </c>
-      <c r="B313" s="134" t="s">
-        <v>1078</v>
+      <c r="B313" s="133" t="s">
+        <v>1077</v>
       </c>
       <c r="C313" s="58" t="s">
         <v>320</v>
@@ -62476,7 +62575,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="119" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C314" s="58" t="s">
         <v>554</v>
@@ -62491,7 +62590,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="84" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C315" s="58" t="s">
         <v>320</v>
@@ -62506,7 +62605,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="119" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C316" s="58" t="s">
         <v>554</v>
@@ -62521,7 +62620,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="119" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C317" s="58" t="s">
         <v>554</v>
@@ -62536,7 +62635,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="127" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C318" s="58" t="s">
         <v>282</v>
@@ -62568,7 +62667,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="119" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C320" s="58" t="s">
         <v>554</v>
@@ -62583,7 +62682,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="119" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C321" s="58" t="s">
         <v>554</v>
@@ -62598,7 +62697,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="84" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C322" s="58" t="s">
         <v>554</v>
@@ -62628,7 +62727,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="84" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C324" s="58" t="s">
         <v>554</v>
@@ -62643,7 +62742,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="127" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C325" s="58" t="s">
         <v>282</v>
@@ -62657,14 +62756,14 @@
       <c r="A326" s="58">
         <v>324</v>
       </c>
-      <c r="B326" s="134" t="s">
+      <c r="B326" s="133" t="s">
         <v>730</v>
       </c>
       <c r="C326" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D326" s="60" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E326" s="17"/>
     </row>
@@ -62673,7 +62772,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="119" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C327" s="58" t="s">
         <v>282</v>
@@ -62688,7 +62787,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="132" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C328" s="58" t="s">
         <v>282</v>
@@ -62703,7 +62802,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="84" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C329" s="58" t="s">
         <v>282</v>
@@ -62733,7 +62832,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="119" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C331" s="58" t="s">
         <v>554</v>
@@ -62748,7 +62847,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="119" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C332" s="58" t="s">
         <v>282</v>
@@ -62763,7 +62862,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="127" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C333" s="58" t="s">
         <v>282</v>
@@ -62787,21 +62886,21 @@
         <v>479</v>
       </c>
       <c r="E334" s="58" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="58">
         <v>333</v>
       </c>
-      <c r="B335" s="139" t="s">
-        <v>1106</v>
+      <c r="B335" s="138" t="s">
+        <v>1105</v>
       </c>
       <c r="C335" s="58" t="s">
         <v>282</v>
       </c>
       <c r="D335" s="60" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E335" s="17"/>
     </row>
@@ -62810,7 +62909,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="119" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C336" s="58" t="s">
         <v>554</v>
@@ -62825,7 +62924,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="128" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C337" s="58" t="s">
         <v>320</v>
@@ -62840,7 +62939,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="128" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C338" s="58" t="s">
         <v>320</v>
@@ -62854,7 +62953,7 @@
       <c r="A339" s="58">
         <v>337</v>
       </c>
-      <c r="B339" s="136" t="s">
+      <c r="B339" s="135" t="s">
         <v>137</v>
       </c>
       <c r="C339" s="58" t="s">
@@ -62870,7 +62969,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="119" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C340" s="58" t="s">
         <v>282</v>
@@ -62885,7 +62984,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="119" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C341" s="58" t="s">
         <v>554</v>
@@ -62900,7 +62999,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="128" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C342" s="58" t="s">
         <v>320</v>
@@ -62915,7 +63014,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="84" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C343" s="58" t="s">
         <v>554</v>
@@ -62937,16 +63036,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="100.42578125" style="137" customWidth="1"/>
+    <col min="2" max="2" width="100.42578125" style="136" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="12" customWidth="1"/>
@@ -62969,10 +63068,10 @@
         <v>283</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>827</v>
@@ -62985,8 +63084,8 @@
       <c r="A3" s="47">
         <v>1</v>
       </c>
-      <c r="B3" s="145" t="s">
-        <v>1066</v>
+      <c r="B3" s="144" t="s">
+        <v>1065</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>554</v>
@@ -63002,8 +63101,8 @@
       <c r="A4" s="47">
         <v>2</v>
       </c>
-      <c r="B4" s="145" t="s">
-        <v>992</v>
+      <c r="B4" s="144" t="s">
+        <v>991</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>554</v>
@@ -63019,7 +63118,7 @@
       <c r="A5" s="47">
         <v>3</v>
       </c>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="150" t="s">
         <v>517</v>
       </c>
       <c r="C5" s="47" t="s">
@@ -63036,8 +63135,8 @@
       <c r="A6" s="47">
         <v>4</v>
       </c>
-      <c r="B6" s="145" t="s">
-        <v>1080</v>
+      <c r="B6" s="144" t="s">
+        <v>1079</v>
       </c>
       <c r="C6" s="47" t="s">
         <v>320</v>
@@ -63053,20 +63152,20 @@
       <c r="A7" s="58">
         <v>5</v>
       </c>
-      <c r="B7" s="146" t="s">
-        <v>908</v>
+      <c r="B7" s="145" t="s">
+        <v>907</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D7" s="61" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F7" s="47" t="s">
         <v>1134</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>1136</v>
       </c>
       <c r="G7" s="47" t="s">
         <v>479</v>
@@ -63076,20 +63175,20 @@
       <c r="A8" s="58">
         <v>6</v>
       </c>
-      <c r="B8" s="155" t="s">
-        <v>917</v>
+      <c r="B8" s="154" t="s">
+        <v>916</v>
       </c>
       <c r="C8" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="E8" s="58" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="G8" s="47" t="s">
         <v>479</v>
@@ -63099,20 +63198,20 @@
       <c r="A9" s="58">
         <v>7</v>
       </c>
-      <c r="B9" s="144" t="s">
-        <v>918</v>
+      <c r="B9" s="143" t="s">
+        <v>917</v>
       </c>
       <c r="C9" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="E9" s="58" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="G9" s="47" t="s">
         <v>479</v>
@@ -63122,40 +63221,40 @@
       <c r="A10" s="58">
         <v>8</v>
       </c>
-      <c r="B10" s="146" t="s">
+      <c r="B10" s="145" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G10" s="47" t="s">
         <v>1141</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>1142</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58">
         <v>9</v>
       </c>
-      <c r="B11" s="146" t="s">
-        <v>981</v>
+      <c r="B11" s="145" t="s">
+        <v>980</v>
       </c>
       <c r="C11" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F11" s="61" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="G11" s="47" t="s">
         <v>479</v>
@@ -63165,20 +63264,20 @@
       <c r="A12" s="58">
         <v>10</v>
       </c>
-      <c r="B12" s="144" t="s">
-        <v>1011</v>
+      <c r="B12" s="143" t="s">
+        <v>1010</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F12" s="61" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G12" s="47" t="s">
         <v>479</v>
@@ -63188,20 +63287,20 @@
       <c r="A13" s="58">
         <v>11</v>
       </c>
-      <c r="B13" s="146" t="s">
-        <v>914</v>
+      <c r="B13" s="145" t="s">
+        <v>913</v>
       </c>
       <c r="C13" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="E13" s="58" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F13" s="61" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="G13" s="47" t="s">
         <v>479</v>
@@ -63211,17 +63310,17 @@
       <c r="A14" s="58">
         <v>12</v>
       </c>
-      <c r="B14" s="144" t="s">
+      <c r="B14" s="143" t="s">
         <v>864</v>
       </c>
       <c r="C14" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E14" s="58" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="47" t="s">
@@ -63232,20 +63331,20 @@
       <c r="A15" s="58">
         <v>13</v>
       </c>
-      <c r="B15" s="146" t="s">
-        <v>926</v>
+      <c r="B15" s="145" t="s">
+        <v>925</v>
       </c>
       <c r="C15" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D15" s="61" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E15" s="58" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F15" s="61" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G15" s="47" t="s">
         <v>479</v>
@@ -63255,20 +63354,20 @@
       <c r="A16" s="58">
         <v>14</v>
       </c>
-      <c r="B16" s="144" t="s">
-        <v>1017</v>
+      <c r="B16" s="143" t="s">
+        <v>1016</v>
       </c>
       <c r="C16" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D16" s="61" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E16" s="58" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F16" s="61" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G16" s="47" t="s">
         <v>479</v>
@@ -63278,20 +63377,20 @@
       <c r="A17" s="58">
         <v>15</v>
       </c>
-      <c r="B17" s="146" t="s">
+      <c r="B17" s="145" t="s">
         <v>870</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="E17" s="58" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F17" s="61" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="G17" s="47" t="s">
         <v>479</v>
@@ -63301,40 +63400,40 @@
       <c r="A18" s="58">
         <v>16</v>
       </c>
-      <c r="B18" s="146" t="s">
+      <c r="B18" s="145" t="s">
         <v>886</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="G18" s="61" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="58">
         <v>17</v>
       </c>
-      <c r="B19" s="155" t="s">
+      <c r="B19" s="154" t="s">
         <v>518</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F19" s="61" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="G19" s="47" t="s">
         <v>479</v>
@@ -63344,17 +63443,17 @@
       <c r="A20" s="58">
         <v>18</v>
       </c>
-      <c r="B20" s="150" t="s">
-        <v>919</v>
+      <c r="B20" s="149" t="s">
+        <v>918</v>
       </c>
       <c r="C20" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="E20" s="58" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F20" s="43"/>
       <c r="G20" s="47" t="s">
@@ -63365,20 +63464,20 @@
       <c r="A21" s="58">
         <v>19</v>
       </c>
-      <c r="B21" s="144" t="s">
-        <v>952</v>
+      <c r="B21" s="143" t="s">
+        <v>951</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="E21" s="58" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F21" s="158" t="s">
-        <v>1165</v>
+        <v>1133</v>
+      </c>
+      <c r="F21" s="157" t="s">
+        <v>1163</v>
       </c>
       <c r="G21" s="47" t="s">
         <v>479</v>
@@ -63388,41 +63487,41 @@
       <c r="A22" s="58">
         <v>20</v>
       </c>
-      <c r="B22" s="145" t="s">
-        <v>1012</v>
+      <c r="B22" s="144" t="s">
+        <v>1011</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E22" s="46" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="F22" s="43"/>
       <c r="G22" s="61" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="58">
         <v>21</v>
       </c>
-      <c r="B23" s="159" t="s">
+      <c r="B23" s="158" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D23" s="61" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F23" s="159" t="s">
         <v>1170</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D23" s="61" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E23" s="58" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F23" s="160" t="s">
-        <v>1172</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>479</v>
@@ -63432,20 +63531,20 @@
       <c r="A24" s="58">
         <v>22</v>
       </c>
-      <c r="B24" s="146" t="s">
-        <v>923</v>
+      <c r="B24" s="145" t="s">
+        <v>922</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D24" s="61" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E24" s="58" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F24" s="61" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="G24" s="47" t="s">
         <v>479</v>
@@ -63455,285 +63554,365 @@
       <c r="A25" s="58">
         <v>23</v>
       </c>
-      <c r="B25" s="144" t="s">
-        <v>924</v>
+      <c r="B25" s="143" t="s">
+        <v>923</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E25" s="58" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F25" s="61" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="G25" s="47" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47">
+      <c r="A26" s="58">
         <v>24</v>
       </c>
-      <c r="B26" s="144" t="s">
-        <v>928</v>
+      <c r="B26" s="143" t="s">
+        <v>927</v>
       </c>
       <c r="C26" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D26" s="61" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E26" s="58" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F26" s="43"/>
+      <c r="G26" s="47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="58">
+        <v>25</v>
+      </c>
+      <c r="B27" s="145" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F27" s="43"/>
+      <c r="G27" s="61" t="s">
         <v>1177</v>
       </c>
-      <c r="E26" s="47" t="s">
+    </row>
+    <row r="28" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="58">
+        <v>26</v>
+      </c>
+      <c r="B28" s="143" t="s">
+        <v>989</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="58">
+        <v>27</v>
+      </c>
+      <c r="B29" s="145" t="s">
+        <v>894</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D29" s="61" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F29" s="43"/>
+      <c r="G29" s="61" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="58">
+        <v>28</v>
+      </c>
+      <c r="B30" s="143" t="s">
+        <v>863</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D30" s="61" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F30" s="43"/>
+      <c r="G30" s="61" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="58">
+        <v>29</v>
+      </c>
+      <c r="B31" s="144" t="s">
+        <v>920</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D31" s="47"/>
+      <c r="E31" s="46" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F31" s="43"/>
+      <c r="G31" s="61" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="58">
+        <v>30</v>
+      </c>
+      <c r="B32" s="143" t="s">
+        <v>949</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D32" s="61" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="58">
+        <v>31</v>
+      </c>
+      <c r="B33" s="145" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F33" s="43"/>
+      <c r="G33" s="61" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="58">
+        <v>32</v>
+      </c>
+      <c r="B34" s="145" t="s">
+        <v>703</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D34" s="61" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F34" s="43"/>
+      <c r="G34" s="61" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="58">
+        <v>33</v>
+      </c>
+      <c r="B35" s="144" t="s">
+        <v>974</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D35" s="61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E35" s="46" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F35" s="43"/>
+      <c r="G35" s="61" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="58">
+        <v>34</v>
+      </c>
+      <c r="B36" s="145" t="s">
+        <v>877</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D36" s="47" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E36" s="46" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F36" s="43"/>
+      <c r="G36" s="61" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="58">
+        <v>35</v>
+      </c>
+      <c r="B37" s="143" t="s">
+        <v>935</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D37" s="61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E37" s="46" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F37" s="43"/>
+      <c r="G37" s="61" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="58">
+        <v>36</v>
+      </c>
+      <c r="B38" s="144" t="s">
+        <v>979</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D38" s="61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E38" s="46" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F38" s="43"/>
+      <c r="G38" s="61" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="58">
+        <v>37</v>
+      </c>
+      <c r="B39" s="145" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D39" s="61" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F39" s="43"/>
+      <c r="G39" s="61" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="58">
+        <v>38</v>
+      </c>
+      <c r="B40" s="145" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C40" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D40" s="61" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E40" s="58" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F40" s="61" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G40" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="47"/>
-    </row>
-    <row r="27" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47">
-        <v>25</v>
-      </c>
-      <c r="B27" s="144" t="s">
-        <v>925</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F27" s="43"/>
-      <c r="G27" s="47"/>
-    </row>
-    <row r="28" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="144" t="s">
-        <v>863</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F28" s="43"/>
-      <c r="G28" s="47"/>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="144" t="s">
-        <v>877</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F29" s="43"/>
-      <c r="G29" s="47"/>
-    </row>
-    <row r="30" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="144" t="s">
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="58">
+        <v>39</v>
+      </c>
+      <c r="B41" s="143" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E41" s="46" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F41" s="43"/>
+      <c r="G41" s="61" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="47"/>
+      <c r="B42" s="145" t="s">
         <v>889</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="47"/>
-    </row>
-    <row r="31" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="144" t="s">
-        <v>894</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F31" s="47" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G31" s="47"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="144" t="s">
-        <v>895</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F32" s="43"/>
-      <c r="G32" s="47"/>
-    </row>
-    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="145" t="s">
-        <v>906</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F33" s="43"/>
-      <c r="G33" s="47"/>
-    </row>
-    <row r="34" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="146" t="s">
-        <v>724</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F34" s="53" t="s">
-        <v>1123</v>
-      </c>
-      <c r="G34" s="61"/>
-    </row>
-    <row r="35" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="144" t="s">
-        <v>363</v>
-      </c>
-      <c r="C35" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F35" s="43"/>
-      <c r="G35" s="47"/>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="148" t="s">
-        <v>721</v>
-      </c>
-      <c r="C36" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F36" s="53" t="s">
-        <v>1125</v>
-      </c>
-      <c r="G36" s="61"/>
-    </row>
-    <row r="37" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="145" t="s">
-        <v>921</v>
-      </c>
-      <c r="C37" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F37" s="43"/>
-      <c r="G37" s="47"/>
-    </row>
-    <row r="38" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
-      <c r="B38" s="144" t="s">
-        <v>703</v>
-      </c>
-      <c r="C38" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F38" s="43"/>
-      <c r="G38" s="47"/>
-    </row>
-    <row r="39" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="144" t="s">
-        <v>936</v>
-      </c>
-      <c r="C39" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F39" s="43"/>
-      <c r="G39" s="47"/>
-    </row>
-    <row r="40" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="144" t="s">
-        <v>947</v>
-      </c>
-      <c r="C40" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F40" s="61" t="s">
-        <v>1163</v>
-      </c>
-      <c r="G40" s="47"/>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="144" t="s">
-        <v>950</v>
-      </c>
-      <c r="C41" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F41" s="61" t="s">
-        <v>497</v>
-      </c>
-      <c r="G41" s="61"/>
-    </row>
-    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="144" t="s">
-        <v>969</v>
       </c>
       <c r="C42" s="47" t="s">
         <v>320</v>
@@ -63745,10 +63924,10 @@
       <c r="F42" s="43"/>
       <c r="G42" s="47"/>
     </row>
-    <row r="43" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47"/>
       <c r="B43" s="144" t="s">
-        <v>971</v>
+        <v>905</v>
       </c>
       <c r="C43" s="47" t="s">
         <v>320</v>
@@ -63760,10 +63939,10 @@
       <c r="F43" s="43"/>
       <c r="G43" s="47"/>
     </row>
-    <row r="44" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47"/>
       <c r="B44" s="145" t="s">
-        <v>975</v>
+        <v>724</v>
       </c>
       <c r="C44" s="47" t="s">
         <v>320</v>
@@ -63772,13 +63951,15 @@
       <c r="E44" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F44" s="43"/>
-      <c r="G44" s="47"/>
-    </row>
-    <row r="45" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F44" s="53" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G44" s="61"/>
+    </row>
+    <row r="45" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="47"/>
-      <c r="B45" s="144" t="s">
-        <v>978</v>
+      <c r="B45" s="147" t="s">
+        <v>721</v>
       </c>
       <c r="C45" s="47" t="s">
         <v>320</v>
@@ -63787,13 +63968,15 @@
       <c r="E45" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F45" s="43"/>
-      <c r="G45" s="47"/>
-    </row>
-    <row r="46" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="53" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G45" s="61"/>
+    </row>
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="47"/>
-      <c r="B46" s="145" t="s">
-        <v>980</v>
+      <c r="B46" s="143" t="s">
+        <v>924</v>
       </c>
       <c r="C46" s="47" t="s">
         <v>320</v>
@@ -63805,10 +63988,10 @@
       <c r="F46" s="43"/>
       <c r="G46" s="47"/>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47"/>
-      <c r="B47" s="144" t="s">
-        <v>990</v>
+      <c r="B47" s="143" t="s">
+        <v>946</v>
       </c>
       <c r="C47" s="47" t="s">
         <v>320</v>
@@ -63817,15 +64000,15 @@
       <c r="E47" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F47" s="47" t="s">
-        <v>861</v>
+      <c r="F47" s="61" t="s">
+        <v>1161</v>
       </c>
       <c r="G47" s="47"/>
     </row>
-    <row r="48" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47"/>
-      <c r="B48" s="145" t="s">
-        <v>1014</v>
+      <c r="B48" s="143" t="s">
+        <v>968</v>
       </c>
       <c r="C48" s="47" t="s">
         <v>320</v>
@@ -63837,10 +64020,10 @@
       <c r="F48" s="43"/>
       <c r="G48" s="47"/>
     </row>
-    <row r="49" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47"/>
-      <c r="B49" s="144" t="s">
-        <v>1026</v>
+      <c r="B49" s="143" t="s">
+        <v>970</v>
       </c>
       <c r="C49" s="47" t="s">
         <v>320</v>
@@ -63852,10 +64035,10 @@
       <c r="F49" s="43"/>
       <c r="G49" s="47"/>
     </row>
-    <row r="50" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="47"/>
-      <c r="B50" s="144" t="s">
-        <v>1030</v>
+      <c r="B50" s="143" t="s">
+        <v>977</v>
       </c>
       <c r="C50" s="47" t="s">
         <v>320</v>
@@ -63867,10 +64050,10 @@
       <c r="F50" s="43"/>
       <c r="G50" s="47"/>
     </row>
-    <row r="51" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="47"/>
       <c r="B51" s="144" t="s">
-        <v>1033</v>
+        <v>1013</v>
       </c>
       <c r="C51" s="47" t="s">
         <v>320</v>
@@ -63882,10 +64065,10 @@
       <c r="F51" s="43"/>
       <c r="G51" s="47"/>
     </row>
-    <row r="52" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="47"/>
-      <c r="B52" s="144" t="s">
-        <v>1034</v>
+      <c r="B52" s="143" t="s">
+        <v>1032</v>
       </c>
       <c r="C52" s="47" t="s">
         <v>320</v>
@@ -63899,8 +64082,8 @@
     </row>
     <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="47"/>
-      <c r="B53" s="146" t="s">
-        <v>328</v>
+      <c r="B53" s="143" t="s">
+        <v>1033</v>
       </c>
       <c r="C53" s="47" t="s">
         <v>320</v>
@@ -63909,15 +64092,13 @@
       <c r="E53" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F53" s="61" t="s">
-        <v>509</v>
-      </c>
-      <c r="G53" s="61"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="47"/>
     </row>
     <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="47"/>
-      <c r="B54" s="144" t="s">
-        <v>1039</v>
+      <c r="B54" s="145" t="s">
+        <v>328</v>
       </c>
       <c r="C54" s="47" t="s">
         <v>320</v>
@@ -63926,13 +64107,15 @@
       <c r="E54" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F54" s="43"/>
-      <c r="G54" s="47"/>
-    </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F54" s="61" t="s">
+        <v>509</v>
+      </c>
+      <c r="G54" s="61"/>
+    </row>
+    <row r="55" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="47"/>
-      <c r="B55" s="144" t="s">
-        <v>1077</v>
+      <c r="B55" s="143" t="s">
+        <v>1038</v>
       </c>
       <c r="C55" s="47" t="s">
         <v>320</v>
@@ -63946,7 +64129,7 @@
     </row>
     <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="47"/>
-      <c r="B56" s="146" t="s">
+      <c r="B56" s="145" t="s">
         <v>726</v>
       </c>
       <c r="C56" s="47" t="s">
@@ -63957,13 +64140,13 @@
         <v>479</v>
       </c>
       <c r="F56" s="47" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G56" s="47"/>
     </row>
     <row r="57" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A57" s="47"/>
-      <c r="B57" s="145" t="s">
+      <c r="B57" s="144" t="s">
         <v>867</v>
       </c>
       <c r="C57" s="47" t="s">
@@ -63978,7 +64161,7 @@
     </row>
     <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="47"/>
-      <c r="B58" s="145" t="s">
+      <c r="B58" s="144" t="s">
         <v>879</v>
       </c>
       <c r="C58" s="47" t="s">
@@ -63993,10 +64176,10 @@
       </c>
       <c r="G58" s="61"/>
     </row>
-    <row r="59" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47"/>
-      <c r="B59" s="145" t="s">
-        <v>897</v>
+      <c r="B59" s="144" t="s">
+        <v>896</v>
       </c>
       <c r="C59" s="47" t="s">
         <v>282</v>
@@ -64008,10 +64191,10 @@
       <c r="F59" s="43"/>
       <c r="G59" s="47"/>
     </row>
-    <row r="60" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="47"/>
-      <c r="B60" s="145" t="s">
-        <v>902</v>
+      <c r="B60" s="144" t="s">
+        <v>901</v>
       </c>
       <c r="C60" s="47" t="s">
         <v>282</v>
@@ -64023,10 +64206,10 @@
       <c r="F60" s="43"/>
       <c r="G60" s="47"/>
     </row>
-    <row r="61" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A61" s="47"/>
-      <c r="B61" s="145" t="s">
-        <v>903</v>
+      <c r="B61" s="144" t="s">
+        <v>902</v>
       </c>
       <c r="C61" s="47" t="s">
         <v>282</v>
@@ -64040,8 +64223,8 @@
     </row>
     <row r="62" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A62" s="47"/>
-      <c r="B62" s="145" t="s">
-        <v>904</v>
+      <c r="B62" s="144" t="s">
+        <v>903</v>
       </c>
       <c r="C62" s="47" t="s">
         <v>282</v>
@@ -64055,7 +64238,7 @@
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="47"/>
-      <c r="B63" s="147" t="s">
+      <c r="B63" s="146" t="s">
         <v>90</v>
       </c>
       <c r="C63" s="47" t="s">
@@ -64068,9 +64251,9 @@
       <c r="F63" s="43"/>
       <c r="G63" s="47"/>
     </row>
-    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="121"/>
-      <c r="B64" s="143" t="s">
+      <c r="B64" s="142" t="s">
         <v>55</v>
       </c>
       <c r="C64" s="121" t="s">
@@ -64081,11 +64264,11 @@
       <c r="F64" s="122" t="s">
         <v>835</v>
       </c>
-      <c r="G64" s="156"/>
-    </row>
-    <row r="65" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="155"/>
+    </row>
+    <row r="65" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="47"/>
-      <c r="B65" s="145" t="s">
+      <c r="B65" s="144" t="s">
         <v>762</v>
       </c>
       <c r="C65" s="47" t="s">
@@ -64100,7 +64283,7 @@
     </row>
     <row r="66" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A66" s="47"/>
-      <c r="B66" s="149" t="s">
+      <c r="B66" s="148" t="s">
         <v>82</v>
       </c>
       <c r="C66" s="47" t="s">
@@ -64113,9 +64296,9 @@
       <c r="F66" s="43"/>
       <c r="G66" s="47"/>
     </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="47"/>
-      <c r="B67" s="144" t="s">
+      <c r="B67" s="143" t="s">
         <v>81</v>
       </c>
       <c r="C67" s="47" t="s">
@@ -64128,10 +64311,10 @@
       <c r="F67" s="43"/>
       <c r="G67" s="47"/>
     </row>
-    <row r="68" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="47"/>
-      <c r="B68" s="145" t="s">
-        <v>927</v>
+      <c r="B68" s="144" t="s">
+        <v>926</v>
       </c>
       <c r="C68" s="47" t="s">
         <v>282</v>
@@ -64143,10 +64326,10 @@
       <c r="F68" s="43"/>
       <c r="G68" s="47"/>
     </row>
-    <row r="69" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="47"/>
-      <c r="B69" s="152" t="s">
-        <v>931</v>
+      <c r="B69" s="151" t="s">
+        <v>930</v>
       </c>
       <c r="C69" s="47" t="s">
         <v>282</v>
@@ -64160,8 +64343,8 @@
     </row>
     <row r="70" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A70" s="47"/>
-      <c r="B70" s="145" t="s">
-        <v>935</v>
+      <c r="B70" s="144" t="s">
+        <v>934</v>
       </c>
       <c r="C70" s="47" t="s">
         <v>282</v>
@@ -64175,8 +64358,8 @@
     </row>
     <row r="71" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A71" s="47"/>
-      <c r="B71" s="149" t="s">
-        <v>940</v>
+      <c r="B71" s="148" t="s">
+        <v>939</v>
       </c>
       <c r="C71" s="47" t="s">
         <v>282</v>
@@ -64190,8 +64373,8 @@
     </row>
     <row r="72" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A72" s="47"/>
-      <c r="B72" s="145" t="s">
-        <v>941</v>
+      <c r="B72" s="144" t="s">
+        <v>940</v>
       </c>
       <c r="C72" s="47" t="s">
         <v>282</v>
@@ -64203,10 +64386,10 @@
       <c r="F72" s="43"/>
       <c r="G72" s="47"/>
     </row>
-    <row r="73" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="47"/>
-      <c r="B73" s="149" t="s">
-        <v>942</v>
+      <c r="B73" s="148" t="s">
+        <v>941</v>
       </c>
       <c r="C73" s="47" t="s">
         <v>282</v>
@@ -64218,10 +64401,10 @@
       <c r="F73" s="43"/>
       <c r="G73" s="47"/>
     </row>
-    <row r="74" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A74" s="47"/>
-      <c r="B74" s="149" t="s">
-        <v>943</v>
+      <c r="B74" s="148" t="s">
+        <v>942</v>
       </c>
       <c r="C74" s="47" t="s">
         <v>282</v>
@@ -64235,8 +64418,8 @@
     </row>
     <row r="75" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A75" s="47"/>
-      <c r="B75" s="145" t="s">
-        <v>944</v>
+      <c r="B75" s="144" t="s">
+        <v>943</v>
       </c>
       <c r="C75" s="47" t="s">
         <v>282</v>
@@ -64250,7 +64433,7 @@
     </row>
     <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="47"/>
-      <c r="B76" s="146" t="s">
+      <c r="B76" s="145" t="s">
         <v>737</v>
       </c>
       <c r="C76" s="47" t="s">
@@ -64265,8 +64448,8 @@
     </row>
     <row r="77" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A77" s="47"/>
-      <c r="B77" s="145" t="s">
-        <v>959</v>
+      <c r="B77" s="144" t="s">
+        <v>958</v>
       </c>
       <c r="C77" s="47" t="s">
         <v>282</v>
@@ -64278,10 +64461,10 @@
       <c r="F77" s="43"/>
       <c r="G77" s="47"/>
     </row>
-    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="47"/>
-      <c r="B78" s="144" t="s">
-        <v>960</v>
+      <c r="B78" s="143" t="s">
+        <v>959</v>
       </c>
       <c r="C78" s="47" t="s">
         <v>282</v>
@@ -64293,10 +64476,10 @@
       <c r="F78" s="43"/>
       <c r="G78" s="47"/>
     </row>
-    <row r="79" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="47"/>
-      <c r="B79" s="145" t="s">
-        <v>966</v>
+      <c r="B79" s="144" t="s">
+        <v>965</v>
       </c>
       <c r="C79" s="47" t="s">
         <v>282</v>
@@ -64308,10 +64491,10 @@
       <c r="F79" s="43"/>
       <c r="G79" s="47"/>
     </row>
-    <row r="80" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="47"/>
-      <c r="B80" s="145" t="s">
-        <v>968</v>
+      <c r="B80" s="144" t="s">
+        <v>967</v>
       </c>
       <c r="C80" s="47" t="s">
         <v>282</v>
@@ -64323,10 +64506,10 @@
       <c r="F80" s="43"/>
       <c r="G80" s="47"/>
     </row>
-    <row r="81" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A81" s="47"/>
-      <c r="B81" s="145" t="s">
-        <v>984</v>
+      <c r="B81" s="144" t="s">
+        <v>983</v>
       </c>
       <c r="C81" s="47" t="s">
         <v>282</v>
@@ -64340,8 +64523,8 @@
     </row>
     <row r="82" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A82" s="47"/>
-      <c r="B82" s="145" t="s">
-        <v>985</v>
+      <c r="B82" s="144" t="s">
+        <v>984</v>
       </c>
       <c r="C82" s="47" t="s">
         <v>282</v>
@@ -64355,8 +64538,8 @@
     </row>
     <row r="83" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A83" s="47"/>
-      <c r="B83" s="145" t="s">
-        <v>994</v>
+      <c r="B83" s="144" t="s">
+        <v>993</v>
       </c>
       <c r="C83" s="47" t="s">
         <v>282</v>
@@ -64370,7 +64553,7 @@
     </row>
     <row r="84" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A84" s="47"/>
-      <c r="B84" s="149" t="s">
+      <c r="B84" s="148" t="s">
         <v>139</v>
       </c>
       <c r="C84" s="47" t="s">
@@ -64383,10 +64566,10 @@
       <c r="F84" s="43"/>
       <c r="G84" s="47"/>
     </row>
-    <row r="85" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="47"/>
-      <c r="B85" s="149" t="s">
-        <v>1005</v>
+      <c r="B85" s="148" t="s">
+        <v>1004</v>
       </c>
       <c r="C85" s="47" t="s">
         <v>282</v>
@@ -64398,9 +64581,9 @@
       <c r="F85" s="43"/>
       <c r="G85" s="47"/>
     </row>
-    <row r="86" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="47"/>
-      <c r="B86" s="149" t="s">
+      <c r="B86" s="148" t="s">
         <v>88</v>
       </c>
       <c r="C86" s="47" t="s">
@@ -64413,10 +64596,10 @@
       <c r="F86" s="43"/>
       <c r="G86" s="47"/>
     </row>
-    <row r="87" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="47"/>
-      <c r="B87" s="149" t="s">
-        <v>1025</v>
+      <c r="B87" s="148" t="s">
+        <v>1024</v>
       </c>
       <c r="C87" s="47" t="s">
         <v>282</v>
@@ -64430,7 +64613,7 @@
     </row>
     <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="47"/>
-      <c r="B88" s="144" t="s">
+      <c r="B88" s="143" t="s">
         <v>58</v>
       </c>
       <c r="C88" s="47" t="s">
@@ -64445,7 +64628,7 @@
     </row>
     <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="47"/>
-      <c r="B89" s="144" t="s">
+      <c r="B89" s="143" t="s">
         <v>96</v>
       </c>
       <c r="C89" s="47" t="s">
@@ -64460,8 +64643,8 @@
     </row>
     <row r="90" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A90" s="47"/>
-      <c r="B90" s="145" t="s">
-        <v>1057</v>
+      <c r="B90" s="144" t="s">
+        <v>1056</v>
       </c>
       <c r="C90" s="47" t="s">
         <v>282</v>
@@ -64474,22 +64657,24 @@
       <c r="G90" s="47"/>
     </row>
     <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="46"/>
-      <c r="B91" s="133" t="s">
-        <v>68</v>
-      </c>
-      <c r="C91" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="D91" s="46"/>
-      <c r="E91" s="46"/>
-      <c r="F91" s="32"/>
-      <c r="G91" s="46"/>
-    </row>
-    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="47"/>
+      <c r="B91" s="143" t="s">
+        <v>69</v>
+      </c>
+      <c r="C91" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D91" s="47"/>
+      <c r="E91" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F91" s="43"/>
+      <c r="G91" s="47"/>
+    </row>
+    <row r="92" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A92" s="47"/>
-      <c r="B92" s="144" t="s">
-        <v>69</v>
+      <c r="B92" s="148" t="s">
+        <v>1057</v>
       </c>
       <c r="C92" s="47" t="s">
         <v>282</v>
@@ -64501,10 +64686,10 @@
       <c r="F92" s="43"/>
       <c r="G92" s="47"/>
     </row>
-    <row r="93" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="47"/>
-      <c r="B93" s="149" t="s">
-        <v>1058</v>
+      <c r="B93" s="143" t="s">
+        <v>59</v>
       </c>
       <c r="C93" s="47" t="s">
         <v>282</v>
@@ -64516,10 +64701,10 @@
       <c r="F93" s="43"/>
       <c r="G93" s="47"/>
     </row>
-    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="47"/>
-      <c r="B94" s="144" t="s">
-        <v>59</v>
+      <c r="B94" s="148" t="s">
+        <v>1070</v>
       </c>
       <c r="C94" s="47" t="s">
         <v>282</v>
@@ -64531,9 +64716,9 @@
       <c r="F94" s="43"/>
       <c r="G94" s="47"/>
     </row>
-    <row r="95" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A95" s="47"/>
-      <c r="B95" s="149" t="s">
+      <c r="B95" s="144" t="s">
         <v>1071</v>
       </c>
       <c r="C95" s="47" t="s">
@@ -64546,10 +64731,10 @@
       <c r="F95" s="43"/>
       <c r="G95" s="47"/>
     </row>
-    <row r="96" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="47"/>
-      <c r="B96" s="145" t="s">
-        <v>1072</v>
+      <c r="B96" s="144" t="s">
+        <v>188</v>
       </c>
       <c r="C96" s="47" t="s">
         <v>282</v>
@@ -64558,13 +64743,15 @@
       <c r="E96" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F96" s="43"/>
+      <c r="F96" s="47" t="s">
+        <v>849</v>
+      </c>
       <c r="G96" s="47"/>
     </row>
-    <row r="97" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="47"/>
-      <c r="B97" s="145" t="s">
-        <v>188</v>
+      <c r="B97" s="143" t="s">
+        <v>95</v>
       </c>
       <c r="C97" s="47" t="s">
         <v>282</v>
@@ -64573,15 +64760,13 @@
       <c r="E97" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F97" s="47" t="s">
-        <v>849</v>
-      </c>
+      <c r="F97" s="43"/>
       <c r="G97" s="47"/>
     </row>
     <row r="98" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="47"/>
-      <c r="B98" s="144" t="s">
-        <v>95</v>
+      <c r="B98" s="151" t="s">
+        <v>1089</v>
       </c>
       <c r="C98" s="47" t="s">
         <v>282</v>
@@ -64593,9 +64778,9 @@
       <c r="F98" s="43"/>
       <c r="G98" s="47"/>
     </row>
-    <row r="99" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
-      <c r="B99" s="152" t="s">
+      <c r="B99" s="144" t="s">
         <v>1090</v>
       </c>
       <c r="C99" s="47" t="s">
@@ -64608,10 +64793,10 @@
       <c r="F99" s="43"/>
       <c r="G99" s="47"/>
     </row>
-    <row r="100" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="47"/>
-      <c r="B100" s="145" t="s">
-        <v>1091</v>
+      <c r="B100" s="143" t="s">
+        <v>80</v>
       </c>
       <c r="C100" s="47" t="s">
         <v>282</v>
@@ -64623,10 +64808,10 @@
       <c r="F100" s="43"/>
       <c r="G100" s="47"/>
     </row>
-    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A101" s="47"/>
-      <c r="B101" s="144" t="s">
-        <v>80</v>
+      <c r="B101" s="153" t="s">
+        <v>137</v>
       </c>
       <c r="C101" s="47" t="s">
         <v>282</v>
@@ -64638,13 +64823,13 @@
       <c r="F101" s="43"/>
       <c r="G101" s="47"/>
     </row>
-    <row r="102" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="47"/>
-      <c r="B102" s="154" t="s">
-        <v>137</v>
+      <c r="B102" s="143" t="s">
+        <v>794</v>
       </c>
       <c r="C102" s="47" t="s">
-        <v>282</v>
+        <v>798</v>
       </c>
       <c r="D102" s="47"/>
       <c r="E102" s="47" t="s">
@@ -64653,10 +64838,10 @@
       <c r="F102" s="43"/>
       <c r="G102" s="47"/>
     </row>
-    <row r="103" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="47"/>
-      <c r="B103" s="144" t="s">
-        <v>794</v>
+      <c r="B103" s="143" t="s">
+        <v>745</v>
       </c>
       <c r="C103" s="47" t="s">
         <v>798</v>
@@ -64668,10 +64853,10 @@
       <c r="F103" s="43"/>
       <c r="G103" s="47"/>
     </row>
-    <row r="104" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="47"/>
-      <c r="B104" s="144" t="s">
-        <v>745</v>
+      <c r="B104" s="143" t="s">
+        <v>747</v>
       </c>
       <c r="C104" s="47" t="s">
         <v>798</v>
@@ -64683,10 +64868,10 @@
       <c r="F104" s="43"/>
       <c r="G104" s="47"/>
     </row>
-    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="47"/>
       <c r="B105" s="144" t="s">
-        <v>747</v>
+        <v>769</v>
       </c>
       <c r="C105" s="47" t="s">
         <v>798</v>
@@ -64698,10 +64883,10 @@
       <c r="F105" s="43"/>
       <c r="G105" s="47"/>
     </row>
-    <row r="106" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="47"/>
-      <c r="B106" s="145" t="s">
-        <v>769</v>
+      <c r="B106" s="144" t="s">
+        <v>767</v>
       </c>
       <c r="C106" s="47" t="s">
         <v>798</v>
@@ -64713,10 +64898,10 @@
       <c r="F106" s="43"/>
       <c r="G106" s="47"/>
     </row>
-    <row r="107" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="47"/>
-      <c r="B107" s="145" t="s">
-        <v>767</v>
+      <c r="B107" s="143" t="s">
+        <v>775</v>
       </c>
       <c r="C107" s="47" t="s">
         <v>798</v>
@@ -64728,10 +64913,10 @@
       <c r="F107" s="43"/>
       <c r="G107" s="47"/>
     </row>
-    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="47"/>
-      <c r="B108" s="144" t="s">
-        <v>775</v>
+      <c r="B108" s="143" t="s">
+        <v>783</v>
       </c>
       <c r="C108" s="47" t="s">
         <v>798</v>
@@ -64743,10 +64928,10 @@
       <c r="F108" s="43"/>
       <c r="G108" s="47"/>
     </row>
-    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="47"/>
-      <c r="B109" s="144" t="s">
-        <v>783</v>
+      <c r="B109" s="152" t="s">
+        <v>781</v>
       </c>
       <c r="C109" s="47" t="s">
         <v>798</v>
@@ -64758,10 +64943,10 @@
       <c r="F109" s="43"/>
       <c r="G109" s="47"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="47"/>
-      <c r="B110" s="153" t="s">
-        <v>781</v>
+      <c r="B110" s="143" t="s">
+        <v>753</v>
       </c>
       <c r="C110" s="47" t="s">
         <v>798</v>
@@ -64773,10 +64958,10 @@
       <c r="F110" s="43"/>
       <c r="G110" s="47"/>
     </row>
-    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="47"/>
-      <c r="B111" s="144" t="s">
-        <v>753</v>
+      <c r="B111" s="143" t="s">
+        <v>754</v>
       </c>
       <c r="C111" s="47" t="s">
         <v>798</v>
@@ -64788,10 +64973,10 @@
       <c r="F111" s="43"/>
       <c r="G111" s="47"/>
     </row>
-    <row r="112" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A112" s="47"/>
       <c r="B112" s="144" t="s">
-        <v>754</v>
+        <v>768</v>
       </c>
       <c r="C112" s="47" t="s">
         <v>798</v>
@@ -64800,30 +64985,30 @@
       <c r="E112" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F112" s="43"/>
+      <c r="F112" s="43" t="s">
+        <v>847</v>
+      </c>
       <c r="G112" s="47"/>
     </row>
-    <row r="113" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A113" s="47"/>
-      <c r="B113" s="145" t="s">
-        <v>768</v>
+      <c r="B113" s="144" t="s">
+        <v>866</v>
       </c>
       <c r="C113" s="47" t="s">
-        <v>798</v>
+        <v>554</v>
       </c>
       <c r="D113" s="47"/>
       <c r="E113" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F113" s="43" t="s">
-        <v>847</v>
-      </c>
+      <c r="F113" s="43"/>
       <c r="G113" s="47"/>
     </row>
-    <row r="114" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="47"/>
-      <c r="B114" s="145" t="s">
-        <v>866</v>
+      <c r="B114" s="144" t="s">
+        <v>873</v>
       </c>
       <c r="C114" s="47" t="s">
         <v>554</v>
@@ -64835,10 +65020,10 @@
       <c r="F114" s="43"/>
       <c r="G114" s="47"/>
     </row>
-    <row r="115" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A115" s="47"/>
-      <c r="B115" s="145" t="s">
-        <v>873</v>
+      <c r="B115" s="144" t="s">
+        <v>874</v>
       </c>
       <c r="C115" s="47" t="s">
         <v>554</v>
@@ -64850,10 +65035,10 @@
       <c r="F115" s="43"/>
       <c r="G115" s="47"/>
     </row>
-    <row r="116" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="47"/>
-      <c r="B116" s="145" t="s">
-        <v>874</v>
+      <c r="B116" s="144" t="s">
+        <v>936</v>
       </c>
       <c r="C116" s="47" t="s">
         <v>554</v>
@@ -64865,9 +65050,9 @@
       <c r="F116" s="43"/>
       <c r="G116" s="47"/>
     </row>
-    <row r="117" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="47"/>
-      <c r="B117" s="145" t="s">
+      <c r="B117" s="144" t="s">
         <v>937</v>
       </c>
       <c r="C117" s="47" t="s">
@@ -64880,9 +65065,9 @@
       <c r="F117" s="43"/>
       <c r="G117" s="47"/>
     </row>
-    <row r="118" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A118" s="47"/>
-      <c r="B118" s="145" t="s">
+      <c r="B118" s="144" t="s">
         <v>938</v>
       </c>
       <c r="C118" s="47" t="s">
@@ -64895,10 +65080,10 @@
       <c r="F118" s="43"/>
       <c r="G118" s="47"/>
     </row>
-    <row r="119" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="47"/>
-      <c r="B119" s="145" t="s">
-        <v>939</v>
+      <c r="B119" s="144" t="s">
+        <v>944</v>
       </c>
       <c r="C119" s="47" t="s">
         <v>554</v>
@@ -64910,9 +65095,9 @@
       <c r="F119" s="43"/>
       <c r="G119" s="47"/>
     </row>
-    <row r="120" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="47"/>
-      <c r="B120" s="145" t="s">
+      <c r="B120" s="144" t="s">
         <v>945</v>
       </c>
       <c r="C120" s="47" t="s">
@@ -64925,10 +65110,10 @@
       <c r="F120" s="43"/>
       <c r="G120" s="47"/>
     </row>
-    <row r="121" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A121" s="47"/>
-      <c r="B121" s="145" t="s">
-        <v>946</v>
+      <c r="B121" s="144" t="s">
+        <v>961</v>
       </c>
       <c r="C121" s="47" t="s">
         <v>554</v>
@@ -64942,8 +65127,8 @@
     </row>
     <row r="122" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A122" s="47"/>
-      <c r="B122" s="145" t="s">
-        <v>962</v>
+      <c r="B122" s="144" t="s">
+        <v>549</v>
       </c>
       <c r="C122" s="47" t="s">
         <v>554</v>
@@ -64952,13 +65137,15 @@
       <c r="E122" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F122" s="43"/>
+      <c r="F122" s="43" t="s">
+        <v>839</v>
+      </c>
       <c r="G122" s="47"/>
     </row>
-    <row r="123" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
-      <c r="B123" s="145" t="s">
-        <v>549</v>
+      <c r="B123" s="144" t="s">
+        <v>969</v>
       </c>
       <c r="C123" s="47" t="s">
         <v>554</v>
@@ -64967,47 +65154,45 @@
       <c r="E123" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F123" s="43" t="s">
-        <v>839</v>
-      </c>
+      <c r="F123" s="43"/>
       <c r="G123" s="47"/>
     </row>
-    <row r="124" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="47"/>
-      <c r="B124" s="145" t="s">
-        <v>970</v>
-      </c>
-      <c r="C124" s="47" t="s">
+    <row r="124" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A124" s="46"/>
+      <c r="B124" s="156" t="s">
+        <v>987</v>
+      </c>
+      <c r="C124" s="46" t="s">
         <v>554</v>
       </c>
-      <c r="D124" s="47"/>
-      <c r="E124" s="47" t="s">
+      <c r="D124" s="46"/>
+      <c r="E124" s="46" t="s">
         <v>479</v>
       </c>
-      <c r="F124" s="43"/>
-      <c r="G124" s="47"/>
+      <c r="F124" s="46" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G124" s="46"/>
     </row>
     <row r="125" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A125" s="46"/>
-      <c r="B125" s="157" t="s">
-        <v>988</v>
-      </c>
-      <c r="C125" s="46" t="s">
+      <c r="A125" s="47"/>
+      <c r="B125" s="144" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C125" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="D125" s="46"/>
-      <c r="E125" s="46" t="s">
+      <c r="D125" s="47"/>
+      <c r="E125" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F125" s="46" t="s">
-        <v>1156</v>
-      </c>
-      <c r="G125" s="46"/>
-    </row>
-    <row r="126" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="F125" s="43"/>
+      <c r="G125" s="47"/>
+    </row>
+    <row r="126" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="47"/>
-      <c r="B126" s="145" t="s">
-        <v>1004</v>
+      <c r="B126" s="144" t="s">
+        <v>1019</v>
       </c>
       <c r="C126" s="47" t="s">
         <v>554</v>
@@ -65019,10 +65204,10 @@
       <c r="F126" s="43"/>
       <c r="G126" s="47"/>
     </row>
-    <row r="127" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="47"/>
-      <c r="B127" s="145" t="s">
-        <v>1020</v>
+      <c r="B127" s="144" t="s">
+        <v>1064</v>
       </c>
       <c r="C127" s="47" t="s">
         <v>554</v>
@@ -65034,10 +65219,10 @@
       <c r="F127" s="43"/>
       <c r="G127" s="47"/>
     </row>
-    <row r="128" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A128" s="47"/>
-      <c r="B128" s="145" t="s">
-        <v>1065</v>
+      <c r="B128" s="144" t="s">
+        <v>1086</v>
       </c>
       <c r="C128" s="47" t="s">
         <v>554</v>
@@ -65051,8 +65236,8 @@
     </row>
     <row r="129" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A129" s="47"/>
-      <c r="B129" s="145" t="s">
-        <v>1087</v>
+      <c r="B129" s="144" t="s">
+        <v>1100</v>
       </c>
       <c r="C129" s="47" t="s">
         <v>554</v>
@@ -65064,26 +65249,11 @@
       <c r="F129" s="43"/>
       <c r="G129" s="47"/>
     </row>
-    <row r="130" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A130" s="47"/>
-      <c r="B130" s="145" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C130" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="D130" s="47"/>
-      <c r="E130" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F130" s="43"/>
-      <c r="G130" s="47"/>
-    </row>
   </sheetData>
-  <sortState ref="A3:G130">
-    <sortCondition ref="A3:A130"/>
-    <sortCondition ref="C3:C130"/>
-    <sortCondition ref="B3:B130"/>
+  <sortState ref="A3:G129">
+    <sortCondition ref="A3:A129"/>
+    <sortCondition ref="C3:C129"/>
+    <sortCondition ref="B3:B129"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">' Step 2'!$A$2:$D$526</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">' Step 3'!$A$2:$C$344</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$128</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -316,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B82" authorId="1">
+    <comment ref="B80" authorId="1">
       <text>
         <r>
           <rPr>
@@ -415,7 +415,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4950" uniqueCount="1220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4950" uniqueCount="1223">
   <si>
     <t>ID</t>
   </si>
@@ -36608,6 +36608,55 @@
   </si>
   <si>
     <t>there is something strange about the reported standard errors- see the data entry R script (ID 27)</t>
+  </si>
+  <si>
+    <r>
+      <t>Oswald, C. J., Tremblay, S., &amp; Jones, D. M. (2000). Disruption of comprehension by the meaning of irrelevant sound. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Memory</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(5), 345-350.</t>
+    </r>
+  </si>
+  <si>
+    <t>I code only overall accuracy as a general measure of performance; Only continuous speech is coded (to keep things constant across studies)</t>
+  </si>
+  <si>
+    <t>3 (background: silence, continuous speech, intermittent speech)</t>
   </si>
 </sst>
 </file>
@@ -37656,11 +37705,11 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -38007,7 +38056,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -49793,14 +49842,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="159"/>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
+      <c r="A1" s="160"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -57962,8 +58011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E344"/>
   <sheetViews>
-    <sheetView topLeftCell="A284" workbookViewId="0">
-      <selection activeCell="B294" sqref="B294"/>
+    <sheetView topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61527,14 +61576,14 @@
       <c r="A237" s="58">
         <v>235</v>
       </c>
-      <c r="B237" s="84" t="s">
-        <v>767</v>
+      <c r="B237" s="119" t="s">
+        <v>1220</v>
       </c>
       <c r="C237" s="58" t="s">
         <v>798</v>
       </c>
       <c r="D237" s="58" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="E237" s="17"/>
     </row>
@@ -63163,10 +63212,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64214,49 +64263,50 @@
         <v>479</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="47">
+    <row r="50" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="58">
         <v>48</v>
       </c>
-      <c r="B50" s="153" t="s">
-        <v>1003</v>
+      <c r="B50" s="145" t="s">
+        <v>754</v>
       </c>
       <c r="C50" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D50" s="61" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E50" s="58" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F50" s="61" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G50" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F50" s="43"/>
-      <c r="G50" s="47"/>
-    </row>
-    <row r="51" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="47">
-        <v>49</v>
-      </c>
-      <c r="B51" s="144" t="s">
-        <v>767</v>
+    </row>
+    <row r="51" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="47"/>
+      <c r="B51" s="145" t="s">
+        <v>889</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>798</v>
+        <v>320</v>
       </c>
       <c r="D51" s="47"/>
       <c r="E51" s="47" t="s">
         <v>479</v>
       </c>
       <c r="F51" s="43"/>
-      <c r="G51" s="47"/>
-    </row>
-    <row r="52" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="47">
-        <v>50</v>
-      </c>
-      <c r="B52" s="143" t="s">
-        <v>754</v>
+    </row>
+    <row r="52" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="47"/>
+      <c r="B52" s="153" t="s">
+        <v>905</v>
       </c>
       <c r="C52" s="47" t="s">
-        <v>798</v>
+        <v>320</v>
       </c>
       <c r="D52" s="47"/>
       <c r="E52" s="47" t="s">
@@ -64265,10 +64315,10 @@
       <c r="F52" s="43"/>
       <c r="G52" s="47"/>
     </row>
-    <row r="53" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="47"/>
       <c r="B53" s="145" t="s">
-        <v>889</v>
+        <v>924</v>
       </c>
       <c r="C53" s="47" t="s">
         <v>320</v>
@@ -64278,11 +64328,12 @@
         <v>479</v>
       </c>
       <c r="F53" s="43"/>
-    </row>
-    <row r="54" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G53" s="47"/>
+    </row>
+    <row r="54" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="47"/>
-      <c r="B54" s="153" t="s">
-        <v>905</v>
+      <c r="B54" s="145" t="s">
+        <v>946</v>
       </c>
       <c r="C54" s="47" t="s">
         <v>320</v>
@@ -64291,13 +64342,15 @@
       <c r="E54" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F54" s="43"/>
+      <c r="F54" s="61" t="s">
+        <v>1161</v>
+      </c>
       <c r="G54" s="47"/>
     </row>
-    <row r="55" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="47"/>
       <c r="B55" s="145" t="s">
-        <v>924</v>
+        <v>968</v>
       </c>
       <c r="C55" s="47" t="s">
         <v>320</v>
@@ -64309,10 +64362,10 @@
       <c r="F55" s="43"/>
       <c r="G55" s="47"/>
     </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="47"/>
       <c r="B56" s="145" t="s">
-        <v>946</v>
+        <v>970</v>
       </c>
       <c r="C56" s="47" t="s">
         <v>320</v>
@@ -64321,15 +64374,13 @@
       <c r="E56" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F56" s="61" t="s">
-        <v>1161</v>
-      </c>
+      <c r="F56" s="43"/>
       <c r="G56" s="47"/>
     </row>
-    <row r="57" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="47"/>
-      <c r="B57" s="145" t="s">
-        <v>968</v>
+      <c r="B57" s="153" t="s">
+        <v>1013</v>
       </c>
       <c r="C57" s="47" t="s">
         <v>320</v>
@@ -64341,10 +64392,10 @@
       <c r="F57" s="43"/>
       <c r="G57" s="47"/>
     </row>
-    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="47"/>
       <c r="B58" s="145" t="s">
-        <v>970</v>
+        <v>1032</v>
       </c>
       <c r="C58" s="47" t="s">
         <v>320</v>
@@ -64356,10 +64407,10 @@
       <c r="F58" s="43"/>
       <c r="G58" s="47"/>
     </row>
-    <row r="59" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47"/>
-      <c r="B59" s="153" t="s">
-        <v>1013</v>
+      <c r="B59" s="145" t="s">
+        <v>1033</v>
       </c>
       <c r="C59" s="47" t="s">
         <v>320</v>
@@ -64371,10 +64422,10 @@
       <c r="F59" s="43"/>
       <c r="G59" s="47"/>
     </row>
-    <row r="60" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="47"/>
       <c r="B60" s="145" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="C60" s="47" t="s">
         <v>320</v>
@@ -64386,10 +64437,10 @@
       <c r="F60" s="43"/>
       <c r="G60" s="47"/>
     </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="47"/>
       <c r="B61" s="145" t="s">
-        <v>1033</v>
+        <v>726</v>
       </c>
       <c r="C61" s="47" t="s">
         <v>320</v>
@@ -64398,16 +64449,18 @@
       <c r="E61" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F61" s="43"/>
+      <c r="F61" s="47" t="s">
+        <v>1106</v>
+      </c>
       <c r="G61" s="47"/>
     </row>
-    <row r="62" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="47"/>
-      <c r="B62" s="145" t="s">
-        <v>1038</v>
+      <c r="B62" s="153" t="s">
+        <v>867</v>
       </c>
       <c r="C62" s="47" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="D62" s="47"/>
       <c r="E62" s="47" t="s">
@@ -64416,27 +64469,27 @@
       <c r="F62" s="43"/>
       <c r="G62" s="47"/>
     </row>
-    <row r="63" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="47"/>
-      <c r="B63" s="145" t="s">
-        <v>726</v>
+      <c r="B63" s="153" t="s">
+        <v>879</v>
       </c>
       <c r="C63" s="47" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="D63" s="47"/>
       <c r="E63" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F63" s="47" t="s">
-        <v>1106</v>
-      </c>
-      <c r="G63" s="47"/>
-    </row>
-    <row r="64" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F63" s="61" t="s">
+        <v>824</v>
+      </c>
+      <c r="G63" s="61"/>
+    </row>
+    <row r="64" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="47"/>
-      <c r="B64" s="153" t="s">
-        <v>867</v>
+      <c r="B64" s="144" t="s">
+        <v>896</v>
       </c>
       <c r="C64" s="47" t="s">
         <v>282</v>
@@ -64448,10 +64501,10 @@
       <c r="F64" s="43"/>
       <c r="G64" s="47"/>
     </row>
-    <row r="65" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="47"/>
       <c r="B65" s="153" t="s">
-        <v>879</v>
+        <v>901</v>
       </c>
       <c r="C65" s="47" t="s">
         <v>282</v>
@@ -64460,15 +64513,13 @@
       <c r="E65" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F65" s="61" t="s">
-        <v>824</v>
-      </c>
-      <c r="G65" s="61"/>
-    </row>
-    <row r="66" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F65" s="43"/>
+      <c r="G65" s="47"/>
+    </row>
+    <row r="66" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="47"/>
       <c r="B66" s="144" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="C66" s="47" t="s">
         <v>282</v>
@@ -64480,10 +64531,10 @@
       <c r="F66" s="43"/>
       <c r="G66" s="47"/>
     </row>
-    <row r="67" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="47"/>
-      <c r="B67" s="153" t="s">
-        <v>901</v>
+      <c r="B67" s="144" t="s">
+        <v>903</v>
       </c>
       <c r="C67" s="47" t="s">
         <v>282</v>
@@ -64495,10 +64546,10 @@
       <c r="F67" s="43"/>
       <c r="G67" s="47"/>
     </row>
-    <row r="68" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="47"/>
-      <c r="B68" s="144" t="s">
-        <v>902</v>
+      <c r="B68" s="146" t="s">
+        <v>90</v>
       </c>
       <c r="C68" s="47" t="s">
         <v>282</v>
@@ -64510,25 +64561,25 @@
       <c r="F68" s="43"/>
       <c r="G68" s="47"/>
     </row>
-    <row r="69" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="47"/>
-      <c r="B69" s="144" t="s">
-        <v>903</v>
-      </c>
-      <c r="C69" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F69" s="43"/>
-      <c r="G69" s="47"/>
-    </row>
-    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="121"/>
+      <c r="B69" s="142" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="121" t="s">
+        <v>282</v>
+      </c>
+      <c r="D69" s="121"/>
+      <c r="E69" s="121"/>
+      <c r="F69" s="122" t="s">
+        <v>835</v>
+      </c>
+      <c r="G69" s="154"/>
+    </row>
+    <row r="70" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="47"/>
-      <c r="B70" s="146" t="s">
-        <v>90</v>
+      <c r="B70" s="144" t="s">
+        <v>762</v>
       </c>
       <c r="C70" s="47" t="s">
         <v>282</v>
@@ -64540,25 +64591,25 @@
       <c r="F70" s="43"/>
       <c r="G70" s="47"/>
     </row>
-    <row r="71" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="121"/>
-      <c r="B71" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" s="121" t="s">
-        <v>282</v>
-      </c>
-      <c r="D71" s="121"/>
-      <c r="E71" s="121"/>
-      <c r="F71" s="122" t="s">
-        <v>835</v>
-      </c>
-      <c r="G71" s="154"/>
-    </row>
-    <row r="72" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A71" s="47"/>
+      <c r="B71" s="148" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F71" s="43"/>
+      <c r="G71" s="47"/>
+    </row>
+    <row r="72" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="47"/>
-      <c r="B72" s="144" t="s">
-        <v>762</v>
+      <c r="B72" s="143" t="s">
+        <v>81</v>
       </c>
       <c r="C72" s="47" t="s">
         <v>282</v>
@@ -64570,10 +64621,10 @@
       <c r="F72" s="43"/>
       <c r="G72" s="47"/>
     </row>
-    <row r="73" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="47"/>
-      <c r="B73" s="148" t="s">
-        <v>82</v>
+      <c r="B73" s="159" t="s">
+        <v>930</v>
       </c>
       <c r="C73" s="47" t="s">
         <v>282</v>
@@ -64585,10 +64636,10 @@
       <c r="F73" s="43"/>
       <c r="G73" s="47"/>
     </row>
-    <row r="74" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="47"/>
-      <c r="B74" s="143" t="s">
-        <v>81</v>
+      <c r="B74" s="144" t="s">
+        <v>934</v>
       </c>
       <c r="C74" s="47" t="s">
         <v>282</v>
@@ -64600,10 +64651,10 @@
       <c r="F74" s="43"/>
       <c r="G74" s="47"/>
     </row>
-    <row r="75" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A75" s="47"/>
-      <c r="B75" s="160" t="s">
-        <v>930</v>
+      <c r="B75" s="148" t="s">
+        <v>939</v>
       </c>
       <c r="C75" s="47" t="s">
         <v>282</v>
@@ -64615,10 +64666,10 @@
       <c r="F75" s="43"/>
       <c r="G75" s="47"/>
     </row>
-    <row r="76" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="47"/>
-      <c r="B76" s="144" t="s">
-        <v>934</v>
+      <c r="B76" s="153" t="s">
+        <v>940</v>
       </c>
       <c r="C76" s="47" t="s">
         <v>282</v>
@@ -64630,10 +64681,10 @@
       <c r="F76" s="43"/>
       <c r="G76" s="47"/>
     </row>
-    <row r="77" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="47"/>
-      <c r="B77" s="148" t="s">
-        <v>939</v>
+      <c r="B77" s="51" t="s">
+        <v>941</v>
       </c>
       <c r="C77" s="47" t="s">
         <v>282</v>
@@ -64647,8 +64698,8 @@
     </row>
     <row r="78" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="47"/>
-      <c r="B78" s="153" t="s">
-        <v>940</v>
+      <c r="B78" s="148" t="s">
+        <v>942</v>
       </c>
       <c r="C78" s="47" t="s">
         <v>282</v>
@@ -64660,10 +64711,10 @@
       <c r="F78" s="43"/>
       <c r="G78" s="47"/>
     </row>
-    <row r="79" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="47"/>
-      <c r="B79" s="51" t="s">
-        <v>941</v>
+      <c r="B79" s="144" t="s">
+        <v>943</v>
       </c>
       <c r="C79" s="47" t="s">
         <v>282</v>
@@ -64675,10 +64726,10 @@
       <c r="F79" s="43"/>
       <c r="G79" s="47"/>
     </row>
-    <row r="80" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="47"/>
-      <c r="B80" s="148" t="s">
-        <v>942</v>
+      <c r="B80" s="145" t="s">
+        <v>737</v>
       </c>
       <c r="C80" s="47" t="s">
         <v>282</v>
@@ -64690,10 +64741,10 @@
       <c r="F80" s="43"/>
       <c r="G80" s="47"/>
     </row>
-    <row r="81" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="47"/>
-      <c r="B81" s="144" t="s">
-        <v>943</v>
+      <c r="B81" s="153" t="s">
+        <v>958</v>
       </c>
       <c r="C81" s="47" t="s">
         <v>282</v>
@@ -64705,10 +64756,10 @@
       <c r="F81" s="43"/>
       <c r="G81" s="47"/>
     </row>
-    <row r="82" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="47"/>
-      <c r="B82" s="145" t="s">
-        <v>737</v>
+      <c r="B82" s="143" t="s">
+        <v>959</v>
       </c>
       <c r="C82" s="47" t="s">
         <v>282</v>
@@ -64720,10 +64771,10 @@
       <c r="F82" s="43"/>
       <c r="G82" s="47"/>
     </row>
-    <row r="83" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="47"/>
       <c r="B83" s="144" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="C83" s="47" t="s">
         <v>282</v>
@@ -64737,8 +64788,8 @@
     </row>
     <row r="84" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A84" s="47"/>
-      <c r="B84" s="143" t="s">
-        <v>959</v>
+      <c r="B84" s="144" t="s">
+        <v>983</v>
       </c>
       <c r="C84" s="47" t="s">
         <v>282</v>
@@ -64750,10 +64801,10 @@
       <c r="F84" s="43"/>
       <c r="G84" s="47"/>
     </row>
-    <row r="85" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="47"/>
       <c r="B85" s="144" t="s">
-        <v>965</v>
+        <v>984</v>
       </c>
       <c r="C85" s="47" t="s">
         <v>282</v>
@@ -64765,10 +64816,10 @@
       <c r="F85" s="43"/>
       <c r="G85" s="47"/>
     </row>
-    <row r="86" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="47"/>
       <c r="B86" s="144" t="s">
-        <v>983</v>
+        <v>993</v>
       </c>
       <c r="C86" s="47" t="s">
         <v>282</v>
@@ -64780,10 +64831,10 @@
       <c r="F86" s="43"/>
       <c r="G86" s="47"/>
     </row>
-    <row r="87" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="47"/>
-      <c r="B87" s="144" t="s">
-        <v>984</v>
+      <c r="B87" s="148" t="s">
+        <v>139</v>
       </c>
       <c r="C87" s="47" t="s">
         <v>282</v>
@@ -64795,10 +64846,10 @@
       <c r="F87" s="43"/>
       <c r="G87" s="47"/>
     </row>
-    <row r="88" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="47"/>
-      <c r="B88" s="144" t="s">
-        <v>993</v>
+      <c r="B88" s="148" t="s">
+        <v>1004</v>
       </c>
       <c r="C88" s="47" t="s">
         <v>282</v>
@@ -64810,10 +64861,10 @@
       <c r="F88" s="43"/>
       <c r="G88" s="47"/>
     </row>
-    <row r="89" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A89" s="47"/>
-      <c r="B89" s="148" t="s">
-        <v>139</v>
+      <c r="B89" s="51" t="s">
+        <v>88</v>
       </c>
       <c r="C89" s="47" t="s">
         <v>282</v>
@@ -64825,10 +64876,10 @@
       <c r="F89" s="43"/>
       <c r="G89" s="47"/>
     </row>
-    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="47"/>
       <c r="B90" s="148" t="s">
-        <v>1004</v>
+        <v>1024</v>
       </c>
       <c r="C90" s="47" t="s">
         <v>282</v>
@@ -64840,10 +64891,10 @@
       <c r="F90" s="43"/>
       <c r="G90" s="47"/>
     </row>
-    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="47"/>
-      <c r="B91" s="51" t="s">
-        <v>88</v>
+      <c r="B91" s="143" t="s">
+        <v>58</v>
       </c>
       <c r="C91" s="47" t="s">
         <v>282</v>
@@ -64855,10 +64906,10 @@
       <c r="F91" s="43"/>
       <c r="G91" s="47"/>
     </row>
-    <row r="92" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="47"/>
-      <c r="B92" s="148" t="s">
-        <v>1024</v>
+      <c r="B92" s="143" t="s">
+        <v>96</v>
       </c>
       <c r="C92" s="47" t="s">
         <v>282</v>
@@ -64870,10 +64921,10 @@
       <c r="F92" s="43"/>
       <c r="G92" s="47"/>
     </row>
-    <row r="93" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="47"/>
-      <c r="B93" s="143" t="s">
-        <v>58</v>
+      <c r="B93" s="144" t="s">
+        <v>1056</v>
       </c>
       <c r="C93" s="47" t="s">
         <v>282</v>
@@ -64885,10 +64936,10 @@
       <c r="F93" s="43"/>
       <c r="G93" s="47"/>
     </row>
-    <row r="94" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="47"/>
       <c r="B94" s="143" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C94" s="47" t="s">
         <v>282</v>
@@ -64900,10 +64951,10 @@
       <c r="F94" s="43"/>
       <c r="G94" s="47"/>
     </row>
-    <row r="95" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="47"/>
-      <c r="B95" s="144" t="s">
-        <v>1056</v>
+      <c r="B95" s="148" t="s">
+        <v>1057</v>
       </c>
       <c r="C95" s="47" t="s">
         <v>282</v>
@@ -64915,10 +64966,10 @@
       <c r="F95" s="43"/>
       <c r="G95" s="47"/>
     </row>
-    <row r="96" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="47"/>
-      <c r="B96" s="143" t="s">
-        <v>69</v>
+      <c r="B96" s="145" t="s">
+        <v>59</v>
       </c>
       <c r="C96" s="47" t="s">
         <v>282</v>
@@ -64930,10 +64981,10 @@
       <c r="F96" s="43"/>
       <c r="G96" s="47"/>
     </row>
-    <row r="97" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="47"/>
       <c r="B97" s="148" t="s">
-        <v>1057</v>
+        <v>1070</v>
       </c>
       <c r="C97" s="47" t="s">
         <v>282</v>
@@ -64945,10 +64996,10 @@
       <c r="F97" s="43"/>
       <c r="G97" s="47"/>
     </row>
-    <row r="98" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="47"/>
-      <c r="B98" s="145" t="s">
-        <v>59</v>
+      <c r="B98" s="144" t="s">
+        <v>1071</v>
       </c>
       <c r="C98" s="47" t="s">
         <v>282</v>
@@ -64960,10 +65011,10 @@
       <c r="F98" s="43"/>
       <c r="G98" s="47"/>
     </row>
-    <row r="99" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
-      <c r="B99" s="148" t="s">
-        <v>1070</v>
+      <c r="B99" s="153" t="s">
+        <v>188</v>
       </c>
       <c r="C99" s="47" t="s">
         <v>282</v>
@@ -64972,13 +65023,15 @@
       <c r="E99" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F99" s="43"/>
+      <c r="F99" s="47" t="s">
+        <v>849</v>
+      </c>
       <c r="G99" s="47"/>
     </row>
-    <row r="100" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A100" s="47"/>
-      <c r="B100" s="144" t="s">
-        <v>1071</v>
+      <c r="B100" s="159" t="s">
+        <v>1089</v>
       </c>
       <c r="C100" s="47" t="s">
         <v>282</v>
@@ -64990,10 +65043,10 @@
       <c r="F100" s="43"/>
       <c r="G100" s="47"/>
     </row>
-    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="47"/>
       <c r="B101" s="153" t="s">
-        <v>188</v>
+        <v>1090</v>
       </c>
       <c r="C101" s="47" t="s">
         <v>282</v>
@@ -65002,15 +65055,13 @@
       <c r="E101" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F101" s="47" t="s">
-        <v>849</v>
-      </c>
+      <c r="F101" s="43"/>
       <c r="G101" s="47"/>
     </row>
-    <row r="102" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="47"/>
-      <c r="B102" s="160" t="s">
-        <v>1089</v>
+      <c r="B102" s="143" t="s">
+        <v>80</v>
       </c>
       <c r="C102" s="47" t="s">
         <v>282</v>
@@ -65022,10 +65073,10 @@
       <c r="F102" s="43"/>
       <c r="G102" s="47"/>
     </row>
-    <row r="103" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="47"/>
-      <c r="B103" s="153" t="s">
-        <v>1090</v>
+      <c r="B103" s="152" t="s">
+        <v>137</v>
       </c>
       <c r="C103" s="47" t="s">
         <v>282</v>
@@ -65037,13 +65088,13 @@
       <c r="F103" s="43"/>
       <c r="G103" s="47"/>
     </row>
-    <row r="104" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A104" s="47"/>
       <c r="B104" s="143" t="s">
-        <v>80</v>
+        <v>794</v>
       </c>
       <c r="C104" s="47" t="s">
-        <v>282</v>
+        <v>798</v>
       </c>
       <c r="D104" s="47"/>
       <c r="E104" s="47" t="s">
@@ -65052,13 +65103,13 @@
       <c r="F104" s="43"/>
       <c r="G104" s="47"/>
     </row>
-    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="47"/>
-      <c r="B105" s="152" t="s">
-        <v>137</v>
+      <c r="B105" s="143" t="s">
+        <v>745</v>
       </c>
       <c r="C105" s="47" t="s">
-        <v>282</v>
+        <v>798</v>
       </c>
       <c r="D105" s="47"/>
       <c r="E105" s="47" t="s">
@@ -65067,10 +65118,10 @@
       <c r="F105" s="43"/>
       <c r="G105" s="47"/>
     </row>
-    <row r="106" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="47"/>
       <c r="B106" s="143" t="s">
-        <v>794</v>
+        <v>747</v>
       </c>
       <c r="C106" s="47" t="s">
         <v>798</v>
@@ -65082,10 +65133,10 @@
       <c r="F106" s="43"/>
       <c r="G106" s="47"/>
     </row>
-    <row r="107" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="47"/>
-      <c r="B107" s="143" t="s">
-        <v>745</v>
+      <c r="B107" s="144" t="s">
+        <v>769</v>
       </c>
       <c r="C107" s="47" t="s">
         <v>798</v>
@@ -65097,10 +65148,10 @@
       <c r="F107" s="43"/>
       <c r="G107" s="47"/>
     </row>
-    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A108" s="47"/>
       <c r="B108" s="143" t="s">
-        <v>747</v>
+        <v>775</v>
       </c>
       <c r="C108" s="47" t="s">
         <v>798</v>
@@ -65112,10 +65163,10 @@
       <c r="F108" s="43"/>
       <c r="G108" s="47"/>
     </row>
-    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="47"/>
-      <c r="B109" s="144" t="s">
-        <v>769</v>
+      <c r="B109" s="143" t="s">
+        <v>783</v>
       </c>
       <c r="C109" s="47" t="s">
         <v>798</v>
@@ -65127,10 +65178,10 @@
       <c r="F109" s="43"/>
       <c r="G109" s="47"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="47"/>
-      <c r="B110" s="143" t="s">
-        <v>775</v>
+      <c r="B110" s="151" t="s">
+        <v>781</v>
       </c>
       <c r="C110" s="47" t="s">
         <v>798</v>
@@ -65142,10 +65193,10 @@
       <c r="F110" s="43"/>
       <c r="G110" s="47"/>
     </row>
-    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="47"/>
       <c r="B111" s="143" t="s">
-        <v>783</v>
+        <v>753</v>
       </c>
       <c r="C111" s="47" t="s">
         <v>798</v>
@@ -65157,10 +65208,10 @@
       <c r="F111" s="43"/>
       <c r="G111" s="47"/>
     </row>
-    <row r="112" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="47"/>
-      <c r="B112" s="151" t="s">
-        <v>781</v>
+      <c r="B112" s="144" t="s">
+        <v>768</v>
       </c>
       <c r="C112" s="47" t="s">
         <v>798</v>
@@ -65169,16 +65220,18 @@
       <c r="E112" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F112" s="43"/>
+      <c r="F112" s="43" t="s">
+        <v>847</v>
+      </c>
       <c r="G112" s="47"/>
     </row>
     <row r="113" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A113" s="47"/>
-      <c r="B113" s="143" t="s">
-        <v>753</v>
+      <c r="B113" s="144" t="s">
+        <v>866</v>
       </c>
       <c r="C113" s="47" t="s">
-        <v>798</v>
+        <v>554</v>
       </c>
       <c r="D113" s="47"/>
       <c r="E113" s="47" t="s">
@@ -65187,27 +65240,25 @@
       <c r="F113" s="43"/>
       <c r="G113" s="47"/>
     </row>
-    <row r="114" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="47"/>
       <c r="B114" s="144" t="s">
-        <v>768</v>
+        <v>873</v>
       </c>
       <c r="C114" s="47" t="s">
-        <v>798</v>
+        <v>554</v>
       </c>
       <c r="D114" s="47"/>
       <c r="E114" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F114" s="43" t="s">
-        <v>847</v>
-      </c>
+      <c r="F114" s="43"/>
       <c r="G114" s="47"/>
     </row>
-    <row r="115" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A115" s="47"/>
       <c r="B115" s="144" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
       <c r="C115" s="47" t="s">
         <v>554</v>
@@ -65219,10 +65270,10 @@
       <c r="F115" s="43"/>
       <c r="G115" s="47"/>
     </row>
-    <row r="116" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="47"/>
       <c r="B116" s="144" t="s">
-        <v>873</v>
+        <v>936</v>
       </c>
       <c r="C116" s="47" t="s">
         <v>554</v>
@@ -65234,10 +65285,10 @@
       <c r="F116" s="43"/>
       <c r="G116" s="47"/>
     </row>
-    <row r="117" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="47"/>
-      <c r="B117" s="144" t="s">
-        <v>874</v>
+      <c r="B117" s="153" t="s">
+        <v>937</v>
       </c>
       <c r="C117" s="47" t="s">
         <v>554</v>
@@ -65249,10 +65300,10 @@
       <c r="F117" s="43"/>
       <c r="G117" s="47"/>
     </row>
-    <row r="118" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A118" s="47"/>
       <c r="B118" s="144" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C118" s="47" t="s">
         <v>554</v>
@@ -65264,10 +65315,10 @@
       <c r="F118" s="43"/>
       <c r="G118" s="47"/>
     </row>
-    <row r="119" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="47"/>
-      <c r="B119" s="153" t="s">
-        <v>937</v>
+      <c r="B119" s="144" t="s">
+        <v>944</v>
       </c>
       <c r="C119" s="47" t="s">
         <v>554</v>
@@ -65279,10 +65330,10 @@
       <c r="F119" s="43"/>
       <c r="G119" s="47"/>
     </row>
-    <row r="120" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="47"/>
       <c r="B120" s="144" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
       <c r="C120" s="47" t="s">
         <v>554</v>
@@ -65294,10 +65345,10 @@
       <c r="F120" s="43"/>
       <c r="G120" s="47"/>
     </row>
-    <row r="121" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A121" s="47"/>
       <c r="B121" s="144" t="s">
-        <v>944</v>
+        <v>961</v>
       </c>
       <c r="C121" s="47" t="s">
         <v>554</v>
@@ -65312,7 +65363,7 @@
     <row r="122" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A122" s="47"/>
       <c r="B122" s="144" t="s">
-        <v>945</v>
+        <v>549</v>
       </c>
       <c r="C122" s="47" t="s">
         <v>554</v>
@@ -65321,13 +65372,15 @@
       <c r="E122" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F122" s="43"/>
+      <c r="F122" s="43" t="s">
+        <v>839</v>
+      </c>
       <c r="G122" s="47"/>
     </row>
-    <row r="123" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
       <c r="B123" s="144" t="s">
-        <v>961</v>
+        <v>969</v>
       </c>
       <c r="C123" s="47" t="s">
         <v>554</v>
@@ -65339,27 +65392,27 @@
       <c r="F123" s="43"/>
       <c r="G123" s="47"/>
     </row>
-    <row r="124" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="47"/>
-      <c r="B124" s="144" t="s">
-        <v>549</v>
-      </c>
-      <c r="C124" s="47" t="s">
+    <row r="124" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A124" s="46"/>
+      <c r="B124" s="155" t="s">
+        <v>987</v>
+      </c>
+      <c r="C124" s="46" t="s">
         <v>554</v>
       </c>
-      <c r="D124" s="47"/>
-      <c r="E124" s="47" t="s">
+      <c r="D124" s="46"/>
+      <c r="E124" s="46" t="s">
         <v>479</v>
       </c>
-      <c r="F124" s="43" t="s">
-        <v>839</v>
-      </c>
-      <c r="G124" s="47"/>
+      <c r="F124" s="46" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G124" s="46"/>
     </row>
     <row r="125" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A125" s="47"/>
-      <c r="B125" s="144" t="s">
-        <v>969</v>
+      <c r="B125" s="153" t="s">
+        <v>1003</v>
       </c>
       <c r="C125" s="47" t="s">
         <v>554</v>
@@ -65371,27 +65424,25 @@
       <c r="F125" s="43"/>
       <c r="G125" s="47"/>
     </row>
-    <row r="126" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A126" s="46"/>
-      <c r="B126" s="155" t="s">
-        <v>987</v>
-      </c>
-      <c r="C126" s="46" t="s">
+    <row r="126" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="47"/>
+      <c r="B126" s="144" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C126" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="D126" s="46"/>
-      <c r="E126" s="46" t="s">
+      <c r="D126" s="47"/>
+      <c r="E126" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F126" s="46" t="s">
-        <v>1154</v>
-      </c>
-      <c r="G126" s="46"/>
-    </row>
-    <row r="127" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F126" s="43"/>
+      <c r="G126" s="47"/>
+    </row>
+    <row r="127" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="47"/>
       <c r="B127" s="144" t="s">
-        <v>1019</v>
+        <v>1064</v>
       </c>
       <c r="C127" s="47" t="s">
         <v>554</v>
@@ -65403,10 +65454,10 @@
       <c r="F127" s="43"/>
       <c r="G127" s="47"/>
     </row>
-    <row r="128" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A128" s="47"/>
       <c r="B128" s="144" t="s">
-        <v>1064</v>
+        <v>1086</v>
       </c>
       <c r="C128" s="47" t="s">
         <v>554</v>
@@ -65421,7 +65472,7 @@
     <row r="129" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A129" s="47"/>
       <c r="B129" s="144" t="s">
-        <v>1086</v>
+        <v>1100</v>
       </c>
       <c r="C129" s="47" t="s">
         <v>554</v>
@@ -65432,21 +65483,6 @@
       </c>
       <c r="F129" s="43"/>
       <c r="G129" s="47"/>
-    </row>
-    <row r="130" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A130" s="47"/>
-      <c r="B130" s="144" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C130" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="D130" s="47"/>
-      <c r="E130" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F130" s="43"/>
-      <c r="G130" s="47"/>
     </row>
   </sheetData>
   <sortState ref="A3:G130">

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Vasilev\SkyDrive\R\reading_sounds\Literature_search\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="16380" windowHeight="8070" tabRatio="987" activeTab="8"/>
   </bookViews>
@@ -34,7 +39,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B19" authorId="0">
+    <comment ref="B19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +74,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B219" authorId="0">
+    <comment ref="B219" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +110,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D67" authorId="0">
+    <comment ref="D67" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B135" authorId="1">
+    <comment ref="B135" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +195,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="F9" authorId="0">
+    <comment ref="F9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0">
+    <comment ref="F12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0">
+    <comment ref="G21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0">
+    <comment ref="G22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -291,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G41" authorId="0">
+    <comment ref="G41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -316,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B80" authorId="1">
+    <comment ref="B80" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -351,7 +356,7 @@
     <author>Martin,Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="D175" authorId="0">
+    <comment ref="D175" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +390,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B73" authorId="0">
+    <comment ref="B73" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -415,7 +420,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4933" uniqueCount="1230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4938" uniqueCount="1234">
   <si>
     <t>ID</t>
   </si>
@@ -36686,6 +36691,18 @@
       </rPr>
       <t>(36), 64.</t>
     </r>
+  </si>
+  <si>
+    <t>task focused on learning a text for long-term recall (rather than reading per se); assessment was 2 days after the experimental session</t>
+  </si>
+  <si>
+    <t>2 (background: silence, noise)</t>
+  </si>
+  <si>
+    <t>I code only the non-interuption trials to avoid the confound of being interrupted; I code only reading comprehension to keep it consistent with previous stuides</t>
+  </si>
+  <si>
+    <t>3 (background: silence, speech, instrumental music) x 2 (interruption: yes, no)</t>
   </si>
 </sst>
 </file>
@@ -38087,7 +38104,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -38103,10 +38120,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="1"/>
-    <col min="2" max="2" width="73.85546875"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="5.25" style="1"/>
+    <col min="2" max="2" width="73.875"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="1025" width="8.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -38124,7 +38141,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -38168,7 +38185,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -38179,7 +38196,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -38201,7 +38218,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -38245,7 +38262,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -38289,7 +38306,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -38311,7 +38328,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -38344,7 +38361,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -38377,7 +38394,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -38410,7 +38427,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -38443,7 +38460,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -38476,7 +38493,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -38498,7 +38515,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -38520,7 +38537,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -38531,7 +38548,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -38542,7 +38559,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -38619,7 +38636,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -38630,7 +38647,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -38685,7 +38702,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>52</v>
       </c>
@@ -38707,7 +38724,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>54</v>
       </c>
@@ -38718,7 +38735,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>55</v>
       </c>
@@ -38751,7 +38768,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>58</v>
       </c>
@@ -38773,7 +38790,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>60</v>
       </c>
@@ -38817,7 +38834,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>64</v>
       </c>
@@ -38861,7 +38878,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>68</v>
       </c>
@@ -38883,7 +38900,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>70</v>
       </c>
@@ -38894,7 +38911,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>71</v>
       </c>
@@ -38927,7 +38944,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>74</v>
       </c>
@@ -38993,7 +39010,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>80</v>
       </c>
@@ -39059,7 +39076,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>86</v>
       </c>
@@ -39070,7 +39087,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>87</v>
       </c>
@@ -39103,7 +39120,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>90</v>
       </c>
@@ -39114,7 +39131,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>91</v>
       </c>
@@ -39136,7 +39153,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>93</v>
       </c>
@@ -39169,7 +39186,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>96</v>
       </c>
@@ -39180,7 +39197,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>97</v>
       </c>
@@ -39202,7 +39219,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>99</v>
       </c>
@@ -39235,7 +39252,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>102</v>
       </c>
@@ -39312,7 +39329,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>109</v>
       </c>
@@ -39334,7 +39351,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>111</v>
       </c>
@@ -39356,7 +39373,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>113</v>
       </c>
@@ -39367,7 +39384,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>114</v>
       </c>
@@ -39378,7 +39395,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>115</v>
       </c>
@@ -39389,7 +39406,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B119" s="96" t="s">
         <v>697</v>
       </c>
@@ -39413,11 +39430,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="100.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="45.85546875" customWidth="1"/>
-    <col min="5" max="43" width="9.140625" style="43"/>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="2" max="2" width="100.375" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="45.875" customWidth="1"/>
+    <col min="5" max="43" width="9.125" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39549,7 +39566,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:43" ht="39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>235</v>
       </c>
@@ -39661,7 +39678,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>6</v>
       </c>
@@ -39801,7 +39818,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:43" s="27" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>10</v>
       </c>
@@ -40156,7 +40173,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:43" s="27" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:43" s="27" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>16</v>
       </c>
@@ -40223,7 +40240,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:43" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:43" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="32">
         <v>148</v>
       </c>
@@ -40416,7 +40433,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="1:43" s="27" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:43" s="27" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
         <v>22</v>
       </c>
@@ -40483,7 +40500,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="61" spans="1:43" ht="39" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
         <v>25</v>
       </c>
@@ -40511,7 +40528,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="63" spans="1:43" ht="39" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
         <v>154</v>
       </c>
@@ -40761,7 +40778,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:43" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:43" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A81" s="17">
         <v>35</v>
       </c>
@@ -40856,7 +40873,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="85" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A85" s="17">
         <v>37</v>
       </c>
@@ -40884,7 +40901,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="1:43" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A87" s="17">
         <v>39</v>
       </c>
@@ -40952,7 +40969,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="92" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A92" s="17">
         <v>250</v>
       </c>
@@ -41076,7 +41093,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="17">
         <v>171</v>
       </c>
@@ -41174,7 +41191,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A108" s="17">
         <v>251</v>
       </c>
@@ -41258,7 +41275,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="114" spans="1:43" ht="39" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A114" s="17">
         <v>252</v>
       </c>
@@ -41272,7 +41289,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="115" spans="1:43" ht="39" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A115" s="17">
         <v>253</v>
       </c>
@@ -41286,7 +41303,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="116" spans="1:43" ht="39" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A116" s="17">
         <v>60</v>
       </c>
@@ -41300,7 +41317,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="117" spans="1:43" s="27" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:43" s="27" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A117" s="17">
         <v>254</v>
       </c>
@@ -41353,7 +41370,7 @@
       <c r="AP117" s="43"/>
       <c r="AQ117" s="43"/>
     </row>
-    <row r="118" spans="1:43" ht="39" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A118" s="17">
         <v>53</v>
       </c>
@@ -41367,7 +41384,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="119" spans="1:43" ht="39" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A119" s="17">
         <v>56</v>
       </c>
@@ -41381,7 +41398,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="120" spans="1:43" ht="39" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A120" s="17">
         <v>54</v>
       </c>
@@ -41409,7 +41426,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="122" spans="1:43" ht="39" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:43" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A122" s="17">
         <v>57</v>
       </c>
@@ -41423,7 +41440,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="1:43" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="17">
         <v>175</v>
       </c>
@@ -41507,7 +41524,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="17">
         <v>177</v>
       </c>
@@ -41605,7 +41622,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="17">
         <v>259</v>
       </c>
@@ -41619,7 +41636,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A137" s="17">
         <v>260</v>
       </c>
@@ -41647,7 +41664,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A139" s="17">
         <v>261</v>
       </c>
@@ -41745,7 +41762,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A146" s="17">
         <v>265</v>
       </c>
@@ -41863,7 +41880,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="17">
         <v>182</v>
       </c>
@@ -41961,7 +41978,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A161" s="17">
         <v>269</v>
       </c>
@@ -41989,7 +42006,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="17">
         <v>270</v>
       </c>
@@ -42033,7 +42050,7 @@
       </c>
       <c r="E165" s="27"/>
     </row>
-    <row r="166" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="17">
         <v>186</v>
       </c>
@@ -42075,7 +42092,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="17">
         <v>73</v>
       </c>
@@ -42187,7 +42204,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="17">
         <v>190</v>
       </c>
@@ -42269,7 +42286,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="17">
         <v>192</v>
       </c>
@@ -42283,7 +42300,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="17">
         <v>193</v>
       </c>
@@ -42367,7 +42384,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="17">
         <v>82</v>
       </c>
@@ -42549,7 +42566,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="17">
         <v>197</v>
       </c>
@@ -42563,7 +42580,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="17">
         <v>89</v>
       </c>
@@ -42606,7 +42623,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="17">
         <v>284</v>
       </c>
@@ -42620,7 +42637,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="17">
         <v>200</v>
       </c>
@@ -42898,7 +42915,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="17">
         <v>95</v>
       </c>
@@ -42982,7 +42999,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="17">
         <v>211</v>
       </c>
@@ -43050,7 +43067,7 @@
       </c>
       <c r="D238" s="47"/>
     </row>
-    <row r="239" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A239" s="17">
         <v>97</v>
       </c>
@@ -43075,7 +43092,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="17">
         <v>214</v>
       </c>
@@ -43142,7 +43159,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A246" s="17">
         <v>100</v>
       </c>
@@ -43156,7 +43173,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A247" s="17">
         <v>296</v>
       </c>
@@ -43240,7 +43257,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="17">
         <v>217</v>
       </c>
@@ -43282,7 +43299,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="17">
         <v>219</v>
       </c>
@@ -43308,7 +43325,7 @@
       </c>
       <c r="D257" s="32"/>
     </row>
-    <row r="258" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="17">
         <v>103</v>
       </c>
@@ -43434,7 +43451,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="17">
         <v>109</v>
       </c>
@@ -43644,7 +43661,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A282" s="17">
         <v>114</v>
       </c>
@@ -43756,7 +43773,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="17">
         <v>226</v>
       </c>
@@ -43882,7 +43899,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A299" s="17">
         <v>121</v>
       </c>
@@ -43896,7 +43913,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A300" s="17">
         <v>120</v>
       </c>
@@ -43980,7 +43997,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="17">
         <v>125</v>
       </c>
@@ -44036,7 +44053,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A310" s="17">
         <v>129</v>
       </c>
@@ -44120,7 +44137,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="17">
         <v>131</v>
       </c>
@@ -44148,7 +44165,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="17">
         <v>233</v>
       </c>
@@ -44199,11 +44216,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="100.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="44.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="100.375" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="44.25" style="12" customWidth="1"/>
+    <col min="5" max="5" width="19.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44329,7 +44346,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="47">
         <v>7</v>
       </c>
@@ -44414,7 +44431,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="47">
         <v>12</v>
       </c>
@@ -44545,7 +44562,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="47">
         <v>16</v>
       </c>
@@ -44596,7 +44613,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="47">
         <v>19</v>
       </c>
@@ -44857,7 +44874,7 @@
       <c r="V33" s="43"/>
       <c r="W33" s="43"/>
     </row>
-    <row r="34" spans="1:23" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="47">
         <v>32</v>
       </c>
@@ -44892,7 +44909,7 @@
       <c r="V34" s="43"/>
       <c r="W34" s="43"/>
     </row>
-    <row r="35" spans="1:23" s="27" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" s="27" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A35" s="47">
         <v>33</v>
       </c>
@@ -45196,7 +45213,7 @@
       </c>
       <c r="E46" s="47"/>
     </row>
-    <row r="47" spans="1:23" ht="39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A47" s="47">
         <v>45</v>
       </c>
@@ -45411,7 +45428,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="47">
         <v>58</v>
       </c>
@@ -45462,7 +45479,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="47">
         <v>61</v>
       </c>
@@ -45554,7 +45571,7 @@
       </c>
       <c r="E68" s="47"/>
     </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="47">
         <v>67</v>
       </c>
@@ -45680,7 +45697,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="47">
         <v>75</v>
       </c>
@@ -45697,7 +45714,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="47">
         <v>76</v>
       </c>
@@ -45742,7 +45759,7 @@
       </c>
       <c r="E80" s="47"/>
     </row>
-    <row r="81" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A81" s="47">
         <v>79</v>
       </c>
@@ -45812,7 +45829,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A86" s="47">
         <v>84</v>
       </c>
@@ -45826,7 +45843,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="47">
         <v>85</v>
       </c>
@@ -45840,7 +45857,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A88" s="47">
         <v>86</v>
       </c>
@@ -45910,7 +45927,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="47">
         <v>91</v>
       </c>
@@ -45980,7 +45997,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A98" s="47">
         <v>96</v>
       </c>
@@ -46053,10 +46070,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="1"/>
-    <col min="2" max="2" width="73.85546875"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="5.25" style="1"/>
+    <col min="2" max="2" width="73.875"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="1025" width="8.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -46077,7 +46094,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -46231,7 +46248,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -46275,7 +46292,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -46308,7 +46325,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -46330,7 +46347,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -46341,7 +46358,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -46363,7 +46380,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -46396,7 +46413,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -46407,7 +46424,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -46473,7 +46490,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -46517,7 +46534,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -46528,7 +46545,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -46539,7 +46556,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -46550,7 +46567,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -46561,7 +46578,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -46583,7 +46600,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -46594,7 +46611,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -46616,7 +46633,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>50</v>
       </c>
@@ -46627,7 +46644,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>51</v>
       </c>
@@ -46638,7 +46655,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>52</v>
       </c>
@@ -46671,7 +46688,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>55</v>
       </c>
@@ -46682,7 +46699,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>56</v>
       </c>
@@ -46693,7 +46710,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>57</v>
       </c>
@@ -46726,7 +46743,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>60</v>
       </c>
@@ -46748,7 +46765,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>62</v>
       </c>
@@ -46803,7 +46820,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>67</v>
       </c>
@@ -46825,7 +46842,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>69</v>
       </c>
@@ -46836,7 +46853,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>70</v>
       </c>
@@ -46847,7 +46864,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>71</v>
       </c>
@@ -46869,7 +46886,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>73</v>
       </c>
@@ -46902,7 +46919,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>76</v>
       </c>
@@ -46913,7 +46930,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>77</v>
       </c>
@@ -46935,7 +46952,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>79</v>
       </c>
@@ -46946,7 +46963,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>80</v>
       </c>
@@ -46957,7 +46974,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>81</v>
       </c>
@@ -46990,7 +47007,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>84</v>
       </c>
@@ -47045,7 +47062,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>89</v>
       </c>
@@ -47089,7 +47106,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>93</v>
       </c>
@@ -47100,7 +47117,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>94</v>
       </c>
@@ -47111,7 +47128,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>95</v>
       </c>
@@ -47122,7 +47139,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>96</v>
       </c>
@@ -47144,7 +47161,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>98</v>
       </c>
@@ -47174,10 +47191,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="1"/>
-    <col min="2" max="2" width="73.85546875"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="5.25" style="1"/>
+    <col min="2" max="2" width="73.875"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="1025" width="8.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -47242,7 +47259,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -47297,7 +47314,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -47330,7 +47347,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -47352,7 +47369,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -47440,7 +47457,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -47473,7 +47490,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -47506,7 +47523,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -47517,7 +47534,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -47539,7 +47556,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -47550,7 +47567,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -47561,7 +47578,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -47594,7 +47611,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -47638,7 +47655,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -47693,7 +47710,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -47704,7 +47721,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -47715,7 +47732,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -47803,7 +47820,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>56</v>
       </c>
@@ -47814,7 +47831,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>57</v>
       </c>
@@ -47836,7 +47853,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>59</v>
       </c>
@@ -47858,7 +47875,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>61</v>
       </c>
@@ -47902,7 +47919,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>65</v>
       </c>
@@ -48023,7 +48040,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>76</v>
       </c>
@@ -48067,7 +48084,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>80</v>
       </c>
@@ -48078,7 +48095,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>81</v>
       </c>
@@ -48089,7 +48106,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>82</v>
       </c>
@@ -48166,7 +48183,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>89</v>
       </c>
@@ -48199,7 +48216,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>92</v>
       </c>
@@ -48243,7 +48260,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>96</v>
       </c>
@@ -48265,7 +48282,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>98</v>
       </c>
@@ -48276,7 +48293,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>99</v>
       </c>
@@ -48298,7 +48315,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>101</v>
       </c>
@@ -48331,7 +48348,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>104</v>
       </c>
@@ -48364,7 +48381,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>107</v>
       </c>
@@ -48408,7 +48425,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>111</v>
       </c>
@@ -48419,7 +48436,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>112</v>
       </c>
@@ -48573,7 +48590,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>126</v>
       </c>
@@ -48584,7 +48601,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>127</v>
       </c>
@@ -48595,7 +48612,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>128</v>
       </c>
@@ -48606,7 +48623,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>129</v>
       </c>
@@ -48617,7 +48634,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>130</v>
       </c>
@@ -48661,7 +48678,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>134</v>
       </c>
@@ -48738,7 +48755,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>141</v>
       </c>
@@ -48771,7 +48788,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>144</v>
       </c>
@@ -48793,7 +48810,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>146</v>
       </c>
@@ -48804,7 +48821,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>147</v>
       </c>
@@ -48837,7 +48854,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>150</v>
       </c>
@@ -48892,7 +48909,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>155</v>
       </c>
@@ -48903,7 +48920,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>156</v>
       </c>
@@ -48914,7 +48931,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>157</v>
       </c>
@@ -48958,7 +48975,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>161</v>
       </c>
@@ -48980,7 +48997,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>163</v>
       </c>
@@ -48991,7 +49008,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>164</v>
       </c>
@@ -49002,7 +49019,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>165</v>
       </c>
@@ -49051,10 +49068,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
-    <col min="2" max="2" width="127.7109375" style="39" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="39" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="12"/>
+    <col min="2" max="2" width="127.75" style="39" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="28.75" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -49137,7 +49154,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -49170,7 +49187,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -49225,7 +49242,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>15</v>
       </c>
@@ -49247,7 +49264,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>17</v>
       </c>
@@ -49288,8 +49305,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="96.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="96.375" customWidth="1"/>
     <col min="3" max="3" width="25" style="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -49318,7 +49335,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="107" t="s">
         <v>776</v>
       </c>
@@ -49443,7 +49460,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>10</v>
       </c>
@@ -49531,7 +49548,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>18</v>
       </c>
@@ -49553,7 +49570,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>20</v>
       </c>
@@ -49608,7 +49625,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>25</v>
       </c>
@@ -49663,7 +49680,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>30</v>
       </c>
@@ -49773,7 +49790,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>40</v>
       </c>
@@ -49868,8 +49885,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="100.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="100.125" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -49904,7 +49921,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -49948,7 +49965,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>6</v>
       </c>
@@ -50014,7 +50031,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>12</v>
       </c>
@@ -50080,7 +50097,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>18</v>
       </c>
@@ -50113,7 +50130,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>21</v>
       </c>
@@ -50135,7 +50152,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>23</v>
       </c>
@@ -50168,7 +50185,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>26</v>
       </c>
@@ -50234,7 +50251,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>32</v>
       </c>
@@ -50278,7 +50295,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>36</v>
       </c>
@@ -50410,7 +50427,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <v>48</v>
       </c>
@@ -50619,7 +50636,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="21">
         <v>67</v>
       </c>
@@ -50657,9 +50674,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="100.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="2" max="2" width="100.375" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -51171,7 +51188,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>481</v>
       </c>
@@ -51185,7 +51202,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>143</v>
       </c>
@@ -51605,7 +51622,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>12</v>
       </c>
@@ -51647,7 +51664,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>188</v>
       </c>
@@ -51661,7 +51678,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>464</v>
       </c>
@@ -52011,7 +52028,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>466</v>
       </c>
@@ -52039,7 +52056,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>474</v>
       </c>
@@ -52235,7 +52252,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>463</v>
       </c>
@@ -52403,7 +52420,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>29</v>
       </c>
@@ -52431,7 +52448,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>31</v>
       </c>
@@ -52473,7 +52490,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>449</v>
       </c>
@@ -52487,7 +52504,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>480</v>
       </c>
@@ -52557,7 +52574,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>349</v>
       </c>
@@ -52571,7 +52588,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>475</v>
       </c>
@@ -52865,7 +52882,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>229</v>
       </c>
@@ -52879,7 +52896,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>230</v>
       </c>
@@ -53033,7 +53050,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>350</v>
       </c>
@@ -53145,7 +53162,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>476</v>
       </c>
@@ -53173,7 +53190,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>351</v>
       </c>
@@ -53243,7 +53260,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>42</v>
       </c>
@@ -53257,7 +53274,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>43</v>
       </c>
@@ -53271,7 +53288,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>152</v>
       </c>
@@ -53285,7 +53302,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>44</v>
       </c>
@@ -53299,7 +53316,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>45</v>
       </c>
@@ -53313,7 +53330,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>46</v>
       </c>
@@ -53341,7 +53358,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>48</v>
       </c>
@@ -53355,7 +53372,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>141</v>
       </c>
@@ -53380,7 +53397,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>237</v>
       </c>
@@ -53534,7 +53551,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>241</v>
       </c>
@@ -53758,7 +53775,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>362</v>
       </c>
@@ -54066,7 +54083,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>510</v>
       </c>
@@ -54094,7 +54111,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>248</v>
       </c>
@@ -54108,7 +54125,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>249</v>
       </c>
@@ -54332,7 +54349,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>369</v>
       </c>
@@ -54360,7 +54377,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>370</v>
       </c>
@@ -54430,7 +54447,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>259</v>
       </c>
@@ -54500,7 +54517,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>122</v>
       </c>
@@ -54514,7 +54531,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>262</v>
       </c>
@@ -54640,7 +54657,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>505</v>
       </c>
@@ -54780,7 +54797,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>471</v>
       </c>
@@ -54990,7 +55007,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>127</v>
       </c>
@@ -55270,7 +55287,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>500</v>
       </c>
@@ -55340,7 +55357,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>277</v>
       </c>
@@ -55354,7 +55371,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>74</v>
       </c>
@@ -55494,7 +55511,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>385</v>
       </c>
@@ -55508,7 +55525,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>282</v>
       </c>
@@ -55746,7 +55763,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>470</v>
       </c>
@@ -56026,7 +56043,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>297</v>
       </c>
@@ -56110,7 +56127,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>84</v>
       </c>
@@ -56138,7 +56155,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>300</v>
       </c>
@@ -56264,7 +56281,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>87</v>
       </c>
@@ -56390,7 +56407,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>305</v>
       </c>
@@ -56460,7 +56477,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>462</v>
       </c>
@@ -56516,7 +56533,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>308</v>
       </c>
@@ -56600,7 +56617,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>90</v>
       </c>
@@ -56670,7 +56687,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>94</v>
       </c>
@@ -57104,7 +57121,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>105</v>
       </c>
@@ -57846,7 +57863,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="515" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>468</v>
       </c>
@@ -57986,7 +58003,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>328</v>
       </c>
@@ -58014,7 +58031,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="527" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B527" s="10" t="s">
         <v>1164</v>
       </c>
@@ -58048,11 +58065,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="100.42578125" style="136" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="100.375" style="136" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="45.375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="42.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -58362,7 +58379,7 @@
       </c>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="58">
         <v>20</v>
       </c>
@@ -58452,7 +58469,7 @@
       </c>
       <c r="E27" s="17"/>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A28" s="58">
         <v>26</v>
       </c>
@@ -58666,7 +58683,7 @@
       </c>
       <c r="E41" s="17"/>
     </row>
-    <row r="42" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A42" s="58">
         <v>40</v>
       </c>
@@ -58711,7 +58728,7 @@
       </c>
       <c r="E44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="58">
         <v>43</v>
       </c>
@@ -58966,7 +58983,7 @@
       </c>
       <c r="E61" s="17"/>
     </row>
-    <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="58">
         <v>60</v>
       </c>
@@ -58998,7 +59015,7 @@
       </c>
       <c r="E63" s="17"/>
     </row>
-    <row r="64" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="58">
         <v>62</v>
       </c>
@@ -59118,7 +59135,7 @@
       </c>
       <c r="E71" s="17"/>
     </row>
-    <row r="72" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="58">
         <v>70</v>
       </c>
@@ -59255,7 +59272,7 @@
       </c>
       <c r="E80" s="17"/>
     </row>
-    <row r="81" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="58">
         <v>79</v>
       </c>
@@ -59285,7 +59302,7 @@
       </c>
       <c r="E82" s="17"/>
     </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="58">
         <v>81</v>
       </c>
@@ -59330,7 +59347,7 @@
       </c>
       <c r="E85" s="17"/>
     </row>
-    <row r="86" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A86" s="58">
         <v>84</v>
       </c>
@@ -59345,7 +59362,7 @@
       </c>
       <c r="E86" s="17"/>
     </row>
-    <row r="87" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="58">
         <v>85</v>
       </c>
@@ -59390,7 +59407,7 @@
       </c>
       <c r="E89" s="17"/>
     </row>
-    <row r="90" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="58">
         <v>88</v>
       </c>
@@ -59405,7 +59422,7 @@
       </c>
       <c r="E90" s="17"/>
     </row>
-    <row r="91" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="58">
         <v>89</v>
       </c>
@@ -59675,7 +59692,7 @@
       </c>
       <c r="E108" s="17"/>
     </row>
-    <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="58">
         <v>107</v>
       </c>
@@ -59705,7 +59722,7 @@
       </c>
       <c r="E110" s="17"/>
     </row>
-    <row r="111" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A111" s="58">
         <v>109</v>
       </c>
@@ -59780,7 +59797,7 @@
       </c>
       <c r="E115" s="17"/>
     </row>
-    <row r="116" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A116" s="58">
         <v>114</v>
       </c>
@@ -59810,7 +59827,7 @@
       </c>
       <c r="E117" s="17"/>
     </row>
-    <row r="118" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A118" s="58">
         <v>116</v>
       </c>
@@ -59885,7 +59902,7 @@
       </c>
       <c r="E122" s="17"/>
     </row>
-    <row r="123" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="58">
         <v>121</v>
       </c>
@@ -59915,7 +59932,7 @@
       </c>
       <c r="E124" s="17"/>
     </row>
-    <row r="125" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="58">
         <v>123</v>
       </c>
@@ -60127,7 +60144,7 @@
       </c>
       <c r="E138" s="17"/>
     </row>
-    <row r="139" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A139" s="58">
         <v>137</v>
       </c>
@@ -60247,7 +60264,7 @@
       </c>
       <c r="E146" s="17"/>
     </row>
-    <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A147" s="58">
         <v>145</v>
       </c>
@@ -60444,7 +60461,7 @@
       </c>
       <c r="E159" s="17"/>
     </row>
-    <row r="160" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A160" s="58">
         <v>158</v>
       </c>
@@ -60474,7 +60491,7 @@
       </c>
       <c r="E161" s="17"/>
     </row>
-    <row r="162" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="58">
         <v>160</v>
       </c>
@@ -60549,7 +60566,7 @@
       </c>
       <c r="E166" s="17"/>
     </row>
-    <row r="167" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="58">
         <v>165</v>
       </c>
@@ -60789,7 +60806,7 @@
       </c>
       <c r="E182" s="17"/>
     </row>
-    <row r="183" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="58">
         <v>181</v>
       </c>
@@ -60971,7 +60988,7 @@
       </c>
       <c r="E194" s="17"/>
     </row>
-    <row r="195" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A195" s="58">
         <v>193</v>
       </c>
@@ -61196,7 +61213,7 @@
       </c>
       <c r="E209" s="17"/>
     </row>
-    <row r="210" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A210" s="58">
         <v>208</v>
       </c>
@@ -61256,7 +61273,7 @@
       </c>
       <c r="E213" s="17"/>
     </row>
-    <row r="214" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="58">
         <v>212</v>
       </c>
@@ -61363,7 +61380,7 @@
       </c>
       <c r="E220" s="17"/>
     </row>
-    <row r="221" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="58">
         <v>219</v>
       </c>
@@ -61378,7 +61395,7 @@
       </c>
       <c r="E221" s="17"/>
     </row>
-    <row r="222" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="58">
         <v>220</v>
       </c>
@@ -61588,7 +61605,7 @@
       </c>
       <c r="E235" s="17"/>
     </row>
-    <row r="236" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" s="58">
         <v>234</v>
       </c>
@@ -61843,7 +61860,7 @@
       </c>
       <c r="E252" s="17"/>
     </row>
-    <row r="253" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A253" s="58">
         <v>251</v>
       </c>
@@ -61875,7 +61892,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="58">
         <v>253</v>
       </c>
@@ -61965,7 +61982,7 @@
       </c>
       <c r="E260" s="17"/>
     </row>
-    <row r="261" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A261" s="58">
         <v>259</v>
       </c>
@@ -62085,7 +62102,7 @@
       </c>
       <c r="E268" s="17"/>
     </row>
-    <row r="269" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="58">
         <v>267</v>
       </c>
@@ -62130,7 +62147,7 @@
       </c>
       <c r="E271" s="17"/>
     </row>
-    <row r="272" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A272" s="58">
         <v>270</v>
       </c>
@@ -62175,7 +62192,7 @@
       </c>
       <c r="E274" s="17"/>
     </row>
-    <row r="275" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="58">
         <v>273</v>
       </c>
@@ -62265,7 +62282,7 @@
       </c>
       <c r="E280" s="17"/>
     </row>
-    <row r="281" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="58">
         <v>279</v>
       </c>
@@ -62295,7 +62312,7 @@
       </c>
       <c r="E282" s="17"/>
     </row>
-    <row r="283" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="58">
         <v>281</v>
       </c>
@@ -63079,7 +63096,7 @@
       </c>
       <c r="E334" s="17"/>
     </row>
-    <row r="335" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A335" s="58">
         <v>333</v>
       </c>
@@ -63201,7 +63218,7 @@
       </c>
       <c r="E342" s="17"/>
     </row>
-    <row r="343" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="58">
         <v>341</v>
       </c>
@@ -63245,20 +63262,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85:XFD85"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="100.42578125" style="136" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="100.375" style="136" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="27.75" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="12" customWidth="1"/>
+    <col min="6" max="6" width="40.75" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -63424,7 +63441,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="58">
         <v>8</v>
       </c>
@@ -63580,7 +63597,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="58">
         <v>15</v>
       </c>
@@ -63843,7 +63860,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="58">
         <v>27</v>
       </c>
@@ -63864,7 +63881,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="58">
         <v>28</v>
       </c>
@@ -64337,58 +64354,73 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="47">
+    <row r="52" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="58">
         <v>50</v>
       </c>
-      <c r="B52" s="159" t="s">
-        <v>781</v>
+      <c r="B52" s="152" t="s">
+        <v>903</v>
       </c>
       <c r="C52" s="47" t="s">
-        <v>798</v>
-      </c>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F52" s="61" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G52" s="47"/>
-    </row>
-    <row r="53" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="47"/>
+        <v>282</v>
+      </c>
+      <c r="D52" s="61" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E52" s="46" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F52" s="43"/>
+      <c r="G52" s="61" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="58">
+        <v>51</v>
+      </c>
       <c r="B53" s="145" t="s">
         <v>889</v>
       </c>
       <c r="C53" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47" t="s">
+      <c r="D53" s="61" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E53" s="58" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F53" s="61" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G53" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="F53" s="43"/>
-    </row>
-    <row r="54" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="47"/>
-      <c r="B54" s="152" t="s">
-        <v>905</v>
+    </row>
+    <row r="54" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="47">
+        <v>52</v>
+      </c>
+      <c r="B54" s="159" t="s">
+        <v>781</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>320</v>
+        <v>798</v>
       </c>
       <c r="D54" s="47"/>
       <c r="E54" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F54" s="43"/>
+      <c r="F54" s="61" t="s">
+        <v>1227</v>
+      </c>
       <c r="G54" s="47"/>
     </row>
     <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="47"/>
-      <c r="B55" s="145" t="s">
-        <v>924</v>
+      <c r="B55" s="152" t="s">
+        <v>905</v>
       </c>
       <c r="C55" s="47" t="s">
         <v>320</v>
@@ -64403,7 +64435,7 @@
     <row r="56" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="47"/>
       <c r="B56" s="145" t="s">
-        <v>946</v>
+        <v>924</v>
       </c>
       <c r="C56" s="47" t="s">
         <v>320</v>
@@ -64412,15 +64444,13 @@
       <c r="E56" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F56" s="61" t="s">
-        <v>1158</v>
-      </c>
+      <c r="F56" s="43"/>
       <c r="G56" s="47"/>
     </row>
-    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="47"/>
       <c r="B57" s="145" t="s">
-        <v>968</v>
+        <v>946</v>
       </c>
       <c r="C57" s="47" t="s">
         <v>320</v>
@@ -64429,13 +64459,15 @@
       <c r="E57" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F57" s="43"/>
+      <c r="F57" s="61" t="s">
+        <v>1158</v>
+      </c>
       <c r="G57" s="47"/>
     </row>
     <row r="58" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="47"/>
       <c r="B58" s="145" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C58" s="47" t="s">
         <v>320</v>
@@ -64449,8 +64481,8 @@
     </row>
     <row r="59" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47"/>
-      <c r="B59" s="152" t="s">
-        <v>1012</v>
+      <c r="B59" s="145" t="s">
+        <v>970</v>
       </c>
       <c r="C59" s="47" t="s">
         <v>320</v>
@@ -64464,8 +64496,8 @@
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="47"/>
-      <c r="B60" s="145" t="s">
-        <v>1030</v>
+      <c r="B60" s="152" t="s">
+        <v>1012</v>
       </c>
       <c r="C60" s="47" t="s">
         <v>320</v>
@@ -64477,10 +64509,10 @@
       <c r="F60" s="43"/>
       <c r="G60" s="47"/>
     </row>
-    <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="47"/>
       <c r="B61" s="145" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C61" s="47" t="s">
         <v>320</v>
@@ -64495,7 +64527,7 @@
     <row r="62" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="47"/>
       <c r="B62" s="145" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="C62" s="47" t="s">
         <v>320</v>
@@ -64509,11 +64541,11 @@
     </row>
     <row r="63" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="47"/>
-      <c r="B63" s="152" t="s">
-        <v>867</v>
+      <c r="B63" s="145" t="s">
+        <v>1036</v>
       </c>
       <c r="C63" s="47" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D63" s="47"/>
       <c r="E63" s="47" t="s">
@@ -64524,8 +64556,8 @@
     </row>
     <row r="64" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="47"/>
-      <c r="B64" s="144" t="s">
-        <v>896</v>
+      <c r="B64" s="152" t="s">
+        <v>867</v>
       </c>
       <c r="C64" s="47" t="s">
         <v>282</v>
@@ -64539,8 +64571,8 @@
     </row>
     <row r="65" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="47"/>
-      <c r="B65" s="152" t="s">
-        <v>901</v>
+      <c r="B65" s="144" t="s">
+        <v>896</v>
       </c>
       <c r="C65" s="47" t="s">
         <v>282</v>
@@ -64554,8 +64586,8 @@
     </row>
     <row r="66" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="47"/>
-      <c r="B66" s="144" t="s">
-        <v>902</v>
+      <c r="B66" s="152" t="s">
+        <v>901</v>
       </c>
       <c r="C66" s="47" t="s">
         <v>282</v>
@@ -64570,7 +64602,7 @@
     <row r="67" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="47"/>
       <c r="B67" s="144" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C67" s="47" t="s">
         <v>282</v>
@@ -64642,7 +64674,7 @@
       <c r="F71" s="43"/>
       <c r="G71" s="47"/>
     </row>
-    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="47"/>
       <c r="B72" s="143" t="s">
         <v>81</v>
@@ -65186,7 +65218,7 @@
       </c>
       <c r="G107" s="47"/>
     </row>
-    <row r="108" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A108" s="47"/>
       <c r="B108" s="144" t="s">
         <v>866</v>
@@ -65261,7 +65293,7 @@
       <c r="F112" s="43"/>
       <c r="G112" s="47"/>
     </row>
-    <row r="113" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A113" s="47"/>
       <c r="B113" s="144" t="s">
         <v>938</v>
@@ -65431,10 +65463,10 @@
       <c r="G123" s="47"/>
     </row>
   </sheetData>
-  <sortState ref="A3:G125">
-    <sortCondition ref="A3:A125"/>
-    <sortCondition ref="C3:C125"/>
-    <sortCondition ref="B3:B125"/>
+  <sortState ref="A3:G123">
+    <sortCondition ref="A3:A123"/>
+    <sortCondition ref="C3:C123"/>
+    <sortCondition ref="B3:B123"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -316,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B83" authorId="1">
+    <comment ref="B84" authorId="1">
       <text>
         <r>
           <rPr>
@@ -39455,8 +39455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ319"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="B319" sqref="B319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63291,8 +63291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64519,40 +64519,42 @@
       <c r="A58" s="47">
         <v>56</v>
       </c>
-      <c r="B58" s="159" t="s">
-        <v>781</v>
+      <c r="B58" s="144" t="s">
+        <v>1095</v>
       </c>
       <c r="C58" s="47" t="s">
-        <v>798</v>
+        <v>554</v>
       </c>
       <c r="D58" s="47"/>
       <c r="E58" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F58" s="61" t="s">
-        <v>1232</v>
-      </c>
+      <c r="F58" s="43"/>
       <c r="G58" s="47"/>
     </row>
     <row r="59" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="47"/>
-      <c r="B59" s="152" t="s">
-        <v>904</v>
+      <c r="A59" s="47">
+        <v>57</v>
+      </c>
+      <c r="B59" s="159" t="s">
+        <v>781</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>320</v>
+        <v>798</v>
       </c>
       <c r="D59" s="47"/>
       <c r="E59" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F59" s="43"/>
+      <c r="F59" s="61" t="s">
+        <v>1232</v>
+      </c>
       <c r="G59" s="47"/>
     </row>
-    <row r="60" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="47"/>
-      <c r="B60" s="145" t="s">
-        <v>923</v>
+      <c r="B60" s="152" t="s">
+        <v>904</v>
       </c>
       <c r="C60" s="47" t="s">
         <v>320</v>
@@ -64567,7 +64569,7 @@
     <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="47"/>
       <c r="B61" s="145" t="s">
-        <v>945</v>
+        <v>923</v>
       </c>
       <c r="C61" s="47" t="s">
         <v>320</v>
@@ -64576,15 +64578,13 @@
       <c r="E61" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F61" s="61" t="s">
-        <v>1155</v>
-      </c>
+      <c r="F61" s="43"/>
       <c r="G61" s="47"/>
     </row>
     <row r="62" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="47"/>
       <c r="B62" s="145" t="s">
-        <v>969</v>
+        <v>945</v>
       </c>
       <c r="C62" s="47" t="s">
         <v>320</v>
@@ -64593,13 +64593,15 @@
       <c r="E62" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F62" s="43"/>
+      <c r="F62" s="61" t="s">
+        <v>1155</v>
+      </c>
       <c r="G62" s="47"/>
     </row>
     <row r="63" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="47"/>
-      <c r="B63" s="152" t="s">
-        <v>1011</v>
+      <c r="B63" s="145" t="s">
+        <v>969</v>
       </c>
       <c r="C63" s="47" t="s">
         <v>320</v>
@@ -64613,8 +64615,8 @@
     </row>
     <row r="64" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="47"/>
-      <c r="B64" s="145" t="s">
-        <v>1029</v>
+      <c r="B64" s="152" t="s">
+        <v>1011</v>
       </c>
       <c r="C64" s="47" t="s">
         <v>320</v>
@@ -64629,7 +64631,7 @@
     <row r="65" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="47"/>
       <c r="B65" s="145" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C65" s="47" t="s">
         <v>320</v>
@@ -64644,7 +64646,7 @@
     <row r="66" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="47"/>
       <c r="B66" s="145" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="C66" s="47" t="s">
         <v>320</v>
@@ -64658,11 +64660,11 @@
     </row>
     <row r="67" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="47"/>
-      <c r="B67" s="152" t="s">
-        <v>866</v>
+      <c r="B67" s="145" t="s">
+        <v>1035</v>
       </c>
       <c r="C67" s="47" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D67" s="47"/>
       <c r="E67" s="47" t="s">
@@ -64673,8 +64675,8 @@
     </row>
     <row r="68" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="47"/>
-      <c r="B68" s="144" t="s">
-        <v>895</v>
+      <c r="B68" s="152" t="s">
+        <v>866</v>
       </c>
       <c r="C68" s="47" t="s">
         <v>282</v>
@@ -64688,8 +64690,8 @@
     </row>
     <row r="69" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="47"/>
-      <c r="B69" s="152" t="s">
-        <v>900</v>
+      <c r="B69" s="144" t="s">
+        <v>895</v>
       </c>
       <c r="C69" s="47" t="s">
         <v>282</v>
@@ -64703,8 +64705,8 @@
     </row>
     <row r="70" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A70" s="47"/>
-      <c r="B70" s="144" t="s">
-        <v>901</v>
+      <c r="B70" s="152" t="s">
+        <v>900</v>
       </c>
       <c r="C70" s="47" t="s">
         <v>282</v>
@@ -64718,8 +64720,8 @@
     </row>
     <row r="71" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="47"/>
-      <c r="B71" s="146" t="s">
-        <v>90</v>
+      <c r="B71" s="144" t="s">
+        <v>901</v>
       </c>
       <c r="C71" s="47" t="s">
         <v>282</v>
@@ -64732,39 +64734,39 @@
       <c r="G71" s="47"/>
     </row>
     <row r="72" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="121"/>
-      <c r="B72" s="142" t="s">
+      <c r="A72" s="47"/>
+      <c r="B72" s="146" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D72" s="47"/>
+      <c r="E72" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F72" s="43"/>
+      <c r="G72" s="47"/>
+    </row>
+    <row r="73" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="121"/>
+      <c r="B73" s="142" t="s">
         <v>55</v>
       </c>
-      <c r="C72" s="121" t="s">
-        <v>282</v>
-      </c>
-      <c r="D72" s="121"/>
-      <c r="E72" s="121"/>
-      <c r="F72" s="122" t="s">
+      <c r="C73" s="121" t="s">
+        <v>282</v>
+      </c>
+      <c r="D73" s="121"/>
+      <c r="E73" s="121"/>
+      <c r="F73" s="122" t="s">
         <v>835</v>
       </c>
-      <c r="G72" s="153"/>
-    </row>
-    <row r="73" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="47"/>
-      <c r="B73" s="144" t="s">
-        <v>762</v>
-      </c>
-      <c r="C73" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D73" s="47"/>
-      <c r="E73" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F73" s="43"/>
-      <c r="G73" s="47"/>
+      <c r="G73" s="153"/>
     </row>
     <row r="74" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="47"/>
-      <c r="B74" s="51" t="s">
-        <v>82</v>
+      <c r="B74" s="144" t="s">
+        <v>762</v>
       </c>
       <c r="C74" s="47" t="s">
         <v>282</v>
@@ -64778,8 +64780,8 @@
     </row>
     <row r="75" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="47"/>
-      <c r="B75" s="143" t="s">
-        <v>81</v>
+      <c r="B75" s="51" t="s">
+        <v>82</v>
       </c>
       <c r="C75" s="47" t="s">
         <v>282</v>
@@ -64793,8 +64795,8 @@
     </row>
     <row r="76" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="47"/>
-      <c r="B76" s="158" t="s">
-        <v>929</v>
+      <c r="B76" s="143" t="s">
+        <v>81</v>
       </c>
       <c r="C76" s="47" t="s">
         <v>282</v>
@@ -64808,8 +64810,8 @@
     </row>
     <row r="77" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="47"/>
-      <c r="B77" s="152" t="s">
-        <v>933</v>
+      <c r="B77" s="158" t="s">
+        <v>929</v>
       </c>
       <c r="C77" s="47" t="s">
         <v>282</v>
@@ -64823,8 +64825,8 @@
     </row>
     <row r="78" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="47"/>
-      <c r="B78" s="51" t="s">
-        <v>938</v>
+      <c r="B78" s="152" t="s">
+        <v>933</v>
       </c>
       <c r="C78" s="47" t="s">
         <v>282</v>
@@ -64838,8 +64840,8 @@
     </row>
     <row r="79" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="47"/>
-      <c r="B79" s="152" t="s">
-        <v>939</v>
+      <c r="B79" s="51" t="s">
+        <v>938</v>
       </c>
       <c r="C79" s="47" t="s">
         <v>282</v>
@@ -64853,8 +64855,8 @@
     </row>
     <row r="80" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="47"/>
-      <c r="B80" s="51" t="s">
-        <v>940</v>
+      <c r="B80" s="152" t="s">
+        <v>939</v>
       </c>
       <c r="C80" s="47" t="s">
         <v>282</v>
@@ -64869,7 +64871,7 @@
     <row r="81" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="47"/>
       <c r="B81" s="51" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C81" s="47" t="s">
         <v>282</v>
@@ -64883,8 +64885,8 @@
     </row>
     <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="47"/>
-      <c r="B82" s="152" t="s">
-        <v>942</v>
+      <c r="B82" s="51" t="s">
+        <v>941</v>
       </c>
       <c r="C82" s="47" t="s">
         <v>282</v>
@@ -64898,8 +64900,8 @@
     </row>
     <row r="83" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A83" s="47"/>
-      <c r="B83" s="145" t="s">
-        <v>737</v>
+      <c r="B83" s="152" t="s">
+        <v>942</v>
       </c>
       <c r="C83" s="47" t="s">
         <v>282</v>
@@ -64913,8 +64915,8 @@
     </row>
     <row r="84" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="47"/>
-      <c r="B84" s="152" t="s">
-        <v>957</v>
+      <c r="B84" s="145" t="s">
+        <v>737</v>
       </c>
       <c r="C84" s="47" t="s">
         <v>282</v>
@@ -64928,8 +64930,8 @@
     </row>
     <row r="85" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="47"/>
-      <c r="B85" s="145" t="s">
-        <v>958</v>
+      <c r="B85" s="152" t="s">
+        <v>957</v>
       </c>
       <c r="C85" s="47" t="s">
         <v>282</v>
@@ -64943,8 +64945,8 @@
     </row>
     <row r="86" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="47"/>
-      <c r="B86" s="152" t="s">
-        <v>964</v>
+      <c r="B86" s="145" t="s">
+        <v>958</v>
       </c>
       <c r="C86" s="47" t="s">
         <v>282</v>
@@ -64958,8 +64960,8 @@
     </row>
     <row r="87" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A87" s="47"/>
-      <c r="B87" s="144" t="s">
-        <v>991</v>
+      <c r="B87" s="152" t="s">
+        <v>964</v>
       </c>
       <c r="C87" s="47" t="s">
         <v>282</v>
@@ -64973,8 +64975,8 @@
     </row>
     <row r="88" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="47"/>
-      <c r="B88" s="148" t="s">
-        <v>139</v>
+      <c r="B88" s="144" t="s">
+        <v>991</v>
       </c>
       <c r="C88" s="47" t="s">
         <v>282</v>
@@ -64989,7 +64991,7 @@
     <row r="89" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="47"/>
       <c r="B89" s="148" t="s">
-        <v>1002</v>
+        <v>139</v>
       </c>
       <c r="C89" s="47" t="s">
         <v>282</v>
@@ -65003,8 +65005,8 @@
     </row>
     <row r="90" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="47"/>
-      <c r="B90" s="51" t="s">
-        <v>88</v>
+      <c r="B90" s="148" t="s">
+        <v>1002</v>
       </c>
       <c r="C90" s="47" t="s">
         <v>282</v>
@@ -65018,8 +65020,8 @@
     </row>
     <row r="91" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="47"/>
-      <c r="B91" s="148" t="s">
-        <v>1021</v>
+      <c r="B91" s="51" t="s">
+        <v>88</v>
       </c>
       <c r="C91" s="47" t="s">
         <v>282</v>
@@ -65033,8 +65035,8 @@
     </row>
     <row r="92" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="47"/>
-      <c r="B92" s="145" t="s">
-        <v>58</v>
+      <c r="B92" s="148" t="s">
+        <v>1021</v>
       </c>
       <c r="C92" s="47" t="s">
         <v>282</v>
@@ -65048,8 +65050,8 @@
     </row>
     <row r="93" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="47"/>
-      <c r="B93" s="144" t="s">
-        <v>1053</v>
+      <c r="B93" s="145" t="s">
+        <v>58</v>
       </c>
       <c r="C93" s="47" t="s">
         <v>282</v>
@@ -65063,8 +65065,8 @@
     </row>
     <row r="94" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="47"/>
-      <c r="B94" s="145" t="s">
-        <v>69</v>
+      <c r="B94" s="144" t="s">
+        <v>1053</v>
       </c>
       <c r="C94" s="47" t="s">
         <v>282</v>
@@ -65078,8 +65080,8 @@
     </row>
     <row r="95" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="47"/>
-      <c r="B95" s="51" t="s">
-        <v>1054</v>
+      <c r="B95" s="145" t="s">
+        <v>69</v>
       </c>
       <c r="C95" s="47" t="s">
         <v>282</v>
@@ -65093,8 +65095,8 @@
     </row>
     <row r="96" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A96" s="47"/>
-      <c r="B96" s="148" t="s">
-        <v>1066</v>
+      <c r="B96" s="51" t="s">
+        <v>1054</v>
       </c>
       <c r="C96" s="47" t="s">
         <v>282</v>
@@ -65108,8 +65110,8 @@
     </row>
     <row r="97" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="47"/>
-      <c r="B97" s="152" t="s">
-        <v>188</v>
+      <c r="B97" s="148" t="s">
+        <v>1066</v>
       </c>
       <c r="C97" s="47" t="s">
         <v>282</v>
@@ -65118,15 +65120,13 @@
       <c r="E97" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F97" s="47" t="s">
-        <v>848</v>
-      </c>
+      <c r="F97" s="43"/>
       <c r="G97" s="47"/>
     </row>
     <row r="98" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="47"/>
-      <c r="B98" s="158" t="s">
-        <v>1084</v>
+      <c r="B98" s="152" t="s">
+        <v>188</v>
       </c>
       <c r="C98" s="47" t="s">
         <v>282</v>
@@ -65135,13 +65135,15 @@
       <c r="E98" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F98" s="43"/>
+      <c r="F98" s="47" t="s">
+        <v>848</v>
+      </c>
       <c r="G98" s="47"/>
     </row>
     <row r="99" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
-      <c r="B99" s="152" t="s">
-        <v>1085</v>
+      <c r="B99" s="158" t="s">
+        <v>1084</v>
       </c>
       <c r="C99" s="47" t="s">
         <v>282</v>
@@ -65155,8 +65157,8 @@
     </row>
     <row r="100" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="47"/>
-      <c r="B100" s="145" t="s">
-        <v>80</v>
+      <c r="B100" s="152" t="s">
+        <v>1085</v>
       </c>
       <c r="C100" s="47" t="s">
         <v>282</v>
@@ -65170,8 +65172,8 @@
     </row>
     <row r="101" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="47"/>
-      <c r="B101" s="151" t="s">
-        <v>1218</v>
+      <c r="B101" s="145" t="s">
+        <v>80</v>
       </c>
       <c r="C101" s="47" t="s">
         <v>282</v>
@@ -65185,11 +65187,11 @@
     </row>
     <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="47"/>
-      <c r="B102" s="143" t="s">
-        <v>794</v>
+      <c r="B102" s="151" t="s">
+        <v>1218</v>
       </c>
       <c r="C102" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D102" s="47"/>
       <c r="E102" s="47" t="s">
@@ -65200,8 +65202,8 @@
     </row>
     <row r="103" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="47"/>
-      <c r="B103" s="144" t="s">
-        <v>769</v>
+      <c r="B103" s="143" t="s">
+        <v>794</v>
       </c>
       <c r="C103" s="47" t="s">
         <v>798</v>
@@ -65215,8 +65217,8 @@
     </row>
     <row r="104" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="47"/>
-      <c r="B104" s="143" t="s">
-        <v>775</v>
+      <c r="B104" s="144" t="s">
+        <v>769</v>
       </c>
       <c r="C104" s="47" t="s">
         <v>798</v>
@@ -65230,8 +65232,8 @@
     </row>
     <row r="105" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="47"/>
-      <c r="B105" s="145" t="s">
-        <v>783</v>
+      <c r="B105" s="143" t="s">
+        <v>775</v>
       </c>
       <c r="C105" s="47" t="s">
         <v>798</v>
@@ -65245,8 +65247,8 @@
     </row>
     <row r="106" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A106" s="47"/>
-      <c r="B106" s="144" t="s">
-        <v>768</v>
+      <c r="B106" s="145" t="s">
+        <v>783</v>
       </c>
       <c r="C106" s="47" t="s">
         <v>798</v>
@@ -65255,30 +65257,30 @@
       <c r="E106" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F106" s="43" t="s">
-        <v>846</v>
-      </c>
+      <c r="F106" s="43"/>
       <c r="G106" s="47"/>
     </row>
     <row r="107" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A107" s="47"/>
       <c r="B107" s="144" t="s">
-        <v>865</v>
+        <v>768</v>
       </c>
       <c r="C107" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D107" s="47"/>
       <c r="E107" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F107" s="43"/>
+      <c r="F107" s="43" t="s">
+        <v>846</v>
+      </c>
       <c r="G107" s="47"/>
     </row>
     <row r="108" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="47"/>
       <c r="B108" s="144" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="C108" s="47" t="s">
         <v>554</v>
@@ -65293,7 +65295,7 @@
     <row r="109" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A109" s="47"/>
       <c r="B109" s="144" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C109" s="47" t="s">
         <v>554</v>
@@ -65307,8 +65309,8 @@
     </row>
     <row r="110" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="47"/>
-      <c r="B110" s="152" t="s">
-        <v>935</v>
+      <c r="B110" s="144" t="s">
+        <v>873</v>
       </c>
       <c r="C110" s="47" t="s">
         <v>554</v>
@@ -65323,7 +65325,7 @@
     <row r="111" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="47"/>
       <c r="B111" s="152" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C111" s="47" t="s">
         <v>554</v>
@@ -65337,8 +65339,8 @@
     </row>
     <row r="112" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A112" s="47"/>
-      <c r="B112" s="144" t="s">
-        <v>937</v>
+      <c r="B112" s="152" t="s">
+        <v>936</v>
       </c>
       <c r="C112" s="47" t="s">
         <v>554</v>
@@ -65353,7 +65355,7 @@
     <row r="113" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="47"/>
       <c r="B113" s="144" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="C113" s="47" t="s">
         <v>554</v>
@@ -65368,7 +65370,7 @@
     <row r="114" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="47"/>
       <c r="B114" s="144" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C114" s="47" t="s">
         <v>554</v>
@@ -65383,7 +65385,7 @@
     <row r="115" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A115" s="47"/>
       <c r="B115" s="144" t="s">
-        <v>960</v>
+        <v>944</v>
       </c>
       <c r="C115" s="47" t="s">
         <v>554</v>
@@ -65398,7 +65400,7 @@
     <row r="116" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="47"/>
       <c r="B116" s="144" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C116" s="47" t="s">
         <v>554</v>
@@ -65411,41 +65413,41 @@
       <c r="G116" s="47"/>
     </row>
     <row r="117" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A117" s="46"/>
-      <c r="B117" s="154" t="s">
+      <c r="A117" s="47"/>
+      <c r="B117" s="144" t="s">
+        <v>968</v>
+      </c>
+      <c r="C117" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D117" s="47"/>
+      <c r="E117" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F117" s="43"/>
+      <c r="G117" s="47"/>
+    </row>
+    <row r="118" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="46"/>
+      <c r="B118" s="154" t="s">
         <v>985</v>
       </c>
-      <c r="C117" s="46" t="s">
+      <c r="C118" s="46" t="s">
         <v>554</v>
       </c>
-      <c r="D117" s="46"/>
-      <c r="E117" s="46" t="s">
+      <c r="D118" s="46"/>
+      <c r="E118" s="46" t="s">
         <v>479</v>
       </c>
-      <c r="F117" s="46" t="s">
+      <c r="F118" s="46" t="s">
         <v>1148</v>
       </c>
-      <c r="G117" s="46"/>
-    </row>
-    <row r="118" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="47"/>
-      <c r="B118" s="152" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C118" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="D118" s="47"/>
-      <c r="E118" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F118" s="43"/>
-      <c r="G118" s="47"/>
+      <c r="G118" s="46"/>
     </row>
     <row r="119" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A119" s="47"/>
-      <c r="B119" s="144" t="s">
-        <v>1081</v>
+      <c r="B119" s="152" t="s">
+        <v>1001</v>
       </c>
       <c r="C119" s="47" t="s">
         <v>554</v>
@@ -65460,7 +65462,7 @@
     <row r="120" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A120" s="47"/>
       <c r="B120" s="144" t="s">
-        <v>1095</v>
+        <v>1081</v>
       </c>
       <c r="C120" s="47" t="s">
         <v>554</v>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">' Step 2'!$A$2:$D$526</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">' Step 3'!$A$2:$C$344</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$120</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -316,7 +316,83 @@
         </r>
       </text>
     </comment>
-    <comment ref="B84" authorId="1">
+    <comment ref="G60" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- participants adjusted the volume of the music on their own. Therefore, the music level was different for the different subjects
+- the experiment was conducted in a busy university cafeteria, which is a naturally noisy place. In this sense, this confounds the actual music manipulation. Also, in the silence condition, participants will still hear the background noise from the cafeteria. 
+For these reasons, the experiment is not similar to the remaining studies and cannot be included in the meta-analysis
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B62" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Exp. 3 only had an arithmetic task
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F63" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+response time is not coded as it has a different meaning that reading speed and there are not enough studies for this particular analysis</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B90" authorId="1">
       <text>
         <r>
           <rPr>
@@ -415,7 +491,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4937" uniqueCount="1244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4957" uniqueCount="1260">
   <si>
     <t>ID</t>
   </si>
@@ -36734,13 +36810,139 @@
   </si>
   <si>
     <t>study investigated reverbation times of classrooms, and not experimental/ long-term exposure to noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (background: silence, industrial noise, music, speech) </t>
+  </si>
+  <si>
+    <t>not much time passed until reading comprehension assessment due to the fact that passages were very short (around 80 words).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 (background: startling music, non-startling music)</t>
+  </si>
+  <si>
+    <t>3 (background: no muisc, fast classical music, slow classical music)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (background: silence, office noise /w speech, office noise without speech, speech) </t>
+  </si>
+  <si>
+    <t>the task was about learning material rather than reading per se</t>
+  </si>
+  <si>
+    <t>4 (background: silence, Greek speech, office noise with speech, office noise without speech speech) x 2 (background exposure: learning phase, learning &amp; recall phase)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Banbury, S., &amp; Berry, D. C. (1998). Disruption of office‐related tasks by speech and office noise. British Journal of Psychology, 89(3), 499-517., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Banbury, S., &amp; Berry, D. C. (1998). Disruption of office‐related tasks by speech and office noise. British Journal of Psychology, 89(3), 499-517., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Banbury, S., &amp; Berry, D. C. (1997). Habituation and dishabituation to speech and office noise. Journal of Experimental Psychology: Applied, 3(3), 181., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment 1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 (background: noise, silence)</t>
+  </si>
+  <si>
+    <t>I convert proportion wrong to proportion correct, and variances to standard deviations; I take the average of the two texts</t>
+  </si>
+  <si>
+    <t>very poor reporting of design and materials; not clear what the task measures are</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 (background: silence, speech)</t>
+  </si>
+  <si>
+    <t>effect sizes were computed/ approximated from the available F statistics (see R files)</t>
+  </si>
+  <si>
+    <r>
+      <t>Martin, R. C., Wogalter, M. S., &amp; Forlano, J. G. (1988). Reading comprehension in the presence of unattended speech and music. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Journal of memory and language</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(4), 382-398., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment 1</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="63" x14ac:knownFonts="1">
+  <fonts count="64" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -37189,6 +37391,12 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -38135,7 +38343,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -63289,10 +63497,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64516,7 +64724,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="47">
+      <c r="A58" s="58">
         <v>56</v>
       </c>
       <c r="B58" s="144" t="s">
@@ -64525,116 +64733,158 @@
       <c r="C58" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47" t="s">
+      <c r="D58" s="61" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E58" s="46" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F58" s="43"/>
+      <c r="G58" s="61" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="58">
+        <v>57</v>
+      </c>
+      <c r="B59" s="145" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C59" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D59" s="61" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E59" s="46" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F59" s="61" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G59" s="47" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="58">
+        <v>58</v>
+      </c>
+      <c r="B60" s="145" t="s">
+        <v>969</v>
+      </c>
+      <c r="C60" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D60" s="62" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E60" s="46" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F60" s="43"/>
+      <c r="G60" s="47" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="58">
+        <v>59</v>
+      </c>
+      <c r="B61" s="152" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C61" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D61" s="61" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E61" s="46" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F61" s="43"/>
+      <c r="G61" s="61" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="58">
+        <v>60</v>
+      </c>
+      <c r="B62" s="152" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C62" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D62" s="61" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E62" s="46" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F62" s="43"/>
+      <c r="G62" s="61" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="58">
+        <v>61</v>
+      </c>
+      <c r="B63" s="158" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C63" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D63" s="61" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E63" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F63" s="61" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G63" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F58" s="43"/>
-      <c r="G58" s="47"/>
-    </row>
-    <row r="59" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="47">
-        <v>57</v>
-      </c>
-      <c r="B59" s="159" t="s">
-        <v>781</v>
-      </c>
-      <c r="C59" s="47" t="s">
-        <v>798</v>
-      </c>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47" t="s">
+    </row>
+    <row r="64" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="58">
+        <v>62</v>
+      </c>
+      <c r="B64" s="152" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C64" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D64" s="61" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E64" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F64" s="65" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G64" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F59" s="61" t="s">
-        <v>1232</v>
-      </c>
-      <c r="G59" s="47"/>
-    </row>
-    <row r="60" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="47"/>
-      <c r="B60" s="152" t="s">
-        <v>904</v>
-      </c>
-      <c r="C60" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F60" s="43"/>
-      <c r="G60" s="47"/>
-    </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="47"/>
-      <c r="B61" s="145" t="s">
-        <v>923</v>
-      </c>
-      <c r="C61" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F61" s="43"/>
-      <c r="G61" s="47"/>
-    </row>
-    <row r="62" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
-      <c r="B62" s="145" t="s">
-        <v>945</v>
-      </c>
-      <c r="C62" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F62" s="61" t="s">
-        <v>1155</v>
-      </c>
-      <c r="G62" s="47"/>
-    </row>
-    <row r="63" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="47"/>
-      <c r="B63" s="145" t="s">
-        <v>969</v>
-      </c>
-      <c r="C63" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F63" s="43"/>
-      <c r="G63" s="47"/>
-    </row>
-    <row r="64" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="47"/>
-      <c r="B64" s="152" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C64" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F64" s="43"/>
-      <c r="G64" s="47"/>
-    </row>
-    <row r="65" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="47"/>
-      <c r="B65" s="145" t="s">
-        <v>1029</v>
+    </row>
+    <row r="65" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="47">
+        <v>63</v>
+      </c>
+      <c r="B65" s="152" t="s">
+        <v>1259</v>
       </c>
       <c r="C65" s="47" t="s">
-        <v>320</v>
+        <v>554</v>
       </c>
       <c r="D65" s="47"/>
       <c r="E65" s="47" t="s">
@@ -64643,13 +64893,15 @@
       <c r="F65" s="43"/>
       <c r="G65" s="47"/>
     </row>
-    <row r="66" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="47"/>
-      <c r="B66" s="145" t="s">
-        <v>1030</v>
+    <row r="66" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="47">
+        <v>64</v>
+      </c>
+      <c r="B66" s="152" t="s">
+        <v>1253</v>
       </c>
       <c r="C66" s="47" t="s">
-        <v>320</v>
+        <v>554</v>
       </c>
       <c r="D66" s="47"/>
       <c r="E66" s="47" t="s">
@@ -64658,28 +64910,32 @@
       <c r="F66" s="43"/>
       <c r="G66" s="47"/>
     </row>
-    <row r="67" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="47"/>
-      <c r="B67" s="145" t="s">
-        <v>1035</v>
+    <row r="67" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="47">
+        <v>65</v>
+      </c>
+      <c r="B67" s="159" t="s">
+        <v>781</v>
       </c>
       <c r="C67" s="47" t="s">
-        <v>320</v>
+        <v>798</v>
       </c>
       <c r="D67" s="47"/>
       <c r="E67" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F67" s="43"/>
+      <c r="F67" s="61" t="s">
+        <v>1232</v>
+      </c>
       <c r="G67" s="47"/>
     </row>
-    <row r="68" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="47"/>
       <c r="B68" s="152" t="s">
-        <v>866</v>
+        <v>904</v>
       </c>
       <c r="C68" s="47" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D68" s="47"/>
       <c r="E68" s="47" t="s">
@@ -64688,13 +64944,13 @@
       <c r="F68" s="43"/>
       <c r="G68" s="47"/>
     </row>
-    <row r="69" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="47"/>
-      <c r="B69" s="144" t="s">
-        <v>895</v>
+      <c r="B69" s="145" t="s">
+        <v>923</v>
       </c>
       <c r="C69" s="47" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D69" s="47"/>
       <c r="E69" s="47" t="s">
@@ -64703,28 +64959,30 @@
       <c r="F69" s="43"/>
       <c r="G69" s="47"/>
     </row>
-    <row r="70" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="47"/>
-      <c r="B70" s="152" t="s">
-        <v>900</v>
+      <c r="B70" s="145" t="s">
+        <v>945</v>
       </c>
       <c r="C70" s="47" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D70" s="47"/>
       <c r="E70" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F70" s="43"/>
+      <c r="F70" s="61" t="s">
+        <v>1155</v>
+      </c>
       <c r="G70" s="47"/>
     </row>
-    <row r="71" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A71" s="47"/>
-      <c r="B71" s="144" t="s">
-        <v>901</v>
+      <c r="B71" s="152" t="s">
+        <v>1011</v>
       </c>
       <c r="C71" s="47" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D71" s="47"/>
       <c r="E71" s="47" t="s">
@@ -64733,13 +64991,13 @@
       <c r="F71" s="43"/>
       <c r="G71" s="47"/>
     </row>
-    <row r="72" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="47"/>
-      <c r="B72" s="146" t="s">
-        <v>90</v>
+      <c r="B72" s="145" t="s">
+        <v>1029</v>
       </c>
       <c r="C72" s="47" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D72" s="47"/>
       <c r="E72" s="47" t="s">
@@ -64748,25 +65006,25 @@
       <c r="F72" s="43"/>
       <c r="G72" s="47"/>
     </row>
-    <row r="73" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="121"/>
-      <c r="B73" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="C73" s="121" t="s">
-        <v>282</v>
-      </c>
-      <c r="D73" s="121"/>
-      <c r="E73" s="121"/>
-      <c r="F73" s="122" t="s">
-        <v>835</v>
-      </c>
-      <c r="G73" s="153"/>
-    </row>
-    <row r="74" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="47"/>
+      <c r="B73" s="145" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C73" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F73" s="43"/>
+      <c r="G73" s="47"/>
+    </row>
+    <row r="74" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="47"/>
-      <c r="B74" s="144" t="s">
-        <v>762</v>
+      <c r="B74" s="152" t="s">
+        <v>866</v>
       </c>
       <c r="C74" s="47" t="s">
         <v>282</v>
@@ -64778,10 +65036,10 @@
       <c r="F74" s="43"/>
       <c r="G74" s="47"/>
     </row>
-    <row r="75" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="47"/>
-      <c r="B75" s="51" t="s">
-        <v>82</v>
+      <c r="B75" s="144" t="s">
+        <v>895</v>
       </c>
       <c r="C75" s="47" t="s">
         <v>282</v>
@@ -64793,10 +65051,10 @@
       <c r="F75" s="43"/>
       <c r="G75" s="47"/>
     </row>
-    <row r="76" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="47"/>
-      <c r="B76" s="143" t="s">
-        <v>81</v>
+      <c r="B76" s="152" t="s">
+        <v>900</v>
       </c>
       <c r="C76" s="47" t="s">
         <v>282</v>
@@ -64808,10 +65066,10 @@
       <c r="F76" s="43"/>
       <c r="G76" s="47"/>
     </row>
-    <row r="77" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="47"/>
-      <c r="B77" s="158" t="s">
-        <v>929</v>
+      <c r="B77" s="144" t="s">
+        <v>901</v>
       </c>
       <c r="C77" s="47" t="s">
         <v>282</v>
@@ -64823,10 +65081,10 @@
       <c r="F77" s="43"/>
       <c r="G77" s="47"/>
     </row>
-    <row r="78" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="47"/>
-      <c r="B78" s="152" t="s">
-        <v>933</v>
+      <c r="B78" s="146" t="s">
+        <v>90</v>
       </c>
       <c r="C78" s="47" t="s">
         <v>282</v>
@@ -64838,25 +65096,25 @@
       <c r="F78" s="43"/>
       <c r="G78" s="47"/>
     </row>
-    <row r="79" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="47"/>
-      <c r="B79" s="51" t="s">
-        <v>938</v>
-      </c>
-      <c r="C79" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D79" s="47"/>
-      <c r="E79" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F79" s="43"/>
-      <c r="G79" s="47"/>
-    </row>
-    <row r="80" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="121"/>
+      <c r="B79" s="142" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" s="121" t="s">
+        <v>282</v>
+      </c>
+      <c r="D79" s="121"/>
+      <c r="E79" s="121"/>
+      <c r="F79" s="122" t="s">
+        <v>835</v>
+      </c>
+      <c r="G79" s="153"/>
+    </row>
+    <row r="80" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="47"/>
-      <c r="B80" s="152" t="s">
-        <v>939</v>
+      <c r="B80" s="144" t="s">
+        <v>762</v>
       </c>
       <c r="C80" s="47" t="s">
         <v>282</v>
@@ -64868,10 +65126,10 @@
       <c r="F80" s="43"/>
       <c r="G80" s="47"/>
     </row>
-    <row r="81" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="47"/>
       <c r="B81" s="51" t="s">
-        <v>940</v>
+        <v>82</v>
       </c>
       <c r="C81" s="47" t="s">
         <v>282</v>
@@ -64883,10 +65141,10 @@
       <c r="F81" s="43"/>
       <c r="G81" s="47"/>
     </row>
-    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="47"/>
-      <c r="B82" s="51" t="s">
-        <v>941</v>
+      <c r="B82" s="145" t="s">
+        <v>81</v>
       </c>
       <c r="C82" s="47" t="s">
         <v>282</v>
@@ -64898,10 +65156,10 @@
       <c r="F82" s="43"/>
       <c r="G82" s="47"/>
     </row>
-    <row r="83" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="47"/>
-      <c r="B83" s="152" t="s">
-        <v>942</v>
+      <c r="B83" s="158" t="s">
+        <v>929</v>
       </c>
       <c r="C83" s="47" t="s">
         <v>282</v>
@@ -64913,10 +65171,10 @@
       <c r="F83" s="43"/>
       <c r="G83" s="47"/>
     </row>
-    <row r="84" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="47"/>
-      <c r="B84" s="145" t="s">
-        <v>737</v>
+      <c r="B84" s="152" t="s">
+        <v>933</v>
       </c>
       <c r="C84" s="47" t="s">
         <v>282</v>
@@ -64928,10 +65186,10 @@
       <c r="F84" s="43"/>
       <c r="G84" s="47"/>
     </row>
-    <row r="85" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="47"/>
-      <c r="B85" s="152" t="s">
-        <v>957</v>
+      <c r="B85" s="51" t="s">
+        <v>938</v>
       </c>
       <c r="C85" s="47" t="s">
         <v>282</v>
@@ -64943,10 +65201,10 @@
       <c r="F85" s="43"/>
       <c r="G85" s="47"/>
     </row>
-    <row r="86" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="47"/>
-      <c r="B86" s="145" t="s">
-        <v>958</v>
+      <c r="B86" s="152" t="s">
+        <v>939</v>
       </c>
       <c r="C86" s="47" t="s">
         <v>282</v>
@@ -64958,10 +65216,10 @@
       <c r="F86" s="43"/>
       <c r="G86" s="47"/>
     </row>
-    <row r="87" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="47"/>
-      <c r="B87" s="152" t="s">
-        <v>964</v>
+      <c r="B87" s="51" t="s">
+        <v>940</v>
       </c>
       <c r="C87" s="47" t="s">
         <v>282</v>
@@ -64973,10 +65231,10 @@
       <c r="F87" s="43"/>
       <c r="G87" s="47"/>
     </row>
-    <row r="88" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A88" s="47"/>
-      <c r="B88" s="144" t="s">
-        <v>991</v>
+      <c r="B88" s="51" t="s">
+        <v>941</v>
       </c>
       <c r="C88" s="47" t="s">
         <v>282</v>
@@ -64988,10 +65246,10 @@
       <c r="F88" s="43"/>
       <c r="G88" s="47"/>
     </row>
-    <row r="89" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="47"/>
-      <c r="B89" s="148" t="s">
-        <v>139</v>
+      <c r="B89" s="152" t="s">
+        <v>942</v>
       </c>
       <c r="C89" s="47" t="s">
         <v>282</v>
@@ -65003,10 +65261,10 @@
       <c r="F89" s="43"/>
       <c r="G89" s="47"/>
     </row>
-    <row r="90" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="47"/>
-      <c r="B90" s="148" t="s">
-        <v>1002</v>
+      <c r="B90" s="145" t="s">
+        <v>737</v>
       </c>
       <c r="C90" s="47" t="s">
         <v>282</v>
@@ -65018,10 +65276,10 @@
       <c r="F90" s="43"/>
       <c r="G90" s="47"/>
     </row>
-    <row r="91" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="47"/>
-      <c r="B91" s="51" t="s">
-        <v>88</v>
+      <c r="B91" s="152" t="s">
+        <v>957</v>
       </c>
       <c r="C91" s="47" t="s">
         <v>282</v>
@@ -65033,10 +65291,10 @@
       <c r="F91" s="43"/>
       <c r="G91" s="47"/>
     </row>
-    <row r="92" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="47"/>
-      <c r="B92" s="148" t="s">
-        <v>1021</v>
+      <c r="B92" s="145" t="s">
+        <v>958</v>
       </c>
       <c r="C92" s="47" t="s">
         <v>282</v>
@@ -65048,10 +65306,10 @@
       <c r="F92" s="43"/>
       <c r="G92" s="47"/>
     </row>
-    <row r="93" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="47"/>
-      <c r="B93" s="145" t="s">
-        <v>58</v>
+      <c r="B93" s="152" t="s">
+        <v>964</v>
       </c>
       <c r="C93" s="47" t="s">
         <v>282</v>
@@ -65063,10 +65321,10 @@
       <c r="F93" s="43"/>
       <c r="G93" s="47"/>
     </row>
-    <row r="94" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="47"/>
-      <c r="B94" s="144" t="s">
-        <v>1053</v>
+      <c r="B94" s="152" t="s">
+        <v>991</v>
       </c>
       <c r="C94" s="47" t="s">
         <v>282</v>
@@ -65078,10 +65336,10 @@
       <c r="F94" s="43"/>
       <c r="G94" s="47"/>
     </row>
-    <row r="95" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="47"/>
-      <c r="B95" s="145" t="s">
-        <v>69</v>
+      <c r="B95" s="51" t="s">
+        <v>139</v>
       </c>
       <c r="C95" s="47" t="s">
         <v>282</v>
@@ -65093,10 +65351,10 @@
       <c r="F95" s="43"/>
       <c r="G95" s="47"/>
     </row>
-    <row r="96" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="47"/>
       <c r="B96" s="51" t="s">
-        <v>1054</v>
+        <v>1002</v>
       </c>
       <c r="C96" s="47" t="s">
         <v>282</v>
@@ -65108,10 +65366,10 @@
       <c r="F96" s="43"/>
       <c r="G96" s="47"/>
     </row>
-    <row r="97" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A97" s="47"/>
-      <c r="B97" s="148" t="s">
-        <v>1066</v>
+      <c r="B97" s="51" t="s">
+        <v>88</v>
       </c>
       <c r="C97" s="47" t="s">
         <v>282</v>
@@ -65123,10 +65381,10 @@
       <c r="F97" s="43"/>
       <c r="G97" s="47"/>
     </row>
-    <row r="98" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="47"/>
-      <c r="B98" s="152" t="s">
-        <v>188</v>
+      <c r="B98" s="148" t="s">
+        <v>1021</v>
       </c>
       <c r="C98" s="47" t="s">
         <v>282</v>
@@ -65135,15 +65393,13 @@
       <c r="E98" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F98" s="47" t="s">
-        <v>848</v>
-      </c>
+      <c r="F98" s="43"/>
       <c r="G98" s="47"/>
     </row>
-    <row r="99" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
-      <c r="B99" s="158" t="s">
-        <v>1084</v>
+      <c r="B99" s="145" t="s">
+        <v>58</v>
       </c>
       <c r="C99" s="47" t="s">
         <v>282</v>
@@ -65155,10 +65411,10 @@
       <c r="F99" s="43"/>
       <c r="G99" s="47"/>
     </row>
-    <row r="100" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="47"/>
-      <c r="B100" s="152" t="s">
-        <v>1085</v>
+      <c r="B100" s="144" t="s">
+        <v>1053</v>
       </c>
       <c r="C100" s="47" t="s">
         <v>282</v>
@@ -65170,10 +65426,10 @@
       <c r="F100" s="43"/>
       <c r="G100" s="47"/>
     </row>
-    <row r="101" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="47"/>
       <c r="B101" s="145" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C101" s="47" t="s">
         <v>282</v>
@@ -65185,10 +65441,10 @@
       <c r="F101" s="43"/>
       <c r="G101" s="47"/>
     </row>
-    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="47"/>
-      <c r="B102" s="151" t="s">
-        <v>1218</v>
+      <c r="B102" s="51" t="s">
+        <v>1054</v>
       </c>
       <c r="C102" s="47" t="s">
         <v>282</v>
@@ -65200,13 +65456,13 @@
       <c r="F102" s="43"/>
       <c r="G102" s="47"/>
     </row>
-    <row r="103" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A103" s="47"/>
-      <c r="B103" s="143" t="s">
-        <v>794</v>
+      <c r="B103" s="148" t="s">
+        <v>1066</v>
       </c>
       <c r="C103" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D103" s="47"/>
       <c r="E103" s="47" t="s">
@@ -65215,28 +65471,30 @@
       <c r="F103" s="43"/>
       <c r="G103" s="47"/>
     </row>
-    <row r="104" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="47"/>
-      <c r="B104" s="144" t="s">
-        <v>769</v>
+      <c r="B104" s="152" t="s">
+        <v>188</v>
       </c>
       <c r="C104" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D104" s="47"/>
       <c r="E104" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F104" s="43"/>
+      <c r="F104" s="47" t="s">
+        <v>848</v>
+      </c>
       <c r="G104" s="47"/>
     </row>
-    <row r="105" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="47"/>
-      <c r="B105" s="143" t="s">
-        <v>775</v>
+      <c r="B105" s="145" t="s">
+        <v>80</v>
       </c>
       <c r="C105" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D105" s="47"/>
       <c r="E105" s="47" t="s">
@@ -65245,13 +65503,13 @@
       <c r="F105" s="43"/>
       <c r="G105" s="47"/>
     </row>
-    <row r="106" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="47"/>
-      <c r="B106" s="145" t="s">
-        <v>783</v>
+      <c r="B106" s="151" t="s">
+        <v>1218</v>
       </c>
       <c r="C106" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D106" s="47"/>
       <c r="E106" s="47" t="s">
@@ -65260,10 +65518,10 @@
       <c r="F106" s="43"/>
       <c r="G106" s="47"/>
     </row>
-    <row r="107" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="47"/>
-      <c r="B107" s="144" t="s">
-        <v>768</v>
+      <c r="B107" s="145" t="s">
+        <v>794</v>
       </c>
       <c r="C107" s="47" t="s">
         <v>798</v>
@@ -65272,18 +65530,16 @@
       <c r="E107" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F107" s="43" t="s">
-        <v>846</v>
-      </c>
+      <c r="F107" s="43"/>
       <c r="G107" s="47"/>
     </row>
-    <row r="108" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A108" s="47"/>
-      <c r="B108" s="144" t="s">
-        <v>865</v>
+      <c r="B108" s="152" t="s">
+        <v>769</v>
       </c>
       <c r="C108" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D108" s="47"/>
       <c r="E108" s="47" t="s">
@@ -65292,13 +65548,13 @@
       <c r="F108" s="43"/>
       <c r="G108" s="47"/>
     </row>
-    <row r="109" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="47"/>
-      <c r="B109" s="144" t="s">
-        <v>872</v>
+      <c r="B109" s="143" t="s">
+        <v>775</v>
       </c>
       <c r="C109" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D109" s="47"/>
       <c r="E109" s="47" t="s">
@@ -65307,13 +65563,13 @@
       <c r="F109" s="43"/>
       <c r="G109" s="47"/>
     </row>
-    <row r="110" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A110" s="47"/>
-      <c r="B110" s="144" t="s">
-        <v>873</v>
+      <c r="B110" s="145" t="s">
+        <v>783</v>
       </c>
       <c r="C110" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D110" s="47"/>
       <c r="E110" s="47" t="s">
@@ -65322,25 +65578,27 @@
       <c r="F110" s="43"/>
       <c r="G110" s="47"/>
     </row>
-    <row r="111" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="47"/>
-      <c r="B111" s="152" t="s">
-        <v>935</v>
+      <c r="B111" s="144" t="s">
+        <v>768</v>
       </c>
       <c r="C111" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D111" s="47"/>
       <c r="E111" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F111" s="43"/>
+      <c r="F111" s="43" t="s">
+        <v>846</v>
+      </c>
       <c r="G111" s="47"/>
     </row>
-    <row r="112" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="47"/>
-      <c r="B112" s="152" t="s">
-        <v>936</v>
+      <c r="B112" s="144" t="s">
+        <v>865</v>
       </c>
       <c r="C112" s="47" t="s">
         <v>554</v>
@@ -65352,10 +65610,10 @@
       <c r="F112" s="43"/>
       <c r="G112" s="47"/>
     </row>
-    <row r="113" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A113" s="47"/>
-      <c r="B113" s="144" t="s">
-        <v>937</v>
+      <c r="B113" s="152" t="s">
+        <v>935</v>
       </c>
       <c r="C113" s="47" t="s">
         <v>554</v>
@@ -65367,10 +65625,10 @@
       <c r="F113" s="43"/>
       <c r="G113" s="47"/>
     </row>
-    <row r="114" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="47"/>
-      <c r="B114" s="144" t="s">
-        <v>943</v>
+      <c r="B114" s="152" t="s">
+        <v>936</v>
       </c>
       <c r="C114" s="47" t="s">
         <v>554</v>
@@ -65382,10 +65640,10 @@
       <c r="F114" s="43"/>
       <c r="G114" s="47"/>
     </row>
-    <row r="115" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="47"/>
       <c r="B115" s="144" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="C115" s="47" t="s">
         <v>554</v>
@@ -65397,10 +65655,10 @@
       <c r="F115" s="43"/>
       <c r="G115" s="47"/>
     </row>
-    <row r="116" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A116" s="47"/>
       <c r="B116" s="144" t="s">
-        <v>960</v>
+        <v>943</v>
       </c>
       <c r="C116" s="47" t="s">
         <v>554</v>
@@ -65412,10 +65670,10 @@
       <c r="F116" s="43"/>
       <c r="G116" s="47"/>
     </row>
-    <row r="117" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="47"/>
       <c r="B117" s="144" t="s">
-        <v>968</v>
+        <v>944</v>
       </c>
       <c r="C117" s="47" t="s">
         <v>554</v>
@@ -65427,27 +65685,25 @@
       <c r="F117" s="43"/>
       <c r="G117" s="47"/>
     </row>
-    <row r="118" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="46"/>
-      <c r="B118" s="154" t="s">
-        <v>985</v>
-      </c>
-      <c r="C118" s="46" t="s">
+    <row r="118" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A118" s="47"/>
+      <c r="B118" s="144" t="s">
+        <v>960</v>
+      </c>
+      <c r="C118" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="D118" s="46"/>
-      <c r="E118" s="46" t="s">
+      <c r="D118" s="47"/>
+      <c r="E118" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F118" s="46" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G118" s="46"/>
+      <c r="F118" s="43"/>
+      <c r="G118" s="47"/>
     </row>
     <row r="119" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A119" s="47"/>
-      <c r="B119" s="152" t="s">
-        <v>1001</v>
+      <c r="B119" s="144" t="s">
+        <v>968</v>
       </c>
       <c r="C119" s="47" t="s">
         <v>554</v>
@@ -65459,26 +65715,43 @@
       <c r="F119" s="43"/>
       <c r="G119" s="47"/>
     </row>
-    <row r="120" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A120" s="47"/>
-      <c r="B120" s="144" t="s">
+    <row r="120" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="46"/>
+      <c r="B120" s="154" t="s">
+        <v>985</v>
+      </c>
+      <c r="C120" s="46" t="s">
+        <v>554</v>
+      </c>
+      <c r="D120" s="46"/>
+      <c r="E120" s="46" t="s">
+        <v>479</v>
+      </c>
+      <c r="F120" s="46" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G120" s="46"/>
+    </row>
+    <row r="121" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A121" s="47"/>
+      <c r="B121" s="144" t="s">
         <v>1081</v>
       </c>
-      <c r="C120" s="47" t="s">
+      <c r="C121" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="D120" s="47"/>
-      <c r="E120" s="47" t="s">
+      <c r="D121" s="47"/>
+      <c r="E121" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F120" s="43"/>
-      <c r="G120" s="47"/>
+      <c r="F121" s="43"/>
+      <c r="G121" s="47"/>
     </row>
   </sheetData>
-  <sortState ref="A3:G120">
-    <sortCondition ref="A3:A120"/>
-    <sortCondition ref="C3:C120"/>
-    <sortCondition ref="B3:B120"/>
+  <sortState ref="A3:G121">
+    <sortCondition ref="A3:A121"/>
+    <sortCondition ref="C3:C121"/>
+    <sortCondition ref="B3:B121"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">' Step 2'!$A$2:$D$526</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">' Step 3'!$A$2:$C$344</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$121</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -392,7 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B90" authorId="1">
+    <comment ref="B91" authorId="1">
       <text>
         <r>
           <rPr>
@@ -491,7 +491,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4957" uniqueCount="1260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4966" uniqueCount="1265">
   <si>
     <t>ID</t>
   </si>
@@ -36936,6 +36936,66 @@
       </rPr>
       <t>Experiment 1</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6 (background: silence, continuous speech, random speech, instrumental music, random tones, white noise)</t>
+  </si>
+  <si>
+    <t>only the 2 speech conditions can be coded due to the insufficiently reported statistics</t>
+  </si>
+  <si>
+    <r>
+      <t>Martin, R. C., Wogalter, M. S., &amp; Forlano, J. G. (1988). Reading comprehension in the presence of unattended speech and music. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Journal of memory and language</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(4), 382-398., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment 2</t>
+    </r>
+  </si>
+  <si>
+    <t>only the instrumental music condition (vs silence) can be coded. Due to the crossed design, there were not other comparisons to silence</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 (instrumental: yes, no) x 3 (verbal factor: sung lyrics, spoken lyrics, no lyrics)</t>
   </si>
 </sst>
 </file>
@@ -37400,7 +37460,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -37497,6 +37557,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -37548,7 +37614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -37998,6 +38064,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -63497,10 +63566,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64876,78 +64945,92 @@
         <v>479</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="47">
+    <row r="65" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="58">
         <v>63</v>
       </c>
-      <c r="B65" s="152" t="s">
+      <c r="B65" s="161" t="s">
         <v>1259</v>
       </c>
       <c r="C65" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47" t="s">
+      <c r="D65" s="61" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E65" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F65" s="61" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G65" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F65" s="43"/>
-      <c r="G65" s="47"/>
-    </row>
-    <row r="66" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="47">
+    </row>
+    <row r="66" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="58">
         <v>64</v>
       </c>
       <c r="B66" s="152" t="s">
-        <v>1253</v>
+        <v>1262</v>
       </c>
       <c r="C66" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47" t="s">
+      <c r="D66" s="61" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E66" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F66" s="61" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G66" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F66" s="43"/>
-      <c r="G66" s="47"/>
-    </row>
-    <row r="67" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="47">
         <v>65</v>
       </c>
-      <c r="B67" s="159" t="s">
-        <v>781</v>
+      <c r="B67" s="152" t="s">
+        <v>1253</v>
       </c>
       <c r="C67" s="47" t="s">
-        <v>798</v>
+        <v>554</v>
       </c>
       <c r="D67" s="47"/>
       <c r="E67" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F67" s="61" t="s">
-        <v>1232</v>
-      </c>
+      <c r="F67" s="43"/>
       <c r="G67" s="47"/>
     </row>
-    <row r="68" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="47"/>
-      <c r="B68" s="152" t="s">
-        <v>904</v>
+    <row r="68" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="47">
+        <v>66</v>
+      </c>
+      <c r="B68" s="159" t="s">
+        <v>781</v>
       </c>
       <c r="C68" s="47" t="s">
-        <v>320</v>
+        <v>798</v>
       </c>
       <c r="D68" s="47"/>
       <c r="E68" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F68" s="43"/>
+      <c r="F68" s="61" t="s">
+        <v>1232</v>
+      </c>
       <c r="G68" s="47"/>
     </row>
-    <row r="69" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="47"/>
-      <c r="B69" s="145" t="s">
-        <v>923</v>
+      <c r="B69" s="152" t="s">
+        <v>904</v>
       </c>
       <c r="C69" s="47" t="s">
         <v>320</v>
@@ -64959,10 +65042,10 @@
       <c r="F69" s="43"/>
       <c r="G69" s="47"/>
     </row>
-    <row r="70" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="47"/>
       <c r="B70" s="145" t="s">
-        <v>945</v>
+        <v>923</v>
       </c>
       <c r="C70" s="47" t="s">
         <v>320</v>
@@ -64971,15 +65054,13 @@
       <c r="E70" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F70" s="61" t="s">
-        <v>1155</v>
-      </c>
+      <c r="F70" s="43"/>
       <c r="G70" s="47"/>
     </row>
-    <row r="71" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="47"/>
-      <c r="B71" s="152" t="s">
-        <v>1011</v>
+      <c r="B71" s="145" t="s">
+        <v>945</v>
       </c>
       <c r="C71" s="47" t="s">
         <v>320</v>
@@ -64988,13 +65069,15 @@
       <c r="E71" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F71" s="43"/>
+      <c r="F71" s="61" t="s">
+        <v>1155</v>
+      </c>
       <c r="G71" s="47"/>
     </row>
-    <row r="72" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A72" s="47"/>
-      <c r="B72" s="145" t="s">
-        <v>1029</v>
+      <c r="B72" s="152" t="s">
+        <v>1011</v>
       </c>
       <c r="C72" s="47" t="s">
         <v>320</v>
@@ -65006,10 +65089,10 @@
       <c r="F72" s="43"/>
       <c r="G72" s="47"/>
     </row>
-    <row r="73" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="47"/>
       <c r="B73" s="145" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C73" s="47" t="s">
         <v>320</v>
@@ -65021,13 +65104,13 @@
       <c r="F73" s="43"/>
       <c r="G73" s="47"/>
     </row>
-    <row r="74" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="47"/>
-      <c r="B74" s="152" t="s">
-        <v>866</v>
+      <c r="B74" s="145" t="s">
+        <v>1030</v>
       </c>
       <c r="C74" s="47" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D74" s="47"/>
       <c r="E74" s="47" t="s">
@@ -65036,10 +65119,10 @@
       <c r="F74" s="43"/>
       <c r="G74" s="47"/>
     </row>
-    <row r="75" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="47"/>
-      <c r="B75" s="144" t="s">
-        <v>895</v>
+      <c r="B75" s="152" t="s">
+        <v>866</v>
       </c>
       <c r="C75" s="47" t="s">
         <v>282</v>
@@ -65051,10 +65134,10 @@
       <c r="F75" s="43"/>
       <c r="G75" s="47"/>
     </row>
-    <row r="76" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="47"/>
-      <c r="B76" s="152" t="s">
-        <v>900</v>
+      <c r="B76" s="144" t="s">
+        <v>895</v>
       </c>
       <c r="C76" s="47" t="s">
         <v>282</v>
@@ -65066,10 +65149,10 @@
       <c r="F76" s="43"/>
       <c r="G76" s="47"/>
     </row>
-    <row r="77" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="47"/>
-      <c r="B77" s="144" t="s">
-        <v>901</v>
+      <c r="B77" s="152" t="s">
+        <v>900</v>
       </c>
       <c r="C77" s="47" t="s">
         <v>282</v>
@@ -65081,10 +65164,10 @@
       <c r="F77" s="43"/>
       <c r="G77" s="47"/>
     </row>
-    <row r="78" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="47"/>
-      <c r="B78" s="146" t="s">
-        <v>90</v>
+      <c r="B78" s="144" t="s">
+        <v>901</v>
       </c>
       <c r="C78" s="47" t="s">
         <v>282</v>
@@ -65096,40 +65179,40 @@
       <c r="F78" s="43"/>
       <c r="G78" s="47"/>
     </row>
-    <row r="79" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="121"/>
-      <c r="B79" s="142" t="s">
+    <row r="79" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="47"/>
+      <c r="B79" s="146" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D79" s="47"/>
+      <c r="E79" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F79" s="43"/>
+      <c r="G79" s="47"/>
+    </row>
+    <row r="80" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="121"/>
+      <c r="B80" s="142" t="s">
         <v>55</v>
       </c>
-      <c r="C79" s="121" t="s">
-        <v>282</v>
-      </c>
-      <c r="D79" s="121"/>
-      <c r="E79" s="121"/>
-      <c r="F79" s="122" t="s">
+      <c r="C80" s="121" t="s">
+        <v>282</v>
+      </c>
+      <c r="D80" s="121"/>
+      <c r="E80" s="121"/>
+      <c r="F80" s="122" t="s">
         <v>835</v>
       </c>
-      <c r="G79" s="153"/>
-    </row>
-    <row r="80" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="47"/>
-      <c r="B80" s="144" t="s">
+      <c r="G80" s="153"/>
+    </row>
+    <row r="81" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="47"/>
+      <c r="B81" s="144" t="s">
         <v>762</v>
-      </c>
-      <c r="C80" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D80" s="47"/>
-      <c r="E80" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F80" s="43"/>
-      <c r="G80" s="47"/>
-    </row>
-    <row r="81" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="47"/>
-      <c r="B81" s="51" t="s">
-        <v>82</v>
       </c>
       <c r="C81" s="47" t="s">
         <v>282</v>
@@ -65141,10 +65224,10 @@
       <c r="F81" s="43"/>
       <c r="G81" s="47"/>
     </row>
-    <row r="82" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="47"/>
-      <c r="B82" s="145" t="s">
-        <v>81</v>
+      <c r="B82" s="51" t="s">
+        <v>82</v>
       </c>
       <c r="C82" s="47" t="s">
         <v>282</v>
@@ -65156,10 +65239,10 @@
       <c r="F82" s="43"/>
       <c r="G82" s="47"/>
     </row>
-    <row r="83" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="47"/>
-      <c r="B83" s="158" t="s">
-        <v>929</v>
+      <c r="B83" s="145" t="s">
+        <v>81</v>
       </c>
       <c r="C83" s="47" t="s">
         <v>282</v>
@@ -65171,10 +65254,10 @@
       <c r="F83" s="43"/>
       <c r="G83" s="47"/>
     </row>
-    <row r="84" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="47"/>
-      <c r="B84" s="152" t="s">
-        <v>933</v>
+      <c r="B84" s="158" t="s">
+        <v>929</v>
       </c>
       <c r="C84" s="47" t="s">
         <v>282</v>
@@ -65186,10 +65269,10 @@
       <c r="F84" s="43"/>
       <c r="G84" s="47"/>
     </row>
-    <row r="85" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="47"/>
-      <c r="B85" s="51" t="s">
-        <v>938</v>
+      <c r="B85" s="152" t="s">
+        <v>933</v>
       </c>
       <c r="C85" s="47" t="s">
         <v>282</v>
@@ -65201,10 +65284,10 @@
       <c r="F85" s="43"/>
       <c r="G85" s="47"/>
     </row>
-    <row r="86" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="47"/>
-      <c r="B86" s="152" t="s">
-        <v>939</v>
+      <c r="B86" s="51" t="s">
+        <v>938</v>
       </c>
       <c r="C86" s="47" t="s">
         <v>282</v>
@@ -65218,8 +65301,8 @@
     </row>
     <row r="87" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="47"/>
-      <c r="B87" s="51" t="s">
-        <v>940</v>
+      <c r="B87" s="152" t="s">
+        <v>939</v>
       </c>
       <c r="C87" s="47" t="s">
         <v>282</v>
@@ -65231,10 +65314,10 @@
       <c r="F87" s="43"/>
       <c r="G87" s="47"/>
     </row>
-    <row r="88" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="47"/>
       <c r="B88" s="51" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C88" s="47" t="s">
         <v>282</v>
@@ -65246,10 +65329,10 @@
       <c r="F88" s="43"/>
       <c r="G88" s="47"/>
     </row>
-    <row r="89" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A89" s="47"/>
-      <c r="B89" s="152" t="s">
-        <v>942</v>
+      <c r="B89" s="51" t="s">
+        <v>941</v>
       </c>
       <c r="C89" s="47" t="s">
         <v>282</v>
@@ -65261,10 +65344,10 @@
       <c r="F89" s="43"/>
       <c r="G89" s="47"/>
     </row>
-    <row r="90" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="47"/>
-      <c r="B90" s="145" t="s">
-        <v>737</v>
+      <c r="B90" s="152" t="s">
+        <v>942</v>
       </c>
       <c r="C90" s="47" t="s">
         <v>282</v>
@@ -65276,10 +65359,10 @@
       <c r="F90" s="43"/>
       <c r="G90" s="47"/>
     </row>
-    <row r="91" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="47"/>
-      <c r="B91" s="152" t="s">
-        <v>957</v>
+      <c r="B91" s="145" t="s">
+        <v>737</v>
       </c>
       <c r="C91" s="47" t="s">
         <v>282</v>
@@ -65291,10 +65374,10 @@
       <c r="F91" s="43"/>
       <c r="G91" s="47"/>
     </row>
-    <row r="92" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="47"/>
-      <c r="B92" s="145" t="s">
-        <v>958</v>
+      <c r="B92" s="152" t="s">
+        <v>957</v>
       </c>
       <c r="C92" s="47" t="s">
         <v>282</v>
@@ -65306,10 +65389,10 @@
       <c r="F92" s="43"/>
       <c r="G92" s="47"/>
     </row>
-    <row r="93" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="47"/>
-      <c r="B93" s="152" t="s">
-        <v>964</v>
+      <c r="B93" s="145" t="s">
+        <v>958</v>
       </c>
       <c r="C93" s="47" t="s">
         <v>282</v>
@@ -65321,10 +65404,10 @@
       <c r="F93" s="43"/>
       <c r="G93" s="47"/>
     </row>
-    <row r="94" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="47"/>
       <c r="B94" s="152" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="C94" s="47" t="s">
         <v>282</v>
@@ -65336,10 +65419,10 @@
       <c r="F94" s="43"/>
       <c r="G94" s="47"/>
     </row>
-    <row r="95" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="47"/>
-      <c r="B95" s="51" t="s">
-        <v>139</v>
+      <c r="B95" s="152" t="s">
+        <v>991</v>
       </c>
       <c r="C95" s="47" t="s">
         <v>282</v>
@@ -65351,10 +65434,10 @@
       <c r="F95" s="43"/>
       <c r="G95" s="47"/>
     </row>
-    <row r="96" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="47"/>
       <c r="B96" s="51" t="s">
-        <v>1002</v>
+        <v>139</v>
       </c>
       <c r="C96" s="47" t="s">
         <v>282</v>
@@ -65366,10 +65449,10 @@
       <c r="F96" s="43"/>
       <c r="G96" s="47"/>
     </row>
-    <row r="97" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="47"/>
       <c r="B97" s="51" t="s">
-        <v>88</v>
+        <v>1002</v>
       </c>
       <c r="C97" s="47" t="s">
         <v>282</v>
@@ -65381,10 +65464,10 @@
       <c r="F97" s="43"/>
       <c r="G97" s="47"/>
     </row>
-    <row r="98" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A98" s="47"/>
-      <c r="B98" s="148" t="s">
-        <v>1021</v>
+      <c r="B98" s="51" t="s">
+        <v>88</v>
       </c>
       <c r="C98" s="47" t="s">
         <v>282</v>
@@ -65396,10 +65479,10 @@
       <c r="F98" s="43"/>
       <c r="G98" s="47"/>
     </row>
-    <row r="99" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
-      <c r="B99" s="145" t="s">
-        <v>58</v>
+      <c r="B99" s="148" t="s">
+        <v>1021</v>
       </c>
       <c r="C99" s="47" t="s">
         <v>282</v>
@@ -65411,10 +65494,10 @@
       <c r="F99" s="43"/>
       <c r="G99" s="47"/>
     </row>
-    <row r="100" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="47"/>
-      <c r="B100" s="144" t="s">
-        <v>1053</v>
+      <c r="B100" s="145" t="s">
+        <v>58</v>
       </c>
       <c r="C100" s="47" t="s">
         <v>282</v>
@@ -65426,10 +65509,10 @@
       <c r="F100" s="43"/>
       <c r="G100" s="47"/>
     </row>
-    <row r="101" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="47"/>
-      <c r="B101" s="145" t="s">
-        <v>69</v>
+      <c r="B101" s="144" t="s">
+        <v>1053</v>
       </c>
       <c r="C101" s="47" t="s">
         <v>282</v>
@@ -65441,10 +65524,10 @@
       <c r="F101" s="43"/>
       <c r="G101" s="47"/>
     </row>
-    <row r="102" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="47"/>
-      <c r="B102" s="51" t="s">
-        <v>1054</v>
+      <c r="B102" s="145" t="s">
+        <v>69</v>
       </c>
       <c r="C102" s="47" t="s">
         <v>282</v>
@@ -65456,10 +65539,10 @@
       <c r="F102" s="43"/>
       <c r="G102" s="47"/>
     </row>
-    <row r="103" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="47"/>
-      <c r="B103" s="148" t="s">
-        <v>1066</v>
+      <c r="B103" s="51" t="s">
+        <v>1054</v>
       </c>
       <c r="C103" s="47" t="s">
         <v>282</v>
@@ -65471,10 +65554,10 @@
       <c r="F103" s="43"/>
       <c r="G103" s="47"/>
     </row>
-    <row r="104" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A104" s="47"/>
-      <c r="B104" s="152" t="s">
-        <v>188</v>
+      <c r="B104" s="148" t="s">
+        <v>1066</v>
       </c>
       <c r="C104" s="47" t="s">
         <v>282</v>
@@ -65483,15 +65566,13 @@
       <c r="E104" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F104" s="47" t="s">
-        <v>848</v>
-      </c>
+      <c r="F104" s="43"/>
       <c r="G104" s="47"/>
     </row>
-    <row r="105" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="47"/>
-      <c r="B105" s="145" t="s">
-        <v>80</v>
+      <c r="B105" s="152" t="s">
+        <v>188</v>
       </c>
       <c r="C105" s="47" t="s">
         <v>282</v>
@@ -65500,13 +65581,15 @@
       <c r="E105" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F105" s="43"/>
+      <c r="F105" s="47" t="s">
+        <v>848</v>
+      </c>
       <c r="G105" s="47"/>
     </row>
-    <row r="106" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="47"/>
-      <c r="B106" s="151" t="s">
-        <v>1218</v>
+      <c r="B106" s="145" t="s">
+        <v>80</v>
       </c>
       <c r="C106" s="47" t="s">
         <v>282</v>
@@ -65518,13 +65601,13 @@
       <c r="F106" s="43"/>
       <c r="G106" s="47"/>
     </row>
-    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="47"/>
-      <c r="B107" s="145" t="s">
-        <v>794</v>
+      <c r="B107" s="151" t="s">
+        <v>1218</v>
       </c>
       <c r="C107" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D107" s="47"/>
       <c r="E107" s="47" t="s">
@@ -65533,10 +65616,10 @@
       <c r="F107" s="43"/>
       <c r="G107" s="47"/>
     </row>
-    <row r="108" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="47"/>
-      <c r="B108" s="152" t="s">
-        <v>769</v>
+      <c r="B108" s="145" t="s">
+        <v>794</v>
       </c>
       <c r="C108" s="47" t="s">
         <v>798</v>
@@ -65548,10 +65631,10 @@
       <c r="F108" s="43"/>
       <c r="G108" s="47"/>
     </row>
-    <row r="109" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A109" s="47"/>
-      <c r="B109" s="143" t="s">
-        <v>775</v>
+      <c r="B109" s="152" t="s">
+        <v>769</v>
       </c>
       <c r="C109" s="47" t="s">
         <v>798</v>
@@ -65563,10 +65646,10 @@
       <c r="F109" s="43"/>
       <c r="G109" s="47"/>
     </row>
-    <row r="110" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="47"/>
-      <c r="B110" s="145" t="s">
-        <v>783</v>
+      <c r="B110" s="143" t="s">
+        <v>775</v>
       </c>
       <c r="C110" s="47" t="s">
         <v>798</v>
@@ -65578,10 +65661,10 @@
       <c r="F110" s="43"/>
       <c r="G110" s="47"/>
     </row>
-    <row r="111" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A111" s="47"/>
-      <c r="B111" s="144" t="s">
-        <v>768</v>
+      <c r="B111" s="145" t="s">
+        <v>783</v>
       </c>
       <c r="C111" s="47" t="s">
         <v>798</v>
@@ -65590,30 +65673,30 @@
       <c r="E111" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F111" s="43" t="s">
-        <v>846</v>
-      </c>
+      <c r="F111" s="43"/>
       <c r="G111" s="47"/>
     </row>
-    <row r="112" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="47"/>
       <c r="B112" s="144" t="s">
-        <v>865</v>
+        <v>768</v>
       </c>
       <c r="C112" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D112" s="47"/>
       <c r="E112" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F112" s="43"/>
+      <c r="F112" s="43" t="s">
+        <v>846</v>
+      </c>
       <c r="G112" s="47"/>
     </row>
-    <row r="113" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="47"/>
-      <c r="B113" s="152" t="s">
-        <v>935</v>
+      <c r="B113" s="144" t="s">
+        <v>865</v>
       </c>
       <c r="C113" s="47" t="s">
         <v>554</v>
@@ -65625,10 +65708,10 @@
       <c r="F113" s="43"/>
       <c r="G113" s="47"/>
     </row>
-    <row r="114" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A114" s="47"/>
       <c r="B114" s="152" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C114" s="47" t="s">
         <v>554</v>
@@ -65640,10 +65723,10 @@
       <c r="F114" s="43"/>
       <c r="G114" s="47"/>
     </row>
-    <row r="115" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="47"/>
-      <c r="B115" s="144" t="s">
-        <v>937</v>
+      <c r="B115" s="152" t="s">
+        <v>936</v>
       </c>
       <c r="C115" s="47" t="s">
         <v>554</v>
@@ -65655,10 +65738,10 @@
       <c r="F115" s="43"/>
       <c r="G115" s="47"/>
     </row>
-    <row r="116" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="47"/>
       <c r="B116" s="144" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="C116" s="47" t="s">
         <v>554</v>
@@ -65670,10 +65753,10 @@
       <c r="F116" s="43"/>
       <c r="G116" s="47"/>
     </row>
-    <row r="117" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A117" s="47"/>
       <c r="B117" s="144" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C117" s="47" t="s">
         <v>554</v>
@@ -65685,10 +65768,10 @@
       <c r="F117" s="43"/>
       <c r="G117" s="47"/>
     </row>
-    <row r="118" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="47"/>
       <c r="B118" s="144" t="s">
-        <v>960</v>
+        <v>944</v>
       </c>
       <c r="C118" s="47" t="s">
         <v>554</v>
@@ -65703,7 +65786,7 @@
     <row r="119" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A119" s="47"/>
       <c r="B119" s="144" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C119" s="47" t="s">
         <v>554</v>
@@ -65715,37 +65798,52 @@
       <c r="F119" s="43"/>
       <c r="G119" s="47"/>
     </row>
-    <row r="120" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="46"/>
-      <c r="B120" s="154" t="s">
+    <row r="120" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A120" s="47"/>
+      <c r="B120" s="144" t="s">
+        <v>968</v>
+      </c>
+      <c r="C120" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D120" s="47"/>
+      <c r="E120" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F120" s="43"/>
+      <c r="G120" s="47"/>
+    </row>
+    <row r="121" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="46"/>
+      <c r="B121" s="154" t="s">
         <v>985</v>
       </c>
-      <c r="C120" s="46" t="s">
+      <c r="C121" s="46" t="s">
         <v>554</v>
       </c>
-      <c r="D120" s="46"/>
-      <c r="E120" s="46" t="s">
+      <c r="D121" s="46"/>
+      <c r="E121" s="46" t="s">
         <v>479</v>
       </c>
-      <c r="F120" s="46" t="s">
+      <c r="F121" s="46" t="s">
         <v>1148</v>
       </c>
-      <c r="G120" s="46"/>
-    </row>
-    <row r="121" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A121" s="47"/>
-      <c r="B121" s="144" t="s">
+      <c r="G121" s="46"/>
+    </row>
+    <row r="122" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A122" s="47"/>
+      <c r="B122" s="144" t="s">
         <v>1081</v>
       </c>
-      <c r="C121" s="47" t="s">
+      <c r="C122" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="D121" s="47"/>
-      <c r="E121" s="47" t="s">
+      <c r="D122" s="47"/>
+      <c r="E122" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F121" s="43"/>
-      <c r="G121" s="47"/>
+      <c r="F122" s="43"/>
+      <c r="G122" s="47"/>
     </row>
   </sheetData>
   <sortState ref="A3:G121">

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">' Step 2'!$A$2:$D$526</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">' Step 3'!$A$2:$C$344</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$123</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -392,7 +392,105 @@
         </r>
       </text>
     </comment>
-    <comment ref="B91" authorId="1">
+    <comment ref="B67" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Experiment 3 is not relevant to the review
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B68" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Experiment 3 is not relevant to the review
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D69" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+some analyses were also blocked by personality characteristics</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G69" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Although the study supposedly had a silence condition, no descriptive statistics or effect sizes are reported that would make it possible to calculate effect sizes. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B93" authorId="1">
       <text>
         <r>
           <rPr>
@@ -491,7 +589,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4966" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4980" uniqueCount="1271">
   <si>
     <t>ID</t>
   </si>
@@ -36996,6 +37094,114 @@
   </si>
   <si>
     <t xml:space="preserve"> 2 (instrumental: yes, no) x 3 (verbal factor: sung lyrics, spoken lyrics, no lyrics)</t>
+  </si>
+  <si>
+    <r>
+      <t>Martin, R. C., Wogalter, M. S., &amp; Forlano, J. G. (1988). Reading comprehension in the presence of unattended speech and music. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Journal of memory and language</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(4), 382-398., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment 4</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 (background: silence, English speech, Russian speech, white noise)</t>
+  </si>
+  <si>
+    <t>effect sizes were extracted from the t staistics</t>
+  </si>
+  <si>
+    <r>
+      <t>Martin, R. C., Wogalter, M. S., &amp; Forlano, J. G. (1988). Reading comprehension in the presence of unattended speech and music. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Journal of memory and language</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(4), 382-398., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment 5</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 (background: silence, random-word speech, random non-word speech, white noise)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 (background: silence (?), negatively-affective, possitively-affective, ambiguously affective music)</t>
   </si>
 </sst>
 </file>
@@ -37614,7 +37820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -38061,10 +38267,13 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -38412,7 +38621,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -50198,14 +50407,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="160"/>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
+      <c r="A1" s="161"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -63566,10 +63775,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64949,7 +65158,7 @@
       <c r="A65" s="58">
         <v>63</v>
       </c>
-      <c r="B65" s="161" t="s">
+      <c r="B65" s="160" t="s">
         <v>1259</v>
       </c>
       <c r="C65" s="47" t="s">
@@ -64991,64 +65200,82 @@
         <v>479</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="47">
+    <row r="67" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="58">
         <v>65</v>
       </c>
       <c r="B67" s="152" t="s">
-        <v>1253</v>
+        <v>1265</v>
       </c>
       <c r="C67" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47" t="s">
+      <c r="D67" s="61" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E67" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F67" s="61" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G67" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F67" s="43"/>
-      <c r="G67" s="47"/>
-    </row>
-    <row r="68" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="47">
+    </row>
+    <row r="68" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="58">
         <v>66</v>
       </c>
-      <c r="B68" s="159" t="s">
-        <v>781</v>
+      <c r="B68" s="152" t="s">
+        <v>1268</v>
       </c>
       <c r="C68" s="47" t="s">
-        <v>798</v>
-      </c>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D68" s="61" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E68" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F68" s="61" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G68" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F68" s="61" t="s">
-        <v>1232</v>
-      </c>
-      <c r="G68" s="47"/>
-    </row>
-    <row r="69" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="47"/>
-      <c r="B69" s="152" t="s">
-        <v>904</v>
+    </row>
+    <row r="69" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="58">
+        <v>67</v>
+      </c>
+      <c r="B69" s="162" t="s">
+        <v>923</v>
       </c>
       <c r="C69" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47" t="s">
-        <v>479</v>
+      <c r="D69" s="61" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E69" s="46" t="s">
+        <v>1134</v>
       </c>
       <c r="F69" s="43"/>
-      <c r="G69" s="47"/>
-    </row>
-    <row r="70" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="47"/>
-      <c r="B70" s="145" t="s">
-        <v>923</v>
+      <c r="G69" s="47" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="47">
+        <v>68</v>
+      </c>
+      <c r="B70" s="152" t="s">
+        <v>1253</v>
       </c>
       <c r="C70" s="47" t="s">
-        <v>320</v>
+        <v>554</v>
       </c>
       <c r="D70" s="47"/>
       <c r="E70" s="47" t="s">
@@ -65058,26 +65285,28 @@
       <c r="G70" s="47"/>
     </row>
     <row r="71" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="47"/>
-      <c r="B71" s="145" t="s">
-        <v>945</v>
+      <c r="A71" s="47">
+        <v>69</v>
+      </c>
+      <c r="B71" s="159" t="s">
+        <v>781</v>
       </c>
       <c r="C71" s="47" t="s">
-        <v>320</v>
+        <v>798</v>
       </c>
       <c r="D71" s="47"/>
       <c r="E71" s="47" t="s">
         <v>479</v>
       </c>
       <c r="F71" s="61" t="s">
-        <v>1155</v>
+        <v>1232</v>
       </c>
       <c r="G71" s="47"/>
     </row>
-    <row r="72" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="47"/>
       <c r="B72" s="152" t="s">
-        <v>1011</v>
+        <v>904</v>
       </c>
       <c r="C72" s="47" t="s">
         <v>320</v>
@@ -65092,7 +65321,7 @@
     <row r="73" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="47"/>
       <c r="B73" s="145" t="s">
-        <v>1029</v>
+        <v>945</v>
       </c>
       <c r="C73" s="47" t="s">
         <v>320</v>
@@ -65101,13 +65330,15 @@
       <c r="E73" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F73" s="43"/>
+      <c r="F73" s="61" t="s">
+        <v>1155</v>
+      </c>
       <c r="G73" s="47"/>
     </row>
-    <row r="74" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="47"/>
-      <c r="B74" s="145" t="s">
-        <v>1030</v>
+      <c r="B74" s="152" t="s">
+        <v>1011</v>
       </c>
       <c r="C74" s="47" t="s">
         <v>320</v>
@@ -65119,13 +65350,13 @@
       <c r="F74" s="43"/>
       <c r="G74" s="47"/>
     </row>
-    <row r="75" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="47"/>
-      <c r="B75" s="152" t="s">
-        <v>866</v>
+      <c r="B75" s="145" t="s">
+        <v>1029</v>
       </c>
       <c r="C75" s="47" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D75" s="47"/>
       <c r="E75" s="47" t="s">
@@ -65134,13 +65365,13 @@
       <c r="F75" s="43"/>
       <c r="G75" s="47"/>
     </row>
-    <row r="76" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="47"/>
-      <c r="B76" s="144" t="s">
-        <v>895</v>
+      <c r="B76" s="145" t="s">
+        <v>1030</v>
       </c>
       <c r="C76" s="47" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D76" s="47"/>
       <c r="E76" s="47" t="s">
@@ -65152,7 +65383,7 @@
     <row r="77" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="47"/>
       <c r="B77" s="152" t="s">
-        <v>900</v>
+        <v>866</v>
       </c>
       <c r="C77" s="47" t="s">
         <v>282</v>
@@ -65167,7 +65398,7 @@
     <row r="78" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="47"/>
       <c r="B78" s="144" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="C78" s="47" t="s">
         <v>282</v>
@@ -65179,10 +65410,10 @@
       <c r="F78" s="43"/>
       <c r="G78" s="47"/>
     </row>
-    <row r="79" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="47"/>
-      <c r="B79" s="146" t="s">
-        <v>90</v>
+      <c r="B79" s="152" t="s">
+        <v>900</v>
       </c>
       <c r="C79" s="47" t="s">
         <v>282</v>
@@ -65194,25 +65425,25 @@
       <c r="F79" s="43"/>
       <c r="G79" s="47"/>
     </row>
-    <row r="80" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="121"/>
-      <c r="B80" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="C80" s="121" t="s">
-        <v>282</v>
-      </c>
-      <c r="D80" s="121"/>
-      <c r="E80" s="121"/>
-      <c r="F80" s="122" t="s">
-        <v>835</v>
-      </c>
-      <c r="G80" s="153"/>
-    </row>
-    <row r="81" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="47"/>
+      <c r="B80" s="144" t="s">
+        <v>901</v>
+      </c>
+      <c r="C80" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D80" s="47"/>
+      <c r="E80" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F80" s="43"/>
+      <c r="G80" s="47"/>
+    </row>
+    <row r="81" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="47"/>
-      <c r="B81" s="144" t="s">
-        <v>762</v>
+      <c r="B81" s="146" t="s">
+        <v>90</v>
       </c>
       <c r="C81" s="47" t="s">
         <v>282</v>
@@ -65224,25 +65455,25 @@
       <c r="F81" s="43"/>
       <c r="G81" s="47"/>
     </row>
-    <row r="82" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="47"/>
-      <c r="B82" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D82" s="47"/>
-      <c r="E82" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F82" s="43"/>
-      <c r="G82" s="47"/>
-    </row>
-    <row r="83" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="121"/>
+      <c r="B82" s="142" t="s">
+        <v>55</v>
+      </c>
+      <c r="C82" s="121" t="s">
+        <v>282</v>
+      </c>
+      <c r="D82" s="121"/>
+      <c r="E82" s="121"/>
+      <c r="F82" s="122" t="s">
+        <v>835</v>
+      </c>
+      <c r="G82" s="153"/>
+    </row>
+    <row r="83" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="47"/>
-      <c r="B83" s="145" t="s">
-        <v>81</v>
+      <c r="B83" s="144" t="s">
+        <v>762</v>
       </c>
       <c r="C83" s="47" t="s">
         <v>282</v>
@@ -65254,10 +65485,10 @@
       <c r="F83" s="43"/>
       <c r="G83" s="47"/>
     </row>
-    <row r="84" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="47"/>
-      <c r="B84" s="158" t="s">
-        <v>929</v>
+      <c r="B84" s="51" t="s">
+        <v>82</v>
       </c>
       <c r="C84" s="47" t="s">
         <v>282</v>
@@ -65269,10 +65500,10 @@
       <c r="F84" s="43"/>
       <c r="G84" s="47"/>
     </row>
-    <row r="85" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="47"/>
-      <c r="B85" s="152" t="s">
-        <v>933</v>
+      <c r="B85" s="145" t="s">
+        <v>81</v>
       </c>
       <c r="C85" s="47" t="s">
         <v>282</v>
@@ -65284,10 +65515,10 @@
       <c r="F85" s="43"/>
       <c r="G85" s="47"/>
     </row>
-    <row r="86" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="47"/>
-      <c r="B86" s="51" t="s">
-        <v>938</v>
+      <c r="B86" s="158" t="s">
+        <v>929</v>
       </c>
       <c r="C86" s="47" t="s">
         <v>282</v>
@@ -65299,10 +65530,10 @@
       <c r="F86" s="43"/>
       <c r="G86" s="47"/>
     </row>
-    <row r="87" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="47"/>
       <c r="B87" s="152" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="C87" s="47" t="s">
         <v>282</v>
@@ -65314,10 +65545,10 @@
       <c r="F87" s="43"/>
       <c r="G87" s="47"/>
     </row>
-    <row r="88" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="47"/>
       <c r="B88" s="51" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C88" s="47" t="s">
         <v>282</v>
@@ -65329,10 +65560,10 @@
       <c r="F88" s="43"/>
       <c r="G88" s="47"/>
     </row>
-    <row r="89" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="47"/>
-      <c r="B89" s="51" t="s">
-        <v>941</v>
+      <c r="B89" s="152" t="s">
+        <v>939</v>
       </c>
       <c r="C89" s="47" t="s">
         <v>282</v>
@@ -65344,10 +65575,10 @@
       <c r="F89" s="43"/>
       <c r="G89" s="47"/>
     </row>
-    <row r="90" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="47"/>
-      <c r="B90" s="152" t="s">
-        <v>942</v>
+      <c r="B90" s="51" t="s">
+        <v>940</v>
       </c>
       <c r="C90" s="47" t="s">
         <v>282</v>
@@ -65359,10 +65590,10 @@
       <c r="F90" s="43"/>
       <c r="G90" s="47"/>
     </row>
-    <row r="91" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A91" s="47"/>
-      <c r="B91" s="145" t="s">
-        <v>737</v>
+      <c r="B91" s="51" t="s">
+        <v>941</v>
       </c>
       <c r="C91" s="47" t="s">
         <v>282</v>
@@ -65377,7 +65608,7 @@
     <row r="92" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="47"/>
       <c r="B92" s="152" t="s">
-        <v>957</v>
+        <v>942</v>
       </c>
       <c r="C92" s="47" t="s">
         <v>282</v>
@@ -65389,10 +65620,10 @@
       <c r="F92" s="43"/>
       <c r="G92" s="47"/>
     </row>
-    <row r="93" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="47"/>
       <c r="B93" s="145" t="s">
-        <v>958</v>
+        <v>737</v>
       </c>
       <c r="C93" s="47" t="s">
         <v>282</v>
@@ -65404,10 +65635,10 @@
       <c r="F93" s="43"/>
       <c r="G93" s="47"/>
     </row>
-    <row r="94" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="47"/>
       <c r="B94" s="152" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C94" s="47" t="s">
         <v>282</v>
@@ -65419,10 +65650,10 @@
       <c r="F94" s="43"/>
       <c r="G94" s="47"/>
     </row>
-    <row r="95" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="47"/>
-      <c r="B95" s="152" t="s">
-        <v>991</v>
+      <c r="B95" s="145" t="s">
+        <v>958</v>
       </c>
       <c r="C95" s="47" t="s">
         <v>282</v>
@@ -65434,10 +65665,10 @@
       <c r="F95" s="43"/>
       <c r="G95" s="47"/>
     </row>
-    <row r="96" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="47"/>
-      <c r="B96" s="51" t="s">
-        <v>139</v>
+      <c r="B96" s="152" t="s">
+        <v>964</v>
       </c>
       <c r="C96" s="47" t="s">
         <v>282</v>
@@ -65449,10 +65680,10 @@
       <c r="F96" s="43"/>
       <c r="G96" s="47"/>
     </row>
-    <row r="97" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="47"/>
-      <c r="B97" s="51" t="s">
-        <v>1002</v>
+      <c r="B97" s="152" t="s">
+        <v>991</v>
       </c>
       <c r="C97" s="47" t="s">
         <v>282</v>
@@ -65464,10 +65695,10 @@
       <c r="F97" s="43"/>
       <c r="G97" s="47"/>
     </row>
-    <row r="98" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="47"/>
       <c r="B98" s="51" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="C98" s="47" t="s">
         <v>282</v>
@@ -65479,10 +65710,10 @@
       <c r="F98" s="43"/>
       <c r="G98" s="47"/>
     </row>
-    <row r="99" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
-      <c r="B99" s="148" t="s">
-        <v>1021</v>
+      <c r="B99" s="51" t="s">
+        <v>1002</v>
       </c>
       <c r="C99" s="47" t="s">
         <v>282</v>
@@ -65494,10 +65725,10 @@
       <c r="F99" s="43"/>
       <c r="G99" s="47"/>
     </row>
-    <row r="100" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A100" s="47"/>
-      <c r="B100" s="145" t="s">
-        <v>58</v>
+      <c r="B100" s="51" t="s">
+        <v>88</v>
       </c>
       <c r="C100" s="47" t="s">
         <v>282</v>
@@ -65509,10 +65740,10 @@
       <c r="F100" s="43"/>
       <c r="G100" s="47"/>
     </row>
-    <row r="101" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="47"/>
-      <c r="B101" s="144" t="s">
-        <v>1053</v>
+      <c r="B101" s="148" t="s">
+        <v>1021</v>
       </c>
       <c r="C101" s="47" t="s">
         <v>282</v>
@@ -65524,10 +65755,10 @@
       <c r="F101" s="43"/>
       <c r="G101" s="47"/>
     </row>
-    <row r="102" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="47"/>
       <c r="B102" s="145" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C102" s="47" t="s">
         <v>282</v>
@@ -65539,10 +65770,10 @@
       <c r="F102" s="43"/>
       <c r="G102" s="47"/>
     </row>
-    <row r="103" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="47"/>
-      <c r="B103" s="51" t="s">
-        <v>1054</v>
+      <c r="B103" s="144" t="s">
+        <v>1053</v>
       </c>
       <c r="C103" s="47" t="s">
         <v>282</v>
@@ -65554,10 +65785,10 @@
       <c r="F103" s="43"/>
       <c r="G103" s="47"/>
     </row>
-    <row r="104" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="47"/>
-      <c r="B104" s="148" t="s">
-        <v>1066</v>
+      <c r="B104" s="145" t="s">
+        <v>69</v>
       </c>
       <c r="C104" s="47" t="s">
         <v>282</v>
@@ -65569,10 +65800,10 @@
       <c r="F104" s="43"/>
       <c r="G104" s="47"/>
     </row>
-    <row r="105" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="47"/>
-      <c r="B105" s="152" t="s">
-        <v>188</v>
+      <c r="B105" s="51" t="s">
+        <v>1054</v>
       </c>
       <c r="C105" s="47" t="s">
         <v>282</v>
@@ -65581,15 +65812,13 @@
       <c r="E105" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F105" s="47" t="s">
-        <v>848</v>
-      </c>
+      <c r="F105" s="43"/>
       <c r="G105" s="47"/>
     </row>
-    <row r="106" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A106" s="47"/>
-      <c r="B106" s="145" t="s">
-        <v>80</v>
+      <c r="B106" s="148" t="s">
+        <v>1066</v>
       </c>
       <c r="C106" s="47" t="s">
         <v>282</v>
@@ -65601,10 +65830,10 @@
       <c r="F106" s="43"/>
       <c r="G106" s="47"/>
     </row>
-    <row r="107" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="47"/>
-      <c r="B107" s="151" t="s">
-        <v>1218</v>
+      <c r="B107" s="152" t="s">
+        <v>188</v>
       </c>
       <c r="C107" s="47" t="s">
         <v>282</v>
@@ -65613,16 +65842,18 @@
       <c r="E107" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F107" s="43"/>
+      <c r="F107" s="47" t="s">
+        <v>848</v>
+      </c>
       <c r="G107" s="47"/>
     </row>
-    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="47"/>
       <c r="B108" s="145" t="s">
-        <v>794</v>
+        <v>80</v>
       </c>
       <c r="C108" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D108" s="47"/>
       <c r="E108" s="47" t="s">
@@ -65631,13 +65862,13 @@
       <c r="F108" s="43"/>
       <c r="G108" s="47"/>
     </row>
-    <row r="109" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="47"/>
-      <c r="B109" s="152" t="s">
-        <v>769</v>
+      <c r="B109" s="151" t="s">
+        <v>1218</v>
       </c>
       <c r="C109" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D109" s="47"/>
       <c r="E109" s="47" t="s">
@@ -65646,10 +65877,10 @@
       <c r="F109" s="43"/>
       <c r="G109" s="47"/>
     </row>
-    <row r="110" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="47"/>
-      <c r="B110" s="143" t="s">
-        <v>775</v>
+      <c r="B110" s="145" t="s">
+        <v>794</v>
       </c>
       <c r="C110" s="47" t="s">
         <v>798</v>
@@ -65661,10 +65892,10 @@
       <c r="F110" s="43"/>
       <c r="G110" s="47"/>
     </row>
-    <row r="111" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A111" s="47"/>
-      <c r="B111" s="145" t="s">
-        <v>783</v>
+      <c r="B111" s="152" t="s">
+        <v>769</v>
       </c>
       <c r="C111" s="47" t="s">
         <v>798</v>
@@ -65676,10 +65907,10 @@
       <c r="F111" s="43"/>
       <c r="G111" s="47"/>
     </row>
-    <row r="112" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="47"/>
-      <c r="B112" s="144" t="s">
-        <v>768</v>
+      <c r="B112" s="143" t="s">
+        <v>775</v>
       </c>
       <c r="C112" s="47" t="s">
         <v>798</v>
@@ -65688,18 +65919,16 @@
       <c r="E112" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F112" s="43" t="s">
-        <v>846</v>
-      </c>
+      <c r="F112" s="43"/>
       <c r="G112" s="47"/>
     </row>
-    <row r="113" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="47"/>
-      <c r="B113" s="144" t="s">
-        <v>865</v>
+      <c r="B113" s="145" t="s">
+        <v>783</v>
       </c>
       <c r="C113" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D113" s="47"/>
       <c r="E113" s="47" t="s">
@@ -65708,25 +65937,27 @@
       <c r="F113" s="43"/>
       <c r="G113" s="47"/>
     </row>
-    <row r="114" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="47"/>
-      <c r="B114" s="152" t="s">
-        <v>935</v>
+      <c r="B114" s="144" t="s">
+        <v>768</v>
       </c>
       <c r="C114" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D114" s="47"/>
       <c r="E114" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F114" s="43"/>
+      <c r="F114" s="43" t="s">
+        <v>846</v>
+      </c>
       <c r="G114" s="47"/>
     </row>
-    <row r="115" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="47"/>
-      <c r="B115" s="152" t="s">
-        <v>936</v>
+      <c r="B115" s="144" t="s">
+        <v>865</v>
       </c>
       <c r="C115" s="47" t="s">
         <v>554</v>
@@ -65738,10 +65969,10 @@
       <c r="F115" s="43"/>
       <c r="G115" s="47"/>
     </row>
-    <row r="116" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A116" s="47"/>
-      <c r="B116" s="144" t="s">
-        <v>937</v>
+      <c r="B116" s="152" t="s">
+        <v>935</v>
       </c>
       <c r="C116" s="47" t="s">
         <v>554</v>
@@ -65753,10 +65984,10 @@
       <c r="F116" s="43"/>
       <c r="G116" s="47"/>
     </row>
-    <row r="117" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="47"/>
-      <c r="B117" s="144" t="s">
-        <v>943</v>
+      <c r="B117" s="152" t="s">
+        <v>936</v>
       </c>
       <c r="C117" s="47" t="s">
         <v>554</v>
@@ -65768,10 +65999,10 @@
       <c r="F117" s="43"/>
       <c r="G117" s="47"/>
     </row>
-    <row r="118" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="47"/>
       <c r="B118" s="144" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="C118" s="47" t="s">
         <v>554</v>
@@ -65786,7 +66017,7 @@
     <row r="119" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A119" s="47"/>
       <c r="B119" s="144" t="s">
-        <v>960</v>
+        <v>943</v>
       </c>
       <c r="C119" s="47" t="s">
         <v>554</v>
@@ -65798,10 +66029,10 @@
       <c r="F119" s="43"/>
       <c r="G119" s="47"/>
     </row>
-    <row r="120" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="47"/>
       <c r="B120" s="144" t="s">
-        <v>968</v>
+        <v>944</v>
       </c>
       <c r="C120" s="47" t="s">
         <v>554</v>
@@ -65813,27 +66044,25 @@
       <c r="F120" s="43"/>
       <c r="G120" s="47"/>
     </row>
-    <row r="121" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="46"/>
-      <c r="B121" s="154" t="s">
-        <v>985</v>
-      </c>
-      <c r="C121" s="46" t="s">
+    <row r="121" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A121" s="47"/>
+      <c r="B121" s="144" t="s">
+        <v>960</v>
+      </c>
+      <c r="C121" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="D121" s="46"/>
-      <c r="E121" s="46" t="s">
+      <c r="D121" s="47"/>
+      <c r="E121" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F121" s="46" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G121" s="46"/>
+      <c r="F121" s="43"/>
+      <c r="G121" s="47"/>
     </row>
     <row r="122" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A122" s="47"/>
       <c r="B122" s="144" t="s">
-        <v>1081</v>
+        <v>968</v>
       </c>
       <c r="C122" s="47" t="s">
         <v>554</v>
@@ -65845,11 +66074,43 @@
       <c r="F122" s="43"/>
       <c r="G122" s="47"/>
     </row>
+    <row r="123" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A123" s="46"/>
+      <c r="B123" s="154" t="s">
+        <v>985</v>
+      </c>
+      <c r="C123" s="46" t="s">
+        <v>554</v>
+      </c>
+      <c r="D123" s="46"/>
+      <c r="E123" s="46" t="s">
+        <v>479</v>
+      </c>
+      <c r="F123" s="46" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G123" s="46"/>
+    </row>
+    <row r="124" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A124" s="47"/>
+      <c r="B124" s="144" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C124" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D124" s="47"/>
+      <c r="E124" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F124" s="43"/>
+      <c r="G124" s="47"/>
+    </row>
   </sheetData>
-  <sortState ref="A3:G121">
-    <sortCondition ref="A3:A121"/>
-    <sortCondition ref="C3:C121"/>
-    <sortCondition ref="B3:B121"/>
+  <sortState ref="A3:G124">
+    <sortCondition ref="A3:A124"/>
+    <sortCondition ref="C3:C124"/>
+    <sortCondition ref="B3:B124"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">' Step 2'!$A$2:$D$526</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">' Step 3'!$A$2:$C$344</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$122</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -190,6 +190,30 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Orange colouring means that the study had data that is eligible for inclusion, but effect sizes cannot be calculated due to reporting bias</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F9" authorId="0">
       <text>
         <r>
@@ -490,7 +514,105 @@
         </r>
       </text>
     </comment>
-    <comment ref="B93" authorId="1">
+    <comment ref="G70" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+The descriptive statistics and ANOVAS are reported only for each personality group, but there is no way to get to the descriptives of every participant who took part in the study (n= 178). Basically, since each participants fell into more than one personality group, any averaging over the personality groups will produce big confounds because the score of each participant will be used multiple times to calculate the effect size. Also, the very big sample size that will result from this will not be the actual number of people who took part in the study. This will make the study have a much bigger influence in a meta-analysis because it will have a way bigger precision than it actually did. The only way out of this is to have the actual raw data. However, both authors seem to be out of academia (1st author appears to have been an (undergraduate?) student, while the second author seems to have retired). 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G71" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+study is too old to get the data
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D72" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+not fully-factorial design</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F73" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+One issue in this experiment is how to classify the sound conditions. One complication is that participants were free to change radio stations and TV channels. However, based on the description in the paper, it appears that the radio can be best classified as background music and TV as background speech.  </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B94" authorId="1">
       <text>
         <r>
           <rPr>
@@ -589,7 +711,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4980" uniqueCount="1271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4990" uniqueCount="1285">
   <si>
     <t>ID</t>
   </si>
@@ -36399,9 +36521,6 @@
     <t>age of participants is not mentioned, but I assume that they were adults given that they were undergraduates</t>
   </si>
   <si>
-    <t>music type unknown; SDs nor reported</t>
-  </si>
-  <si>
     <t>2(background: semi-classical music, silence)</t>
   </si>
   <si>
@@ -37202,6 +37321,141 @@
   </si>
   <si>
     <t xml:space="preserve"> 4 (background: silence (?), negatively-affective, possitively-affective, ambiguously affective music)</t>
+  </si>
+  <si>
+    <t>same sample &amp; test as another (bigger) study?</t>
+  </si>
+  <si>
+    <t>2 (background: silence, speech)</t>
+  </si>
+  <si>
+    <t>impossible to extract effect sizes or to get in touch with the authors</t>
+  </si>
+  <si>
+    <t>it can be deduced that there were 16 participants per schedule (2 groups of 8)</t>
+  </si>
+  <si>
+    <r>
+      <t>Gawron, V. J. (1984). Noise: Effect and aftereffect. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ergonomics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(1), 5-18. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment 1</t>
+    </r>
+  </si>
+  <si>
+    <t>lack of reported means for the different exposure conditions  makes it impossible to know the direction of the effect size</t>
+  </si>
+  <si>
+    <t>neither descriptives nor test statistics are reported</t>
+  </si>
+  <si>
+    <t>3 (background: silence, average noise, noisy) x  2(situation: classroom, experimental) x 2(task: homework, test)</t>
+  </si>
+  <si>
+    <r>
+      <t>Cool, V. A., Yarbrough, D. B., Patton, J. E., Runde, R., &amp; Keith, T. Z. (1994). Experimental effects of radio and television distractors on children's performance on mathematics and reading assignments. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The Journal of experimental education</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>62</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3), 181-194.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Experiment 2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (task difficulty: easy, less easy) x 3 (background: silence, radio TV) </t>
+  </si>
+  <si>
+    <t>impossible to calculate effect sizes- only % increase is reported, but no variance or test statistics</t>
+  </si>
+  <si>
+    <t>music type unknown; SDs not reported</t>
+  </si>
+  <si>
+    <t>2 (background: high noise, low noise) x 4 (restoration: movie, river, silence, noise)</t>
+  </si>
+  <si>
+    <t>2 (background: silence, music)</t>
+  </si>
+  <si>
+    <t>Only qualitative description of results, no descriptives or test statistics are reported; no silence baseline</t>
   </si>
 </sst>
 </file>
@@ -37820,7 +38074,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -38264,16 +38518,22 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -38621,7 +38881,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -51158,7 +51418,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>320</v>
@@ -51169,7 +51429,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
   </sheetData>
@@ -53905,7 +54165,7 @@
     </row>
     <row r="195" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B195" s="10" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C195" s="12" t="s">
         <v>282</v>
@@ -58550,7 +58810,7 @@
     </row>
     <row r="527" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B527" s="10" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C527" s="12" t="s">
         <v>320</v>
@@ -58576,8 +58836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E344"/>
   <sheetViews>
-    <sheetView topLeftCell="A293" workbookViewId="0">
-      <selection activeCell="B301" sqref="B301"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59037,14 +59297,14 @@
       <c r="A31" s="58">
         <v>29</v>
       </c>
-      <c r="B31" s="126" t="s">
+      <c r="B31" s="128" t="s">
         <v>794</v>
       </c>
       <c r="C31" s="58" t="s">
         <v>798</v>
       </c>
       <c r="D31" s="58" t="s">
-        <v>479</v>
+        <v>1222</v>
       </c>
       <c r="E31" s="17"/>
     </row>
@@ -59250,13 +59510,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="128" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C45" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D45" s="58" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E45" s="58"/>
     </row>
@@ -60364,7 +60624,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C119" s="58" t="s">
         <v>282</v>
@@ -60807,7 +61067,7 @@
         <v>554</v>
       </c>
       <c r="D148" s="60" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E148" s="17"/>
     </row>
@@ -61206,7 +61466,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="119" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C175" s="58" t="s">
         <v>282</v>
@@ -61900,7 +62160,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="20" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C221" s="58" t="s">
         <v>320</v>
@@ -62050,7 +62310,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="119" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C231" s="58" t="s">
         <v>554</v>
@@ -62140,7 +62400,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="119" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C237" s="58" t="s">
         <v>798</v>
@@ -62958,7 +63218,7 @@
         <v>798</v>
       </c>
       <c r="D291" s="58" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E291" s="17"/>
     </row>
@@ -62988,7 +63248,7 @@
         <v>282</v>
       </c>
       <c r="D293" s="58" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E293" s="17"/>
     </row>
@@ -63104,13 +63364,13 @@
         <v>299</v>
       </c>
       <c r="B301" s="119" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C301" s="58" t="s">
         <v>554</v>
       </c>
       <c r="D301" s="58" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E301" s="17"/>
     </row>
@@ -63209,13 +63469,13 @@
         <v>306</v>
       </c>
       <c r="B308" s="119" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C308" s="58" t="s">
         <v>282</v>
       </c>
       <c r="D308" s="58" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E308" s="17"/>
     </row>
@@ -63622,10 +63882,10 @@
         <v>320</v>
       </c>
       <c r="D335" s="60" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E335" s="58" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -63775,10 +64035,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:XFD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64189,7 +64449,7 @@
         <v>320</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E20" s="58" t="s">
         <v>1127</v>
@@ -64210,13 +64470,13 @@
         <v>320</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E21" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F21" s="155" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="G21" s="47" t="s">
         <v>479</v>
@@ -64233,14 +64493,14 @@
         <v>320</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E22" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F22" s="43"/>
       <c r="G22" s="61" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -64248,19 +64508,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="156" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D23" s="61" t="s">
         <v>1162</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D23" s="61" t="s">
-        <v>1163</v>
       </c>
       <c r="E23" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F23" s="157" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>479</v>
@@ -64277,13 +64537,13 @@
         <v>320</v>
       </c>
       <c r="D24" s="61" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E24" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F24" s="61" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G24" s="47" t="s">
         <v>479</v>
@@ -64300,13 +64560,13 @@
         <v>320</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E25" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F25" s="61" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="G25" s="47" t="s">
         <v>479</v>
@@ -64323,7 +64583,7 @@
         <v>320</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E26" s="58" t="s">
         <v>1127</v>
@@ -64344,14 +64604,14 @@
         <v>282</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E27" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F27" s="43"/>
       <c r="G27" s="61" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -64365,14 +64625,14 @@
         <v>320</v>
       </c>
       <c r="D28" s="61" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E28" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F28" s="47"/>
       <c r="G28" s="47" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -64386,14 +64646,14 @@
         <v>320</v>
       </c>
       <c r="D29" s="61" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E29" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F29" s="43"/>
       <c r="G29" s="61" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -64407,14 +64667,14 @@
         <v>320</v>
       </c>
       <c r="D30" s="61" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E30" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F30" s="43"/>
       <c r="G30" s="61" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -64433,7 +64693,7 @@
       </c>
       <c r="F31" s="43"/>
       <c r="G31" s="61" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -64447,14 +64707,14 @@
         <v>320</v>
       </c>
       <c r="D32" s="61" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E32" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F32" s="61"/>
       <c r="G32" s="61" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -64462,7 +64722,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="145" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C33" s="47" t="s">
         <v>320</v>
@@ -64475,7 +64735,7 @@
       </c>
       <c r="F33" s="43"/>
       <c r="G33" s="61" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -64489,14 +64749,14 @@
         <v>320</v>
       </c>
       <c r="D34" s="61" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E34" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F34" s="43"/>
       <c r="G34" s="61" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -64510,14 +64770,14 @@
         <v>320</v>
       </c>
       <c r="D35" s="61" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E35" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F35" s="43"/>
       <c r="G35" s="61" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -64531,14 +64791,14 @@
         <v>320</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E36" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F36" s="43"/>
       <c r="G36" s="61" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -64552,14 +64812,14 @@
         <v>320</v>
       </c>
       <c r="D37" s="61" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E37" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F37" s="43"/>
       <c r="G37" s="61" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -64573,14 +64833,14 @@
         <v>320</v>
       </c>
       <c r="D38" s="61" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E38" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F38" s="43"/>
       <c r="G38" s="61" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -64594,14 +64854,14 @@
         <v>320</v>
       </c>
       <c r="D39" s="61" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E39" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F39" s="43"/>
       <c r="G39" s="61" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -64615,13 +64875,13 @@
         <v>320</v>
       </c>
       <c r="D40" s="61" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E40" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F40" s="61" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="G40" s="47" t="s">
         <v>479</v>
@@ -64638,14 +64898,14 @@
         <v>320</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E41" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F41" s="43"/>
       <c r="G41" s="61" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -64659,13 +64919,13 @@
         <v>320</v>
       </c>
       <c r="D42" s="61" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E42" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F42" s="61" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="G42" s="47" t="s">
         <v>479</v>
@@ -64676,19 +64936,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="147" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C43" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D43" s="61" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E43" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F43" s="65" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="G43" s="61" t="s">
         <v>479</v>
@@ -64699,7 +64959,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="145" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C44" s="47" t="s">
         <v>320</v>
@@ -64712,7 +64972,7 @@
       </c>
       <c r="F44" s="53"/>
       <c r="G44" s="61" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -64726,14 +64986,14 @@
         <v>320</v>
       </c>
       <c r="D45" s="61" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E45" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F45" s="61"/>
       <c r="G45" s="61" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -64747,14 +65007,14 @@
         <v>282</v>
       </c>
       <c r="D46" s="61" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E46" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F46" s="43"/>
       <c r="G46" s="47" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -64768,13 +65028,13 @@
         <v>554</v>
       </c>
       <c r="D47" s="61" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E47" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F47" s="61" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="G47" s="47" t="s">
         <v>479</v>
@@ -64791,13 +65051,13 @@
         <v>282</v>
       </c>
       <c r="D48" s="61" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E48" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F48" s="61" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G48" s="47" t="s">
         <v>479</v>
@@ -64808,19 +65068,19 @@
         <v>47</v>
       </c>
       <c r="B49" s="156" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D49" s="61" t="s">
         <v>1211</v>
-      </c>
-      <c r="C49" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D49" s="61" t="s">
-        <v>1212</v>
       </c>
       <c r="E49" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F49" s="61" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="G49" s="47" t="s">
         <v>479</v>
@@ -64837,13 +65097,13 @@
         <v>798</v>
       </c>
       <c r="D50" s="61" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E50" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F50" s="61" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="G50" s="47" t="s">
         <v>479</v>
@@ -64860,13 +65120,13 @@
         <v>282</v>
       </c>
       <c r="D51" s="61" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E51" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="G51" s="61" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -64880,14 +65140,14 @@
         <v>282</v>
       </c>
       <c r="D52" s="61" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E52" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F52" s="43"/>
       <c r="G52" s="61" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -64901,13 +65161,13 @@
         <v>320</v>
       </c>
       <c r="D53" s="61" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E53" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F53" s="61" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G53" s="12" t="s">
         <v>479</v>
@@ -64924,13 +65184,13 @@
         <v>320</v>
       </c>
       <c r="D54" s="61" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E54" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F54" s="65" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="G54" s="47" t="s">
         <v>479</v>
@@ -64947,16 +65207,16 @@
         <v>798</v>
       </c>
       <c r="D55" s="61" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E55" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F55" s="65" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="G55" s="61" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -64970,14 +65230,14 @@
         <v>798</v>
       </c>
       <c r="D56" s="61" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E56" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F56" s="43"/>
       <c r="G56" s="61" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -64991,14 +65251,14 @@
         <v>282</v>
       </c>
       <c r="D57" s="47" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E57" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F57" s="43"/>
       <c r="G57" s="61" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -65012,14 +65272,14 @@
         <v>554</v>
       </c>
       <c r="D58" s="61" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E58" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F58" s="43"/>
       <c r="G58" s="61" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -65033,16 +65293,16 @@
         <v>320</v>
       </c>
       <c r="D59" s="61" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E59" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F59" s="61" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="G59" s="47" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -65056,14 +65316,14 @@
         <v>320</v>
       </c>
       <c r="D60" s="62" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E60" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F60" s="43"/>
       <c r="G60" s="47" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -65071,20 +65331,20 @@
         <v>59</v>
       </c>
       <c r="B61" s="152" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C61" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D61" s="61" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E61" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F61" s="43"/>
       <c r="G61" s="61" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -65092,20 +65352,20 @@
         <v>60</v>
       </c>
       <c r="B62" s="152" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C62" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D62" s="61" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E62" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F62" s="43"/>
       <c r="G62" s="61" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -65119,13 +65379,13 @@
         <v>282</v>
       </c>
       <c r="D63" s="61" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E63" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F63" s="61" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="G63" s="47" t="s">
         <v>479</v>
@@ -65142,13 +65402,13 @@
         <v>282</v>
       </c>
       <c r="D64" s="61" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E64" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F64" s="65" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G64" s="47" t="s">
         <v>479</v>
@@ -65158,20 +65418,20 @@
       <c r="A65" s="58">
         <v>63</v>
       </c>
-      <c r="B65" s="160" t="s">
-        <v>1259</v>
+      <c r="B65" s="159" t="s">
+        <v>1258</v>
       </c>
       <c r="C65" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D65" s="61" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E65" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F65" s="61" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G65" s="47" t="s">
         <v>479</v>
@@ -65182,19 +65442,19 @@
         <v>64</v>
       </c>
       <c r="B66" s="152" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C66" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D66" s="61" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E66" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F66" s="61" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="G66" s="47" t="s">
         <v>479</v>
@@ -65205,19 +65465,19 @@
         <v>65</v>
       </c>
       <c r="B67" s="152" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C67" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D67" s="61" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E67" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F67" s="61" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="G67" s="47" t="s">
         <v>479</v>
@@ -65228,19 +65488,19 @@
         <v>66</v>
       </c>
       <c r="B68" s="152" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C68" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D68" s="61" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="E68" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F68" s="61" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="G68" s="47" t="s">
         <v>479</v>
@@ -65250,125 +65510,158 @@
       <c r="A69" s="58">
         <v>67</v>
       </c>
-      <c r="B69" s="162" t="s">
+      <c r="B69" s="160" t="s">
         <v>923</v>
       </c>
       <c r="C69" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D69" s="61" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E69" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F69" s="43"/>
       <c r="G69" s="47" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="47">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="58">
         <v>68</v>
       </c>
-      <c r="B70" s="152" t="s">
-        <v>1253</v>
+      <c r="B70" s="151" t="s">
+        <v>1217</v>
       </c>
       <c r="C70" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D70" s="61" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E70" s="46" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F70" s="43"/>
+      <c r="G70" s="61" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="58">
+        <v>69</v>
+      </c>
+      <c r="B71" s="162" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C71" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="E71" s="46" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F71" s="61" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G71" s="61" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="58">
+        <v>70</v>
+      </c>
+      <c r="B72" s="163" t="s">
+        <v>781</v>
+      </c>
+      <c r="C72" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D72" s="61" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E72" s="46" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F72" s="61" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G72" s="61" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="58">
+        <v>71</v>
+      </c>
+      <c r="B73" s="152" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C73" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D73" s="61" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E73" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F73" s="61" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G73" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F70" s="43"/>
-      <c r="G70" s="47"/>
-    </row>
-    <row r="71" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="47">
-        <v>69</v>
-      </c>
-      <c r="B71" s="159" t="s">
-        <v>781</v>
-      </c>
-      <c r="C71" s="47" t="s">
-        <v>798</v>
-      </c>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F71" s="61" t="s">
-        <v>1232</v>
-      </c>
-      <c r="G71" s="47"/>
-    </row>
-    <row r="72" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="47"/>
-      <c r="B72" s="152" t="s">
-        <v>904</v>
-      </c>
-      <c r="C72" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D72" s="47"/>
-      <c r="E72" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F72" s="43"/>
-      <c r="G72" s="47"/>
-    </row>
-    <row r="73" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="47"/>
-      <c r="B73" s="145" t="s">
+    </row>
+    <row r="74" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="58">
+        <v>72</v>
+      </c>
+      <c r="B74" s="145" t="s">
         <v>945</v>
       </c>
-      <c r="C73" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D73" s="47"/>
-      <c r="E73" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F73" s="61" t="s">
-        <v>1155</v>
-      </c>
-      <c r="G73" s="47"/>
-    </row>
-    <row r="74" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="47"/>
-      <c r="B74" s="152" t="s">
+      <c r="C74" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D74" s="61" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E74" s="46" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F74" s="61" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G74" s="61" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="58">
+        <v>73</v>
+      </c>
+      <c r="B75" s="164" t="s">
+        <v>964</v>
+      </c>
+      <c r="C75" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D75" s="61" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E75" s="46" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F75" s="43"/>
+      <c r="G75" s="61" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="47"/>
+      <c r="B76" s="152" t="s">
         <v>1011</v>
-      </c>
-      <c r="C74" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D74" s="47"/>
-      <c r="E74" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F74" s="43"/>
-      <c r="G74" s="47"/>
-    </row>
-    <row r="75" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="47"/>
-      <c r="B75" s="145" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C75" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F75" s="43"/>
-      <c r="G75" s="47"/>
-    </row>
-    <row r="76" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="47"/>
-      <c r="B76" s="145" t="s">
-        <v>1030</v>
       </c>
       <c r="C76" s="47" t="s">
         <v>320</v>
@@ -65380,13 +65673,13 @@
       <c r="F76" s="43"/>
       <c r="G76" s="47"/>
     </row>
-    <row r="77" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="47"/>
-      <c r="B77" s="152" t="s">
-        <v>866</v>
+      <c r="B77" s="145" t="s">
+        <v>1029</v>
       </c>
       <c r="C77" s="47" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D77" s="47"/>
       <c r="E77" s="47" t="s">
@@ -65395,13 +65688,13 @@
       <c r="F77" s="43"/>
       <c r="G77" s="47"/>
     </row>
-    <row r="78" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="47"/>
-      <c r="B78" s="144" t="s">
-        <v>895</v>
+      <c r="B78" s="145" t="s">
+        <v>1030</v>
       </c>
       <c r="C78" s="47" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D78" s="47"/>
       <c r="E78" s="47" t="s">
@@ -65410,10 +65703,10 @@
       <c r="F78" s="43"/>
       <c r="G78" s="47"/>
     </row>
-    <row r="79" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="47"/>
       <c r="B79" s="152" t="s">
-        <v>900</v>
+        <v>866</v>
       </c>
       <c r="C79" s="47" t="s">
         <v>282</v>
@@ -65425,10 +65718,10 @@
       <c r="F79" s="43"/>
       <c r="G79" s="47"/>
     </row>
-    <row r="80" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="47"/>
       <c r="B80" s="144" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="C80" s="47" t="s">
         <v>282</v>
@@ -65440,10 +65733,10 @@
       <c r="F80" s="43"/>
       <c r="G80" s="47"/>
     </row>
-    <row r="81" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="47"/>
-      <c r="B81" s="146" t="s">
-        <v>90</v>
+      <c r="B81" s="152" t="s">
+        <v>900</v>
       </c>
       <c r="C81" s="47" t="s">
         <v>282</v>
@@ -65455,25 +65748,25 @@
       <c r="F81" s="43"/>
       <c r="G81" s="47"/>
     </row>
-    <row r="82" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="121"/>
-      <c r="B82" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="C82" s="121" t="s">
-        <v>282</v>
-      </c>
-      <c r="D82" s="121"/>
-      <c r="E82" s="121"/>
-      <c r="F82" s="122" t="s">
-        <v>835</v>
-      </c>
-      <c r="G82" s="153"/>
-    </row>
-    <row r="83" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="47"/>
+      <c r="B82" s="144" t="s">
+        <v>901</v>
+      </c>
+      <c r="C82" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F82" s="43"/>
+      <c r="G82" s="47"/>
+    </row>
+    <row r="83" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="47"/>
-      <c r="B83" s="144" t="s">
-        <v>762</v>
+      <c r="B83" s="146" t="s">
+        <v>90</v>
       </c>
       <c r="C83" s="47" t="s">
         <v>282</v>
@@ -65485,25 +65778,25 @@
       <c r="F83" s="43"/>
       <c r="G83" s="47"/>
     </row>
-    <row r="84" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="47"/>
-      <c r="B84" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F84" s="43"/>
-      <c r="G84" s="47"/>
-    </row>
-    <row r="85" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="121"/>
+      <c r="B84" s="142" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84" s="121" t="s">
+        <v>282</v>
+      </c>
+      <c r="D84" s="121"/>
+      <c r="E84" s="121"/>
+      <c r="F84" s="122" t="s">
+        <v>835</v>
+      </c>
+      <c r="G84" s="153"/>
+    </row>
+    <row r="85" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="47"/>
-      <c r="B85" s="145" t="s">
-        <v>81</v>
+      <c r="B85" s="144" t="s">
+        <v>762</v>
       </c>
       <c r="C85" s="47" t="s">
         <v>282</v>
@@ -65515,10 +65808,10 @@
       <c r="F85" s="43"/>
       <c r="G85" s="47"/>
     </row>
-    <row r="86" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="47"/>
-      <c r="B86" s="158" t="s">
-        <v>929</v>
+      <c r="B86" s="51" t="s">
+        <v>82</v>
       </c>
       <c r="C86" s="47" t="s">
         <v>282</v>
@@ -65530,10 +65823,10 @@
       <c r="F86" s="43"/>
       <c r="G86" s="47"/>
     </row>
-    <row r="87" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="47"/>
-      <c r="B87" s="152" t="s">
-        <v>933</v>
+      <c r="B87" s="145" t="s">
+        <v>81</v>
       </c>
       <c r="C87" s="47" t="s">
         <v>282</v>
@@ -65545,10 +65838,10 @@
       <c r="F87" s="43"/>
       <c r="G87" s="47"/>
     </row>
-    <row r="88" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="47"/>
-      <c r="B88" s="51" t="s">
-        <v>938</v>
+      <c r="B88" s="152" t="s">
+        <v>933</v>
       </c>
       <c r="C88" s="47" t="s">
         <v>282</v>
@@ -65562,8 +65855,8 @@
     </row>
     <row r="89" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="47"/>
-      <c r="B89" s="152" t="s">
-        <v>939</v>
+      <c r="B89" s="51" t="s">
+        <v>938</v>
       </c>
       <c r="C89" s="47" t="s">
         <v>282</v>
@@ -65575,10 +65868,10 @@
       <c r="F89" s="43"/>
       <c r="G89" s="47"/>
     </row>
-    <row r="90" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A90" s="47"/>
-      <c r="B90" s="51" t="s">
-        <v>940</v>
+      <c r="B90" s="152" t="s">
+        <v>939</v>
       </c>
       <c r="C90" s="47" t="s">
         <v>282</v>
@@ -65590,10 +65883,10 @@
       <c r="F90" s="43"/>
       <c r="G90" s="47"/>
     </row>
-    <row r="91" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="47"/>
       <c r="B91" s="51" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C91" s="47" t="s">
         <v>282</v>
@@ -65605,10 +65898,10 @@
       <c r="F91" s="43"/>
       <c r="G91" s="47"/>
     </row>
-    <row r="92" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="47"/>
-      <c r="B92" s="152" t="s">
-        <v>942</v>
+      <c r="B92" s="51" t="s">
+        <v>941</v>
       </c>
       <c r="C92" s="47" t="s">
         <v>282</v>
@@ -65620,10 +65913,10 @@
       <c r="F92" s="43"/>
       <c r="G92" s="47"/>
     </row>
-    <row r="93" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="47"/>
-      <c r="B93" s="145" t="s">
-        <v>737</v>
+      <c r="B93" s="152" t="s">
+        <v>942</v>
       </c>
       <c r="C93" s="47" t="s">
         <v>282</v>
@@ -65635,10 +65928,10 @@
       <c r="F93" s="43"/>
       <c r="G93" s="47"/>
     </row>
-    <row r="94" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="47"/>
-      <c r="B94" s="152" t="s">
-        <v>957</v>
+      <c r="B94" s="145" t="s">
+        <v>737</v>
       </c>
       <c r="C94" s="47" t="s">
         <v>282</v>
@@ -65650,10 +65943,10 @@
       <c r="F94" s="43"/>
       <c r="G94" s="47"/>
     </row>
-    <row r="95" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="47"/>
-      <c r="B95" s="145" t="s">
-        <v>958</v>
+      <c r="B95" s="152" t="s">
+        <v>957</v>
       </c>
       <c r="C95" s="47" t="s">
         <v>282</v>
@@ -65665,10 +65958,10 @@
       <c r="F95" s="43"/>
       <c r="G95" s="47"/>
     </row>
-    <row r="96" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="47"/>
-      <c r="B96" s="152" t="s">
-        <v>964</v>
+      <c r="B96" s="145" t="s">
+        <v>958</v>
       </c>
       <c r="C96" s="47" t="s">
         <v>282</v>
@@ -65680,7 +65973,7 @@
       <c r="F96" s="43"/>
       <c r="G96" s="47"/>
     </row>
-    <row r="97" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="47"/>
       <c r="B97" s="152" t="s">
         <v>991</v>
@@ -65695,7 +65988,7 @@
       <c r="F97" s="43"/>
       <c r="G97" s="47"/>
     </row>
-    <row r="98" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="47"/>
       <c r="B98" s="51" t="s">
         <v>139</v>
@@ -65710,7 +66003,7 @@
       <c r="F98" s="43"/>
       <c r="G98" s="47"/>
     </row>
-    <row r="99" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
       <c r="B99" s="51" t="s">
         <v>1002</v>
@@ -65725,7 +66018,7 @@
       <c r="F99" s="43"/>
       <c r="G99" s="47"/>
     </row>
-    <row r="100" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="47"/>
       <c r="B100" s="51" t="s">
         <v>88</v>
@@ -65740,7 +66033,7 @@
       <c r="F100" s="43"/>
       <c r="G100" s="47"/>
     </row>
-    <row r="101" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="47"/>
       <c r="B101" s="148" t="s">
         <v>1021</v>
@@ -65755,7 +66048,7 @@
       <c r="F101" s="43"/>
       <c r="G101" s="47"/>
     </row>
-    <row r="102" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="47"/>
       <c r="B102" s="145" t="s">
         <v>58</v>
@@ -65785,7 +66078,7 @@
       <c r="F103" s="43"/>
       <c r="G103" s="47"/>
     </row>
-    <row r="104" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="47"/>
       <c r="B104" s="145" t="s">
         <v>69</v>
@@ -65800,7 +66093,7 @@
       <c r="F104" s="43"/>
       <c r="G104" s="47"/>
     </row>
-    <row r="105" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A105" s="47"/>
       <c r="B105" s="51" t="s">
         <v>1054</v>
@@ -65815,7 +66108,7 @@
       <c r="F105" s="43"/>
       <c r="G105" s="47"/>
     </row>
-    <row r="106" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="47"/>
       <c r="B106" s="148" t="s">
         <v>1066</v>
@@ -65830,7 +66123,7 @@
       <c r="F106" s="43"/>
       <c r="G106" s="47"/>
     </row>
-    <row r="107" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="47"/>
       <c r="B107" s="152" t="s">
         <v>188</v>
@@ -65843,11 +66136,11 @@
         <v>479</v>
       </c>
       <c r="F107" s="47" t="s">
-        <v>848</v>
+        <v>1270</v>
       </c>
       <c r="G107" s="47"/>
     </row>
-    <row r="108" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="47"/>
       <c r="B108" s="145" t="s">
         <v>80</v>
@@ -65862,13 +66155,13 @@
       <c r="F108" s="43"/>
       <c r="G108" s="47"/>
     </row>
-    <row r="109" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="47"/>
-      <c r="B109" s="151" t="s">
-        <v>1218</v>
+      <c r="B109" s="152" t="s">
+        <v>769</v>
       </c>
       <c r="C109" s="47" t="s">
-        <v>282</v>
+        <v>798</v>
       </c>
       <c r="D109" s="47"/>
       <c r="E109" s="47" t="s">
@@ -65877,10 +66170,10 @@
       <c r="F109" s="43"/>
       <c r="G109" s="47"/>
     </row>
-    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="47"/>
-      <c r="B110" s="145" t="s">
-        <v>794</v>
+      <c r="B110" s="143" t="s">
+        <v>775</v>
       </c>
       <c r="C110" s="47" t="s">
         <v>798</v>
@@ -65892,10 +66185,10 @@
       <c r="F110" s="43"/>
       <c r="G110" s="47"/>
     </row>
-    <row r="111" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="47"/>
-      <c r="B111" s="152" t="s">
-        <v>769</v>
+      <c r="B111" s="145" t="s">
+        <v>783</v>
       </c>
       <c r="C111" s="47" t="s">
         <v>798</v>
@@ -65907,10 +66200,10 @@
       <c r="F111" s="43"/>
       <c r="G111" s="47"/>
     </row>
-    <row r="112" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="47"/>
-      <c r="B112" s="143" t="s">
-        <v>775</v>
+      <c r="B112" s="144" t="s">
+        <v>768</v>
       </c>
       <c r="C112" s="47" t="s">
         <v>798</v>
@@ -65919,16 +66212,18 @@
       <c r="E112" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F112" s="43"/>
+      <c r="F112" s="43" t="s">
+        <v>846</v>
+      </c>
       <c r="G112" s="47"/>
     </row>
-    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="47"/>
-      <c r="B113" s="145" t="s">
-        <v>783</v>
+      <c r="B113" s="144" t="s">
+        <v>865</v>
       </c>
       <c r="C113" s="47" t="s">
-        <v>798</v>
+        <v>554</v>
       </c>
       <c r="D113" s="47"/>
       <c r="E113" s="47" t="s">
@@ -65937,27 +66232,25 @@
       <c r="F113" s="43"/>
       <c r="G113" s="47"/>
     </row>
-    <row r="114" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="47"/>
-      <c r="B114" s="144" t="s">
-        <v>768</v>
+      <c r="B114" s="152" t="s">
+        <v>1252</v>
       </c>
       <c r="C114" s="47" t="s">
-        <v>798</v>
+        <v>554</v>
       </c>
       <c r="D114" s="47"/>
       <c r="E114" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F114" s="43" t="s">
-        <v>846</v>
-      </c>
+      <c r="F114" s="43"/>
       <c r="G114" s="47"/>
     </row>
-    <row r="115" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A115" s="47"/>
-      <c r="B115" s="144" t="s">
-        <v>865</v>
+      <c r="B115" s="152" t="s">
+        <v>935</v>
       </c>
       <c r="C115" s="47" t="s">
         <v>554</v>
@@ -65969,10 +66262,10 @@
       <c r="F115" s="43"/>
       <c r="G115" s="47"/>
     </row>
-    <row r="116" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="47"/>
       <c r="B116" s="152" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C116" s="47" t="s">
         <v>554</v>
@@ -65986,8 +66279,8 @@
     </row>
     <row r="117" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="47"/>
-      <c r="B117" s="152" t="s">
-        <v>936</v>
+      <c r="B117" s="144" t="s">
+        <v>937</v>
       </c>
       <c r="C117" s="47" t="s">
         <v>554</v>
@@ -65999,10 +66292,10 @@
       <c r="F117" s="43"/>
       <c r="G117" s="47"/>
     </row>
-    <row r="118" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A118" s="47"/>
       <c r="B118" s="144" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="C118" s="47" t="s">
         <v>554</v>
@@ -66014,10 +66307,10 @@
       <c r="F118" s="43"/>
       <c r="G118" s="47"/>
     </row>
-    <row r="119" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="47"/>
       <c r="B119" s="144" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C119" s="47" t="s">
         <v>554</v>
@@ -66029,10 +66322,10 @@
       <c r="F119" s="43"/>
       <c r="G119" s="47"/>
     </row>
-    <row r="120" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A120" s="47"/>
       <c r="B120" s="144" t="s">
-        <v>944</v>
+        <v>960</v>
       </c>
       <c r="C120" s="47" t="s">
         <v>554</v>
@@ -66047,7 +66340,7 @@
     <row r="121" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A121" s="47"/>
       <c r="B121" s="144" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="C121" s="47" t="s">
         <v>554</v>
@@ -66060,57 +66353,42 @@
       <c r="G121" s="47"/>
     </row>
     <row r="122" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A122" s="47"/>
-      <c r="B122" s="144" t="s">
-        <v>968</v>
-      </c>
-      <c r="C122" s="47" t="s">
+      <c r="A122" s="46"/>
+      <c r="B122" s="154" t="s">
+        <v>985</v>
+      </c>
+      <c r="C122" s="46" t="s">
         <v>554</v>
       </c>
-      <c r="D122" s="47"/>
-      <c r="E122" s="47" t="s">
+      <c r="D122" s="46"/>
+      <c r="E122" s="46" t="s">
         <v>479</v>
       </c>
-      <c r="F122" s="43"/>
-      <c r="G122" s="47"/>
+      <c r="F122" s="46" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G122" s="46"/>
     </row>
     <row r="123" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A123" s="46"/>
-      <c r="B123" s="154" t="s">
-        <v>985</v>
-      </c>
-      <c r="C123" s="46" t="s">
+      <c r="A123" s="47"/>
+      <c r="B123" s="144" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C123" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="D123" s="46"/>
-      <c r="E123" s="46" t="s">
+      <c r="D123" s="47"/>
+      <c r="E123" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F123" s="46" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G123" s="46"/>
-    </row>
-    <row r="124" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A124" s="47"/>
-      <c r="B124" s="144" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C124" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="D124" s="47"/>
-      <c r="E124" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F124" s="43"/>
-      <c r="G124" s="47"/>
+      <c r="F123" s="43"/>
+      <c r="G123" s="47"/>
     </row>
   </sheetData>
-  <sortState ref="A3:G124">
-    <sortCondition ref="A3:A124"/>
-    <sortCondition ref="C3:C124"/>
-    <sortCondition ref="B3:B124"/>
+  <sortState ref="A3:G123">
+    <sortCondition ref="A3:A123"/>
+    <sortCondition ref="C3:C123"/>
+    <sortCondition ref="B3:B123"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">' Step 2'!$A$2:$D$526</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">' Step 3'!$A$2:$C$344</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$126</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -187,7 +187,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Martin,Vasilev</author>
-    <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
     <comment ref="B2" authorId="0">
@@ -612,7 +611,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="B94" authorId="1">
+    <comment ref="F77" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+both background sounds here classify as speech
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D79" authorId="0">
       <text>
         <r>
           <rPr>
@@ -622,7 +646,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Martin R. Vasilev:</t>
+          <t>Martin,Vasilev:</t>
         </r>
         <r>
           <rPr>
@@ -632,8 +656,31 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-full-text found
-</t>
+Instruction was also varied for the participants who completed the task with the TV on (ignore the TV , allowed to watch it occasionally). </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B84" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Experiment 5 did not have a proofreading task</t>
         </r>
       </text>
     </comment>
@@ -711,7 +758,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4990" uniqueCount="1285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5025" uniqueCount="1306">
   <si>
     <t>ID</t>
   </si>
@@ -37456,13 +37503,394 @@
   </si>
   <si>
     <t>Only qualitative description of results, no descriptives or test statistics are reported; no silence baseline</t>
+  </si>
+  <si>
+    <t>the variety program is not coded as it is not very clear what it contained and how it should be classified</t>
+  </si>
+  <si>
+    <t>3 (background: silence, variety radio program, music radio program)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (comprehension assessment: immediate, after a 5-min intervening task) x 3(background: silence, TV drama, TV ads)  </t>
+  </si>
+  <si>
+    <t>I average out the two assessment conditions because 5-min delay is not untypical and has been used in a number of other studies that were included</t>
+  </si>
+  <si>
+    <t>the other armstring paper (also add in all previous tabs!!!!)</t>
+  </si>
+  <si>
+    <t>2 (task: easy, difficult)  x3 (background: silence, music videos, soap opera)</t>
+  </si>
+  <si>
+    <t>task difficulty is averaged out</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pool, M. M., Koolstra, C. M., &amp; Voort, T. H. (2003). The impact of background radio and television on high school students' homework performance. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Journal of Communication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(1), 74-87. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pool, M. M., Van der Voort, T. H., Beentjes, J. W., &amp; Koolstra, C. M. (2000). Background television as an inhibitor of performance on easy and difficult homework assignments. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Communication Research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(3), 293-326. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pool, M. M., Van der Voort, T. H., Beentjes, J. W., &amp; Koolstra, C. M. (2000). Background television as an inhibitor of performance on easy and difficult homework assignments. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Communication Research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(3), 293-326. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment 2</t>
+    </r>
+  </si>
+  <si>
+    <t>4 (background: silence, soap opera, music videos, music radios) x 2 (assignment: paper-and-pencil, memory task)</t>
+  </si>
+  <si>
+    <t>the dependent measure is confounded here as the reading task also contained foreign language reading tests (English); it's impossible to get the ES for dutch texts only</t>
+  </si>
+  <si>
+    <r>
+      <t>Jones, D. M., Miles, C., &amp; Page, J. (1990). Disruption of proofreading by irrelevant speech: Effects of attention, arousal or memory?. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Applied Cognitive Psychology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), 89-108.,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Experiment 1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 (background: native speech, reversed native speech) x 2 (sound intensity: 50 dBA, 70 dBA)</t>
+  </si>
+  <si>
+    <r>
+      <t>Jones, D. M., Miles, C., &amp; Page, J. (1990). Disruption of proofreading by irrelevant speech: Effects of attention, arousal or memory?. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Applied Cognitive Psychology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), 89-108.,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Experiment 2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 (background: silence, reversed native speech)</t>
+  </si>
+  <si>
+    <t>impossible to calculate effect sizes- only means and descriptive summary of results (i.e. not sign.)</t>
+  </si>
+  <si>
+    <r>
+      <t>Jones, D. M., Miles, C., &amp; Page, J. (1990). Disruption of proofreading by irrelevant speech: Effects of attention, arousal or memory?. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Applied Cognitive Psychology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), 89-108.,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Experiment 3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 (background: Binaural , Stereophonic,  moving voice or stationary voice speech)</t>
+  </si>
+  <si>
+    <r>
+      <t>Jones, D. M., Miles, C., &amp; Page, J. (1990). Disruption of proofreading by irrelevant speech: Effects of attention, arousal or memory?. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Applied Cognitive Psychology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), 89-108.,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Experiment 4</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 (background: native speech, reversed native speech) x 2 (lines of display: 1, 5)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="64" x14ac:knownFonts="1">
+  <fonts count="65" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -37919,6 +38347,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="18">
     <fill>
@@ -38074,7 +38508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -38524,9 +38958,6 @@
     <xf numFmtId="0" fontId="50" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -38535,6 +38966,12 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -38881,7 +39318,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -50667,14 +51104,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="161"/>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
+      <c r="A1" s="164"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -64035,10 +64472,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:XFD75"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65552,7 +65989,7 @@
       <c r="A71" s="58">
         <v>69</v>
       </c>
-      <c r="B71" s="162" t="s">
+      <c r="B71" s="161" t="s">
         <v>1274</v>
       </c>
       <c r="C71" s="47" t="s">
@@ -65572,7 +66009,7 @@
       <c r="A72" s="58">
         <v>70</v>
       </c>
-      <c r="B72" s="163" t="s">
+      <c r="B72" s="162" t="s">
         <v>781</v>
       </c>
       <c r="C72" s="47" t="s">
@@ -65641,7 +66078,7 @@
       <c r="A75" s="58">
         <v>73</v>
       </c>
-      <c r="B75" s="164" t="s">
+      <c r="B75" s="163" t="s">
         <v>964</v>
       </c>
       <c r="C75" s="47" t="s">
@@ -65658,148 +66095,211 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="47"/>
+    <row r="76" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="58">
+        <v>74</v>
+      </c>
       <c r="B76" s="152" t="s">
         <v>1011</v>
       </c>
       <c r="C76" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="D76" s="47"/>
-      <c r="E76" s="47" t="s">
+      <c r="D76" s="61" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E76" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F76" s="61" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G76" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F76" s="43"/>
-      <c r="G76" s="47"/>
-    </row>
-    <row r="77" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="47"/>
-      <c r="B77" s="145" t="s">
-        <v>1029</v>
+    </row>
+    <row r="77" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="58">
+        <v>75</v>
+      </c>
+      <c r="B77" s="152" t="s">
+        <v>866</v>
       </c>
       <c r="C77" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D77" s="47"/>
-      <c r="E77" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D77" s="61" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E77" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F77" s="61" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G77" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F77" s="43"/>
-      <c r="G77" s="47"/>
-    </row>
-    <row r="78" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="47"/>
+    </row>
+    <row r="78" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="58">
+        <v>76</v>
+      </c>
       <c r="B78" s="145" t="s">
-        <v>1030</v>
+        <v>1293</v>
       </c>
       <c r="C78" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="D78" s="47"/>
-      <c r="E78" s="47" t="s">
+      <c r="D78" s="61" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E78" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F78" s="61" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G78" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F78" s="43"/>
-      <c r="G78" s="47"/>
-    </row>
-    <row r="79" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="47"/>
-      <c r="B79" s="152" t="s">
-        <v>866</v>
+    </row>
+    <row r="79" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="58">
+        <v>77</v>
+      </c>
+      <c r="B79" s="145" t="s">
+        <v>1294</v>
       </c>
       <c r="C79" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D79" s="47"/>
-      <c r="E79" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D79" s="61" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E79" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F79" s="61" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G79" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F79" s="43"/>
-      <c r="G79" s="47"/>
-    </row>
-    <row r="80" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="47"/>
-      <c r="B80" s="144" t="s">
-        <v>895</v>
+    </row>
+    <row r="80" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="58">
+        <v>78</v>
+      </c>
+      <c r="B80" s="145" t="s">
+        <v>1292</v>
       </c>
       <c r="C80" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D80" s="47"/>
-      <c r="E80" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F80" s="43"/>
-      <c r="G80" s="47"/>
-    </row>
-    <row r="81" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="47"/>
-      <c r="B81" s="152" t="s">
-        <v>900</v>
+        <v>320</v>
+      </c>
+      <c r="D80" s="61" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E80" s="46" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G80" s="61" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="58">
+        <v>79</v>
+      </c>
+      <c r="B81" s="144" t="s">
+        <v>1297</v>
       </c>
       <c r="C81" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D81" s="47"/>
-      <c r="E81" s="47" t="s">
-        <v>479</v>
+        <v>554</v>
+      </c>
+      <c r="D81" s="61" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E81" s="46" t="s">
+        <v>1134</v>
       </c>
       <c r="F81" s="43"/>
-      <c r="G81" s="47"/>
-    </row>
-    <row r="82" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="47"/>
-      <c r="B82" s="144" t="s">
-        <v>901</v>
+      <c r="G81" s="47" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="58">
+        <v>80</v>
+      </c>
+      <c r="B82" s="165" t="s">
+        <v>1299</v>
       </c>
       <c r="C82" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D82" s="47"/>
-      <c r="E82" s="47" t="s">
-        <v>479</v>
+        <v>554</v>
+      </c>
+      <c r="D82" s="61" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E82" s="46" t="s">
+        <v>1134</v>
       </c>
       <c r="F82" s="43"/>
-      <c r="G82" s="47"/>
-    </row>
-    <row r="83" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="47"/>
-      <c r="B83" s="146" t="s">
-        <v>90</v>
+      <c r="G82" s="61" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="58">
+        <v>81</v>
+      </c>
+      <c r="B83" s="144" t="s">
+        <v>1302</v>
       </c>
       <c r="C83" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D83" s="47"/>
-      <c r="E83" s="47" t="s">
-        <v>479</v>
+        <v>554</v>
+      </c>
+      <c r="D83" s="61" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E83" s="46" t="s">
+        <v>1134</v>
       </c>
       <c r="F83" s="43"/>
-      <c r="G83" s="47"/>
-    </row>
-    <row r="84" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="121"/>
-      <c r="B84" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="C84" s="121" t="s">
-        <v>282</v>
-      </c>
-      <c r="D84" s="121"/>
-      <c r="E84" s="121"/>
-      <c r="F84" s="122" t="s">
-        <v>835</v>
-      </c>
-      <c r="G84" s="153"/>
-    </row>
-    <row r="85" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="47"/>
-      <c r="B85" s="144" t="s">
-        <v>762</v>
+      <c r="G83" s="61" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="58">
+        <v>82</v>
+      </c>
+      <c r="B84" s="144" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C84" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D84" s="61" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E84" s="46" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F84" s="43"/>
+      <c r="G84" s="61" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="47">
+        <v>83</v>
+      </c>
+      <c r="B85" s="152" t="s">
+        <v>936</v>
       </c>
       <c r="C85" s="47" t="s">
-        <v>282</v>
+        <v>554</v>
       </c>
       <c r="D85" s="47"/>
       <c r="E85" s="47" t="s">
@@ -65808,10 +66308,10 @@
       <c r="F85" s="43"/>
       <c r="G85" s="47"/>
     </row>
-    <row r="86" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="47"/>
-      <c r="B86" s="51" t="s">
-        <v>82</v>
+      <c r="B86" s="144" t="s">
+        <v>895</v>
       </c>
       <c r="C86" s="47" t="s">
         <v>282</v>
@@ -65823,10 +66323,10 @@
       <c r="F86" s="43"/>
       <c r="G86" s="47"/>
     </row>
-    <row r="87" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="47"/>
-      <c r="B87" s="145" t="s">
-        <v>81</v>
+      <c r="B87" s="152" t="s">
+        <v>900</v>
       </c>
       <c r="C87" s="47" t="s">
         <v>282</v>
@@ -65838,10 +66338,10 @@
       <c r="F87" s="43"/>
       <c r="G87" s="47"/>
     </row>
-    <row r="88" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="47"/>
-      <c r="B88" s="152" t="s">
-        <v>933</v>
+      <c r="B88" s="144" t="s">
+        <v>901</v>
       </c>
       <c r="C88" s="47" t="s">
         <v>282</v>
@@ -65853,10 +66353,10 @@
       <c r="F88" s="43"/>
       <c r="G88" s="47"/>
     </row>
-    <row r="89" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="47"/>
-      <c r="B89" s="51" t="s">
-        <v>938</v>
+      <c r="B89" s="146" t="s">
+        <v>90</v>
       </c>
       <c r="C89" s="47" t="s">
         <v>282</v>
@@ -65868,25 +66368,25 @@
       <c r="F89" s="43"/>
       <c r="G89" s="47"/>
     </row>
-    <row r="90" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="47"/>
-      <c r="B90" s="152" t="s">
-        <v>939</v>
-      </c>
-      <c r="C90" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D90" s="47"/>
-      <c r="E90" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F90" s="43"/>
-      <c r="G90" s="47"/>
-    </row>
-    <row r="91" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="121"/>
+      <c r="B90" s="142" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" s="121" t="s">
+        <v>282</v>
+      </c>
+      <c r="D90" s="121"/>
+      <c r="E90" s="121"/>
+      <c r="F90" s="122" t="s">
+        <v>835</v>
+      </c>
+      <c r="G90" s="153"/>
+    </row>
+    <row r="91" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="47"/>
-      <c r="B91" s="51" t="s">
-        <v>940</v>
+      <c r="B91" s="144" t="s">
+        <v>762</v>
       </c>
       <c r="C91" s="47" t="s">
         <v>282</v>
@@ -65898,10 +66398,10 @@
       <c r="F91" s="43"/>
       <c r="G91" s="47"/>
     </row>
-    <row r="92" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="47"/>
       <c r="B92" s="51" t="s">
-        <v>941</v>
+        <v>82</v>
       </c>
       <c r="C92" s="47" t="s">
         <v>282</v>
@@ -65913,10 +66413,10 @@
       <c r="F92" s="43"/>
       <c r="G92" s="47"/>
     </row>
-    <row r="93" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="47"/>
-      <c r="B93" s="152" t="s">
-        <v>942</v>
+      <c r="B93" s="145" t="s">
+        <v>81</v>
       </c>
       <c r="C93" s="47" t="s">
         <v>282</v>
@@ -65928,10 +66428,10 @@
       <c r="F93" s="43"/>
       <c r="G93" s="47"/>
     </row>
-    <row r="94" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A94" s="47"/>
-      <c r="B94" s="145" t="s">
-        <v>737</v>
+      <c r="B94" s="152" t="s">
+        <v>933</v>
       </c>
       <c r="C94" s="47" t="s">
         <v>282</v>
@@ -65943,10 +66443,10 @@
       <c r="F94" s="43"/>
       <c r="G94" s="47"/>
     </row>
-    <row r="95" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="47"/>
-      <c r="B95" s="152" t="s">
-        <v>957</v>
+      <c r="B95" s="51" t="s">
+        <v>938</v>
       </c>
       <c r="C95" s="47" t="s">
         <v>282</v>
@@ -65960,8 +66460,8 @@
     </row>
     <row r="96" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="47"/>
-      <c r="B96" s="145" t="s">
-        <v>958</v>
+      <c r="B96" s="152" t="s">
+        <v>939</v>
       </c>
       <c r="C96" s="47" t="s">
         <v>282</v>
@@ -65973,10 +66473,10 @@
       <c r="F96" s="43"/>
       <c r="G96" s="47"/>
     </row>
-    <row r="97" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="47"/>
-      <c r="B97" s="152" t="s">
-        <v>991</v>
+      <c r="B97" s="51" t="s">
+        <v>940</v>
       </c>
       <c r="C97" s="47" t="s">
         <v>282</v>
@@ -65988,10 +66488,10 @@
       <c r="F97" s="43"/>
       <c r="G97" s="47"/>
     </row>
-    <row r="98" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="47"/>
       <c r="B98" s="51" t="s">
-        <v>139</v>
+        <v>941</v>
       </c>
       <c r="C98" s="47" t="s">
         <v>282</v>
@@ -66003,10 +66503,10 @@
       <c r="F98" s="43"/>
       <c r="G98" s="47"/>
     </row>
-    <row r="99" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
-      <c r="B99" s="51" t="s">
-        <v>1002</v>
+      <c r="B99" s="152" t="s">
+        <v>942</v>
       </c>
       <c r="C99" s="47" t="s">
         <v>282</v>
@@ -66018,10 +66518,10 @@
       <c r="F99" s="43"/>
       <c r="G99" s="47"/>
     </row>
-    <row r="100" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="47"/>
-      <c r="B100" s="51" t="s">
-        <v>88</v>
+      <c r="B100" s="145" t="s">
+        <v>737</v>
       </c>
       <c r="C100" s="47" t="s">
         <v>282</v>
@@ -66033,10 +66533,10 @@
       <c r="F100" s="43"/>
       <c r="G100" s="47"/>
     </row>
-    <row r="101" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="47"/>
-      <c r="B101" s="148" t="s">
-        <v>1021</v>
+      <c r="B101" s="152" t="s">
+        <v>957</v>
       </c>
       <c r="C101" s="47" t="s">
         <v>282</v>
@@ -66048,10 +66548,10 @@
       <c r="F101" s="43"/>
       <c r="G101" s="47"/>
     </row>
-    <row r="102" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="47"/>
       <c r="B102" s="145" t="s">
-        <v>58</v>
+        <v>958</v>
       </c>
       <c r="C102" s="47" t="s">
         <v>282</v>
@@ -66063,10 +66563,10 @@
       <c r="F102" s="43"/>
       <c r="G102" s="47"/>
     </row>
-    <row r="103" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A103" s="47"/>
-      <c r="B103" s="144" t="s">
-        <v>1053</v>
+      <c r="B103" s="152" t="s">
+        <v>991</v>
       </c>
       <c r="C103" s="47" t="s">
         <v>282</v>
@@ -66078,10 +66578,10 @@
       <c r="F103" s="43"/>
       <c r="G103" s="47"/>
     </row>
-    <row r="104" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="47"/>
-      <c r="B104" s="145" t="s">
-        <v>69</v>
+      <c r="B104" s="51" t="s">
+        <v>139</v>
       </c>
       <c r="C104" s="47" t="s">
         <v>282</v>
@@ -66093,10 +66593,10 @@
       <c r="F104" s="43"/>
       <c r="G104" s="47"/>
     </row>
-    <row r="105" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="47"/>
       <c r="B105" s="51" t="s">
-        <v>1054</v>
+        <v>1002</v>
       </c>
       <c r="C105" s="47" t="s">
         <v>282</v>
@@ -66108,10 +66608,10 @@
       <c r="F105" s="43"/>
       <c r="G105" s="47"/>
     </row>
-    <row r="106" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="47"/>
-      <c r="B106" s="148" t="s">
-        <v>1066</v>
+      <c r="B106" s="51" t="s">
+        <v>88</v>
       </c>
       <c r="C106" s="47" t="s">
         <v>282</v>
@@ -66123,10 +66623,10 @@
       <c r="F106" s="43"/>
       <c r="G106" s="47"/>
     </row>
-    <row r="107" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="47"/>
-      <c r="B107" s="152" t="s">
-        <v>188</v>
+      <c r="B107" s="148" t="s">
+        <v>1021</v>
       </c>
       <c r="C107" s="47" t="s">
         <v>282</v>
@@ -66135,15 +66635,13 @@
       <c r="E107" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F107" s="47" t="s">
-        <v>1270</v>
-      </c>
+      <c r="F107" s="43"/>
       <c r="G107" s="47"/>
     </row>
-    <row r="108" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="47"/>
       <c r="B108" s="145" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C108" s="47" t="s">
         <v>282</v>
@@ -66155,13 +66653,13 @@
       <c r="F108" s="43"/>
       <c r="G108" s="47"/>
     </row>
-    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A109" s="47"/>
-      <c r="B109" s="152" t="s">
-        <v>769</v>
+      <c r="B109" s="144" t="s">
+        <v>1053</v>
       </c>
       <c r="C109" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D109" s="47"/>
       <c r="E109" s="47" t="s">
@@ -66170,13 +66668,13 @@
       <c r="F109" s="43"/>
       <c r="G109" s="47"/>
     </row>
-    <row r="110" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="47"/>
-      <c r="B110" s="143" t="s">
-        <v>775</v>
+      <c r="B110" s="145" t="s">
+        <v>69</v>
       </c>
       <c r="C110" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D110" s="47"/>
       <c r="E110" s="47" t="s">
@@ -66185,13 +66683,13 @@
       <c r="F110" s="43"/>
       <c r="G110" s="47"/>
     </row>
-    <row r="111" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="47"/>
-      <c r="B111" s="145" t="s">
-        <v>783</v>
+      <c r="B111" s="51" t="s">
+        <v>1054</v>
       </c>
       <c r="C111" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D111" s="47"/>
       <c r="E111" s="47" t="s">
@@ -66200,45 +66698,45 @@
       <c r="F111" s="43"/>
       <c r="G111" s="47"/>
     </row>
-    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="47"/>
-      <c r="B112" s="144" t="s">
-        <v>768</v>
+      <c r="B112" s="148" t="s">
+        <v>1066</v>
       </c>
       <c r="C112" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D112" s="47"/>
       <c r="E112" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F112" s="43" t="s">
-        <v>846</v>
-      </c>
+      <c r="F112" s="43"/>
       <c r="G112" s="47"/>
     </row>
-    <row r="113" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A113" s="47"/>
-      <c r="B113" s="144" t="s">
-        <v>865</v>
+      <c r="B113" s="152" t="s">
+        <v>188</v>
       </c>
       <c r="C113" s="47" t="s">
-        <v>554</v>
+        <v>282</v>
       </c>
       <c r="D113" s="47"/>
       <c r="E113" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F113" s="43"/>
+      <c r="F113" s="47" t="s">
+        <v>1270</v>
+      </c>
       <c r="G113" s="47"/>
     </row>
-    <row r="114" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="47"/>
-      <c r="B114" s="152" t="s">
-        <v>1252</v>
+      <c r="B114" s="145" t="s">
+        <v>80</v>
       </c>
       <c r="C114" s="47" t="s">
-        <v>554</v>
+        <v>282</v>
       </c>
       <c r="D114" s="47"/>
       <c r="E114" s="47" t="s">
@@ -66247,13 +66745,13 @@
       <c r="F114" s="43"/>
       <c r="G114" s="47"/>
     </row>
-    <row r="115" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="47"/>
       <c r="B115" s="152" t="s">
-        <v>935</v>
+        <v>769</v>
       </c>
       <c r="C115" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D115" s="47"/>
       <c r="E115" s="47" t="s">
@@ -66262,13 +66760,13 @@
       <c r="F115" s="43"/>
       <c r="G115" s="47"/>
     </row>
-    <row r="116" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="47"/>
-      <c r="B116" s="152" t="s">
-        <v>936</v>
+      <c r="B116" s="143" t="s">
+        <v>775</v>
       </c>
       <c r="C116" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D116" s="47"/>
       <c r="E116" s="47" t="s">
@@ -66277,13 +66775,13 @@
       <c r="F116" s="43"/>
       <c r="G116" s="47"/>
     </row>
-    <row r="117" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="47"/>
-      <c r="B117" s="144" t="s">
-        <v>937</v>
+      <c r="B117" s="145" t="s">
+        <v>783</v>
       </c>
       <c r="C117" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D117" s="47"/>
       <c r="E117" s="47" t="s">
@@ -66292,25 +66790,27 @@
       <c r="F117" s="43"/>
       <c r="G117" s="47"/>
     </row>
-    <row r="118" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="47"/>
       <c r="B118" s="144" t="s">
-        <v>943</v>
+        <v>768</v>
       </c>
       <c r="C118" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D118" s="47"/>
       <c r="E118" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F118" s="43"/>
+      <c r="F118" s="43" t="s">
+        <v>846</v>
+      </c>
       <c r="G118" s="47"/>
     </row>
-    <row r="119" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A119" s="47"/>
       <c r="B119" s="144" t="s">
-        <v>944</v>
+        <v>865</v>
       </c>
       <c r="C119" s="47" t="s">
         <v>554</v>
@@ -66322,10 +66822,10 @@
       <c r="F119" s="43"/>
       <c r="G119" s="47"/>
     </row>
-    <row r="120" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="47"/>
-      <c r="B120" s="144" t="s">
-        <v>960</v>
+      <c r="B120" s="152" t="s">
+        <v>1252</v>
       </c>
       <c r="C120" s="47" t="s">
         <v>554</v>
@@ -66337,10 +66837,10 @@
       <c r="F120" s="43"/>
       <c r="G120" s="47"/>
     </row>
-    <row r="121" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="47"/>
-      <c r="B121" s="144" t="s">
-        <v>968</v>
+      <c r="B121" s="152" t="s">
+        <v>935</v>
       </c>
       <c r="C121" s="47" t="s">
         <v>554</v>
@@ -66352,27 +66852,25 @@
       <c r="F121" s="43"/>
       <c r="G121" s="47"/>
     </row>
-    <row r="122" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A122" s="46"/>
-      <c r="B122" s="154" t="s">
-        <v>985</v>
-      </c>
-      <c r="C122" s="46" t="s">
+    <row r="122" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A122" s="47"/>
+      <c r="B122" s="144" t="s">
+        <v>937</v>
+      </c>
+      <c r="C122" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="D122" s="46"/>
-      <c r="E122" s="46" t="s">
+      <c r="D122" s="47"/>
+      <c r="E122" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F122" s="46" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G122" s="46"/>
-    </row>
-    <row r="123" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="F122" s="43"/>
+      <c r="G122" s="47"/>
+    </row>
+    <row r="123" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
       <c r="B123" s="144" t="s">
-        <v>1081</v>
+        <v>943</v>
       </c>
       <c r="C123" s="47" t="s">
         <v>554</v>
@@ -66384,11 +66882,78 @@
       <c r="F123" s="43"/>
       <c r="G123" s="47"/>
     </row>
+    <row r="124" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A124" s="47"/>
+      <c r="B124" s="144" t="s">
+        <v>944</v>
+      </c>
+      <c r="C124" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D124" s="47"/>
+      <c r="E124" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F124" s="43"/>
+      <c r="G124" s="47"/>
+    </row>
+    <row r="125" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A125" s="47"/>
+      <c r="B125" s="144" t="s">
+        <v>960</v>
+      </c>
+      <c r="C125" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D125" s="47"/>
+      <c r="E125" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F125" s="43"/>
+      <c r="G125" s="47"/>
+    </row>
+    <row r="126" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A126" s="46"/>
+      <c r="B126" s="154" t="s">
+        <v>985</v>
+      </c>
+      <c r="C126" s="46" t="s">
+        <v>554</v>
+      </c>
+      <c r="D126" s="46"/>
+      <c r="E126" s="46" t="s">
+        <v>479</v>
+      </c>
+      <c r="F126" s="46" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G126" s="46"/>
+    </row>
+    <row r="127" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A127" s="47"/>
+      <c r="B127" s="144" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C127" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D127" s="47"/>
+      <c r="E127" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F127" s="43"/>
+      <c r="G127" s="47"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="136" t="s">
+        <v>1289</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A3:G123">
-    <sortCondition ref="A3:A123"/>
-    <sortCondition ref="C3:C123"/>
-    <sortCondition ref="B3:B123"/>
+  <sortState ref="A3:G125">
+    <sortCondition ref="A3:A125"/>
+    <sortCondition ref="C3:C125"/>
+    <sortCondition ref="B3:B125"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Vasilev\SkyDrive\R\reading_sounds\Literature_search\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="16380" windowHeight="8070" tabRatio="987" activeTab="8"/>
   </bookViews>
@@ -34,7 +39,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B19" authorId="0">
+    <comment ref="B19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +74,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B219" authorId="0">
+    <comment ref="B219" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +110,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D67" authorId="0">
+    <comment ref="D67" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B135" authorId="1">
+    <comment ref="B135" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -186,11 +191,35 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Martin R. Vasilev</author>
     <author>Martin,Vasilev</author>
-    <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="F9" authorId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin R. Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+NA means it wasn't excluded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0">
+    <comment ref="F12" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0">
+    <comment ref="G21" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0">
+    <comment ref="G22" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -291,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G41" authorId="0">
+    <comment ref="G41" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -316,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G60" authorId="0">
+    <comment ref="G60" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -343,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="0">
+    <comment ref="B62" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -368,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F63" authorId="0">
+    <comment ref="F63" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -392,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="0">
+    <comment ref="B67" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -417,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B68" authorId="0">
+    <comment ref="B68" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -442,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D69" authorId="0">
+    <comment ref="D69" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -466,7 +495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G69" authorId="0">
+    <comment ref="G69" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +519,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B93" authorId="1">
+    <comment ref="B95" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -525,7 +554,7 @@
     <author>Martin,Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="D175" authorId="0">
+    <comment ref="D175" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -559,7 +588,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B73" authorId="0">
+    <comment ref="B73" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -589,7 +618,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4980" uniqueCount="1271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4990" uniqueCount="1277">
   <si>
     <t>ID</t>
   </si>
@@ -37203,11 +37232,29 @@
   <si>
     <t xml:space="preserve"> 4 (background: silence (?), negatively-affective, possitively-affective, ambiguously affective music)</t>
   </si>
+  <si>
+    <t>2(background: silence, speech)</t>
+  </si>
+  <si>
+    <t>also investigated WMC</t>
+  </si>
+  <si>
+    <t>3(background: silence, speech, road traffic noise)</t>
+  </si>
+  <si>
+    <t>2(background: silence, pop music)</t>
+  </si>
+  <si>
+    <t>the division into "bright" and "non-bright" students is averaged out</t>
+  </si>
+  <si>
+    <t>2(background: silence, rock and roll music)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="64" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -38237,9 +38284,6 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -38270,10 +38314,13 @@
     <xf numFmtId="0" fontId="41" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -38621,7 +38668,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -63777,8 +63824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63820,7 +63867,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47">
+      <c r="A3" s="58">
         <v>1</v>
       </c>
       <c r="B3" s="144" t="s">
@@ -63829,15 +63876,21 @@
       <c r="C3" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47" t="s">
+      <c r="D3" s="61" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G3" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47">
+      <c r="A4" s="58">
         <v>2</v>
       </c>
       <c r="B4" s="144" t="s">
@@ -63846,32 +63899,42 @@
       <c r="C4" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47" t="s">
+      <c r="D4" s="61" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="47"/>
     </row>
     <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47">
+      <c r="A5" s="58">
         <v>3</v>
       </c>
-      <c r="B5" s="150" t="s">
+      <c r="B5" s="162" t="s">
         <v>517</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47" t="s">
+      <c r="D5" s="61" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G5" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="47"/>
-    </row>
-    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="47">
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="58">
         <v>4</v>
       </c>
       <c r="B6" s="144" t="s">
@@ -63880,12 +63943,16 @@
       <c r="C6" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47" t="s">
+      <c r="D6" s="61" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="47"/>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="58">
@@ -63914,7 +63981,7 @@
       <c r="A8" s="58">
         <v>6</v>
       </c>
-      <c r="B8" s="152" t="s">
+      <c r="B8" s="151" t="s">
         <v>915</v>
       </c>
       <c r="C8" s="47" t="s">
@@ -64159,7 +64226,7 @@
       <c r="A19" s="58">
         <v>17</v>
       </c>
-      <c r="B19" s="152" t="s">
+      <c r="B19" s="151" t="s">
         <v>518</v>
       </c>
       <c r="C19" s="47" t="s">
@@ -64215,7 +64282,7 @@
       <c r="E21" s="58" t="s">
         <v>1127</v>
       </c>
-      <c r="F21" s="155" t="s">
+      <c r="F21" s="154" t="s">
         <v>1157</v>
       </c>
       <c r="G21" s="47" t="s">
@@ -64247,7 +64314,7 @@
       <c r="A23" s="58">
         <v>21</v>
       </c>
-      <c r="B23" s="156" t="s">
+      <c r="B23" s="155" t="s">
         <v>1162</v>
       </c>
       <c r="C23" s="47" t="s">
@@ -64259,7 +64326,7 @@
       <c r="E23" s="58" t="s">
         <v>1127</v>
       </c>
-      <c r="F23" s="157" t="s">
+      <c r="F23" s="156" t="s">
         <v>1164</v>
       </c>
       <c r="G23" s="12" t="s">
@@ -64761,7 +64828,7 @@
       <c r="A47" s="58">
         <v>45</v>
       </c>
-      <c r="B47" s="152" t="s">
+      <c r="B47" s="151" t="s">
         <v>925</v>
       </c>
       <c r="C47" s="47" t="s">
@@ -64784,7 +64851,7 @@
       <c r="A48" s="58">
         <v>46</v>
       </c>
-      <c r="B48" s="152" t="s">
+      <c r="B48" s="151" t="s">
         <v>966</v>
       </c>
       <c r="C48" s="47" t="s">
@@ -64807,7 +64874,7 @@
       <c r="A49" s="58">
         <v>47</v>
       </c>
-      <c r="B49" s="156" t="s">
+      <c r="B49" s="155" t="s">
         <v>1211</v>
       </c>
       <c r="C49" s="47" t="s">
@@ -64853,7 +64920,7 @@
       <c r="A51" s="58">
         <v>49</v>
       </c>
-      <c r="B51" s="152" t="s">
+      <c r="B51" s="151" t="s">
         <v>878</v>
       </c>
       <c r="C51" s="47" t="s">
@@ -64873,7 +64940,7 @@
       <c r="A52" s="58">
         <v>50</v>
       </c>
-      <c r="B52" s="152" t="s">
+      <c r="B52" s="151" t="s">
         <v>902</v>
       </c>
       <c r="C52" s="47" t="s">
@@ -65070,7 +65137,7 @@
       <c r="A61" s="58">
         <v>59</v>
       </c>
-      <c r="B61" s="152" t="s">
+      <c r="B61" s="151" t="s">
         <v>1251</v>
       </c>
       <c r="C61" s="47" t="s">
@@ -65091,7 +65158,7 @@
       <c r="A62" s="58">
         <v>60</v>
       </c>
-      <c r="B62" s="152" t="s">
+      <c r="B62" s="151" t="s">
         <v>1252</v>
       </c>
       <c r="C62" s="47" t="s">
@@ -65112,7 +65179,7 @@
       <c r="A63" s="58">
         <v>61</v>
       </c>
-      <c r="B63" s="158" t="s">
+      <c r="B63" s="157" t="s">
         <v>1084</v>
       </c>
       <c r="C63" s="47" t="s">
@@ -65135,7 +65202,7 @@
       <c r="A64" s="58">
         <v>62</v>
       </c>
-      <c r="B64" s="152" t="s">
+      <c r="B64" s="151" t="s">
         <v>1085</v>
       </c>
       <c r="C64" s="47" t="s">
@@ -65158,7 +65225,7 @@
       <c r="A65" s="58">
         <v>63</v>
       </c>
-      <c r="B65" s="160" t="s">
+      <c r="B65" s="159" t="s">
         <v>1259</v>
       </c>
       <c r="C65" s="47" t="s">
@@ -65181,7 +65248,7 @@
       <c r="A66" s="58">
         <v>64</v>
       </c>
-      <c r="B66" s="152" t="s">
+      <c r="B66" s="151" t="s">
         <v>1262</v>
       </c>
       <c r="C66" s="47" t="s">
@@ -65204,7 +65271,7 @@
       <c r="A67" s="58">
         <v>65</v>
       </c>
-      <c r="B67" s="152" t="s">
+      <c r="B67" s="151" t="s">
         <v>1265</v>
       </c>
       <c r="C67" s="47" t="s">
@@ -65227,7 +65294,7 @@
       <c r="A68" s="58">
         <v>66</v>
       </c>
-      <c r="B68" s="152" t="s">
+      <c r="B68" s="151" t="s">
         <v>1268</v>
       </c>
       <c r="C68" s="47" t="s">
@@ -65250,7 +65317,7 @@
       <c r="A69" s="58">
         <v>67</v>
       </c>
-      <c r="B69" s="162" t="s">
+      <c r="B69" s="160" t="s">
         <v>923</v>
       </c>
       <c r="C69" s="47" t="s">
@@ -65271,11 +65338,11 @@
       <c r="A70" s="47">
         <v>68</v>
       </c>
-      <c r="B70" s="152" t="s">
-        <v>1253</v>
+      <c r="B70" s="150" t="s">
+        <v>1218</v>
       </c>
       <c r="C70" s="47" t="s">
-        <v>554</v>
+        <v>282</v>
       </c>
       <c r="D70" s="47"/>
       <c r="E70" s="47" t="s">
@@ -65288,57 +65355,59 @@
       <c r="A71" s="47">
         <v>69</v>
       </c>
-      <c r="B71" s="159" t="s">
-        <v>781</v>
+      <c r="B71" s="151" t="s">
+        <v>1253</v>
       </c>
       <c r="C71" s="47" t="s">
-        <v>798</v>
+        <v>554</v>
       </c>
       <c r="D71" s="47"/>
       <c r="E71" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F71" s="61" t="s">
-        <v>1232</v>
-      </c>
+      <c r="F71" s="43"/>
       <c r="G71" s="47"/>
     </row>
     <row r="72" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="47"/>
-      <c r="B72" s="152" t="s">
-        <v>904</v>
+      <c r="A72" s="47">
+        <v>70</v>
+      </c>
+      <c r="B72" s="158" t="s">
+        <v>781</v>
       </c>
       <c r="C72" s="47" t="s">
-        <v>320</v>
+        <v>798</v>
       </c>
       <c r="D72" s="47"/>
       <c r="E72" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F72" s="43"/>
+      <c r="F72" s="61" t="s">
+        <v>1232</v>
+      </c>
       <c r="G72" s="47"/>
     </row>
     <row r="73" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="47"/>
-      <c r="B73" s="145" t="s">
-        <v>945</v>
+      <c r="A73" s="47">
+        <v>71</v>
+      </c>
+      <c r="B73" s="144" t="s">
+        <v>968</v>
       </c>
       <c r="C73" s="47" t="s">
-        <v>320</v>
+        <v>554</v>
       </c>
       <c r="D73" s="47"/>
       <c r="E73" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F73" s="61" t="s">
-        <v>1155</v>
-      </c>
+      <c r="F73" s="43"/>
       <c r="G73" s="47"/>
     </row>
-    <row r="74" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A74" s="47"/>
-      <c r="B74" s="152" t="s">
-        <v>1011</v>
+      <c r="B74" s="151" t="s">
+        <v>904</v>
       </c>
       <c r="C74" s="47" t="s">
         <v>320</v>
@@ -65353,7 +65422,7 @@
     <row r="75" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="47"/>
       <c r="B75" s="145" t="s">
-        <v>1029</v>
+        <v>945</v>
       </c>
       <c r="C75" s="47" t="s">
         <v>320</v>
@@ -65362,13 +65431,15 @@
       <c r="E75" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F75" s="43"/>
+      <c r="F75" s="61" t="s">
+        <v>1155</v>
+      </c>
       <c r="G75" s="47"/>
     </row>
     <row r="76" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="47"/>
-      <c r="B76" s="145" t="s">
-        <v>1030</v>
+      <c r="B76" s="151" t="s">
+        <v>1011</v>
       </c>
       <c r="C76" s="47" t="s">
         <v>320</v>
@@ -65382,11 +65453,11 @@
     </row>
     <row r="77" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="47"/>
-      <c r="B77" s="152" t="s">
-        <v>866</v>
+      <c r="B77" s="145" t="s">
+        <v>1029</v>
       </c>
       <c r="C77" s="47" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D77" s="47"/>
       <c r="E77" s="47" t="s">
@@ -65397,11 +65468,11 @@
     </row>
     <row r="78" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="47"/>
-      <c r="B78" s="144" t="s">
-        <v>895</v>
+      <c r="B78" s="145" t="s">
+        <v>1030</v>
       </c>
       <c r="C78" s="47" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D78" s="47"/>
       <c r="E78" s="47" t="s">
@@ -65412,8 +65483,8 @@
     </row>
     <row r="79" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="47"/>
-      <c r="B79" s="152" t="s">
-        <v>900</v>
+      <c r="B79" s="151" t="s">
+        <v>866</v>
       </c>
       <c r="C79" s="47" t="s">
         <v>282</v>
@@ -65428,7 +65499,7 @@
     <row r="80" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="47"/>
       <c r="B80" s="144" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="C80" s="47" t="s">
         <v>282</v>
@@ -65442,8 +65513,8 @@
     </row>
     <row r="81" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="47"/>
-      <c r="B81" s="146" t="s">
-        <v>90</v>
+      <c r="B81" s="151" t="s">
+        <v>900</v>
       </c>
       <c r="C81" s="47" t="s">
         <v>282</v>
@@ -65456,24 +65527,24 @@
       <c r="G81" s="47"/>
     </row>
     <row r="82" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="121"/>
-      <c r="B82" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="C82" s="121" t="s">
-        <v>282</v>
-      </c>
-      <c r="D82" s="121"/>
-      <c r="E82" s="121"/>
-      <c r="F82" s="122" t="s">
-        <v>835</v>
-      </c>
-      <c r="G82" s="153"/>
+      <c r="A82" s="47"/>
+      <c r="B82" s="144" t="s">
+        <v>901</v>
+      </c>
+      <c r="C82" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F82" s="43"/>
+      <c r="G82" s="47"/>
     </row>
     <row r="83" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="47"/>
-      <c r="B83" s="144" t="s">
-        <v>762</v>
+      <c r="B83" s="146" t="s">
+        <v>90</v>
       </c>
       <c r="C83" s="47" t="s">
         <v>282</v>
@@ -65486,24 +65557,24 @@
       <c r="G83" s="47"/>
     </row>
     <row r="84" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="47"/>
-      <c r="B84" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F84" s="43"/>
-      <c r="G84" s="47"/>
+      <c r="A84" s="121"/>
+      <c r="B84" s="142" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84" s="121" t="s">
+        <v>282</v>
+      </c>
+      <c r="D84" s="121"/>
+      <c r="E84" s="121"/>
+      <c r="F84" s="122" t="s">
+        <v>835</v>
+      </c>
+      <c r="G84" s="152"/>
     </row>
     <row r="85" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="47"/>
-      <c r="B85" s="145" t="s">
-        <v>81</v>
+      <c r="B85" s="144" t="s">
+        <v>762</v>
       </c>
       <c r="C85" s="47" t="s">
         <v>282</v>
@@ -65517,8 +65588,8 @@
     </row>
     <row r="86" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="47"/>
-      <c r="B86" s="158" t="s">
-        <v>929</v>
+      <c r="B86" s="51" t="s">
+        <v>82</v>
       </c>
       <c r="C86" s="47" t="s">
         <v>282</v>
@@ -65532,8 +65603,8 @@
     </row>
     <row r="87" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="47"/>
-      <c r="B87" s="152" t="s">
-        <v>933</v>
+      <c r="B87" s="145" t="s">
+        <v>81</v>
       </c>
       <c r="C87" s="47" t="s">
         <v>282</v>
@@ -65547,8 +65618,8 @@
     </row>
     <row r="88" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="47"/>
-      <c r="B88" s="51" t="s">
-        <v>938</v>
+      <c r="B88" s="157" t="s">
+        <v>929</v>
       </c>
       <c r="C88" s="47" t="s">
         <v>282</v>
@@ -65562,8 +65633,8 @@
     </row>
     <row r="89" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="47"/>
-      <c r="B89" s="152" t="s">
-        <v>939</v>
+      <c r="B89" s="151" t="s">
+        <v>933</v>
       </c>
       <c r="C89" s="47" t="s">
         <v>282</v>
@@ -65578,7 +65649,7 @@
     <row r="90" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="47"/>
       <c r="B90" s="51" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C90" s="47" t="s">
         <v>282</v>
@@ -65590,10 +65661,10 @@
       <c r="F90" s="43"/>
       <c r="G90" s="47"/>
     </row>
-    <row r="91" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A91" s="47"/>
-      <c r="B91" s="51" t="s">
-        <v>941</v>
+      <c r="B91" s="151" t="s">
+        <v>939</v>
       </c>
       <c r="C91" s="47" t="s">
         <v>282</v>
@@ -65607,8 +65678,8 @@
     </row>
     <row r="92" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="47"/>
-      <c r="B92" s="152" t="s">
-        <v>942</v>
+      <c r="B92" s="51" t="s">
+        <v>940</v>
       </c>
       <c r="C92" s="47" t="s">
         <v>282</v>
@@ -65622,8 +65693,8 @@
     </row>
     <row r="93" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="47"/>
-      <c r="B93" s="145" t="s">
-        <v>737</v>
+      <c r="B93" s="51" t="s">
+        <v>941</v>
       </c>
       <c r="C93" s="47" t="s">
         <v>282</v>
@@ -65637,8 +65708,8 @@
     </row>
     <row r="94" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="47"/>
-      <c r="B94" s="152" t="s">
-        <v>957</v>
+      <c r="B94" s="151" t="s">
+        <v>942</v>
       </c>
       <c r="C94" s="47" t="s">
         <v>282</v>
@@ -65653,7 +65724,7 @@
     <row r="95" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="47"/>
       <c r="B95" s="145" t="s">
-        <v>958</v>
+        <v>737</v>
       </c>
       <c r="C95" s="47" t="s">
         <v>282</v>
@@ -65667,8 +65738,8 @@
     </row>
     <row r="96" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="47"/>
-      <c r="B96" s="152" t="s">
-        <v>964</v>
+      <c r="B96" s="151" t="s">
+        <v>957</v>
       </c>
       <c r="C96" s="47" t="s">
         <v>282</v>
@@ -65682,8 +65753,8 @@
     </row>
     <row r="97" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="47"/>
-      <c r="B97" s="152" t="s">
-        <v>991</v>
+      <c r="B97" s="145" t="s">
+        <v>958</v>
       </c>
       <c r="C97" s="47" t="s">
         <v>282</v>
@@ -65697,8 +65768,8 @@
     </row>
     <row r="98" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="47"/>
-      <c r="B98" s="51" t="s">
-        <v>139</v>
+      <c r="B98" s="151" t="s">
+        <v>964</v>
       </c>
       <c r="C98" s="47" t="s">
         <v>282</v>
@@ -65712,8 +65783,8 @@
     </row>
     <row r="99" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
-      <c r="B99" s="51" t="s">
-        <v>1002</v>
+      <c r="B99" s="151" t="s">
+        <v>991</v>
       </c>
       <c r="C99" s="47" t="s">
         <v>282</v>
@@ -65725,10 +65796,10 @@
       <c r="F99" s="43"/>
       <c r="G99" s="47"/>
     </row>
-    <row r="100" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A100" s="47"/>
       <c r="B100" s="51" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="C100" s="47" t="s">
         <v>282</v>
@@ -65742,8 +65813,8 @@
     </row>
     <row r="101" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="47"/>
-      <c r="B101" s="148" t="s">
-        <v>1021</v>
+      <c r="B101" s="51" t="s">
+        <v>1002</v>
       </c>
       <c r="C101" s="47" t="s">
         <v>282</v>
@@ -65757,8 +65828,8 @@
     </row>
     <row r="102" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="47"/>
-      <c r="B102" s="145" t="s">
-        <v>58</v>
+      <c r="B102" s="51" t="s">
+        <v>88</v>
       </c>
       <c r="C102" s="47" t="s">
         <v>282</v>
@@ -65772,8 +65843,8 @@
     </row>
     <row r="103" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="47"/>
-      <c r="B103" s="144" t="s">
-        <v>1053</v>
+      <c r="B103" s="148" t="s">
+        <v>1021</v>
       </c>
       <c r="C103" s="47" t="s">
         <v>282</v>
@@ -65788,7 +65859,7 @@
     <row r="104" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="47"/>
       <c r="B104" s="145" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C104" s="47" t="s">
         <v>282</v>
@@ -65802,8 +65873,8 @@
     </row>
     <row r="105" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="47"/>
-      <c r="B105" s="51" t="s">
-        <v>1054</v>
+      <c r="B105" s="144" t="s">
+        <v>1053</v>
       </c>
       <c r="C105" s="47" t="s">
         <v>282</v>
@@ -65815,10 +65886,10 @@
       <c r="F105" s="43"/>
       <c r="G105" s="47"/>
     </row>
-    <row r="106" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="47"/>
-      <c r="B106" s="148" t="s">
-        <v>1066</v>
+      <c r="B106" s="145" t="s">
+        <v>69</v>
       </c>
       <c r="C106" s="47" t="s">
         <v>282</v>
@@ -65832,8 +65903,8 @@
     </row>
     <row r="107" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="47"/>
-      <c r="B107" s="152" t="s">
-        <v>188</v>
+      <c r="B107" s="51" t="s">
+        <v>1054</v>
       </c>
       <c r="C107" s="47" t="s">
         <v>282</v>
@@ -65842,15 +65913,13 @@
       <c r="E107" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F107" s="47" t="s">
-        <v>848</v>
-      </c>
+      <c r="F107" s="43"/>
       <c r="G107" s="47"/>
     </row>
     <row r="108" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="47"/>
-      <c r="B108" s="145" t="s">
-        <v>80</v>
+      <c r="B108" s="148" t="s">
+        <v>1066</v>
       </c>
       <c r="C108" s="47" t="s">
         <v>282</v>
@@ -65865,7 +65934,7 @@
     <row r="109" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="47"/>
       <c r="B109" s="151" t="s">
-        <v>1218</v>
+        <v>188</v>
       </c>
       <c r="C109" s="47" t="s">
         <v>282</v>
@@ -65874,16 +65943,18 @@
       <c r="E109" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F109" s="43"/>
+      <c r="F109" s="47" t="s">
+        <v>848</v>
+      </c>
       <c r="G109" s="47"/>
     </row>
     <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="47"/>
       <c r="B110" s="145" t="s">
-        <v>794</v>
+        <v>80</v>
       </c>
       <c r="C110" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D110" s="47"/>
       <c r="E110" s="47" t="s">
@@ -65892,10 +65963,10 @@
       <c r="F110" s="43"/>
       <c r="G110" s="47"/>
     </row>
-    <row r="111" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="47"/>
-      <c r="B111" s="152" t="s">
-        <v>769</v>
+      <c r="B111" s="145" t="s">
+        <v>794</v>
       </c>
       <c r="C111" s="47" t="s">
         <v>798</v>
@@ -65909,8 +65980,8 @@
     </row>
     <row r="112" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="47"/>
-      <c r="B112" s="143" t="s">
-        <v>775</v>
+      <c r="B112" s="151" t="s">
+        <v>769</v>
       </c>
       <c r="C112" s="47" t="s">
         <v>798</v>
@@ -65922,10 +65993,10 @@
       <c r="F112" s="43"/>
       <c r="G112" s="47"/>
     </row>
-    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="47"/>
-      <c r="B113" s="145" t="s">
-        <v>783</v>
+      <c r="B113" s="143" t="s">
+        <v>775</v>
       </c>
       <c r="C113" s="47" t="s">
         <v>798</v>
@@ -65939,8 +66010,8 @@
     </row>
     <row r="114" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="47"/>
-      <c r="B114" s="144" t="s">
-        <v>768</v>
+      <c r="B114" s="145" t="s">
+        <v>783</v>
       </c>
       <c r="C114" s="47" t="s">
         <v>798</v>
@@ -65949,30 +66020,30 @@
       <c r="E114" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F114" s="43" t="s">
-        <v>846</v>
-      </c>
+      <c r="F114" s="43"/>
       <c r="G114" s="47"/>
     </row>
     <row r="115" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="47"/>
       <c r="B115" s="144" t="s">
-        <v>865</v>
+        <v>768</v>
       </c>
       <c r="C115" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D115" s="47"/>
       <c r="E115" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F115" s="43"/>
+      <c r="F115" s="43" t="s">
+        <v>846</v>
+      </c>
       <c r="G115" s="47"/>
     </row>
-    <row r="116" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A116" s="47"/>
-      <c r="B116" s="152" t="s">
-        <v>935</v>
+      <c r="B116" s="144" t="s">
+        <v>865</v>
       </c>
       <c r="C116" s="47" t="s">
         <v>554</v>
@@ -65986,8 +66057,8 @@
     </row>
     <row r="117" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="47"/>
-      <c r="B117" s="152" t="s">
-        <v>936</v>
+      <c r="B117" s="151" t="s">
+        <v>935</v>
       </c>
       <c r="C117" s="47" t="s">
         <v>554</v>
@@ -66001,8 +66072,8 @@
     </row>
     <row r="118" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="47"/>
-      <c r="B118" s="144" t="s">
-        <v>937</v>
+      <c r="B118" s="151" t="s">
+        <v>936</v>
       </c>
       <c r="C118" s="47" t="s">
         <v>554</v>
@@ -66014,10 +66085,10 @@
       <c r="F118" s="43"/>
       <c r="G118" s="47"/>
     </row>
-    <row r="119" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A119" s="47"/>
       <c r="B119" s="144" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="C119" s="47" t="s">
         <v>554</v>
@@ -66032,7 +66103,7 @@
     <row r="120" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="47"/>
       <c r="B120" s="144" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C120" s="47" t="s">
         <v>554</v>
@@ -66047,7 +66118,7 @@
     <row r="121" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A121" s="47"/>
       <c r="B121" s="144" t="s">
-        <v>960</v>
+        <v>944</v>
       </c>
       <c r="C121" s="47" t="s">
         <v>554</v>
@@ -66062,7 +66133,7 @@
     <row r="122" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A122" s="47"/>
       <c r="B122" s="144" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C122" s="47" t="s">
         <v>554</v>
@@ -66076,7 +66147,7 @@
     </row>
     <row r="123" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A123" s="46"/>
-      <c r="B123" s="154" t="s">
+      <c r="B123" s="153" t="s">
         <v>985</v>
       </c>
       <c r="C123" s="46" t="s">

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="16380" windowHeight="8070" tabRatio="987" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7515" tabRatio="987" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="WoS" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">' Step 2'!$A$2:$D$526</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">' Step 3'!$A$2:$C$344</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$126</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -191,11 +191,10 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Martin R. Vasilev</author>
     <author>Martin,Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -203,23 +202,23 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
-          <t>Martin R. Vasilev:</t>
+          <t>Martin,Vasilev:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-NA means it wasn't excluded</t>
+Orange colouring means that the study had data that is eligible for inclusion, but effect sizes cannot be calculated due to reporting bias</t>
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="1" shapeId="0">
+    <comment ref="F9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -243,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="1" shapeId="0">
+    <comment ref="F12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -267,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="1" shapeId="0">
+    <comment ref="G21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -292,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="1" shapeId="0">
+    <comment ref="G22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -320,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G41" authorId="1" shapeId="0">
+    <comment ref="G41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G60" authorId="1" shapeId="0">
+    <comment ref="G60" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -372,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="1" shapeId="0">
+    <comment ref="B62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -397,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F63" authorId="1" shapeId="0">
+    <comment ref="F63" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -421,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="1" shapeId="0">
+    <comment ref="B67" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -446,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B68" authorId="1" shapeId="0">
+    <comment ref="B68" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -471,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D69" authorId="1" shapeId="0">
+    <comment ref="D69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -495,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G69" authorId="1" shapeId="0">
+    <comment ref="G69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -519,7 +518,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="B95" authorId="0" shapeId="0">
+    <comment ref="G70" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+The descriptive statistics and ANOVAS are reported only for each personality group, but there is no way to get to the descriptives of every participant who took part in the study (n= 178). Basically, since each participants fell into more than one personality group, any averaging over the personality groups will produce big confounds because the score of each participant will be used multiple times to calculate the effect size. Also, the very big sample size that will result from this will not be the actual number of people who took part in the study. This will make the study have a much bigger influence in a meta-analysis because it will have a way bigger precision than it actually did. The only way out of this is to have the actual raw data. However, both authors seem to be out of academia (1st author appears to have been an (undergraduate?) student, while the second author seems to have retired). 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G71" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -529,7 +553,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Martin R. Vasilev:</t>
+          <t>Martin,Vasilev:</t>
         </r>
         <r>
           <rPr>
@@ -539,8 +563,129 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-full-text found
+study is too old to get the data
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D72" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+not fully-factorial design</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F73" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+One issue in this experiment is how to classify the sound conditions. One complication is that participants were free to change radio stations and TV channels. However, based on the description in the paper, it appears that the radio can be best classified as background music and TV as background speech.  </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F77" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+both background sounds here classify as speech
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D79" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Instruction was also varied for the participants who completed the task with the TV on (ignore the TV , allowed to watch it occasionally). </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B84" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Experiment 5 did not have a proofreading task</t>
         </r>
       </text>
     </comment>
@@ -618,7 +763,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4990" uniqueCount="1277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5035" uniqueCount="1312">
   <si>
     <t>ID</t>
   </si>
@@ -36428,9 +36573,6 @@
     <t>age of participants is not mentioned, but I assume that they were adults given that they were undergraduates</t>
   </si>
   <si>
-    <t>music type unknown; SDs nor reported</t>
-  </si>
-  <si>
     <t>2(background: semi-classical music, silence)</t>
   </si>
   <si>
@@ -37231,6 +37373,522 @@
   </si>
   <si>
     <t xml:space="preserve"> 4 (background: silence (?), negatively-affective, possitively-affective, ambiguously affective music)</t>
+  </si>
+  <si>
+    <t>same sample &amp; test as another (bigger) study?</t>
+  </si>
+  <si>
+    <t>2 (background: silence, speech)</t>
+  </si>
+  <si>
+    <t>impossible to extract effect sizes or to get in touch with the authors</t>
+  </si>
+  <si>
+    <t>it can be deduced that there were 16 participants per schedule (2 groups of 8)</t>
+  </si>
+  <si>
+    <r>
+      <t>Gawron, V. J. (1984). Noise: Effect and aftereffect. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ergonomics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(1), 5-18. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment 1</t>
+    </r>
+  </si>
+  <si>
+    <t>lack of reported means for the different exposure conditions  makes it impossible to know the direction of the effect size</t>
+  </si>
+  <si>
+    <t>neither descriptives nor test statistics are reported</t>
+  </si>
+  <si>
+    <t>3 (background: silence, average noise, noisy) x  2(situation: classroom, experimental) x 2(task: homework, test)</t>
+  </si>
+  <si>
+    <r>
+      <t>Cool, V. A., Yarbrough, D. B., Patton, J. E., Runde, R., &amp; Keith, T. Z. (1994). Experimental effects of radio and television distractors on children's performance on mathematics and reading assignments. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The Journal of experimental education</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>62</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3), 181-194.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Experiment 2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (task difficulty: easy, less easy) x 3 (background: silence, radio TV) </t>
+  </si>
+  <si>
+    <t>impossible to calculate effect sizes- only % increase is reported, but no variance or test statistics</t>
+  </si>
+  <si>
+    <t>music type unknown; SDs not reported</t>
+  </si>
+  <si>
+    <t>2 (background: high noise, low noise) x 4 (restoration: movie, river, silence, noise)</t>
+  </si>
+  <si>
+    <t>2 (background: silence, music)</t>
+  </si>
+  <si>
+    <t>Only qualitative description of results, no descriptives or test statistics are reported; no silence baseline</t>
+  </si>
+  <si>
+    <t>the variety program is not coded as it is not very clear what it contained and how it should be classified</t>
+  </si>
+  <si>
+    <t>3 (background: silence, variety radio program, music radio program)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (comprehension assessment: immediate, after a 5-min intervening task) x 3(background: silence, TV drama, TV ads)  </t>
+  </si>
+  <si>
+    <t>I average out the two assessment conditions because 5-min delay is not untypical and has been used in a number of other studies that were included</t>
+  </si>
+  <si>
+    <t>the other armstring paper (also add in all previous tabs!!!!)</t>
+  </si>
+  <si>
+    <t>2 (task: easy, difficult)  x3 (background: silence, music videos, soap opera)</t>
+  </si>
+  <si>
+    <t>task difficulty is averaged out</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pool, M. M., Koolstra, C. M., &amp; Voort, T. H. (2003). The impact of background radio and television on high school students' homework performance. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Journal of Communication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(1), 74-87. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pool, M. M., Van der Voort, T. H., Beentjes, J. W., &amp; Koolstra, C. M. (2000). Background television as an inhibitor of performance on easy and difficult homework assignments. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Communication Research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(3), 293-326. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pool, M. M., Van der Voort, T. H., Beentjes, J. W., &amp; Koolstra, C. M. (2000). Background television as an inhibitor of performance on easy and difficult homework assignments. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Communication Research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(3), 293-326. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment 2</t>
+    </r>
+  </si>
+  <si>
+    <t>4 (background: silence, soap opera, music videos, music radios) x 2 (assignment: paper-and-pencil, memory task)</t>
+  </si>
+  <si>
+    <t>the dependent measure is confounded here as the reading task also contained foreign language reading tests (English); it's impossible to get the ES for dutch texts only</t>
+  </si>
+  <si>
+    <r>
+      <t>Jones, D. M., Miles, C., &amp; Page, J. (1990). Disruption of proofreading by irrelevant speech: Effects of attention, arousal or memory?. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Applied Cognitive Psychology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), 89-108.,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Experiment 1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 (background: native speech, reversed native speech) x 2 (sound intensity: 50 dBA, 70 dBA)</t>
+  </si>
+  <si>
+    <r>
+      <t>Jones, D. M., Miles, C., &amp; Page, J. (1990). Disruption of proofreading by irrelevant speech: Effects of attention, arousal or memory?. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Applied Cognitive Psychology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), 89-108.,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Experiment 2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 (background: silence, reversed native speech)</t>
+  </si>
+  <si>
+    <t>impossible to calculate effect sizes- only means and descriptive summary of results (i.e. not sign.)</t>
+  </si>
+  <si>
+    <r>
+      <t>Jones, D. M., Miles, C., &amp; Page, J. (1990). Disruption of proofreading by irrelevant speech: Effects of attention, arousal or memory?. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Applied Cognitive Psychology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), 89-108.,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Experiment 3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 (background: Binaural , Stereophonic,  moving voice or stationary voice speech)</t>
+  </si>
+  <si>
+    <r>
+      <t>Jones, D. M., Miles, C., &amp; Page, J. (1990). Disruption of proofreading by irrelevant speech: Effects of attention, arousal or memory?. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Applied Cognitive Psychology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), 89-108.,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Experiment 4</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 (background: native speech, reversed native speech) x 2 (lines of display: 1, 5)</t>
   </si>
   <si>
     <t>2(background: silence, speech)</t>
@@ -37255,7 +37913,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="64" x14ac:knownFonts="1">
+  <fonts count="65" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -37712,6 +38370,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="18">
     <fill>
@@ -37867,7 +38531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -38308,14 +38972,23 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -50454,14 +51127,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="161"/>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
+      <c r="A1" s="164"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -51205,7 +51878,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>320</v>
@@ -51216,7 +51889,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
   </sheetData>
@@ -53952,7 +54625,7 @@
     </row>
     <row r="195" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B195" s="10" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C195" s="12" t="s">
         <v>282</v>
@@ -58597,7 +59270,7 @@
     </row>
     <row r="527" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B527" s="10" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C527" s="12" t="s">
         <v>320</v>
@@ -58623,8 +59296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E344"/>
   <sheetViews>
-    <sheetView topLeftCell="A293" workbookViewId="0">
-      <selection activeCell="B301" sqref="B301"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59084,14 +59757,14 @@
       <c r="A31" s="58">
         <v>29</v>
       </c>
-      <c r="B31" s="126" t="s">
+      <c r="B31" s="128" t="s">
         <v>794</v>
       </c>
       <c r="C31" s="58" t="s">
         <v>798</v>
       </c>
       <c r="D31" s="58" t="s">
-        <v>479</v>
+        <v>1222</v>
       </c>
       <c r="E31" s="17"/>
     </row>
@@ -59297,13 +59970,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="128" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C45" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D45" s="58" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E45" s="58"/>
     </row>
@@ -60411,7 +61084,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C119" s="58" t="s">
         <v>282</v>
@@ -60854,7 +61527,7 @@
         <v>554</v>
       </c>
       <c r="D148" s="60" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E148" s="17"/>
     </row>
@@ -61253,7 +61926,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="119" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C175" s="58" t="s">
         <v>282</v>
@@ -61947,7 +62620,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="20" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C221" s="58" t="s">
         <v>320</v>
@@ -62097,7 +62770,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="119" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C231" s="58" t="s">
         <v>554</v>
@@ -62187,7 +62860,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="119" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C237" s="58" t="s">
         <v>798</v>
@@ -63005,7 +63678,7 @@
         <v>798</v>
       </c>
       <c r="D291" s="58" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E291" s="17"/>
     </row>
@@ -63035,7 +63708,7 @@
         <v>282</v>
       </c>
       <c r="D293" s="58" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E293" s="17"/>
     </row>
@@ -63151,13 +63824,13 @@
         <v>299</v>
       </c>
       <c r="B301" s="119" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C301" s="58" t="s">
         <v>554</v>
       </c>
       <c r="D301" s="58" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E301" s="17"/>
     </row>
@@ -63256,13 +63929,13 @@
         <v>306</v>
       </c>
       <c r="B308" s="119" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C308" s="58" t="s">
         <v>282</v>
       </c>
       <c r="D308" s="58" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E308" s="17"/>
     </row>
@@ -63669,10 +64342,10 @@
         <v>320</v>
       </c>
       <c r="D335" s="60" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E335" s="58" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -63822,10 +64495,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63877,13 +64550,13 @@
         <v>554</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>1271</v>
+        <v>1306</v>
       </c>
       <c r="E3" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>1272</v>
+        <v>1307</v>
       </c>
       <c r="G3" s="47" t="s">
         <v>479</v>
@@ -63900,7 +64573,7 @@
         <v>554</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>1273</v>
+        <v>1308</v>
       </c>
       <c r="E4" s="58" t="s">
         <v>1127</v>
@@ -63914,20 +64587,20 @@
       <c r="A5" s="58">
         <v>3</v>
       </c>
-      <c r="B5" s="162" t="s">
+      <c r="B5" s="165" t="s">
         <v>517</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>1274</v>
+        <v>1309</v>
       </c>
       <c r="E5" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>1275</v>
+        <v>1310</v>
       </c>
       <c r="G5" s="47" t="s">
         <v>479</v>
@@ -63944,7 +64617,7 @@
         <v>320</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>1276</v>
+        <v>1311</v>
       </c>
       <c r="E6" s="58" t="s">
         <v>1127</v>
@@ -64256,7 +64929,7 @@
         <v>320</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E20" s="58" t="s">
         <v>1127</v>
@@ -64277,13 +64950,13 @@
         <v>320</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E21" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F21" s="154" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="G21" s="47" t="s">
         <v>479</v>
@@ -64300,14 +64973,14 @@
         <v>320</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E22" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F22" s="43"/>
       <c r="G22" s="61" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -64315,19 +64988,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="155" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D23" s="61" t="s">
         <v>1162</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D23" s="61" t="s">
-        <v>1163</v>
       </c>
       <c r="E23" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F23" s="156" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>479</v>
@@ -64344,13 +65017,13 @@
         <v>320</v>
       </c>
       <c r="D24" s="61" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E24" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F24" s="61" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G24" s="47" t="s">
         <v>479</v>
@@ -64367,13 +65040,13 @@
         <v>320</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E25" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F25" s="61" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="G25" s="47" t="s">
         <v>479</v>
@@ -64390,7 +65063,7 @@
         <v>320</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E26" s="58" t="s">
         <v>1127</v>
@@ -64411,14 +65084,14 @@
         <v>282</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E27" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F27" s="43"/>
       <c r="G27" s="61" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -64432,14 +65105,14 @@
         <v>320</v>
       </c>
       <c r="D28" s="61" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E28" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F28" s="47"/>
       <c r="G28" s="47" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -64453,14 +65126,14 @@
         <v>320</v>
       </c>
       <c r="D29" s="61" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E29" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F29" s="43"/>
       <c r="G29" s="61" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -64474,14 +65147,14 @@
         <v>320</v>
       </c>
       <c r="D30" s="61" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E30" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F30" s="43"/>
       <c r="G30" s="61" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -64500,7 +65173,7 @@
       </c>
       <c r="F31" s="43"/>
       <c r="G31" s="61" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -64514,14 +65187,14 @@
         <v>320</v>
       </c>
       <c r="D32" s="61" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E32" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F32" s="61"/>
       <c r="G32" s="61" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -64529,7 +65202,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="145" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C33" s="47" t="s">
         <v>320</v>
@@ -64542,7 +65215,7 @@
       </c>
       <c r="F33" s="43"/>
       <c r="G33" s="61" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -64556,14 +65229,14 @@
         <v>320</v>
       </c>
       <c r="D34" s="61" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E34" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F34" s="43"/>
       <c r="G34" s="61" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -64577,14 +65250,14 @@
         <v>320</v>
       </c>
       <c r="D35" s="61" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E35" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F35" s="43"/>
       <c r="G35" s="61" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -64598,14 +65271,14 @@
         <v>320</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E36" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F36" s="43"/>
       <c r="G36" s="61" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -64619,14 +65292,14 @@
         <v>320</v>
       </c>
       <c r="D37" s="61" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E37" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F37" s="43"/>
       <c r="G37" s="61" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -64640,14 +65313,14 @@
         <v>320</v>
       </c>
       <c r="D38" s="61" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E38" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F38" s="43"/>
       <c r="G38" s="61" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -64661,14 +65334,14 @@
         <v>320</v>
       </c>
       <c r="D39" s="61" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E39" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F39" s="43"/>
       <c r="G39" s="61" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -64682,13 +65355,13 @@
         <v>320</v>
       </c>
       <c r="D40" s="61" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E40" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F40" s="61" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="G40" s="47" t="s">
         <v>479</v>
@@ -64705,14 +65378,14 @@
         <v>320</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E41" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F41" s="43"/>
       <c r="G41" s="61" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -64726,13 +65399,13 @@
         <v>320</v>
       </c>
       <c r="D42" s="61" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E42" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F42" s="61" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="G42" s="47" t="s">
         <v>479</v>
@@ -64743,19 +65416,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="147" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C43" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D43" s="61" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E43" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F43" s="65" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="G43" s="61" t="s">
         <v>479</v>
@@ -64766,7 +65439,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="145" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C44" s="47" t="s">
         <v>320</v>
@@ -64779,7 +65452,7 @@
       </c>
       <c r="F44" s="53"/>
       <c r="G44" s="61" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -64793,14 +65466,14 @@
         <v>320</v>
       </c>
       <c r="D45" s="61" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E45" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F45" s="61"/>
       <c r="G45" s="61" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -64814,14 +65487,14 @@
         <v>282</v>
       </c>
       <c r="D46" s="61" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E46" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F46" s="43"/>
       <c r="G46" s="47" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -64835,13 +65508,13 @@
         <v>554</v>
       </c>
       <c r="D47" s="61" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E47" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F47" s="61" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="G47" s="47" t="s">
         <v>479</v>
@@ -64858,13 +65531,13 @@
         <v>282</v>
       </c>
       <c r="D48" s="61" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E48" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F48" s="61" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G48" s="47" t="s">
         <v>479</v>
@@ -64875,19 +65548,19 @@
         <v>47</v>
       </c>
       <c r="B49" s="155" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D49" s="61" t="s">
         <v>1211</v>
-      </c>
-      <c r="C49" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D49" s="61" t="s">
-        <v>1212</v>
       </c>
       <c r="E49" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F49" s="61" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="G49" s="47" t="s">
         <v>479</v>
@@ -64904,13 +65577,13 @@
         <v>798</v>
       </c>
       <c r="D50" s="61" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E50" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F50" s="61" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="G50" s="47" t="s">
         <v>479</v>
@@ -64927,13 +65600,13 @@
         <v>282</v>
       </c>
       <c r="D51" s="61" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E51" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="G51" s="61" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -64947,14 +65620,14 @@
         <v>282</v>
       </c>
       <c r="D52" s="61" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E52" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F52" s="43"/>
       <c r="G52" s="61" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -64968,13 +65641,13 @@
         <v>320</v>
       </c>
       <c r="D53" s="61" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E53" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F53" s="61" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G53" s="12" t="s">
         <v>479</v>
@@ -64991,13 +65664,13 @@
         <v>320</v>
       </c>
       <c r="D54" s="61" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E54" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F54" s="65" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="G54" s="47" t="s">
         <v>479</v>
@@ -65014,16 +65687,16 @@
         <v>798</v>
       </c>
       <c r="D55" s="61" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E55" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F55" s="65" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="G55" s="61" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -65037,14 +65710,14 @@
         <v>798</v>
       </c>
       <c r="D56" s="61" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E56" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F56" s="43"/>
       <c r="G56" s="61" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -65058,14 +65731,14 @@
         <v>282</v>
       </c>
       <c r="D57" s="47" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E57" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F57" s="43"/>
       <c r="G57" s="61" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -65079,14 +65752,14 @@
         <v>554</v>
       </c>
       <c r="D58" s="61" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E58" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F58" s="43"/>
       <c r="G58" s="61" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -65100,16 +65773,16 @@
         <v>320</v>
       </c>
       <c r="D59" s="61" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E59" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F59" s="61" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="G59" s="47" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -65123,14 +65796,14 @@
         <v>320</v>
       </c>
       <c r="D60" s="62" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E60" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F60" s="43"/>
       <c r="G60" s="47" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -65138,20 +65811,20 @@
         <v>59</v>
       </c>
       <c r="B61" s="151" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C61" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D61" s="61" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E61" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F61" s="43"/>
       <c r="G61" s="61" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -65159,20 +65832,20 @@
         <v>60</v>
       </c>
       <c r="B62" s="151" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C62" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D62" s="61" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E62" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F62" s="43"/>
       <c r="G62" s="61" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -65186,13 +65859,13 @@
         <v>282</v>
       </c>
       <c r="D63" s="61" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E63" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F63" s="61" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="G63" s="47" t="s">
         <v>479</v>
@@ -65209,13 +65882,13 @@
         <v>282</v>
       </c>
       <c r="D64" s="61" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E64" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F64" s="65" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G64" s="47" t="s">
         <v>479</v>
@@ -65225,20 +65898,20 @@
       <c r="A65" s="58">
         <v>63</v>
       </c>
-      <c r="B65" s="159" t="s">
-        <v>1259</v>
+      <c r="B65" s="158" t="s">
+        <v>1258</v>
       </c>
       <c r="C65" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D65" s="61" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E65" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F65" s="61" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G65" s="47" t="s">
         <v>479</v>
@@ -65249,19 +65922,19 @@
         <v>64</v>
       </c>
       <c r="B66" s="151" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C66" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D66" s="61" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E66" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F66" s="61" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="G66" s="47" t="s">
         <v>479</v>
@@ -65272,19 +65945,19 @@
         <v>65</v>
       </c>
       <c r="B67" s="151" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C67" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D67" s="61" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E67" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F67" s="61" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="G67" s="47" t="s">
         <v>479</v>
@@ -65295,19 +65968,19 @@
         <v>66</v>
       </c>
       <c r="B68" s="151" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C68" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D68" s="61" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="E68" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F68" s="61" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="G68" s="47" t="s">
         <v>479</v>
@@ -65317,267 +65990,359 @@
       <c r="A69" s="58">
         <v>67</v>
       </c>
-      <c r="B69" s="160" t="s">
+      <c r="B69" s="159" t="s">
         <v>923</v>
       </c>
       <c r="C69" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D69" s="61" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E69" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F69" s="43"/>
       <c r="G69" s="47" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="47">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="58">
         <v>68</v>
       </c>
       <c r="B70" s="150" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C70" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47" t="s">
-        <v>479</v>
+      <c r="D70" s="61" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E70" s="46" t="s">
+        <v>1134</v>
       </c>
       <c r="F70" s="43"/>
-      <c r="G70" s="47"/>
-    </row>
-    <row r="71" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="47">
+      <c r="G70" s="61" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="58">
         <v>69</v>
       </c>
-      <c r="B71" s="151" t="s">
-        <v>1253</v>
+      <c r="B71" s="160" t="s">
+        <v>1274</v>
       </c>
       <c r="C71" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F71" s="43"/>
-      <c r="G71" s="47"/>
-    </row>
-    <row r="72" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="47">
+        <v>282</v>
+      </c>
+      <c r="E71" s="46" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F71" s="61" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G71" s="61" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="58">
         <v>70</v>
       </c>
-      <c r="B72" s="158" t="s">
+      <c r="B72" s="161" t="s">
         <v>781</v>
       </c>
       <c r="C72" s="47" t="s">
         <v>798</v>
       </c>
-      <c r="D72" s="47"/>
-      <c r="E72" s="47" t="s">
+      <c r="D72" s="61" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E72" s="46" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F72" s="61" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G72" s="61" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="58">
+        <v>71</v>
+      </c>
+      <c r="B73" s="151" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C73" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D73" s="61" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E73" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F73" s="61" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G73" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F72" s="61" t="s">
-        <v>1232</v>
-      </c>
-      <c r="G72" s="47"/>
-    </row>
-    <row r="73" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="47">
-        <v>71</v>
-      </c>
-      <c r="B73" s="144" t="s">
-        <v>968</v>
-      </c>
-      <c r="C73" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="D73" s="47"/>
-      <c r="E73" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F73" s="43"/>
-      <c r="G73" s="47"/>
-    </row>
-    <row r="74" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A74" s="47"/>
-      <c r="B74" s="151" t="s">
-        <v>904</v>
+    </row>
+    <row r="74" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="58">
+        <v>72</v>
+      </c>
+      <c r="B74" s="145" t="s">
+        <v>945</v>
       </c>
       <c r="C74" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="D74" s="47"/>
-      <c r="E74" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F74" s="43"/>
-      <c r="G74" s="47"/>
-    </row>
-    <row r="75" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="47"/>
-      <c r="B75" s="145" t="s">
-        <v>945</v>
+      <c r="D74" s="61" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E74" s="46" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F74" s="61" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G74" s="61" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="58">
+        <v>73</v>
+      </c>
+      <c r="B75" s="162" t="s">
+        <v>964</v>
       </c>
       <c r="C75" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F75" s="61" t="s">
-        <v>1155</v>
-      </c>
-      <c r="G75" s="47"/>
+        <v>282</v>
+      </c>
+      <c r="D75" s="61" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E75" s="46" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F75" s="43"/>
+      <c r="G75" s="61" t="s">
+        <v>1284</v>
+      </c>
     </row>
     <row r="76" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="47"/>
+      <c r="A76" s="58">
+        <v>74</v>
+      </c>
       <c r="B76" s="151" t="s">
         <v>1011</v>
       </c>
       <c r="C76" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="D76" s="47"/>
-      <c r="E76" s="47" t="s">
+      <c r="D76" s="61" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E76" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F76" s="61" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G76" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F76" s="43"/>
-      <c r="G76" s="47"/>
-    </row>
-    <row r="77" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="47"/>
-      <c r="B77" s="145" t="s">
-        <v>1029</v>
+    </row>
+    <row r="77" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="58">
+        <v>75</v>
+      </c>
+      <c r="B77" s="151" t="s">
+        <v>866</v>
       </c>
       <c r="C77" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D77" s="47"/>
-      <c r="E77" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D77" s="61" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E77" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F77" s="61" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G77" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F77" s="43"/>
-      <c r="G77" s="47"/>
-    </row>
-    <row r="78" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="47"/>
+    </row>
+    <row r="78" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="58">
+        <v>76</v>
+      </c>
       <c r="B78" s="145" t="s">
-        <v>1030</v>
+        <v>1293</v>
       </c>
       <c r="C78" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="D78" s="47"/>
-      <c r="E78" s="47" t="s">
+      <c r="D78" s="61" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E78" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F78" s="61" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G78" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F78" s="43"/>
-      <c r="G78" s="47"/>
-    </row>
-    <row r="79" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="47"/>
-      <c r="B79" s="151" t="s">
-        <v>866</v>
+    </row>
+    <row r="79" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="58">
+        <v>77</v>
+      </c>
+      <c r="B79" s="145" t="s">
+        <v>1294</v>
       </c>
       <c r="C79" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D79" s="47"/>
-      <c r="E79" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D79" s="61" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E79" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F79" s="61" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G79" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F79" s="43"/>
-      <c r="G79" s="47"/>
-    </row>
-    <row r="80" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="47"/>
-      <c r="B80" s="144" t="s">
-        <v>895</v>
+    </row>
+    <row r="80" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="58">
+        <v>78</v>
+      </c>
+      <c r="B80" s="145" t="s">
+        <v>1292</v>
       </c>
       <c r="C80" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D80" s="47"/>
-      <c r="E80" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F80" s="43"/>
-      <c r="G80" s="47"/>
-    </row>
-    <row r="81" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="47"/>
-      <c r="B81" s="151" t="s">
-        <v>900</v>
+        <v>320</v>
+      </c>
+      <c r="D80" s="61" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E80" s="46" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G80" s="61" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="58">
+        <v>79</v>
+      </c>
+      <c r="B81" s="144" t="s">
+        <v>1297</v>
       </c>
       <c r="C81" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D81" s="47"/>
-      <c r="E81" s="47" t="s">
-        <v>479</v>
+        <v>554</v>
+      </c>
+      <c r="D81" s="61" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E81" s="46" t="s">
+        <v>1134</v>
       </c>
       <c r="F81" s="43"/>
-      <c r="G81" s="47"/>
-    </row>
-    <row r="82" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="47"/>
-      <c r="B82" s="144" t="s">
-        <v>901</v>
+      <c r="G81" s="47" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="58">
+        <v>80</v>
+      </c>
+      <c r="B82" s="163" t="s">
+        <v>1299</v>
       </c>
       <c r="C82" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D82" s="47"/>
-      <c r="E82" s="47" t="s">
-        <v>479</v>
+        <v>554</v>
+      </c>
+      <c r="D82" s="61" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E82" s="46" t="s">
+        <v>1134</v>
       </c>
       <c r="F82" s="43"/>
-      <c r="G82" s="47"/>
-    </row>
-    <row r="83" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="47"/>
-      <c r="B83" s="146" t="s">
-        <v>90</v>
+      <c r="G82" s="61" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="58">
+        <v>81</v>
+      </c>
+      <c r="B83" s="144" t="s">
+        <v>1302</v>
       </c>
       <c r="C83" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D83" s="47"/>
-      <c r="E83" s="47" t="s">
-        <v>479</v>
+        <v>554</v>
+      </c>
+      <c r="D83" s="61" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E83" s="46" t="s">
+        <v>1134</v>
       </c>
       <c r="F83" s="43"/>
-      <c r="G83" s="47"/>
-    </row>
-    <row r="84" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="121"/>
-      <c r="B84" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="C84" s="121" t="s">
-        <v>282</v>
-      </c>
-      <c r="D84" s="121"/>
-      <c r="E84" s="121"/>
-      <c r="F84" s="122" t="s">
-        <v>835</v>
-      </c>
-      <c r="G84" s="152"/>
-    </row>
-    <row r="85" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="47"/>
-      <c r="B85" s="144" t="s">
-        <v>762</v>
+      <c r="G83" s="61" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="58">
+        <v>82</v>
+      </c>
+      <c r="B84" s="144" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C84" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D84" s="61" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E84" s="46" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F84" s="43"/>
+      <c r="G84" s="61" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="47">
+        <v>83</v>
+      </c>
+      <c r="B85" s="151" t="s">
+        <v>936</v>
       </c>
       <c r="C85" s="47" t="s">
-        <v>282</v>
+        <v>554</v>
       </c>
       <c r="D85" s="47"/>
       <c r="E85" s="47" t="s">
@@ -65586,10 +66351,10 @@
       <c r="F85" s="43"/>
       <c r="G85" s="47"/>
     </row>
-    <row r="86" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="47"/>
-      <c r="B86" s="51" t="s">
-        <v>82</v>
+      <c r="B86" s="144" t="s">
+        <v>895</v>
       </c>
       <c r="C86" s="47" t="s">
         <v>282</v>
@@ -65601,10 +66366,10 @@
       <c r="F86" s="43"/>
       <c r="G86" s="47"/>
     </row>
-    <row r="87" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="47"/>
-      <c r="B87" s="145" t="s">
-        <v>81</v>
+      <c r="B87" s="151" t="s">
+        <v>900</v>
       </c>
       <c r="C87" s="47" t="s">
         <v>282</v>
@@ -65616,10 +66381,10 @@
       <c r="F87" s="43"/>
       <c r="G87" s="47"/>
     </row>
-    <row r="88" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="47"/>
-      <c r="B88" s="157" t="s">
-        <v>929</v>
+      <c r="B88" s="144" t="s">
+        <v>901</v>
       </c>
       <c r="C88" s="47" t="s">
         <v>282</v>
@@ -65631,10 +66396,10 @@
       <c r="F88" s="43"/>
       <c r="G88" s="47"/>
     </row>
-    <row r="89" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="47"/>
-      <c r="B89" s="151" t="s">
-        <v>933</v>
+      <c r="B89" s="146" t="s">
+        <v>90</v>
       </c>
       <c r="C89" s="47" t="s">
         <v>282</v>
@@ -65646,25 +66411,25 @@
       <c r="F89" s="43"/>
       <c r="G89" s="47"/>
     </row>
-    <row r="90" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="47"/>
-      <c r="B90" s="51" t="s">
-        <v>938</v>
-      </c>
-      <c r="C90" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D90" s="47"/>
-      <c r="E90" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F90" s="43"/>
-      <c r="G90" s="47"/>
-    </row>
-    <row r="91" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="121"/>
+      <c r="B90" s="142" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" s="121" t="s">
+        <v>282</v>
+      </c>
+      <c r="D90" s="121"/>
+      <c r="E90" s="121"/>
+      <c r="F90" s="122" t="s">
+        <v>835</v>
+      </c>
+      <c r="G90" s="152"/>
+    </row>
+    <row r="91" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="47"/>
-      <c r="B91" s="151" t="s">
-        <v>939</v>
+      <c r="B91" s="144" t="s">
+        <v>762</v>
       </c>
       <c r="C91" s="47" t="s">
         <v>282</v>
@@ -65676,10 +66441,10 @@
       <c r="F91" s="43"/>
       <c r="G91" s="47"/>
     </row>
-    <row r="92" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="47"/>
       <c r="B92" s="51" t="s">
-        <v>940</v>
+        <v>82</v>
       </c>
       <c r="C92" s="47" t="s">
         <v>282</v>
@@ -65691,10 +66456,10 @@
       <c r="F92" s="43"/>
       <c r="G92" s="47"/>
     </row>
-    <row r="93" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="47"/>
-      <c r="B93" s="51" t="s">
-        <v>941</v>
+      <c r="B93" s="145" t="s">
+        <v>81</v>
       </c>
       <c r="C93" s="47" t="s">
         <v>282</v>
@@ -65706,10 +66471,10 @@
       <c r="F93" s="43"/>
       <c r="G93" s="47"/>
     </row>
-    <row r="94" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A94" s="47"/>
       <c r="B94" s="151" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="C94" s="47" t="s">
         <v>282</v>
@@ -65721,10 +66486,10 @@
       <c r="F94" s="43"/>
       <c r="G94" s="47"/>
     </row>
-    <row r="95" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="47"/>
-      <c r="B95" s="145" t="s">
-        <v>737</v>
+      <c r="B95" s="51" t="s">
+        <v>938</v>
       </c>
       <c r="C95" s="47" t="s">
         <v>282</v>
@@ -65736,10 +66501,10 @@
       <c r="F95" s="43"/>
       <c r="G95" s="47"/>
     </row>
-    <row r="96" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="47"/>
       <c r="B96" s="151" t="s">
-        <v>957</v>
+        <v>939</v>
       </c>
       <c r="C96" s="47" t="s">
         <v>282</v>
@@ -65751,10 +66516,10 @@
       <c r="F96" s="43"/>
       <c r="G96" s="47"/>
     </row>
-    <row r="97" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="47"/>
-      <c r="B97" s="145" t="s">
-        <v>958</v>
+      <c r="B97" s="51" t="s">
+        <v>940</v>
       </c>
       <c r="C97" s="47" t="s">
         <v>282</v>
@@ -65768,8 +66533,8 @@
     </row>
     <row r="98" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="47"/>
-      <c r="B98" s="151" t="s">
-        <v>964</v>
+      <c r="B98" s="51" t="s">
+        <v>941</v>
       </c>
       <c r="C98" s="47" t="s">
         <v>282</v>
@@ -65781,10 +66546,10 @@
       <c r="F98" s="43"/>
       <c r="G98" s="47"/>
     </row>
-    <row r="99" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
       <c r="B99" s="151" t="s">
-        <v>991</v>
+        <v>942</v>
       </c>
       <c r="C99" s="47" t="s">
         <v>282</v>
@@ -65796,10 +66561,10 @@
       <c r="F99" s="43"/>
       <c r="G99" s="47"/>
     </row>
-    <row r="100" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="47"/>
-      <c r="B100" s="51" t="s">
-        <v>139</v>
+      <c r="B100" s="145" t="s">
+        <v>737</v>
       </c>
       <c r="C100" s="47" t="s">
         <v>282</v>
@@ -65811,10 +66576,10 @@
       <c r="F100" s="43"/>
       <c r="G100" s="47"/>
     </row>
-    <row r="101" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="47"/>
-      <c r="B101" s="51" t="s">
-        <v>1002</v>
+      <c r="B101" s="151" t="s">
+        <v>957</v>
       </c>
       <c r="C101" s="47" t="s">
         <v>282</v>
@@ -65826,10 +66591,10 @@
       <c r="F101" s="43"/>
       <c r="G101" s="47"/>
     </row>
-    <row r="102" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="47"/>
-      <c r="B102" s="51" t="s">
-        <v>88</v>
+      <c r="B102" s="145" t="s">
+        <v>958</v>
       </c>
       <c r="C102" s="47" t="s">
         <v>282</v>
@@ -65841,10 +66606,10 @@
       <c r="F102" s="43"/>
       <c r="G102" s="47"/>
     </row>
-    <row r="103" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A103" s="47"/>
-      <c r="B103" s="148" t="s">
-        <v>1021</v>
+      <c r="B103" s="151" t="s">
+        <v>991</v>
       </c>
       <c r="C103" s="47" t="s">
         <v>282</v>
@@ -65856,10 +66621,10 @@
       <c r="F103" s="43"/>
       <c r="G103" s="47"/>
     </row>
-    <row r="104" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="47"/>
-      <c r="B104" s="145" t="s">
-        <v>58</v>
+      <c r="B104" s="51" t="s">
+        <v>139</v>
       </c>
       <c r="C104" s="47" t="s">
         <v>282</v>
@@ -65871,10 +66636,10 @@
       <c r="F104" s="43"/>
       <c r="G104" s="47"/>
     </row>
-    <row r="105" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="47"/>
-      <c r="B105" s="144" t="s">
-        <v>1053</v>
+      <c r="B105" s="51" t="s">
+        <v>1002</v>
       </c>
       <c r="C105" s="47" t="s">
         <v>282</v>
@@ -65886,10 +66651,10 @@
       <c r="F105" s="43"/>
       <c r="G105" s="47"/>
     </row>
-    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="47"/>
-      <c r="B106" s="145" t="s">
-        <v>69</v>
+      <c r="B106" s="51" t="s">
+        <v>88</v>
       </c>
       <c r="C106" s="47" t="s">
         <v>282</v>
@@ -65901,10 +66666,10 @@
       <c r="F106" s="43"/>
       <c r="G106" s="47"/>
     </row>
-    <row r="107" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="47"/>
-      <c r="B107" s="51" t="s">
-        <v>1054</v>
+      <c r="B107" s="148" t="s">
+        <v>1021</v>
       </c>
       <c r="C107" s="47" t="s">
         <v>282</v>
@@ -65916,10 +66681,10 @@
       <c r="F107" s="43"/>
       <c r="G107" s="47"/>
     </row>
-    <row r="108" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="47"/>
-      <c r="B108" s="148" t="s">
-        <v>1066</v>
+      <c r="B108" s="145" t="s">
+        <v>58</v>
       </c>
       <c r="C108" s="47" t="s">
         <v>282</v>
@@ -65931,10 +66696,10 @@
       <c r="F108" s="43"/>
       <c r="G108" s="47"/>
     </row>
-    <row r="109" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A109" s="47"/>
-      <c r="B109" s="151" t="s">
-        <v>188</v>
+      <c r="B109" s="144" t="s">
+        <v>1053</v>
       </c>
       <c r="C109" s="47" t="s">
         <v>282</v>
@@ -65943,15 +66708,13 @@
       <c r="E109" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F109" s="47" t="s">
-        <v>848</v>
-      </c>
+      <c r="F109" s="43"/>
       <c r="G109" s="47"/>
     </row>
-    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="47"/>
       <c r="B110" s="145" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C110" s="47" t="s">
         <v>282</v>
@@ -65963,13 +66726,13 @@
       <c r="F110" s="43"/>
       <c r="G110" s="47"/>
     </row>
-    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="47"/>
-      <c r="B111" s="145" t="s">
-        <v>794</v>
+      <c r="B111" s="51" t="s">
+        <v>1054</v>
       </c>
       <c r="C111" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D111" s="47"/>
       <c r="E111" s="47" t="s">
@@ -65978,13 +66741,13 @@
       <c r="F111" s="43"/>
       <c r="G111" s="47"/>
     </row>
-    <row r="112" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="47"/>
-      <c r="B112" s="151" t="s">
-        <v>769</v>
+      <c r="B112" s="148" t="s">
+        <v>1066</v>
       </c>
       <c r="C112" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D112" s="47"/>
       <c r="E112" s="47" t="s">
@@ -65993,28 +66756,30 @@
       <c r="F112" s="43"/>
       <c r="G112" s="47"/>
     </row>
-    <row r="113" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A113" s="47"/>
-      <c r="B113" s="143" t="s">
-        <v>775</v>
+      <c r="B113" s="151" t="s">
+        <v>188</v>
       </c>
       <c r="C113" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D113" s="47"/>
       <c r="E113" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F113" s="43"/>
+      <c r="F113" s="47" t="s">
+        <v>1270</v>
+      </c>
       <c r="G113" s="47"/>
     </row>
-    <row r="114" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="47"/>
       <c r="B114" s="145" t="s">
-        <v>783</v>
+        <v>80</v>
       </c>
       <c r="C114" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D114" s="47"/>
       <c r="E114" s="47" t="s">
@@ -66023,10 +66788,10 @@
       <c r="F114" s="43"/>
       <c r="G114" s="47"/>
     </row>
-    <row r="115" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="47"/>
-      <c r="B115" s="144" t="s">
-        <v>768</v>
+      <c r="B115" s="151" t="s">
+        <v>769</v>
       </c>
       <c r="C115" s="47" t="s">
         <v>798</v>
@@ -66035,18 +66800,16 @@
       <c r="E115" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F115" s="43" t="s">
-        <v>846</v>
-      </c>
+      <c r="F115" s="43"/>
       <c r="G115" s="47"/>
     </row>
-    <row r="116" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="47"/>
-      <c r="B116" s="144" t="s">
-        <v>865</v>
+      <c r="B116" s="143" t="s">
+        <v>775</v>
       </c>
       <c r="C116" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D116" s="47"/>
       <c r="E116" s="47" t="s">
@@ -66055,13 +66818,13 @@
       <c r="F116" s="43"/>
       <c r="G116" s="47"/>
     </row>
-    <row r="117" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="47"/>
-      <c r="B117" s="151" t="s">
-        <v>935</v>
+      <c r="B117" s="145" t="s">
+        <v>783</v>
       </c>
       <c r="C117" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D117" s="47"/>
       <c r="E117" s="47" t="s">
@@ -66070,25 +66833,27 @@
       <c r="F117" s="43"/>
       <c r="G117" s="47"/>
     </row>
-    <row r="118" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="47"/>
-      <c r="B118" s="151" t="s">
-        <v>936</v>
+      <c r="B118" s="144" t="s">
+        <v>768</v>
       </c>
       <c r="C118" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D118" s="47"/>
       <c r="E118" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F118" s="43"/>
+      <c r="F118" s="43" t="s">
+        <v>846</v>
+      </c>
       <c r="G118" s="47"/>
     </row>
     <row r="119" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A119" s="47"/>
       <c r="B119" s="144" t="s">
-        <v>937</v>
+        <v>865</v>
       </c>
       <c r="C119" s="47" t="s">
         <v>554</v>
@@ -66100,10 +66865,10 @@
       <c r="F119" s="43"/>
       <c r="G119" s="47"/>
     </row>
-    <row r="120" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="47"/>
-      <c r="B120" s="144" t="s">
-        <v>943</v>
+      <c r="B120" s="151" t="s">
+        <v>1252</v>
       </c>
       <c r="C120" s="47" t="s">
         <v>554</v>
@@ -66115,10 +66880,10 @@
       <c r="F120" s="43"/>
       <c r="G120" s="47"/>
     </row>
-    <row r="121" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="47"/>
-      <c r="B121" s="144" t="s">
-        <v>944</v>
+      <c r="B121" s="151" t="s">
+        <v>935</v>
       </c>
       <c r="C121" s="47" t="s">
         <v>554</v>
@@ -66130,10 +66895,10 @@
       <c r="F121" s="43"/>
       <c r="G121" s="47"/>
     </row>
-    <row r="122" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A122" s="47"/>
       <c r="B122" s="144" t="s">
-        <v>960</v>
+        <v>937</v>
       </c>
       <c r="C122" s="47" t="s">
         <v>554</v>
@@ -66145,27 +66910,25 @@
       <c r="F122" s="43"/>
       <c r="G122" s="47"/>
     </row>
-    <row r="123" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A123" s="46"/>
-      <c r="B123" s="153" t="s">
-        <v>985</v>
-      </c>
-      <c r="C123" s="46" t="s">
+    <row r="123" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="47"/>
+      <c r="B123" s="144" t="s">
+        <v>943</v>
+      </c>
+      <c r="C123" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="D123" s="46"/>
-      <c r="E123" s="46" t="s">
+      <c r="D123" s="47"/>
+      <c r="E123" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F123" s="46" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G123" s="46"/>
+      <c r="F123" s="43"/>
+      <c r="G123" s="47"/>
     </row>
     <row r="124" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A124" s="47"/>
       <c r="B124" s="144" t="s">
-        <v>1081</v>
+        <v>944</v>
       </c>
       <c r="C124" s="47" t="s">
         <v>554</v>
@@ -66177,11 +66940,63 @@
       <c r="F124" s="43"/>
       <c r="G124" s="47"/>
     </row>
+    <row r="125" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A125" s="47"/>
+      <c r="B125" s="144" t="s">
+        <v>960</v>
+      </c>
+      <c r="C125" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D125" s="47"/>
+      <c r="E125" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F125" s="43"/>
+      <c r="G125" s="47"/>
+    </row>
+    <row r="126" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A126" s="46"/>
+      <c r="B126" s="153" t="s">
+        <v>985</v>
+      </c>
+      <c r="C126" s="46" t="s">
+        <v>554</v>
+      </c>
+      <c r="D126" s="46"/>
+      <c r="E126" s="46" t="s">
+        <v>479</v>
+      </c>
+      <c r="F126" s="46" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G126" s="46"/>
+    </row>
+    <row r="127" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A127" s="47"/>
+      <c r="B127" s="144" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C127" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D127" s="47"/>
+      <c r="E127" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F127" s="43"/>
+      <c r="G127" s="47"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="136" t="s">
+        <v>1289</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A3:G124">
-    <sortCondition ref="A3:A124"/>
-    <sortCondition ref="C3:C124"/>
-    <sortCondition ref="B3:B124"/>
+  <sortState ref="A3:G125">
+    <sortCondition ref="A3:A125"/>
+    <sortCondition ref="C3:C125"/>
+    <sortCondition ref="B3:B125"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -763,7 +763,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5035" uniqueCount="1312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5042" uniqueCount="1317">
   <si>
     <t>ID</t>
   </si>
@@ -37907,6 +37907,21 @@
   </si>
   <si>
     <t>2(background: silence, rock and roll music)</t>
+  </si>
+  <si>
+    <t>4 acoustic conditions by manipulating the room set-up</t>
+  </si>
+  <si>
+    <t>task was long-term memory for facts</t>
+  </si>
+  <si>
+    <t>3 (background speech: STI=0.1, STI=0.35, STI=0.65)</t>
+  </si>
+  <si>
+    <t>only proofreading task would be potentially eligible for coding (reading comprehension corresponded to memory/ decision making)</t>
+  </si>
+  <si>
+    <t>3 (background speech: STI=0.00, STI=0.30, STI=0.80)</t>
   </si>
 </sst>
 </file>
@@ -38936,9 +38951,6 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -38990,10 +39002,13 @@
     <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -64497,8 +64512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64587,7 +64602,7 @@
       <c r="A5" s="58">
         <v>3</v>
       </c>
-      <c r="B5" s="165" t="s">
+      <c r="B5" s="163" t="s">
         <v>517</v>
       </c>
       <c r="C5" s="47" t="s">
@@ -64654,7 +64669,7 @@
       <c r="A8" s="58">
         <v>6</v>
       </c>
-      <c r="B8" s="151" t="s">
+      <c r="B8" s="150" t="s">
         <v>915</v>
       </c>
       <c r="C8" s="47" t="s">
@@ -64899,7 +64914,7 @@
       <c r="A19" s="58">
         <v>17</v>
       </c>
-      <c r="B19" s="151" t="s">
+      <c r="B19" s="150" t="s">
         <v>518</v>
       </c>
       <c r="C19" s="47" t="s">
@@ -64922,7 +64937,7 @@
       <c r="A20" s="58">
         <v>18</v>
       </c>
-      <c r="B20" s="149" t="s">
+      <c r="B20" s="148" t="s">
         <v>917</v>
       </c>
       <c r="C20" s="47" t="s">
@@ -64955,7 +64970,7 @@
       <c r="E21" s="58" t="s">
         <v>1127</v>
       </c>
-      <c r="F21" s="154" t="s">
+      <c r="F21" s="153" t="s">
         <v>1156</v>
       </c>
       <c r="G21" s="47" t="s">
@@ -64987,7 +65002,7 @@
       <c r="A23" s="58">
         <v>21</v>
       </c>
-      <c r="B23" s="155" t="s">
+      <c r="B23" s="154" t="s">
         <v>1161</v>
       </c>
       <c r="C23" s="47" t="s">
@@ -64999,7 +65014,7 @@
       <c r="E23" s="58" t="s">
         <v>1127</v>
       </c>
-      <c r="F23" s="156" t="s">
+      <c r="F23" s="155" t="s">
         <v>1163</v>
       </c>
       <c r="G23" s="12" t="s">
@@ -65415,7 +65430,7 @@
       <c r="A43" s="58">
         <v>41</v>
       </c>
-      <c r="B43" s="147" t="s">
+      <c r="B43" s="146" t="s">
         <v>1199</v>
       </c>
       <c r="C43" s="47" t="s">
@@ -65501,7 +65516,7 @@
       <c r="A47" s="58">
         <v>45</v>
       </c>
-      <c r="B47" s="151" t="s">
+      <c r="B47" s="150" t="s">
         <v>925</v>
       </c>
       <c r="C47" s="47" t="s">
@@ -65524,7 +65539,7 @@
       <c r="A48" s="58">
         <v>46</v>
       </c>
-      <c r="B48" s="151" t="s">
+      <c r="B48" s="150" t="s">
         <v>966</v>
       </c>
       <c r="C48" s="47" t="s">
@@ -65547,7 +65562,7 @@
       <c r="A49" s="58">
         <v>47</v>
       </c>
-      <c r="B49" s="155" t="s">
+      <c r="B49" s="154" t="s">
         <v>1210</v>
       </c>
       <c r="C49" s="47" t="s">
@@ -65593,7 +65608,7 @@
       <c r="A51" s="58">
         <v>49</v>
       </c>
-      <c r="B51" s="151" t="s">
+      <c r="B51" s="150" t="s">
         <v>878</v>
       </c>
       <c r="C51" s="47" t="s">
@@ -65613,7 +65628,7 @@
       <c r="A52" s="58">
         <v>50</v>
       </c>
-      <c r="B52" s="151" t="s">
+      <c r="B52" s="150" t="s">
         <v>902</v>
       </c>
       <c r="C52" s="47" t="s">
@@ -65810,7 +65825,7 @@
       <c r="A61" s="58">
         <v>59</v>
       </c>
-      <c r="B61" s="151" t="s">
+      <c r="B61" s="150" t="s">
         <v>1250</v>
       </c>
       <c r="C61" s="47" t="s">
@@ -65831,7 +65846,7 @@
       <c r="A62" s="58">
         <v>60</v>
       </c>
-      <c r="B62" s="151" t="s">
+      <c r="B62" s="150" t="s">
         <v>1251</v>
       </c>
       <c r="C62" s="47" t="s">
@@ -65852,7 +65867,7 @@
       <c r="A63" s="58">
         <v>61</v>
       </c>
-      <c r="B63" s="157" t="s">
+      <c r="B63" s="156" t="s">
         <v>1084</v>
       </c>
       <c r="C63" s="47" t="s">
@@ -65875,7 +65890,7 @@
       <c r="A64" s="58">
         <v>62</v>
       </c>
-      <c r="B64" s="151" t="s">
+      <c r="B64" s="150" t="s">
         <v>1085</v>
       </c>
       <c r="C64" s="47" t="s">
@@ -65898,7 +65913,7 @@
       <c r="A65" s="58">
         <v>63</v>
       </c>
-      <c r="B65" s="158" t="s">
+      <c r="B65" s="157" t="s">
         <v>1258</v>
       </c>
       <c r="C65" s="47" t="s">
@@ -65921,7 +65936,7 @@
       <c r="A66" s="58">
         <v>64</v>
       </c>
-      <c r="B66" s="151" t="s">
+      <c r="B66" s="150" t="s">
         <v>1261</v>
       </c>
       <c r="C66" s="47" t="s">
@@ -65944,7 +65959,7 @@
       <c r="A67" s="58">
         <v>65</v>
       </c>
-      <c r="B67" s="151" t="s">
+      <c r="B67" s="150" t="s">
         <v>1264</v>
       </c>
       <c r="C67" s="47" t="s">
@@ -65967,7 +65982,7 @@
       <c r="A68" s="58">
         <v>66</v>
       </c>
-      <c r="B68" s="151" t="s">
+      <c r="B68" s="150" t="s">
         <v>1267</v>
       </c>
       <c r="C68" s="47" t="s">
@@ -65990,7 +66005,7 @@
       <c r="A69" s="58">
         <v>67</v>
       </c>
-      <c r="B69" s="159" t="s">
+      <c r="B69" s="158" t="s">
         <v>923</v>
       </c>
       <c r="C69" s="47" t="s">
@@ -66011,7 +66026,7 @@
       <c r="A70" s="58">
         <v>68</v>
       </c>
-      <c r="B70" s="150" t="s">
+      <c r="B70" s="149" t="s">
         <v>1217</v>
       </c>
       <c r="C70" s="47" t="s">
@@ -66032,7 +66047,7 @@
       <c r="A71" s="58">
         <v>69</v>
       </c>
-      <c r="B71" s="160" t="s">
+      <c r="B71" s="159" t="s">
         <v>1274</v>
       </c>
       <c r="C71" s="47" t="s">
@@ -66052,7 +66067,7 @@
       <c r="A72" s="58">
         <v>70</v>
       </c>
-      <c r="B72" s="161" t="s">
+      <c r="B72" s="160" t="s">
         <v>781</v>
       </c>
       <c r="C72" s="47" t="s">
@@ -66075,7 +66090,7 @@
       <c r="A73" s="58">
         <v>71</v>
       </c>
-      <c r="B73" s="151" t="s">
+      <c r="B73" s="150" t="s">
         <v>1278</v>
       </c>
       <c r="C73" s="47" t="s">
@@ -66121,7 +66136,7 @@
       <c r="A75" s="58">
         <v>73</v>
       </c>
-      <c r="B75" s="162" t="s">
+      <c r="B75" s="161" t="s">
         <v>964</v>
       </c>
       <c r="C75" s="47" t="s">
@@ -66142,7 +66157,7 @@
       <c r="A76" s="58">
         <v>74</v>
       </c>
-      <c r="B76" s="151" t="s">
+      <c r="B76" s="150" t="s">
         <v>1011</v>
       </c>
       <c r="C76" s="47" t="s">
@@ -66165,7 +66180,7 @@
       <c r="A77" s="58">
         <v>75</v>
       </c>
-      <c r="B77" s="151" t="s">
+      <c r="B77" s="150" t="s">
         <v>866</v>
       </c>
       <c r="C77" s="47" t="s">
@@ -66275,7 +66290,7 @@
       <c r="A82" s="58">
         <v>80</v>
       </c>
-      <c r="B82" s="163" t="s">
+      <c r="B82" s="162" t="s">
         <v>1299</v>
       </c>
       <c r="C82" s="47" t="s">
@@ -66335,56 +66350,76 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="47">
+      <c r="A85" s="58">
         <v>83</v>
       </c>
-      <c r="B85" s="151" t="s">
+      <c r="B85" s="150" t="s">
         <v>936</v>
       </c>
       <c r="C85" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47" t="s">
-        <v>479</v>
+      <c r="D85" s="61" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E85" s="46" t="s">
+        <v>1134</v>
       </c>
       <c r="F85" s="43"/>
-      <c r="G85" s="47"/>
+      <c r="G85" s="61" t="s">
+        <v>1313</v>
+      </c>
     </row>
     <row r="86" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="47"/>
-      <c r="B86" s="144" t="s">
-        <v>895</v>
+      <c r="A86" s="58">
+        <v>84</v>
+      </c>
+      <c r="B86" s="150" t="s">
+        <v>942</v>
       </c>
       <c r="C86" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="D86" s="47"/>
-      <c r="E86" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F86" s="43"/>
-      <c r="G86" s="47"/>
-    </row>
-    <row r="87" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="47"/>
-      <c r="B87" s="151" t="s">
-        <v>900</v>
+      <c r="D86" s="61" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E86" s="46" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F86" s="53" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G86" s="61" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="58">
+        <v>85</v>
+      </c>
+      <c r="B87" s="150" t="s">
+        <v>1081</v>
       </c>
       <c r="C87" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D87" s="47"/>
-      <c r="E87" s="47" t="s">
-        <v>479</v>
+        <v>554</v>
+      </c>
+      <c r="D87" s="61" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E87" s="46" t="s">
+        <v>1134</v>
       </c>
       <c r="F87" s="43"/>
-      <c r="G87" s="47"/>
+      <c r="G87" s="61" t="s">
+        <v>1205</v>
+      </c>
     </row>
     <row r="88" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="47"/>
-      <c r="B88" s="144" t="s">
-        <v>901</v>
+      <c r="A88" s="47">
+        <v>86</v>
+      </c>
+      <c r="B88" s="165" t="s">
+        <v>90</v>
       </c>
       <c r="C88" s="47" t="s">
         <v>282</v>
@@ -66397,9 +66432,11 @@
       <c r="G88" s="47"/>
     </row>
     <row r="89" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="47"/>
-      <c r="B89" s="146" t="s">
-        <v>90</v>
+      <c r="A89" s="47">
+        <v>87</v>
+      </c>
+      <c r="B89" s="145" t="s">
+        <v>69</v>
       </c>
       <c r="C89" s="47" t="s">
         <v>282</v>
@@ -66411,25 +66448,25 @@
       <c r="F89" s="43"/>
       <c r="G89" s="47"/>
     </row>
-    <row r="90" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="121"/>
-      <c r="B90" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="C90" s="121" t="s">
-        <v>282</v>
-      </c>
-      <c r="D90" s="121"/>
-      <c r="E90" s="121"/>
-      <c r="F90" s="122" t="s">
-        <v>835</v>
-      </c>
-      <c r="G90" s="152"/>
+    <row r="90" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="47"/>
+      <c r="B90" s="144" t="s">
+        <v>895</v>
+      </c>
+      <c r="C90" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D90" s="47"/>
+      <c r="E90" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F90" s="43"/>
+      <c r="G90" s="47"/>
     </row>
     <row r="91" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="47"/>
-      <c r="B91" s="144" t="s">
-        <v>762</v>
+      <c r="B91" s="150" t="s">
+        <v>900</v>
       </c>
       <c r="C91" s="47" t="s">
         <v>282</v>
@@ -66443,8 +66480,8 @@
     </row>
     <row r="92" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="47"/>
-      <c r="B92" s="51" t="s">
-        <v>82</v>
+      <c r="B92" s="144" t="s">
+        <v>901</v>
       </c>
       <c r="C92" s="47" t="s">
         <v>282</v>
@@ -66457,24 +66494,24 @@
       <c r="G92" s="47"/>
     </row>
     <row r="93" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="47"/>
-      <c r="B93" s="145" t="s">
-        <v>81</v>
-      </c>
-      <c r="C93" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D93" s="47"/>
-      <c r="E93" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F93" s="43"/>
-      <c r="G93" s="47"/>
+      <c r="A93" s="121"/>
+      <c r="B93" s="142" t="s">
+        <v>55</v>
+      </c>
+      <c r="C93" s="121" t="s">
+        <v>282</v>
+      </c>
+      <c r="D93" s="121"/>
+      <c r="E93" s="121"/>
+      <c r="F93" s="122" t="s">
+        <v>835</v>
+      </c>
+      <c r="G93" s="151"/>
     </row>
     <row r="94" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A94" s="47"/>
-      <c r="B94" s="151" t="s">
-        <v>933</v>
+      <c r="B94" s="144" t="s">
+        <v>762</v>
       </c>
       <c r="C94" s="47" t="s">
         <v>282</v>
@@ -66489,7 +66526,7 @@
     <row r="95" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="47"/>
       <c r="B95" s="51" t="s">
-        <v>938</v>
+        <v>82</v>
       </c>
       <c r="C95" s="47" t="s">
         <v>282</v>
@@ -66503,8 +66540,8 @@
     </row>
     <row r="96" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="47"/>
-      <c r="B96" s="151" t="s">
-        <v>939</v>
+      <c r="B96" s="145" t="s">
+        <v>81</v>
       </c>
       <c r="C96" s="47" t="s">
         <v>282</v>
@@ -66518,8 +66555,8 @@
     </row>
     <row r="97" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="47"/>
-      <c r="B97" s="51" t="s">
-        <v>940</v>
+      <c r="B97" s="150" t="s">
+        <v>933</v>
       </c>
       <c r="C97" s="47" t="s">
         <v>282</v>
@@ -66534,7 +66571,7 @@
     <row r="98" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="47"/>
       <c r="B98" s="51" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C98" s="47" t="s">
         <v>282</v>
@@ -66548,8 +66585,8 @@
     </row>
     <row r="99" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
-      <c r="B99" s="151" t="s">
-        <v>942</v>
+      <c r="B99" s="150" t="s">
+        <v>939</v>
       </c>
       <c r="C99" s="47" t="s">
         <v>282</v>
@@ -66563,8 +66600,8 @@
     </row>
     <row r="100" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="47"/>
-      <c r="B100" s="145" t="s">
-        <v>737</v>
+      <c r="B100" s="51" t="s">
+        <v>940</v>
       </c>
       <c r="C100" s="47" t="s">
         <v>282</v>
@@ -66578,8 +66615,8 @@
     </row>
     <row r="101" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="47"/>
-      <c r="B101" s="151" t="s">
-        <v>957</v>
+      <c r="B101" s="51" t="s">
+        <v>941</v>
       </c>
       <c r="C101" s="47" t="s">
         <v>282</v>
@@ -66594,7 +66631,7 @@
     <row r="102" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="47"/>
       <c r="B102" s="145" t="s">
-        <v>958</v>
+        <v>737</v>
       </c>
       <c r="C102" s="47" t="s">
         <v>282</v>
@@ -66606,10 +66643,10 @@
       <c r="F102" s="43"/>
       <c r="G102" s="47"/>
     </row>
-    <row r="103" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="47"/>
-      <c r="B103" s="151" t="s">
-        <v>991</v>
+      <c r="B103" s="150" t="s">
+        <v>957</v>
       </c>
       <c r="C103" s="47" t="s">
         <v>282</v>
@@ -66623,8 +66660,8 @@
     </row>
     <row r="104" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="47"/>
-      <c r="B104" s="51" t="s">
-        <v>139</v>
+      <c r="B104" s="145" t="s">
+        <v>958</v>
       </c>
       <c r="C104" s="47" t="s">
         <v>282</v>
@@ -66638,8 +66675,8 @@
     </row>
     <row r="105" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="47"/>
-      <c r="B105" s="51" t="s">
-        <v>1002</v>
+      <c r="B105" s="150" t="s">
+        <v>991</v>
       </c>
       <c r="C105" s="47" t="s">
         <v>282</v>
@@ -66654,7 +66691,7 @@
     <row r="106" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="47"/>
       <c r="B106" s="51" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="C106" s="47" t="s">
         <v>282</v>
@@ -66668,8 +66705,8 @@
     </row>
     <row r="107" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="47"/>
-      <c r="B107" s="148" t="s">
-        <v>1021</v>
+      <c r="B107" s="51" t="s">
+        <v>1002</v>
       </c>
       <c r="C107" s="47" t="s">
         <v>282</v>
@@ -66683,8 +66720,8 @@
     </row>
     <row r="108" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="47"/>
-      <c r="B108" s="145" t="s">
-        <v>58</v>
+      <c r="B108" s="51" t="s">
+        <v>88</v>
       </c>
       <c r="C108" s="47" t="s">
         <v>282</v>
@@ -66696,10 +66733,10 @@
       <c r="F108" s="43"/>
       <c r="G108" s="47"/>
     </row>
-    <row r="109" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="47"/>
-      <c r="B109" s="144" t="s">
-        <v>1053</v>
+      <c r="B109" s="147" t="s">
+        <v>1021</v>
       </c>
       <c r="C109" s="47" t="s">
         <v>282</v>
@@ -66714,7 +66751,7 @@
     <row r="110" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="47"/>
       <c r="B110" s="145" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C110" s="47" t="s">
         <v>282</v>
@@ -66728,8 +66765,8 @@
     </row>
     <row r="111" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="47"/>
-      <c r="B111" s="51" t="s">
-        <v>1054</v>
+      <c r="B111" s="144" t="s">
+        <v>1053</v>
       </c>
       <c r="C111" s="47" t="s">
         <v>282</v>
@@ -66743,8 +66780,8 @@
     </row>
     <row r="112" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="47"/>
-      <c r="B112" s="148" t="s">
-        <v>1066</v>
+      <c r="B112" s="51" t="s">
+        <v>1054</v>
       </c>
       <c r="C112" s="47" t="s">
         <v>282</v>
@@ -66756,10 +66793,10 @@
       <c r="F112" s="43"/>
       <c r="G112" s="47"/>
     </row>
-    <row r="113" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A113" s="47"/>
-      <c r="B113" s="151" t="s">
-        <v>188</v>
+      <c r="B113" s="147" t="s">
+        <v>1066</v>
       </c>
       <c r="C113" s="47" t="s">
         <v>282</v>
@@ -66768,15 +66805,13 @@
       <c r="E113" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F113" s="47" t="s">
-        <v>1270</v>
-      </c>
+      <c r="F113" s="43"/>
       <c r="G113" s="47"/>
     </row>
     <row r="114" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="47"/>
-      <c r="B114" s="145" t="s">
-        <v>80</v>
+      <c r="B114" s="150" t="s">
+        <v>188</v>
       </c>
       <c r="C114" s="47" t="s">
         <v>282</v>
@@ -66785,16 +66820,18 @@
       <c r="E114" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F114" s="43"/>
+      <c r="F114" s="47" t="s">
+        <v>1270</v>
+      </c>
       <c r="G114" s="47"/>
     </row>
     <row r="115" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="47"/>
-      <c r="B115" s="151" t="s">
-        <v>769</v>
+      <c r="B115" s="145" t="s">
+        <v>80</v>
       </c>
       <c r="C115" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D115" s="47"/>
       <c r="E115" s="47" t="s">
@@ -66803,10 +66840,10 @@
       <c r="F115" s="43"/>
       <c r="G115" s="47"/>
     </row>
-    <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A116" s="47"/>
-      <c r="B116" s="143" t="s">
-        <v>775</v>
+      <c r="B116" s="150" t="s">
+        <v>769</v>
       </c>
       <c r="C116" s="47" t="s">
         <v>798</v>
@@ -66820,8 +66857,8 @@
     </row>
     <row r="117" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="47"/>
-      <c r="B117" s="145" t="s">
-        <v>783</v>
+      <c r="B117" s="143" t="s">
+        <v>775</v>
       </c>
       <c r="C117" s="47" t="s">
         <v>798</v>
@@ -66835,8 +66872,8 @@
     </row>
     <row r="118" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="47"/>
-      <c r="B118" s="144" t="s">
-        <v>768</v>
+      <c r="B118" s="145" t="s">
+        <v>783</v>
       </c>
       <c r="C118" s="47" t="s">
         <v>798</v>
@@ -66845,30 +66882,30 @@
       <c r="E118" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F118" s="43" t="s">
-        <v>846</v>
-      </c>
+      <c r="F118" s="43"/>
       <c r="G118" s="47"/>
     </row>
-    <row r="119" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A119" s="47"/>
       <c r="B119" s="144" t="s">
-        <v>865</v>
+        <v>768</v>
       </c>
       <c r="C119" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D119" s="47"/>
       <c r="E119" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F119" s="43"/>
+      <c r="F119" s="43" t="s">
+        <v>846</v>
+      </c>
       <c r="G119" s="47"/>
     </row>
     <row r="120" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="47"/>
-      <c r="B120" s="151" t="s">
-        <v>1252</v>
+      <c r="B120" s="144" t="s">
+        <v>865</v>
       </c>
       <c r="C120" s="47" t="s">
         <v>554</v>
@@ -66882,8 +66919,8 @@
     </row>
     <row r="121" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="47"/>
-      <c r="B121" s="151" t="s">
-        <v>935</v>
+      <c r="B121" s="150" t="s">
+        <v>1252</v>
       </c>
       <c r="C121" s="47" t="s">
         <v>554</v>
@@ -66895,10 +66932,10 @@
       <c r="F121" s="43"/>
       <c r="G121" s="47"/>
     </row>
-    <row r="122" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A122" s="47"/>
-      <c r="B122" s="144" t="s">
-        <v>937</v>
+      <c r="B122" s="150" t="s">
+        <v>935</v>
       </c>
       <c r="C122" s="47" t="s">
         <v>554</v>
@@ -66913,7 +66950,7 @@
     <row r="123" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
       <c r="B123" s="144" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="C123" s="47" t="s">
         <v>554</v>
@@ -66928,7 +66965,7 @@
     <row r="124" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A124" s="47"/>
       <c r="B124" s="144" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C124" s="47" t="s">
         <v>554</v>
@@ -66943,7 +66980,7 @@
     <row r="125" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A125" s="47"/>
       <c r="B125" s="144" t="s">
-        <v>960</v>
+        <v>944</v>
       </c>
       <c r="C125" s="47" t="s">
         <v>554</v>
@@ -66956,36 +66993,36 @@
       <c r="G125" s="47"/>
     </row>
     <row r="126" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A126" s="46"/>
-      <c r="B126" s="153" t="s">
+      <c r="A126" s="47"/>
+      <c r="B126" s="144" t="s">
+        <v>960</v>
+      </c>
+      <c r="C126" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D126" s="47"/>
+      <c r="E126" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F126" s="43"/>
+      <c r="G126" s="47"/>
+    </row>
+    <row r="127" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A127" s="46"/>
+      <c r="B127" s="152" t="s">
         <v>985</v>
       </c>
-      <c r="C126" s="46" t="s">
+      <c r="C127" s="46" t="s">
         <v>554</v>
       </c>
-      <c r="D126" s="46"/>
-      <c r="E126" s="46" t="s">
+      <c r="D127" s="46"/>
+      <c r="E127" s="46" t="s">
         <v>479</v>
       </c>
-      <c r="F126" s="46" t="s">
+      <c r="F127" s="46" t="s">
         <v>1148</v>
       </c>
-      <c r="G126" s="46"/>
-    </row>
-    <row r="127" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A127" s="47"/>
-      <c r="B127" s="144" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C127" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="D127" s="47"/>
-      <c r="E127" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F127" s="43"/>
-      <c r="G127" s="47"/>
+      <c r="G127" s="46"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B128" s="136" t="s">
@@ -66993,10 +67030,10 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:G125">
-    <sortCondition ref="A3:A125"/>
-    <sortCondition ref="C3:C125"/>
-    <sortCondition ref="B3:B125"/>
+  <sortState ref="A3:G128">
+    <sortCondition ref="A3:A128"/>
+    <sortCondition ref="C3:C128"/>
+    <sortCondition ref="B3:B128"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -27,7 +27,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">' Step 2'!$A$2:$D$526</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">' Step 3'!$A$2:$C$344</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$125</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -763,7 +763,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5042" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5638" uniqueCount="1320">
   <si>
     <t>ID</t>
   </si>
@@ -36981,9 +36981,6 @@
     <t xml:space="preserve">4 (background: silence, preferred music, non-preferred music, café noise) </t>
   </si>
   <si>
-    <t>I code only reading comprehension to keep it consistent with previous stuides;  participants brought their own music for the preferred condition</t>
-  </si>
-  <si>
     <t>the reading test is : http://cty.jhu.edu/archive/gifted/dcc/STEP.html</t>
   </si>
   <si>
@@ -37922,6 +37919,18 @@
   </si>
   <si>
     <t>3 (background speech: STI=0.00, STI=0.30, STI=0.80)</t>
+  </si>
+  <si>
+    <t>3(background sound: quiet, children babble, children babble + environmental noise)</t>
+  </si>
+  <si>
+    <t>N participants per group not reported; I assume groups were equal size to the nearest  number divisible by 3</t>
+  </si>
+  <si>
+    <t>project exists as a published paper</t>
+  </si>
+  <si>
+    <t>for reading speed, I take average of 1st and second pass;  participants brought their own music for the preferred condition</t>
   </si>
 </sst>
 </file>
@@ -38546,7 +38555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -39011,6 +39020,9 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -59311,8 +59323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E344"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="B283" sqref="B283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61542,7 +61554,7 @@
         <v>554</v>
       </c>
       <c r="D148" s="60" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E148" s="17"/>
     </row>
@@ -63536,14 +63548,14 @@
       <c r="A281" s="58">
         <v>279</v>
       </c>
-      <c r="B281" s="126" t="s">
+      <c r="B281" s="128" t="s">
         <v>69</v>
       </c>
       <c r="C281" s="58" t="s">
         <v>282</v>
       </c>
       <c r="D281" s="58" t="s">
-        <v>479</v>
+        <v>1318</v>
       </c>
       <c r="E281" s="17"/>
     </row>
@@ -63839,13 +63851,13 @@
         <v>299</v>
       </c>
       <c r="B301" s="119" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C301" s="58" t="s">
         <v>554</v>
       </c>
       <c r="D301" s="58" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E301" s="17"/>
     </row>
@@ -63944,13 +63956,13 @@
         <v>306</v>
       </c>
       <c r="B308" s="119" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C308" s="58" t="s">
         <v>282</v>
       </c>
       <c r="D308" s="58" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E308" s="17"/>
     </row>
@@ -64510,10 +64522,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" topLeftCell="C52" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64565,13 +64577,13 @@
         <v>554</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E3" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="G3" s="47" t="s">
         <v>479</v>
@@ -64588,7 +64600,7 @@
         <v>554</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E4" s="58" t="s">
         <v>1127</v>
@@ -64609,13 +64621,13 @@
         <v>320</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E5" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="G5" s="47" t="s">
         <v>479</v>
@@ -64632,7 +64644,7 @@
         <v>320</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E6" s="58" t="s">
         <v>1127</v>
@@ -65237,7 +65249,7 @@
       <c r="A34" s="58">
         <v>32</v>
       </c>
-      <c r="B34" s="145" t="s">
+      <c r="B34" s="166" t="s">
         <v>703</v>
       </c>
       <c r="C34" s="47" t="s">
@@ -65685,7 +65697,7 @@
         <v>1127</v>
       </c>
       <c r="F54" s="65" t="s">
-        <v>1230</v>
+        <v>1319</v>
       </c>
       <c r="G54" s="47" t="s">
         <v>479</v>
@@ -65702,16 +65714,16 @@
         <v>798</v>
       </c>
       <c r="D55" s="61" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E55" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F55" s="65" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="G55" s="61" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -65725,14 +65737,14 @@
         <v>798</v>
       </c>
       <c r="D56" s="61" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E56" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F56" s="43"/>
       <c r="G56" s="61" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -65746,14 +65758,14 @@
         <v>282</v>
       </c>
       <c r="D57" s="47" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E57" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F57" s="43"/>
       <c r="G57" s="61" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -65767,14 +65779,14 @@
         <v>554</v>
       </c>
       <c r="D58" s="61" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E58" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F58" s="43"/>
       <c r="G58" s="61" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -65788,13 +65800,13 @@
         <v>320</v>
       </c>
       <c r="D59" s="61" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E59" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F59" s="61" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G59" s="47" t="s">
         <v>1171</v>
@@ -65811,7 +65823,7 @@
         <v>320</v>
       </c>
       <c r="D60" s="62" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E60" s="46" t="s">
         <v>1134</v>
@@ -65826,20 +65838,20 @@
         <v>59</v>
       </c>
       <c r="B61" s="150" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C61" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D61" s="61" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E61" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F61" s="43"/>
       <c r="G61" s="61" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -65847,20 +65859,20 @@
         <v>60</v>
       </c>
       <c r="B62" s="150" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C62" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D62" s="61" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E62" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F62" s="43"/>
       <c r="G62" s="61" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -65874,13 +65886,13 @@
         <v>282</v>
       </c>
       <c r="D63" s="61" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E63" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F63" s="61" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="G63" s="47" t="s">
         <v>479</v>
@@ -65897,13 +65909,13 @@
         <v>282</v>
       </c>
       <c r="D64" s="61" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E64" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F64" s="65" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G64" s="47" t="s">
         <v>479</v>
@@ -65914,19 +65926,19 @@
         <v>63</v>
       </c>
       <c r="B65" s="157" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C65" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D65" s="61" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E65" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F65" s="61" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="G65" s="47" t="s">
         <v>479</v>
@@ -65937,19 +65949,19 @@
         <v>64</v>
       </c>
       <c r="B66" s="150" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C66" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D66" s="61" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E66" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F66" s="61" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="G66" s="47" t="s">
         <v>479</v>
@@ -65960,19 +65972,19 @@
         <v>65</v>
       </c>
       <c r="B67" s="150" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C67" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D67" s="61" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E67" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F67" s="61" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="G67" s="47" t="s">
         <v>479</v>
@@ -65983,19 +65995,19 @@
         <v>66</v>
       </c>
       <c r="B68" s="150" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C68" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D68" s="61" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E68" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F68" s="61" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="G68" s="47" t="s">
         <v>479</v>
@@ -66012,7 +66024,7 @@
         <v>320</v>
       </c>
       <c r="D69" s="61" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="E69" s="46" t="s">
         <v>1134</v>
@@ -66033,14 +66045,14 @@
         <v>282</v>
       </c>
       <c r="D70" s="61" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E70" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F70" s="43"/>
       <c r="G70" s="61" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -66048,7 +66060,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="159" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C71" s="47" t="s">
         <v>282</v>
@@ -66057,10 +66069,10 @@
         <v>1134</v>
       </c>
       <c r="F71" s="61" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="G71" s="61" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -66074,16 +66086,16 @@
         <v>798</v>
       </c>
       <c r="D72" s="61" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E72" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F72" s="61" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="G72" s="61" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -66091,13 +66103,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="150" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C73" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D73" s="61" t="s">
         <v>1278</v>
-      </c>
-      <c r="C73" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D73" s="61" t="s">
-        <v>1279</v>
       </c>
       <c r="E73" s="58" t="s">
         <v>1127</v>
@@ -66120,16 +66132,16 @@
         <v>320</v>
       </c>
       <c r="D74" s="61" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E74" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F74" s="61" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G74" s="61" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -66143,14 +66155,14 @@
         <v>282</v>
       </c>
       <c r="D75" s="61" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E75" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F75" s="43"/>
       <c r="G75" s="61" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -66164,13 +66176,13 @@
         <v>320</v>
       </c>
       <c r="D76" s="61" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E76" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F76" s="61" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G76" s="47" t="s">
         <v>479</v>
@@ -66187,13 +66199,13 @@
         <v>282</v>
       </c>
       <c r="D77" s="61" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E77" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F77" s="61" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="G77" s="47" t="s">
         <v>479</v>
@@ -66204,19 +66216,19 @@
         <v>76</v>
       </c>
       <c r="B78" s="145" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C78" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D78" s="61" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E78" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F78" s="61" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="G78" s="47" t="s">
         <v>479</v>
@@ -66227,19 +66239,19 @@
         <v>77</v>
       </c>
       <c r="B79" s="145" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C79" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D79" s="61" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E79" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F79" s="61" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="G79" s="47" t="s">
         <v>479</v>
@@ -66250,19 +66262,19 @@
         <v>78</v>
       </c>
       <c r="B80" s="145" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C80" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D80" s="61" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E80" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="G80" s="61" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -66270,13 +66282,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="144" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C81" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D81" s="61" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E81" s="46" t="s">
         <v>1134</v>
@@ -66291,20 +66303,20 @@
         <v>80</v>
       </c>
       <c r="B82" s="162" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C82" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D82" s="61" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E82" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F82" s="43"/>
       <c r="G82" s="61" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -66312,13 +66324,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="144" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C83" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D83" s="61" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E83" s="46" t="s">
         <v>1134</v>
@@ -66333,13 +66345,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="144" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C84" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D84" s="61" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E84" s="46" t="s">
         <v>1134</v>
@@ -66360,14 +66372,14 @@
         <v>554</v>
       </c>
       <c r="D85" s="61" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E85" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F85" s="43"/>
       <c r="G85" s="61" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -66381,13 +66393,13 @@
         <v>282</v>
       </c>
       <c r="D86" s="61" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E86" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F86" s="53" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="G86" s="61" t="s">
         <v>1205</v>
@@ -66404,7 +66416,7 @@
         <v>554</v>
       </c>
       <c r="D87" s="61" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E87" s="46" t="s">
         <v>1134</v>
@@ -66414,8 +66426,8 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="47">
+    <row r="88" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="58">
         <v>86</v>
       </c>
       <c r="B88" s="165" t="s">
@@ -66424,19 +66436,23 @@
       <c r="C88" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="D88" s="47"/>
-      <c r="E88" s="47" t="s">
+      <c r="D88" s="61" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E88" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F88" s="61" t="s">
+        <v>1317</v>
+      </c>
+      <c r="G88" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F88" s="43"/>
-      <c r="G88" s="47"/>
-    </row>
-    <row r="89" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="47">
-        <v>87</v>
-      </c>
-      <c r="B89" s="145" t="s">
-        <v>69</v>
+    </row>
+    <row r="89" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="47"/>
+      <c r="B89" s="144" t="s">
+        <v>895</v>
       </c>
       <c r="C89" s="47" t="s">
         <v>282</v>
@@ -66448,10 +66464,10 @@
       <c r="F89" s="43"/>
       <c r="G89" s="47"/>
     </row>
-    <row r="90" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="47"/>
-      <c r="B90" s="144" t="s">
-        <v>895</v>
+      <c r="B90" s="150" t="s">
+        <v>900</v>
       </c>
       <c r="C90" s="47" t="s">
         <v>282</v>
@@ -66463,10 +66479,10 @@
       <c r="F90" s="43"/>
       <c r="G90" s="47"/>
     </row>
-    <row r="91" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="47"/>
-      <c r="B91" s="150" t="s">
-        <v>900</v>
+      <c r="B91" s="144" t="s">
+        <v>901</v>
       </c>
       <c r="C91" s="47" t="s">
         <v>282</v>
@@ -66479,39 +66495,39 @@
       <c r="G91" s="47"/>
     </row>
     <row r="92" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="47"/>
-      <c r="B92" s="144" t="s">
-        <v>901</v>
-      </c>
-      <c r="C92" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D92" s="47"/>
-      <c r="E92" s="47" t="s">
+      <c r="A92" s="121"/>
+      <c r="B92" s="142" t="s">
+        <v>55</v>
+      </c>
+      <c r="C92" s="121" t="s">
+        <v>282</v>
+      </c>
+      <c r="D92" s="121"/>
+      <c r="E92" s="121"/>
+      <c r="F92" s="122" t="s">
+        <v>835</v>
+      </c>
+      <c r="G92" s="151"/>
+    </row>
+    <row r="93" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="47"/>
+      <c r="B93" s="144" t="s">
+        <v>762</v>
+      </c>
+      <c r="C93" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D93" s="47"/>
+      <c r="E93" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F92" s="43"/>
-      <c r="G92" s="47"/>
-    </row>
-    <row r="93" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="121"/>
-      <c r="B93" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="C93" s="121" t="s">
-        <v>282</v>
-      </c>
-      <c r="D93" s="121"/>
-      <c r="E93" s="121"/>
-      <c r="F93" s="122" t="s">
-        <v>835</v>
-      </c>
-      <c r="G93" s="151"/>
-    </row>
-    <row r="94" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F93" s="43"/>
+      <c r="G93" s="47"/>
+    </row>
+    <row r="94" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="47"/>
-      <c r="B94" s="144" t="s">
-        <v>762</v>
+      <c r="B94" s="51" t="s">
+        <v>82</v>
       </c>
       <c r="C94" s="47" t="s">
         <v>282</v>
@@ -66523,10 +66539,10 @@
       <c r="F94" s="43"/>
       <c r="G94" s="47"/>
     </row>
-    <row r="95" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="47"/>
-      <c r="B95" s="51" t="s">
-        <v>82</v>
+      <c r="B95" s="145" t="s">
+        <v>81</v>
       </c>
       <c r="C95" s="47" t="s">
         <v>282</v>
@@ -66538,10 +66554,10 @@
       <c r="F95" s="43"/>
       <c r="G95" s="47"/>
     </row>
-    <row r="96" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="47"/>
-      <c r="B96" s="145" t="s">
-        <v>81</v>
+      <c r="B96" s="150" t="s">
+        <v>933</v>
       </c>
       <c r="C96" s="47" t="s">
         <v>282</v>
@@ -66553,10 +66569,10 @@
       <c r="F96" s="43"/>
       <c r="G96" s="47"/>
     </row>
-    <row r="97" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="47"/>
-      <c r="B97" s="150" t="s">
-        <v>933</v>
+      <c r="B97" s="51" t="s">
+        <v>938</v>
       </c>
       <c r="C97" s="47" t="s">
         <v>282</v>
@@ -66568,10 +66584,10 @@
       <c r="F97" s="43"/>
       <c r="G97" s="47"/>
     </row>
-    <row r="98" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="47"/>
-      <c r="B98" s="51" t="s">
-        <v>938</v>
+      <c r="B98" s="150" t="s">
+        <v>939</v>
       </c>
       <c r="C98" s="47" t="s">
         <v>282</v>
@@ -66583,10 +66599,10 @@
       <c r="F98" s="43"/>
       <c r="G98" s="47"/>
     </row>
-    <row r="99" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
-      <c r="B99" s="150" t="s">
-        <v>939</v>
+      <c r="B99" s="51" t="s">
+        <v>940</v>
       </c>
       <c r="C99" s="47" t="s">
         <v>282</v>
@@ -66598,10 +66614,10 @@
       <c r="F99" s="43"/>
       <c r="G99" s="47"/>
     </row>
-    <row r="100" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="47"/>
       <c r="B100" s="51" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C100" s="47" t="s">
         <v>282</v>
@@ -66613,10 +66629,10 @@
       <c r="F100" s="43"/>
       <c r="G100" s="47"/>
     </row>
-    <row r="101" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="47"/>
-      <c r="B101" s="51" t="s">
-        <v>941</v>
+      <c r="B101" s="145" t="s">
+        <v>737</v>
       </c>
       <c r="C101" s="47" t="s">
         <v>282</v>
@@ -66628,10 +66644,10 @@
       <c r="F101" s="43"/>
       <c r="G101" s="47"/>
     </row>
-    <row r="102" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="47"/>
-      <c r="B102" s="145" t="s">
-        <v>737</v>
+      <c r="B102" s="150" t="s">
+        <v>957</v>
       </c>
       <c r="C102" s="47" t="s">
         <v>282</v>
@@ -66643,10 +66659,10 @@
       <c r="F102" s="43"/>
       <c r="G102" s="47"/>
     </row>
-    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="47"/>
-      <c r="B103" s="150" t="s">
-        <v>957</v>
+      <c r="B103" s="145" t="s">
+        <v>958</v>
       </c>
       <c r="C103" s="47" t="s">
         <v>282</v>
@@ -66658,10 +66674,10 @@
       <c r="F103" s="43"/>
       <c r="G103" s="47"/>
     </row>
-    <row r="104" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="47"/>
-      <c r="B104" s="145" t="s">
-        <v>958</v>
+      <c r="B104" s="150" t="s">
+        <v>991</v>
       </c>
       <c r="C104" s="47" t="s">
         <v>282</v>
@@ -66673,10 +66689,10 @@
       <c r="F104" s="43"/>
       <c r="G104" s="47"/>
     </row>
-    <row r="105" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="47"/>
-      <c r="B105" s="150" t="s">
-        <v>991</v>
+      <c r="B105" s="51" t="s">
+        <v>139</v>
       </c>
       <c r="C105" s="47" t="s">
         <v>282</v>
@@ -66691,7 +66707,7 @@
     <row r="106" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="47"/>
       <c r="B106" s="51" t="s">
-        <v>139</v>
+        <v>1002</v>
       </c>
       <c r="C106" s="47" t="s">
         <v>282</v>
@@ -66703,10 +66719,10 @@
       <c r="F106" s="43"/>
       <c r="G106" s="47"/>
     </row>
-    <row r="107" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="47"/>
       <c r="B107" s="51" t="s">
-        <v>1002</v>
+        <v>88</v>
       </c>
       <c r="C107" s="47" t="s">
         <v>282</v>
@@ -66718,10 +66734,10 @@
       <c r="F107" s="43"/>
       <c r="G107" s="47"/>
     </row>
-    <row r="108" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="47"/>
-      <c r="B108" s="51" t="s">
-        <v>88</v>
+      <c r="B108" s="147" t="s">
+        <v>1021</v>
       </c>
       <c r="C108" s="47" t="s">
         <v>282</v>
@@ -66733,10 +66749,10 @@
       <c r="F108" s="43"/>
       <c r="G108" s="47"/>
     </row>
-    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="47"/>
-      <c r="B109" s="147" t="s">
-        <v>1021</v>
+      <c r="B109" s="145" t="s">
+        <v>58</v>
       </c>
       <c r="C109" s="47" t="s">
         <v>282</v>
@@ -66748,10 +66764,10 @@
       <c r="F109" s="43"/>
       <c r="G109" s="47"/>
     </row>
-    <row r="110" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="47"/>
-      <c r="B110" s="145" t="s">
-        <v>58</v>
+      <c r="B110" s="144" t="s">
+        <v>1053</v>
       </c>
       <c r="C110" s="47" t="s">
         <v>282</v>
@@ -66763,10 +66779,10 @@
       <c r="F110" s="43"/>
       <c r="G110" s="47"/>
     </row>
-    <row r="111" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="47"/>
-      <c r="B111" s="144" t="s">
-        <v>1053</v>
+      <c r="B111" s="51" t="s">
+        <v>1054</v>
       </c>
       <c r="C111" s="47" t="s">
         <v>282</v>
@@ -66778,10 +66794,10 @@
       <c r="F111" s="43"/>
       <c r="G111" s="47"/>
     </row>
-    <row r="112" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A112" s="47"/>
-      <c r="B112" s="51" t="s">
-        <v>1054</v>
+      <c r="B112" s="147" t="s">
+        <v>1066</v>
       </c>
       <c r="C112" s="47" t="s">
         <v>282</v>
@@ -66793,10 +66809,10 @@
       <c r="F112" s="43"/>
       <c r="G112" s="47"/>
     </row>
-    <row r="113" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="47"/>
-      <c r="B113" s="147" t="s">
-        <v>1066</v>
+      <c r="B113" s="150" t="s">
+        <v>188</v>
       </c>
       <c r="C113" s="47" t="s">
         <v>282</v>
@@ -66805,13 +66821,15 @@
       <c r="E113" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F113" s="43"/>
+      <c r="F113" s="47" t="s">
+        <v>1269</v>
+      </c>
       <c r="G113" s="47"/>
     </row>
-    <row r="114" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="47"/>
-      <c r="B114" s="150" t="s">
-        <v>188</v>
+      <c r="B114" s="145" t="s">
+        <v>80</v>
       </c>
       <c r="C114" s="47" t="s">
         <v>282</v>
@@ -66820,18 +66838,16 @@
       <c r="E114" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F114" s="47" t="s">
-        <v>1270</v>
-      </c>
+      <c r="F114" s="43"/>
       <c r="G114" s="47"/>
     </row>
-    <row r="115" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A115" s="47"/>
-      <c r="B115" s="145" t="s">
-        <v>80</v>
+      <c r="B115" s="150" t="s">
+        <v>769</v>
       </c>
       <c r="C115" s="47" t="s">
-        <v>282</v>
+        <v>798</v>
       </c>
       <c r="D115" s="47"/>
       <c r="E115" s="47" t="s">
@@ -66840,10 +66856,10 @@
       <c r="F115" s="43"/>
       <c r="G115" s="47"/>
     </row>
-    <row r="116" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="47"/>
-      <c r="B116" s="150" t="s">
-        <v>769</v>
+      <c r="B116" s="143" t="s">
+        <v>775</v>
       </c>
       <c r="C116" s="47" t="s">
         <v>798</v>
@@ -66855,10 +66871,10 @@
       <c r="F116" s="43"/>
       <c r="G116" s="47"/>
     </row>
-    <row r="117" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="47"/>
-      <c r="B117" s="143" t="s">
-        <v>775</v>
+      <c r="B117" s="145" t="s">
+        <v>783</v>
       </c>
       <c r="C117" s="47" t="s">
         <v>798</v>
@@ -66870,10 +66886,10 @@
       <c r="F117" s="43"/>
       <c r="G117" s="47"/>
     </row>
-    <row r="118" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A118" s="47"/>
-      <c r="B118" s="145" t="s">
-        <v>783</v>
+      <c r="B118" s="144" t="s">
+        <v>768</v>
       </c>
       <c r="C118" s="47" t="s">
         <v>798</v>
@@ -66882,30 +66898,30 @@
       <c r="E118" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F118" s="43"/>
+      <c r="F118" s="43" t="s">
+        <v>846</v>
+      </c>
       <c r="G118" s="47"/>
     </row>
-    <row r="119" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="47"/>
       <c r="B119" s="144" t="s">
-        <v>768</v>
+        <v>865</v>
       </c>
       <c r="C119" s="47" t="s">
-        <v>798</v>
+        <v>554</v>
       </c>
       <c r="D119" s="47"/>
       <c r="E119" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F119" s="43" t="s">
-        <v>846</v>
-      </c>
+      <c r="F119" s="43"/>
       <c r="G119" s="47"/>
     </row>
     <row r="120" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="47"/>
-      <c r="B120" s="144" t="s">
-        <v>865</v>
+      <c r="B120" s="150" t="s">
+        <v>1251</v>
       </c>
       <c r="C120" s="47" t="s">
         <v>554</v>
@@ -66917,10 +66933,10 @@
       <c r="F120" s="43"/>
       <c r="G120" s="47"/>
     </row>
-    <row r="121" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A121" s="47"/>
       <c r="B121" s="150" t="s">
-        <v>1252</v>
+        <v>935</v>
       </c>
       <c r="C121" s="47" t="s">
         <v>554</v>
@@ -66932,10 +66948,10 @@
       <c r="F121" s="43"/>
       <c r="G121" s="47"/>
     </row>
-    <row r="122" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="47"/>
-      <c r="B122" s="150" t="s">
-        <v>935</v>
+      <c r="B122" s="144" t="s">
+        <v>937</v>
       </c>
       <c r="C122" s="47" t="s">
         <v>554</v>
@@ -66947,10 +66963,10 @@
       <c r="F122" s="43"/>
       <c r="G122" s="47"/>
     </row>
-    <row r="123" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
       <c r="B123" s="144" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="C123" s="47" t="s">
         <v>554</v>
@@ -66965,7 +66981,7 @@
     <row r="124" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A124" s="47"/>
       <c r="B124" s="144" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C124" s="47" t="s">
         <v>554</v>
@@ -66980,7 +66996,7 @@
     <row r="125" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A125" s="47"/>
       <c r="B125" s="144" t="s">
-        <v>944</v>
+        <v>960</v>
       </c>
       <c r="C125" s="47" t="s">
         <v>554</v>
@@ -66993,40 +67009,25 @@
       <c r="G125" s="47"/>
     </row>
     <row r="126" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A126" s="47"/>
-      <c r="B126" s="144" t="s">
-        <v>960</v>
-      </c>
-      <c r="C126" s="47" t="s">
+      <c r="A126" s="46"/>
+      <c r="B126" s="152" t="s">
+        <v>985</v>
+      </c>
+      <c r="C126" s="46" t="s">
         <v>554</v>
       </c>
-      <c r="D126" s="47"/>
-      <c r="E126" s="47" t="s">
+      <c r="D126" s="46"/>
+      <c r="E126" s="46" t="s">
         <v>479</v>
       </c>
-      <c r="F126" s="43"/>
-      <c r="G126" s="47"/>
-    </row>
-    <row r="127" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A127" s="46"/>
-      <c r="B127" s="152" t="s">
-        <v>985</v>
-      </c>
-      <c r="C127" s="46" t="s">
-        <v>554</v>
-      </c>
-      <c r="D127" s="46"/>
-      <c r="E127" s="46" t="s">
-        <v>479</v>
-      </c>
-      <c r="F127" s="46" t="s">
+      <c r="F126" s="46" t="s">
         <v>1148</v>
       </c>
-      <c r="G127" s="46"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B128" s="136" t="s">
-        <v>1289</v>
+      <c r="G126" s="46"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="136" t="s">
+        <v>1288</v>
       </c>
     </row>
   </sheetData>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Vasilev\SkyDrive\R\reading_sounds\Literature_search\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7515" tabRatio="987" activeTab="8"/>
   </bookViews>
@@ -27,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">' Step 2'!$A$2:$D$526</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">' Step 3'!$A$2:$C$344</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$128</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -39,7 +34,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B19" authorId="0" shapeId="0">
+    <comment ref="B19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +69,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B219" authorId="0" shapeId="0">
+    <comment ref="B219" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +105,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D67" authorId="0" shapeId="0">
+    <comment ref="D67" authorId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B135" authorId="1" shapeId="0">
+    <comment ref="B135" authorId="1">
       <text>
         <r>
           <rPr>
@@ -194,7 +189,7 @@
     <author>Martin,Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0">
+    <comment ref="F9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -242,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" shapeId="0">
+    <comment ref="F12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -266,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0" shapeId="0">
+    <comment ref="G21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -291,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0" shapeId="0">
+    <comment ref="G22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -319,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G41" authorId="0" shapeId="0">
+    <comment ref="G41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -344,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G60" authorId="0" shapeId="0">
+    <comment ref="G60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -371,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="0" shapeId="0">
+    <comment ref="B62" authorId="0">
       <text>
         <r>
           <rPr>
@@ -396,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F63" authorId="0" shapeId="0">
+    <comment ref="F63" authorId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="0" shapeId="0">
+    <comment ref="B67" authorId="0">
       <text>
         <r>
           <rPr>
@@ -445,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B68" authorId="0" shapeId="0">
+    <comment ref="B68" authorId="0">
       <text>
         <r>
           <rPr>
@@ -470,7 +465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D69" authorId="0" shapeId="0">
+    <comment ref="D69" authorId="0">
       <text>
         <r>
           <rPr>
@@ -494,7 +489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G69" authorId="0" shapeId="0">
+    <comment ref="G69" authorId="0">
       <text>
         <r>
           <rPr>
@@ -518,7 +513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G70" authorId="0" shapeId="0">
+    <comment ref="G70" authorId="0">
       <text>
         <r>
           <rPr>
@@ -543,7 +538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G71" authorId="0" shapeId="0">
+    <comment ref="G71" authorId="0">
       <text>
         <r>
           <rPr>
@@ -568,7 +563,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D72" authorId="0" shapeId="0">
+    <comment ref="D72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -592,7 +587,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F73" authorId="0" shapeId="0">
+    <comment ref="F73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -616,7 +611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F77" authorId="0" shapeId="0">
+    <comment ref="F77" authorId="0">
       <text>
         <r>
           <rPr>
@@ -641,7 +636,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D79" authorId="0" shapeId="0">
+    <comment ref="D79" authorId="0">
       <text>
         <r>
           <rPr>
@@ -665,7 +660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B84" authorId="0" shapeId="0">
+    <comment ref="B84" authorId="0">
       <text>
         <r>
           <rPr>
@@ -699,7 +694,7 @@
     <author>Martin,Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="D175" authorId="0" shapeId="0">
+    <comment ref="D175" authorId="0">
       <text>
         <r>
           <rPr>
@@ -733,7 +728,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B73" authorId="0" shapeId="0">
+    <comment ref="B73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -763,7 +758,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5638" uniqueCount="1320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5063" uniqueCount="1332">
   <si>
     <t>ID</t>
   </si>
@@ -37932,11 +37927,227 @@
   <si>
     <t>for reading speed, I take average of 1st and second pass;  participants brought their own music for the preferred condition</t>
   </si>
+  <si>
+    <r>
+      <t>Hyönä, J., &amp; Ekholm, M. (2016). Background Speech Effects on Sentence Processing during Reading: An Eye Movement Study. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PloS one</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(3), e0152133., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment 1</t>
+    </r>
+  </si>
+  <si>
+    <t>3 (background: silence, Finnish speech, Italian speech) x 2(sentence: complex, less complex)</t>
+  </si>
+  <si>
+    <t>syntactic complexity is averaged out; reading speed calculated as first-pass + lookback fixations</t>
+  </si>
+  <si>
+    <r>
+      <t>Hyönä, J., &amp; Ekholm, M. (2016). Background Speech Effects on Sentence Processing during Reading: An Eye Movement Study. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PloS one</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(3), e0152133., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment 2</t>
+    </r>
+  </si>
+  <si>
+    <t>3 (background: silence, scrambled-same speech, scrambled-different speech) x 2(sentence: complex, less complex)</t>
+  </si>
+  <si>
+    <t>syntactic complexity and same-different scrambled speech are averaged out</t>
+  </si>
+  <si>
+    <r>
+      <t>Hyönä, J., &amp; Ekholm, M. (2016). Background Speech Effects on Sentence Processing during Reading: An Eye Movement Study. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PloS one</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(3), e0152133., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment 3</t>
+    </r>
+  </si>
+  <si>
+    <t>3 (background: silence, Finnish speech, scrambled-different speech) x 2(sentence: complex, less complex)</t>
+  </si>
+  <si>
+    <t>syntactic complexity is averaged out</t>
+  </si>
+  <si>
+    <r>
+      <t>Hyönä, J., &amp; Ekholm, M. (2016). Background Speech Effects on Sentence Processing during Reading: An Eye Movement Study. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PloS one</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(3), e0152133., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment 4</t>
+    </r>
+  </si>
+  <si>
+    <t>3 (background: silence,  scrambled-sem. an. Speech, scrambled-sem.+synt. an. speech) x 2(sentence: complex, less complex)</t>
+  </si>
+  <si>
+    <t>syntactic complexity and type of scrambled speech are averaged out</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="65" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -39014,14 +39225,14 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -39368,7 +39579,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -50327,7 +50538,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D20"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50563,7 +50774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="C55" sqref="B13:C55"/>
     </sheetView>
   </sheetViews>
@@ -51143,7 +51354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
@@ -51154,14 +51365,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="164"/>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
+      <c r="A1" s="166"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -64522,10 +64733,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C52" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65249,7 +65460,7 @@
       <c r="A34" s="58">
         <v>32</v>
       </c>
-      <c r="B34" s="166" t="s">
+      <c r="B34" s="165" t="s">
         <v>703</v>
       </c>
       <c r="C34" s="47" t="s">
@@ -66430,7 +66641,7 @@
       <c r="A88" s="58">
         <v>86</v>
       </c>
-      <c r="B88" s="165" t="s">
+      <c r="B88" s="164" t="s">
         <v>90</v>
       </c>
       <c r="C88" s="47" t="s">
@@ -66449,70 +66660,102 @@
         <v>479</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="47"/>
-      <c r="B89" s="144" t="s">
-        <v>895</v>
+    <row r="89" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="58">
+        <v>87</v>
+      </c>
+      <c r="B89" s="150" t="s">
+        <v>1320</v>
       </c>
       <c r="C89" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D89" s="47"/>
-      <c r="E89" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D89" s="61" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E89" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F89" s="61" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G89" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F89" s="43"/>
-      <c r="G89" s="47"/>
-    </row>
-    <row r="90" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="47"/>
+    </row>
+    <row r="90" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="58">
+        <v>88</v>
+      </c>
       <c r="B90" s="150" t="s">
-        <v>900</v>
+        <v>1323</v>
       </c>
       <c r="C90" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D90" s="47"/>
-      <c r="E90" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D90" s="61" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E90" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F90" s="61" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G90" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F90" s="43"/>
-      <c r="G90" s="47"/>
-    </row>
-    <row r="91" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="47"/>
-      <c r="B91" s="144" t="s">
-        <v>901</v>
+    </row>
+    <row r="91" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="58">
+        <v>89</v>
+      </c>
+      <c r="B91" s="150" t="s">
+        <v>1326</v>
       </c>
       <c r="C91" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D91" s="47"/>
-      <c r="E91" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D91" s="61" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E91" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F91" s="61" t="s">
+        <v>1328</v>
+      </c>
+      <c r="G91" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F91" s="43"/>
-      <c r="G91" s="47"/>
-    </row>
-    <row r="92" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="121"/>
-      <c r="B92" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="C92" s="121" t="s">
-        <v>282</v>
-      </c>
-      <c r="D92" s="121"/>
-      <c r="E92" s="121"/>
-      <c r="F92" s="122" t="s">
-        <v>835</v>
-      </c>
-      <c r="G92" s="151"/>
-    </row>
-    <row r="93" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:7" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="47">
+        <v>90</v>
+      </c>
+      <c r="B92" s="150" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C92" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D92" s="61" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E92" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F92" s="61" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G92" s="47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="47"/>
       <c r="B93" s="144" t="s">
-        <v>762</v>
+        <v>895</v>
       </c>
       <c r="C93" s="47" t="s">
         <v>282</v>
@@ -66524,10 +66767,10 @@
       <c r="F93" s="43"/>
       <c r="G93" s="47"/>
     </row>
-    <row r="94" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="47"/>
-      <c r="B94" s="51" t="s">
-        <v>82</v>
+      <c r="B94" s="150" t="s">
+        <v>900</v>
       </c>
       <c r="C94" s="47" t="s">
         <v>282</v>
@@ -66539,10 +66782,10 @@
       <c r="F94" s="43"/>
       <c r="G94" s="47"/>
     </row>
-    <row r="95" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="47"/>
-      <c r="B95" s="145" t="s">
-        <v>81</v>
+      <c r="B95" s="144" t="s">
+        <v>901</v>
       </c>
       <c r="C95" s="47" t="s">
         <v>282</v>
@@ -66554,25 +66797,25 @@
       <c r="F95" s="43"/>
       <c r="G95" s="47"/>
     </row>
-    <row r="96" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="47"/>
-      <c r="B96" s="150" t="s">
-        <v>933</v>
-      </c>
-      <c r="C96" s="47" t="s">
+    <row r="96" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A96" s="121"/>
+      <c r="B96" s="142" t="s">
+        <v>55</v>
+      </c>
+      <c r="C96" s="121" t="s">
         <v>282</v>
       </c>
-      <c r="D96" s="47"/>
-      <c r="E96" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F96" s="43"/>
-      <c r="G96" s="47"/>
-    </row>
-    <row r="97" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D96" s="121"/>
+      <c r="E96" s="121"/>
+      <c r="F96" s="122" t="s">
+        <v>835</v>
+      </c>
+      <c r="G96" s="151"/>
+    </row>
+    <row r="97" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="47"/>
-      <c r="B97" s="51" t="s">
-        <v>938</v>
+      <c r="B97" s="144" t="s">
+        <v>762</v>
       </c>
       <c r="C97" s="47" t="s">
         <v>282</v>
@@ -66584,10 +66827,10 @@
       <c r="F97" s="43"/>
       <c r="G97" s="47"/>
     </row>
-    <row r="98" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="47"/>
-      <c r="B98" s="150" t="s">
-        <v>939</v>
+      <c r="B98" s="51" t="s">
+        <v>82</v>
       </c>
       <c r="C98" s="47" t="s">
         <v>282</v>
@@ -66599,10 +66842,10 @@
       <c r="F98" s="43"/>
       <c r="G98" s="47"/>
     </row>
-    <row r="99" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
-      <c r="B99" s="51" t="s">
-        <v>940</v>
+      <c r="B99" s="145" t="s">
+        <v>81</v>
       </c>
       <c r="C99" s="47" t="s">
         <v>282</v>
@@ -66616,8 +66859,8 @@
     </row>
     <row r="100" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="47"/>
-      <c r="B100" s="51" t="s">
-        <v>941</v>
+      <c r="B100" s="150" t="s">
+        <v>933</v>
       </c>
       <c r="C100" s="47" t="s">
         <v>282</v>
@@ -66629,10 +66872,10 @@
       <c r="F100" s="43"/>
       <c r="G100" s="47"/>
     </row>
-    <row r="101" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="47"/>
-      <c r="B101" s="145" t="s">
-        <v>737</v>
+      <c r="B101" s="51" t="s">
+        <v>938</v>
       </c>
       <c r="C101" s="47" t="s">
         <v>282</v>
@@ -66644,10 +66887,10 @@
       <c r="F101" s="43"/>
       <c r="G101" s="47"/>
     </row>
-    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="47"/>
       <c r="B102" s="150" t="s">
-        <v>957</v>
+        <v>939</v>
       </c>
       <c r="C102" s="47" t="s">
         <v>282</v>
@@ -66659,10 +66902,10 @@
       <c r="F102" s="43"/>
       <c r="G102" s="47"/>
     </row>
-    <row r="103" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="47"/>
-      <c r="B103" s="145" t="s">
-        <v>958</v>
+      <c r="B103" s="51" t="s">
+        <v>940</v>
       </c>
       <c r="C103" s="47" t="s">
         <v>282</v>
@@ -66674,10 +66917,10 @@
       <c r="F103" s="43"/>
       <c r="G103" s="47"/>
     </row>
-    <row r="104" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="47"/>
-      <c r="B104" s="150" t="s">
-        <v>991</v>
+      <c r="B104" s="51" t="s">
+        <v>941</v>
       </c>
       <c r="C104" s="47" t="s">
         <v>282</v>
@@ -66689,10 +66932,10 @@
       <c r="F104" s="43"/>
       <c r="G104" s="47"/>
     </row>
-    <row r="105" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A105" s="47"/>
-      <c r="B105" s="51" t="s">
-        <v>139</v>
+      <c r="B105" s="145" t="s">
+        <v>737</v>
       </c>
       <c r="C105" s="47" t="s">
         <v>282</v>
@@ -66704,10 +66947,10 @@
       <c r="F105" s="43"/>
       <c r="G105" s="47"/>
     </row>
-    <row r="106" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="47"/>
-      <c r="B106" s="51" t="s">
-        <v>1002</v>
+      <c r="B106" s="150" t="s">
+        <v>957</v>
       </c>
       <c r="C106" s="47" t="s">
         <v>282</v>
@@ -66719,10 +66962,10 @@
       <c r="F106" s="43"/>
       <c r="G106" s="47"/>
     </row>
-    <row r="107" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="47"/>
-      <c r="B107" s="51" t="s">
-        <v>88</v>
+      <c r="B107" s="145" t="s">
+        <v>958</v>
       </c>
       <c r="C107" s="47" t="s">
         <v>282</v>
@@ -66734,10 +66977,10 @@
       <c r="F107" s="43"/>
       <c r="G107" s="47"/>
     </row>
-    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="47"/>
-      <c r="B108" s="147" t="s">
-        <v>1021</v>
+      <c r="B108" s="150" t="s">
+        <v>991</v>
       </c>
       <c r="C108" s="47" t="s">
         <v>282</v>
@@ -66749,10 +66992,10 @@
       <c r="F108" s="43"/>
       <c r="G108" s="47"/>
     </row>
-    <row r="109" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="47"/>
-      <c r="B109" s="145" t="s">
-        <v>58</v>
+      <c r="B109" s="51" t="s">
+        <v>139</v>
       </c>
       <c r="C109" s="47" t="s">
         <v>282</v>
@@ -66764,10 +67007,10 @@
       <c r="F109" s="43"/>
       <c r="G109" s="47"/>
     </row>
-    <row r="110" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="47"/>
-      <c r="B110" s="144" t="s">
-        <v>1053</v>
+      <c r="B110" s="51" t="s">
+        <v>1002</v>
       </c>
       <c r="C110" s="47" t="s">
         <v>282</v>
@@ -66779,10 +67022,10 @@
       <c r="F110" s="43"/>
       <c r="G110" s="47"/>
     </row>
-    <row r="111" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A111" s="47"/>
       <c r="B111" s="51" t="s">
-        <v>1054</v>
+        <v>88</v>
       </c>
       <c r="C111" s="47" t="s">
         <v>282</v>
@@ -66794,10 +67037,10 @@
       <c r="F111" s="43"/>
       <c r="G111" s="47"/>
     </row>
-    <row r="112" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="47"/>
       <c r="B112" s="147" t="s">
-        <v>1066</v>
+        <v>1021</v>
       </c>
       <c r="C112" s="47" t="s">
         <v>282</v>
@@ -66809,10 +67052,10 @@
       <c r="F112" s="43"/>
       <c r="G112" s="47"/>
     </row>
-    <row r="113" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="47"/>
-      <c r="B113" s="150" t="s">
-        <v>188</v>
+      <c r="B113" s="145" t="s">
+        <v>58</v>
       </c>
       <c r="C113" s="47" t="s">
         <v>282</v>
@@ -66821,15 +67064,13 @@
       <c r="E113" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F113" s="47" t="s">
-        <v>1269</v>
-      </c>
+      <c r="F113" s="43"/>
       <c r="G113" s="47"/>
     </row>
-    <row r="114" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="47"/>
-      <c r="B114" s="145" t="s">
-        <v>80</v>
+      <c r="B114" s="144" t="s">
+        <v>1053</v>
       </c>
       <c r="C114" s="47" t="s">
         <v>282</v>
@@ -66841,13 +67082,13 @@
       <c r="F114" s="43"/>
       <c r="G114" s="47"/>
     </row>
-    <row r="115" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A115" s="47"/>
-      <c r="B115" s="150" t="s">
-        <v>769</v>
+      <c r="B115" s="51" t="s">
+        <v>1054</v>
       </c>
       <c r="C115" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D115" s="47"/>
       <c r="E115" s="47" t="s">
@@ -66856,13 +67097,13 @@
       <c r="F115" s="43"/>
       <c r="G115" s="47"/>
     </row>
-    <row r="116" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="47"/>
-      <c r="B116" s="143" t="s">
-        <v>775</v>
+      <c r="B116" s="147" t="s">
+        <v>1066</v>
       </c>
       <c r="C116" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D116" s="47"/>
       <c r="E116" s="47" t="s">
@@ -66871,45 +67112,45 @@
       <c r="F116" s="43"/>
       <c r="G116" s="47"/>
     </row>
-    <row r="117" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="47"/>
-      <c r="B117" s="145" t="s">
-        <v>783</v>
+      <c r="B117" s="150" t="s">
+        <v>188</v>
       </c>
       <c r="C117" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D117" s="47"/>
       <c r="E117" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F117" s="43"/>
+      <c r="F117" s="47" t="s">
+        <v>1269</v>
+      </c>
       <c r="G117" s="47"/>
     </row>
-    <row r="118" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A118" s="47"/>
-      <c r="B118" s="144" t="s">
-        <v>768</v>
+      <c r="B118" s="145" t="s">
+        <v>80</v>
       </c>
       <c r="C118" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D118" s="47"/>
       <c r="E118" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F118" s="43" t="s">
-        <v>846</v>
-      </c>
+      <c r="F118" s="43"/>
       <c r="G118" s="47"/>
     </row>
-    <row r="119" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="47"/>
-      <c r="B119" s="144" t="s">
-        <v>865</v>
+      <c r="B119" s="150" t="s">
+        <v>769</v>
       </c>
       <c r="C119" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D119" s="47"/>
       <c r="E119" s="47" t="s">
@@ -66918,13 +67159,13 @@
       <c r="F119" s="43"/>
       <c r="G119" s="47"/>
     </row>
-    <row r="120" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="47"/>
-      <c r="B120" s="150" t="s">
-        <v>1251</v>
+      <c r="B120" s="143" t="s">
+        <v>775</v>
       </c>
       <c r="C120" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D120" s="47"/>
       <c r="E120" s="47" t="s">
@@ -66933,13 +67174,13 @@
       <c r="F120" s="43"/>
       <c r="G120" s="47"/>
     </row>
-    <row r="121" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A121" s="47"/>
-      <c r="B121" s="150" t="s">
-        <v>935</v>
+      <c r="B121" s="145" t="s">
+        <v>783</v>
       </c>
       <c r="C121" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D121" s="47"/>
       <c r="E121" s="47" t="s">
@@ -66948,25 +67189,27 @@
       <c r="F121" s="43"/>
       <c r="G121" s="47"/>
     </row>
-    <row r="122" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="47"/>
       <c r="B122" s="144" t="s">
-        <v>937</v>
+        <v>768</v>
       </c>
       <c r="C122" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D122" s="47"/>
       <c r="E122" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F122" s="43"/>
+      <c r="F122" s="43" t="s">
+        <v>846</v>
+      </c>
       <c r="G122" s="47"/>
     </row>
-    <row r="123" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
       <c r="B123" s="144" t="s">
-        <v>943</v>
+        <v>865</v>
       </c>
       <c r="C123" s="47" t="s">
         <v>554</v>
@@ -66978,10 +67221,10 @@
       <c r="F123" s="43"/>
       <c r="G123" s="47"/>
     </row>
-    <row r="124" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A124" s="47"/>
-      <c r="B124" s="144" t="s">
-        <v>944</v>
+      <c r="B124" s="150" t="s">
+        <v>1251</v>
       </c>
       <c r="C124" s="47" t="s">
         <v>554</v>
@@ -66993,10 +67236,10 @@
       <c r="F124" s="43"/>
       <c r="G124" s="47"/>
     </row>
-    <row r="125" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="47"/>
-      <c r="B125" s="144" t="s">
-        <v>960</v>
+      <c r="B125" s="150" t="s">
+        <v>935</v>
       </c>
       <c r="C125" s="47" t="s">
         <v>554</v>
@@ -67008,33 +67251,78 @@
       <c r="F125" s="43"/>
       <c r="G125" s="47"/>
     </row>
-    <row r="126" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A126" s="46"/>
-      <c r="B126" s="152" t="s">
+    <row r="126" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="47"/>
+      <c r="B126" s="144" t="s">
+        <v>937</v>
+      </c>
+      <c r="C126" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D126" s="47"/>
+      <c r="E126" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F126" s="43"/>
+      <c r="G126" s="47"/>
+    </row>
+    <row r="127" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A127" s="47"/>
+      <c r="B127" s="144" t="s">
+        <v>943</v>
+      </c>
+      <c r="C127" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D127" s="47"/>
+      <c r="E127" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F127" s="43"/>
+      <c r="G127" s="47"/>
+    </row>
+    <row r="128" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A128" s="47"/>
+      <c r="B128" s="144" t="s">
+        <v>944</v>
+      </c>
+      <c r="C128" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D128" s="47"/>
+      <c r="E128" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F128" s="43"/>
+      <c r="G128" s="47"/>
+    </row>
+    <row r="129" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A129" s="46"/>
+      <c r="B129" s="152" t="s">
         <v>985</v>
       </c>
-      <c r="C126" s="46" t="s">
+      <c r="C129" s="46" t="s">
         <v>554</v>
       </c>
-      <c r="D126" s="46"/>
-      <c r="E126" s="46" t="s">
+      <c r="D129" s="46"/>
+      <c r="E129" s="46" t="s">
         <v>479</v>
       </c>
-      <c r="F126" s="46" t="s">
+      <c r="F129" s="46" t="s">
         <v>1148</v>
       </c>
-      <c r="G126" s="46"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B127" s="136" t="s">
+      <c r="G129" s="46"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="136" t="s">
         <v>1288</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:G128">
-    <sortCondition ref="A3:A128"/>
-    <sortCondition ref="C3:C128"/>
-    <sortCondition ref="B3:B128"/>
+  <sortState ref="A3:G127">
+    <sortCondition ref="A3:A127"/>
+    <sortCondition ref="C3:C127"/>
+    <sortCondition ref="B3:B127"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">' Step 2'!$A$2:$D$526</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">' Step 3'!$A$2:$C$344</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$131</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -684,6 +684,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="F93" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+TV-during-reading condition is coded as most studies had sound exposure only during reading</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F94" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Groups 1 (control) and 4 (experimental) are the correct comparison here for the following reasons. In group 6, the music was different for each subject, which deviates from the remaining studies in the meta-analysis. The remaining groups were either dual-task, or did not have a reading task. </t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -758,7 +806,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5063" uniqueCount="1332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5093" uniqueCount="1343">
   <si>
     <t>ID</t>
   </si>
@@ -37514,9 +37562,6 @@
     <t>I average out the two assessment conditions because 5-min delay is not untypical and has been used in a number of other studies that were included</t>
   </si>
   <si>
-    <t>the other armstring paper (also add in all previous tabs!!!!)</t>
-  </si>
-  <si>
     <t>2 (task: easy, difficult)  x3 (background: silence, music videos, soap opera)</t>
   </si>
   <si>
@@ -38142,6 +38187,78 @@
   </si>
   <si>
     <t>syntactic complexity and type of scrambled speech are averaged out</t>
+  </si>
+  <si>
+    <t>Madsen, C. K. (1987). Background music: Competition for focus of attention. Applications of research in music behavior, 315-325.</t>
+  </si>
+  <si>
+    <t>I use observed means, as no adjusted SDs are reported; only multiple-choice scores are coded (to keep consistency withprevious studies)</t>
+  </si>
+  <si>
+    <t>4 (background: silence, TV-during-reading, TV-during-test, TV-during-both )</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Madsen, C. K. (1987). Background music: Competition for focus of attention. Applications of research in music behavior, 315-325. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment 1</t>
+    </r>
+  </si>
+  <si>
+    <t>the other armstrong paper (also add in all previous tabs!!!!)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Madsen, C. K. (1987). Background music: Competition for focus of attention. Applications of research in music behavior, 315-325. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment 2</t>
+    </r>
+  </si>
+  <si>
+    <t>within-subject design</t>
+  </si>
+  <si>
+    <t>There was no condition where participants were reading with music in the background (no dual task)</t>
+  </si>
+  <si>
+    <t>3(Test: reading, music, both simultaneously)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Banbury, S., &amp; Berry, D. C. (1997). Habituation and dishabituation to speech and office noise. Journal of Experimental Psychology: Applied, 3(3), 181., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment 2</t>
+    </r>
+  </si>
+  <si>
+    <t>5(background: noise: repeating speech, continuous
+speech, random speech, speech control,  quiet  x 2 (habituation: before, after)</t>
+  </si>
+  <si>
+    <t>task is a measure of learning/ serial memory rather than reading per se</t>
   </si>
 </sst>
 </file>
@@ -38612,7 +38729,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -38715,6 +38832,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -38766,7 +38889,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -39234,6 +39357,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -39579,7 +39712,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -50772,10 +50905,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C55" sqref="B13:C55"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51034,15 +51167,15 @@
         <v>759</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>19</v>
       </c>
-      <c r="B31" s="108" t="s">
-        <v>762</v>
+      <c r="B31" s="103" t="s">
+        <v>1331</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="39" x14ac:dyDescent="0.25">
@@ -51050,18 +51183,18 @@
         <v>20</v>
       </c>
       <c r="B32" s="108" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>21</v>
       </c>
       <c r="B33" s="108" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>764</v>
@@ -51072,7 +51205,7 @@
         <v>22</v>
       </c>
       <c r="B34" s="108" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>764</v>
@@ -51083,106 +51216,106 @@
         <v>23</v>
       </c>
       <c r="B35" s="108" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>24</v>
       </c>
-      <c r="B36" s="103" t="s">
-        <v>771</v>
+      <c r="B36" s="108" t="s">
+        <v>769</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>25</v>
       </c>
       <c r="B37" s="103" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>26</v>
       </c>
       <c r="B38" s="103" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>27</v>
       </c>
       <c r="B39" s="103" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>28</v>
       </c>
       <c r="B40" s="103" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>29</v>
       </c>
       <c r="B41" s="103" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>30</v>
       </c>
       <c r="B42" s="103" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>31</v>
       </c>
-      <c r="B43" s="110" t="s">
-        <v>781</v>
+      <c r="B43" s="103" t="s">
+        <v>780</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>32</v>
       </c>
-      <c r="B44" s="103" t="s">
-        <v>782</v>
+      <c r="B44" s="110" t="s">
+        <v>781</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>777</v>
@@ -51193,7 +51326,7 @@
         <v>33</v>
       </c>
       <c r="B45" s="103" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>777</v>
@@ -51204,29 +51337,29 @@
         <v>34</v>
       </c>
       <c r="B46" s="103" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>35</v>
       </c>
       <c r="B47" s="103" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>36</v>
       </c>
       <c r="B48" s="103" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>777</v>
@@ -51237,7 +51370,7 @@
         <v>37</v>
       </c>
       <c r="B49" s="103" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>777</v>
@@ -51248,10 +51381,10 @@
         <v>38</v>
       </c>
       <c r="B50" s="103" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -51259,7 +51392,7 @@
         <v>39</v>
       </c>
       <c r="B51" s="103" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>789</v>
@@ -51270,32 +51403,32 @@
         <v>40</v>
       </c>
       <c r="B52" s="103" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>41</v>
       </c>
-      <c r="B53" s="108" t="s">
-        <v>793</v>
+      <c r="B53" s="103" t="s">
+        <v>792</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>42</v>
       </c>
-      <c r="B54" s="103" t="s">
-        <v>794</v>
+      <c r="B54" s="108" t="s">
+        <v>793</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -51303,50 +51436,26 @@
         <v>43</v>
       </c>
       <c r="B55" s="103" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>44</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="12">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="12">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="12">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="12">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="12">
-        <v>50</v>
+      <c r="B56" s="103" t="s">
+        <v>797</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>796</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -52141,10 +52250,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D527"/>
+  <dimension ref="A1:D528"/>
   <sheetViews>
-    <sheetView topLeftCell="A509" workbookViewId="0">
-      <selection activeCell="F522" sqref="F522"/>
+    <sheetView topLeftCell="A521" workbookViewId="0">
+      <selection activeCell="B528" sqref="B528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59515,6 +59624,17 @@
       </c>
       <c r="D527">
         <v>525</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B528" s="103" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C528" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="D528">
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -59532,10 +59652,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E344"/>
+  <dimension ref="A1:E345"/>
   <sheetViews>
-    <sheetView topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="B283" sqref="B283"/>
+    <sheetView topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="B345" sqref="B345:D345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63766,7 +63886,7 @@
         <v>282</v>
       </c>
       <c r="D281" s="58" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E281" s="17"/>
     </row>
@@ -64720,6 +64840,21 @@
         <v>479</v>
       </c>
       <c r="E344" s="17"/>
+    </row>
+    <row r="345" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A345" s="58">
+        <v>343</v>
+      </c>
+      <c r="B345" s="33" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C345" s="58" t="s">
+        <v>798</v>
+      </c>
+      <c r="D345" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E345" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -64733,10 +64868,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64788,13 +64923,13 @@
         <v>554</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E3" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="G3" s="47" t="s">
         <v>479</v>
@@ -64811,7 +64946,7 @@
         <v>554</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E4" s="58" t="s">
         <v>1127</v>
@@ -64832,13 +64967,13 @@
         <v>320</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E5" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="G5" s="47" t="s">
         <v>479</v>
@@ -64855,7 +64990,7 @@
         <v>320</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E6" s="58" t="s">
         <v>1127</v>
@@ -65908,7 +66043,7 @@
         <v>1127</v>
       </c>
       <c r="F54" s="65" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="G54" s="47" t="s">
         <v>479</v>
@@ -66427,19 +66562,19 @@
         <v>76</v>
       </c>
       <c r="B78" s="145" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C78" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D78" s="61" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E78" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F78" s="61" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="G78" s="47" t="s">
         <v>479</v>
@@ -66450,19 +66585,19 @@
         <v>77</v>
       </c>
       <c r="B79" s="145" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C79" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D79" s="61" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E79" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F79" s="61" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="G79" s="47" t="s">
         <v>479</v>
@@ -66473,19 +66608,19 @@
         <v>78</v>
       </c>
       <c r="B80" s="145" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C80" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D80" s="61" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="E80" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="G80" s="61" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -66493,13 +66628,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="144" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C81" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D81" s="61" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E81" s="46" t="s">
         <v>1134</v>
@@ -66514,20 +66649,20 @@
         <v>80</v>
       </c>
       <c r="B82" s="162" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C82" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D82" s="61" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E82" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F82" s="43"/>
       <c r="G82" s="61" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -66535,13 +66670,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="144" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C83" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D83" s="61" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E83" s="46" t="s">
         <v>1134</v>
@@ -66556,13 +66691,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="144" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C84" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D84" s="61" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E84" s="46" t="s">
         <v>1134</v>
@@ -66583,14 +66718,14 @@
         <v>554</v>
       </c>
       <c r="D85" s="61" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E85" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F85" s="43"/>
       <c r="G85" s="61" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -66604,13 +66739,13 @@
         <v>282</v>
       </c>
       <c r="D86" s="61" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E86" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F86" s="53" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="G86" s="61" t="s">
         <v>1205</v>
@@ -66627,7 +66762,7 @@
         <v>554</v>
       </c>
       <c r="D87" s="61" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E87" s="46" t="s">
         <v>1134</v>
@@ -66648,13 +66783,13 @@
         <v>282</v>
       </c>
       <c r="D88" s="61" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E88" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F88" s="61" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="G88" s="47" t="s">
         <v>479</v>
@@ -66665,19 +66800,19 @@
         <v>87</v>
       </c>
       <c r="B89" s="150" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C89" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D89" s="61" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E89" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F89" s="61" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="G89" s="47" t="s">
         <v>479</v>
@@ -66688,19 +66823,19 @@
         <v>88</v>
       </c>
       <c r="B90" s="150" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C90" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D90" s="61" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E90" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F90" s="61" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="G90" s="47" t="s">
         <v>479</v>
@@ -66711,114 +66846,146 @@
         <v>89</v>
       </c>
       <c r="B91" s="150" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C91" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D91" s="61" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="E91" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F91" s="61" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G91" s="47" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="47">
+      <c r="A92" s="58">
         <v>90</v>
       </c>
       <c r="B92" s="150" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C92" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D92" s="61" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E92" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F92" s="61" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G92" s="47" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="47"/>
+    <row r="93" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="58">
+        <v>91</v>
+      </c>
       <c r="B93" s="144" t="s">
-        <v>895</v>
+        <v>865</v>
       </c>
       <c r="C93" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D93" s="47"/>
-      <c r="E93" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D93" s="61" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E93" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F93" s="61" t="s">
+        <v>1332</v>
+      </c>
+      <c r="G93" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F93" s="43"/>
-      <c r="G93" s="47"/>
     </row>
     <row r="94" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="47"/>
-      <c r="B94" s="150" t="s">
-        <v>900</v>
+      <c r="A94" s="58">
+        <v>92</v>
+      </c>
+      <c r="B94" s="65" t="s">
+        <v>1334</v>
       </c>
       <c r="C94" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D94" s="47"/>
-      <c r="E94" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D94" s="61" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E94" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F94" s="61" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G94" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="F94" s="43"/>
-      <c r="G94" s="47"/>
-    </row>
-    <row r="95" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="47"/>
-      <c r="B95" s="144" t="s">
-        <v>901</v>
+    </row>
+    <row r="95" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="58">
+        <v>93</v>
+      </c>
+      <c r="B95" s="65" t="s">
+        <v>1336</v>
       </c>
       <c r="C95" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D95" s="47"/>
-      <c r="E95" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F95" s="43"/>
-      <c r="G95" s="47"/>
-    </row>
-    <row r="96" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A96" s="121"/>
-      <c r="B96" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="C96" s="121" t="s">
-        <v>282</v>
-      </c>
-      <c r="D96" s="121"/>
-      <c r="E96" s="121"/>
-      <c r="F96" s="122" t="s">
-        <v>835</v>
-      </c>
-      <c r="G96" s="151"/>
-    </row>
-    <row r="97" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="47"/>
-      <c r="B97" s="144" t="s">
-        <v>762</v>
+        <v>798</v>
+      </c>
+      <c r="D95" s="61" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E95" s="46" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F95" s="61" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G95" s="62" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="58">
+        <v>94</v>
+      </c>
+      <c r="B96" s="168" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C96" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D96" s="61" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E96" s="46" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F96" s="43"/>
+      <c r="G96" s="61" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="47">
+        <v>95</v>
+      </c>
+      <c r="B97" s="168" t="s">
+        <v>1340</v>
       </c>
       <c r="C97" s="47" t="s">
-        <v>282</v>
+        <v>554</v>
       </c>
       <c r="D97" s="47"/>
       <c r="E97" s="47" t="s">
@@ -66827,13 +66994,15 @@
       <c r="F97" s="43"/>
       <c r="G97" s="47"/>
     </row>
-    <row r="98" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="47"/>
-      <c r="B98" s="51" t="s">
-        <v>82</v>
+    <row r="98" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="47">
+        <v>96</v>
+      </c>
+      <c r="B98" s="168" t="s">
+        <v>1340</v>
       </c>
       <c r="C98" s="47" t="s">
-        <v>282</v>
+        <v>554</v>
       </c>
       <c r="D98" s="47"/>
       <c r="E98" s="47" t="s">
@@ -66842,10 +67011,10 @@
       <c r="F98" s="43"/>
       <c r="G98" s="47"/>
     </row>
-    <row r="99" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
-      <c r="B99" s="145" t="s">
-        <v>81</v>
+      <c r="B99" s="144" t="s">
+        <v>895</v>
       </c>
       <c r="C99" s="47" t="s">
         <v>282</v>
@@ -66857,10 +67026,10 @@
       <c r="F99" s="43"/>
       <c r="G99" s="47"/>
     </row>
-    <row r="100" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="47"/>
       <c r="B100" s="150" t="s">
-        <v>933</v>
+        <v>900</v>
       </c>
       <c r="C100" s="47" t="s">
         <v>282</v>
@@ -66872,10 +67041,10 @@
       <c r="F100" s="43"/>
       <c r="G100" s="47"/>
     </row>
-    <row r="101" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="47"/>
-      <c r="B101" s="51" t="s">
-        <v>938</v>
+      <c r="B101" s="144" t="s">
+        <v>901</v>
       </c>
       <c r="C101" s="47" t="s">
         <v>282</v>
@@ -66887,25 +67056,25 @@
       <c r="F101" s="43"/>
       <c r="G101" s="47"/>
     </row>
-    <row r="102" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="47"/>
-      <c r="B102" s="150" t="s">
-        <v>939</v>
-      </c>
-      <c r="C102" s="47" t="s">
+    <row r="102" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="121"/>
+      <c r="B102" s="142" t="s">
+        <v>55</v>
+      </c>
+      <c r="C102" s="121" t="s">
         <v>282</v>
       </c>
-      <c r="D102" s="47"/>
-      <c r="E102" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F102" s="43"/>
-      <c r="G102" s="47"/>
+      <c r="D102" s="121"/>
+      <c r="E102" s="121"/>
+      <c r="F102" s="122" t="s">
+        <v>835</v>
+      </c>
+      <c r="G102" s="151"/>
     </row>
     <row r="103" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="47"/>
-      <c r="B103" s="51" t="s">
-        <v>940</v>
+      <c r="B103" s="144" t="s">
+        <v>762</v>
       </c>
       <c r="C103" s="47" t="s">
         <v>282</v>
@@ -66917,10 +67086,10 @@
       <c r="F103" s="43"/>
       <c r="G103" s="47"/>
     </row>
-    <row r="104" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="47"/>
       <c r="B104" s="51" t="s">
-        <v>941</v>
+        <v>82</v>
       </c>
       <c r="C104" s="47" t="s">
         <v>282</v>
@@ -66932,10 +67101,10 @@
       <c r="F104" s="43"/>
       <c r="G104" s="47"/>
     </row>
-    <row r="105" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="47"/>
       <c r="B105" s="145" t="s">
-        <v>737</v>
+        <v>81</v>
       </c>
       <c r="C105" s="47" t="s">
         <v>282</v>
@@ -66947,10 +67116,10 @@
       <c r="F105" s="43"/>
       <c r="G105" s="47"/>
     </row>
-    <row r="106" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="47"/>
       <c r="B106" s="150" t="s">
-        <v>957</v>
+        <v>933</v>
       </c>
       <c r="C106" s="47" t="s">
         <v>282</v>
@@ -66962,10 +67131,10 @@
       <c r="F106" s="43"/>
       <c r="G106" s="47"/>
     </row>
-    <row r="107" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="47"/>
-      <c r="B107" s="145" t="s">
-        <v>958</v>
+      <c r="B107" s="51" t="s">
+        <v>938</v>
       </c>
       <c r="C107" s="47" t="s">
         <v>282</v>
@@ -66977,10 +67146,10 @@
       <c r="F107" s="43"/>
       <c r="G107" s="47"/>
     </row>
-    <row r="108" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="47"/>
       <c r="B108" s="150" t="s">
-        <v>991</v>
+        <v>939</v>
       </c>
       <c r="C108" s="47" t="s">
         <v>282</v>
@@ -66992,10 +67161,10 @@
       <c r="F108" s="43"/>
       <c r="G108" s="47"/>
     </row>
-    <row r="109" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="47"/>
       <c r="B109" s="51" t="s">
-        <v>139</v>
+        <v>940</v>
       </c>
       <c r="C109" s="47" t="s">
         <v>282</v>
@@ -67007,10 +67176,10 @@
       <c r="F109" s="43"/>
       <c r="G109" s="47"/>
     </row>
-    <row r="110" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="47"/>
       <c r="B110" s="51" t="s">
-        <v>1002</v>
+        <v>941</v>
       </c>
       <c r="C110" s="47" t="s">
         <v>282</v>
@@ -67022,10 +67191,10 @@
       <c r="F110" s="43"/>
       <c r="G110" s="47"/>
     </row>
-    <row r="111" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="47"/>
-      <c r="B111" s="51" t="s">
-        <v>88</v>
+      <c r="B111" s="167" t="s">
+        <v>737</v>
       </c>
       <c r="C111" s="47" t="s">
         <v>282</v>
@@ -67037,10 +67206,10 @@
       <c r="F111" s="43"/>
       <c r="G111" s="47"/>
     </row>
-    <row r="112" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="47"/>
-      <c r="B112" s="147" t="s">
-        <v>1021</v>
+      <c r="B112" s="168" t="s">
+        <v>957</v>
       </c>
       <c r="C112" s="47" t="s">
         <v>282</v>
@@ -67052,10 +67221,10 @@
       <c r="F112" s="43"/>
       <c r="G112" s="47"/>
     </row>
-    <row r="113" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="47"/>
       <c r="B113" s="145" t="s">
-        <v>58</v>
+        <v>958</v>
       </c>
       <c r="C113" s="47" t="s">
         <v>282</v>
@@ -67067,10 +67236,10 @@
       <c r="F113" s="43"/>
       <c r="G113" s="47"/>
     </row>
-    <row r="114" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A114" s="47"/>
-      <c r="B114" s="144" t="s">
-        <v>1053</v>
+      <c r="B114" s="150" t="s">
+        <v>991</v>
       </c>
       <c r="C114" s="47" t="s">
         <v>282</v>
@@ -67082,10 +67251,10 @@
       <c r="F114" s="43"/>
       <c r="G114" s="47"/>
     </row>
-    <row r="115" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="47"/>
       <c r="B115" s="51" t="s">
-        <v>1054</v>
+        <v>139</v>
       </c>
       <c r="C115" s="47" t="s">
         <v>282</v>
@@ -67097,10 +67266,10 @@
       <c r="F115" s="43"/>
       <c r="G115" s="47"/>
     </row>
-    <row r="116" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="47"/>
-      <c r="B116" s="147" t="s">
-        <v>1066</v>
+      <c r="B116" s="51" t="s">
+        <v>1002</v>
       </c>
       <c r="C116" s="47" t="s">
         <v>282</v>
@@ -67112,10 +67281,10 @@
       <c r="F116" s="43"/>
       <c r="G116" s="47"/>
     </row>
-    <row r="117" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="47"/>
-      <c r="B117" s="150" t="s">
-        <v>188</v>
+      <c r="B117" s="51" t="s">
+        <v>88</v>
       </c>
       <c r="C117" s="47" t="s">
         <v>282</v>
@@ -67124,15 +67293,13 @@
       <c r="E117" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F117" s="47" t="s">
-        <v>1269</v>
-      </c>
+      <c r="F117" s="43"/>
       <c r="G117" s="47"/>
     </row>
     <row r="118" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A118" s="47"/>
-      <c r="B118" s="145" t="s">
-        <v>80</v>
+      <c r="B118" s="147" t="s">
+        <v>1021</v>
       </c>
       <c r="C118" s="47" t="s">
         <v>282</v>
@@ -67144,13 +67311,13 @@
       <c r="F118" s="43"/>
       <c r="G118" s="47"/>
     </row>
-    <row r="119" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="47"/>
-      <c r="B119" s="150" t="s">
-        <v>769</v>
+      <c r="B119" s="145" t="s">
+        <v>58</v>
       </c>
       <c r="C119" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D119" s="47"/>
       <c r="E119" s="47" t="s">
@@ -67159,13 +67326,13 @@
       <c r="F119" s="43"/>
       <c r="G119" s="47"/>
     </row>
-    <row r="120" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="47"/>
-      <c r="B120" s="143" t="s">
-        <v>775</v>
+      <c r="B120" s="144" t="s">
+        <v>1053</v>
       </c>
       <c r="C120" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D120" s="47"/>
       <c r="E120" s="47" t="s">
@@ -67174,13 +67341,13 @@
       <c r="F120" s="43"/>
       <c r="G120" s="47"/>
     </row>
-    <row r="121" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="47"/>
-      <c r="B121" s="145" t="s">
-        <v>783</v>
+      <c r="B121" s="51" t="s">
+        <v>1054</v>
       </c>
       <c r="C121" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D121" s="47"/>
       <c r="E121" s="47" t="s">
@@ -67189,45 +67356,45 @@
       <c r="F121" s="43"/>
       <c r="G121" s="47"/>
     </row>
-    <row r="122" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="47"/>
-      <c r="B122" s="144" t="s">
-        <v>768</v>
+      <c r="B122" s="147" t="s">
+        <v>1066</v>
       </c>
       <c r="C122" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D122" s="47"/>
       <c r="E122" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F122" s="43" t="s">
-        <v>846</v>
-      </c>
+      <c r="F122" s="43"/>
       <c r="G122" s="47"/>
     </row>
-    <row r="123" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
-      <c r="B123" s="144" t="s">
-        <v>865</v>
+      <c r="B123" s="150" t="s">
+        <v>188</v>
       </c>
       <c r="C123" s="47" t="s">
-        <v>554</v>
+        <v>282</v>
       </c>
       <c r="D123" s="47"/>
       <c r="E123" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F123" s="43"/>
+      <c r="F123" s="47" t="s">
+        <v>1269</v>
+      </c>
       <c r="G123" s="47"/>
     </row>
-    <row r="124" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="47"/>
-      <c r="B124" s="150" t="s">
-        <v>1251</v>
+      <c r="B124" s="145" t="s">
+        <v>80</v>
       </c>
       <c r="C124" s="47" t="s">
-        <v>554</v>
+        <v>282</v>
       </c>
       <c r="D124" s="47"/>
       <c r="E124" s="47" t="s">
@@ -67236,13 +67403,13 @@
       <c r="F124" s="43"/>
       <c r="G124" s="47"/>
     </row>
-    <row r="125" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="47"/>
-      <c r="B125" s="150" t="s">
-        <v>935</v>
+      <c r="B125" s="168" t="s">
+        <v>769</v>
       </c>
       <c r="C125" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D125" s="47"/>
       <c r="E125" s="47" t="s">
@@ -67253,11 +67420,11 @@
     </row>
     <row r="126" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="47"/>
-      <c r="B126" s="144" t="s">
-        <v>937</v>
+      <c r="B126" s="143" t="s">
+        <v>775</v>
       </c>
       <c r="C126" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D126" s="47"/>
       <c r="E126" s="47" t="s">
@@ -67266,13 +67433,13 @@
       <c r="F126" s="43"/>
       <c r="G126" s="47"/>
     </row>
-    <row r="127" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A127" s="47"/>
-      <c r="B127" s="144" t="s">
-        <v>943</v>
+      <c r="B127" s="145" t="s">
+        <v>783</v>
       </c>
       <c r="C127" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D127" s="47"/>
       <c r="E127" s="47" t="s">
@@ -67281,48 +67448,110 @@
       <c r="F127" s="43"/>
       <c r="G127" s="47"/>
     </row>
-    <row r="128" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="47"/>
-      <c r="B128" s="144" t="s">
-        <v>944</v>
+      <c r="B128" s="169" t="s">
+        <v>768</v>
       </c>
       <c r="C128" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D128" s="47"/>
       <c r="E128" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F128" s="43"/>
+      <c r="F128" s="43" t="s">
+        <v>846</v>
+      </c>
       <c r="G128" s="47"/>
     </row>
-    <row r="129" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A129" s="46"/>
-      <c r="B129" s="152" t="s">
+    <row r="129" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="47"/>
+      <c r="B129" s="168" t="s">
+        <v>935</v>
+      </c>
+      <c r="C129" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D129" s="47"/>
+      <c r="E129" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F129" s="43"/>
+      <c r="G129" s="47"/>
+    </row>
+    <row r="130" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="47"/>
+      <c r="B130" s="169" t="s">
+        <v>937</v>
+      </c>
+      <c r="C130" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D130" s="47"/>
+      <c r="E130" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F130" s="43"/>
+      <c r="G130" s="47"/>
+    </row>
+    <row r="131" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A131" s="47"/>
+      <c r="B131" s="169" t="s">
+        <v>943</v>
+      </c>
+      <c r="C131" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D131" s="47"/>
+      <c r="E131" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F131" s="43"/>
+      <c r="G131" s="47"/>
+    </row>
+    <row r="132" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A132" s="47"/>
+      <c r="B132" s="169" t="s">
+        <v>944</v>
+      </c>
+      <c r="C132" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D132" s="47"/>
+      <c r="E132" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F132" s="43"/>
+      <c r="G132" s="47"/>
+    </row>
+    <row r="133" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="46"/>
+      <c r="B133" s="152" t="s">
         <v>985</v>
       </c>
-      <c r="C129" s="46" t="s">
+      <c r="C133" s="46" t="s">
         <v>554</v>
       </c>
-      <c r="D129" s="46"/>
-      <c r="E129" s="46" t="s">
+      <c r="D133" s="46"/>
+      <c r="E133" s="46" t="s">
         <v>479</v>
       </c>
-      <c r="F129" s="46" t="s">
+      <c r="F133" s="46" t="s">
         <v>1148</v>
       </c>
-      <c r="G129" s="46"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B130" s="136" t="s">
-        <v>1288</v>
+      <c r="G133" s="46"/>
+    </row>
+    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B134" s="170" t="s">
+        <v>1335</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:G127">
-    <sortCondition ref="A3:A127"/>
-    <sortCondition ref="C3:C127"/>
-    <sortCondition ref="B3:B127"/>
+  <sortState ref="A3:G132">
+    <sortCondition ref="A3:A132"/>
+    <sortCondition ref="C3:C132"/>
+    <sortCondition ref="B3:B132"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -806,7 +806,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5093" uniqueCount="1343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5103" uniqueCount="1350">
   <si>
     <t>ID</t>
   </si>
@@ -38259,6 +38259,27 @@
   </si>
   <si>
     <t>task is a measure of learning/ serial memory rather than reading per se</t>
+  </si>
+  <si>
+    <t>4(background: continuous speech, office noise without speech, office noise control, quiet) X 2 (habituation: before and after)</t>
+  </si>
+  <si>
+    <t>same task as above</t>
+  </si>
+  <si>
+    <t>same as above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (noise: continuous speech, office noise without speech, voice change, matched control) X 2 (habituation: before and after) </t>
+  </si>
+  <si>
+    <t>text assessment was &gt; 1 hour later</t>
+  </si>
+  <si>
+    <t>3(background: silence, road traffic noise, meaningful irrelevant speech)</t>
+  </si>
+  <si>
+    <t>A sub-process view of working memory capacity: Evidence from effects of speech on prose memory (check other tabs!!)</t>
   </si>
 </sst>
 </file>
@@ -38889,7 +38910,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -39354,9 +39375,6 @@
     <xf numFmtId="0" fontId="50" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -39367,6 +39385,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -39712,7 +39736,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -51474,14 +51498,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="166"/>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
+      <c r="A1" s="170"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -64868,10 +64892,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66960,7 +66984,7 @@
       <c r="A96" s="58">
         <v>94</v>
       </c>
-      <c r="B96" s="168" t="s">
+      <c r="B96" s="150" t="s">
         <v>1251</v>
       </c>
       <c r="C96" s="47" t="s">
@@ -66977,79 +67001,103 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="47">
+    <row r="97" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="58">
         <v>95</v>
       </c>
-      <c r="B97" s="168" t="s">
+      <c r="B97" s="150" t="s">
         <v>1340</v>
       </c>
       <c r="C97" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="D97" s="47"/>
-      <c r="E97" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F97" s="43"/>
-      <c r="G97" s="47"/>
-    </row>
-    <row r="98" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="47">
+      <c r="D97" s="61" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E97" s="46" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F97" s="61" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G97" s="47" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="58">
         <v>96</v>
       </c>
-      <c r="B98" s="168" t="s">
+      <c r="B98" s="150" t="s">
         <v>1340</v>
       </c>
       <c r="C98" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="D98" s="47"/>
-      <c r="E98" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F98" s="43"/>
-      <c r="G98" s="47"/>
+      <c r="D98" s="61" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E98" s="46" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F98" s="61" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G98" s="47" t="s">
+        <v>1345</v>
+      </c>
     </row>
     <row r="99" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="47"/>
-      <c r="B99" s="144" t="s">
-        <v>895</v>
+      <c r="A99" s="58">
+        <v>97</v>
+      </c>
+      <c r="B99" s="150" t="s">
+        <v>957</v>
       </c>
       <c r="C99" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="D99" s="47"/>
-      <c r="E99" s="47" t="s">
-        <v>479</v>
+      <c r="D99" s="61" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E99" s="46" t="s">
+        <v>1134</v>
       </c>
       <c r="F99" s="43"/>
-      <c r="G99" s="47"/>
+      <c r="G99" s="61" t="s">
+        <v>1347</v>
+      </c>
     </row>
     <row r="100" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="47"/>
-      <c r="B100" s="150" t="s">
-        <v>900</v>
+      <c r="A100" s="47">
+        <v>98</v>
+      </c>
+      <c r="B100" s="168" t="s">
+        <v>768</v>
       </c>
       <c r="C100" s="47" t="s">
-        <v>282</v>
+        <v>798</v>
       </c>
       <c r="D100" s="47"/>
       <c r="E100" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F100" s="43"/>
+      <c r="F100" s="43" t="s">
+        <v>846</v>
+      </c>
       <c r="G100" s="47"/>
     </row>
     <row r="101" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="47"/>
       <c r="B101" s="144" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="C101" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="D101" s="47"/>
+      <c r="D101" s="47" t="s">
+        <v>846</v>
+      </c>
       <c r="E101" s="47" t="s">
         <v>479</v>
       </c>
@@ -67057,24 +67105,24 @@
       <c r="G101" s="47"/>
     </row>
     <row r="102" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="121"/>
-      <c r="B102" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="C102" s="121" t="s">
+      <c r="A102" s="47"/>
+      <c r="B102" s="150" t="s">
+        <v>900</v>
+      </c>
+      <c r="C102" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="D102" s="121"/>
-      <c r="E102" s="121"/>
-      <c r="F102" s="122" t="s">
-        <v>835</v>
-      </c>
-      <c r="G102" s="151"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F102" s="43"/>
+      <c r="G102" s="47"/>
     </row>
     <row r="103" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="47"/>
       <c r="B103" s="144" t="s">
-        <v>762</v>
+        <v>901</v>
       </c>
       <c r="C103" s="47" t="s">
         <v>282</v>
@@ -67087,24 +67135,24 @@
       <c r="G103" s="47"/>
     </row>
     <row r="104" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="47"/>
-      <c r="B104" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C104" s="47" t="s">
+      <c r="A104" s="121"/>
+      <c r="B104" s="142" t="s">
+        <v>55</v>
+      </c>
+      <c r="C104" s="121" t="s">
         <v>282</v>
       </c>
-      <c r="D104" s="47"/>
-      <c r="E104" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F104" s="43"/>
-      <c r="G104" s="47"/>
+      <c r="D104" s="121"/>
+      <c r="E104" s="121"/>
+      <c r="F104" s="122" t="s">
+        <v>835</v>
+      </c>
+      <c r="G104" s="151"/>
     </row>
     <row r="105" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="47"/>
-      <c r="B105" s="145" t="s">
-        <v>81</v>
+      <c r="B105" s="144" t="s">
+        <v>762</v>
       </c>
       <c r="C105" s="47" t="s">
         <v>282</v>
@@ -67118,8 +67166,8 @@
     </row>
     <row r="106" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="47"/>
-      <c r="B106" s="150" t="s">
-        <v>933</v>
+      <c r="B106" s="51" t="s">
+        <v>82</v>
       </c>
       <c r="C106" s="47" t="s">
         <v>282</v>
@@ -67133,8 +67181,8 @@
     </row>
     <row r="107" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="47"/>
-      <c r="B107" s="51" t="s">
-        <v>938</v>
+      <c r="B107" s="145" t="s">
+        <v>81</v>
       </c>
       <c r="C107" s="47" t="s">
         <v>282</v>
@@ -67146,10 +67194,10 @@
       <c r="F107" s="43"/>
       <c r="G107" s="47"/>
     </row>
-    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A108" s="47"/>
       <c r="B108" s="150" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="C108" s="47" t="s">
         <v>282</v>
@@ -67164,7 +67212,7 @@
     <row r="109" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="47"/>
       <c r="B109" s="51" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C109" s="47" t="s">
         <v>282</v>
@@ -67178,8 +67226,8 @@
     </row>
     <row r="110" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="47"/>
-      <c r="B110" s="51" t="s">
-        <v>941</v>
+      <c r="B110" s="150" t="s">
+        <v>939</v>
       </c>
       <c r="C110" s="47" t="s">
         <v>282</v>
@@ -67193,8 +67241,8 @@
     </row>
     <row r="111" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="47"/>
-      <c r="B111" s="167" t="s">
-        <v>737</v>
+      <c r="B111" s="51" t="s">
+        <v>940</v>
       </c>
       <c r="C111" s="47" t="s">
         <v>282</v>
@@ -67208,8 +67256,8 @@
     </row>
     <row r="112" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="47"/>
-      <c r="B112" s="168" t="s">
-        <v>957</v>
+      <c r="B112" s="51" t="s">
+        <v>941</v>
       </c>
       <c r="C112" s="47" t="s">
         <v>282</v>
@@ -67223,8 +67271,8 @@
     </row>
     <row r="113" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="47"/>
-      <c r="B113" s="145" t="s">
-        <v>958</v>
+      <c r="B113" s="166" t="s">
+        <v>737</v>
       </c>
       <c r="C113" s="47" t="s">
         <v>282</v>
@@ -67238,8 +67286,8 @@
     </row>
     <row r="114" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A114" s="47"/>
-      <c r="B114" s="150" t="s">
-        <v>991</v>
+      <c r="B114" s="145" t="s">
+        <v>958</v>
       </c>
       <c r="C114" s="47" t="s">
         <v>282</v>
@@ -67253,8 +67301,8 @@
     </row>
     <row r="115" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="47"/>
-      <c r="B115" s="51" t="s">
-        <v>139</v>
+      <c r="B115" s="150" t="s">
+        <v>991</v>
       </c>
       <c r="C115" s="47" t="s">
         <v>282</v>
@@ -67269,7 +67317,7 @@
     <row r="116" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="47"/>
       <c r="B116" s="51" t="s">
-        <v>1002</v>
+        <v>139</v>
       </c>
       <c r="C116" s="47" t="s">
         <v>282</v>
@@ -67284,7 +67332,7 @@
     <row r="117" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="47"/>
       <c r="B117" s="51" t="s">
-        <v>88</v>
+        <v>1002</v>
       </c>
       <c r="C117" s="47" t="s">
         <v>282</v>
@@ -67296,10 +67344,10 @@
       <c r="F117" s="43"/>
       <c r="G117" s="47"/>
     </row>
-    <row r="118" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A118" s="47"/>
-      <c r="B118" s="147" t="s">
-        <v>1021</v>
+      <c r="B118" s="51" t="s">
+        <v>88</v>
       </c>
       <c r="C118" s="47" t="s">
         <v>282</v>
@@ -67313,8 +67361,8 @@
     </row>
     <row r="119" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="47"/>
-      <c r="B119" s="145" t="s">
-        <v>58</v>
+      <c r="B119" s="147" t="s">
+        <v>1021</v>
       </c>
       <c r="C119" s="47" t="s">
         <v>282</v>
@@ -67328,8 +67376,8 @@
     </row>
     <row r="120" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="47"/>
-      <c r="B120" s="144" t="s">
-        <v>1053</v>
+      <c r="B120" s="145" t="s">
+        <v>58</v>
       </c>
       <c r="C120" s="47" t="s">
         <v>282</v>
@@ -67343,8 +67391,8 @@
     </row>
     <row r="121" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="47"/>
-      <c r="B121" s="51" t="s">
-        <v>1054</v>
+      <c r="B121" s="144" t="s">
+        <v>1053</v>
       </c>
       <c r="C121" s="47" t="s">
         <v>282</v>
@@ -67358,8 +67406,8 @@
     </row>
     <row r="122" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="47"/>
-      <c r="B122" s="147" t="s">
-        <v>1066</v>
+      <c r="B122" s="51" t="s">
+        <v>1054</v>
       </c>
       <c r="C122" s="47" t="s">
         <v>282</v>
@@ -67373,8 +67421,8 @@
     </row>
     <row r="123" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
-      <c r="B123" s="150" t="s">
-        <v>188</v>
+      <c r="B123" s="147" t="s">
+        <v>1066</v>
       </c>
       <c r="C123" s="47" t="s">
         <v>282</v>
@@ -67383,15 +67431,13 @@
       <c r="E123" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F123" s="47" t="s">
-        <v>1269</v>
-      </c>
+      <c r="F123" s="43"/>
       <c r="G123" s="47"/>
     </row>
     <row r="124" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="47"/>
-      <c r="B124" s="145" t="s">
-        <v>80</v>
+      <c r="B124" s="150" t="s">
+        <v>188</v>
       </c>
       <c r="C124" s="47" t="s">
         <v>282</v>
@@ -67400,16 +67446,18 @@
       <c r="E124" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F124" s="43"/>
+      <c r="F124" s="47" t="s">
+        <v>1269</v>
+      </c>
       <c r="G124" s="47"/>
     </row>
     <row r="125" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="47"/>
-      <c r="B125" s="168" t="s">
-        <v>769</v>
+      <c r="B125" s="145" t="s">
+        <v>80</v>
       </c>
       <c r="C125" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D125" s="47"/>
       <c r="E125" s="47" t="s">
@@ -67420,8 +67468,8 @@
     </row>
     <row r="126" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="47"/>
-      <c r="B126" s="143" t="s">
-        <v>775</v>
+      <c r="B126" s="167" t="s">
+        <v>769</v>
       </c>
       <c r="C126" s="47" t="s">
         <v>798</v>
@@ -67433,10 +67481,10 @@
       <c r="F126" s="43"/>
       <c r="G126" s="47"/>
     </row>
-    <row r="127" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="47"/>
-      <c r="B127" s="145" t="s">
-        <v>783</v>
+      <c r="B127" s="143" t="s">
+        <v>775</v>
       </c>
       <c r="C127" s="47" t="s">
         <v>798</v>
@@ -67450,8 +67498,8 @@
     </row>
     <row r="128" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="47"/>
-      <c r="B128" s="169" t="s">
-        <v>768</v>
+      <c r="B128" s="145" t="s">
+        <v>783</v>
       </c>
       <c r="C128" s="47" t="s">
         <v>798</v>
@@ -67460,14 +67508,12 @@
       <c r="E128" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F128" s="43" t="s">
-        <v>846</v>
-      </c>
+      <c r="F128" s="43"/>
       <c r="G128" s="47"/>
     </row>
     <row r="129" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="47"/>
-      <c r="B129" s="168" t="s">
+      <c r="B129" s="167" t="s">
         <v>935</v>
       </c>
       <c r="C129" s="47" t="s">
@@ -67482,7 +67528,7 @@
     </row>
     <row r="130" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="47"/>
-      <c r="B130" s="169" t="s">
+      <c r="B130" s="168" t="s">
         <v>937</v>
       </c>
       <c r="C130" s="47" t="s">
@@ -67497,7 +67543,7 @@
     </row>
     <row r="131" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A131" s="47"/>
-      <c r="B131" s="169" t="s">
+      <c r="B131" s="168" t="s">
         <v>943</v>
       </c>
       <c r="C131" s="47" t="s">
@@ -67512,7 +67558,7 @@
     </row>
     <row r="132" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A132" s="47"/>
-      <c r="B132" s="169" t="s">
+      <c r="B132" s="168" t="s">
         <v>944</v>
       </c>
       <c r="C132" s="47" t="s">
@@ -67542,16 +67588,21 @@
       </c>
       <c r="G133" s="46"/>
     </row>
-    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B134" s="170" t="s">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="169" t="s">
         <v>1335</v>
       </c>
     </row>
+    <row r="135" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B135" s="171" t="s">
+        <v>1349</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A3:G132">
-    <sortCondition ref="A3:A132"/>
-    <sortCondition ref="C3:C132"/>
-    <sortCondition ref="B3:B132"/>
+  <sortState ref="A3:G134">
+    <sortCondition ref="A3:A134"/>
+    <sortCondition ref="C3:C134"/>
+    <sortCondition ref="B3:B134"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7515" tabRatio="987" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7455" tabRatio="987" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="WoS" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">' Step 2'!$A$2:$D$526</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">' Step 3'!$A$2:$C$344</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$133</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -806,7 +806,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5103" uniqueCount="1350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5117" uniqueCount="1356">
   <si>
     <t>ID</t>
   </si>
@@ -38280,6 +38280,159 @@
   </si>
   <si>
     <t>A sub-process view of working memory capacity: Evidence from effects of speech on prose memory (check other tabs!!)</t>
+  </si>
+  <si>
+    <r>
+      <t>Sörqvist, P. (2010). Effects of aircraft noise and speech on prose memory: What role for working memory capacity?. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Journal of Environmental Psychology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(1), 112-118., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment 1a</t>
+    </r>
+  </si>
+  <si>
+    <t>2(background: silence, aircraft noise)</t>
+  </si>
+  <si>
+    <t>assessment is a slightly different from some other studies, but still assesses comprehension of text (without a very long delay)</t>
+  </si>
+  <si>
+    <r>
+      <t>Sörqvist, P. (2010). Effects of aircraft noise and speech on prose memory: What role for working memory capacity?. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Journal of Environmental Psychology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(1), 112-118., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment 1b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sörqvist, P. (2010). Effects of aircraft noise and speech on prose memory: What role for working memory capacity?. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Journal of Environmental Psychology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(1), 112-118., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment 2</t>
+    </r>
+  </si>
+  <si>
+    <t>2(background: aircraft noise, speech)</t>
   </si>
 </sst>
 </file>
@@ -39385,11 +39538,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -39736,7 +39889,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -51498,14 +51651,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="170"/>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
+      <c r="A1" s="171"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -64892,10 +65045,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67068,91 +67221,111 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="47">
+    <row r="100" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="58">
         <v>98</v>
       </c>
-      <c r="B100" s="168" t="s">
-        <v>768</v>
+      <c r="B100" s="150" t="s">
+        <v>1350</v>
       </c>
       <c r="C100" s="47" t="s">
         <v>798</v>
       </c>
-      <c r="D100" s="47"/>
-      <c r="E100" s="47" t="s">
+      <c r="D100" s="61" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E100" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F100" s="53" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G100" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F100" s="43" t="s">
-        <v>846</v>
-      </c>
-      <c r="G100" s="47"/>
-    </row>
-    <row r="101" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="47"/>
-      <c r="B101" s="144" t="s">
-        <v>895</v>
+    </row>
+    <row r="101" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="58">
+        <v>99</v>
+      </c>
+      <c r="B101" s="150" t="s">
+        <v>1353</v>
       </c>
       <c r="C101" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D101" s="47" t="s">
-        <v>846</v>
-      </c>
-      <c r="E101" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D101" s="61" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E101" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F101" s="53" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G101" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F101" s="43"/>
-      <c r="G101" s="47"/>
-    </row>
-    <row r="102" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="47"/>
+    </row>
+    <row r="102" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="58">
+        <v>100</v>
+      </c>
       <c r="B102" s="150" t="s">
-        <v>900</v>
+        <v>1354</v>
       </c>
       <c r="C102" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D102" s="47"/>
-      <c r="E102" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F102" s="43"/>
-      <c r="G102" s="47"/>
-    </row>
-    <row r="103" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+      <c r="D102" s="61" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E102" s="46" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F102" s="53" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G102" s="47" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="47"/>
       <c r="B103" s="144" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="C103" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="D103" s="47"/>
+      <c r="D103" s="47" t="s">
+        <v>846</v>
+      </c>
       <c r="E103" s="47" t="s">
         <v>479</v>
       </c>
       <c r="F103" s="43"/>
       <c r="G103" s="47"/>
     </row>
-    <row r="104" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="121"/>
-      <c r="B104" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="C104" s="121" t="s">
+    <row r="104" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="47"/>
+      <c r="B104" s="150" t="s">
+        <v>900</v>
+      </c>
+      <c r="C104" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="D104" s="121"/>
-      <c r="E104" s="121"/>
-      <c r="F104" s="122" t="s">
-        <v>835</v>
-      </c>
-      <c r="G104" s="151"/>
-    </row>
-    <row r="105" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D104" s="47"/>
+      <c r="E104" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F104" s="43"/>
+      <c r="G104" s="47"/>
+    </row>
+    <row r="105" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="47"/>
       <c r="B105" s="144" t="s">
-        <v>762</v>
+        <v>901</v>
       </c>
       <c r="C105" s="47" t="s">
         <v>282</v>
@@ -67164,25 +67337,25 @@
       <c r="F105" s="43"/>
       <c r="G105" s="47"/>
     </row>
-    <row r="106" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="47"/>
-      <c r="B106" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C106" s="47" t="s">
+    <row r="106" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="121"/>
+      <c r="B106" s="142" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106" s="121" t="s">
         <v>282</v>
       </c>
-      <c r="D106" s="47"/>
-      <c r="E106" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F106" s="43"/>
-      <c r="G106" s="47"/>
-    </row>
-    <row r="107" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D106" s="121"/>
+      <c r="E106" s="121"/>
+      <c r="F106" s="122" t="s">
+        <v>835</v>
+      </c>
+      <c r="G106" s="151"/>
+    </row>
+    <row r="107" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="47"/>
-      <c r="B107" s="145" t="s">
-        <v>81</v>
+      <c r="B107" s="144" t="s">
+        <v>762</v>
       </c>
       <c r="C107" s="47" t="s">
         <v>282</v>
@@ -67194,10 +67367,10 @@
       <c r="F107" s="43"/>
       <c r="G107" s="47"/>
     </row>
-    <row r="108" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="47"/>
-      <c r="B108" s="150" t="s">
-        <v>933</v>
+      <c r="B108" s="51" t="s">
+        <v>82</v>
       </c>
       <c r="C108" s="47" t="s">
         <v>282</v>
@@ -67209,10 +67382,10 @@
       <c r="F108" s="43"/>
       <c r="G108" s="47"/>
     </row>
-    <row r="109" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="47"/>
-      <c r="B109" s="51" t="s">
-        <v>938</v>
+      <c r="B109" s="145" t="s">
+        <v>81</v>
       </c>
       <c r="C109" s="47" t="s">
         <v>282</v>
@@ -67224,10 +67397,10 @@
       <c r="F109" s="43"/>
       <c r="G109" s="47"/>
     </row>
-    <row r="110" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A110" s="47"/>
       <c r="B110" s="150" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="C110" s="47" t="s">
         <v>282</v>
@@ -67239,10 +67412,10 @@
       <c r="F110" s="43"/>
       <c r="G110" s="47"/>
     </row>
-    <row r="111" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="47"/>
       <c r="B111" s="51" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C111" s="47" t="s">
         <v>282</v>
@@ -67254,10 +67427,10 @@
       <c r="F111" s="43"/>
       <c r="G111" s="47"/>
     </row>
-    <row r="112" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="47"/>
-      <c r="B112" s="51" t="s">
-        <v>941</v>
+      <c r="B112" s="150" t="s">
+        <v>939</v>
       </c>
       <c r="C112" s="47" t="s">
         <v>282</v>
@@ -67269,10 +67442,10 @@
       <c r="F112" s="43"/>
       <c r="G112" s="47"/>
     </row>
-    <row r="113" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="47"/>
-      <c r="B113" s="166" t="s">
-        <v>737</v>
+      <c r="B113" s="51" t="s">
+        <v>940</v>
       </c>
       <c r="C113" s="47" t="s">
         <v>282</v>
@@ -67284,10 +67457,10 @@
       <c r="F113" s="43"/>
       <c r="G113" s="47"/>
     </row>
-    <row r="114" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="47"/>
-      <c r="B114" s="145" t="s">
-        <v>958</v>
+      <c r="B114" s="51" t="s">
+        <v>941</v>
       </c>
       <c r="C114" s="47" t="s">
         <v>282</v>
@@ -67299,10 +67472,10 @@
       <c r="F114" s="43"/>
       <c r="G114" s="47"/>
     </row>
-    <row r="115" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="47"/>
-      <c r="B115" s="150" t="s">
-        <v>991</v>
+      <c r="B115" s="166" t="s">
+        <v>737</v>
       </c>
       <c r="C115" s="47" t="s">
         <v>282</v>
@@ -67314,10 +67487,10 @@
       <c r="F115" s="43"/>
       <c r="G115" s="47"/>
     </row>
-    <row r="116" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="47"/>
-      <c r="B116" s="51" t="s">
-        <v>139</v>
+      <c r="B116" s="145" t="s">
+        <v>958</v>
       </c>
       <c r="C116" s="47" t="s">
         <v>282</v>
@@ -67329,10 +67502,10 @@
       <c r="F116" s="43"/>
       <c r="G116" s="47"/>
     </row>
-    <row r="117" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="47"/>
-      <c r="B117" s="51" t="s">
-        <v>1002</v>
+      <c r="B117" s="150" t="s">
+        <v>991</v>
       </c>
       <c r="C117" s="47" t="s">
         <v>282</v>
@@ -67344,10 +67517,10 @@
       <c r="F117" s="43"/>
       <c r="G117" s="47"/>
     </row>
-    <row r="118" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="47"/>
       <c r="B118" s="51" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="C118" s="47" t="s">
         <v>282</v>
@@ -67359,10 +67532,10 @@
       <c r="F118" s="43"/>
       <c r="G118" s="47"/>
     </row>
-    <row r="119" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="47"/>
-      <c r="B119" s="147" t="s">
-        <v>1021</v>
+      <c r="B119" s="51" t="s">
+        <v>1002</v>
       </c>
       <c r="C119" s="47" t="s">
         <v>282</v>
@@ -67374,10 +67547,10 @@
       <c r="F119" s="43"/>
       <c r="G119" s="47"/>
     </row>
-    <row r="120" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A120" s="47"/>
-      <c r="B120" s="145" t="s">
-        <v>58</v>
+      <c r="B120" s="51" t="s">
+        <v>88</v>
       </c>
       <c r="C120" s="47" t="s">
         <v>282</v>
@@ -67389,10 +67562,10 @@
       <c r="F120" s="43"/>
       <c r="G120" s="47"/>
     </row>
-    <row r="121" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="47"/>
-      <c r="B121" s="144" t="s">
-        <v>1053</v>
+      <c r="B121" s="147" t="s">
+        <v>1021</v>
       </c>
       <c r="C121" s="47" t="s">
         <v>282</v>
@@ -67404,10 +67577,10 @@
       <c r="F121" s="43"/>
       <c r="G121" s="47"/>
     </row>
-    <row r="122" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="47"/>
-      <c r="B122" s="51" t="s">
-        <v>1054</v>
+      <c r="B122" s="145" t="s">
+        <v>58</v>
       </c>
       <c r="C122" s="47" t="s">
         <v>282</v>
@@ -67419,10 +67592,10 @@
       <c r="F122" s="43"/>
       <c r="G122" s="47"/>
     </row>
-    <row r="123" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
-      <c r="B123" s="147" t="s">
-        <v>1066</v>
+      <c r="B123" s="144" t="s">
+        <v>1053</v>
       </c>
       <c r="C123" s="47" t="s">
         <v>282</v>
@@ -67434,10 +67607,10 @@
       <c r="F123" s="43"/>
       <c r="G123" s="47"/>
     </row>
-    <row r="124" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="47"/>
-      <c r="B124" s="150" t="s">
-        <v>188</v>
+      <c r="B124" s="51" t="s">
+        <v>1054</v>
       </c>
       <c r="C124" s="47" t="s">
         <v>282</v>
@@ -67446,15 +67619,13 @@
       <c r="E124" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F124" s="47" t="s">
-        <v>1269</v>
-      </c>
+      <c r="F124" s="43"/>
       <c r="G124" s="47"/>
     </row>
-    <row r="125" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="47"/>
-      <c r="B125" s="145" t="s">
-        <v>80</v>
+      <c r="B125" s="147" t="s">
+        <v>1066</v>
       </c>
       <c r="C125" s="47" t="s">
         <v>282</v>
@@ -67466,28 +67637,30 @@
       <c r="F125" s="43"/>
       <c r="G125" s="47"/>
     </row>
-    <row r="126" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="47"/>
-      <c r="B126" s="167" t="s">
-        <v>769</v>
+      <c r="B126" s="150" t="s">
+        <v>188</v>
       </c>
       <c r="C126" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D126" s="47"/>
       <c r="E126" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F126" s="43"/>
+      <c r="F126" s="47" t="s">
+        <v>1269</v>
+      </c>
       <c r="G126" s="47"/>
     </row>
-    <row r="127" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="47"/>
-      <c r="B127" s="143" t="s">
-        <v>775</v>
+      <c r="B127" s="145" t="s">
+        <v>80</v>
       </c>
       <c r="C127" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D127" s="47"/>
       <c r="E127" s="47" t="s">
@@ -67496,10 +67669,10 @@
       <c r="F127" s="43"/>
       <c r="G127" s="47"/>
     </row>
-    <row r="128" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="47"/>
-      <c r="B128" s="145" t="s">
-        <v>783</v>
+      <c r="B128" s="167" t="s">
+        <v>769</v>
       </c>
       <c r="C128" s="47" t="s">
         <v>798</v>
@@ -67511,13 +67684,13 @@
       <c r="F128" s="43"/>
       <c r="G128" s="47"/>
     </row>
-    <row r="129" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="47"/>
-      <c r="B129" s="167" t="s">
-        <v>935</v>
+      <c r="B129" s="143" t="s">
+        <v>775</v>
       </c>
       <c r="C129" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D129" s="47"/>
       <c r="E129" s="47" t="s">
@@ -67526,13 +67699,13 @@
       <c r="F129" s="43"/>
       <c r="G129" s="47"/>
     </row>
-    <row r="130" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="47"/>
-      <c r="B130" s="168" t="s">
-        <v>937</v>
+      <c r="B130" s="145" t="s">
+        <v>783</v>
       </c>
       <c r="C130" s="47" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
       <c r="D130" s="47"/>
       <c r="E130" s="47" t="s">
@@ -67541,10 +67714,10 @@
       <c r="F130" s="43"/>
       <c r="G130" s="47"/>
     </row>
-    <row r="131" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="47"/>
-      <c r="B131" s="168" t="s">
-        <v>943</v>
+      <c r="B131" s="167" t="s">
+        <v>935</v>
       </c>
       <c r="C131" s="47" t="s">
         <v>554</v>
@@ -67556,10 +67729,10 @@
       <c r="F131" s="43"/>
       <c r="G131" s="47"/>
     </row>
-    <row r="132" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="47"/>
       <c r="B132" s="168" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="C132" s="47" t="s">
         <v>554</v>
@@ -67571,30 +67744,60 @@
       <c r="F132" s="43"/>
       <c r="G132" s="47"/>
     </row>
-    <row r="133" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="46"/>
-      <c r="B133" s="152" t="s">
+    <row r="133" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A133" s="47"/>
+      <c r="B133" s="168" t="s">
+        <v>943</v>
+      </c>
+      <c r="C133" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D133" s="47"/>
+      <c r="E133" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F133" s="43"/>
+      <c r="G133" s="47"/>
+    </row>
+    <row r="134" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A134" s="47"/>
+      <c r="B134" s="168" t="s">
+        <v>944</v>
+      </c>
+      <c r="C134" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D134" s="47"/>
+      <c r="E134" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F134" s="43"/>
+      <c r="G134" s="47"/>
+    </row>
+    <row r="135" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="46"/>
+      <c r="B135" s="152" t="s">
         <v>985</v>
       </c>
-      <c r="C133" s="46" t="s">
+      <c r="C135" s="46" t="s">
         <v>554</v>
       </c>
-      <c r="D133" s="46"/>
-      <c r="E133" s="46" t="s">
+      <c r="D135" s="46"/>
+      <c r="E135" s="46" t="s">
         <v>479</v>
       </c>
-      <c r="F133" s="46" t="s">
+      <c r="F135" s="46" t="s">
         <v>1148</v>
       </c>
-      <c r="G133" s="46"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B134" s="169" t="s">
+      <c r="G135" s="46"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="169" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B135" s="171" t="s">
+    <row r="137" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B137" s="170" t="s">
         <v>1349</v>
       </c>
     </row>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Vasilev\SkyDrive\R\reading_sounds\Literature_search\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7455" tabRatio="987" activeTab="8"/>
   </bookViews>
@@ -22,7 +27,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">' Step 2'!$A$2:$D$526</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">' Step 3'!$A$2:$C$344</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$135</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -34,7 +39,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B19" authorId="0">
+    <comment ref="B19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +74,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B219" authorId="0">
+    <comment ref="B219" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +110,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D67" authorId="0">
+    <comment ref="D67" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B135" authorId="1">
+    <comment ref="B135" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -189,7 +194,7 @@
     <author>Martin,Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -213,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0">
+    <comment ref="F9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -237,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0">
+    <comment ref="F12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -261,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0">
+    <comment ref="G21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0">
+    <comment ref="G22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -314,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G41" authorId="0">
+    <comment ref="G41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -339,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G60" authorId="0">
+    <comment ref="G60" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -366,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="0">
+    <comment ref="B62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -391,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F63" authorId="0">
+    <comment ref="F63" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -415,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="0">
+    <comment ref="B67" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -440,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B68" authorId="0">
+    <comment ref="B68" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -465,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D69" authorId="0">
+    <comment ref="D69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -489,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G69" authorId="0">
+    <comment ref="G69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -513,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G70" authorId="0">
+    <comment ref="G70" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -538,7 +543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G71" authorId="0">
+    <comment ref="G71" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -563,7 +568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D72" authorId="0">
+    <comment ref="D72" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -587,7 +592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F73" authorId="0">
+    <comment ref="F73" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -611,7 +616,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F77" authorId="0">
+    <comment ref="F77" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -636,7 +641,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D79" authorId="0">
+    <comment ref="D79" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -660,7 +665,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B84" authorId="0">
+    <comment ref="B84" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -684,7 +689,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F93" authorId="0">
+    <comment ref="F93" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -708,7 +713,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F94" authorId="0">
+    <comment ref="F94" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -742,7 +747,7 @@
     <author>Martin,Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="D175" authorId="0">
+    <comment ref="D175" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -776,7 +781,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B73" authorId="0">
+    <comment ref="B73" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -806,7 +811,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5117" uniqueCount="1356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5148" uniqueCount="1368">
   <si>
     <t>ID</t>
   </si>
@@ -37015,9 +37020,6 @@
     <t>2 (background: silence, noise)</t>
   </si>
   <si>
-    <t>I code only the non-interuption trials to avoid the confound of being interrupted; I code only reading comprehension to keep it consistent with previous stuides</t>
-  </si>
-  <si>
     <t>3 (background: silence, speech, instrumental music) x 2 (interruption: yes, no)</t>
   </si>
   <si>
@@ -38279,9 +38281,6 @@
     <t>3(background: silence, road traffic noise, meaningful irrelevant speech)</t>
   </si>
   <si>
-    <t>A sub-process view of working memory capacity: Evidence from effects of speech on prose memory (check other tabs!!)</t>
-  </si>
-  <si>
     <r>
       <t>Sörqvist, P. (2010). Effects of aircraft noise and speech on prose memory: What role for working memory capacity?. </t>
     </r>
@@ -38433,13 +38432,286 @@
   </si>
   <si>
     <t>2(background: aircraft noise, speech)</t>
+  </si>
+  <si>
+    <r>
+      <t>Sörqvist, P., Ljungberg, J. K., &amp; Ljung, R. (2010). A sub-process view of working memory capacity: Evidence from effects of speech on prose memory. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Memory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3), 310-326.</t>
+    </r>
+  </si>
+  <si>
+    <t>In-text</t>
+  </si>
+  <si>
+    <t>Speech/ Noise</t>
+  </si>
+  <si>
+    <r>
+      <t>Sörqvist, P., Ljungberg, J. K., &amp; Ljung, R. (2010). A sub-process view of working memory capacity: Evidence from effects of speech on prose memory. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Memory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(3), 310-326. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment 1</t>
+    </r>
+  </si>
+  <si>
+    <t>replication of Exp.1</t>
+  </si>
+  <si>
+    <r>
+      <t>Sörqvist, P., Ljungberg, J. K., &amp; Ljung, R. (2010). A sub-process view of working memory capacity: Evidence from effects of speech on prose memory. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Memory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(3), 310-326. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment 2</t>
+    </r>
+  </si>
+  <si>
+    <t>For reading comprehension, I code only the non-interuption trials to avoid the confound of being interrupted</t>
+  </si>
+  <si>
+    <r>
+      <t>Halin, N., Marsh, J. E., Hellman, A., Hellström, I., &amp; Sörqvist, P. (2014). A shield against distraction. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Journal of Applied Research in Memory and Cognition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(1), 31-36. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Halin, N., Marsh, J. E., Hellman, A., Hellström, I., &amp; Sörqvist, P. (2014). A shield against distraction. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Journal of Applied Research in Memory and Cognition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(1), 31-36. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment 2</t>
+    </r>
+  </si>
+  <si>
+    <t>2(background: silence, speech) x 2(Font: Times New Roman, Haettenschweiler)</t>
+  </si>
+  <si>
+    <t>breakdowns by function/ content words and text status are averaged out</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Banbury, S., &amp; Berry, D. C. (1997). Habituation and dishabituation to speech and office noise. Journal of Experimental Psychology: Applied, 3(3), 181., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment 3</t>
+    </r>
+  </si>
+  <si>
+    <t>2(background: silence, speech) x 2(visual noise: yes, no)</t>
+  </si>
+  <si>
+    <t>breakdowns by function/ content words and visual noise are averaged out</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="65" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="67" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -38902,6 +39174,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="19">
     <fill>
@@ -39063,7 +39348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -39537,12 +39822,17 @@
     <xf numFmtId="0" fontId="41" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="65" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -39889,7 +40179,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -51349,7 +51639,7 @@
         <v>19</v>
       </c>
       <c r="B31" s="103" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>759</v>
@@ -51638,10 +51928,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51651,14 +51941,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="171"/>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
+      <c r="A1" s="169"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -52414,6 +52704,20 @@
       </c>
       <c r="B71" s="10" t="s">
         <v>1210</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="21">
+        <v>69</v>
+      </c>
+      <c r="B72" s="170" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -52427,10 +52731,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D528"/>
+  <dimension ref="A1:D529"/>
   <sheetViews>
-    <sheetView topLeftCell="A521" workbookViewId="0">
-      <selection activeCell="B528" sqref="B528"/>
+    <sheetView topLeftCell="A519" workbookViewId="0">
+      <selection activeCell="A529" sqref="A529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59805,13 +60109,24 @@
     </row>
     <row r="528" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B528" s="103" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C528" s="12" t="s">
         <v>798</v>
       </c>
       <c r="D528">
         <v>526</v>
+      </c>
+    </row>
+    <row r="529" spans="2:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B529" s="170" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C529" s="12" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D529">
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -59829,10 +60144,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E345"/>
+  <dimension ref="A1:E346"/>
   <sheetViews>
-    <sheetView topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="B345" sqref="B345:D345"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62062,7 +62377,7 @@
         <v>554</v>
       </c>
       <c r="D148" s="60" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E148" s="17"/>
     </row>
@@ -64063,7 +64378,7 @@
         <v>282</v>
       </c>
       <c r="D281" s="58" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E281" s="17"/>
     </row>
@@ -64359,13 +64674,13 @@
         <v>299</v>
       </c>
       <c r="B301" s="119" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C301" s="58" t="s">
         <v>554</v>
       </c>
       <c r="D301" s="58" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E301" s="17"/>
     </row>
@@ -64464,13 +64779,13 @@
         <v>306</v>
       </c>
       <c r="B308" s="119" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C308" s="58" t="s">
         <v>282</v>
       </c>
       <c r="D308" s="58" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E308" s="17"/>
     </row>
@@ -65023,7 +65338,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="33" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C345" s="58" t="s">
         <v>798</v>
@@ -65032,6 +65347,21 @@
         <v>479</v>
       </c>
       <c r="E345" s="17"/>
+    </row>
+    <row r="346" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A346" s="58">
+        <v>344</v>
+      </c>
+      <c r="B346" s="171" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C346" s="58" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D346" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E346" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -65045,10 +65375,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65100,13 +65430,13 @@
         <v>554</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E3" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="G3" s="47" t="s">
         <v>479</v>
@@ -65123,7 +65453,7 @@
         <v>554</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E4" s="58" t="s">
         <v>1127</v>
@@ -65144,13 +65474,13 @@
         <v>320</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E5" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="G5" s="47" t="s">
         <v>479</v>
@@ -65167,7 +65497,7 @@
         <v>320</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E6" s="58" t="s">
         <v>1127</v>
@@ -66191,13 +66521,13 @@
         <v>320</v>
       </c>
       <c r="D53" s="61" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E53" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F53" s="61" t="s">
-        <v>1227</v>
+        <v>1360</v>
       </c>
       <c r="G53" s="12" t="s">
         <v>479</v>
@@ -66214,13 +66544,13 @@
         <v>320</v>
       </c>
       <c r="D54" s="61" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E54" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F54" s="65" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="G54" s="47" t="s">
         <v>479</v>
@@ -66237,16 +66567,16 @@
         <v>798</v>
       </c>
       <c r="D55" s="61" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E55" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F55" s="65" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="G55" s="61" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -66260,14 +66590,14 @@
         <v>798</v>
       </c>
       <c r="D56" s="61" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E56" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F56" s="43"/>
       <c r="G56" s="61" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -66281,14 +66611,14 @@
         <v>282</v>
       </c>
       <c r="D57" s="47" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E57" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F57" s="43"/>
       <c r="G57" s="61" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -66302,14 +66632,14 @@
         <v>554</v>
       </c>
       <c r="D58" s="61" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E58" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F58" s="43"/>
       <c r="G58" s="61" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -66323,13 +66653,13 @@
         <v>320</v>
       </c>
       <c r="D59" s="61" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E59" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F59" s="61" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="G59" s="47" t="s">
         <v>1171</v>
@@ -66346,7 +66676,7 @@
         <v>320</v>
       </c>
       <c r="D60" s="62" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E60" s="46" t="s">
         <v>1134</v>
@@ -66361,20 +66691,20 @@
         <v>59</v>
       </c>
       <c r="B61" s="150" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C61" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D61" s="61" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E61" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F61" s="43"/>
       <c r="G61" s="61" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -66382,20 +66712,20 @@
         <v>60</v>
       </c>
       <c r="B62" s="150" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C62" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D62" s="61" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E62" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F62" s="43"/>
       <c r="G62" s="61" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -66409,13 +66739,13 @@
         <v>282</v>
       </c>
       <c r="D63" s="61" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E63" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F63" s="61" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G63" s="47" t="s">
         <v>479</v>
@@ -66432,13 +66762,13 @@
         <v>282</v>
       </c>
       <c r="D64" s="61" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E64" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F64" s="65" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="G64" s="47" t="s">
         <v>479</v>
@@ -66449,19 +66779,19 @@
         <v>63</v>
       </c>
       <c r="B65" s="157" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C65" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D65" s="61" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E65" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F65" s="61" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G65" s="47" t="s">
         <v>479</v>
@@ -66472,19 +66802,19 @@
         <v>64</v>
       </c>
       <c r="B66" s="150" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C66" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D66" s="61" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E66" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F66" s="61" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G66" s="47" t="s">
         <v>479</v>
@@ -66495,19 +66825,19 @@
         <v>65</v>
       </c>
       <c r="B67" s="150" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C67" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D67" s="61" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E67" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F67" s="61" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="G67" s="47" t="s">
         <v>479</v>
@@ -66518,19 +66848,19 @@
         <v>66</v>
       </c>
       <c r="B68" s="150" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C68" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D68" s="61" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E68" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F68" s="61" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="G68" s="47" t="s">
         <v>479</v>
@@ -66547,7 +66877,7 @@
         <v>320</v>
       </c>
       <c r="D69" s="61" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E69" s="46" t="s">
         <v>1134</v>
@@ -66568,14 +66898,14 @@
         <v>282</v>
       </c>
       <c r="D70" s="61" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E70" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F70" s="43"/>
       <c r="G70" s="61" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -66583,7 +66913,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="159" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C71" s="47" t="s">
         <v>282</v>
@@ -66592,10 +66922,10 @@
         <v>1134</v>
       </c>
       <c r="F71" s="61" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="G71" s="61" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -66609,16 +66939,16 @@
         <v>798</v>
       </c>
       <c r="D72" s="61" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E72" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F72" s="61" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="G72" s="61" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -66626,13 +66956,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="150" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C73" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D73" s="61" t="s">
         <v>1277</v>
-      </c>
-      <c r="C73" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D73" s="61" t="s">
-        <v>1278</v>
       </c>
       <c r="E73" s="58" t="s">
         <v>1127</v>
@@ -66655,16 +66985,16 @@
         <v>320</v>
       </c>
       <c r="D74" s="61" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E74" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F74" s="61" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="G74" s="61" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -66678,14 +67008,14 @@
         <v>282</v>
       </c>
       <c r="D75" s="61" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E75" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F75" s="43"/>
       <c r="G75" s="61" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -66699,13 +67029,13 @@
         <v>320</v>
       </c>
       <c r="D76" s="61" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E76" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F76" s="61" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="G76" s="47" t="s">
         <v>479</v>
@@ -66722,13 +67052,13 @@
         <v>282</v>
       </c>
       <c r="D77" s="61" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E77" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F77" s="61" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="G77" s="47" t="s">
         <v>479</v>
@@ -66739,19 +67069,19 @@
         <v>76</v>
       </c>
       <c r="B78" s="145" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C78" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D78" s="61" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E78" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F78" s="61" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G78" s="47" t="s">
         <v>479</v>
@@ -66762,19 +67092,19 @@
         <v>77</v>
       </c>
       <c r="B79" s="145" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C79" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D79" s="61" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E79" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F79" s="61" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G79" s="47" t="s">
         <v>479</v>
@@ -66785,19 +67115,19 @@
         <v>78</v>
       </c>
       <c r="B80" s="145" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C80" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D80" s="61" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E80" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="G80" s="61" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -66805,13 +67135,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="144" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C81" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D81" s="61" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E81" s="46" t="s">
         <v>1134</v>
@@ -66826,20 +67156,20 @@
         <v>80</v>
       </c>
       <c r="B82" s="162" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C82" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D82" s="61" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E82" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F82" s="43"/>
       <c r="G82" s="61" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -66847,13 +67177,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="144" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C83" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D83" s="61" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E83" s="46" t="s">
         <v>1134</v>
@@ -66868,13 +67198,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="144" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C84" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D84" s="61" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E84" s="46" t="s">
         <v>1134</v>
@@ -66895,14 +67225,14 @@
         <v>554</v>
       </c>
       <c r="D85" s="61" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E85" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F85" s="43"/>
       <c r="G85" s="61" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -66916,13 +67246,13 @@
         <v>282</v>
       </c>
       <c r="D86" s="61" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E86" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F86" s="53" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="G86" s="61" t="s">
         <v>1205</v>
@@ -66939,7 +67269,7 @@
         <v>554</v>
       </c>
       <c r="D87" s="61" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E87" s="46" t="s">
         <v>1134</v>
@@ -66960,13 +67290,13 @@
         <v>282</v>
       </c>
       <c r="D88" s="61" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E88" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F88" s="61" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="G88" s="47" t="s">
         <v>479</v>
@@ -66977,19 +67307,19 @@
         <v>87</v>
       </c>
       <c r="B89" s="150" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C89" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D89" s="61" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E89" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F89" s="61" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="G89" s="47" t="s">
         <v>479</v>
@@ -67000,19 +67330,19 @@
         <v>88</v>
       </c>
       <c r="B90" s="150" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C90" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D90" s="61" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E90" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F90" s="61" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="G90" s="47" t="s">
         <v>479</v>
@@ -67023,19 +67353,19 @@
         <v>89</v>
       </c>
       <c r="B91" s="150" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C91" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D91" s="61" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E91" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F91" s="61" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="G91" s="47" t="s">
         <v>479</v>
@@ -67046,19 +67376,19 @@
         <v>90</v>
       </c>
       <c r="B92" s="150" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C92" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D92" s="61" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="E92" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F92" s="61" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="G92" s="47" t="s">
         <v>479</v>
@@ -67075,13 +67405,13 @@
         <v>554</v>
       </c>
       <c r="D93" s="61" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E93" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F93" s="61" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G93" s="47" t="s">
         <v>479</v>
@@ -67092,13 +67422,13 @@
         <v>92</v>
       </c>
       <c r="B94" s="65" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C94" s="47" t="s">
         <v>798</v>
       </c>
       <c r="D94" s="61" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E94" s="58" t="s">
         <v>1127</v>
@@ -67115,22 +67445,22 @@
         <v>93</v>
       </c>
       <c r="B95" s="65" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C95" s="47" t="s">
         <v>798</v>
       </c>
       <c r="D95" s="61" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E95" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F95" s="61" t="s">
+        <v>1336</v>
+      </c>
+      <c r="G95" s="62" t="s">
         <v>1337</v>
-      </c>
-      <c r="G95" s="62" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -67138,20 +67468,20 @@
         <v>94</v>
       </c>
       <c r="B96" s="150" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C96" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D96" s="61" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="E96" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F96" s="43"/>
       <c r="G96" s="61" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -67159,22 +67489,22 @@
         <v>95</v>
       </c>
       <c r="B97" s="150" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C97" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D97" s="61" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="E97" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F97" s="61" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G97" s="47" t="s">
         <v>1344</v>
-      </c>
-      <c r="G97" s="47" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -67182,22 +67512,22 @@
         <v>96</v>
       </c>
       <c r="B98" s="150" t="s">
-        <v>1340</v>
+        <v>1365</v>
       </c>
       <c r="C98" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D98" s="61" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="E98" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F98" s="61" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G98" s="47" t="s">
         <v>1344</v>
-      </c>
-      <c r="G98" s="47" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -67211,14 +67541,14 @@
         <v>282</v>
       </c>
       <c r="D99" s="61" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E99" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F99" s="43"/>
       <c r="G99" s="61" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -67226,19 +67556,19 @@
         <v>98</v>
       </c>
       <c r="B100" s="150" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C100" s="47" t="s">
         <v>798</v>
       </c>
       <c r="D100" s="61" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="E100" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F100" s="53" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="G100" s="47" t="s">
         <v>479</v>
@@ -67249,19 +67579,19 @@
         <v>99</v>
       </c>
       <c r="B101" s="150" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C101" s="47" t="s">
         <v>798</v>
       </c>
       <c r="D101" s="61" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E101" s="58" t="s">
         <v>1127</v>
       </c>
       <c r="F101" s="53" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="G101" s="47" t="s">
         <v>479</v>
@@ -67272,108 +67602,148 @@
         <v>100</v>
       </c>
       <c r="B102" s="150" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C102" s="47" t="s">
         <v>798</v>
       </c>
       <c r="D102" s="61" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="E102" s="46" t="s">
         <v>1134</v>
       </c>
       <c r="F102" s="53" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="G102" s="47" t="s">
         <v>1205</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="47"/>
-      <c r="B103" s="144" t="s">
-        <v>895</v>
+      <c r="A103" s="58">
+        <v>101</v>
+      </c>
+      <c r="B103" s="150" t="s">
+        <v>1357</v>
       </c>
       <c r="C103" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D103" s="47" t="s">
-        <v>846</v>
-      </c>
-      <c r="E103" s="47" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D103" s="61" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E103" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F103" s="65" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G103" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="F103" s="43"/>
-      <c r="G103" s="47"/>
-    </row>
-    <row r="104" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="47"/>
+    </row>
+    <row r="104" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="58">
+        <v>102</v>
+      </c>
       <c r="B104" s="150" t="s">
-        <v>900</v>
+        <v>1359</v>
       </c>
       <c r="C104" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D104" s="47"/>
-      <c r="E104" s="47" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D104" s="61" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E104" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F104" s="65" t="s">
+        <v>1358</v>
+      </c>
+      <c r="G104" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="F104" s="43"/>
-      <c r="G104" s="47"/>
-    </row>
-    <row r="105" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="47"/>
+    </row>
+    <row r="105" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="58">
+        <v>103</v>
+      </c>
       <c r="B105" s="144" t="s">
-        <v>901</v>
+        <v>943</v>
       </c>
       <c r="C105" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D105" s="47"/>
-      <c r="E105" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D105" s="61" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E105" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F105" s="65" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G105" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F105" s="43"/>
-      <c r="G105" s="47"/>
-    </row>
-    <row r="106" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="121"/>
-      <c r="B106" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="C106" s="121" t="s">
-        <v>282</v>
-      </c>
-      <c r="D106" s="121"/>
-      <c r="E106" s="121"/>
-      <c r="F106" s="122" t="s">
-        <v>835</v>
-      </c>
-      <c r="G106" s="151"/>
-    </row>
-    <row r="107" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="47"/>
-      <c r="B107" s="144" t="s">
-        <v>762</v>
+    </row>
+    <row r="106" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="58">
+        <v>104</v>
+      </c>
+      <c r="B106" s="150" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C106" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D106" s="61" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E106" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F106" s="65" t="s">
+        <v>1364</v>
+      </c>
+      <c r="G106" s="47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="58">
+        <v>105</v>
+      </c>
+      <c r="B107" s="150" t="s">
+        <v>1362</v>
       </c>
       <c r="C107" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D107" s="47"/>
-      <c r="E107" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="D107" s="61" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E107" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F107" s="65" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G107" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F107" s="43"/>
-      <c r="G107" s="47"/>
-    </row>
-    <row r="108" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="47"/>
-      <c r="B108" s="51" t="s">
-        <v>82</v>
+    </row>
+    <row r="108" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="47">
+        <v>106</v>
+      </c>
+      <c r="B108" s="167" t="s">
+        <v>935</v>
       </c>
       <c r="C108" s="47" t="s">
-        <v>282</v>
+        <v>554</v>
       </c>
       <c r="D108" s="47"/>
       <c r="E108" s="47" t="s">
@@ -67382,13 +67752,15 @@
       <c r="F108" s="43"/>
       <c r="G108" s="47"/>
     </row>
-    <row r="109" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="47"/>
-      <c r="B109" s="145" t="s">
-        <v>81</v>
+    <row r="109" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="47">
+        <v>107</v>
+      </c>
+      <c r="B109" s="168" t="s">
+        <v>937</v>
       </c>
       <c r="C109" s="47" t="s">
-        <v>282</v>
+        <v>554</v>
       </c>
       <c r="D109" s="47"/>
       <c r="E109" s="47" t="s">
@@ -67397,40 +67769,35 @@
       <c r="F109" s="43"/>
       <c r="G109" s="47"/>
     </row>
-    <row r="110" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="47"/>
-      <c r="B110" s="150" t="s">
-        <v>933</v>
-      </c>
-      <c r="C110" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D110" s="47"/>
-      <c r="E110" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F110" s="43"/>
-      <c r="G110" s="47"/>
-    </row>
-    <row r="111" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="12">
+        <v>108</v>
+      </c>
+      <c r="B110" s="172" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="47"/>
-      <c r="B111" s="51" t="s">
-        <v>938</v>
+      <c r="B111" s="144" t="s">
+        <v>895</v>
       </c>
       <c r="C111" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="D111" s="47"/>
+      <c r="D111" s="47" t="s">
+        <v>846</v>
+      </c>
       <c r="E111" s="47" t="s">
         <v>479</v>
       </c>
       <c r="F111" s="43"/>
       <c r="G111" s="47"/>
     </row>
-    <row r="112" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A112" s="47"/>
       <c r="B112" s="150" t="s">
-        <v>939</v>
+        <v>900</v>
       </c>
       <c r="C112" s="47" t="s">
         <v>282</v>
@@ -67442,10 +67809,10 @@
       <c r="F112" s="43"/>
       <c r="G112" s="47"/>
     </row>
-    <row r="113" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="47"/>
-      <c r="B113" s="51" t="s">
-        <v>940</v>
+      <c r="B113" s="144" t="s">
+        <v>901</v>
       </c>
       <c r="C113" s="47" t="s">
         <v>282</v>
@@ -67457,25 +67824,25 @@
       <c r="F113" s="43"/>
       <c r="G113" s="47"/>
     </row>
-    <row r="114" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="47"/>
-      <c r="B114" s="51" t="s">
-        <v>941</v>
-      </c>
-      <c r="C114" s="47" t="s">
+    <row r="114" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="121"/>
+      <c r="B114" s="142" t="s">
+        <v>55</v>
+      </c>
+      <c r="C114" s="121" t="s">
         <v>282</v>
       </c>
-      <c r="D114" s="47"/>
-      <c r="E114" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F114" s="43"/>
-      <c r="G114" s="47"/>
-    </row>
-    <row r="115" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D114" s="121"/>
+      <c r="E114" s="121"/>
+      <c r="F114" s="122" t="s">
+        <v>835</v>
+      </c>
+      <c r="G114" s="151"/>
+    </row>
+    <row r="115" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="47"/>
-      <c r="B115" s="166" t="s">
-        <v>737</v>
+      <c r="B115" s="144" t="s">
+        <v>762</v>
       </c>
       <c r="C115" s="47" t="s">
         <v>282</v>
@@ -67487,10 +67854,10 @@
       <c r="F115" s="43"/>
       <c r="G115" s="47"/>
     </row>
-    <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="47"/>
-      <c r="B116" s="145" t="s">
-        <v>958</v>
+      <c r="B116" s="51" t="s">
+        <v>82</v>
       </c>
       <c r="C116" s="47" t="s">
         <v>282</v>
@@ -67502,10 +67869,10 @@
       <c r="F116" s="43"/>
       <c r="G116" s="47"/>
     </row>
-    <row r="117" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="47"/>
-      <c r="B117" s="150" t="s">
-        <v>991</v>
+      <c r="B117" s="145" t="s">
+        <v>81</v>
       </c>
       <c r="C117" s="47" t="s">
         <v>282</v>
@@ -67517,10 +67884,10 @@
       <c r="F117" s="43"/>
       <c r="G117" s="47"/>
     </row>
-    <row r="118" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="47"/>
-      <c r="B118" s="51" t="s">
-        <v>139</v>
+      <c r="B118" s="150" t="s">
+        <v>933</v>
       </c>
       <c r="C118" s="47" t="s">
         <v>282</v>
@@ -67532,10 +67899,10 @@
       <c r="F118" s="43"/>
       <c r="G118" s="47"/>
     </row>
-    <row r="119" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="47"/>
       <c r="B119" s="51" t="s">
-        <v>1002</v>
+        <v>938</v>
       </c>
       <c r="C119" s="47" t="s">
         <v>282</v>
@@ -67547,10 +67914,10 @@
       <c r="F119" s="43"/>
       <c r="G119" s="47"/>
     </row>
-    <row r="120" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="47"/>
-      <c r="B120" s="51" t="s">
-        <v>88</v>
+      <c r="B120" s="150" t="s">
+        <v>939</v>
       </c>
       <c r="C120" s="47" t="s">
         <v>282</v>
@@ -67562,10 +67929,10 @@
       <c r="F120" s="43"/>
       <c r="G120" s="47"/>
     </row>
-    <row r="121" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="47"/>
-      <c r="B121" s="147" t="s">
-        <v>1021</v>
+      <c r="B121" s="51" t="s">
+        <v>940</v>
       </c>
       <c r="C121" s="47" t="s">
         <v>282</v>
@@ -67577,10 +67944,10 @@
       <c r="F121" s="43"/>
       <c r="G121" s="47"/>
     </row>
-    <row r="122" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A122" s="47"/>
-      <c r="B122" s="145" t="s">
-        <v>58</v>
+      <c r="B122" s="51" t="s">
+        <v>941</v>
       </c>
       <c r="C122" s="47" t="s">
         <v>282</v>
@@ -67592,10 +67959,10 @@
       <c r="F122" s="43"/>
       <c r="G122" s="47"/>
     </row>
-    <row r="123" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
-      <c r="B123" s="144" t="s">
-        <v>1053</v>
+      <c r="B123" s="166" t="s">
+        <v>737</v>
       </c>
       <c r="C123" s="47" t="s">
         <v>282</v>
@@ -67607,10 +67974,10 @@
       <c r="F123" s="43"/>
       <c r="G123" s="47"/>
     </row>
-    <row r="124" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="47"/>
-      <c r="B124" s="51" t="s">
-        <v>1054</v>
+      <c r="B124" s="145" t="s">
+        <v>958</v>
       </c>
       <c r="C124" s="47" t="s">
         <v>282</v>
@@ -67622,10 +67989,10 @@
       <c r="F124" s="43"/>
       <c r="G124" s="47"/>
     </row>
-    <row r="125" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="47"/>
-      <c r="B125" s="147" t="s">
-        <v>1066</v>
+      <c r="B125" s="150" t="s">
+        <v>991</v>
       </c>
       <c r="C125" s="47" t="s">
         <v>282</v>
@@ -67637,10 +68004,10 @@
       <c r="F125" s="43"/>
       <c r="G125" s="47"/>
     </row>
-    <row r="126" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="47"/>
-      <c r="B126" s="150" t="s">
-        <v>188</v>
+      <c r="B126" s="51" t="s">
+        <v>139</v>
       </c>
       <c r="C126" s="47" t="s">
         <v>282</v>
@@ -67649,15 +68016,13 @@
       <c r="E126" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F126" s="47" t="s">
-        <v>1269</v>
-      </c>
+      <c r="F126" s="43"/>
       <c r="G126" s="47"/>
     </row>
-    <row r="127" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="47"/>
-      <c r="B127" s="145" t="s">
-        <v>80</v>
+      <c r="B127" s="51" t="s">
+        <v>1002</v>
       </c>
       <c r="C127" s="47" t="s">
         <v>282</v>
@@ -67669,13 +68034,13 @@
       <c r="F127" s="43"/>
       <c r="G127" s="47"/>
     </row>
-    <row r="128" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="47"/>
-      <c r="B128" s="167" t="s">
-        <v>769</v>
+      <c r="B128" s="51" t="s">
+        <v>88</v>
       </c>
       <c r="C128" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D128" s="47"/>
       <c r="E128" s="47" t="s">
@@ -67684,13 +68049,13 @@
       <c r="F128" s="43"/>
       <c r="G128" s="47"/>
     </row>
-    <row r="129" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="47"/>
-      <c r="B129" s="143" t="s">
-        <v>775</v>
+      <c r="B129" s="147" t="s">
+        <v>1021</v>
       </c>
       <c r="C129" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D129" s="47"/>
       <c r="E129" s="47" t="s">
@@ -67699,13 +68064,13 @@
       <c r="F129" s="43"/>
       <c r="G129" s="47"/>
     </row>
-    <row r="130" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="47"/>
       <c r="B130" s="145" t="s">
-        <v>783</v>
+        <v>58</v>
       </c>
       <c r="C130" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D130" s="47"/>
       <c r="E130" s="47" t="s">
@@ -67714,13 +68079,13 @@
       <c r="F130" s="43"/>
       <c r="G130" s="47"/>
     </row>
-    <row r="131" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="47"/>
-      <c r="B131" s="167" t="s">
-        <v>935</v>
+      <c r="B131" s="144" t="s">
+        <v>1053</v>
       </c>
       <c r="C131" s="47" t="s">
-        <v>554</v>
+        <v>282</v>
       </c>
       <c r="D131" s="47"/>
       <c r="E131" s="47" t="s">
@@ -67729,13 +68094,13 @@
       <c r="F131" s="43"/>
       <c r="G131" s="47"/>
     </row>
-    <row r="132" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="47"/>
-      <c r="B132" s="168" t="s">
-        <v>937</v>
+      <c r="B132" s="51" t="s">
+        <v>1054</v>
       </c>
       <c r="C132" s="47" t="s">
-        <v>554</v>
+        <v>282</v>
       </c>
       <c r="D132" s="47"/>
       <c r="E132" s="47" t="s">
@@ -67744,13 +68109,13 @@
       <c r="F132" s="43"/>
       <c r="G132" s="47"/>
     </row>
-    <row r="133" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="47"/>
-      <c r="B133" s="168" t="s">
-        <v>943</v>
+      <c r="B133" s="147" t="s">
+        <v>1066</v>
       </c>
       <c r="C133" s="47" t="s">
-        <v>554</v>
+        <v>282</v>
       </c>
       <c r="D133" s="47"/>
       <c r="E133" s="47" t="s">
@@ -67759,53 +68124,105 @@
       <c r="F133" s="43"/>
       <c r="G133" s="47"/>
     </row>
-    <row r="134" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="47"/>
-      <c r="B134" s="168" t="s">
-        <v>944</v>
+      <c r="B134" s="150" t="s">
+        <v>188</v>
       </c>
       <c r="C134" s="47" t="s">
-        <v>554</v>
+        <v>282</v>
       </c>
       <c r="D134" s="47"/>
       <c r="E134" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F134" s="43"/>
+      <c r="F134" s="47" t="s">
+        <v>1268</v>
+      </c>
       <c r="G134" s="47"/>
     </row>
-    <row r="135" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="46"/>
-      <c r="B135" s="152" t="s">
+    <row r="135" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="47"/>
+      <c r="B135" s="145" t="s">
+        <v>80</v>
+      </c>
+      <c r="C135" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D135" s="47"/>
+      <c r="E135" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F135" s="43"/>
+      <c r="G135" s="47"/>
+    </row>
+    <row r="136" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A136" s="47"/>
+      <c r="B136" s="167" t="s">
+        <v>769</v>
+      </c>
+      <c r="C136" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D136" s="47"/>
+      <c r="E136" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F136" s="43"/>
+      <c r="G136" s="47"/>
+    </row>
+    <row r="137" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="47"/>
+      <c r="B137" s="143" t="s">
+        <v>775</v>
+      </c>
+      <c r="C137" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D137" s="47"/>
+      <c r="E137" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F137" s="43"/>
+      <c r="G137" s="47"/>
+    </row>
+    <row r="138" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="47"/>
+      <c r="B138" s="145" t="s">
+        <v>783</v>
+      </c>
+      <c r="C138" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D138" s="47"/>
+      <c r="E138" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F138" s="43"/>
+      <c r="G138" s="47"/>
+    </row>
+    <row r="139" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A139" s="46"/>
+      <c r="B139" s="152" t="s">
         <v>985</v>
       </c>
-      <c r="C135" s="46" t="s">
+      <c r="C139" s="46" t="s">
         <v>554</v>
       </c>
-      <c r="D135" s="46"/>
-      <c r="E135" s="46" t="s">
+      <c r="D139" s="46"/>
+      <c r="E139" s="46" t="s">
         <v>479</v>
       </c>
-      <c r="F135" s="46" t="s">
+      <c r="F139" s="46" t="s">
         <v>1148</v>
       </c>
-      <c r="G135" s="46"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B136" s="169" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B137" s="170" t="s">
-        <v>1349</v>
-      </c>
+      <c r="G139" s="46"/>
     </row>
   </sheetData>
-  <sortState ref="A3:G134">
-    <sortCondition ref="A3:A134"/>
-    <sortCondition ref="C3:C134"/>
-    <sortCondition ref="B3:B134"/>
+  <sortState ref="A3:G139">
+    <sortCondition ref="A3:A139"/>
+    <sortCondition ref="C3:C139"/>
+    <sortCondition ref="B3:B139"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">' Step 2'!$A$2:$D$526</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">' Step 3'!$A$2:$C$344</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$135</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -192,6 +192,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Martin,Vasilev</author>
+    <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
     <comment ref="B2" authorId="0" shapeId="0">
@@ -737,6 +738,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="G110" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin R. Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Participants also heard the TV while answering the comprehension questions. This does not make it possible to know whether any effects are due to distraction durring reading or during answering the comprehension questions</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -811,7 +836,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5161" uniqueCount="1375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5172" uniqueCount="1375">
   <si>
     <t>ID</t>
   </si>
@@ -38763,7 +38788,47 @@
     <t>5(control, ignore-action, ignore-verbal, dual task- action, dual task-verbal conditions)</t>
   </si>
   <si>
-    <t>dual-task conditions are not coded; subjects per cond not reported- I take the nearest number divisible by 5</t>
+    <r>
+      <t>Baker, R. W., &amp; Madell, T. O. (1965). A continued investigation of susceptibility to distraction in academically underachieving and achieving male college students. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Journal of Educational Psychology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(5), 254</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -39881,14 +39946,14 @@
     <xf numFmtId="0" fontId="65" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -51984,10 +52049,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51997,14 +52062,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="169"/>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
+      <c r="A1" s="171"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -52780,10 +52845,21 @@
       <c r="A73" s="21">
         <v>70</v>
       </c>
-      <c r="B73" s="170" t="s">
+      <c r="B73" s="169" t="s">
         <v>1372</v>
       </c>
       <c r="C73" s="12" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="21">
+        <v>71</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>554</v>
       </c>
     </row>
@@ -52798,10 +52874,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D530"/>
+  <dimension ref="A1:D531"/>
   <sheetViews>
-    <sheetView topLeftCell="A521" workbookViewId="0">
-      <selection activeCell="D530" sqref="D530"/>
+    <sheetView topLeftCell="A523" workbookViewId="0">
+      <selection activeCell="B531" sqref="B531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60197,7 +60273,7 @@
       </c>
     </row>
     <row r="530" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B530" s="170" t="s">
+      <c r="B530" s="169" t="s">
         <v>1372</v>
       </c>
       <c r="C530" s="12" t="s">
@@ -60205,6 +60281,17 @@
       </c>
       <c r="D530">
         <v>528</v>
+      </c>
+    </row>
+    <row r="531" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B531" s="10" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C531" s="12" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D531">
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -60222,10 +60309,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E347"/>
+  <dimension ref="A1:E348"/>
   <sheetViews>
-    <sheetView topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="A347" sqref="A347"/>
+    <sheetView topLeftCell="A338" workbookViewId="0">
+      <selection activeCell="B348" sqref="B348:C348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65456,6 +65543,21 @@
       </c>
       <c r="E347" s="17"/>
     </row>
+    <row r="348" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A348" s="58">
+        <v>346</v>
+      </c>
+      <c r="B348" s="20" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C348" s="58" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D348" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E348" s="17"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E216" r:id="rId1" location="fndtn-page_scan_tab_contents"/>
@@ -65468,10 +65570,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67875,10 +67977,10 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="12">
+      <c r="A110" s="58">
         <v>108</v>
       </c>
-      <c r="B110" s="171" t="s">
+      <c r="B110" s="170" t="s">
         <v>1372</v>
       </c>
       <c r="C110" s="47" t="s">
@@ -67887,46 +67989,51 @@
       <c r="D110" s="61" t="s">
         <v>1373</v>
       </c>
-      <c r="F110" s="65" t="s">
+      <c r="E110" s="46" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F110" s="65"/>
+      <c r="G110" s="12" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="12">
+        <v>109</v>
+      </c>
+      <c r="B111" s="59" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A111" s="47"/>
-      <c r="B111" s="144" t="s">
+      <c r="C111" s="47" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D111" s="61"/>
+      <c r="E111" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="F111" s="65"/>
+    </row>
+    <row r="112" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A112" s="47"/>
+      <c r="B112" s="144" t="s">
         <v>895</v>
-      </c>
-      <c r="C111" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D111" s="47" t="s">
-        <v>846</v>
-      </c>
-      <c r="E111" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F111" s="43"/>
-      <c r="G111" s="47"/>
-    </row>
-    <row r="112" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="47"/>
-      <c r="B112" s="150" t="s">
-        <v>900</v>
       </c>
       <c r="C112" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="D112" s="47"/>
+      <c r="D112" s="47" t="s">
+        <v>846</v>
+      </c>
       <c r="E112" s="47" t="s">
         <v>479</v>
       </c>
       <c r="F112" s="43"/>
       <c r="G112" s="47"/>
     </row>
-    <row r="113" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="47"/>
-      <c r="B113" s="144" t="s">
-        <v>901</v>
+      <c r="B113" s="150" t="s">
+        <v>900</v>
       </c>
       <c r="C113" s="47" t="s">
         <v>282</v>
@@ -67938,40 +68045,40 @@
       <c r="F113" s="43"/>
       <c r="G113" s="47"/>
     </row>
-    <row r="114" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="121"/>
-      <c r="B114" s="142" t="s">
+    <row r="114" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="47"/>
+      <c r="B114" s="144" t="s">
+        <v>901</v>
+      </c>
+      <c r="C114" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D114" s="47"/>
+      <c r="E114" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F114" s="43"/>
+      <c r="G114" s="47"/>
+    </row>
+    <row r="115" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="121"/>
+      <c r="B115" s="142" t="s">
         <v>55</v>
       </c>
-      <c r="C114" s="121" t="s">
+      <c r="C115" s="121" t="s">
         <v>282</v>
       </c>
-      <c r="D114" s="121"/>
-      <c r="E114" s="121"/>
-      <c r="F114" s="122" t="s">
+      <c r="D115" s="121"/>
+      <c r="E115" s="121"/>
+      <c r="F115" s="122" t="s">
         <v>835</v>
       </c>
-      <c r="G114" s="151"/>
-    </row>
-    <row r="115" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="47"/>
-      <c r="B115" s="144" t="s">
+      <c r="G115" s="151"/>
+    </row>
+    <row r="116" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="47"/>
+      <c r="B116" s="144" t="s">
         <v>762</v>
-      </c>
-      <c r="C115" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D115" s="47"/>
-      <c r="E115" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F115" s="43"/>
-      <c r="G115" s="47"/>
-    </row>
-    <row r="116" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="47"/>
-      <c r="B116" s="51" t="s">
-        <v>82</v>
       </c>
       <c r="C116" s="47" t="s">
         <v>282</v>
@@ -67983,10 +68090,10 @@
       <c r="F116" s="43"/>
       <c r="G116" s="47"/>
     </row>
-    <row r="117" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="47"/>
-      <c r="B117" s="145" t="s">
-        <v>81</v>
+      <c r="B117" s="51" t="s">
+        <v>82</v>
       </c>
       <c r="C117" s="47" t="s">
         <v>282</v>
@@ -67998,10 +68105,10 @@
       <c r="F117" s="43"/>
       <c r="G117" s="47"/>
     </row>
-    <row r="118" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="47"/>
-      <c r="B118" s="150" t="s">
-        <v>933</v>
+      <c r="B118" s="145" t="s">
+        <v>81</v>
       </c>
       <c r="C118" s="47" t="s">
         <v>282</v>
@@ -68013,10 +68120,10 @@
       <c r="F118" s="43"/>
       <c r="G118" s="47"/>
     </row>
-    <row r="119" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="47"/>
-      <c r="B119" s="51" t="s">
-        <v>937</v>
+      <c r="B119" s="150" t="s">
+        <v>933</v>
       </c>
       <c r="C119" s="47" t="s">
         <v>282</v>
@@ -68028,10 +68135,10 @@
       <c r="F119" s="43"/>
       <c r="G119" s="47"/>
     </row>
-    <row r="120" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="47"/>
-      <c r="B120" s="150" t="s">
-        <v>938</v>
+      <c r="B120" s="51" t="s">
+        <v>937</v>
       </c>
       <c r="C120" s="47" t="s">
         <v>282</v>
@@ -68043,10 +68150,10 @@
       <c r="F120" s="43"/>
       <c r="G120" s="47"/>
     </row>
-    <row r="121" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="47"/>
-      <c r="B121" s="51" t="s">
-        <v>939</v>
+      <c r="B121" s="150" t="s">
+        <v>938</v>
       </c>
       <c r="C121" s="47" t="s">
         <v>282</v>
@@ -68058,10 +68165,10 @@
       <c r="F121" s="43"/>
       <c r="G121" s="47"/>
     </row>
-    <row r="122" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A122" s="47"/>
       <c r="B122" s="51" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C122" s="47" t="s">
         <v>282</v>
@@ -68073,10 +68180,10 @@
       <c r="F122" s="43"/>
       <c r="G122" s="47"/>
     </row>
-    <row r="123" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
-      <c r="B123" s="166" t="s">
-        <v>737</v>
+      <c r="B123" s="51" t="s">
+        <v>940</v>
       </c>
       <c r="C123" s="47" t="s">
         <v>282</v>
@@ -68090,8 +68197,8 @@
     </row>
     <row r="124" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="47"/>
-      <c r="B124" s="145" t="s">
-        <v>957</v>
+      <c r="B124" s="166" t="s">
+        <v>737</v>
       </c>
       <c r="C124" s="47" t="s">
         <v>282</v>
@@ -68103,10 +68210,10 @@
       <c r="F124" s="43"/>
       <c r="G124" s="47"/>
     </row>
-    <row r="125" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="47"/>
-      <c r="B125" s="150" t="s">
-        <v>990</v>
+      <c r="B125" s="145" t="s">
+        <v>957</v>
       </c>
       <c r="C125" s="47" t="s">
         <v>282</v>
@@ -68118,10 +68225,10 @@
       <c r="F125" s="43"/>
       <c r="G125" s="47"/>
     </row>
-    <row r="126" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="47"/>
-      <c r="B126" s="51" t="s">
-        <v>139</v>
+      <c r="B126" s="150" t="s">
+        <v>990</v>
       </c>
       <c r="C126" s="47" t="s">
         <v>282</v>
@@ -68133,10 +68240,10 @@
       <c r="F126" s="43"/>
       <c r="G126" s="47"/>
     </row>
-    <row r="127" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="47"/>
       <c r="B127" s="51" t="s">
-        <v>1001</v>
+        <v>139</v>
       </c>
       <c r="C127" s="47" t="s">
         <v>282</v>
@@ -68148,10 +68255,10 @@
       <c r="F127" s="43"/>
       <c r="G127" s="47"/>
     </row>
-    <row r="128" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="47"/>
       <c r="B128" s="51" t="s">
-        <v>88</v>
+        <v>1001</v>
       </c>
       <c r="C128" s="47" t="s">
         <v>282</v>
@@ -68163,10 +68270,10 @@
       <c r="F128" s="43"/>
       <c r="G128" s="47"/>
     </row>
-    <row r="129" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="47"/>
-      <c r="B129" s="147" t="s">
-        <v>1020</v>
+      <c r="B129" s="51" t="s">
+        <v>88</v>
       </c>
       <c r="C129" s="47" t="s">
         <v>282</v>
@@ -68178,10 +68285,10 @@
       <c r="F129" s="43"/>
       <c r="G129" s="47"/>
     </row>
-    <row r="130" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="47"/>
-      <c r="B130" s="145" t="s">
-        <v>58</v>
+      <c r="B130" s="147" t="s">
+        <v>1020</v>
       </c>
       <c r="C130" s="47" t="s">
         <v>282</v>
@@ -68193,10 +68300,10 @@
       <c r="F130" s="43"/>
       <c r="G130" s="47"/>
     </row>
-    <row r="131" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="47"/>
-      <c r="B131" s="144" t="s">
-        <v>1052</v>
+      <c r="B131" s="145" t="s">
+        <v>58</v>
       </c>
       <c r="C131" s="47" t="s">
         <v>282</v>
@@ -68208,10 +68315,10 @@
       <c r="F131" s="43"/>
       <c r="G131" s="47"/>
     </row>
-    <row r="132" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="47"/>
-      <c r="B132" s="51" t="s">
-        <v>1053</v>
+      <c r="B132" s="144" t="s">
+        <v>1052</v>
       </c>
       <c r="C132" s="47" t="s">
         <v>282</v>
@@ -68223,10 +68330,10 @@
       <c r="F132" s="43"/>
       <c r="G132" s="47"/>
     </row>
-    <row r="133" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="47"/>
-      <c r="B133" s="147" t="s">
-        <v>1065</v>
+      <c r="B133" s="51" t="s">
+        <v>1053</v>
       </c>
       <c r="C133" s="47" t="s">
         <v>282</v>
@@ -68238,10 +68345,10 @@
       <c r="F133" s="43"/>
       <c r="G133" s="47"/>
     </row>
-    <row r="134" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="47"/>
-      <c r="B134" s="150" t="s">
-        <v>188</v>
+      <c r="B134" s="147" t="s">
+        <v>1065</v>
       </c>
       <c r="C134" s="47" t="s">
         <v>282</v>
@@ -68250,15 +68357,13 @@
       <c r="E134" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F134" s="47" t="s">
-        <v>1267</v>
-      </c>
+      <c r="F134" s="43"/>
       <c r="G134" s="47"/>
     </row>
-    <row r="135" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="47"/>
-      <c r="B135" s="145" t="s">
-        <v>80</v>
+      <c r="B135" s="150" t="s">
+        <v>188</v>
       </c>
       <c r="C135" s="47" t="s">
         <v>282</v>
@@ -68267,16 +68372,18 @@
       <c r="E135" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="F135" s="43"/>
+      <c r="F135" s="47" t="s">
+        <v>1267</v>
+      </c>
       <c r="G135" s="47"/>
     </row>
-    <row r="136" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="47"/>
-      <c r="B136" s="143" t="s">
-        <v>775</v>
+      <c r="B136" s="145" t="s">
+        <v>80</v>
       </c>
       <c r="C136" s="47" t="s">
-        <v>798</v>
+        <v>282</v>
       </c>
       <c r="D136" s="47"/>
       <c r="E136" s="47" t="s">
@@ -68285,10 +68392,10 @@
       <c r="F136" s="43"/>
       <c r="G136" s="47"/>
     </row>
-    <row r="137" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="47"/>
-      <c r="B137" s="145" t="s">
-        <v>783</v>
+      <c r="B137" s="143" t="s">
+        <v>775</v>
       </c>
       <c r="C137" s="47" t="s">
         <v>798</v>
@@ -68300,22 +68407,37 @@
       <c r="F137" s="43"/>
       <c r="G137" s="47"/>
     </row>
-    <row r="138" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A138" s="46"/>
-      <c r="B138" s="152" t="s">
+    <row r="138" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="47"/>
+      <c r="B138" s="145" t="s">
+        <v>783</v>
+      </c>
+      <c r="C138" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D138" s="47"/>
+      <c r="E138" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F138" s="43"/>
+      <c r="G138" s="47"/>
+    </row>
+    <row r="139" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A139" s="46"/>
+      <c r="B139" s="152" t="s">
         <v>984</v>
       </c>
-      <c r="C138" s="46" t="s">
+      <c r="C139" s="46" t="s">
         <v>554</v>
       </c>
-      <c r="D138" s="46"/>
-      <c r="E138" s="46" t="s">
+      <c r="D139" s="46"/>
+      <c r="E139" s="46" t="s">
         <v>479</v>
       </c>
-      <c r="F138" s="46" t="s">
+      <c r="F139" s="46" t="s">
         <v>1147</v>
       </c>
-      <c r="G138" s="46"/>
+      <c r="G139" s="46"/>
     </row>
   </sheetData>
   <sortState ref="A3:G138">

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Vasilev\SkyDrive\R\reading_sounds\Literature_search\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7455" tabRatio="987" activeTab="8"/>
   </bookViews>
@@ -39,7 +34,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B19" authorId="0" shapeId="0">
+    <comment ref="B19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +69,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B219" authorId="0" shapeId="0">
+    <comment ref="B219" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +105,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D67" authorId="0" shapeId="0">
+    <comment ref="D67" authorId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B135" authorId="1" shapeId="0">
+    <comment ref="B135" authorId="1">
       <text>
         <r>
           <rPr>
@@ -195,7 +190,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -219,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0">
+    <comment ref="F9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -243,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" shapeId="0">
+    <comment ref="F12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -267,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0" shapeId="0">
+    <comment ref="G21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -292,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0" shapeId="0">
+    <comment ref="G22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -320,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G41" authorId="0" shapeId="0">
+    <comment ref="G41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G60" authorId="0" shapeId="0">
+    <comment ref="G60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -372,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="0" shapeId="0">
+    <comment ref="B62" authorId="0">
       <text>
         <r>
           <rPr>
@@ -397,7 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F63" authorId="0" shapeId="0">
+    <comment ref="F63" authorId="0">
       <text>
         <r>
           <rPr>
@@ -421,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="0" shapeId="0">
+    <comment ref="B67" authorId="0">
       <text>
         <r>
           <rPr>
@@ -446,7 +441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B68" authorId="0" shapeId="0">
+    <comment ref="B68" authorId="0">
       <text>
         <r>
           <rPr>
@@ -471,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D69" authorId="0" shapeId="0">
+    <comment ref="D69" authorId="0">
       <text>
         <r>
           <rPr>
@@ -495,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G69" authorId="0" shapeId="0">
+    <comment ref="G69" authorId="0">
       <text>
         <r>
           <rPr>
@@ -519,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G70" authorId="0" shapeId="0">
+    <comment ref="G70" authorId="0">
       <text>
         <r>
           <rPr>
@@ -544,7 +539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G71" authorId="0" shapeId="0">
+    <comment ref="G71" authorId="0">
       <text>
         <r>
           <rPr>
@@ -569,7 +564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D72" authorId="0" shapeId="0">
+    <comment ref="D72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -593,7 +588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F73" authorId="0" shapeId="0">
+    <comment ref="F73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -617,7 +612,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F77" authorId="0" shapeId="0">
+    <comment ref="F77" authorId="0">
       <text>
         <r>
           <rPr>
@@ -642,7 +637,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D79" authorId="0" shapeId="0">
+    <comment ref="D79" authorId="0">
       <text>
         <r>
           <rPr>
@@ -666,7 +661,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B84" authorId="0" shapeId="0">
+    <comment ref="B84" authorId="0">
       <text>
         <r>
           <rPr>
@@ -690,7 +685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F93" authorId="0" shapeId="0">
+    <comment ref="F93" authorId="0">
       <text>
         <r>
           <rPr>
@@ -714,7 +709,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F94" authorId="0" shapeId="0">
+    <comment ref="F94" authorId="0">
       <text>
         <r>
           <rPr>
@@ -738,7 +733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G110" authorId="1" shapeId="0">
+    <comment ref="G110" authorId="1">
       <text>
         <r>
           <rPr>
@@ -772,7 +767,7 @@
     <author>Martin,Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="D175" authorId="0" shapeId="0">
+    <comment ref="D175" authorId="0">
       <text>
         <r>
           <rPr>
@@ -806,7 +801,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B73" authorId="0" shapeId="0">
+    <comment ref="B73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -836,7 +831,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5172" uniqueCount="1375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5175" uniqueCount="1377">
   <si>
     <t>ID</t>
   </si>
@@ -38830,11 +38825,17 @@
       <t>(5), 254</t>
     </r>
   </si>
+  <si>
+    <t>2 (background: silence vs speech) 2 (student ability: over- vs under-achievers)</t>
+  </si>
+  <si>
+    <t>student ability levels is averaged out</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="67" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -40300,7 +40301,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -65572,8 +65573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67998,7 +67999,7 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="12">
+      <c r="A111" s="58">
         <v>109</v>
       </c>
       <c r="B111" s="59" t="s">
@@ -68007,11 +68008,18 @@
       <c r="C111" s="47" t="s">
         <v>1353</v>
       </c>
-      <c r="D111" s="61"/>
-      <c r="E111" s="12" t="s">
+      <c r="D111" s="61" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E111" s="58" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F111" s="65" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G111" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="F111" s="65"/>
     </row>
     <row r="112" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A112" s="47"/>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -735,7 +735,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5165" uniqueCount="1376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5168" uniqueCount="1379">
   <si>
     <t>ID</t>
   </si>
@@ -38730,7 +38730,16 @@
     <t>2 (background: silence vs speech) 2 (student ability: over- vs under-achievers)</t>
   </si>
   <si>
-    <t>student ability levels is averaged out</t>
+    <t>3 noise levels (field study): low, medium, high</t>
+  </si>
+  <si>
+    <t>There is no mention of attempts to match the groups on socio-economic, etc. variables (other than saying schools were "homogenious")</t>
+  </si>
+  <si>
+    <t>N/A (added to prior analysis)</t>
+  </si>
+  <si>
+    <t>student ability level is averaged out</t>
   </si>
 </sst>
 </file>
@@ -40193,7 +40202,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -65423,8 +65432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67865,14 +67874,14 @@
         <v>1125</v>
       </c>
       <c r="F111" s="65" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="G111" s="12" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A112" s="47">
+    <row r="112" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A112" s="58">
         <v>110</v>
       </c>
       <c r="B112" s="147" t="s">
@@ -67881,12 +67890,18 @@
       <c r="C112" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="D112" s="47"/>
-      <c r="E112" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F112" s="43"/>
-      <c r="G112" s="47"/>
+      <c r="D112" s="47" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E112" s="58" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F112" s="65" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G112" s="47" t="s">
+        <v>1377</v>
+      </c>
     </row>
     <row r="113" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="47"/>
@@ -67965,7 +67980,7 @@
       <c r="F117" s="43"/>
       <c r="G117" s="47"/>
     </row>
-    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A118" s="47"/>
       <c r="B118" s="51" t="s">
         <v>82</v>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Vasilev\SkyDrive\R\reading_sounds\Literature_search\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7455" tabRatio="987" activeTab="8"/>
   </bookViews>
@@ -22,7 +27,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">' Step 2'!$A$2:$D$525</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">' Step 3'!$A$2:$C$343</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">' Step 4 (meta)'!$A$2:$C$133</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -34,7 +39,7 @@
     <author>Martin,Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D67" authorId="0">
+    <comment ref="D67" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +99,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0">
+    <comment ref="F9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0">
+    <comment ref="F12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0">
+    <comment ref="G21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0">
+    <comment ref="G22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -219,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G41" authorId="0">
+    <comment ref="G41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G60" authorId="0">
+    <comment ref="G60" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="0">
+    <comment ref="B62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -296,7 +301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F63" authorId="0">
+    <comment ref="F63" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -320,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="0">
+    <comment ref="B67" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B68" authorId="0">
+    <comment ref="B68" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -370,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D69" authorId="0">
+    <comment ref="D69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -394,7 +399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G69" authorId="0">
+    <comment ref="G69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -418,7 +423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G70" authorId="0">
+    <comment ref="G70" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -443,7 +448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G71" authorId="0">
+    <comment ref="G71" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -468,7 +473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D72" authorId="0">
+    <comment ref="D72" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F73" authorId="0">
+    <comment ref="F73" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -516,7 +521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F77" authorId="0">
+    <comment ref="F77" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -541,7 +546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D79" authorId="0">
+    <comment ref="D79" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -565,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B84" authorId="0">
+    <comment ref="B84" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -589,7 +594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F93" authorId="0">
+    <comment ref="F93" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -613,7 +618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F94" authorId="0">
+    <comment ref="F94" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -637,7 +642,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G110" authorId="1">
+    <comment ref="G110" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -661,6 +666,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="F113" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin R. Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+There were no significant differences on geneder and socio-economic status; these variables were added as covariates in the models. Extracting the (covariate-adjusted) test statistic is preferable for calculating the ES here because it takes into account these variables. </t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -671,7 +700,7 @@
     <author>Martin,Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="D175" authorId="0">
+    <comment ref="D175" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -705,7 +734,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B73" authorId="0">
+    <comment ref="B73" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -735,7 +764,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5168" uniqueCount="1379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5169" uniqueCount="1383">
   <si>
     <t>ID</t>
   </si>
@@ -32098,49 +32127,6 @@
   </si>
   <si>
     <r>
-      <t>Matsui, T., Stansfeld, S., Haines, M., &amp; Head, J. (2004). Children's cognition and aircraft noise exposure at home-the West London Schools Study. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Noise and Health</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(25), 49.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">McCarthy, J. W., Cooley, J. A., &amp; Benigno, J. P. (2010). Integrating music into small-group book reading activities increases the engagement of students with autism. </t>
     </r>
     <r>
@@ -38740,12 +38726,71 @@
   </si>
   <si>
     <t>student ability level is averaged out</t>
+  </si>
+  <si>
+    <r>
+      <t>Matsui, T., Stansfeld, S., Haines, M., &amp; Head, J. (2004). Children's cognition and aircraft noise exposure at home-the West London Schools Study. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Noise and Health</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(25), 49.</t>
+    </r>
+  </si>
+  <si>
+    <t>new york train study missing? Compare with table</t>
+  </si>
+  <si>
+    <t>the two groups were matched on socio-economic status gender, and intellectual ability</t>
+  </si>
+  <si>
+    <t>N/A (added to main analysis)</t>
+  </si>
+  <si>
+    <t>chidren exposed to aircraft noise vs noise-control group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="67" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -40202,7 +40247,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -51650,7 +51695,7 @@
         <v>19</v>
       </c>
       <c r="B31" s="103" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>758</v>
@@ -52703,7 +52748,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>320</v>
@@ -52714,10 +52759,10 @@
         <v>68</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
@@ -52725,7 +52770,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="166" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>554</v>
@@ -52736,7 +52781,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="168" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>554</v>
@@ -52747,7 +52792,7 @@
         <v>71</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>554</v>
@@ -55486,7 +55531,7 @@
     </row>
     <row r="195" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B195" s="10" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C195" s="12" t="s">
         <v>282</v>
@@ -60117,7 +60162,7 @@
     </row>
     <row r="526" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B526" s="10" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C526" s="12" t="s">
         <v>320</v>
@@ -60128,7 +60173,7 @@
     </row>
     <row r="527" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B527" s="103" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C527" s="12" t="s">
         <v>797</v>
@@ -60139,10 +60184,10 @@
     </row>
     <row r="528" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="B528" s="166" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C528" s="12" t="s">
         <v>1351</v>
-      </c>
-      <c r="C528" s="12" t="s">
-        <v>1352</v>
       </c>
       <c r="D528">
         <v>527</v>
@@ -60150,10 +60195,10 @@
     </row>
     <row r="529" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B529" s="168" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C529" s="12" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D529">
         <v>528</v>
@@ -60161,10 +60206,10 @@
     </row>
     <row r="530" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B530" s="10" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C530" s="12" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D530">
         <v>529</v>
@@ -60186,8 +60231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E347"/>
   <sheetViews>
-    <sheetView topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135:XFD135"/>
+    <sheetView topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="B210" sqref="B210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60262,7 +60307,7 @@
         <v>320</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E5" s="17"/>
     </row>
@@ -60412,7 +60457,7 @@
         <v>282</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E15" s="17"/>
     </row>
@@ -60451,13 +60496,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="128" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C18" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E18" s="17"/>
     </row>
@@ -60654,7 +60699,7 @@
         <v>797</v>
       </c>
       <c r="D31" s="58" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E31" s="17"/>
     </row>
@@ -60860,13 +60905,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="128" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C45" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D45" s="58" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E45" s="58"/>
     </row>
@@ -61010,13 +61055,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="119" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C55" s="58" t="s">
         <v>282</v>
       </c>
       <c r="D55" s="58" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E55" s="17"/>
     </row>
@@ -61124,7 +61169,7 @@
         <v>479</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -61153,7 +61198,7 @@
         <v>320</v>
       </c>
       <c r="D64" s="58" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E64" s="17"/>
     </row>
@@ -61276,7 +61321,7 @@
         <v>479</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -61350,7 +61395,7 @@
         <v>282</v>
       </c>
       <c r="D77" s="58" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E77" s="17"/>
     </row>
@@ -61500,7 +61545,7 @@
         <v>282</v>
       </c>
       <c r="D87" s="60" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E87" s="17"/>
     </row>
@@ -61560,7 +61605,7 @@
         <v>320</v>
       </c>
       <c r="D91" s="58" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E91" s="17"/>
     </row>
@@ -61830,7 +61875,7 @@
         <v>320</v>
       </c>
       <c r="D109" s="60" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E109" s="17"/>
     </row>
@@ -61854,13 +61899,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="119" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C111" s="58" t="s">
         <v>554</v>
       </c>
       <c r="D111" s="58" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E111" s="17"/>
     </row>
@@ -61974,7 +62019,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C119" s="58" t="s">
         <v>282</v>
@@ -62132,7 +62177,7 @@
         <v>797</v>
       </c>
       <c r="D129" s="58" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E129" s="17"/>
     </row>
@@ -62282,7 +62327,7 @@
         <v>320</v>
       </c>
       <c r="D139" s="60" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E139" s="17"/>
     </row>
@@ -62402,7 +62447,7 @@
         <v>554</v>
       </c>
       <c r="D147" s="60" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E147" s="17"/>
     </row>
@@ -62471,13 +62516,13 @@
         <v>151</v>
       </c>
       <c r="B152" s="119" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C152" s="58" t="s">
         <v>282</v>
       </c>
       <c r="D152" s="58" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E152" s="17"/>
     </row>
@@ -62522,7 +62567,7 @@
         <v>320</v>
       </c>
       <c r="D155" s="60" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E155" s="17"/>
     </row>
@@ -62561,7 +62606,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="128" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C158" s="58" t="s">
         <v>320</v>
@@ -62687,7 +62732,7 @@
         <v>320</v>
       </c>
       <c r="D166" s="58" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E166" s="17"/>
     </row>
@@ -62801,7 +62846,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="119" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C174" s="58" t="s">
         <v>282</v>
@@ -62861,13 +62906,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="128" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C178" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D178" s="58" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E178" s="17"/>
     </row>
@@ -62927,7 +62972,7 @@
         <v>320</v>
       </c>
       <c r="D182" s="58" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E182" s="17"/>
     </row>
@@ -63342,14 +63387,14 @@
       <c r="A210" s="58">
         <v>209</v>
       </c>
-      <c r="B210" s="130" t="s">
-        <v>1000</v>
+      <c r="B210" s="127" t="s">
+        <v>1378</v>
       </c>
       <c r="C210" s="58" t="s">
         <v>282</v>
       </c>
       <c r="D210" s="58" t="s">
-        <v>479</v>
+        <v>1232</v>
       </c>
       <c r="E210" s="17"/>
     </row>
@@ -63388,7 +63433,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="128" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C213" s="58" t="s">
         <v>320</v>
@@ -63403,7 +63448,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="119" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C214" s="58" t="s">
         <v>554</v>
@@ -63418,7 +63463,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="128" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C215" s="58" t="s">
         <v>554</v>
@@ -63435,7 +63480,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="119" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C216" s="58" t="s">
         <v>554</v>
@@ -63450,7 +63495,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="119" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C217" s="58" t="s">
         <v>554</v>
@@ -63480,7 +63525,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="119" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C219" s="58" t="s">
         <v>554</v>
@@ -63495,7 +63540,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="20" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C220" s="58" t="s">
         <v>320</v>
@@ -63510,7 +63555,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="126" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C221" s="58" t="s">
         <v>320</v>
@@ -63525,7 +63570,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="84" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C222" s="58" t="s">
         <v>320</v>
@@ -63540,7 +63585,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="126" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C223" s="58" t="s">
         <v>320</v>
@@ -63555,7 +63600,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="84" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C224" s="58" t="s">
         <v>320</v>
@@ -63570,7 +63615,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="128" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C225" s="58" t="s">
         <v>320</v>
@@ -63585,7 +63630,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="128" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C226" s="58" t="s">
         <v>320</v>
@@ -63600,7 +63645,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="126" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C227" s="58" t="s">
         <v>320</v>
@@ -63615,7 +63660,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="119" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C228" s="58" t="s">
         <v>554</v>
@@ -63630,7 +63675,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="119" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C229" s="58" t="s">
         <v>554</v>
@@ -63645,7 +63690,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="119" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C230" s="58" t="s">
         <v>554</v>
@@ -63660,7 +63705,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="127" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C231" s="58" t="s">
         <v>282</v>
@@ -63675,7 +63720,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="127" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C232" s="58" t="s">
         <v>282</v>
@@ -63690,7 +63735,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="128" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C233" s="58" t="s">
         <v>320</v>
@@ -63705,7 +63750,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="119" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C234" s="58" t="s">
         <v>282</v>
@@ -63726,7 +63771,7 @@
         <v>320</v>
       </c>
       <c r="D235" s="58" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E235" s="17"/>
     </row>
@@ -63735,7 +63780,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="119" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C236" s="58" t="s">
         <v>797</v>
@@ -63750,7 +63795,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="130" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C237" s="58" t="s">
         <v>282</v>
@@ -63765,7 +63810,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="126" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C238" s="58" t="s">
         <v>320</v>
@@ -63780,7 +63825,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="127" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C239" s="58" t="s">
         <v>282</v>
@@ -63825,7 +63870,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="119" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C242" s="58" t="s">
         <v>320</v>
@@ -63840,7 +63885,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="119" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C243" s="58" t="s">
         <v>554</v>
@@ -63855,7 +63900,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="126" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C244" s="58" t="s">
         <v>320</v>
@@ -63870,7 +63915,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="128" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C245" s="58" t="s">
         <v>320</v>
@@ -63885,7 +63930,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="119" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C246" s="58" t="s">
         <v>554</v>
@@ -63900,7 +63945,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="126" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C247" s="58" t="s">
         <v>320</v>
@@ -63915,7 +63960,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="126" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C248" s="58" t="s">
         <v>320</v>
@@ -63930,7 +63975,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="127" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C249" s="58" t="s">
         <v>282</v>
@@ -63945,7 +63990,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="119" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C250" s="58" t="s">
         <v>554</v>
@@ -63960,7 +64005,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="128" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C251" s="58" t="s">
         <v>320</v>
@@ -63975,7 +64020,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="127" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C252" s="58" t="s">
         <v>282</v>
@@ -64007,7 +64052,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="126" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C254" s="58" t="s">
         <v>320</v>
@@ -64028,7 +64073,7 @@
         <v>320</v>
       </c>
       <c r="D255" s="58" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E255" s="17"/>
     </row>
@@ -64037,7 +64082,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="119" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C256" s="58" t="s">
         <v>554</v>
@@ -64052,7 +64097,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="119" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C257" s="58" t="s">
         <v>554</v>
@@ -64067,7 +64112,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="127" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C258" s="58" t="s">
         <v>282</v>
@@ -64097,7 +64142,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="127" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C260" s="58" t="s">
         <v>282</v>
@@ -64112,7 +64157,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="119" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C261" s="58" t="s">
         <v>554</v>
@@ -64127,7 +64172,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="128" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C262" s="58" t="s">
         <v>320</v>
@@ -64142,7 +64187,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="119" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C263" s="58" t="s">
         <v>554</v>
@@ -64172,7 +64217,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="128" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C265" s="58" t="s">
         <v>320</v>
@@ -64187,7 +64232,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="119" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C266" s="58" t="s">
         <v>554</v>
@@ -64202,7 +64247,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="119" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C267" s="58" t="s">
         <v>320</v>
@@ -64217,7 +64262,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="128" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C268" s="58" t="s">
         <v>320</v>
@@ -64232,7 +64277,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="128" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C269" s="58" t="s">
         <v>320</v>
@@ -64247,7 +64292,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="119" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C270" s="58" t="s">
         <v>554</v>
@@ -64262,7 +64307,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="119" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C271" s="58" t="s">
         <v>282</v>
@@ -64277,7 +64322,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="119" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C272" s="58" t="s">
         <v>554</v>
@@ -64307,7 +64352,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="126" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C274" s="58" t="s">
         <v>320</v>
@@ -64322,7 +64367,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="119" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C275" s="58" t="s">
         <v>320</v>
@@ -64337,7 +64382,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="84" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C276" s="58" t="s">
         <v>282</v>
@@ -64403,7 +64448,7 @@
         <v>282</v>
       </c>
       <c r="D280" s="58" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E280" s="17"/>
     </row>
@@ -64412,7 +64457,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="130" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C281" s="58" t="s">
         <v>282</v>
@@ -64472,7 +64517,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="119" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C285" s="58" t="s">
         <v>282</v>
@@ -64487,13 +64532,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="128" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C286" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D286" s="58" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E286" s="17"/>
     </row>
@@ -64553,7 +64598,7 @@
         <v>797</v>
       </c>
       <c r="D290" s="58" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E290" s="17"/>
     </row>
@@ -64562,7 +64607,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="119" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C291" s="58" t="s">
         <v>554</v>
@@ -64583,7 +64628,7 @@
         <v>282</v>
       </c>
       <c r="D292" s="58" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E292" s="17"/>
     </row>
@@ -64607,7 +64652,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="119" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C294" s="58" t="s">
         <v>554</v>
@@ -64622,13 +64667,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="128" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C295" s="58" t="s">
         <v>320</v>
       </c>
       <c r="D295" s="58" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E295" s="17"/>
     </row>
@@ -64637,7 +64682,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="119" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C296" s="58" t="s">
         <v>554</v>
@@ -64669,7 +64714,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="119" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C298" s="58" t="s">
         <v>554</v>
@@ -64684,7 +64729,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="127" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C299" s="58" t="s">
         <v>282</v>
@@ -64699,13 +64744,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="119" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C300" s="58" t="s">
         <v>554</v>
       </c>
       <c r="D300" s="58" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E300" s="17"/>
     </row>
@@ -64714,7 +64759,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="84" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C301" s="58" t="s">
         <v>554</v>
@@ -64729,7 +64774,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="119" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C302" s="58" t="s">
         <v>554</v>
@@ -64744,7 +64789,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="128" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C303" s="58" t="s">
         <v>320</v>
@@ -64759,7 +64804,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="127" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C304" s="58" t="s">
         <v>282</v>
@@ -64774,7 +64819,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="119" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C305" s="58" t="s">
         <v>282</v>
@@ -64789,7 +64834,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="130" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C306" s="58" t="s">
         <v>282</v>
@@ -64804,13 +64849,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="119" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C307" s="58" t="s">
         <v>282</v>
       </c>
       <c r="D307" s="58" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E307" s="17"/>
     </row>
@@ -64819,7 +64864,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="119" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C308" s="58" t="s">
         <v>554</v>
@@ -64834,7 +64879,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="127" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C309" s="58" t="s">
         <v>282</v>
@@ -64849,7 +64894,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="128" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C310" s="58" t="s">
         <v>320</v>
@@ -64864,7 +64909,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="128" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C311" s="58" t="s">
         <v>320</v>
@@ -64879,7 +64924,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="126" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C312" s="58" t="s">
         <v>320</v>
@@ -64894,7 +64939,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="133" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C313" s="58" t="s">
         <v>320</v>
@@ -64909,7 +64954,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="119" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C314" s="58" t="s">
         <v>554</v>
@@ -64924,7 +64969,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="84" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C315" s="58" t="s">
         <v>320</v>
@@ -64939,7 +64984,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="119" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C316" s="58" t="s">
         <v>554</v>
@@ -64954,7 +64999,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="119" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C317" s="58" t="s">
         <v>554</v>
@@ -64969,7 +65014,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="127" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C318" s="58" t="s">
         <v>282</v>
@@ -65001,7 +65046,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="119" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C320" s="58" t="s">
         <v>554</v>
@@ -65016,7 +65061,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="119" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C321" s="58" t="s">
         <v>554</v>
@@ -65031,7 +65076,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="84" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C322" s="58" t="s">
         <v>554</v>
@@ -65061,7 +65106,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="84" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C324" s="58" t="s">
         <v>554</v>
@@ -65076,7 +65121,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="127" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C325" s="58" t="s">
         <v>282</v>
@@ -65097,7 +65142,7 @@
         <v>320</v>
       </c>
       <c r="D326" s="60" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E326" s="17"/>
     </row>
@@ -65106,7 +65151,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="119" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C327" s="58" t="s">
         <v>282</v>
@@ -65121,7 +65166,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="132" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C328" s="58" t="s">
         <v>282</v>
@@ -65136,7 +65181,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="84" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C329" s="58" t="s">
         <v>282</v>
@@ -65166,7 +65211,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="119" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C331" s="58" t="s">
         <v>554</v>
@@ -65181,7 +65226,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="119" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C332" s="58" t="s">
         <v>282</v>
@@ -65196,7 +65241,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="127" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C333" s="58" t="s">
         <v>282</v>
@@ -65217,10 +65262,10 @@
         <v>320</v>
       </c>
       <c r="D334" s="60" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E334" s="58" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -65228,13 +65273,13 @@
         <v>334</v>
       </c>
       <c r="B335" s="138" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C335" s="58" t="s">
         <v>282</v>
       </c>
       <c r="D335" s="60" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E335" s="17"/>
     </row>
@@ -65243,7 +65288,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="119" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C336" s="58" t="s">
         <v>554</v>
@@ -65258,7 +65303,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="128" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C337" s="58" t="s">
         <v>320</v>
@@ -65273,7 +65318,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="128" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C338" s="58" t="s">
         <v>320</v>
@@ -65303,7 +65348,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="119" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C340" s="58" t="s">
         <v>282</v>
@@ -65318,7 +65363,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="119" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C341" s="58" t="s">
         <v>554</v>
@@ -65333,7 +65378,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="128" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C342" s="58" t="s">
         <v>320</v>
@@ -65348,7 +65393,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="84" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C343" s="58" t="s">
         <v>554</v>
@@ -65363,7 +65408,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="33" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C344" s="58" t="s">
         <v>797</v>
@@ -65378,10 +65423,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="167" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C345" s="58" t="s">
         <v>1351</v>
-      </c>
-      <c r="C345" s="58" t="s">
-        <v>1352</v>
       </c>
       <c r="D345" s="58" t="s">
         <v>479</v>
@@ -65393,10 +65438,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="84" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C346" s="58" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D346" s="58" t="s">
         <v>479</v>
@@ -65408,10 +65453,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="20" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C347" s="58" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D347" s="58" t="s">
         <v>479</v>
@@ -65432,8 +65477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65462,10 +65507,10 @@
         <v>283</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E2" s="45" t="s">
         <v>1122</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>1123</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>826</v>
@@ -65479,19 +65524,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="144" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D3" s="61" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F3" s="47" t="s">
         <v>1301</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>1302</v>
       </c>
       <c r="G3" s="47" t="s">
         <v>479</v>
@@ -65508,10 +65553,10 @@
         <v>554</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F4" s="43"/>
       <c r="G4" s="47" t="s">
@@ -65529,13 +65574,13 @@
         <v>320</v>
       </c>
       <c r="D5" s="61" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F5" s="61" t="s">
         <v>1304</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>1305</v>
       </c>
       <c r="G5" s="47" t="s">
         <v>479</v>
@@ -65546,16 +65591,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="144" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C6" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F6" s="43"/>
       <c r="G6" s="47" t="s">
@@ -65573,13 +65618,13 @@
         <v>320</v>
       </c>
       <c r="D7" s="61" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E7" s="58" t="s">
         <v>1124</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="F7" s="47" t="s">
         <v>1125</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>1126</v>
       </c>
       <c r="G7" s="47" t="s">
         <v>479</v>
@@ -65596,13 +65641,13 @@
         <v>320</v>
       </c>
       <c r="D8" s="61" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F8" s="47" t="s">
         <v>1127</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>1128</v>
       </c>
       <c r="G8" s="47" t="s">
         <v>479</v>
@@ -65619,13 +65664,13 @@
         <v>320</v>
       </c>
       <c r="D9" s="61" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F9" s="61" t="s">
         <v>1129</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F9" s="61" t="s">
-        <v>1130</v>
       </c>
       <c r="G9" s="47" t="s">
         <v>479</v>
@@ -65636,19 +65681,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="145" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E10" s="46" t="s">
         <v>1131</v>
       </c>
-      <c r="C10" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E10" s="46" t="s">
+      <c r="G10" s="47" t="s">
         <v>1132</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -65662,13 +65707,13 @@
         <v>320</v>
       </c>
       <c r="D11" s="61" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F11" s="61" t="s">
         <v>1135</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F11" s="61" t="s">
-        <v>1136</v>
       </c>
       <c r="G11" s="47" t="s">
         <v>479</v>
@@ -65679,19 +65724,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="143" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D12" s="61" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F12" s="61" t="s">
         <v>1137</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F12" s="61" t="s">
-        <v>1138</v>
       </c>
       <c r="G12" s="47" t="s">
         <v>479</v>
@@ -65708,13 +65753,13 @@
         <v>320</v>
       </c>
       <c r="D13" s="61" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F13" s="61" t="s">
         <v>1139</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F13" s="61" t="s">
-        <v>1140</v>
       </c>
       <c r="G13" s="47" t="s">
         <v>479</v>
@@ -65731,10 +65776,10 @@
         <v>320</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E14" s="58" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="47" t="s">
@@ -65752,13 +65797,13 @@
         <v>320</v>
       </c>
       <c r="D15" s="61" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F15" s="61" t="s">
         <v>1142</v>
-      </c>
-      <c r="E15" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F15" s="61" t="s">
-        <v>1143</v>
       </c>
       <c r="G15" s="47" t="s">
         <v>479</v>
@@ -65769,19 +65814,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="143" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C16" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D16" s="61" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F16" s="61" t="s">
         <v>1144</v>
-      </c>
-      <c r="E16" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F16" s="61" t="s">
-        <v>1145</v>
       </c>
       <c r="G16" s="47" t="s">
         <v>479</v>
@@ -65798,13 +65843,13 @@
         <v>320</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E17" s="58" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F17" s="61" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G17" s="47" t="s">
         <v>479</v>
@@ -65821,13 +65866,13 @@
         <v>320</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G18" s="61" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -65841,13 +65886,13 @@
         <v>320</v>
       </c>
       <c r="D19" s="61" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F19" s="61" t="s">
         <v>1151</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F19" s="61" t="s">
-        <v>1152</v>
       </c>
       <c r="G19" s="47" t="s">
         <v>479</v>
@@ -65864,10 +65909,10 @@
         <v>320</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E20" s="58" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F20" s="43"/>
       <c r="G20" s="47" t="s">
@@ -65885,13 +65930,13 @@
         <v>320</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E21" s="58" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F21" s="153" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G21" s="47" t="s">
         <v>479</v>
@@ -65902,20 +65947,20 @@
         <v>20</v>
       </c>
       <c r="B22" s="144" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E22" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F22" s="43"/>
       <c r="G22" s="61" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -65923,19 +65968,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="154" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D23" s="61" t="s">
         <v>1159</v>
       </c>
-      <c r="C23" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D23" s="61" t="s">
+      <c r="E23" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F23" s="155" t="s">
         <v>1160</v>
-      </c>
-      <c r="E23" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F23" s="155" t="s">
-        <v>1161</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>479</v>
@@ -65952,13 +65997,13 @@
         <v>320</v>
       </c>
       <c r="D24" s="61" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E24" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F24" s="61" t="s">
         <v>1162</v>
-      </c>
-      <c r="E24" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F24" s="61" t="s">
-        <v>1163</v>
       </c>
       <c r="G24" s="47" t="s">
         <v>479</v>
@@ -65975,13 +66020,13 @@
         <v>320</v>
       </c>
       <c r="D25" s="61" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F25" s="61" t="s">
         <v>1164</v>
-      </c>
-      <c r="E25" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F25" s="61" t="s">
-        <v>1165</v>
       </c>
       <c r="G25" s="47" t="s">
         <v>479</v>
@@ -65998,10 +66043,10 @@
         <v>320</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E26" s="58" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F26" s="43"/>
       <c r="G26" s="47" t="s">
@@ -66019,14 +66064,14 @@
         <v>282</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F27" s="43"/>
       <c r="G27" s="61" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -66040,14 +66085,14 @@
         <v>320</v>
       </c>
       <c r="D28" s="61" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F28" s="47"/>
       <c r="G28" s="47" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -66061,14 +66106,14 @@
         <v>320</v>
       </c>
       <c r="D29" s="61" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E29" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F29" s="43"/>
       <c r="G29" s="61" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -66082,14 +66127,14 @@
         <v>320</v>
       </c>
       <c r="D30" s="61" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E30" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F30" s="43"/>
       <c r="G30" s="61" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -66104,11 +66149,11 @@
       </c>
       <c r="D31" s="47"/>
       <c r="E31" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F31" s="43"/>
       <c r="G31" s="61" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -66122,14 +66167,14 @@
         <v>320</v>
       </c>
       <c r="D32" s="61" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E32" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F32" s="61"/>
       <c r="G32" s="61" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -66137,20 +66182,20 @@
         <v>31</v>
       </c>
       <c r="B33" s="145" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C33" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E33" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F33" s="43"/>
       <c r="G33" s="61" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -66164,14 +66209,14 @@
         <v>320</v>
       </c>
       <c r="D34" s="61" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E34" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F34" s="43"/>
       <c r="G34" s="61" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -66185,14 +66230,14 @@
         <v>320</v>
       </c>
       <c r="D35" s="61" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E35" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F35" s="43"/>
       <c r="G35" s="61" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -66206,14 +66251,14 @@
         <v>320</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E36" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F36" s="43"/>
       <c r="G36" s="61" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -66227,14 +66272,14 @@
         <v>320</v>
       </c>
       <c r="D37" s="61" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E37" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F37" s="43"/>
       <c r="G37" s="61" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -66248,14 +66293,14 @@
         <v>320</v>
       </c>
       <c r="D38" s="61" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E38" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F38" s="43"/>
       <c r="G38" s="61" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -66263,20 +66308,20 @@
         <v>37</v>
       </c>
       <c r="B39" s="145" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C39" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D39" s="61" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F39" s="43"/>
       <c r="G39" s="61" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -66284,19 +66329,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="145" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C40" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D40" s="61" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E40" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F40" s="61" t="s">
         <v>1191</v>
-      </c>
-      <c r="E40" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F40" s="61" t="s">
-        <v>1192</v>
       </c>
       <c r="G40" s="47" t="s">
         <v>479</v>
@@ -66307,20 +66352,20 @@
         <v>39</v>
       </c>
       <c r="B41" s="143" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C41" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E41" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F41" s="43"/>
       <c r="G41" s="61" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -66334,13 +66379,13 @@
         <v>320</v>
       </c>
       <c r="D42" s="61" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E42" s="58" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F42" s="61" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="G42" s="47" t="s">
         <v>479</v>
@@ -66351,19 +66396,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="146" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C43" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D43" s="61" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E43" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F43" s="65" t="s">
         <v>1197</v>
-      </c>
-      <c r="C43" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D43" s="61" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E43" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F43" s="65" t="s">
-        <v>1198</v>
       </c>
       <c r="G43" s="61" t="s">
         <v>479</v>
@@ -66374,20 +66419,20 @@
         <v>42</v>
       </c>
       <c r="B44" s="145" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C44" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E44" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F44" s="53"/>
       <c r="G44" s="61" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -66401,14 +66446,14 @@
         <v>320</v>
       </c>
       <c r="D45" s="61" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E45" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F45" s="61"/>
       <c r="G45" s="61" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -66422,14 +66467,14 @@
         <v>282</v>
       </c>
       <c r="D46" s="61" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E46" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F46" s="43"/>
       <c r="G46" s="47" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -66443,13 +66488,13 @@
         <v>554</v>
       </c>
       <c r="D47" s="61" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E47" s="58" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F47" s="61" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G47" s="47" t="s">
         <v>479</v>
@@ -66466,13 +66511,13 @@
         <v>282</v>
       </c>
       <c r="D48" s="61" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E48" s="58" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F48" s="61" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="G48" s="47" t="s">
         <v>479</v>
@@ -66483,19 +66528,19 @@
         <v>47</v>
       </c>
       <c r="B49" s="154" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C49" s="47" t="s">
         <v>282</v>
       </c>
       <c r="D49" s="61" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E49" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F49" s="61" t="s">
         <v>1209</v>
-      </c>
-      <c r="E49" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F49" s="61" t="s">
-        <v>1210</v>
       </c>
       <c r="G49" s="47" t="s">
         <v>479</v>
@@ -66512,13 +66557,13 @@
         <v>797</v>
       </c>
       <c r="D50" s="61" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E50" s="58" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F50" s="61" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="G50" s="47" t="s">
         <v>479</v>
@@ -66535,13 +66580,13 @@
         <v>282</v>
       </c>
       <c r="D51" s="61" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E51" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G51" s="61" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -66555,14 +66600,14 @@
         <v>282</v>
       </c>
       <c r="D52" s="61" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E52" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F52" s="43"/>
       <c r="G52" s="61" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -66576,13 +66621,13 @@
         <v>320</v>
       </c>
       <c r="D53" s="61" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E53" s="58" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F53" s="61" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="G53" s="12" t="s">
         <v>479</v>
@@ -66599,13 +66644,13 @@
         <v>320</v>
       </c>
       <c r="D54" s="61" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E54" s="58" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F54" s="65" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="G54" s="47" t="s">
         <v>479</v>
@@ -66622,16 +66667,16 @@
         <v>797</v>
       </c>
       <c r="D55" s="61" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E55" s="46" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F55" s="65" t="s">
         <v>1229</v>
       </c>
-      <c r="E55" s="46" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F55" s="65" t="s">
-        <v>1230</v>
-      </c>
       <c r="G55" s="61" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -66645,14 +66690,14 @@
         <v>797</v>
       </c>
       <c r="D56" s="61" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E56" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F56" s="43"/>
       <c r="G56" s="61" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -66666,14 +66711,14 @@
         <v>282</v>
       </c>
       <c r="D57" s="47" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E57" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F57" s="43"/>
       <c r="G57" s="61" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -66681,20 +66726,20 @@
         <v>56</v>
       </c>
       <c r="B58" s="144" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C58" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D58" s="61" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E58" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F58" s="43"/>
       <c r="G58" s="61" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -66702,22 +66747,22 @@
         <v>57</v>
       </c>
       <c r="B59" s="145" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C59" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D59" s="61" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E59" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F59" s="61" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="G59" s="47" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -66731,14 +66776,14 @@
         <v>320</v>
       </c>
       <c r="D60" s="62" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E60" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F60" s="43"/>
       <c r="G60" s="47" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -66746,20 +66791,20 @@
         <v>59</v>
       </c>
       <c r="B61" s="150" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C61" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D61" s="61" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E61" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F61" s="43"/>
       <c r="G61" s="61" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -66767,20 +66812,20 @@
         <v>60</v>
       </c>
       <c r="B62" s="150" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C62" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D62" s="61" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E62" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F62" s="43"/>
       <c r="G62" s="61" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -66788,19 +66833,19 @@
         <v>61</v>
       </c>
       <c r="B63" s="156" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C63" s="47" t="s">
         <v>282</v>
       </c>
       <c r="D63" s="61" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E63" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F63" s="61" t="s">
         <v>1249</v>
-      </c>
-      <c r="E63" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F63" s="61" t="s">
-        <v>1250</v>
       </c>
       <c r="G63" s="47" t="s">
         <v>479</v>
@@ -66811,19 +66856,19 @@
         <v>62</v>
       </c>
       <c r="B64" s="150" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C64" s="47" t="s">
         <v>282</v>
       </c>
       <c r="D64" s="61" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E64" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F64" s="65" t="s">
         <v>1252</v>
-      </c>
-      <c r="E64" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F64" s="65" t="s">
-        <v>1253</v>
       </c>
       <c r="G64" s="47" t="s">
         <v>479</v>
@@ -66834,19 +66879,19 @@
         <v>63</v>
       </c>
       <c r="B65" s="157" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C65" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D65" s="61" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E65" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F65" s="61" t="s">
         <v>1255</v>
-      </c>
-      <c r="E65" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F65" s="61" t="s">
-        <v>1256</v>
       </c>
       <c r="G65" s="47" t="s">
         <v>479</v>
@@ -66857,19 +66902,19 @@
         <v>64</v>
       </c>
       <c r="B66" s="150" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C66" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D66" s="61" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E66" s="58" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F66" s="61" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G66" s="47" t="s">
         <v>479</v>
@@ -66880,19 +66925,19 @@
         <v>65</v>
       </c>
       <c r="B67" s="150" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C67" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D67" s="61" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E67" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F67" s="61" t="s">
         <v>1261</v>
-      </c>
-      <c r="E67" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F67" s="61" t="s">
-        <v>1262</v>
       </c>
       <c r="G67" s="47" t="s">
         <v>479</v>
@@ -66903,19 +66948,19 @@
         <v>66</v>
       </c>
       <c r="B68" s="150" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C68" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D68" s="61" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E68" s="58" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F68" s="61" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="G68" s="47" t="s">
         <v>479</v>
@@ -66932,14 +66977,14 @@
         <v>320</v>
       </c>
       <c r="D69" s="61" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E69" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F69" s="43"/>
       <c r="G69" s="47" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -66947,20 +66992,20 @@
         <v>68</v>
       </c>
       <c r="B70" s="149" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C70" s="47" t="s">
         <v>282</v>
       </c>
       <c r="D70" s="61" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E70" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F70" s="43"/>
       <c r="G70" s="61" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -66968,19 +67013,19 @@
         <v>69</v>
       </c>
       <c r="B71" s="159" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C71" s="47" t="s">
         <v>282</v>
       </c>
       <c r="E71" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F71" s="61" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="G71" s="61" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -66994,16 +67039,16 @@
         <v>797</v>
       </c>
       <c r="D72" s="61" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="E72" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F72" s="61" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G72" s="61" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -67011,19 +67056,19 @@
         <v>71</v>
       </c>
       <c r="B73" s="150" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C73" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D73" s="61" t="s">
         <v>1274</v>
       </c>
-      <c r="C73" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="D73" s="61" t="s">
-        <v>1275</v>
-      </c>
       <c r="E73" s="58" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F73" s="61" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G73" s="47" t="s">
         <v>479</v>
@@ -67040,16 +67085,16 @@
         <v>320</v>
       </c>
       <c r="D74" s="61" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E74" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F74" s="61" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G74" s="61" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -67063,14 +67108,14 @@
         <v>282</v>
       </c>
       <c r="D75" s="61" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E75" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F75" s="43"/>
       <c r="G75" s="61" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -67078,19 +67123,19 @@
         <v>74</v>
       </c>
       <c r="B76" s="150" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C76" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D76" s="61" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E76" s="58" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F76" s="61" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G76" s="47" t="s">
         <v>479</v>
@@ -67107,13 +67152,13 @@
         <v>282</v>
       </c>
       <c r="D77" s="61" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E77" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F77" s="61" t="s">
         <v>1283</v>
-      </c>
-      <c r="E77" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F77" s="61" t="s">
-        <v>1284</v>
       </c>
       <c r="G77" s="47" t="s">
         <v>479</v>
@@ -67124,19 +67169,19 @@
         <v>76</v>
       </c>
       <c r="B78" s="145" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C78" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D78" s="61" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E78" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F78" s="61" t="s">
         <v>1285</v>
-      </c>
-      <c r="E78" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F78" s="61" t="s">
-        <v>1286</v>
       </c>
       <c r="G78" s="47" t="s">
         <v>479</v>
@@ -67147,19 +67192,19 @@
         <v>77</v>
       </c>
       <c r="B79" s="145" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C79" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D79" s="61" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E79" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F79" s="61" t="s">
         <v>1285</v>
-      </c>
-      <c r="E79" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F79" s="61" t="s">
-        <v>1286</v>
       </c>
       <c r="G79" s="47" t="s">
         <v>479</v>
@@ -67170,19 +67215,19 @@
         <v>78</v>
       </c>
       <c r="B80" s="145" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C80" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D80" s="61" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E80" s="46" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G80" s="61" t="s">
         <v>1290</v>
-      </c>
-      <c r="E80" s="46" t="s">
-        <v>1132</v>
-      </c>
-      <c r="G80" s="61" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -67190,20 +67235,20 @@
         <v>79</v>
       </c>
       <c r="B81" s="144" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C81" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D81" s="61" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E81" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F81" s="43"/>
       <c r="G81" s="47" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -67211,20 +67256,20 @@
         <v>80</v>
       </c>
       <c r="B82" s="162" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C82" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D82" s="61" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E82" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F82" s="43"/>
       <c r="G82" s="61" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -67232,20 +67277,20 @@
         <v>81</v>
       </c>
       <c r="B83" s="144" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C83" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D83" s="61" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E83" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F83" s="43"/>
       <c r="G83" s="61" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -67253,20 +67298,20 @@
         <v>82</v>
       </c>
       <c r="B84" s="144" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C84" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D84" s="61" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E84" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F84" s="43"/>
       <c r="G84" s="61" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -67280,14 +67325,14 @@
         <v>554</v>
       </c>
       <c r="D85" s="61" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E85" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F85" s="43"/>
       <c r="G85" s="61" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -67301,16 +67346,16 @@
         <v>282</v>
       </c>
       <c r="D86" s="61" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E86" s="46" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F86" s="53" t="s">
         <v>1309</v>
       </c>
-      <c r="E86" s="46" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F86" s="53" t="s">
-        <v>1310</v>
-      </c>
       <c r="G86" s="61" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -67318,20 +67363,20 @@
         <v>85</v>
       </c>
       <c r="B87" s="150" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C87" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D87" s="61" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E87" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F87" s="43"/>
       <c r="G87" s="61" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -67345,13 +67390,13 @@
         <v>282</v>
       </c>
       <c r="D88" s="61" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E88" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F88" s="61" t="s">
         <v>1312</v>
-      </c>
-      <c r="E88" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F88" s="61" t="s">
-        <v>1313</v>
       </c>
       <c r="G88" s="47" t="s">
         <v>479</v>
@@ -67362,19 +67407,19 @@
         <v>87</v>
       </c>
       <c r="B89" s="150" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C89" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D89" s="61" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E89" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F89" s="61" t="s">
         <v>1317</v>
-      </c>
-      <c r="E89" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F89" s="61" t="s">
-        <v>1318</v>
       </c>
       <c r="G89" s="47" t="s">
         <v>479</v>
@@ -67385,19 +67430,19 @@
         <v>88</v>
       </c>
       <c r="B90" s="150" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C90" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D90" s="61" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E90" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F90" s="61" t="s">
         <v>1320</v>
-      </c>
-      <c r="E90" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F90" s="61" t="s">
-        <v>1321</v>
       </c>
       <c r="G90" s="47" t="s">
         <v>479</v>
@@ -67408,19 +67453,19 @@
         <v>89</v>
       </c>
       <c r="B91" s="150" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C91" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D91" s="61" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E91" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F91" s="61" t="s">
         <v>1323</v>
-      </c>
-      <c r="E91" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F91" s="61" t="s">
-        <v>1324</v>
       </c>
       <c r="G91" s="47" t="s">
         <v>479</v>
@@ -67431,19 +67476,19 @@
         <v>90</v>
       </c>
       <c r="B92" s="150" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C92" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D92" s="61" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E92" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F92" s="61" t="s">
         <v>1326</v>
-      </c>
-      <c r="E92" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F92" s="61" t="s">
-        <v>1327</v>
       </c>
       <c r="G92" s="47" t="s">
         <v>479</v>
@@ -67460,13 +67505,13 @@
         <v>554</v>
       </c>
       <c r="D93" s="61" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E93" s="58" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F93" s="61" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G93" s="47" t="s">
         <v>479</v>
@@ -67477,19 +67522,19 @@
         <v>92</v>
       </c>
       <c r="B94" s="65" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C94" s="47" t="s">
         <v>797</v>
       </c>
       <c r="D94" s="61" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E94" s="58" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F94" s="61" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G94" s="12" t="s">
         <v>479</v>
@@ -67500,22 +67545,22 @@
         <v>93</v>
       </c>
       <c r="B95" s="65" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C95" s="47" t="s">
         <v>797</v>
       </c>
       <c r="D95" s="61" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="E95" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F95" s="61" t="s">
+        <v>1332</v>
+      </c>
+      <c r="G95" s="62" t="s">
         <v>1333</v>
-      </c>
-      <c r="G95" s="62" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -67523,20 +67568,20 @@
         <v>94</v>
       </c>
       <c r="B96" s="150" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C96" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D96" s="61" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E96" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F96" s="43"/>
       <c r="G96" s="61" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -67544,22 +67589,22 @@
         <v>95</v>
       </c>
       <c r="B97" s="150" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C97" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D97" s="61" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E97" s="46" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F97" s="61" t="s">
         <v>1339</v>
       </c>
-      <c r="E97" s="46" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F97" s="61" t="s">
+      <c r="G97" s="47" t="s">
         <v>1340</v>
-      </c>
-      <c r="G97" s="47" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -67567,22 +67612,22 @@
         <v>96</v>
       </c>
       <c r="B98" s="150" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C98" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D98" s="61" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="E98" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F98" s="61" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G98" s="47" t="s">
         <v>1340</v>
-      </c>
-      <c r="G98" s="47" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -67596,14 +67641,14 @@
         <v>282</v>
       </c>
       <c r="D99" s="61" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E99" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F99" s="43"/>
       <c r="G99" s="61" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -67611,19 +67656,19 @@
         <v>98</v>
       </c>
       <c r="B100" s="150" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C100" s="47" t="s">
         <v>797</v>
       </c>
       <c r="D100" s="61" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E100" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F100" s="53" t="s">
         <v>1346</v>
-      </c>
-      <c r="E100" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F100" s="53" t="s">
-        <v>1347</v>
       </c>
       <c r="G100" s="47" t="s">
         <v>479</v>
@@ -67634,19 +67679,19 @@
         <v>99</v>
       </c>
       <c r="B101" s="150" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C101" s="47" t="s">
         <v>797</v>
       </c>
       <c r="D101" s="61" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E101" s="58" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F101" s="53" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G101" s="47" t="s">
         <v>479</v>
@@ -67657,22 +67702,22 @@
         <v>100</v>
       </c>
       <c r="B102" s="150" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C102" s="47" t="s">
         <v>797</v>
       </c>
       <c r="D102" s="61" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E102" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F102" s="53" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G102" s="47" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -67680,19 +67725,19 @@
         <v>101</v>
       </c>
       <c r="B103" s="150" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C103" s="47" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D103" s="61" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E103" s="58" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F103" s="65" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G103" s="12" t="s">
         <v>479</v>
@@ -67703,19 +67748,19 @@
         <v>102</v>
       </c>
       <c r="B104" s="150" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C104" s="47" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D104" s="61" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E104" s="58" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F104" s="65" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="G104" s="12" t="s">
         <v>479</v>
@@ -67732,13 +67777,13 @@
         <v>554</v>
       </c>
       <c r="D105" s="61" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E105" s="58" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F105" s="65" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G105" s="47" t="s">
         <v>479</v>
@@ -67749,19 +67794,19 @@
         <v>104</v>
       </c>
       <c r="B106" s="150" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C106" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D106" s="61" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E106" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F106" s="65" t="s">
         <v>1360</v>
-      </c>
-      <c r="E106" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F106" s="65" t="s">
-        <v>1361</v>
       </c>
       <c r="G106" s="47" t="s">
         <v>479</v>
@@ -67772,19 +67817,19 @@
         <v>105</v>
       </c>
       <c r="B107" s="150" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C107" s="47" t="s">
         <v>554</v>
       </c>
       <c r="D107" s="61" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E107" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F107" s="65" t="s">
         <v>1363</v>
-      </c>
-      <c r="E107" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F107" s="65" t="s">
-        <v>1364</v>
       </c>
       <c r="G107" s="47" t="s">
         <v>479</v>
@@ -67801,13 +67846,13 @@
         <v>554</v>
       </c>
       <c r="D108" s="61" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E108" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F108" s="65" t="s">
         <v>1365</v>
-      </c>
-      <c r="E108" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F108" s="65" t="s">
-        <v>1366</v>
       </c>
       <c r="G108" s="47" t="s">
         <v>479</v>
@@ -67824,16 +67869,16 @@
         <v>797</v>
       </c>
       <c r="D109" s="61" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E109" s="46" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F109" s="65" t="s">
         <v>1369</v>
       </c>
-      <c r="E109" s="46" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F109" s="65" t="s">
-        <v>1370</v>
-      </c>
       <c r="G109" s="47" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -67841,20 +67886,20 @@
         <v>108</v>
       </c>
       <c r="B110" s="169" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C110" s="47" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D110" s="61" t="s">
         <v>1371</v>
       </c>
-      <c r="C110" s="47" t="s">
-        <v>1352</v>
-      </c>
-      <c r="D110" s="61" t="s">
-        <v>1372</v>
-      </c>
       <c r="E110" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F110" s="65"/>
       <c r="G110" s="12" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -67862,19 +67907,19 @@
         <v>109</v>
       </c>
       <c r="B111" s="59" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C111" s="47" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D111" s="61" t="s">
         <v>1373</v>
       </c>
-      <c r="C111" s="47" t="s">
-        <v>1352</v>
-      </c>
-      <c r="D111" s="61" t="s">
-        <v>1374</v>
-      </c>
       <c r="E111" s="58" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F111" s="65" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="G111" s="12" t="s">
         <v>479</v>
@@ -67885,50 +67930,58 @@
         <v>110</v>
       </c>
       <c r="B112" s="147" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C112" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="D112" s="47" t="s">
+      <c r="D112" s="61" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E112" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F112" s="65" t="s">
         <v>1375</v>
       </c>
-      <c r="E112" s="58" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F112" s="65" t="s">
+      <c r="G112" s="47" t="s">
         <v>1376</v>
       </c>
-      <c r="G112" s="47" t="s">
-        <v>1377</v>
-      </c>
     </row>
     <row r="113" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="47"/>
-      <c r="B113" s="144" t="s">
-        <v>894</v>
+      <c r="A113" s="58">
+        <v>111</v>
+      </c>
+      <c r="B113" s="143" t="s">
+        <v>774</v>
       </c>
       <c r="C113" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D113" s="47" t="s">
-        <v>845</v>
-      </c>
-      <c r="E113" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F113" s="43"/>
-      <c r="G113" s="47"/>
+        <v>797</v>
+      </c>
+      <c r="D113" s="61" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E113" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F113" s="65" t="s">
+        <v>1380</v>
+      </c>
+      <c r="G113" s="47" t="s">
+        <v>1381</v>
+      </c>
     </row>
     <row r="114" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="47"/>
-      <c r="B114" s="150" t="s">
-        <v>899</v>
+      <c r="B114" s="144" t="s">
+        <v>894</v>
       </c>
       <c r="C114" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="D114" s="47"/>
+      <c r="D114" s="47" t="s">
+        <v>845</v>
+      </c>
       <c r="E114" s="47" t="s">
         <v>479</v>
       </c>
@@ -67937,8 +67990,8 @@
     </row>
     <row r="115" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="47"/>
-      <c r="B115" s="144" t="s">
-        <v>900</v>
+      <c r="B115" s="150" t="s">
+        <v>899</v>
       </c>
       <c r="C115" s="47" t="s">
         <v>282</v>
@@ -67951,39 +68004,39 @@
       <c r="G115" s="47"/>
     </row>
     <row r="116" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="121"/>
-      <c r="B116" s="142" t="s">
+      <c r="A116" s="47"/>
+      <c r="B116" s="144" t="s">
+        <v>900</v>
+      </c>
+      <c r="C116" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D116" s="47"/>
+      <c r="E116" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F116" s="43"/>
+      <c r="G116" s="47"/>
+    </row>
+    <row r="117" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="121"/>
+      <c r="B117" s="142" t="s">
         <v>55</v>
       </c>
-      <c r="C116" s="121" t="s">
+      <c r="C117" s="121" t="s">
         <v>282</v>
       </c>
-      <c r="D116" s="121"/>
-      <c r="E116" s="121"/>
-      <c r="F116" s="122" t="s">
+      <c r="D117" s="121"/>
+      <c r="E117" s="121"/>
+      <c r="F117" s="122" t="s">
         <v>834</v>
       </c>
-      <c r="G116" s="151"/>
-    </row>
-    <row r="117" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="47"/>
-      <c r="B117" s="144" t="s">
-        <v>761</v>
-      </c>
-      <c r="C117" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D117" s="47"/>
-      <c r="E117" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F117" s="43"/>
-      <c r="G117" s="47"/>
+      <c r="G117" s="151"/>
     </row>
     <row r="118" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A118" s="47"/>
-      <c r="B118" s="51" t="s">
-        <v>82</v>
+      <c r="B118" s="144" t="s">
+        <v>761</v>
       </c>
       <c r="C118" s="47" t="s">
         <v>282</v>
@@ -67997,8 +68050,8 @@
     </row>
     <row r="119" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="47"/>
-      <c r="B119" s="145" t="s">
-        <v>81</v>
+      <c r="B119" s="51" t="s">
+        <v>82</v>
       </c>
       <c r="C119" s="47" t="s">
         <v>282</v>
@@ -68012,8 +68065,8 @@
     </row>
     <row r="120" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="47"/>
-      <c r="B120" s="150" t="s">
-        <v>932</v>
+      <c r="B120" s="145" t="s">
+        <v>81</v>
       </c>
       <c r="C120" s="47" t="s">
         <v>282</v>
@@ -68027,8 +68080,8 @@
     </row>
     <row r="121" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="47"/>
-      <c r="B121" s="51" t="s">
-        <v>936</v>
+      <c r="B121" s="150" t="s">
+        <v>932</v>
       </c>
       <c r="C121" s="47" t="s">
         <v>282</v>
@@ -68042,8 +68095,8 @@
     </row>
     <row r="122" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A122" s="47"/>
-      <c r="B122" s="150" t="s">
-        <v>937</v>
+      <c r="B122" s="51" t="s">
+        <v>936</v>
       </c>
       <c r="C122" s="47" t="s">
         <v>282</v>
@@ -68057,8 +68110,8 @@
     </row>
     <row r="123" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
-      <c r="B123" s="51" t="s">
-        <v>938</v>
+      <c r="B123" s="150" t="s">
+        <v>937</v>
       </c>
       <c r="C123" s="47" t="s">
         <v>282</v>
@@ -68073,7 +68126,7 @@
     <row r="124" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="47"/>
       <c r="B124" s="51" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C124" s="47" t="s">
         <v>282</v>
@@ -68087,8 +68140,8 @@
     </row>
     <row r="125" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="47"/>
-      <c r="B125" s="145" t="s">
-        <v>956</v>
+      <c r="B125" s="51" t="s">
+        <v>939</v>
       </c>
       <c r="C125" s="47" t="s">
         <v>282</v>
@@ -68102,8 +68155,8 @@
     </row>
     <row r="126" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="47"/>
-      <c r="B126" s="150" t="s">
-        <v>989</v>
+      <c r="B126" s="145" t="s">
+        <v>956</v>
       </c>
       <c r="C126" s="47" t="s">
         <v>282</v>
@@ -68115,10 +68168,10 @@
       <c r="F126" s="43"/>
       <c r="G126" s="47"/>
     </row>
-    <row r="127" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="47"/>
-      <c r="B127" s="51" t="s">
-        <v>139</v>
+      <c r="B127" s="150" t="s">
+        <v>989</v>
       </c>
       <c r="C127" s="47" t="s">
         <v>282</v>
@@ -68130,10 +68183,10 @@
       <c r="F127" s="43"/>
       <c r="G127" s="47"/>
     </row>
-    <row r="128" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="47"/>
       <c r="B128" s="51" t="s">
-        <v>1000</v>
+        <v>139</v>
       </c>
       <c r="C128" s="47" t="s">
         <v>282</v>
@@ -68145,7 +68198,7 @@
       <c r="F128" s="43"/>
       <c r="G128" s="47"/>
     </row>
-    <row r="129" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="47"/>
       <c r="B129" s="51" t="s">
         <v>88</v>
@@ -68160,7 +68213,7 @@
       <c r="F129" s="43"/>
       <c r="G129" s="47"/>
     </row>
-    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="47"/>
       <c r="B130" s="145" t="s">
         <v>58</v>
@@ -68175,10 +68228,10 @@
       <c r="F130" s="43"/>
       <c r="G130" s="47"/>
     </row>
-    <row r="131" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="47"/>
       <c r="B131" s="144" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C131" s="47" t="s">
         <v>282</v>
@@ -68190,10 +68243,10 @@
       <c r="F131" s="43"/>
       <c r="G131" s="47"/>
     </row>
-    <row r="132" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="47"/>
       <c r="B132" s="51" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C132" s="47" t="s">
         <v>282</v>
@@ -68205,10 +68258,10 @@
       <c r="F132" s="43"/>
       <c r="G132" s="47"/>
     </row>
-    <row r="133" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="47"/>
       <c r="B133" s="147" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C133" s="47" t="s">
         <v>282</v>
@@ -68220,7 +68273,7 @@
       <c r="F133" s="43"/>
       <c r="G133" s="47"/>
     </row>
-    <row r="134" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="47"/>
       <c r="B134" s="150" t="s">
         <v>188</v>
@@ -68233,11 +68286,11 @@
         <v>479</v>
       </c>
       <c r="F134" s="47" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="G134" s="47"/>
     </row>
-    <row r="135" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="47"/>
       <c r="B135" s="145" t="s">
         <v>80</v>
@@ -68252,10 +68305,10 @@
       <c r="F135" s="43"/>
       <c r="G135" s="47"/>
     </row>
-    <row r="136" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="47"/>
-      <c r="B136" s="143" t="s">
-        <v>774</v>
+      <c r="B136" s="145" t="s">
+        <v>782</v>
       </c>
       <c r="C136" s="47" t="s">
         <v>797</v>
@@ -68267,37 +68320,27 @@
       <c r="F136" s="43"/>
       <c r="G136" s="47"/>
     </row>
-    <row r="137" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="47"/>
-      <c r="B137" s="145" t="s">
-        <v>782</v>
-      </c>
-      <c r="C137" s="47" t="s">
-        <v>797</v>
-      </c>
-      <c r="D137" s="47"/>
-      <c r="E137" s="47" t="s">
+    <row r="137" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A137" s="46"/>
+      <c r="B137" s="152" t="s">
+        <v>983</v>
+      </c>
+      <c r="C137" s="46" t="s">
+        <v>554</v>
+      </c>
+      <c r="D137" s="46"/>
+      <c r="E137" s="46" t="s">
         <v>479</v>
       </c>
-      <c r="F137" s="43"/>
-      <c r="G137" s="47"/>
-    </row>
-    <row r="138" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A138" s="46"/>
-      <c r="B138" s="152" t="s">
-        <v>983</v>
-      </c>
-      <c r="C138" s="46" t="s">
-        <v>554</v>
-      </c>
-      <c r="D138" s="46"/>
-      <c r="E138" s="46" t="s">
-        <v>479</v>
-      </c>
-      <c r="F138" s="46" t="s">
-        <v>1146</v>
-      </c>
-      <c r="G138" s="46"/>
+      <c r="F137" s="46" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G137" s="46"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B138" s="136" t="s">
+        <v>1379</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A3:G138">

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -65477,8 +65477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67972,16 +67972,16 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="47"/>
+      <c r="A114" s="47">
+        <v>112</v>
+      </c>
       <c r="B114" s="144" t="s">
-        <v>894</v>
+        <v>1050</v>
       </c>
       <c r="C114" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="D114" s="47" t="s">
-        <v>845</v>
-      </c>
+      <c r="D114" s="47"/>
       <c r="E114" s="47" t="s">
         <v>479</v>
       </c>
@@ -67990,13 +67990,15 @@
     </row>
     <row r="115" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="47"/>
-      <c r="B115" s="150" t="s">
-        <v>899</v>
+      <c r="B115" s="144" t="s">
+        <v>894</v>
       </c>
       <c r="C115" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="D115" s="47"/>
+      <c r="D115" s="47" t="s">
+        <v>845</v>
+      </c>
       <c r="E115" s="47" t="s">
         <v>479</v>
       </c>
@@ -68005,8 +68007,8 @@
     </row>
     <row r="116" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="47"/>
-      <c r="B116" s="144" t="s">
-        <v>900</v>
+      <c r="B116" s="150" t="s">
+        <v>899</v>
       </c>
       <c r="C116" s="47" t="s">
         <v>282</v>
@@ -68019,39 +68021,39 @@
       <c r="G116" s="47"/>
     </row>
     <row r="117" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="121"/>
-      <c r="B117" s="142" t="s">
+      <c r="A117" s="47"/>
+      <c r="B117" s="144" t="s">
+        <v>900</v>
+      </c>
+      <c r="C117" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D117" s="47"/>
+      <c r="E117" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F117" s="43"/>
+      <c r="G117" s="47"/>
+    </row>
+    <row r="118" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A118" s="121"/>
+      <c r="B118" s="142" t="s">
         <v>55</v>
       </c>
-      <c r="C117" s="121" t="s">
+      <c r="C118" s="121" t="s">
         <v>282</v>
       </c>
-      <c r="D117" s="121"/>
-      <c r="E117" s="121"/>
-      <c r="F117" s="122" t="s">
+      <c r="D118" s="121"/>
+      <c r="E118" s="121"/>
+      <c r="F118" s="122" t="s">
         <v>834</v>
       </c>
-      <c r="G117" s="151"/>
-    </row>
-    <row r="118" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="47"/>
-      <c r="B118" s="144" t="s">
-        <v>761</v>
-      </c>
-      <c r="C118" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D118" s="47"/>
-      <c r="E118" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F118" s="43"/>
-      <c r="G118" s="47"/>
+      <c r="G118" s="151"/>
     </row>
     <row r="119" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="47"/>
-      <c r="B119" s="51" t="s">
-        <v>82</v>
+      <c r="B119" s="144" t="s">
+        <v>761</v>
       </c>
       <c r="C119" s="47" t="s">
         <v>282</v>
@@ -68065,8 +68067,8 @@
     </row>
     <row r="120" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="47"/>
-      <c r="B120" s="145" t="s">
-        <v>81</v>
+      <c r="B120" s="51" t="s">
+        <v>82</v>
       </c>
       <c r="C120" s="47" t="s">
         <v>282</v>
@@ -68080,8 +68082,8 @@
     </row>
     <row r="121" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="47"/>
-      <c r="B121" s="150" t="s">
-        <v>932</v>
+      <c r="B121" s="145" t="s">
+        <v>81</v>
       </c>
       <c r="C121" s="47" t="s">
         <v>282</v>
@@ -68095,8 +68097,8 @@
     </row>
     <row r="122" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A122" s="47"/>
-      <c r="B122" s="51" t="s">
-        <v>936</v>
+      <c r="B122" s="150" t="s">
+        <v>932</v>
       </c>
       <c r="C122" s="47" t="s">
         <v>282</v>
@@ -68110,8 +68112,8 @@
     </row>
     <row r="123" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
-      <c r="B123" s="150" t="s">
-        <v>937</v>
+      <c r="B123" s="51" t="s">
+        <v>936</v>
       </c>
       <c r="C123" s="47" t="s">
         <v>282</v>
@@ -68125,8 +68127,8 @@
     </row>
     <row r="124" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="47"/>
-      <c r="B124" s="51" t="s">
-        <v>938</v>
+      <c r="B124" s="150" t="s">
+        <v>937</v>
       </c>
       <c r="C124" s="47" t="s">
         <v>282</v>
@@ -68141,7 +68143,7 @@
     <row r="125" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="47"/>
       <c r="B125" s="51" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C125" s="47" t="s">
         <v>282</v>
@@ -68155,8 +68157,8 @@
     </row>
     <row r="126" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="47"/>
-      <c r="B126" s="145" t="s">
-        <v>956</v>
+      <c r="B126" s="51" t="s">
+        <v>939</v>
       </c>
       <c r="C126" s="47" t="s">
         <v>282</v>
@@ -68170,8 +68172,8 @@
     </row>
     <row r="127" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="47"/>
-      <c r="B127" s="150" t="s">
-        <v>989</v>
+      <c r="B127" s="145" t="s">
+        <v>956</v>
       </c>
       <c r="C127" s="47" t="s">
         <v>282</v>
@@ -68185,8 +68187,8 @@
     </row>
     <row r="128" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="47"/>
-      <c r="B128" s="51" t="s">
-        <v>139</v>
+      <c r="B128" s="150" t="s">
+        <v>989</v>
       </c>
       <c r="C128" s="47" t="s">
         <v>282</v>
@@ -68198,10 +68200,10 @@
       <c r="F128" s="43"/>
       <c r="G128" s="47"/>
     </row>
-    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A129" s="47"/>
       <c r="B129" s="51" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="C129" s="47" t="s">
         <v>282</v>
@@ -68215,8 +68217,8 @@
     </row>
     <row r="130" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="47"/>
-      <c r="B130" s="145" t="s">
-        <v>58</v>
+      <c r="B130" s="51" t="s">
+        <v>88</v>
       </c>
       <c r="C130" s="47" t="s">
         <v>282</v>
@@ -68230,8 +68232,8 @@
     </row>
     <row r="131" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="47"/>
-      <c r="B131" s="144" t="s">
-        <v>1050</v>
+      <c r="B131" s="145" t="s">
+        <v>58</v>
       </c>
       <c r="C131" s="47" t="s">
         <v>282</v>
@@ -68273,7 +68275,7 @@
       <c r="F133" s="43"/>
       <c r="G133" s="47"/>
     </row>
-    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A134" s="47"/>
       <c r="B134" s="150" t="s">
         <v>188</v>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Vasilev\SkyDrive\R\reading_sounds\Literature_search\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7455" tabRatio="987" activeTab="8"/>
   </bookViews>
@@ -39,7 +34,7 @@
     <author>Martin,Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D67" authorId="0" shapeId="0">
+    <comment ref="D67" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +94,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0">
+    <comment ref="F9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" shapeId="0">
+    <comment ref="F12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0" shapeId="0">
+    <comment ref="G21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -196,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0" shapeId="0">
+    <comment ref="G22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G41" authorId="0" shapeId="0">
+    <comment ref="G41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -249,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G60" authorId="0" shapeId="0">
+    <comment ref="G60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -276,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="0" shapeId="0">
+    <comment ref="B62" authorId="0">
       <text>
         <r>
           <rPr>
@@ -301,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F63" authorId="0" shapeId="0">
+    <comment ref="F63" authorId="0">
       <text>
         <r>
           <rPr>
@@ -325,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="0" shapeId="0">
+    <comment ref="B67" authorId="0">
       <text>
         <r>
           <rPr>
@@ -350,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B68" authorId="0" shapeId="0">
+    <comment ref="B68" authorId="0">
       <text>
         <r>
           <rPr>
@@ -375,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D69" authorId="0" shapeId="0">
+    <comment ref="D69" authorId="0">
       <text>
         <r>
           <rPr>
@@ -399,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G69" authorId="0" shapeId="0">
+    <comment ref="G69" authorId="0">
       <text>
         <r>
           <rPr>
@@ -423,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G70" authorId="0" shapeId="0">
+    <comment ref="G70" authorId="0">
       <text>
         <r>
           <rPr>
@@ -448,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G71" authorId="0" shapeId="0">
+    <comment ref="G71" authorId="0">
       <text>
         <r>
           <rPr>
@@ -473,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D72" authorId="0" shapeId="0">
+    <comment ref="D72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -497,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F73" authorId="0" shapeId="0">
+    <comment ref="F73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -521,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F77" authorId="0" shapeId="0">
+    <comment ref="F77" authorId="0">
       <text>
         <r>
           <rPr>
@@ -546,7 +541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D79" authorId="0" shapeId="0">
+    <comment ref="D79" authorId="0">
       <text>
         <r>
           <rPr>
@@ -570,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B84" authorId="0" shapeId="0">
+    <comment ref="B84" authorId="0">
       <text>
         <r>
           <rPr>
@@ -594,7 +589,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F93" authorId="0" shapeId="0">
+    <comment ref="F93" authorId="0">
       <text>
         <r>
           <rPr>
@@ -618,7 +613,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F94" authorId="0" shapeId="0">
+    <comment ref="F94" authorId="0">
       <text>
         <r>
           <rPr>
@@ -642,7 +637,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G110" authorId="1" shapeId="0">
+    <comment ref="G110" authorId="1">
       <text>
         <r>
           <rPr>
@@ -666,7 +661,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="F113" authorId="1" shapeId="0">
+    <comment ref="A113" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+convert ancova ES</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F113" authorId="1">
       <text>
         <r>
           <rPr>
@@ -700,7 +719,7 @@
     <author>Martin,Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="D175" authorId="0" shapeId="0">
+    <comment ref="D175" authorId="0">
       <text>
         <r>
           <rPr>
@@ -734,7 +753,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B73" authorId="0" shapeId="0">
+    <comment ref="B73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -764,7 +783,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5169" uniqueCount="1383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5173" uniqueCount="1387">
   <si>
     <t>ID</t>
   </si>
@@ -38786,11 +38805,23 @@
   <si>
     <t>chidren exposed to aircraft noise vs noise-control group</t>
   </si>
+  <si>
+    <t>Seabi Pilot 2009 study</t>
+  </si>
+  <si>
+    <t>same as 112</t>
+  </si>
+  <si>
+    <t>The new waves tested participants when there was no longer aircraft noise;  study is not relevant to the aims of the meta-analysis</t>
+  </si>
+  <si>
+    <t>This is a longitudinal study that followed up noise-exposed participants from 111 after the old airport was closed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="67" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -40247,7 +40278,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -65475,10 +65506,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65489,7 +65520,7 @@
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="12" customWidth="1"/>
     <col min="6" max="6" width="40.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" style="12" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -67949,7 +67980,7 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="58">
+      <c r="A113" s="46">
         <v>111</v>
       </c>
       <c r="B113" s="143" t="s">
@@ -67971,8 +68002,8 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="47">
+    <row r="114" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="58">
         <v>112</v>
       </c>
       <c r="B114" s="144" t="s">
@@ -67981,24 +68012,30 @@
       <c r="C114" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="D114" s="47"/>
-      <c r="E114" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F114" s="43"/>
-      <c r="G114" s="47"/>
+      <c r="D114" s="47" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E114" s="46" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F114" s="61" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G114" s="62" t="s">
+        <v>1385</v>
+      </c>
     </row>
     <row r="115" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="47"/>
-      <c r="B115" s="144" t="s">
-        <v>894</v>
+      <c r="A115" s="47">
+        <v>113</v>
+      </c>
+      <c r="B115" s="51" t="s">
+        <v>82</v>
       </c>
       <c r="C115" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="D115" s="47" t="s">
-        <v>845</v>
-      </c>
+      <c r="D115" s="47"/>
       <c r="E115" s="47" t="s">
         <v>479</v>
       </c>
@@ -68007,13 +68044,15 @@
     </row>
     <row r="116" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="47"/>
-      <c r="B116" s="150" t="s">
-        <v>899</v>
+      <c r="B116" s="144" t="s">
+        <v>894</v>
       </c>
       <c r="C116" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="D116" s="47"/>
+      <c r="D116" s="47" t="s">
+        <v>845</v>
+      </c>
       <c r="E116" s="47" t="s">
         <v>479</v>
       </c>
@@ -68022,8 +68061,8 @@
     </row>
     <row r="117" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="47"/>
-      <c r="B117" s="144" t="s">
-        <v>900</v>
+      <c r="B117" s="150" t="s">
+        <v>899</v>
       </c>
       <c r="C117" s="47" t="s">
         <v>282</v>
@@ -68035,40 +68074,40 @@
       <c r="F117" s="43"/>
       <c r="G117" s="47"/>
     </row>
-    <row r="118" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A118" s="121"/>
-      <c r="B118" s="142" t="s">
+    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="47"/>
+      <c r="B118" s="144" t="s">
+        <v>900</v>
+      </c>
+      <c r="C118" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D118" s="47"/>
+      <c r="E118" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F118" s="43"/>
+      <c r="G118" s="47"/>
+    </row>
+    <row r="119" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="121"/>
+      <c r="B119" s="142" t="s">
         <v>55</v>
       </c>
-      <c r="C118" s="121" t="s">
+      <c r="C119" s="121" t="s">
         <v>282</v>
       </c>
-      <c r="D118" s="121"/>
-      <c r="E118" s="121"/>
-      <c r="F118" s="122" t="s">
+      <c r="D119" s="121"/>
+      <c r="E119" s="121"/>
+      <c r="F119" s="122" t="s">
         <v>834</v>
       </c>
-      <c r="G118" s="151"/>
-    </row>
-    <row r="119" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="47"/>
-      <c r="B119" s="144" t="s">
-        <v>761</v>
-      </c>
-      <c r="C119" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D119" s="47"/>
-      <c r="E119" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F119" s="43"/>
-      <c r="G119" s="47"/>
+      <c r="G119" s="151"/>
     </row>
     <row r="120" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="47"/>
-      <c r="B120" s="51" t="s">
-        <v>82</v>
+      <c r="B120" s="144" t="s">
+        <v>761</v>
       </c>
       <c r="C120" s="47" t="s">
         <v>282</v>
@@ -68095,7 +68134,7 @@
       <c r="F121" s="43"/>
       <c r="G121" s="47"/>
     </row>
-    <row r="122" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A122" s="47"/>
       <c r="B122" s="150" t="s">
         <v>932</v>
@@ -68200,7 +68239,7 @@
       <c r="F128" s="43"/>
       <c r="G128" s="47"/>
     </row>
-    <row r="129" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A129" s="47"/>
       <c r="B129" s="51" t="s">
         <v>139</v>
@@ -68344,11 +68383,16 @@
         <v>1379</v>
       </c>
     </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B139" s="136" t="s">
+        <v>1383</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A3:G138">
-    <sortCondition ref="A3:A138"/>
-    <sortCondition ref="C3:C138"/>
-    <sortCondition ref="B3:B138"/>
+  <sortState ref="A3:G139">
+    <sortCondition ref="A3:A139"/>
+    <sortCondition ref="C3:C139"/>
+    <sortCondition ref="B3:B139"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Vasilev\SkyDrive\R\reading_sounds\Literature_search\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7455" tabRatio="987" activeTab="8"/>
   </bookViews>
@@ -34,7 +39,7 @@
     <author>Martin,Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D67" authorId="0">
+    <comment ref="D67" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +99,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0">
+    <comment ref="F9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0">
+    <comment ref="F12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0">
+    <comment ref="G21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0">
+    <comment ref="G22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -219,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G41" authorId="0">
+    <comment ref="G41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G60" authorId="0">
+    <comment ref="G60" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="0">
+    <comment ref="B62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -296,7 +301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F63" authorId="0">
+    <comment ref="F63" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -320,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="0">
+    <comment ref="B67" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B68" authorId="0">
+    <comment ref="B68" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -370,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D69" authorId="0">
+    <comment ref="D69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -394,7 +399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G69" authorId="0">
+    <comment ref="G69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -418,7 +423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G70" authorId="0">
+    <comment ref="G70" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -443,7 +448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G71" authorId="0">
+    <comment ref="G71" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -468,7 +473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D72" authorId="0">
+    <comment ref="D72" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F73" authorId="0">
+    <comment ref="F73" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -516,7 +521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F77" authorId="0">
+    <comment ref="F77" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -541,7 +546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D79" authorId="0">
+    <comment ref="D79" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -565,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B84" authorId="0">
+    <comment ref="B84" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -589,7 +594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F93" authorId="0">
+    <comment ref="F93" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -613,7 +618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F94" authorId="0">
+    <comment ref="F94" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -637,7 +642,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G110" authorId="1">
+    <comment ref="G110" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -661,31 +666,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A113" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Martin,Vasilev:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-convert ancova ES</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F113" authorId="1">
+    <comment ref="F113" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -719,7 +700,7 @@
     <author>Martin,Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="D175" authorId="0">
+    <comment ref="D175" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -753,7 +734,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B73" authorId="0">
+    <comment ref="B73" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -38821,7 +38802,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="67" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -40278,7 +40259,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -65509,7 +65490,7 @@
   <dimension ref="A1:G139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67980,7 +67961,7 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="46">
+      <c r="A113" s="58">
         <v>111</v>
       </c>
       <c r="B113" s="143" t="s">
@@ -68074,7 +68055,7 @@
       <c r="F117" s="43"/>
       <c r="G117" s="47"/>
     </row>
-    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A118" s="47"/>
       <c r="B118" s="144" t="s">
         <v>900</v>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -734,6 +734,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="G117" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+study can't be included in the chronic noise analysis due to a lack of adequate control group
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -808,7 +833,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5179" uniqueCount="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5181" uniqueCount="1392">
   <si>
     <t>ID</t>
   </si>
@@ -38850,6 +38875,12 @@
   </si>
   <si>
     <t>Quiet vs noisy open school environment</t>
+  </si>
+  <si>
+    <t>an intervention study that examined the effect of noise abatement intervention</t>
+  </si>
+  <si>
+    <t>Studied the effect of noise (due to poor building acoustics) on pre-reading skills in kindergarden children</t>
   </si>
 </sst>
 </file>
@@ -39934,9 +39965,6 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -39995,29 +40023,15 @@
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -40357,7 +40371,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -52107,14 +52121,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="158"/>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
+      <c r="A1" s="178"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -53008,7 +53022,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="164" t="s">
+      <c r="B7" s="163" t="s">
         <v>391</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -53019,7 +53033,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="165" t="s">
+      <c r="B8" s="164" t="s">
         <v>142</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -53030,7 +53044,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="166" t="s">
+      <c r="B9" s="165" t="s">
         <v>392</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -53041,7 +53055,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="167" t="s">
+      <c r="B10" s="166" t="s">
         <v>393</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -53094,7 +53108,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="164" t="s">
+      <c r="B14" s="163" t="s">
         <v>435</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -53119,7 +53133,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="167" t="s">
+      <c r="B16" s="166" t="s">
         <v>805</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -53172,7 +53186,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="164" t="s">
+      <c r="B20" s="163" t="s">
         <v>394</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -53183,7 +53197,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="165" t="s">
+      <c r="B21" s="164" t="s">
         <v>126</v>
       </c>
       <c r="C21" s="12" t="s">
@@ -53236,7 +53250,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="164" t="s">
+      <c r="B25" s="163" t="s">
         <v>395</v>
       </c>
       <c r="C25" s="12" t="s">
@@ -53247,7 +53261,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B26" s="165" t="s">
+      <c r="B26" s="164" t="s">
         <v>190</v>
       </c>
       <c r="C26" s="12" t="s">
@@ -53258,7 +53272,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="168" t="s">
+      <c r="B27" s="167" t="s">
         <v>396</v>
       </c>
       <c r="C27" s="12" t="s">
@@ -53269,7 +53283,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="167" t="s">
+      <c r="B28" s="166" t="s">
         <v>397</v>
       </c>
       <c r="C28" s="12" t="s">
@@ -53280,7 +53294,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="167" t="s">
+      <c r="B29" s="166" t="s">
         <v>397</v>
       </c>
       <c r="C29" s="12" t="s">
@@ -53333,7 +53347,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B33" s="165" t="s">
+      <c r="B33" s="164" t="s">
         <v>207</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -53358,7 +53372,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B35" s="169" t="s">
+      <c r="B35" s="168" t="s">
         <v>723</v>
       </c>
       <c r="C35" s="12" t="s">
@@ -53397,7 +53411,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B38" s="165" t="s">
+      <c r="B38" s="164" t="s">
         <v>21</v>
       </c>
       <c r="C38" s="12" t="s">
@@ -53534,7 +53548,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="164" t="s">
+      <c r="B48" s="163" t="s">
         <v>398</v>
       </c>
       <c r="C48" s="12" t="s">
@@ -53587,7 +53601,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="B52" s="167" t="s">
+      <c r="B52" s="166" t="s">
         <v>800</v>
       </c>
       <c r="C52" s="12" t="s">
@@ -53612,7 +53626,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="164" t="s">
+      <c r="B54" s="163" t="s">
         <v>399</v>
       </c>
       <c r="C54" s="12" t="s">
@@ -53693,7 +53707,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="B60" s="167" t="s">
+      <c r="B60" s="166" t="s">
         <v>610</v>
       </c>
       <c r="C60" s="12" t="s">
@@ -53718,7 +53732,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B62" s="170" t="s">
+      <c r="B62" s="169" t="s">
         <v>83</v>
       </c>
       <c r="C62" s="12" t="s">
@@ -53743,7 +53757,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B64" s="164" t="s">
+      <c r="B64" s="163" t="s">
         <v>400</v>
       </c>
       <c r="C64" s="12" t="s">
@@ -53754,7 +53768,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B65" s="164" t="s">
+      <c r="B65" s="163" t="s">
         <v>400</v>
       </c>
       <c r="C65" s="12" t="s">
@@ -53765,7 +53779,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B66" s="167" t="s">
+      <c r="B66" s="166" t="s">
         <v>806</v>
       </c>
       <c r="C66" s="12" t="s">
@@ -53776,7 +53790,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B67" s="167" t="s">
+      <c r="B67" s="166" t="s">
         <v>611</v>
       </c>
       <c r="C67" s="12" t="s">
@@ -53787,7 +53801,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B68" s="167" t="s">
+      <c r="B68" s="166" t="s">
         <v>611</v>
       </c>
       <c r="C68" s="12" t="s">
@@ -53812,7 +53826,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B70" s="164" t="s">
+      <c r="B70" s="163" t="s">
         <v>92</v>
       </c>
       <c r="C70" s="12" t="s">
@@ -53879,7 +53893,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="169" t="s">
+      <c r="B75" s="168" t="s">
         <v>722</v>
       </c>
       <c r="C75" s="12" t="s">
@@ -53918,7 +53932,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="167" t="s">
+      <c r="B78" s="166" t="s">
         <v>624</v>
       </c>
       <c r="C78" s="12" t="s">
@@ -53971,7 +53985,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B82" s="164" t="s">
+      <c r="B82" s="163" t="s">
         <v>757</v>
       </c>
       <c r="C82" s="12" t="s">
@@ -54010,7 +54024,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="164" t="s">
+      <c r="B85" s="163" t="s">
         <v>79</v>
       </c>
       <c r="C85" s="12" t="s">
@@ -54119,7 +54133,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B93" s="164" t="s">
+      <c r="B93" s="163" t="s">
         <v>445</v>
       </c>
       <c r="C93" s="12" t="s">
@@ -54144,7 +54158,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B95" s="168" t="s">
+      <c r="B95" s="167" t="s">
         <v>401</v>
       </c>
       <c r="C95" s="12" t="s">
@@ -54155,7 +54169,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B96" s="167" t="s">
+      <c r="B96" s="166" t="s">
         <v>143</v>
       </c>
       <c r="C96" s="12" t="s">
@@ -54180,7 +54194,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B98" s="164" t="s">
+      <c r="B98" s="163" t="s">
         <v>402</v>
       </c>
       <c r="C98" s="12" t="s">
@@ -54191,7 +54205,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B99" s="164" t="s">
+      <c r="B99" s="163" t="s">
         <v>402</v>
       </c>
       <c r="C99" s="12" t="s">
@@ -54286,7 +54300,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B106" s="164" t="s">
+      <c r="B106" s="163" t="s">
         <v>403</v>
       </c>
       <c r="C106" s="12" t="s">
@@ -54297,7 +54311,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B107" s="167" t="s">
+      <c r="B107" s="166" t="s">
         <v>625</v>
       </c>
       <c r="C107" s="12" t="s">
@@ -54308,7 +54322,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B108" s="165" t="s">
+      <c r="B108" s="164" t="s">
         <v>807</v>
       </c>
       <c r="C108" s="12" t="s">
@@ -54319,7 +54333,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B109" s="164" t="s">
+      <c r="B109" s="163" t="s">
         <v>94</v>
       </c>
       <c r="C109" s="12" t="s">
@@ -54333,7 +54347,7 @@
       <c r="A110">
         <v>68</v>
       </c>
-      <c r="B110" s="159" t="s">
+      <c r="B110" s="158" t="s">
         <v>90</v>
       </c>
       <c r="C110" s="12" t="s">
@@ -54344,7 +54358,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B111" s="164" t="s">
+      <c r="B111" s="163" t="s">
         <v>796</v>
       </c>
       <c r="C111" s="12" t="s">
@@ -54358,7 +54372,7 @@
       <c r="A112">
         <v>69</v>
       </c>
-      <c r="B112" s="159" t="s">
+      <c r="B112" s="158" t="s">
         <v>55</v>
       </c>
       <c r="C112" s="12" t="s">
@@ -54383,7 +54397,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B114" s="165" t="s">
+      <c r="B114" s="164" t="s">
         <v>111</v>
       </c>
       <c r="C114" s="12" t="s">
@@ -54411,7 +54425,7 @@
       <c r="A116">
         <v>72</v>
       </c>
-      <c r="B116" s="160" t="s">
+      <c r="B116" s="159" t="s">
         <v>721</v>
       </c>
       <c r="C116" s="12" t="s">
@@ -54436,7 +54450,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B118" s="164" t="s">
+      <c r="B118" s="163" t="s">
         <v>404</v>
       </c>
       <c r="C118" s="12" t="s">
@@ -54447,7 +54461,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B119" s="164" t="s">
+      <c r="B119" s="163" t="s">
         <v>404</v>
       </c>
       <c r="C119" s="12" t="s">
@@ -54486,7 +54500,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="171" t="s">
+      <c r="B122" s="170" t="s">
         <v>804</v>
       </c>
       <c r="C122" s="12" t="s">
@@ -54612,7 +54626,7 @@
       <c r="A131">
         <v>84</v>
       </c>
-      <c r="B131" s="161" t="s">
+      <c r="B131" s="160" t="s">
         <v>405</v>
       </c>
       <c r="C131" s="12" t="s">
@@ -54665,7 +54679,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B135" s="167" t="s">
+      <c r="B135" s="166" t="s">
         <v>152</v>
       </c>
       <c r="C135" s="12" t="s">
@@ -54690,7 +54704,7 @@
       </c>
     </row>
     <row r="137" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B137" s="167" t="s">
+      <c r="B137" s="166" t="s">
         <v>152</v>
       </c>
       <c r="C137" s="12" t="s">
@@ -54743,7 +54757,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B141" s="164" t="s">
+      <c r="B141" s="163" t="s">
         <v>759</v>
       </c>
       <c r="C141" s="12" t="s">
@@ -54782,7 +54796,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B144" s="164" t="s">
+      <c r="B144" s="163" t="s">
         <v>406</v>
       </c>
       <c r="C144" s="12" t="s">
@@ -54793,7 +54807,7 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B145" s="164" t="s">
+      <c r="B145" s="163" t="s">
         <v>406</v>
       </c>
       <c r="C145" s="12" t="s">
@@ -54804,7 +54818,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B146" s="166" t="s">
+      <c r="B146" s="165" t="s">
         <v>407</v>
       </c>
       <c r="C146" s="12" t="s">
@@ -54815,7 +54829,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B147" s="167" t="s">
+      <c r="B147" s="166" t="s">
         <v>153</v>
       </c>
       <c r="C147" s="12" t="s">
@@ -54840,7 +54854,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B149" s="164" t="s">
+      <c r="B149" s="163" t="s">
         <v>408</v>
       </c>
       <c r="C149" s="12" t="s">
@@ -54865,7 +54879,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B151" s="164" t="s">
+      <c r="B151" s="163" t="s">
         <v>409</v>
       </c>
       <c r="C151" s="12" t="s">
@@ -54890,7 +54904,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B153" s="164" t="s">
+      <c r="B153" s="163" t="s">
         <v>410</v>
       </c>
       <c r="C153" s="12" t="s">
@@ -54901,7 +54915,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="164" t="s">
+      <c r="B154" s="163" t="s">
         <v>410</v>
       </c>
       <c r="C154" s="12" t="s">
@@ -54912,7 +54926,7 @@
       </c>
     </row>
     <row r="155" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B155" s="165" t="s">
+      <c r="B155" s="164" t="s">
         <v>808</v>
       </c>
       <c r="C155" s="12" t="s">
@@ -54923,7 +54937,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B156" s="164" t="s">
+      <c r="B156" s="163" t="s">
         <v>73</v>
       </c>
       <c r="C156" s="12" t="s">
@@ -54934,7 +54948,7 @@
       </c>
     </row>
     <row r="157" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B157" s="165" t="s">
+      <c r="B157" s="164" t="s">
         <v>73</v>
       </c>
       <c r="C157" s="12" t="s">
@@ -54945,7 +54959,7 @@
       </c>
     </row>
     <row r="158" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B158" s="166" t="s">
+      <c r="B158" s="165" t="s">
         <v>411</v>
       </c>
       <c r="C158" s="12" t="s">
@@ -54956,7 +54970,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B159" s="167" t="s">
+      <c r="B159" s="166" t="s">
         <v>412</v>
       </c>
       <c r="C159" s="12" t="s">
@@ -54995,7 +55009,7 @@
       </c>
     </row>
     <row r="162" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B162" s="164" t="s">
+      <c r="B162" s="163" t="s">
         <v>413</v>
       </c>
       <c r="C162" s="12" t="s">
@@ -55006,7 +55020,7 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B163" s="164" t="s">
+      <c r="B163" s="163" t="s">
         <v>135</v>
       </c>
       <c r="C163" s="12" t="s">
@@ -55017,7 +55031,7 @@
       </c>
     </row>
     <row r="164" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B164" s="166" t="s">
+      <c r="B164" s="165" t="s">
         <v>135</v>
       </c>
       <c r="C164" s="12" t="s">
@@ -55028,7 +55042,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B165" s="167" t="s">
+      <c r="B165" s="166" t="s">
         <v>135</v>
       </c>
       <c r="C165" s="12" t="s">
@@ -55039,7 +55053,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B166" s="164" t="s">
+      <c r="B166" s="163" t="s">
         <v>136</v>
       </c>
       <c r="C166" s="12" t="s">
@@ -55050,7 +55064,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B167" s="172" t="s">
+      <c r="B167" s="171" t="s">
         <v>136</v>
       </c>
       <c r="C167" s="12" t="s">
@@ -55075,7 +55089,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="165" t="s">
+      <c r="B169" s="164" t="s">
         <v>112</v>
       </c>
       <c r="C169" s="12" t="s">
@@ -55156,7 +55170,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B175" s="167" t="s">
+      <c r="B175" s="166" t="s">
         <v>703</v>
       </c>
       <c r="C175" s="12" t="s">
@@ -55181,7 +55195,7 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B177" s="167" t="s">
+      <c r="B177" s="166" t="s">
         <v>703</v>
       </c>
       <c r="C177" s="12" t="s">
@@ -55290,7 +55304,7 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="167" t="s">
+      <c r="B185" s="166" t="s">
         <v>204</v>
       </c>
       <c r="C185" s="12" t="s">
@@ -55329,7 +55343,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B188" s="164" t="s">
+      <c r="B188" s="163" t="s">
         <v>74</v>
       </c>
       <c r="C188" s="12" t="s">
@@ -55340,7 +55354,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B189" s="164" t="s">
+      <c r="B189" s="163" t="s">
         <v>74</v>
       </c>
       <c r="C189" s="12" t="s">
@@ -55379,7 +55393,7 @@
       </c>
     </row>
     <row r="192" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B192" s="164" t="s">
+      <c r="B192" s="163" t="s">
         <v>75</v>
       </c>
       <c r="C192" s="12" t="s">
@@ -55390,7 +55404,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B193" s="164" t="s">
+      <c r="B193" s="163" t="s">
         <v>75</v>
       </c>
       <c r="C193" s="12" t="s">
@@ -55415,7 +55429,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B195" s="164" t="s">
+      <c r="B195" s="163" t="s">
         <v>76</v>
       </c>
       <c r="C195" s="12" t="s">
@@ -55454,7 +55468,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B198" s="169" t="s">
+      <c r="B198" s="168" t="s">
         <v>451</v>
       </c>
       <c r="C198" s="12" t="s">
@@ -55465,7 +55479,7 @@
       </c>
     </row>
     <row r="199" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B199" s="165" t="s">
+      <c r="B199" s="164" t="s">
         <v>113</v>
       </c>
       <c r="C199" s="12" t="s">
@@ -55476,7 +55490,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B200" s="165" t="s">
+      <c r="B200" s="164" t="s">
         <v>113</v>
       </c>
       <c r="C200" s="12" t="s">
@@ -55501,7 +55515,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B202" s="167" t="s">
+      <c r="B202" s="166" t="s">
         <v>612</v>
       </c>
       <c r="C202" s="12" t="s">
@@ -55512,7 +55526,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B203" s="167" t="s">
+      <c r="B203" s="166" t="s">
         <v>612</v>
       </c>
       <c r="C203" s="12" t="s">
@@ -55523,7 +55537,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B204" s="165" t="s">
+      <c r="B204" s="164" t="s">
         <v>172</v>
       </c>
       <c r="C204" s="12" t="s">
@@ -55562,7 +55576,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B207" s="164" t="s">
+      <c r="B207" s="163" t="s">
         <v>414</v>
       </c>
       <c r="C207" s="12" t="s">
@@ -55573,7 +55587,7 @@
       </c>
     </row>
     <row r="208" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B208" s="164" t="s">
+      <c r="B208" s="163" t="s">
         <v>414</v>
       </c>
       <c r="C208" s="12" t="s">
@@ -55822,7 +55836,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B226" s="164" t="s">
+      <c r="B226" s="163" t="s">
         <v>743</v>
       </c>
       <c r="C226" s="12" t="s">
@@ -55847,7 +55861,7 @@
       </c>
     </row>
     <row r="228" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="167" t="s">
+      <c r="B228" s="166" t="s">
         <v>689</v>
       </c>
       <c r="C228" s="12" t="s">
@@ -55914,7 +55928,7 @@
       </c>
     </row>
     <row r="233" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B233" s="167" t="s">
+      <c r="B233" s="166" t="s">
         <v>809</v>
       </c>
       <c r="C233" s="12" t="s">
@@ -55925,7 +55939,7 @@
       </c>
     </row>
     <row r="234" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B234" s="167" t="s">
+      <c r="B234" s="166" t="s">
         <v>809</v>
       </c>
       <c r="C234" s="12" t="s">
@@ -56020,7 +56034,7 @@
       </c>
     </row>
     <row r="241" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B241" s="164" t="s">
+      <c r="B241" s="163" t="s">
         <v>415</v>
       </c>
       <c r="C241" s="12" t="s">
@@ -56031,7 +56045,7 @@
       </c>
     </row>
     <row r="242" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="165" t="s">
+      <c r="B242" s="164" t="s">
         <v>178</v>
       </c>
       <c r="C242" s="12" t="s">
@@ -56084,7 +56098,7 @@
       </c>
     </row>
     <row r="246" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B246" s="164" t="s">
+      <c r="B246" s="163" t="s">
         <v>779</v>
       </c>
       <c r="C246" s="12" t="s">
@@ -56109,7 +56123,7 @@
       </c>
     </row>
     <row r="248" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B248" s="164" t="s">
+      <c r="B248" s="163" t="s">
         <v>416</v>
       </c>
       <c r="C248" s="12" t="s">
@@ -56120,7 +56134,7 @@
       </c>
     </row>
     <row r="249" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="164" t="s">
+      <c r="B249" s="163" t="s">
         <v>416</v>
       </c>
       <c r="C249" s="12" t="s">
@@ -56131,7 +56145,7 @@
       </c>
     </row>
     <row r="250" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="165" t="s">
+      <c r="B250" s="164" t="s">
         <v>114</v>
       </c>
       <c r="C250" s="12" t="s">
@@ -56142,7 +56156,7 @@
       </c>
     </row>
     <row r="251" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B251" s="165" t="s">
+      <c r="B251" s="164" t="s">
         <v>114</v>
       </c>
       <c r="C251" s="12" t="s">
@@ -56153,7 +56167,7 @@
       </c>
     </row>
     <row r="252" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B252" s="166" t="s">
+      <c r="B252" s="165" t="s">
         <v>417</v>
       </c>
       <c r="C252" s="12" t="s">
@@ -56164,7 +56178,7 @@
       </c>
     </row>
     <row r="253" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B253" s="167" t="s">
+      <c r="B253" s="166" t="s">
         <v>418</v>
       </c>
       <c r="C253" s="12" t="s">
@@ -56189,7 +56203,7 @@
       </c>
     </row>
     <row r="255" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B255" s="167" t="s">
+      <c r="B255" s="166" t="s">
         <v>810</v>
       </c>
       <c r="C255" s="12" t="s">
@@ -56228,7 +56242,7 @@
       </c>
     </row>
     <row r="258" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B258" s="164" t="s">
+      <c r="B258" s="163" t="s">
         <v>419</v>
       </c>
       <c r="C258" s="12" t="s">
@@ -56239,7 +56253,7 @@
       </c>
     </row>
     <row r="259" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="164" t="s">
+      <c r="B259" s="163" t="s">
         <v>419</v>
       </c>
       <c r="C259" s="12" t="s">
@@ -56250,7 +56264,7 @@
       </c>
     </row>
     <row r="260" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B260" s="165" t="s">
+      <c r="B260" s="164" t="s">
         <v>181</v>
       </c>
       <c r="C260" s="12" t="s">
@@ -56261,7 +56275,7 @@
       </c>
     </row>
     <row r="261" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B261" s="164" t="s">
+      <c r="B261" s="163" t="s">
         <v>71</v>
       </c>
       <c r="C261" s="12" t="s">
@@ -56272,7 +56286,7 @@
       </c>
     </row>
     <row r="262" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B262" s="166" t="s">
+      <c r="B262" s="165" t="s">
         <v>420</v>
       </c>
       <c r="C262" s="12" t="s">
@@ -56283,7 +56297,7 @@
       </c>
     </row>
     <row r="263" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B263" s="167" t="s">
+      <c r="B263" s="166" t="s">
         <v>421</v>
       </c>
       <c r="C263" s="12" t="s">
@@ -56434,7 +56448,7 @@
       </c>
     </row>
     <row r="274" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="164" t="s">
+      <c r="B274" s="163" t="s">
         <v>422</v>
       </c>
       <c r="C274" s="12" t="s">
@@ -56473,7 +56487,7 @@
       </c>
     </row>
     <row r="277" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B277" s="164" t="s">
+      <c r="B277" s="163" t="s">
         <v>123</v>
       </c>
       <c r="C277" s="12" t="s">
@@ -56484,7 +56498,7 @@
       </c>
     </row>
     <row r="278" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B278" s="172" t="s">
+      <c r="B278" s="171" t="s">
         <v>123</v>
       </c>
       <c r="C278" s="12" t="s">
@@ -56495,7 +56509,7 @@
       </c>
     </row>
     <row r="279" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B279" s="173" t="s">
+      <c r="B279" s="172" t="s">
         <v>123</v>
       </c>
       <c r="C279" s="12" t="s">
@@ -56534,7 +56548,7 @@
       </c>
     </row>
     <row r="282" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B282" s="164" t="s">
+      <c r="B282" s="163" t="s">
         <v>93</v>
       </c>
       <c r="C282" s="12" t="s">
@@ -56587,7 +56601,7 @@
       </c>
     </row>
     <row r="286" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B286" s="167" t="s">
+      <c r="B286" s="166" t="s">
         <v>641</v>
       </c>
       <c r="C286" s="12" t="s">
@@ -56598,7 +56612,7 @@
       </c>
     </row>
     <row r="287" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="164" t="s">
+      <c r="B287" s="163" t="s">
         <v>772</v>
       </c>
       <c r="C287" s="12" t="s">
@@ -56665,7 +56679,7 @@
       </c>
     </row>
     <row r="292" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B292" s="165" t="s">
+      <c r="B292" s="164" t="s">
         <v>811</v>
       </c>
       <c r="C292" s="12" t="s">
@@ -56676,7 +56690,7 @@
       </c>
     </row>
     <row r="293" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B293" s="164" t="s">
+      <c r="B293" s="163" t="s">
         <v>72</v>
       </c>
       <c r="C293" s="12" t="s">
@@ -56827,7 +56841,7 @@
       </c>
     </row>
     <row r="304" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B304" s="164" t="s">
+      <c r="B304" s="163" t="s">
         <v>423</v>
       </c>
       <c r="C304" s="12" t="s">
@@ -56838,7 +56852,7 @@
       </c>
     </row>
     <row r="305" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B305" s="164" t="s">
+      <c r="B305" s="163" t="s">
         <v>423</v>
       </c>
       <c r="C305" s="12" t="s">
@@ -56849,7 +56863,7 @@
       </c>
     </row>
     <row r="306" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B306" s="165" t="s">
+      <c r="B306" s="164" t="s">
         <v>87</v>
       </c>
       <c r="C306" s="12" t="s">
@@ -57140,7 +57154,7 @@
       </c>
     </row>
     <row r="327" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B327" s="164" t="s">
+      <c r="B327" s="163" t="s">
         <v>519</v>
       </c>
       <c r="C327" s="12" t="s">
@@ -57151,7 +57165,7 @@
       </c>
     </row>
     <row r="328" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B328" s="167" t="s">
+      <c r="B328" s="166" t="s">
         <v>203</v>
       </c>
       <c r="C328" s="12" t="s">
@@ -57162,7 +57176,7 @@
       </c>
     </row>
     <row r="329" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B329" s="168" t="s">
+      <c r="B329" s="167" t="s">
         <v>424</v>
       </c>
       <c r="C329" s="12" t="s">
@@ -57173,7 +57187,7 @@
       </c>
     </row>
     <row r="330" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B330" s="167" t="s">
+      <c r="B330" s="166" t="s">
         <v>203</v>
       </c>
       <c r="C330" s="12" t="s">
@@ -57198,7 +57212,7 @@
       </c>
     </row>
     <row r="332" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B332" s="167" t="s">
+      <c r="B332" s="166" t="s">
         <v>203</v>
       </c>
       <c r="C332" s="12" t="s">
@@ -57237,7 +57251,7 @@
       </c>
     </row>
     <row r="335" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B335" s="164" t="s">
+      <c r="B335" s="163" t="s">
         <v>65</v>
       </c>
       <c r="C335" s="12" t="s">
@@ -57290,7 +57304,7 @@
       </c>
     </row>
     <row r="339" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B339" s="164" t="s">
+      <c r="B339" s="163" t="s">
         <v>60</v>
       </c>
       <c r="C339" s="12" t="s">
@@ -57301,7 +57315,7 @@
       </c>
     </row>
     <row r="340" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B340" s="172" t="s">
+      <c r="B340" s="171" t="s">
         <v>60</v>
       </c>
       <c r="C340" s="12" t="s">
@@ -57312,7 +57326,7 @@
       </c>
     </row>
     <row r="341" spans="1:4" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="B341" s="173" t="s">
+      <c r="B341" s="172" t="s">
         <v>60</v>
       </c>
       <c r="C341" s="12" t="s">
@@ -57379,7 +57393,7 @@
       </c>
     </row>
     <row r="346" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B346" s="167" t="s">
+      <c r="B346" s="166" t="s">
         <v>812</v>
       </c>
       <c r="C346" s="12" t="s">
@@ -57390,7 +57404,7 @@
       </c>
     </row>
     <row r="347" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B347" s="167" t="s">
+      <c r="B347" s="166" t="s">
         <v>812</v>
       </c>
       <c r="C347" s="12" t="s">
@@ -57485,7 +57499,7 @@
       </c>
     </row>
     <row r="354" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B354" s="164" t="s">
+      <c r="B354" s="163" t="s">
         <v>425</v>
       </c>
       <c r="C354" s="12" t="s">
@@ -57496,7 +57510,7 @@
       </c>
     </row>
     <row r="355" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B355" s="164" t="s">
+      <c r="B355" s="163" t="s">
         <v>425</v>
       </c>
       <c r="C355" s="12" t="s">
@@ -57507,7 +57521,7 @@
       </c>
     </row>
     <row r="356" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B356" s="167" t="s">
+      <c r="B356" s="166" t="s">
         <v>813</v>
       </c>
       <c r="C356" s="12" t="s">
@@ -57714,7 +57728,7 @@
       </c>
     </row>
     <row r="371" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="B371" s="165" t="s">
+      <c r="B371" s="164" t="s">
         <v>115</v>
       </c>
       <c r="C371" s="12" t="s">
@@ -57725,7 +57739,7 @@
       </c>
     </row>
     <row r="372" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B372" s="167" t="s">
+      <c r="B372" s="166" t="s">
         <v>613</v>
       </c>
       <c r="C372" s="12" t="s">
@@ -57736,7 +57750,7 @@
       </c>
     </row>
     <row r="373" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B373" s="167" t="s">
+      <c r="B373" s="166" t="s">
         <v>613</v>
       </c>
       <c r="C373" s="12" t="s">
@@ -57747,7 +57761,7 @@
       </c>
     </row>
     <row r="374" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="B374" s="167" t="s">
+      <c r="B374" s="166" t="s">
         <v>613</v>
       </c>
       <c r="C374" s="12" t="s">
@@ -57786,7 +57800,7 @@
       </c>
     </row>
     <row r="377" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B377" s="164" t="s">
+      <c r="B377" s="163" t="s">
         <v>66</v>
       </c>
       <c r="C377" s="12" t="s">
@@ -57881,7 +57895,7 @@
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B384" s="164" t="s">
+      <c r="B384" s="163" t="s">
         <v>426</v>
       </c>
       <c r="C384" s="12" t="s">
@@ -57934,7 +57948,7 @@
       </c>
     </row>
     <row r="388" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B388" s="164" t="s">
+      <c r="B388" s="163" t="s">
         <v>427</v>
       </c>
       <c r="C388" s="12" t="s">
@@ -57959,7 +57973,7 @@
       </c>
     </row>
     <row r="390" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B390" s="164" t="s">
+      <c r="B390" s="163" t="s">
         <v>57</v>
       </c>
       <c r="C390" s="12" t="s">
@@ -57970,7 +57984,7 @@
       </c>
     </row>
     <row r="391" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B391" s="167" t="s">
+      <c r="B391" s="166" t="s">
         <v>653</v>
       </c>
       <c r="C391" s="12" t="s">
@@ -58051,7 +58065,7 @@
       </c>
     </row>
     <row r="397" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B397" s="164" t="s">
+      <c r="B397" s="163" t="s">
         <v>428</v>
       </c>
       <c r="C397" s="12" t="s">
@@ -58062,7 +58076,7 @@
       </c>
     </row>
     <row r="398" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B398" s="164" t="s">
+      <c r="B398" s="163" t="s">
         <v>428</v>
       </c>
       <c r="C398" s="12" t="s">
@@ -58115,7 +58129,7 @@
       </c>
     </row>
     <row r="402" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="167" t="s">
+      <c r="B402" s="166" t="s">
         <v>614</v>
       </c>
       <c r="C402" s="12" t="s">
@@ -58224,7 +58238,7 @@
       </c>
     </row>
     <row r="410" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B410" s="164" t="s">
+      <c r="B410" s="163" t="s">
         <v>785</v>
       </c>
       <c r="C410" s="12" t="s">
@@ -58291,7 +58305,7 @@
       </c>
     </row>
     <row r="415" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B415" s="164" t="s">
+      <c r="B415" s="163" t="s">
         <v>429</v>
       </c>
       <c r="C415" s="12" t="s">
@@ -58330,7 +58344,7 @@
       </c>
     </row>
     <row r="418" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B418" s="167" t="s">
+      <c r="B418" s="166" t="s">
         <v>814</v>
       </c>
       <c r="C418" s="12" t="s">
@@ -58369,7 +58383,7 @@
       </c>
     </row>
     <row r="421" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B421" s="164" t="s">
+      <c r="B421" s="163" t="s">
         <v>751</v>
       </c>
       <c r="C421" s="12" t="s">
@@ -58506,7 +58520,7 @@
       </c>
     </row>
     <row r="431" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B431" s="174" t="s">
+      <c r="B431" s="173" t="s">
         <v>61</v>
       </c>
       <c r="C431" s="12" t="s">
@@ -58517,7 +58531,7 @@
       </c>
     </row>
     <row r="432" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B432" s="175" t="s">
+      <c r="B432" s="174" t="s">
         <v>61</v>
       </c>
       <c r="C432" s="12" t="s">
@@ -58528,7 +58542,7 @@
       </c>
     </row>
     <row r="433" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B433" s="167" t="s">
+      <c r="B433" s="166" t="s">
         <v>221</v>
       </c>
       <c r="C433" s="12" t="s">
@@ -58553,7 +58567,7 @@
       </c>
     </row>
     <row r="435" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B435" s="176" t="s">
+      <c r="B435" s="175" t="s">
         <v>220</v>
       </c>
       <c r="C435" s="12" t="s">
@@ -58704,7 +58718,7 @@
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B446" s="167" t="s">
+      <c r="B446" s="166" t="s">
         <v>815</v>
       </c>
       <c r="C446" s="12" t="s">
@@ -58827,7 +58841,7 @@
       </c>
     </row>
     <row r="455" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B455" s="167" t="s">
+      <c r="B455" s="166" t="s">
         <v>224</v>
       </c>
       <c r="C455" s="12" t="s">
@@ -58855,7 +58869,7 @@
       <c r="A457">
         <v>303</v>
       </c>
-      <c r="B457" s="162" t="s">
+      <c r="B457" s="161" t="s">
         <v>1350</v>
       </c>
       <c r="C457" s="12" t="s">
@@ -58908,7 +58922,7 @@
       </c>
     </row>
     <row r="461" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B461" s="164" t="s">
+      <c r="B461" s="163" t="s">
         <v>77</v>
       </c>
       <c r="C461" s="12" t="s">
@@ -58919,7 +58933,7 @@
       </c>
     </row>
     <row r="462" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B462" s="167" t="s">
+      <c r="B462" s="166" t="s">
         <v>666</v>
       </c>
       <c r="C462" s="12" t="s">
@@ -58958,7 +58972,7 @@
       </c>
     </row>
     <row r="465" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B465" s="164" t="s">
+      <c r="B465" s="163" t="s">
         <v>64</v>
       </c>
       <c r="C465" s="12" t="s">
@@ -58969,7 +58983,7 @@
       </c>
     </row>
     <row r="466" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B466" s="164" t="s">
+      <c r="B466" s="163" t="s">
         <v>64</v>
       </c>
       <c r="C466" s="12" t="s">
@@ -59008,7 +59022,7 @@
       </c>
     </row>
     <row r="469" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B469" s="167" t="s">
+      <c r="B469" s="166" t="s">
         <v>615</v>
       </c>
       <c r="C469" s="12" t="s">
@@ -59019,7 +59033,7 @@
       </c>
     </row>
     <row r="470" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B470" s="164" t="s">
+      <c r="B470" s="163" t="s">
         <v>473</v>
       </c>
       <c r="C470" s="12" t="s">
@@ -59044,7 +59058,7 @@
       </c>
     </row>
     <row r="472" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B472" s="164" t="s">
+      <c r="B472" s="163" t="s">
         <v>56</v>
       </c>
       <c r="C472" s="12" t="s">
@@ -59069,7 +59083,7 @@
       </c>
     </row>
     <row r="474" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B474" s="164" t="s">
+      <c r="B474" s="163" t="s">
         <v>430</v>
       </c>
       <c r="C474" s="12" t="s">
@@ -59080,7 +59094,7 @@
       </c>
     </row>
     <row r="475" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B475" s="165" t="s">
+      <c r="B475" s="164" t="s">
         <v>116</v>
       </c>
       <c r="C475" s="12" t="s">
@@ -59091,7 +59105,7 @@
       </c>
     </row>
     <row r="476" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B476" s="165" t="s">
+      <c r="B476" s="164" t="s">
         <v>116</v>
       </c>
       <c r="C476" s="12" t="s">
@@ -59102,7 +59116,7 @@
       </c>
     </row>
     <row r="477" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B477" s="166" t="s">
+      <c r="B477" s="165" t="s">
         <v>431</v>
       </c>
       <c r="C477" s="12" t="s">
@@ -59113,7 +59127,7 @@
       </c>
     </row>
     <row r="478" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B478" s="167" t="s">
+      <c r="B478" s="166" t="s">
         <v>432</v>
       </c>
       <c r="C478" s="12" t="s">
@@ -59124,7 +59138,7 @@
       </c>
     </row>
     <row r="479" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B479" s="167" t="s">
+      <c r="B479" s="166" t="s">
         <v>667</v>
       </c>
       <c r="C479" s="12" t="s">
@@ -59163,7 +59177,7 @@
       </c>
     </row>
     <row r="482" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B482" s="164" t="s">
+      <c r="B482" s="163" t="s">
         <v>433</v>
       </c>
       <c r="C482" s="12" t="s">
@@ -59174,7 +59188,7 @@
       </c>
     </row>
     <row r="483" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B483" s="164" t="s">
+      <c r="B483" s="163" t="s">
         <v>433</v>
       </c>
       <c r="C483" s="12" t="s">
@@ -59199,7 +59213,7 @@
       </c>
     </row>
     <row r="485" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B485" s="164" t="s">
+      <c r="B485" s="163" t="s">
         <v>434</v>
       </c>
       <c r="C485" s="12" t="s">
@@ -59210,7 +59224,7 @@
       </c>
     </row>
     <row r="486" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B486" s="165" t="s">
+      <c r="B486" s="164" t="s">
         <v>117</v>
       </c>
       <c r="C486" s="12" t="s">
@@ -59221,7 +59235,7 @@
       </c>
     </row>
     <row r="487" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B487" s="165" t="s">
+      <c r="B487" s="164" t="s">
         <v>117</v>
       </c>
       <c r="C487" s="12" t="s">
@@ -59274,7 +59288,7 @@
       </c>
     </row>
     <row r="491" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B491" s="165" t="s">
+      <c r="B491" s="164" t="s">
         <v>230</v>
       </c>
       <c r="C491" s="12" t="s">
@@ -59299,7 +59313,7 @@
       </c>
     </row>
     <row r="493" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B493" s="167" t="s">
+      <c r="B493" s="166" t="s">
         <v>616</v>
       </c>
       <c r="C493" s="12" t="s">
@@ -59310,7 +59324,7 @@
       </c>
     </row>
     <row r="494" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B494" s="167" t="s">
+      <c r="B494" s="166" t="s">
         <v>616</v>
       </c>
       <c r="C494" s="12" t="s">
@@ -59377,7 +59391,7 @@
       </c>
     </row>
     <row r="499" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B499" s="167" t="s">
+      <c r="B499" s="166" t="s">
         <v>816</v>
       </c>
       <c r="C499" s="12" t="s">
@@ -59402,7 +59416,7 @@
       </c>
     </row>
     <row r="501" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B501" s="167" t="s">
+      <c r="B501" s="166" t="s">
         <v>617</v>
       </c>
       <c r="C501" s="12" t="s">
@@ -59427,7 +59441,7 @@
       </c>
     </row>
     <row r="503" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B503" s="167" t="s">
+      <c r="B503" s="166" t="s">
         <v>242</v>
       </c>
       <c r="C503" s="12" t="s">
@@ -59522,7 +59536,7 @@
       </c>
     </row>
     <row r="510" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B510" s="164" t="s">
+      <c r="B510" s="163" t="s">
         <v>80</v>
       </c>
       <c r="C510" s="12" t="s">
@@ -59561,7 +59575,7 @@
       </c>
     </row>
     <row r="513" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B513" s="167" t="s">
+      <c r="B513" s="166" t="s">
         <v>817</v>
       </c>
       <c r="C513" s="12" t="s">
@@ -59572,7 +59586,7 @@
       </c>
     </row>
     <row r="514" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B514" s="167" t="s">
+      <c r="B514" s="166" t="s">
         <v>817</v>
       </c>
       <c r="C514" s="12" t="s">
@@ -59583,7 +59597,7 @@
       </c>
     </row>
     <row r="515" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B515" s="167" t="s">
+      <c r="B515" s="166" t="s">
         <v>817</v>
       </c>
       <c r="C515" s="12" t="s">
@@ -59622,7 +59636,7 @@
       </c>
     </row>
     <row r="518" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B518" s="165" t="s">
+      <c r="B518" s="164" t="s">
         <v>118</v>
       </c>
       <c r="C518" s="12" t="s">
@@ -59650,7 +59664,7 @@
       <c r="A520">
         <v>337</v>
       </c>
-      <c r="B520" s="163" t="s">
+      <c r="B520" s="162" t="s">
         <v>134</v>
       </c>
       <c r="C520" s="12" t="s">
@@ -59661,7 +59675,7 @@
       </c>
     </row>
     <row r="521" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B521" s="177" t="s">
+      <c r="B521" s="176" t="s">
         <v>475</v>
       </c>
       <c r="C521" s="12" t="s">
@@ -59672,7 +59686,7 @@
       </c>
     </row>
     <row r="522" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="B522" s="178" t="s">
+      <c r="B522" s="177" t="s">
         <v>262</v>
       </c>
       <c r="C522" s="12" t="s">
@@ -59728,7 +59742,7 @@
       <c r="A526">
         <v>341</v>
       </c>
-      <c r="B526" s="163" t="s">
+      <c r="B526" s="162" t="s">
         <v>137</v>
       </c>
       <c r="C526" s="12" t="s">
@@ -65056,8 +65070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67620,7 +67634,7 @@
       </c>
     </row>
     <row r="117" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="45">
+      <c r="A117" s="56">
         <v>115</v>
       </c>
       <c r="B117" s="49" t="s">
@@ -67630,11 +67644,15 @@
         <v>282</v>
       </c>
       <c r="D117" s="45"/>
-      <c r="E117" s="45" t="s">
-        <v>479</v>
-      </c>
-      <c r="F117" s="41"/>
-      <c r="G117" s="45"/>
+      <c r="E117" s="44" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F117" s="63" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G117" s="59" t="s">
+        <v>1390</v>
+      </c>
     </row>
     <row r="118" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A118" s="45">
@@ -67704,7 +67722,7 @@
       <c r="F121" s="41"/>
       <c r="G121" s="45"/>
     </row>
-    <row r="122" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="109"/>
       <c r="B122" s="130" t="s">
         <v>55</v>
@@ -67809,7 +67827,7 @@
       <c r="F128" s="41"/>
       <c r="G128" s="45"/>
     </row>
-    <row r="129" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A129" s="45"/>
       <c r="B129" s="49" t="s">
         <v>939</v>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Vasilev\SkyDrive\R\reading_sounds\Literature_search\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7455" tabRatio="987" activeTab="8"/>
   </bookViews>
@@ -34,7 +39,7 @@
     <author>Martin,Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D67" authorId="0">
+    <comment ref="D67" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +99,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0">
+    <comment ref="F9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0">
+    <comment ref="F12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0">
+    <comment ref="G21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0">
+    <comment ref="G22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -219,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G41" authorId="0">
+    <comment ref="G41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G60" authorId="0">
+    <comment ref="G60" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="0">
+    <comment ref="B62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -296,7 +301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F63" authorId="0">
+    <comment ref="F63" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -320,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="0">
+    <comment ref="B67" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B68" authorId="0">
+    <comment ref="B68" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -370,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D69" authorId="0">
+    <comment ref="D69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -394,7 +399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G69" authorId="0">
+    <comment ref="G69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -418,7 +423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G70" authorId="0">
+    <comment ref="G70" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -443,7 +448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G71" authorId="0">
+    <comment ref="G71" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -468,7 +473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D72" authorId="0">
+    <comment ref="D72" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F73" authorId="0">
+    <comment ref="F73" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -516,7 +521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F77" authorId="0">
+    <comment ref="F77" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -541,7 +546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D79" authorId="0">
+    <comment ref="D79" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -565,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B84" authorId="0">
+    <comment ref="B84" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -589,7 +594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F93" authorId="0">
+    <comment ref="F93" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -613,7 +618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F94" authorId="0">
+    <comment ref="F94" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -637,7 +642,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G110" authorId="1">
+    <comment ref="G110" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -661,7 +666,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F113" authorId="1">
+    <comment ref="F113" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -685,7 +690,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F115" authorId="0">
+    <comment ref="F115" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -709,7 +714,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G116" authorId="0">
+    <comment ref="G116" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -734,7 +739,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G117" authorId="0">
+    <comment ref="G117" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -769,7 +774,7 @@
     <author>Martin,Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="D175" authorId="0">
+    <comment ref="D175" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -803,7 +808,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B73" authorId="0">
+    <comment ref="B73" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -833,7 +838,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5181" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5185" uniqueCount="1395">
   <si>
     <t>ID</t>
   </si>
@@ -38882,11 +38887,20 @@
   <si>
     <t>Studied the effect of noise (due to poor building acoustics) on pre-reading skills in kindergarden children</t>
   </si>
+  <si>
+    <t>intervention/ field study</t>
+  </si>
+  <si>
+    <t>Only qualitative description of results, no results of any sort are reported</t>
+  </si>
+  <si>
+    <t>case of dissimination bias</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="67" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -40371,7 +40385,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -65070,8 +65084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67643,7 +67657,9 @@
       <c r="C117" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="D117" s="45"/>
+      <c r="D117" s="45" t="s">
+        <v>1392</v>
+      </c>
       <c r="E117" s="44" t="s">
         <v>1131</v>
       </c>
@@ -67654,57 +67670,63 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A118" s="45">
+    <row r="118" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A118" s="56">
         <v>116</v>
       </c>
-      <c r="B118" s="135" t="s">
-        <v>1063</v>
+      <c r="B118" s="145" t="s">
+        <v>899</v>
       </c>
       <c r="C118" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="D118" s="45"/>
-      <c r="E118" s="45" t="s">
-        <v>479</v>
-      </c>
-      <c r="F118" s="41"/>
-      <c r="G118" s="45"/>
+      <c r="D118" s="59" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E118" s="44" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F118" s="63" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G118" s="59" t="s">
+        <v>1393</v>
+      </c>
     </row>
     <row r="119" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="45">
         <v>117</v>
       </c>
-      <c r="B119" s="132" t="s">
-        <v>894</v>
+      <c r="B119" s="133" t="s">
+        <v>81</v>
       </c>
       <c r="C119" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="D119" s="45" t="s">
-        <v>845</v>
-      </c>
+      <c r="D119" s="45"/>
       <c r="E119" s="45" t="s">
         <v>479</v>
       </c>
-      <c r="F119" s="63" t="s">
-        <v>1387</v>
-      </c>
+      <c r="F119" s="41"/>
       <c r="G119" s="45"/>
     </row>
     <row r="120" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="45"/>
-      <c r="B120" s="138" t="s">
-        <v>899</v>
+      <c r="B120" s="132" t="s">
+        <v>894</v>
       </c>
       <c r="C120" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="D120" s="45"/>
+      <c r="D120" s="45" t="s">
+        <v>845</v>
+      </c>
       <c r="E120" s="45" t="s">
         <v>479</v>
       </c>
-      <c r="F120" s="41"/>
+      <c r="F120" s="63" t="s">
+        <v>1387</v>
+      </c>
       <c r="G120" s="45"/>
     </row>
     <row r="121" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -67754,8 +67776,8 @@
     </row>
     <row r="124" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="45"/>
-      <c r="B124" s="133" t="s">
-        <v>81</v>
+      <c r="B124" s="138" t="s">
+        <v>932</v>
       </c>
       <c r="C124" s="45" t="s">
         <v>282</v>
@@ -67769,8 +67791,8 @@
     </row>
     <row r="125" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="45"/>
-      <c r="B125" s="138" t="s">
-        <v>932</v>
+      <c r="B125" s="49" t="s">
+        <v>936</v>
       </c>
       <c r="C125" s="45" t="s">
         <v>282</v>
@@ -67784,8 +67806,8 @@
     </row>
     <row r="126" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="45"/>
-      <c r="B126" s="49" t="s">
-        <v>936</v>
+      <c r="B126" s="138" t="s">
+        <v>937</v>
       </c>
       <c r="C126" s="45" t="s">
         <v>282</v>
@@ -67799,8 +67821,8 @@
     </row>
     <row r="127" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="45"/>
-      <c r="B127" s="138" t="s">
-        <v>937</v>
+      <c r="B127" s="49" t="s">
+        <v>938</v>
       </c>
       <c r="C127" s="45" t="s">
         <v>282</v>
@@ -67815,7 +67837,7 @@
     <row r="128" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="45"/>
       <c r="B128" s="49" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C128" s="45" t="s">
         <v>282</v>
@@ -67829,8 +67851,8 @@
     </row>
     <row r="129" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A129" s="45"/>
-      <c r="B129" s="49" t="s">
-        <v>939</v>
+      <c r="B129" s="133" t="s">
+        <v>956</v>
       </c>
       <c r="C129" s="45" t="s">
         <v>282</v>
@@ -67844,8 +67866,8 @@
     </row>
     <row r="130" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="45"/>
-      <c r="B130" s="133" t="s">
-        <v>956</v>
+      <c r="B130" s="138" t="s">
+        <v>989</v>
       </c>
       <c r="C130" s="45" t="s">
         <v>282</v>
@@ -67859,8 +67881,8 @@
     </row>
     <row r="131" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="45"/>
-      <c r="B131" s="138" t="s">
-        <v>989</v>
+      <c r="B131" s="49" t="s">
+        <v>139</v>
       </c>
       <c r="C131" s="45" t="s">
         <v>282</v>
@@ -67874,8 +67896,8 @@
     </row>
     <row r="132" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="45"/>
-      <c r="B132" s="49" t="s">
-        <v>139</v>
+      <c r="B132" s="133" t="s">
+        <v>58</v>
       </c>
       <c r="C132" s="45" t="s">
         <v>282</v>
@@ -67889,8 +67911,8 @@
     </row>
     <row r="133" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="45"/>
-      <c r="B133" s="133" t="s">
-        <v>58</v>
+      <c r="B133" s="49" t="s">
+        <v>1051</v>
       </c>
       <c r="C133" s="45" t="s">
         <v>282</v>
@@ -67904,8 +67926,8 @@
     </row>
     <row r="134" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A134" s="45"/>
-      <c r="B134" s="49" t="s">
-        <v>1051</v>
+      <c r="B134" s="135" t="s">
+        <v>1063</v>
       </c>
       <c r="C134" s="45" t="s">
         <v>282</v>

--- a/Literature_search/database.xlsx
+++ b/Literature_search/database.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Vasilev\SkyDrive\R\reading_sounds\Literature_search\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7455" tabRatio="987" activeTab="8"/>
   </bookViews>
@@ -39,7 +34,7 @@
     <author>Martin,Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D67" authorId="0" shapeId="0">
+    <comment ref="D67" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +94,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0">
+    <comment ref="F9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" shapeId="0">
+    <comment ref="F12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0" shapeId="0">
+    <comment ref="G21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -196,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0" shapeId="0">
+    <comment ref="G22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G41" authorId="0" shapeId="0">
+    <comment ref="G41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -249,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G60" authorId="0" shapeId="0">
+    <comment ref="G60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -276,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="0" shapeId="0">
+    <comment ref="B62" authorId="0">
       <text>
         <r>
           <rPr>
@@ -301,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F63" authorId="0" shapeId="0">
+    <comment ref="F63" authorId="0">
       <text>
         <r>
           <rPr>
@@ -325,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="0" shapeId="0">
+    <comment ref="B67" authorId="0">
       <text>
         <r>
           <rPr>
@@ -350,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B68" authorId="0" shapeId="0">
+    <comment ref="B68" authorId="0">
       <text>
         <r>
           <rPr>
@@ -375,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D69" authorId="0" shapeId="0">
+    <comment ref="D69" authorId="0">
       <text>
         <r>
           <rPr>
@@ -399,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G69" authorId="0" shapeId="0">
+    <comment ref="G69" authorId="0">
       <text>
         <r>
           <rPr>
@@ -423,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G70" authorId="0" shapeId="0">
+    <comment ref="G70" authorId="0">
       <text>
         <r>
           <rPr>
@@ -448,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G71" authorId="0" shapeId="0">
+    <comment ref="G71" authorId="0">
       <text>
         <r>
           <rPr>
@@ -473,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D72" authorId="0" shapeId="0">
+    <comment ref="D72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -497,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F73" authorId="0" shapeId="0">
+    <comment ref="F73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -521,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F77" authorId="0" shapeId="0">
+    <comment ref="F77" authorId="0">
       <text>
         <r>
           <rPr>
@@ -546,7 +541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D79" authorId="0" shapeId="0">
+    <comment ref="D79" authorId="0">
       <text>
         <r>
           <rPr>
@@ -570,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B84" authorId="0" shapeId="0">
+    <comment ref="B84" authorId="0">
       <text>
         <r>
           <rPr>
@@ -594,7 +589,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F93" authorId="0" shapeId="0">
+    <comment ref="F93" authorId="0">
       <text>
         <r>
           <rPr>
@@ -618,7 +613,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F94" authorId="0" shapeId="0">
+    <comment ref="F94" authorId="0">
       <text>
         <r>
           <rPr>
@@ -642,7 +637,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G110" authorId="1" shapeId="0">
+    <comment ref="G110" authorId="1">
       <text>
         <r>
           <rPr>
@@ -666,7 +661,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F113" authorId="1" shapeId="0">
+    <comment ref="F113" authorId="1">
       <text>
         <r>
           <rPr>
@@ -690,7 +685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F115" authorId="0" shapeId="0">
+    <comment ref="F115" authorId="0">
       <text>
         <r>
           <rPr>
@@ -714,7 +709,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G116" authorId="0" shapeId="0">
+    <comment ref="G116" authorId="0">
       <text>
         <r>
           <rPr>
@@ -739,7 +734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G117" authorId="0" shapeId="0">
+    <comment ref="G117" authorId="0">
       <text>
         <r>
           <rPr>
@@ -764,6 +759,107 @@
         </r>
       </text>
     </comment>
+    <comment ref="F119" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+There is no description of the reading test, therefore it's difficult to know what the word recognition test was</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G120" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Authors report means/ test statistics only for the subset of items that yeilded significant results. This will bias any effect size that is computed for this study. 
+As a comparison, # 117 reported the means for the whole reading test. Even though this study used the exact same reading test, the authors report results for only what effects came out to be significant. This is a selective reporting that is problematic for any meta-analysis.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G121" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+at least a few methodological issues that compromise the study's results:
+- about a quarter of children changed classrooms, which means they were likely to have been exposed to different levels of noise
+- nothing is known about the ("quiet") side of the school: how much quieter actually it was? It's difficult to know how much of a difference can be expected without sound level measurements at both sides and/ or knowledge about the acoustics of the building.
+- there is no information about the socioeconomic status, etc.  
+For this reason, the study should only likely be used for the prior probability</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F122" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin,Vasilev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+The scores after the intervention are not taken into account (see inclusion criteria for the meta-analysis).</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -774,7 +870,7 @@
     <author>Martin,Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="D175" authorId="0" shapeId="0">
+    <comment ref="D175" authorId="0">
       <text>
         <r>
           <rPr>
@@ -808,7 +904,7 @@
     <author>Martin R. Vasilev</author>
   </authors>
   <commentList>
-    <comment ref="B73" authorId="0" shapeId="0">
+    <comment ref="B73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -838,7 +934,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5185" uniqueCount="1395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5214" uniqueCount="1401">
   <si>
     <t>ID</t>
   </si>
@@ -38849,9 +38945,6 @@
     </r>
   </si>
   <si>
-    <t>new york train study missing? Compare with table</t>
-  </si>
-  <si>
     <t>the two groups were matched on socio-economic status gender, and intellectual ability</t>
   </si>
   <si>
@@ -38891,16 +38984,37 @@
     <t>intervention/ field study</t>
   </si>
   <si>
-    <t>Only qualitative description of results, no results of any sort are reported</t>
-  </si>
-  <si>
     <t>case of dissimination bias</t>
+  </si>
+  <si>
+    <t>Only qualitative description of results, no results of any sort are reported; impossible to calculate ES</t>
+  </si>
+  <si>
+    <t>size of 2 groups not reported; I divide the whole N by 2; only text subscale is taken bacause it's more relevant to meta-analysis</t>
+  </si>
+  <si>
+    <t>propective study of a switch-over between two airports</t>
+  </si>
+  <si>
+    <t>otherwise eligible for inclusion, but suffers from reporting bias (see comment)</t>
+  </si>
+  <si>
+    <t>field study; sample sizes not reported for the two groups; Total N is divided by 2</t>
+  </si>
+  <si>
+    <t>N/A (some methodological problems; see comment; added to prior)</t>
+  </si>
+  <si>
+    <t>field study; I take the 1978 norms, which reflect scores before sound abatement program</t>
+  </si>
+  <si>
+    <t>N/A (added to prior for the same reasons as # 119)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="67" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -39538,7 +39652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" b